--- a/2018/CRM/03_DetailDesign/CRMF2082_Xem chi tiet yeu cau.xlsx
+++ b/2018/CRM/03_DetailDesign/CRMF2082_Xem chi tiet yeu cau.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ASOFT_ERP9\10_DOCUMENT\13_DETAIL_DESIGN\1.STANDARD\ASOFT_CRM\03_DetailDesign\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\01.CRM\1_Tài liệu phân tích_Yêu cầu\03_DetailDesign\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="15480" windowHeight="9990" tabRatio="836" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="15480" windowHeight="9990" tabRatio="836" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Coverpage" sheetId="20" r:id="rId1"/>
@@ -43,13 +43,13 @@
     <definedName name="NOTNULL">#REF!</definedName>
     <definedName name="OLE_LINK1" localSheetId="10">'Code Standar'!$B$2</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Coverpage!$A$1:$J$31</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">'Data Definition'!$A$1:$J$15</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">'Data Definition'!$A$1:$J$14</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">'Data Input'!$A$1:$O$34</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="7">'Form Func Spec'!$A$1:$J$115</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="8">'Func Spec'!$A$1:$J$21</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="9">Help!$A$1:$K$62</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'Input Check'!$A$1:$I$14</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'Item Screen'!$A$1:$O$47</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'Item Screen'!$A$1:$O$68</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'Layout Screen'!$A$1:$J$52</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Update History'!$A$1:$J$34</definedName>
     <definedName name="RB">#REF!</definedName>
@@ -1419,7 +1419,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="410">
   <si>
     <t>Detail Design</t>
   </si>
@@ -2055,9 +2055,6 @@
     <t>2.4</t>
   </si>
   <si>
-    <t>2.5</t>
-  </si>
-  <si>
     <t>2.6</t>
   </si>
   <si>
@@ -2259,9 +2256,6 @@
     <t>9</t>
   </si>
   <si>
-    <t>9.1</t>
-  </si>
-  <si>
     <t>Chủ đề</t>
   </si>
   <si>
@@ -2331,9 +2325,6 @@
     <t>6.5</t>
   </si>
   <si>
-    <t>7</t>
-  </si>
-  <si>
     <t>Hoạt động</t>
   </si>
   <si>
@@ -2364,9 +2355,6 @@
     <t>Thời gian ghi nhận</t>
   </si>
   <si>
-    <t>Thời gian kết thúc</t>
-  </si>
-  <si>
     <t>Phản hồi</t>
   </si>
   <si>
@@ -2397,15 +2385,9 @@
     <t>FeedbackDescription</t>
   </si>
   <si>
-    <t>2.7</t>
-  </si>
-  <si>
     <t>2.8</t>
   </si>
   <si>
-    <t>2.9</t>
-  </si>
-  <si>
     <t>2.10</t>
   </si>
   <si>
@@ -2434,17 +2416,6 @@
   </si>
   <si>
     <t>Xóa dữ liệu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EXEC CRMP20802 ( 
- @DivisionID varchar(50),
- @RequestID varchar(50),
- @RequestIDList NVARCHAR(MAX),
- @FormID nvarchar(50), 
- @Mode tinyint,   
- @IsDisable  tinyint,
- @UserID Varchar(50)
-) </t>
   </si>
   <si>
     <t xml:space="preserve"> @DivisionID 
@@ -2694,44 +2665,6 @@
     <t>Thực thi câu @SQL0011 nếu trả về lớn hơn 1 DivivsionID thì hiển thị  control [Đơn vị], ngược lại bằng 1 sẽ ẫn control [Đơn vị]</t>
   </si>
   <si>
-    <t xml:space="preserve">EXEC CRMP20801 ( 
-  @DivisionID VARCHAR(50),  
-  @DivisionIDList NVARCHAR(2000),     
-  @RequestSubject nvarchar(50),
-  @AccountID nvarchar(250),
-  @AssignedToUserID nvarchar(250),
-  @RequestStatus nvarchar(250),
-  @PriorityID nvarchar(100),
-  @UserID  VARCHAR(50),
-  @PageNumber INT,
-  @PageSize INT
-) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   @DivisionID   
-  @DivisionIDList      
-  @RequestSubject 
-  @AccountID 
-  @AssignedToUserID 
-  @RequestStatus 
-  @PriorityID 
-  @UserID  
-  @PageNumber 
-  @PageSize </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Biến môi trường   
-  @DivisionIDList      
-  @RequestSubject 
-  @AccountID 
-  @AssignedToUserID 
-  @RequestStatus 
-  @PriorityID 
-  Biến môi trường  
-  @PageNumber 
-  @PageSize </t>
-  </si>
-  <si>
     <t xml:space="preserve">Luồng 9 </t>
   </si>
   <si>
@@ -2860,6 +2793,227 @@
 Inner join CRMT90031 B WITH (NOLOCK) on A.NotesID = B.NotesID
 Where A.RelatedToID =@RelatedToID and A.RelatedToTypeID_REL = @RelatedToTypeID_REL
 Order By A.CreateDate desc</t>
+  </si>
+  <si>
+    <t>2.15</t>
+  </si>
+  <si>
+    <t>2.14</t>
+  </si>
+  <si>
+    <t>Tấn Đạt</t>
+  </si>
+  <si>
+    <t>26/01/2018</t>
+  </si>
+  <si>
+    <t>Loại yêu cầu</t>
+  </si>
+  <si>
+    <t>RequestTypeID</t>
+  </si>
+  <si>
+    <t>Dự án</t>
+  </si>
+  <si>
+    <t>ProjectID</t>
+  </si>
+  <si>
+    <t>Ver 5.0</t>
+  </si>
+  <si>
+    <t>Deadline mong muốn</t>
+  </si>
+  <si>
+    <t>DeadlineExpect</t>
+  </si>
+  <si>
+    <t>Deadline xử lý</t>
+  </si>
+  <si>
+    <t>Deadline thực tế hoàn thành</t>
+  </si>
+  <si>
+    <t>CompleteDate</t>
+  </si>
+  <si>
+    <t>Số giờ cho phép</t>
+  </si>
+  <si>
+    <t>Số giờ thực tế</t>
+  </si>
+  <si>
+    <t>DurationTime</t>
+  </si>
+  <si>
+    <t>RealTime</t>
+  </si>
+  <si>
+    <t>DateTimePicker</t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>11.1</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Tab Chi tiết xử lý công việc</t>
+  </si>
+  <si>
+    <t>Orders</t>
+  </si>
+  <si>
+    <t>3.1</t>
+  </si>
+  <si>
+    <t>3.2</t>
+  </si>
+  <si>
+    <t>3.3</t>
+  </si>
+  <si>
+    <t>3.4</t>
+  </si>
+  <si>
+    <t>Người xử lý</t>
+  </si>
+  <si>
+    <t>AssignedUserID</t>
+  </si>
+  <si>
+    <t>3.5</t>
+  </si>
+  <si>
+    <t>Ngày thực tế xử lý</t>
+  </si>
+  <si>
+    <t>RealDate</t>
+  </si>
+  <si>
+    <t>Số giờ thực tế thực hiện</t>
+  </si>
+  <si>
+    <t>WorlTime</t>
+  </si>
+  <si>
+    <t>Người theo dõi</t>
+  </si>
+  <si>
+    <t>Tab Người theo dõi</t>
+  </si>
+  <si>
+    <t>Số lượng</t>
+  </si>
+  <si>
+    <t>FollowerID</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>3.6</t>
+  </si>
+  <si>
+    <t>3.7</t>
+  </si>
+  <si>
+    <t>Xoá</t>
+  </si>
+  <si>
+    <t>btnChoose</t>
+  </si>
+  <si>
+    <t>btnDelete</t>
+  </si>
+  <si>
+    <t>8.1</t>
+  </si>
+  <si>
+    <t>8.2</t>
+  </si>
+  <si>
+    <t>Click btnChoose:
+Truyền tham số @DivisionID để gọi đến màn hình CRMF2083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EXEC CRMP20802 ( 
+ @DivisionID varchar(50),
+ @RequestID varchar(50),
+ @RequestIDList NVARCHAR(MAX),
+ @FormID nvarchar(50), 
+ @Mode tinyint,   
+ @IsDisable  tinyint,
+ @UserID Varchar(50)
+) </t>
+  </si>
+  <si>
+    <t>Click btnChoose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EXEC CRMP20801 ( 
+  @DivisionID VARCHAR(50),  
+  @DivisionIDList NVARCHAR(2000),     
+  @RequestSubject nvarchar(50),
+  @AccountID nvarchar(250),
+  @AssignedToUserID nvarchar(250),
+  @RequestStatus nvarchar(250),
+  @PriorityID nvarchar(100),
+  @UserID  VARCHAR(50),
+  @PageNumber INT,
+  @PageSize INT,
+  @RequestTypeID nvarchar(250),
+  @DeadlineExpect VARCHAR(50), 
+  @CompleteDate VARCHAR(50),
+  @DurationTime VARCHAR(50), 
+  @RealTime VARCHAR(50)
+) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   @DivisionID   
+  @DivisionIDList      
+  @RequestSubject 
+  @AccountID 
+  @AssignedToUserID 
+  @RequestStatus 
+  @PriorityID 
+  @UserID  
+  @PageNumber 
+  @PageSize 
+  @RequestTypeID 
+  @DeadlineExpect 
+  @CompleteDate 
+  @DurationTime 
+  @RealTime</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Biến môi trường   
+  @DivisionIDList      
+  @RequestSubject 
+  @AccountID 
+  @AssignedToUserID 
+  @RequestStatus 
+  @PriorityID 
+  Biến môi trường  
+  @PageNumber 
+  @PageSize 
+  @RequestTypeID 
+  @DeadlineExpect 
+  @CompleteDate 
+  @DurationTime 
+  @RealTime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bổ sung các trường: Loại yêu cầu, Dự án, Deadline mong muốn, Deadline thực tế hoàn thành, Số giờ cho phép, Số giờ thực tế, </t>
   </si>
 </sst>
 </file>
@@ -3389,7 +3543,7 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="270">
+  <cellXfs count="309">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3675,9 +3829,6 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3692,9 +3843,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3756,12 +3904,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -3802,6 +3944,113 @@
     <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="11" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3889,6 +4138,24 @@
     <xf numFmtId="0" fontId="11" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3961,20 +4228,11 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4000,6 +4258,54 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -4018,36 +4324,6 @@
     <xf numFmtId="14" fontId="11" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -4072,6 +4348,24 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -4086,33 +4380,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -4130,6 +4397,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF00FF00"/>
       <color rgb="FFFF00FF"/>
       <color rgb="FF00FFFF"/>
     </mruColors>
@@ -4203,13 +4471,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>11206</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>2675323</xdr:colOff>
       <xdr:row>51</xdr:row>
-      <xdr:rowOff>46724</xdr:rowOff>
+      <xdr:rowOff>57930</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4226,8 +4494,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="609600"/>
-          <a:ext cx="9619048" cy="7209524"/>
+          <a:off x="0" y="638735"/>
+          <a:ext cx="9634176" cy="7420195"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4240,14 +4508,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>35860</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>89</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>145117</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4264,12 +4532,67 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="7886700"/>
-          <a:ext cx="11782425" cy="5743575"/>
+          <a:off x="0" y="6154272"/>
+          <a:ext cx="11808759" cy="5913904"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>78442</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2700618</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>145117</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="1019736"/>
+          <a:ext cx="9659471" cy="7283263"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -7412,65 +7735,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="27" customHeight="1">
-      <c r="A1" s="177"/>
-      <c r="B1" s="177"/>
-      <c r="C1" s="179" t="s">
+      <c r="A1" s="210"/>
+      <c r="B1" s="210"/>
+      <c r="C1" s="212" t="s">
         <v>152</v>
       </c>
-      <c r="D1" s="180"/>
-      <c r="E1" s="180"/>
-      <c r="F1" s="181"/>
-      <c r="G1" s="178" t="s">
+      <c r="D1" s="213"/>
+      <c r="E1" s="213"/>
+      <c r="F1" s="214"/>
+      <c r="G1" s="211" t="s">
         <v>148</v>
       </c>
-      <c r="H1" s="178"/>
-      <c r="I1" s="178" t="s">
+      <c r="H1" s="211"/>
+      <c r="I1" s="211" t="s">
         <v>149</v>
       </c>
-      <c r="J1" s="178"/>
+      <c r="J1" s="211"/>
     </row>
     <row r="2" spans="1:18" ht="23.25" customHeight="1">
-      <c r="A2" s="177"/>
-      <c r="B2" s="177"/>
-      <c r="C2" s="182"/>
-      <c r="D2" s="183"/>
-      <c r="E2" s="183"/>
-      <c r="F2" s="184"/>
-      <c r="G2" s="178" t="s">
+      <c r="A2" s="210"/>
+      <c r="B2" s="210"/>
+      <c r="C2" s="215"/>
+      <c r="D2" s="216"/>
+      <c r="E2" s="216"/>
+      <c r="F2" s="217"/>
+      <c r="G2" s="211" t="s">
         <v>150</v>
       </c>
-      <c r="H2" s="178"/>
-      <c r="I2" s="178"/>
-      <c r="J2" s="178"/>
+      <c r="H2" s="211"/>
+      <c r="I2" s="211"/>
+      <c r="J2" s="211"/>
     </row>
     <row r="3" spans="1:18" ht="12.75" customHeight="1">
-      <c r="A3" s="177"/>
-      <c r="B3" s="177"/>
-      <c r="C3" s="185"/>
-      <c r="D3" s="186"/>
-      <c r="E3" s="186"/>
-      <c r="F3" s="187"/>
-      <c r="G3" s="174" t="s">
+      <c r="A3" s="210"/>
+      <c r="B3" s="210"/>
+      <c r="C3" s="218"/>
+      <c r="D3" s="219"/>
+      <c r="E3" s="219"/>
+      <c r="F3" s="220"/>
+      <c r="G3" s="207" t="s">
         <v>151</v>
       </c>
-      <c r="H3" s="175"/>
-      <c r="I3" s="174"/>
-      <c r="J3" s="175"/>
+      <c r="H3" s="208"/>
+      <c r="I3" s="207"/>
+      <c r="J3" s="208"/>
     </row>
     <row r="4" spans="1:18">
       <c r="H4" s="97"/>
     </row>
     <row r="13" spans="1:18" ht="30">
-      <c r="A13" s="176"/>
-      <c r="B13" s="176"/>
-      <c r="C13" s="176"/>
-      <c r="D13" s="176"/>
-      <c r="E13" s="176"/>
-      <c r="F13" s="176"/>
-      <c r="G13" s="176"/>
-      <c r="H13" s="176"/>
-      <c r="I13" s="176"/>
-      <c r="J13" s="176"/>
+      <c r="A13" s="209"/>
+      <c r="B13" s="209"/>
+      <c r="C13" s="209"/>
+      <c r="D13" s="209"/>
+      <c r="E13" s="209"/>
+      <c r="F13" s="209"/>
+      <c r="G13" s="209"/>
+      <c r="H13" s="209"/>
+      <c r="I13" s="209"/>
+      <c r="J13" s="209"/>
       <c r="K13" s="98"/>
       <c r="L13" s="98"/>
       <c r="M13" s="98"/>
@@ -7481,56 +7804,56 @@
       <c r="R13" s="98"/>
     </row>
     <row r="14" spans="1:18" ht="26.25">
-      <c r="B14" s="170"/>
-      <c r="C14" s="170"/>
-      <c r="D14" s="170"/>
-      <c r="E14" s="170"/>
-      <c r="F14" s="170"/>
-      <c r="G14" s="170"/>
-      <c r="H14" s="170"/>
-      <c r="I14" s="170"/>
-      <c r="J14" s="170"/>
-      <c r="K14" s="170"/>
-      <c r="L14" s="170"/>
-      <c r="M14" s="170"/>
-      <c r="N14" s="170"/>
-      <c r="O14" s="170"/>
-      <c r="P14" s="170"/>
-      <c r="Q14" s="170"/>
-      <c r="R14" s="170"/>
+      <c r="B14" s="203"/>
+      <c r="C14" s="203"/>
+      <c r="D14" s="203"/>
+      <c r="E14" s="203"/>
+      <c r="F14" s="203"/>
+      <c r="G14" s="203"/>
+      <c r="H14" s="203"/>
+      <c r="I14" s="203"/>
+      <c r="J14" s="203"/>
+      <c r="K14" s="203"/>
+      <c r="L14" s="203"/>
+      <c r="M14" s="203"/>
+      <c r="N14" s="203"/>
+      <c r="O14" s="203"/>
+      <c r="P14" s="203"/>
+      <c r="Q14" s="203"/>
+      <c r="R14" s="203"/>
     </row>
     <row r="15" spans="1:18" ht="26.25">
-      <c r="B15" s="170"/>
-      <c r="C15" s="170"/>
-      <c r="D15" s="170"/>
-      <c r="E15" s="170"/>
-      <c r="F15" s="170"/>
-      <c r="G15" s="170"/>
-      <c r="H15" s="170"/>
-      <c r="I15" s="170"/>
-      <c r="J15" s="170"/>
-      <c r="K15" s="170"/>
-      <c r="L15" s="170"/>
-      <c r="M15" s="170"/>
-      <c r="N15" s="170"/>
-      <c r="O15" s="170"/>
-      <c r="P15" s="170"/>
-      <c r="Q15" s="170"/>
-      <c r="R15" s="170"/>
+      <c r="B15" s="203"/>
+      <c r="C15" s="203"/>
+      <c r="D15" s="203"/>
+      <c r="E15" s="203"/>
+      <c r="F15" s="203"/>
+      <c r="G15" s="203"/>
+      <c r="H15" s="203"/>
+      <c r="I15" s="203"/>
+      <c r="J15" s="203"/>
+      <c r="K15" s="203"/>
+      <c r="L15" s="203"/>
+      <c r="M15" s="203"/>
+      <c r="N15" s="203"/>
+      <c r="O15" s="203"/>
+      <c r="P15" s="203"/>
+      <c r="Q15" s="203"/>
+      <c r="R15" s="203"/>
     </row>
     <row r="16" spans="1:18" ht="26.25">
-      <c r="A16" s="173" t="s">
+      <c r="A16" s="206" t="s">
         <v>152</v>
       </c>
-      <c r="B16" s="173"/>
-      <c r="C16" s="173"/>
-      <c r="D16" s="173"/>
-      <c r="E16" s="173"/>
-      <c r="F16" s="173"/>
-      <c r="G16" s="173"/>
-      <c r="H16" s="173"/>
-      <c r="I16" s="173"/>
-      <c r="J16" s="173"/>
+      <c r="B16" s="206"/>
+      <c r="C16" s="206"/>
+      <c r="D16" s="206"/>
+      <c r="E16" s="206"/>
+      <c r="F16" s="206"/>
+      <c r="G16" s="206"/>
+      <c r="H16" s="206"/>
+      <c r="I16" s="206"/>
+      <c r="J16" s="206"/>
       <c r="K16" s="99"/>
       <c r="L16" s="99"/>
       <c r="M16" s="99"/>
@@ -7541,384 +7864,384 @@
       <c r="R16" s="99"/>
     </row>
     <row r="17" spans="1:195" ht="14.1" customHeight="1">
-      <c r="B17" s="170"/>
-      <c r="C17" s="170"/>
-      <c r="D17" s="170"/>
-      <c r="E17" s="170"/>
-      <c r="F17" s="170"/>
-      <c r="G17" s="170"/>
-      <c r="H17" s="170"/>
-      <c r="I17" s="170"/>
-      <c r="J17" s="170"/>
-      <c r="K17" s="170"/>
-      <c r="L17" s="170"/>
-      <c r="M17" s="170"/>
-      <c r="N17" s="170"/>
-      <c r="O17" s="170"/>
-      <c r="P17" s="170"/>
-      <c r="Q17" s="170"/>
-      <c r="R17" s="170"/>
+      <c r="B17" s="203"/>
+      <c r="C17" s="203"/>
+      <c r="D17" s="203"/>
+      <c r="E17" s="203"/>
+      <c r="F17" s="203"/>
+      <c r="G17" s="203"/>
+      <c r="H17" s="203"/>
+      <c r="I17" s="203"/>
+      <c r="J17" s="203"/>
+      <c r="K17" s="203"/>
+      <c r="L17" s="203"/>
+      <c r="M17" s="203"/>
+      <c r="N17" s="203"/>
+      <c r="O17" s="203"/>
+      <c r="P17" s="203"/>
+      <c r="Q17" s="203"/>
+      <c r="R17" s="203"/>
     </row>
     <row r="18" spans="1:195" ht="26.25">
-      <c r="B18" s="170"/>
-      <c r="C18" s="170"/>
-      <c r="D18" s="170"/>
-      <c r="E18" s="170"/>
-      <c r="F18" s="170"/>
-      <c r="G18" s="170"/>
-      <c r="H18" s="170"/>
-      <c r="I18" s="170"/>
-      <c r="J18" s="170"/>
-      <c r="K18" s="170"/>
-      <c r="L18" s="170"/>
-      <c r="M18" s="170"/>
-      <c r="N18" s="170"/>
-      <c r="O18" s="170"/>
-      <c r="P18" s="170"/>
-      <c r="Q18" s="170"/>
-      <c r="R18" s="170"/>
+      <c r="B18" s="203"/>
+      <c r="C18" s="203"/>
+      <c r="D18" s="203"/>
+      <c r="E18" s="203"/>
+      <c r="F18" s="203"/>
+      <c r="G18" s="203"/>
+      <c r="H18" s="203"/>
+      <c r="I18" s="203"/>
+      <c r="J18" s="203"/>
+      <c r="K18" s="203"/>
+      <c r="L18" s="203"/>
+      <c r="M18" s="203"/>
+      <c r="N18" s="203"/>
+      <c r="O18" s="203"/>
+      <c r="P18" s="203"/>
+      <c r="Q18" s="203"/>
+      <c r="R18" s="203"/>
     </row>
     <row r="19" spans="1:195" ht="23.25">
-      <c r="B19" s="172"/>
-      <c r="C19" s="172"/>
-      <c r="D19" s="172"/>
-      <c r="E19" s="172"/>
-      <c r="F19" s="172"/>
-      <c r="G19" s="172"/>
-      <c r="H19" s="172"/>
-      <c r="I19" s="172"/>
-      <c r="J19" s="172"/>
-      <c r="K19" s="172"/>
-      <c r="L19" s="172"/>
-      <c r="M19" s="172"/>
-      <c r="N19" s="172"/>
-      <c r="O19" s="172"/>
-      <c r="P19" s="172"/>
-      <c r="Q19" s="172"/>
-      <c r="R19" s="172"/>
+      <c r="B19" s="205"/>
+      <c r="C19" s="205"/>
+      <c r="D19" s="205"/>
+      <c r="E19" s="205"/>
+      <c r="F19" s="205"/>
+      <c r="G19" s="205"/>
+      <c r="H19" s="205"/>
+      <c r="I19" s="205"/>
+      <c r="J19" s="205"/>
+      <c r="K19" s="205"/>
+      <c r="L19" s="205"/>
+      <c r="M19" s="205"/>
+      <c r="N19" s="205"/>
+      <c r="O19" s="205"/>
+      <c r="P19" s="205"/>
+      <c r="Q19" s="205"/>
+      <c r="R19" s="205"/>
     </row>
     <row r="20" spans="1:195" ht="26.25">
-      <c r="B20" s="170"/>
-      <c r="C20" s="170"/>
-      <c r="D20" s="170"/>
-      <c r="E20" s="170"/>
-      <c r="F20" s="170"/>
-      <c r="G20" s="170"/>
-      <c r="H20" s="170"/>
-      <c r="I20" s="170"/>
-      <c r="J20" s="170"/>
-      <c r="K20" s="170"/>
-      <c r="L20" s="170"/>
-      <c r="M20" s="170"/>
-      <c r="N20" s="170"/>
-      <c r="O20" s="170"/>
-      <c r="P20" s="170"/>
-      <c r="Q20" s="170"/>
-      <c r="R20" s="170"/>
+      <c r="B20" s="203"/>
+      <c r="C20" s="203"/>
+      <c r="D20" s="203"/>
+      <c r="E20" s="203"/>
+      <c r="F20" s="203"/>
+      <c r="G20" s="203"/>
+      <c r="H20" s="203"/>
+      <c r="I20" s="203"/>
+      <c r="J20" s="203"/>
+      <c r="K20" s="203"/>
+      <c r="L20" s="203"/>
+      <c r="M20" s="203"/>
+      <c r="N20" s="203"/>
+      <c r="O20" s="203"/>
+      <c r="P20" s="203"/>
+      <c r="Q20" s="203"/>
+      <c r="R20" s="203"/>
     </row>
     <row r="21" spans="1:195" ht="26.25">
-      <c r="B21" s="170"/>
-      <c r="C21" s="170"/>
-      <c r="D21" s="170"/>
-      <c r="E21" s="170"/>
-      <c r="F21" s="170"/>
-      <c r="G21" s="170"/>
-      <c r="H21" s="170"/>
-      <c r="I21" s="170"/>
-      <c r="J21" s="170"/>
-      <c r="K21" s="170"/>
-      <c r="L21" s="170"/>
-      <c r="M21" s="170"/>
-      <c r="N21" s="170"/>
-      <c r="O21" s="170"/>
-      <c r="P21" s="170"/>
-      <c r="Q21" s="170"/>
-      <c r="R21" s="170"/>
+      <c r="B21" s="203"/>
+      <c r="C21" s="203"/>
+      <c r="D21" s="203"/>
+      <c r="E21" s="203"/>
+      <c r="F21" s="203"/>
+      <c r="G21" s="203"/>
+      <c r="H21" s="203"/>
+      <c r="I21" s="203"/>
+      <c r="J21" s="203"/>
+      <c r="K21" s="203"/>
+      <c r="L21" s="203"/>
+      <c r="M21" s="203"/>
+      <c r="N21" s="203"/>
+      <c r="O21" s="203"/>
+      <c r="P21" s="203"/>
+      <c r="Q21" s="203"/>
+      <c r="R21" s="203"/>
     </row>
     <row r="22" spans="1:195" ht="25.5">
-      <c r="B22" s="171"/>
-      <c r="C22" s="171"/>
-      <c r="D22" s="171"/>
-      <c r="E22" s="171"/>
-      <c r="F22" s="171"/>
-      <c r="G22" s="171"/>
-      <c r="H22" s="171"/>
-      <c r="I22" s="171"/>
-      <c r="J22" s="171"/>
-      <c r="K22" s="171"/>
-      <c r="L22" s="171"/>
-      <c r="M22" s="171"/>
-      <c r="N22" s="171"/>
-      <c r="O22" s="171"/>
-      <c r="P22" s="171"/>
-      <c r="Q22" s="171"/>
-      <c r="R22" s="171"/>
+      <c r="B22" s="204"/>
+      <c r="C22" s="204"/>
+      <c r="D22" s="204"/>
+      <c r="E22" s="204"/>
+      <c r="F22" s="204"/>
+      <c r="G22" s="204"/>
+      <c r="H22" s="204"/>
+      <c r="I22" s="204"/>
+      <c r="J22" s="204"/>
+      <c r="K22" s="204"/>
+      <c r="L22" s="204"/>
+      <c r="M22" s="204"/>
+      <c r="N22" s="204"/>
+      <c r="O22" s="204"/>
+      <c r="P22" s="204"/>
+      <c r="Q22" s="204"/>
+      <c r="R22" s="204"/>
     </row>
     <row r="23" spans="1:195" ht="25.5">
-      <c r="B23" s="171"/>
-      <c r="C23" s="171"/>
-      <c r="D23" s="171"/>
-      <c r="E23" s="171"/>
-      <c r="F23" s="171"/>
-      <c r="G23" s="171"/>
-      <c r="H23" s="171"/>
-      <c r="I23" s="171"/>
-      <c r="J23" s="171"/>
-      <c r="K23" s="171"/>
-      <c r="L23" s="171"/>
-      <c r="M23" s="171"/>
-      <c r="N23" s="171"/>
-      <c r="O23" s="171"/>
-      <c r="P23" s="171"/>
-      <c r="Q23" s="171"/>
-      <c r="R23" s="171"/>
+      <c r="B23" s="204"/>
+      <c r="C23" s="204"/>
+      <c r="D23" s="204"/>
+      <c r="E23" s="204"/>
+      <c r="F23" s="204"/>
+      <c r="G23" s="204"/>
+      <c r="H23" s="204"/>
+      <c r="I23" s="204"/>
+      <c r="J23" s="204"/>
+      <c r="K23" s="204"/>
+      <c r="L23" s="204"/>
+      <c r="M23" s="204"/>
+      <c r="N23" s="204"/>
+      <c r="O23" s="204"/>
+      <c r="P23" s="204"/>
+      <c r="Q23" s="204"/>
+      <c r="R23" s="204"/>
     </row>
     <row r="25" spans="1:195" ht="11.25" customHeight="1"/>
     <row r="26" spans="1:195" ht="18">
-      <c r="B26" s="168"/>
-      <c r="C26" s="168"/>
-      <c r="D26" s="168"/>
-      <c r="E26" s="168"/>
-      <c r="F26" s="168"/>
-      <c r="G26" s="168"/>
-      <c r="H26" s="168"/>
-      <c r="I26" s="168"/>
-      <c r="J26" s="168"/>
-      <c r="K26" s="168"/>
-      <c r="L26" s="168"/>
-      <c r="M26" s="168"/>
-      <c r="N26" s="168"/>
-      <c r="O26" s="168"/>
-      <c r="P26" s="168"/>
-      <c r="Q26" s="168"/>
-      <c r="R26" s="168"/>
+      <c r="B26" s="201"/>
+      <c r="C26" s="201"/>
+      <c r="D26" s="201"/>
+      <c r="E26" s="201"/>
+      <c r="F26" s="201"/>
+      <c r="G26" s="201"/>
+      <c r="H26" s="201"/>
+      <c r="I26" s="201"/>
+      <c r="J26" s="201"/>
+      <c r="K26" s="201"/>
+      <c r="L26" s="201"/>
+      <c r="M26" s="201"/>
+      <c r="N26" s="201"/>
+      <c r="O26" s="201"/>
+      <c r="P26" s="201"/>
+      <c r="Q26" s="201"/>
+      <c r="R26" s="201"/>
     </row>
     <row r="28" spans="1:195" ht="18">
-      <c r="B28" s="169"/>
-      <c r="C28" s="169"/>
-      <c r="D28" s="169"/>
-      <c r="E28" s="169"/>
-      <c r="F28" s="169"/>
-      <c r="G28" s="169"/>
-      <c r="H28" s="169"/>
-      <c r="I28" s="169"/>
-      <c r="J28" s="169"/>
-      <c r="K28" s="169"/>
-      <c r="L28" s="169"/>
-      <c r="M28" s="169"/>
-      <c r="N28" s="169"/>
-      <c r="O28" s="169"/>
-      <c r="P28" s="169"/>
-      <c r="Q28" s="169"/>
-      <c r="R28" s="169"/>
-      <c r="S28" s="167"/>
-      <c r="T28" s="167"/>
-      <c r="U28" s="167"/>
-      <c r="V28" s="167"/>
-      <c r="W28" s="167"/>
-      <c r="X28" s="167"/>
-      <c r="Y28" s="167"/>
-      <c r="Z28" s="167"/>
-      <c r="AA28" s="167"/>
-      <c r="AB28" s="167"/>
-      <c r="AC28" s="167"/>
-      <c r="AD28" s="167"/>
-      <c r="AE28" s="167"/>
-      <c r="AF28" s="167"/>
-      <c r="AG28" s="167"/>
-      <c r="AH28" s="167"/>
-      <c r="AI28" s="167"/>
-      <c r="AJ28" s="167"/>
-      <c r="AK28" s="167"/>
-      <c r="AL28" s="167"/>
-      <c r="AM28" s="167"/>
-      <c r="AN28" s="167"/>
-      <c r="AO28" s="167"/>
-      <c r="AP28" s="167"/>
-      <c r="AQ28" s="167"/>
-      <c r="AR28" s="167"/>
-      <c r="AS28" s="167"/>
-      <c r="AT28" s="167"/>
-      <c r="AU28" s="167"/>
-      <c r="AV28" s="167"/>
-      <c r="AW28" s="167"/>
-      <c r="AX28" s="167"/>
-      <c r="AY28" s="167"/>
-      <c r="AZ28" s="167"/>
-      <c r="BA28" s="167"/>
-      <c r="BB28" s="167"/>
-      <c r="BC28" s="167"/>
-      <c r="BD28" s="167"/>
-      <c r="BE28" s="167"/>
-      <c r="BF28" s="167"/>
-      <c r="BG28" s="167"/>
-      <c r="BH28" s="167"/>
-      <c r="BI28" s="167"/>
-      <c r="BJ28" s="167"/>
-      <c r="BK28" s="167"/>
-      <c r="BL28" s="167"/>
-      <c r="BM28" s="167"/>
-      <c r="BN28" s="167"/>
-      <c r="BO28" s="167"/>
-      <c r="BP28" s="167"/>
-      <c r="BQ28" s="167"/>
-      <c r="BR28" s="167"/>
-      <c r="BS28" s="167"/>
-      <c r="BT28" s="167"/>
-      <c r="BU28" s="167"/>
-      <c r="BV28" s="167"/>
-      <c r="BW28" s="167"/>
-      <c r="BX28" s="167"/>
-      <c r="BY28" s="167"/>
-      <c r="BZ28" s="167"/>
-      <c r="CA28" s="167"/>
-      <c r="CB28" s="167"/>
-      <c r="CC28" s="167"/>
-      <c r="CD28" s="167"/>
-      <c r="CE28" s="167"/>
-      <c r="CF28" s="167"/>
-      <c r="CG28" s="167"/>
-      <c r="CH28" s="167"/>
-      <c r="CI28" s="167"/>
-      <c r="CJ28" s="167"/>
-      <c r="CK28" s="167"/>
-      <c r="CL28" s="167"/>
-      <c r="CM28" s="167"/>
-      <c r="CN28" s="167"/>
-      <c r="CO28" s="167"/>
-      <c r="CP28" s="167"/>
-      <c r="CQ28" s="167"/>
-      <c r="CR28" s="167"/>
-      <c r="CS28" s="167"/>
-      <c r="CT28" s="167"/>
-      <c r="CU28" s="167"/>
-      <c r="CV28" s="167"/>
-      <c r="CW28" s="167"/>
-      <c r="CX28" s="167"/>
-      <c r="CY28" s="167"/>
-      <c r="CZ28" s="167"/>
-      <c r="DA28" s="167"/>
-      <c r="DB28" s="167"/>
-      <c r="DC28" s="167"/>
-      <c r="DD28" s="167"/>
-      <c r="DE28" s="167"/>
-      <c r="DF28" s="167"/>
-      <c r="DG28" s="167"/>
-      <c r="DH28" s="167"/>
-      <c r="DI28" s="167"/>
-      <c r="DJ28" s="167"/>
-      <c r="DK28" s="167"/>
-      <c r="DL28" s="167"/>
-      <c r="DM28" s="167"/>
-      <c r="DN28" s="167"/>
-      <c r="DO28" s="167"/>
-      <c r="DP28" s="167"/>
-      <c r="DQ28" s="167"/>
-      <c r="DR28" s="167"/>
-      <c r="DS28" s="167"/>
-      <c r="DT28" s="167"/>
-      <c r="DU28" s="167"/>
-      <c r="DV28" s="167"/>
-      <c r="DW28" s="167"/>
-      <c r="DX28" s="167"/>
-      <c r="DY28" s="167"/>
-      <c r="DZ28" s="167"/>
-      <c r="EA28" s="167"/>
-      <c r="EB28" s="167"/>
-      <c r="EC28" s="167"/>
-      <c r="ED28" s="167"/>
-      <c r="EE28" s="167"/>
-      <c r="EF28" s="167"/>
-      <c r="EG28" s="167"/>
-      <c r="EH28" s="167"/>
-      <c r="EI28" s="167"/>
-      <c r="EJ28" s="167"/>
-      <c r="EK28" s="167"/>
-      <c r="EL28" s="167"/>
-      <c r="EM28" s="167"/>
-      <c r="EN28" s="167"/>
-      <c r="EO28" s="167"/>
-      <c r="EP28" s="167"/>
-      <c r="EQ28" s="167"/>
-      <c r="ER28" s="167"/>
-      <c r="ES28" s="167"/>
-      <c r="ET28" s="167"/>
-      <c r="EU28" s="167"/>
-      <c r="EV28" s="167"/>
-      <c r="EW28" s="167"/>
-      <c r="EX28" s="167"/>
-      <c r="EY28" s="167"/>
-      <c r="EZ28" s="167"/>
-      <c r="FA28" s="167"/>
-      <c r="FB28" s="167"/>
-      <c r="FC28" s="167"/>
-      <c r="FD28" s="167"/>
-      <c r="FE28" s="167"/>
-      <c r="FF28" s="167"/>
-      <c r="FG28" s="167"/>
-      <c r="FH28" s="167"/>
-      <c r="FI28" s="167"/>
-      <c r="FJ28" s="167"/>
-      <c r="FK28" s="167"/>
-      <c r="FL28" s="167"/>
-      <c r="FM28" s="167"/>
-      <c r="FN28" s="167"/>
-      <c r="FO28" s="167"/>
-      <c r="FP28" s="167"/>
-      <c r="FQ28" s="167"/>
-      <c r="FR28" s="167"/>
-      <c r="FS28" s="167"/>
-      <c r="FT28" s="167"/>
-      <c r="FU28" s="167"/>
-      <c r="FV28" s="167"/>
-      <c r="FW28" s="167"/>
-      <c r="FX28" s="167"/>
-      <c r="FY28" s="167"/>
-      <c r="FZ28" s="167"/>
-      <c r="GA28" s="167"/>
-      <c r="GB28" s="167"/>
-      <c r="GC28" s="167"/>
-      <c r="GD28" s="167"/>
-      <c r="GE28" s="167"/>
-      <c r="GF28" s="167"/>
-      <c r="GG28" s="167"/>
-      <c r="GH28" s="167"/>
-      <c r="GI28" s="167"/>
-      <c r="GJ28" s="167"/>
-      <c r="GK28" s="167"/>
-      <c r="GL28" s="167"/>
+      <c r="B28" s="202"/>
+      <c r="C28" s="202"/>
+      <c r="D28" s="202"/>
+      <c r="E28" s="202"/>
+      <c r="F28" s="202"/>
+      <c r="G28" s="202"/>
+      <c r="H28" s="202"/>
+      <c r="I28" s="202"/>
+      <c r="J28" s="202"/>
+      <c r="K28" s="202"/>
+      <c r="L28" s="202"/>
+      <c r="M28" s="202"/>
+      <c r="N28" s="202"/>
+      <c r="O28" s="202"/>
+      <c r="P28" s="202"/>
+      <c r="Q28" s="202"/>
+      <c r="R28" s="202"/>
+      <c r="S28" s="200"/>
+      <c r="T28" s="200"/>
+      <c r="U28" s="200"/>
+      <c r="V28" s="200"/>
+      <c r="W28" s="200"/>
+      <c r="X28" s="200"/>
+      <c r="Y28" s="200"/>
+      <c r="Z28" s="200"/>
+      <c r="AA28" s="200"/>
+      <c r="AB28" s="200"/>
+      <c r="AC28" s="200"/>
+      <c r="AD28" s="200"/>
+      <c r="AE28" s="200"/>
+      <c r="AF28" s="200"/>
+      <c r="AG28" s="200"/>
+      <c r="AH28" s="200"/>
+      <c r="AI28" s="200"/>
+      <c r="AJ28" s="200"/>
+      <c r="AK28" s="200"/>
+      <c r="AL28" s="200"/>
+      <c r="AM28" s="200"/>
+      <c r="AN28" s="200"/>
+      <c r="AO28" s="200"/>
+      <c r="AP28" s="200"/>
+      <c r="AQ28" s="200"/>
+      <c r="AR28" s="200"/>
+      <c r="AS28" s="200"/>
+      <c r="AT28" s="200"/>
+      <c r="AU28" s="200"/>
+      <c r="AV28" s="200"/>
+      <c r="AW28" s="200"/>
+      <c r="AX28" s="200"/>
+      <c r="AY28" s="200"/>
+      <c r="AZ28" s="200"/>
+      <c r="BA28" s="200"/>
+      <c r="BB28" s="200"/>
+      <c r="BC28" s="200"/>
+      <c r="BD28" s="200"/>
+      <c r="BE28" s="200"/>
+      <c r="BF28" s="200"/>
+      <c r="BG28" s="200"/>
+      <c r="BH28" s="200"/>
+      <c r="BI28" s="200"/>
+      <c r="BJ28" s="200"/>
+      <c r="BK28" s="200"/>
+      <c r="BL28" s="200"/>
+      <c r="BM28" s="200"/>
+      <c r="BN28" s="200"/>
+      <c r="BO28" s="200"/>
+      <c r="BP28" s="200"/>
+      <c r="BQ28" s="200"/>
+      <c r="BR28" s="200"/>
+      <c r="BS28" s="200"/>
+      <c r="BT28" s="200"/>
+      <c r="BU28" s="200"/>
+      <c r="BV28" s="200"/>
+      <c r="BW28" s="200"/>
+      <c r="BX28" s="200"/>
+      <c r="BY28" s="200"/>
+      <c r="BZ28" s="200"/>
+      <c r="CA28" s="200"/>
+      <c r="CB28" s="200"/>
+      <c r="CC28" s="200"/>
+      <c r="CD28" s="200"/>
+      <c r="CE28" s="200"/>
+      <c r="CF28" s="200"/>
+      <c r="CG28" s="200"/>
+      <c r="CH28" s="200"/>
+      <c r="CI28" s="200"/>
+      <c r="CJ28" s="200"/>
+      <c r="CK28" s="200"/>
+      <c r="CL28" s="200"/>
+      <c r="CM28" s="200"/>
+      <c r="CN28" s="200"/>
+      <c r="CO28" s="200"/>
+      <c r="CP28" s="200"/>
+      <c r="CQ28" s="200"/>
+      <c r="CR28" s="200"/>
+      <c r="CS28" s="200"/>
+      <c r="CT28" s="200"/>
+      <c r="CU28" s="200"/>
+      <c r="CV28" s="200"/>
+      <c r="CW28" s="200"/>
+      <c r="CX28" s="200"/>
+      <c r="CY28" s="200"/>
+      <c r="CZ28" s="200"/>
+      <c r="DA28" s="200"/>
+      <c r="DB28" s="200"/>
+      <c r="DC28" s="200"/>
+      <c r="DD28" s="200"/>
+      <c r="DE28" s="200"/>
+      <c r="DF28" s="200"/>
+      <c r="DG28" s="200"/>
+      <c r="DH28" s="200"/>
+      <c r="DI28" s="200"/>
+      <c r="DJ28" s="200"/>
+      <c r="DK28" s="200"/>
+      <c r="DL28" s="200"/>
+      <c r="DM28" s="200"/>
+      <c r="DN28" s="200"/>
+      <c r="DO28" s="200"/>
+      <c r="DP28" s="200"/>
+      <c r="DQ28" s="200"/>
+      <c r="DR28" s="200"/>
+      <c r="DS28" s="200"/>
+      <c r="DT28" s="200"/>
+      <c r="DU28" s="200"/>
+      <c r="DV28" s="200"/>
+      <c r="DW28" s="200"/>
+      <c r="DX28" s="200"/>
+      <c r="DY28" s="200"/>
+      <c r="DZ28" s="200"/>
+      <c r="EA28" s="200"/>
+      <c r="EB28" s="200"/>
+      <c r="EC28" s="200"/>
+      <c r="ED28" s="200"/>
+      <c r="EE28" s="200"/>
+      <c r="EF28" s="200"/>
+      <c r="EG28" s="200"/>
+      <c r="EH28" s="200"/>
+      <c r="EI28" s="200"/>
+      <c r="EJ28" s="200"/>
+      <c r="EK28" s="200"/>
+      <c r="EL28" s="200"/>
+      <c r="EM28" s="200"/>
+      <c r="EN28" s="200"/>
+      <c r="EO28" s="200"/>
+      <c r="EP28" s="200"/>
+      <c r="EQ28" s="200"/>
+      <c r="ER28" s="200"/>
+      <c r="ES28" s="200"/>
+      <c r="ET28" s="200"/>
+      <c r="EU28" s="200"/>
+      <c r="EV28" s="200"/>
+      <c r="EW28" s="200"/>
+      <c r="EX28" s="200"/>
+      <c r="EY28" s="200"/>
+      <c r="EZ28" s="200"/>
+      <c r="FA28" s="200"/>
+      <c r="FB28" s="200"/>
+      <c r="FC28" s="200"/>
+      <c r="FD28" s="200"/>
+      <c r="FE28" s="200"/>
+      <c r="FF28" s="200"/>
+      <c r="FG28" s="200"/>
+      <c r="FH28" s="200"/>
+      <c r="FI28" s="200"/>
+      <c r="FJ28" s="200"/>
+      <c r="FK28" s="200"/>
+      <c r="FL28" s="200"/>
+      <c r="FM28" s="200"/>
+      <c r="FN28" s="200"/>
+      <c r="FO28" s="200"/>
+      <c r="FP28" s="200"/>
+      <c r="FQ28" s="200"/>
+      <c r="FR28" s="200"/>
+      <c r="FS28" s="200"/>
+      <c r="FT28" s="200"/>
+      <c r="FU28" s="200"/>
+      <c r="FV28" s="200"/>
+      <c r="FW28" s="200"/>
+      <c r="FX28" s="200"/>
+      <c r="FY28" s="200"/>
+      <c r="FZ28" s="200"/>
+      <c r="GA28" s="200"/>
+      <c r="GB28" s="200"/>
+      <c r="GC28" s="200"/>
+      <c r="GD28" s="200"/>
+      <c r="GE28" s="200"/>
+      <c r="GF28" s="200"/>
+      <c r="GG28" s="200"/>
+      <c r="GH28" s="200"/>
+      <c r="GI28" s="200"/>
+      <c r="GJ28" s="200"/>
+      <c r="GK28" s="200"/>
+      <c r="GL28" s="200"/>
       <c r="GM28" s="100"/>
     </row>
     <row r="29" spans="1:195" ht="18">
-      <c r="B29" s="168"/>
-      <c r="C29" s="168"/>
-      <c r="D29" s="168"/>
-      <c r="E29" s="168"/>
-      <c r="F29" s="168"/>
-      <c r="G29" s="168"/>
-      <c r="H29" s="168"/>
-      <c r="I29" s="168"/>
-      <c r="J29" s="168"/>
-      <c r="K29" s="168"/>
-      <c r="L29" s="168"/>
-      <c r="M29" s="168"/>
-      <c r="N29" s="168"/>
-      <c r="O29" s="168"/>
-      <c r="P29" s="168"/>
-      <c r="Q29" s="168"/>
-      <c r="R29" s="168"/>
+      <c r="B29" s="201"/>
+      <c r="C29" s="201"/>
+      <c r="D29" s="201"/>
+      <c r="E29" s="201"/>
+      <c r="F29" s="201"/>
+      <c r="G29" s="201"/>
+      <c r="H29" s="201"/>
+      <c r="I29" s="201"/>
+      <c r="J29" s="201"/>
+      <c r="K29" s="201"/>
+      <c r="L29" s="201"/>
+      <c r="M29" s="201"/>
+      <c r="N29" s="201"/>
+      <c r="O29" s="201"/>
+      <c r="P29" s="201"/>
+      <c r="Q29" s="201"/>
+      <c r="R29" s="201"/>
     </row>
     <row r="30" spans="1:195" ht="13.5" customHeight="1">
-      <c r="A30" s="166"/>
-      <c r="B30" s="166"/>
-      <c r="C30" s="166"/>
-      <c r="D30" s="166"/>
-      <c r="E30" s="166"/>
-      <c r="F30" s="166"/>
-      <c r="G30" s="166"/>
-      <c r="H30" s="166"/>
-      <c r="I30" s="166"/>
-      <c r="J30" s="166"/>
+      <c r="A30" s="199"/>
+      <c r="B30" s="199"/>
+      <c r="C30" s="199"/>
+      <c r="D30" s="199"/>
+      <c r="E30" s="199"/>
+      <c r="F30" s="199"/>
+      <c r="G30" s="199"/>
+      <c r="H30" s="199"/>
+      <c r="I30" s="199"/>
+      <c r="J30" s="199"/>
       <c r="K30" s="101"/>
       <c r="L30" s="101"/>
       <c r="M30" s="101"/>
@@ -7929,16 +8252,16 @@
       <c r="R30" s="101"/>
     </row>
     <row r="31" spans="1:195" ht="13.5" customHeight="1">
-      <c r="A31" s="166"/>
-      <c r="B31" s="166"/>
-      <c r="C31" s="166"/>
-      <c r="D31" s="166"/>
-      <c r="E31" s="166"/>
-      <c r="F31" s="166"/>
-      <c r="G31" s="166"/>
-      <c r="H31" s="166"/>
-      <c r="I31" s="166"/>
-      <c r="J31" s="166"/>
+      <c r="A31" s="199"/>
+      <c r="B31" s="199"/>
+      <c r="C31" s="199"/>
+      <c r="D31" s="199"/>
+      <c r="E31" s="199"/>
+      <c r="F31" s="199"/>
+      <c r="G31" s="199"/>
+      <c r="H31" s="199"/>
+      <c r="I31" s="199"/>
+      <c r="J31" s="199"/>
       <c r="K31" s="101"/>
       <c r="L31" s="101"/>
       <c r="M31" s="101"/>
@@ -8011,14 +8334,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="14.25">
-      <c r="B1" s="257" t="s">
+      <c r="B1" s="305" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="257"/>
-      <c r="D1" s="257"/>
-      <c r="E1" s="257"/>
-      <c r="F1" s="257"/>
-      <c r="G1" s="257"/>
+      <c r="C1" s="305"/>
+      <c r="D1" s="305"/>
+      <c r="E1" s="305"/>
+      <c r="F1" s="305"/>
+      <c r="G1" s="305"/>
     </row>
     <row r="2" spans="2:7" s="17" customFormat="1">
       <c r="B2" s="16"/>
@@ -8211,11 +8534,11 @@
       </c>
     </row>
     <row r="27" spans="2:7" ht="200.25" customHeight="1">
-      <c r="E27" s="258" t="s">
+      <c r="E27" s="306" t="s">
         <v>37</v>
       </c>
-      <c r="F27" s="259"/>
-      <c r="G27" s="260"/>
+      <c r="F27" s="307"/>
+      <c r="G27" s="308"/>
     </row>
     <row r="29" spans="2:7">
       <c r="B29" s="19" t="s">
@@ -8523,7 +8846,7 @@
   <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12:J12"/>
+      <selection activeCell="E22" sqref="E22:J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -8539,10 +8862,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="195" t="s">
+      <c r="A1" s="234" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="195"/>
+      <c r="B1" s="234"/>
       <c r="C1" s="30" t="s">
         <v>1</v>
       </c>
@@ -8553,7 +8876,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="33" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G1" s="30" t="s">
         <v>5</v>
@@ -8569,8 +8892,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="195"/>
-      <c r="B2" s="195"/>
+      <c r="A2" s="234"/>
+      <c r="B2" s="234"/>
       <c r="C2" s="30" t="s">
         <v>2</v>
       </c>
@@ -8581,7 +8904,7 @@
         <v>4</v>
       </c>
       <c r="F2" s="33" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G2" s="30" t="s">
         <v>6</v>
@@ -8609,14 +8932,14 @@
       <c r="D4" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="196" t="s">
+      <c r="E4" s="235" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="196"/>
-      <c r="G4" s="196"/>
-      <c r="H4" s="196"/>
-      <c r="I4" s="196"/>
-      <c r="J4" s="196"/>
+      <c r="F4" s="235"/>
+      <c r="G4" s="235"/>
+      <c r="H4" s="235"/>
+      <c r="I4" s="235"/>
+      <c r="J4" s="235"/>
     </row>
     <row r="5" spans="1:10" s="25" customFormat="1" ht="47.25" customHeight="1">
       <c r="A5" s="108">
@@ -8631,96 +8954,102 @@
       <c r="D5" s="34">
         <v>42821</v>
       </c>
-      <c r="E5" s="197" t="s">
+      <c r="E5" s="236" t="s">
         <v>157</v>
       </c>
-      <c r="F5" s="197"/>
-      <c r="G5" s="197"/>
-      <c r="H5" s="197"/>
-      <c r="I5" s="197"/>
-      <c r="J5" s="197"/>
+      <c r="F5" s="236"/>
+      <c r="G5" s="236"/>
+      <c r="H5" s="236"/>
+      <c r="I5" s="236"/>
+      <c r="J5" s="236"/>
     </row>
     <row r="6" spans="1:10" ht="12.75">
       <c r="A6" s="72">
         <v>2</v>
       </c>
-      <c r="B6" s="151">
+      <c r="B6" s="147">
         <v>2</v>
       </c>
-      <c r="C6" s="152" t="s">
+      <c r="C6" s="148" t="s">
         <v>172</v>
       </c>
-      <c r="D6" s="152">
+      <c r="D6" s="148">
         <v>42877</v>
       </c>
-      <c r="E6" s="198" t="s">
-        <v>349</v>
-      </c>
-      <c r="F6" s="199"/>
-      <c r="G6" s="199"/>
-      <c r="H6" s="199"/>
-      <c r="I6" s="199"/>
-      <c r="J6" s="200"/>
+      <c r="E6" s="237" t="s">
+        <v>339</v>
+      </c>
+      <c r="F6" s="238"/>
+      <c r="G6" s="238"/>
+      <c r="H6" s="238"/>
+      <c r="I6" s="238"/>
+      <c r="J6" s="239"/>
     </row>
     <row r="7" spans="1:10" ht="12" customHeight="1">
       <c r="A7" s="73">
         <v>3</v>
       </c>
-      <c r="B7" s="153">
+      <c r="B7" s="149">
         <v>3</v>
       </c>
-      <c r="C7" s="154" t="s">
+      <c r="C7" s="150" t="s">
         <v>172</v>
       </c>
-      <c r="D7" s="154">
+      <c r="D7" s="150">
         <v>42879</v>
       </c>
-      <c r="E7" s="192" t="s">
-        <v>351</v>
-      </c>
-      <c r="F7" s="193"/>
-      <c r="G7" s="193"/>
-      <c r="H7" s="193"/>
-      <c r="I7" s="193"/>
-      <c r="J7" s="194"/>
+      <c r="E7" s="225" t="s">
+        <v>341</v>
+      </c>
+      <c r="F7" s="226"/>
+      <c r="G7" s="226"/>
+      <c r="H7" s="226"/>
+      <c r="I7" s="226"/>
+      <c r="J7" s="227"/>
     </row>
     <row r="8" spans="1:10" ht="12" customHeight="1">
       <c r="A8" s="74">
         <v>4</v>
       </c>
-      <c r="B8" s="261">
+      <c r="B8" s="162">
         <v>4</v>
       </c>
-      <c r="C8" s="262" t="s">
+      <c r="C8" s="163" t="s">
         <v>172</v>
       </c>
-      <c r="D8" s="262">
+      <c r="D8" s="163">
         <v>42983</v>
       </c>
-      <c r="E8" s="263" t="s">
-        <v>360</v>
-      </c>
-      <c r="F8" s="264"/>
-      <c r="G8" s="264"/>
-      <c r="H8" s="264"/>
-      <c r="I8" s="264"/>
-      <c r="J8" s="265"/>
+      <c r="E8" s="228" t="s">
+        <v>350</v>
+      </c>
+      <c r="F8" s="229"/>
+      <c r="G8" s="229"/>
+      <c r="H8" s="229"/>
+      <c r="I8" s="229"/>
+      <c r="J8" s="230"/>
     </row>
     <row r="9" spans="1:10" ht="12" customHeight="1">
       <c r="A9" s="75">
         <v>5</v>
       </c>
-      <c r="B9" s="37">
+      <c r="B9" s="166">
         <v>5</v>
       </c>
-      <c r="C9" s="66"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="189"/>
-      <c r="F9" s="190"/>
-      <c r="G9" s="190"/>
-      <c r="H9" s="190"/>
-      <c r="I9" s="190"/>
-      <c r="J9" s="191"/>
+      <c r="C9" s="167" t="s">
+        <v>356</v>
+      </c>
+      <c r="D9" s="168" t="s">
+        <v>357</v>
+      </c>
+      <c r="E9" s="231" t="s">
+        <v>409</v>
+      </c>
+      <c r="F9" s="232"/>
+      <c r="G9" s="232"/>
+      <c r="H9" s="232"/>
+      <c r="I9" s="232"/>
+      <c r="J9" s="233"/>
     </row>
     <row r="10" spans="1:10" ht="12" customHeight="1">
       <c r="A10" s="76">
@@ -8731,12 +9060,12 @@
       </c>
       <c r="C10" s="66"/>
       <c r="D10" s="36"/>
-      <c r="E10" s="189"/>
-      <c r="F10" s="190"/>
-      <c r="G10" s="190"/>
-      <c r="H10" s="190"/>
-      <c r="I10" s="190"/>
-      <c r="J10" s="191"/>
+      <c r="E10" s="222"/>
+      <c r="F10" s="223"/>
+      <c r="G10" s="223"/>
+      <c r="H10" s="223"/>
+      <c r="I10" s="223"/>
+      <c r="J10" s="224"/>
     </row>
     <row r="11" spans="1:10" ht="12" customHeight="1">
       <c r="A11" s="77">
@@ -8747,12 +9076,12 @@
       </c>
       <c r="C11" s="66"/>
       <c r="D11" s="36"/>
-      <c r="E11" s="189"/>
-      <c r="F11" s="190"/>
-      <c r="G11" s="190"/>
-      <c r="H11" s="190"/>
-      <c r="I11" s="190"/>
-      <c r="J11" s="191"/>
+      <c r="E11" s="222"/>
+      <c r="F11" s="223"/>
+      <c r="G11" s="223"/>
+      <c r="H11" s="223"/>
+      <c r="I11" s="223"/>
+      <c r="J11" s="224"/>
     </row>
     <row r="12" spans="1:10" ht="12" customHeight="1">
       <c r="A12" s="78">
@@ -8763,12 +9092,12 @@
       </c>
       <c r="C12" s="66"/>
       <c r="D12" s="36"/>
-      <c r="E12" s="189"/>
-      <c r="F12" s="190"/>
-      <c r="G12" s="190"/>
-      <c r="H12" s="190"/>
-      <c r="I12" s="190"/>
-      <c r="J12" s="191"/>
+      <c r="E12" s="222"/>
+      <c r="F12" s="223"/>
+      <c r="G12" s="223"/>
+      <c r="H12" s="223"/>
+      <c r="I12" s="223"/>
+      <c r="J12" s="224"/>
     </row>
     <row r="13" spans="1:10" ht="12" customHeight="1">
       <c r="A13" s="79">
@@ -8779,12 +9108,12 @@
       </c>
       <c r="C13" s="66"/>
       <c r="D13" s="36"/>
-      <c r="E13" s="189"/>
-      <c r="F13" s="190"/>
-      <c r="G13" s="190"/>
-      <c r="H13" s="190"/>
-      <c r="I13" s="190"/>
-      <c r="J13" s="191"/>
+      <c r="E13" s="222"/>
+      <c r="F13" s="223"/>
+      <c r="G13" s="223"/>
+      <c r="H13" s="223"/>
+      <c r="I13" s="223"/>
+      <c r="J13" s="224"/>
     </row>
     <row r="14" spans="1:10" ht="12" customHeight="1">
       <c r="A14" s="80">
@@ -8795,12 +9124,12 @@
       </c>
       <c r="C14" s="66"/>
       <c r="D14" s="36"/>
-      <c r="E14" s="189"/>
-      <c r="F14" s="190"/>
-      <c r="G14" s="190"/>
-      <c r="H14" s="190"/>
-      <c r="I14" s="190"/>
-      <c r="J14" s="191"/>
+      <c r="E14" s="222"/>
+      <c r="F14" s="223"/>
+      <c r="G14" s="223"/>
+      <c r="H14" s="223"/>
+      <c r="I14" s="223"/>
+      <c r="J14" s="224"/>
     </row>
     <row r="15" spans="1:10" ht="12" customHeight="1">
       <c r="A15" s="36">
@@ -8811,12 +9140,12 @@
       </c>
       <c r="C15" s="66"/>
       <c r="D15" s="36"/>
-      <c r="E15" s="188"/>
-      <c r="F15" s="188"/>
-      <c r="G15" s="188"/>
-      <c r="H15" s="188"/>
-      <c r="I15" s="188"/>
-      <c r="J15" s="188"/>
+      <c r="E15" s="221"/>
+      <c r="F15" s="221"/>
+      <c r="G15" s="221"/>
+      <c r="H15" s="221"/>
+      <c r="I15" s="221"/>
+      <c r="J15" s="221"/>
     </row>
     <row r="16" spans="1:10" ht="12" customHeight="1">
       <c r="A16" s="72">
@@ -8827,12 +9156,12 @@
       </c>
       <c r="C16" s="66"/>
       <c r="D16" s="36"/>
-      <c r="E16" s="188"/>
-      <c r="F16" s="188"/>
-      <c r="G16" s="188"/>
-      <c r="H16" s="188"/>
-      <c r="I16" s="188"/>
-      <c r="J16" s="188"/>
+      <c r="E16" s="221"/>
+      <c r="F16" s="221"/>
+      <c r="G16" s="221"/>
+      <c r="H16" s="221"/>
+      <c r="I16" s="221"/>
+      <c r="J16" s="221"/>
     </row>
     <row r="17" spans="1:10" ht="12" customHeight="1">
       <c r="A17" s="73">
@@ -8843,12 +9172,12 @@
       </c>
       <c r="C17" s="66"/>
       <c r="D17" s="36"/>
-      <c r="E17" s="188"/>
-      <c r="F17" s="188"/>
-      <c r="G17" s="188"/>
-      <c r="H17" s="188"/>
-      <c r="I17" s="188"/>
-      <c r="J17" s="188"/>
+      <c r="E17" s="221"/>
+      <c r="F17" s="221"/>
+      <c r="G17" s="221"/>
+      <c r="H17" s="221"/>
+      <c r="I17" s="221"/>
+      <c r="J17" s="221"/>
     </row>
     <row r="18" spans="1:10" ht="12" customHeight="1">
       <c r="A18" s="74">
@@ -8859,12 +9188,12 @@
       </c>
       <c r="C18" s="66"/>
       <c r="D18" s="36"/>
-      <c r="E18" s="188"/>
-      <c r="F18" s="188"/>
-      <c r="G18" s="188"/>
-      <c r="H18" s="188"/>
-      <c r="I18" s="188"/>
-      <c r="J18" s="188"/>
+      <c r="E18" s="221"/>
+      <c r="F18" s="221"/>
+      <c r="G18" s="221"/>
+      <c r="H18" s="221"/>
+      <c r="I18" s="221"/>
+      <c r="J18" s="221"/>
     </row>
     <row r="19" spans="1:10" ht="12" customHeight="1">
       <c r="A19" s="75">
@@ -8875,12 +9204,12 @@
       </c>
       <c r="C19" s="66"/>
       <c r="D19" s="36"/>
-      <c r="E19" s="188"/>
-      <c r="F19" s="188"/>
-      <c r="G19" s="188"/>
-      <c r="H19" s="188"/>
-      <c r="I19" s="188"/>
-      <c r="J19" s="188"/>
+      <c r="E19" s="221"/>
+      <c r="F19" s="221"/>
+      <c r="G19" s="221"/>
+      <c r="H19" s="221"/>
+      <c r="I19" s="221"/>
+      <c r="J19" s="221"/>
     </row>
     <row r="20" spans="1:10" ht="12" customHeight="1">
       <c r="A20" s="76">
@@ -8891,12 +9220,12 @@
       </c>
       <c r="C20" s="66"/>
       <c r="D20" s="36"/>
-      <c r="E20" s="188"/>
-      <c r="F20" s="188"/>
-      <c r="G20" s="188"/>
-      <c r="H20" s="188"/>
-      <c r="I20" s="188"/>
-      <c r="J20" s="188"/>
+      <c r="E20" s="221"/>
+      <c r="F20" s="221"/>
+      <c r="G20" s="221"/>
+      <c r="H20" s="221"/>
+      <c r="I20" s="221"/>
+      <c r="J20" s="221"/>
     </row>
     <row r="21" spans="1:10" ht="12" customHeight="1">
       <c r="A21" s="77">
@@ -8907,12 +9236,12 @@
       </c>
       <c r="C21" s="66"/>
       <c r="D21" s="36"/>
-      <c r="E21" s="188"/>
-      <c r="F21" s="188"/>
-      <c r="G21" s="188"/>
-      <c r="H21" s="188"/>
-      <c r="I21" s="188"/>
-      <c r="J21" s="188"/>
+      <c r="E21" s="221"/>
+      <c r="F21" s="221"/>
+      <c r="G21" s="221"/>
+      <c r="H21" s="221"/>
+      <c r="I21" s="221"/>
+      <c r="J21" s="221"/>
     </row>
     <row r="22" spans="1:10" ht="12" customHeight="1">
       <c r="A22" s="78">
@@ -8923,12 +9252,12 @@
       </c>
       <c r="C22" s="66"/>
       <c r="D22" s="36"/>
-      <c r="E22" s="188"/>
-      <c r="F22" s="188"/>
-      <c r="G22" s="188"/>
-      <c r="H22" s="188"/>
-      <c r="I22" s="188"/>
-      <c r="J22" s="188"/>
+      <c r="E22" s="221"/>
+      <c r="F22" s="221"/>
+      <c r="G22" s="221"/>
+      <c r="H22" s="221"/>
+      <c r="I22" s="221"/>
+      <c r="J22" s="221"/>
     </row>
     <row r="23" spans="1:10" ht="12" customHeight="1">
       <c r="A23" s="79">
@@ -8939,12 +9268,12 @@
       </c>
       <c r="C23" s="66"/>
       <c r="D23" s="36"/>
-      <c r="E23" s="188"/>
-      <c r="F23" s="188"/>
-      <c r="G23" s="188"/>
-      <c r="H23" s="188"/>
-      <c r="I23" s="188"/>
-      <c r="J23" s="188"/>
+      <c r="E23" s="221"/>
+      <c r="F23" s="221"/>
+      <c r="G23" s="221"/>
+      <c r="H23" s="221"/>
+      <c r="I23" s="221"/>
+      <c r="J23" s="221"/>
     </row>
     <row r="24" spans="1:10" ht="12" customHeight="1">
       <c r="A24" s="80">
@@ -8955,12 +9284,12 @@
       </c>
       <c r="C24" s="66"/>
       <c r="D24" s="36"/>
-      <c r="E24" s="188"/>
-      <c r="F24" s="188"/>
-      <c r="G24" s="188"/>
-      <c r="H24" s="188"/>
-      <c r="I24" s="188"/>
-      <c r="J24" s="188"/>
+      <c r="E24" s="221"/>
+      <c r="F24" s="221"/>
+      <c r="G24" s="221"/>
+      <c r="H24" s="221"/>
+      <c r="I24" s="221"/>
+      <c r="J24" s="221"/>
     </row>
     <row r="25" spans="1:10" ht="12" customHeight="1">
       <c r="A25" s="36">
@@ -8971,12 +9300,12 @@
       </c>
       <c r="C25" s="66"/>
       <c r="D25" s="36"/>
-      <c r="E25" s="188"/>
-      <c r="F25" s="188"/>
-      <c r="G25" s="188"/>
-      <c r="H25" s="188"/>
-      <c r="I25" s="188"/>
-      <c r="J25" s="188"/>
+      <c r="E25" s="221"/>
+      <c r="F25" s="221"/>
+      <c r="G25" s="221"/>
+      <c r="H25" s="221"/>
+      <c r="I25" s="221"/>
+      <c r="J25" s="221"/>
     </row>
     <row r="26" spans="1:10" ht="12" customHeight="1">
       <c r="A26" s="72">
@@ -8987,12 +9316,12 @@
       </c>
       <c r="C26" s="66"/>
       <c r="D26" s="36"/>
-      <c r="E26" s="188"/>
-      <c r="F26" s="188"/>
-      <c r="G26" s="188"/>
-      <c r="H26" s="188"/>
-      <c r="I26" s="188"/>
-      <c r="J26" s="188"/>
+      <c r="E26" s="221"/>
+      <c r="F26" s="221"/>
+      <c r="G26" s="221"/>
+      <c r="H26" s="221"/>
+      <c r="I26" s="221"/>
+      <c r="J26" s="221"/>
     </row>
     <row r="27" spans="1:10" ht="12" customHeight="1">
       <c r="A27" s="73">
@@ -9003,12 +9332,12 @@
       </c>
       <c r="C27" s="66"/>
       <c r="D27" s="36"/>
-      <c r="E27" s="188"/>
-      <c r="F27" s="188"/>
-      <c r="G27" s="188"/>
-      <c r="H27" s="188"/>
-      <c r="I27" s="188"/>
-      <c r="J27" s="188"/>
+      <c r="E27" s="221"/>
+      <c r="F27" s="221"/>
+      <c r="G27" s="221"/>
+      <c r="H27" s="221"/>
+      <c r="I27" s="221"/>
+      <c r="J27" s="221"/>
     </row>
     <row r="28" spans="1:10" ht="12" customHeight="1">
       <c r="A28" s="74">
@@ -9019,12 +9348,12 @@
       </c>
       <c r="C28" s="66"/>
       <c r="D28" s="36"/>
-      <c r="E28" s="188"/>
-      <c r="F28" s="188"/>
-      <c r="G28" s="188"/>
-      <c r="H28" s="188"/>
-      <c r="I28" s="188"/>
-      <c r="J28" s="188"/>
+      <c r="E28" s="221"/>
+      <c r="F28" s="221"/>
+      <c r="G28" s="221"/>
+      <c r="H28" s="221"/>
+      <c r="I28" s="221"/>
+      <c r="J28" s="221"/>
     </row>
     <row r="29" spans="1:10" ht="12" customHeight="1">
       <c r="A29" s="75">
@@ -9035,12 +9364,12 @@
       </c>
       <c r="C29" s="66"/>
       <c r="D29" s="36"/>
-      <c r="E29" s="188"/>
-      <c r="F29" s="188"/>
-      <c r="G29" s="188"/>
-      <c r="H29" s="188"/>
-      <c r="I29" s="188"/>
-      <c r="J29" s="188"/>
+      <c r="E29" s="221"/>
+      <c r="F29" s="221"/>
+      <c r="G29" s="221"/>
+      <c r="H29" s="221"/>
+      <c r="I29" s="221"/>
+      <c r="J29" s="221"/>
     </row>
     <row r="30" spans="1:10" ht="12" customHeight="1">
       <c r="A30" s="76">
@@ -9051,12 +9380,12 @@
       </c>
       <c r="C30" s="66"/>
       <c r="D30" s="36"/>
-      <c r="E30" s="188"/>
-      <c r="F30" s="188"/>
-      <c r="G30" s="188"/>
-      <c r="H30" s="188"/>
-      <c r="I30" s="188"/>
-      <c r="J30" s="188"/>
+      <c r="E30" s="221"/>
+      <c r="F30" s="221"/>
+      <c r="G30" s="221"/>
+      <c r="H30" s="221"/>
+      <c r="I30" s="221"/>
+      <c r="J30" s="221"/>
     </row>
     <row r="31" spans="1:10" ht="12" customHeight="1">
       <c r="A31" s="77">
@@ -9067,12 +9396,12 @@
       </c>
       <c r="C31" s="66"/>
       <c r="D31" s="36"/>
-      <c r="E31" s="188"/>
-      <c r="F31" s="188"/>
-      <c r="G31" s="188"/>
-      <c r="H31" s="188"/>
-      <c r="I31" s="188"/>
-      <c r="J31" s="188"/>
+      <c r="E31" s="221"/>
+      <c r="F31" s="221"/>
+      <c r="G31" s="221"/>
+      <c r="H31" s="221"/>
+      <c r="I31" s="221"/>
+      <c r="J31" s="221"/>
     </row>
     <row r="32" spans="1:10" ht="12" customHeight="1">
       <c r="A32" s="78">
@@ -9083,12 +9412,12 @@
       </c>
       <c r="C32" s="66"/>
       <c r="D32" s="36"/>
-      <c r="E32" s="188"/>
-      <c r="F32" s="188"/>
-      <c r="G32" s="188"/>
-      <c r="H32" s="188"/>
-      <c r="I32" s="188"/>
-      <c r="J32" s="188"/>
+      <c r="E32" s="221"/>
+      <c r="F32" s="221"/>
+      <c r="G32" s="221"/>
+      <c r="H32" s="221"/>
+      <c r="I32" s="221"/>
+      <c r="J32" s="221"/>
     </row>
     <row r="33" spans="1:10" ht="12" customHeight="1">
       <c r="A33" s="79">
@@ -9099,12 +9428,12 @@
       </c>
       <c r="C33" s="66"/>
       <c r="D33" s="36"/>
-      <c r="E33" s="188"/>
-      <c r="F33" s="188"/>
-      <c r="G33" s="188"/>
-      <c r="H33" s="188"/>
-      <c r="I33" s="188"/>
-      <c r="J33" s="188"/>
+      <c r="E33" s="221"/>
+      <c r="F33" s="221"/>
+      <c r="G33" s="221"/>
+      <c r="H33" s="221"/>
+      <c r="I33" s="221"/>
+      <c r="J33" s="221"/>
     </row>
     <row r="34" spans="1:10" ht="12" customHeight="1">
       <c r="A34" s="80">
@@ -9115,12 +9444,12 @@
       </c>
       <c r="C34" s="66"/>
       <c r="D34" s="36"/>
-      <c r="E34" s="188"/>
-      <c r="F34" s="188"/>
-      <c r="G34" s="188"/>
-      <c r="H34" s="188"/>
-      <c r="I34" s="188"/>
-      <c r="J34" s="188"/>
+      <c r="E34" s="221"/>
+      <c r="F34" s="221"/>
+      <c r="G34" s="221"/>
+      <c r="H34" s="221"/>
+      <c r="I34" s="221"/>
+      <c r="J34" s="221"/>
     </row>
   </sheetData>
   <mergeCells count="32">
@@ -9180,8 +9509,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A55" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="N74" sqref="N74"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A10" zoomScale="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="L40" sqref="L40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -9200,10 +9529,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="195" t="s">
+      <c r="A1" s="234" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="195"/>
+      <c r="B1" s="234"/>
       <c r="C1" s="30" t="s">
         <v>1</v>
       </c>
@@ -9234,8 +9563,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="195"/>
-      <c r="B2" s="195"/>
+      <c r="A2" s="234"/>
+      <c r="B2" s="234"/>
       <c r="C2" s="30" t="s">
         <v>2</v>
       </c>
@@ -9266,20 +9595,20 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="12" customHeight="1">
-      <c r="A4" s="201" t="s">
+      <c r="A4" s="240" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="203"/>
-      <c r="C4" s="203"/>
-      <c r="D4" s="203"/>
-      <c r="E4" s="203"/>
-      <c r="F4" s="203"/>
-      <c r="G4" s="203"/>
-      <c r="H4" s="202"/>
-      <c r="I4" s="201" t="s">
+      <c r="B4" s="242"/>
+      <c r="C4" s="242"/>
+      <c r="D4" s="242"/>
+      <c r="E4" s="242"/>
+      <c r="F4" s="242"/>
+      <c r="G4" s="242"/>
+      <c r="H4" s="241"/>
+      <c r="I4" s="240" t="s">
         <v>38</v>
       </c>
-      <c r="J4" s="202"/>
+      <c r="J4" s="241"/>
     </row>
     <row r="5" spans="1:10" ht="12" customHeight="1">
       <c r="A5" s="38"/>
@@ -9290,10 +9619,10 @@
       <c r="F5" s="39"/>
       <c r="G5" s="39"/>
       <c r="H5" s="40"/>
-      <c r="I5" s="208" t="s">
-        <v>228</v>
-      </c>
-      <c r="J5" s="209"/>
+      <c r="I5" s="247" t="s">
+        <v>227</v>
+      </c>
+      <c r="J5" s="248"/>
     </row>
     <row r="6" spans="1:10" ht="12" customHeight="1">
       <c r="A6" s="38"/>
@@ -9304,8 +9633,8 @@
       <c r="F6" s="39"/>
       <c r="G6" s="39"/>
       <c r="H6" s="41"/>
-      <c r="I6" s="210"/>
-      <c r="J6" s="211"/>
+      <c r="I6" s="249"/>
+      <c r="J6" s="250"/>
     </row>
     <row r="7" spans="1:10" ht="12" customHeight="1">
       <c r="A7" s="38"/>
@@ -9316,8 +9645,8 @@
       <c r="F7" s="39"/>
       <c r="G7" s="39"/>
       <c r="H7" s="41"/>
-      <c r="I7" s="210"/>
-      <c r="J7" s="211"/>
+      <c r="I7" s="249"/>
+      <c r="J7" s="250"/>
     </row>
     <row r="8" spans="1:10" ht="12" customHeight="1">
       <c r="A8" s="38"/>
@@ -9328,8 +9657,8 @@
       <c r="F8" s="39"/>
       <c r="G8" s="39"/>
       <c r="H8" s="41"/>
-      <c r="I8" s="210"/>
-      <c r="J8" s="211"/>
+      <c r="I8" s="249"/>
+      <c r="J8" s="250"/>
     </row>
     <row r="9" spans="1:10" ht="12" customHeight="1">
       <c r="A9" s="38"/>
@@ -9340,8 +9669,8 @@
       <c r="F9" s="39"/>
       <c r="G9" s="39"/>
       <c r="H9" s="41"/>
-      <c r="I9" s="210"/>
-      <c r="J9" s="211"/>
+      <c r="I9" s="249"/>
+      <c r="J9" s="250"/>
     </row>
     <row r="10" spans="1:10" ht="12" customHeight="1">
       <c r="A10" s="38"/>
@@ -9352,8 +9681,8 @@
       <c r="F10" s="39"/>
       <c r="G10" s="39"/>
       <c r="H10" s="41"/>
-      <c r="I10" s="212"/>
-      <c r="J10" s="213"/>
+      <c r="I10" s="251"/>
+      <c r="J10" s="252"/>
     </row>
     <row r="11" spans="1:10" ht="12" customHeight="1">
       <c r="A11" s="38"/>
@@ -9364,10 +9693,10 @@
       <c r="F11" s="39"/>
       <c r="G11" s="39"/>
       <c r="H11" s="42"/>
-      <c r="I11" s="201" t="s">
+      <c r="I11" s="240" t="s">
         <v>39</v>
       </c>
-      <c r="J11" s="202"/>
+      <c r="J11" s="241"/>
     </row>
     <row r="12" spans="1:10" ht="12" customHeight="1">
       <c r="A12" s="38"/>
@@ -9378,10 +9707,10 @@
       <c r="F12" s="39"/>
       <c r="G12" s="39"/>
       <c r="H12" s="41"/>
-      <c r="I12" s="204" t="s">
-        <v>229</v>
-      </c>
-      <c r="J12" s="205"/>
+      <c r="I12" s="243" t="s">
+        <v>228</v>
+      </c>
+      <c r="J12" s="244"/>
     </row>
     <row r="13" spans="1:10" ht="12" customHeight="1">
       <c r="A13" s="38"/>
@@ -9392,8 +9721,8 @@
       <c r="F13" s="39"/>
       <c r="G13" s="39"/>
       <c r="H13" s="41"/>
-      <c r="I13" s="206"/>
-      <c r="J13" s="207"/>
+      <c r="I13" s="245"/>
+      <c r="J13" s="246"/>
     </row>
     <row r="14" spans="1:10" ht="12" customHeight="1">
       <c r="A14" s="38"/>
@@ -9404,8 +9733,8 @@
       <c r="F14" s="39"/>
       <c r="G14" s="39"/>
       <c r="H14" s="41"/>
-      <c r="I14" s="206"/>
-      <c r="J14" s="207"/>
+      <c r="I14" s="245"/>
+      <c r="J14" s="246"/>
     </row>
     <row r="15" spans="1:10" ht="12" customHeight="1">
       <c r="A15" s="38"/>
@@ -9416,8 +9745,8 @@
       <c r="F15" s="39"/>
       <c r="G15" s="39"/>
       <c r="H15" s="41"/>
-      <c r="I15" s="206"/>
-      <c r="J15" s="207"/>
+      <c r="I15" s="245"/>
+      <c r="J15" s="246"/>
     </row>
     <row r="16" spans="1:10" ht="12" customHeight="1">
       <c r="A16" s="38"/>
@@ -9428,8 +9757,8 @@
       <c r="F16" s="39"/>
       <c r="G16" s="39"/>
       <c r="H16" s="41"/>
-      <c r="I16" s="206"/>
-      <c r="J16" s="207"/>
+      <c r="I16" s="245"/>
+      <c r="J16" s="246"/>
     </row>
     <row r="17" spans="1:10" ht="12" customHeight="1">
       <c r="A17" s="38"/>
@@ -9440,8 +9769,8 @@
       <c r="F17" s="39"/>
       <c r="G17" s="39"/>
       <c r="H17" s="41"/>
-      <c r="I17" s="206"/>
-      <c r="J17" s="207"/>
+      <c r="I17" s="245"/>
+      <c r="J17" s="246"/>
     </row>
     <row r="18" spans="1:10" ht="12" customHeight="1">
       <c r="A18" s="38"/>
@@ -9452,8 +9781,8 @@
       <c r="F18" s="39"/>
       <c r="G18" s="39"/>
       <c r="H18" s="41"/>
-      <c r="I18" s="206"/>
-      <c r="J18" s="207"/>
+      <c r="I18" s="245"/>
+      <c r="J18" s="246"/>
     </row>
     <row r="19" spans="1:10" ht="12" customHeight="1">
       <c r="A19" s="38"/>
@@ -9464,8 +9793,8 @@
       <c r="F19" s="39"/>
       <c r="G19" s="39"/>
       <c r="H19" s="41"/>
-      <c r="I19" s="206"/>
-      <c r="J19" s="207"/>
+      <c r="I19" s="245"/>
+      <c r="J19" s="246"/>
     </row>
     <row r="20" spans="1:10" ht="12" customHeight="1">
       <c r="A20" s="38"/>
@@ -9476,8 +9805,8 @@
       <c r="F20" s="39"/>
       <c r="G20" s="39"/>
       <c r="H20" s="41"/>
-      <c r="I20" s="206"/>
-      <c r="J20" s="207"/>
+      <c r="I20" s="245"/>
+      <c r="J20" s="246"/>
     </row>
     <row r="21" spans="1:10" ht="12" customHeight="1">
       <c r="A21" s="38"/>
@@ -9488,8 +9817,8 @@
       <c r="F21" s="39"/>
       <c r="G21" s="39"/>
       <c r="H21" s="41"/>
-      <c r="I21" s="206"/>
-      <c r="J21" s="207"/>
+      <c r="I21" s="245"/>
+      <c r="J21" s="246"/>
     </row>
     <row r="22" spans="1:10" ht="12" customHeight="1">
       <c r="A22" s="38"/>
@@ -9500,8 +9829,8 @@
       <c r="F22" s="39"/>
       <c r="G22" s="39"/>
       <c r="H22" s="41"/>
-      <c r="I22" s="206"/>
-      <c r="J22" s="207"/>
+      <c r="I22" s="245"/>
+      <c r="J22" s="246"/>
     </row>
     <row r="23" spans="1:10" ht="12" customHeight="1">
       <c r="A23" s="38"/>
@@ -9512,8 +9841,8 @@
       <c r="F23" s="39"/>
       <c r="G23" s="39"/>
       <c r="H23" s="41"/>
-      <c r="I23" s="206"/>
-      <c r="J23" s="207"/>
+      <c r="I23" s="245"/>
+      <c r="J23" s="246"/>
     </row>
     <row r="24" spans="1:10" ht="12" customHeight="1">
       <c r="A24" s="38"/>
@@ -9524,8 +9853,8 @@
       <c r="F24" s="39"/>
       <c r="G24" s="39"/>
       <c r="H24" s="41"/>
-      <c r="I24" s="206"/>
-      <c r="J24" s="207"/>
+      <c r="I24" s="245"/>
+      <c r="J24" s="246"/>
     </row>
     <row r="25" spans="1:10" ht="12" customHeight="1">
       <c r="A25" s="38"/>
@@ -9536,8 +9865,8 @@
       <c r="F25" s="39"/>
       <c r="G25" s="39"/>
       <c r="H25" s="41"/>
-      <c r="I25" s="206"/>
-      <c r="J25" s="207"/>
+      <c r="I25" s="245"/>
+      <c r="J25" s="246"/>
     </row>
     <row r="26" spans="1:10" ht="12" customHeight="1">
       <c r="A26" s="38"/>
@@ -9548,8 +9877,8 @@
       <c r="F26" s="39"/>
       <c r="G26" s="39"/>
       <c r="H26" s="41"/>
-      <c r="I26" s="206"/>
-      <c r="J26" s="207"/>
+      <c r="I26" s="245"/>
+      <c r="J26" s="246"/>
     </row>
     <row r="27" spans="1:10" ht="12" customHeight="1">
       <c r="A27" s="38"/>
@@ -9560,8 +9889,8 @@
       <c r="F27" s="39"/>
       <c r="G27" s="39"/>
       <c r="H27" s="41"/>
-      <c r="I27" s="206"/>
-      <c r="J27" s="207"/>
+      <c r="I27" s="245"/>
+      <c r="J27" s="246"/>
     </row>
     <row r="28" spans="1:10" ht="12" customHeight="1">
       <c r="A28" s="38"/>
@@ -9572,8 +9901,8 @@
       <c r="F28" s="39"/>
       <c r="G28" s="39"/>
       <c r="H28" s="41"/>
-      <c r="I28" s="206"/>
-      <c r="J28" s="207"/>
+      <c r="I28" s="245"/>
+      <c r="J28" s="246"/>
     </row>
     <row r="29" spans="1:10" ht="12" customHeight="1">
       <c r="A29" s="38"/>
@@ -9584,8 +9913,8 @@
       <c r="F29" s="39"/>
       <c r="G29" s="39"/>
       <c r="H29" s="41"/>
-      <c r="I29" s="206"/>
-      <c r="J29" s="207"/>
+      <c r="I29" s="245"/>
+      <c r="J29" s="246"/>
     </row>
     <row r="30" spans="1:10" ht="12" customHeight="1">
       <c r="A30" s="38"/>
@@ -9596,8 +9925,8 @@
       <c r="F30" s="39"/>
       <c r="G30" s="39"/>
       <c r="H30" s="41"/>
-      <c r="I30" s="206"/>
-      <c r="J30" s="207"/>
+      <c r="I30" s="245"/>
+      <c r="J30" s="246"/>
     </row>
     <row r="31" spans="1:10" ht="12" customHeight="1">
       <c r="A31" s="38"/>
@@ -9608,8 +9937,8 @@
       <c r="F31" s="39"/>
       <c r="G31" s="39"/>
       <c r="H31" s="41"/>
-      <c r="I31" s="206"/>
-      <c r="J31" s="207"/>
+      <c r="I31" s="245"/>
+      <c r="J31" s="246"/>
     </row>
     <row r="32" spans="1:10" ht="12" customHeight="1">
       <c r="A32" s="38"/>
@@ -9620,8 +9949,8 @@
       <c r="F32" s="39"/>
       <c r="G32" s="39"/>
       <c r="H32" s="41"/>
-      <c r="I32" s="206"/>
-      <c r="J32" s="207"/>
+      <c r="I32" s="245"/>
+      <c r="J32" s="246"/>
     </row>
     <row r="33" spans="1:10" ht="12" customHeight="1">
       <c r="A33" s="38"/>
@@ -9632,8 +9961,8 @@
       <c r="F33" s="39"/>
       <c r="G33" s="39"/>
       <c r="H33" s="41"/>
-      <c r="I33" s="206"/>
-      <c r="J33" s="207"/>
+      <c r="I33" s="245"/>
+      <c r="J33" s="246"/>
     </row>
     <row r="34" spans="1:10" ht="12" customHeight="1">
       <c r="A34" s="38"/>
@@ -9644,8 +9973,8 @@
       <c r="F34" s="39"/>
       <c r="G34" s="39"/>
       <c r="H34" s="41"/>
-      <c r="I34" s="206"/>
-      <c r="J34" s="207"/>
+      <c r="I34" s="245"/>
+      <c r="J34" s="246"/>
     </row>
     <row r="35" spans="1:10" ht="12" customHeight="1">
       <c r="A35" s="38"/>
@@ -9656,8 +9985,8 @@
       <c r="F35" s="39"/>
       <c r="G35" s="39"/>
       <c r="H35" s="41"/>
-      <c r="I35" s="206"/>
-      <c r="J35" s="207"/>
+      <c r="I35" s="245"/>
+      <c r="J35" s="246"/>
     </row>
     <row r="36" spans="1:10" ht="12" customHeight="1">
       <c r="A36" s="38"/>
@@ -9668,8 +9997,8 @@
       <c r="F36" s="39"/>
       <c r="G36" s="39"/>
       <c r="H36" s="41"/>
-      <c r="I36" s="206"/>
-      <c r="J36" s="207"/>
+      <c r="I36" s="245"/>
+      <c r="J36" s="246"/>
     </row>
     <row r="37" spans="1:10" ht="12" customHeight="1">
       <c r="A37" s="38"/>
@@ -9680,8 +10009,8 @@
       <c r="F37" s="39"/>
       <c r="G37" s="39"/>
       <c r="H37" s="41"/>
-      <c r="I37" s="206"/>
-      <c r="J37" s="207"/>
+      <c r="I37" s="245"/>
+      <c r="J37" s="246"/>
     </row>
     <row r="38" spans="1:10" ht="12" customHeight="1">
       <c r="A38" s="38"/>
@@ -9692,8 +10021,8 @@
       <c r="F38" s="39"/>
       <c r="G38" s="39"/>
       <c r="H38" s="41"/>
-      <c r="I38" s="206"/>
-      <c r="J38" s="207"/>
+      <c r="I38" s="245"/>
+      <c r="J38" s="246"/>
     </row>
     <row r="39" spans="1:10" ht="12" customHeight="1">
       <c r="A39" s="38"/>
@@ -9704,8 +10033,8 @@
       <c r="F39" s="39"/>
       <c r="G39" s="39"/>
       <c r="H39" s="41"/>
-      <c r="I39" s="206"/>
-      <c r="J39" s="207"/>
+      <c r="I39" s="245"/>
+      <c r="J39" s="246"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -9730,13 +10059,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O47"/>
+  <dimension ref="A1:O66"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="6" ySplit="4" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="E26" sqref="E26"/>
+      <selection pane="bottomRight" activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -9759,12 +10088,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="195" t="s">
+      <c r="A1" s="234" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="195"/>
-      <c r="C1" s="195"/>
-      <c r="D1" s="195"/>
+      <c r="B1" s="234"/>
+      <c r="C1" s="234"/>
+      <c r="D1" s="234"/>
       <c r="E1" s="29" t="s">
         <v>1</v>
       </c>
@@ -9772,16 +10101,16 @@
         <f>'Update History'!D1</f>
         <v>ASOFT - ERP.NET</v>
       </c>
-      <c r="G1" s="214" t="s">
+      <c r="G1" s="253" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="215"/>
-      <c r="I1" s="216" t="str">
+      <c r="H1" s="254"/>
+      <c r="I1" s="255" t="str">
         <f>'Update History'!F1</f>
         <v>CRMF2082</v>
       </c>
-      <c r="J1" s="217"/>
-      <c r="K1" s="218"/>
+      <c r="J1" s="256"/>
+      <c r="K1" s="257"/>
       <c r="L1" s="30" t="s">
         <v>5</v>
       </c>
@@ -9798,10 +10127,10 @@
       </c>
     </row>
     <row r="2" spans="1:15" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="195"/>
-      <c r="B2" s="195"/>
-      <c r="C2" s="195"/>
-      <c r="D2" s="195"/>
+      <c r="A2" s="234"/>
+      <c r="B2" s="234"/>
+      <c r="C2" s="234"/>
+      <c r="D2" s="234"/>
       <c r="E2" s="29" t="s">
         <v>2</v>
       </c>
@@ -9809,16 +10138,16 @@
         <f>'Update History'!D2</f>
         <v>ASOFT-CRM</v>
       </c>
-      <c r="G2" s="214" t="s">
+      <c r="G2" s="253" t="s">
         <v>49</v>
       </c>
-      <c r="H2" s="215"/>
-      <c r="I2" s="216" t="str">
+      <c r="H2" s="254"/>
+      <c r="I2" s="255" t="str">
         <f>'Update History'!F2</f>
         <v>Xem chi tiết yêu cầu</v>
       </c>
-      <c r="J2" s="217"/>
-      <c r="K2" s="218"/>
+      <c r="J2" s="256"/>
+      <c r="K2" s="257"/>
       <c r="L2" s="30" t="s">
         <v>6</v>
       </c>
@@ -9892,7 +10221,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="53" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E5" s="110"/>
       <c r="F5" s="110"/>
@@ -9906,34 +10235,34 @@
       <c r="N5" s="110"/>
       <c r="O5" s="110"/>
     </row>
-    <row r="6" spans="1:15" s="25" customFormat="1" ht="63" customHeight="1">
+    <row r="6" spans="1:15" s="25" customFormat="1" ht="11.25">
       <c r="A6" s="106">
         <v>2</v>
       </c>
       <c r="B6" s="106" t="s">
         <v>155</v>
       </c>
-      <c r="C6" s="122">
+      <c r="C6" s="106">
         <v>2</v>
       </c>
-      <c r="D6" s="122" t="s">
-        <v>230</v>
-      </c>
-      <c r="E6" s="121" t="s">
+      <c r="D6" s="121" t="s">
+        <v>229</v>
+      </c>
+      <c r="E6" s="120" t="s">
         <v>173</v>
       </c>
-      <c r="F6" s="121"/>
-      <c r="G6" s="121" t="s">
+      <c r="F6" s="120"/>
+      <c r="G6" s="120" t="s">
         <v>174</v>
       </c>
-      <c r="H6" s="121"/>
+      <c r="H6" s="120"/>
       <c r="I6" s="109"/>
       <c r="J6" s="109"/>
       <c r="K6" s="108"/>
-      <c r="L6" s="121"/>
-      <c r="M6" s="121"/>
-      <c r="N6" s="121"/>
-      <c r="O6" s="124"/>
+      <c r="L6" s="120"/>
+      <c r="M6" s="120"/>
+      <c r="N6" s="120"/>
+      <c r="O6" s="123"/>
     </row>
     <row r="7" spans="1:15" s="25" customFormat="1" ht="45">
       <c r="A7" s="31">
@@ -9942,34 +10271,34 @@
       <c r="B7" s="106" t="s">
         <v>155</v>
       </c>
-      <c r="C7" s="125" t="s">
+      <c r="C7" s="196" t="s">
         <v>175</v>
       </c>
-      <c r="D7" s="122" t="s">
-        <v>187</v>
-      </c>
-      <c r="E7" s="121" t="s">
+      <c r="D7" s="121" t="s">
         <v>186</v>
       </c>
-      <c r="F7" s="121" t="s">
-        <v>186</v>
-      </c>
-      <c r="G7" s="121" t="s">
+      <c r="E7" s="120" t="s">
+        <v>185</v>
+      </c>
+      <c r="F7" s="120" t="s">
+        <v>185</v>
+      </c>
+      <c r="G7" s="120" t="s">
         <v>178</v>
       </c>
-      <c r="H7" s="121" t="s">
+      <c r="H7" s="120" t="s">
         <v>176</v>
       </c>
       <c r="I7" s="109"/>
       <c r="J7" s="109"/>
       <c r="K7" s="36" t="s">
-        <v>189</v>
-      </c>
-      <c r="L7" s="121"/>
-      <c r="M7" s="121"/>
-      <c r="N7" s="121"/>
-      <c r="O7" s="124" t="s">
-        <v>225</v>
+        <v>188</v>
+      </c>
+      <c r="L7" s="120"/>
+      <c r="M7" s="120"/>
+      <c r="N7" s="120"/>
+      <c r="O7" s="123" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="8" spans="1:15" s="25" customFormat="1" ht="11.25">
@@ -9979,33 +10308,33 @@
       <c r="B8" s="106" t="s">
         <v>155</v>
       </c>
-      <c r="C8" s="125" t="s">
+      <c r="C8" s="196" t="s">
         <v>177</v>
       </c>
-      <c r="D8" s="131" t="s">
-        <v>274</v>
-      </c>
-      <c r="E8" s="121" t="s">
-        <v>281</v>
-      </c>
-      <c r="F8" s="145" t="s">
-        <v>281</v>
-      </c>
-      <c r="G8" s="121" t="s">
+      <c r="D8" s="129" t="s">
+        <v>271</v>
+      </c>
+      <c r="E8" s="120" t="s">
+        <v>277</v>
+      </c>
+      <c r="F8" s="143" t="s">
+        <v>277</v>
+      </c>
+      <c r="G8" s="120" t="s">
         <v>178</v>
       </c>
-      <c r="H8" s="121" t="s">
+      <c r="H8" s="120" t="s">
         <v>176</v>
       </c>
       <c r="I8" s="109"/>
       <c r="J8" s="109"/>
       <c r="K8" s="36" t="s">
-        <v>189</v>
-      </c>
-      <c r="L8" s="121"/>
-      <c r="M8" s="121"/>
-      <c r="N8" s="121"/>
-      <c r="O8" s="124"/>
+        <v>188</v>
+      </c>
+      <c r="L8" s="120"/>
+      <c r="M8" s="120"/>
+      <c r="N8" s="120"/>
+      <c r="O8" s="123"/>
     </row>
     <row r="9" spans="1:15" s="32" customFormat="1" ht="11.25">
       <c r="A9" s="31">
@@ -10014,1291 +10343,1888 @@
       <c r="B9" s="31" t="s">
         <v>155</v>
       </c>
-      <c r="C9" s="125" t="s">
-        <v>209</v>
-      </c>
-      <c r="D9" s="146" t="s">
-        <v>273</v>
-      </c>
-      <c r="E9" s="120" t="s">
-        <v>282</v>
-      </c>
-      <c r="F9" s="144" t="s">
-        <v>282</v>
-      </c>
-      <c r="G9" s="121" t="s">
+      <c r="C9" s="196" t="s">
+        <v>208</v>
+      </c>
+      <c r="D9" s="144" t="s">
+        <v>270</v>
+      </c>
+      <c r="E9" s="119" t="s">
+        <v>278</v>
+      </c>
+      <c r="F9" s="142" t="s">
+        <v>278</v>
+      </c>
+      <c r="G9" s="120" t="s">
         <v>178</v>
       </c>
-      <c r="H9" s="120" t="s">
+      <c r="H9" s="119" t="s">
         <v>176</v>
       </c>
       <c r="I9" s="55"/>
       <c r="J9" s="55"/>
       <c r="K9" s="36" t="s">
-        <v>189</v>
-      </c>
-      <c r="L9" s="120"/>
-      <c r="M9" s="120"/>
-      <c r="N9" s="120"/>
-      <c r="O9" s="120"/>
+        <v>188</v>
+      </c>
+      <c r="L9" s="119"/>
+      <c r="M9" s="119"/>
+      <c r="N9" s="119"/>
+      <c r="O9" s="119"/>
     </row>
     <row r="10" spans="1:15" s="32" customFormat="1" ht="11.25">
-      <c r="A10" s="106">
-        <v>8</v>
+      <c r="A10" s="31">
+        <v>6</v>
       </c>
       <c r="B10" s="31" t="s">
         <v>155</v>
       </c>
-      <c r="C10" s="125" t="s">
+      <c r="C10" s="196" t="s">
         <v>179</v>
       </c>
-      <c r="D10" s="126" t="s">
-        <v>275</v>
-      </c>
-      <c r="E10" s="120" t="s">
-        <v>283</v>
-      </c>
-      <c r="F10" s="144" t="s">
-        <v>283</v>
-      </c>
-      <c r="G10" s="121" t="s">
+      <c r="D10" s="124" t="s">
+        <v>272</v>
+      </c>
+      <c r="E10" s="119" t="s">
+        <v>279</v>
+      </c>
+      <c r="F10" s="142" t="s">
+        <v>279</v>
+      </c>
+      <c r="G10" s="120" t="s">
         <v>178</v>
       </c>
-      <c r="H10" s="120" t="s">
+      <c r="H10" s="119" t="s">
         <v>176</v>
       </c>
       <c r="I10" s="55"/>
       <c r="J10" s="55"/>
       <c r="K10" s="36" t="s">
-        <v>189</v>
-      </c>
-      <c r="L10" s="120"/>
-      <c r="M10" s="120"/>
-      <c r="N10" s="120"/>
-      <c r="O10" s="120"/>
-    </row>
-    <row r="11" spans="1:15" s="32" customFormat="1" ht="11.25">
-      <c r="A11" s="106">
-        <v>14</v>
-      </c>
-      <c r="B11" s="31" t="s">
-        <v>155</v>
-      </c>
-      <c r="C11" s="125" t="s">
-        <v>180</v>
-      </c>
-      <c r="D11" s="131" t="s">
-        <v>276</v>
-      </c>
-      <c r="E11" s="120" t="s">
-        <v>284</v>
-      </c>
-      <c r="F11" s="144" t="s">
-        <v>284</v>
-      </c>
-      <c r="G11" s="121" t="s">
+        <v>188</v>
+      </c>
+      <c r="L10" s="119"/>
+      <c r="M10" s="119"/>
+      <c r="N10" s="119"/>
+      <c r="O10" s="119"/>
+    </row>
+    <row r="11" spans="1:15" s="177" customFormat="1" ht="11.25">
+      <c r="A11" s="172">
+        <v>8</v>
+      </c>
+      <c r="B11" s="172" t="s">
+        <v>362</v>
+      </c>
+      <c r="C11" s="197">
+        <v>2.5</v>
+      </c>
+      <c r="D11" s="173" t="s">
+        <v>358</v>
+      </c>
+      <c r="E11" s="174" t="s">
+        <v>359</v>
+      </c>
+      <c r="F11" s="174" t="s">
+        <v>359</v>
+      </c>
+      <c r="G11" s="175" t="s">
         <v>178</v>
       </c>
-      <c r="H11" s="121" t="s">
+      <c r="H11" s="175" t="s">
         <v>176</v>
       </c>
-      <c r="I11" s="55"/>
-      <c r="J11" s="55"/>
-      <c r="K11" s="36" t="s">
-        <v>189</v>
-      </c>
-      <c r="L11" s="120"/>
-      <c r="M11" s="120"/>
-      <c r="N11" s="120"/>
-      <c r="O11" s="120"/>
+      <c r="I11" s="176"/>
+      <c r="J11" s="176"/>
+      <c r="K11" s="168" t="s">
+        <v>188</v>
+      </c>
+      <c r="L11" s="174"/>
+      <c r="M11" s="174"/>
+      <c r="N11" s="174"/>
+      <c r="O11" s="174"/>
     </row>
     <row r="12" spans="1:15" s="32" customFormat="1" ht="11.25">
       <c r="A12" s="31">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B12" s="31" t="s">
         <v>155</v>
       </c>
-      <c r="C12" s="125" t="s">
-        <v>181</v>
-      </c>
-      <c r="D12" s="131" t="s">
-        <v>277</v>
-      </c>
-      <c r="E12" s="120" t="s">
-        <v>285</v>
-      </c>
-      <c r="F12" s="144" t="s">
-        <v>285</v>
-      </c>
-      <c r="G12" s="121" t="s">
+      <c r="C12" s="196" t="s">
+        <v>180</v>
+      </c>
+      <c r="D12" s="129" t="s">
+        <v>274</v>
+      </c>
+      <c r="E12" s="119" t="s">
+        <v>281</v>
+      </c>
+      <c r="F12" s="142" t="s">
+        <v>281</v>
+      </c>
+      <c r="G12" s="120" t="s">
         <v>178</v>
       </c>
-      <c r="H12" s="121" t="s">
+      <c r="H12" s="120" t="s">
         <v>176</v>
       </c>
       <c r="I12" s="55"/>
       <c r="J12" s="55"/>
       <c r="K12" s="36" t="s">
-        <v>189</v>
-      </c>
-      <c r="L12" s="120"/>
-      <c r="M12" s="120"/>
-      <c r="N12" s="120"/>
-      <c r="O12" s="120"/>
-    </row>
-    <row r="13" spans="1:15" s="25" customFormat="1" ht="11.25">
-      <c r="A13" s="106">
-        <v>4</v>
-      </c>
-      <c r="B13" s="106" t="s">
+        <v>188</v>
+      </c>
+      <c r="L12" s="119"/>
+      <c r="M12" s="119"/>
+      <c r="N12" s="119"/>
+      <c r="O12" s="119"/>
+    </row>
+    <row r="13" spans="1:15" s="177" customFormat="1" ht="11.25">
+      <c r="A13" s="172">
+        <v>10</v>
+      </c>
+      <c r="B13" s="172" t="s">
+        <v>362</v>
+      </c>
+      <c r="C13" s="197">
+        <v>2.7</v>
+      </c>
+      <c r="D13" s="173" t="s">
+        <v>360</v>
+      </c>
+      <c r="E13" s="174" t="s">
+        <v>361</v>
+      </c>
+      <c r="F13" s="174" t="s">
+        <v>361</v>
+      </c>
+      <c r="G13" s="175" t="s">
+        <v>178</v>
+      </c>
+      <c r="H13" s="175" t="s">
+        <v>176</v>
+      </c>
+      <c r="I13" s="176"/>
+      <c r="J13" s="176"/>
+      <c r="K13" s="168" t="s">
+        <v>188</v>
+      </c>
+      <c r="L13" s="174"/>
+      <c r="M13" s="174"/>
+      <c r="N13" s="174"/>
+      <c r="O13" s="174"/>
+    </row>
+    <row r="14" spans="1:15" s="25" customFormat="1" ht="11.25">
+      <c r="A14" s="31">
+        <v>11</v>
+      </c>
+      <c r="B14" s="106" t="s">
         <v>155</v>
       </c>
-      <c r="C13" s="125" t="s">
-        <v>290</v>
-      </c>
-      <c r="D13" s="146" t="s">
-        <v>278</v>
-      </c>
-      <c r="E13" s="145" t="s">
+      <c r="C14" s="196" t="s">
         <v>286</v>
       </c>
-      <c r="F13" s="145" t="s">
-        <v>286</v>
-      </c>
-      <c r="G13" s="145" t="s">
+      <c r="D14" s="144" t="s">
+        <v>275</v>
+      </c>
+      <c r="E14" s="143" t="s">
+        <v>282</v>
+      </c>
+      <c r="F14" s="143" t="s">
+        <v>282</v>
+      </c>
+      <c r="G14" s="143" t="s">
         <v>178</v>
       </c>
-      <c r="H13" s="145" t="s">
+      <c r="H14" s="143" t="s">
         <v>176</v>
       </c>
-      <c r="I13" s="109"/>
-      <c r="J13" s="109"/>
-      <c r="K13" s="36" t="s">
-        <v>189</v>
-      </c>
-      <c r="L13" s="145"/>
-      <c r="M13" s="145"/>
-      <c r="N13" s="145"/>
-      <c r="O13" s="124"/>
-    </row>
-    <row r="14" spans="1:15" s="32" customFormat="1" ht="11.25">
-      <c r="A14" s="31">
-        <v>5</v>
-      </c>
-      <c r="B14" s="31" t="s">
-        <v>155</v>
-      </c>
-      <c r="C14" s="125" t="s">
-        <v>291</v>
-      </c>
-      <c r="D14" s="146" t="s">
-        <v>279</v>
-      </c>
-      <c r="E14" s="144" t="s">
-        <v>287</v>
-      </c>
-      <c r="F14" s="144" t="s">
-        <v>287</v>
-      </c>
-      <c r="G14" s="145" t="s">
-        <v>178</v>
-      </c>
-      <c r="H14" s="144" t="s">
-        <v>176</v>
-      </c>
-      <c r="I14" s="55"/>
-      <c r="J14" s="55"/>
+      <c r="I14" s="109"/>
+      <c r="J14" s="109"/>
       <c r="K14" s="36" t="s">
-        <v>189</v>
-      </c>
-      <c r="L14" s="144"/>
-      <c r="M14" s="144"/>
-      <c r="N14" s="144"/>
-      <c r="O14" s="144"/>
-    </row>
-    <row r="15" spans="1:15" s="32" customFormat="1" ht="11.25">
-      <c r="A15" s="106">
-        <v>8</v>
-      </c>
-      <c r="B15" s="31" t="s">
-        <v>155</v>
-      </c>
-      <c r="C15" s="125" t="s">
-        <v>292</v>
-      </c>
-      <c r="D15" s="126" t="s">
-        <v>198</v>
-      </c>
-      <c r="E15" s="144" t="s">
-        <v>288</v>
-      </c>
-      <c r="F15" s="144" t="s">
-        <v>288</v>
-      </c>
-      <c r="G15" s="145" t="s">
-        <v>178</v>
-      </c>
-      <c r="H15" s="144" t="s">
-        <v>176</v>
-      </c>
-      <c r="I15" s="55"/>
-      <c r="J15" s="55"/>
-      <c r="K15" s="36" t="s">
-        <v>189</v>
-      </c>
-      <c r="L15" s="144"/>
-      <c r="M15" s="144"/>
-      <c r="N15" s="144"/>
-      <c r="O15" s="144"/>
-    </row>
-    <row r="16" spans="1:15" s="32" customFormat="1" ht="11.25">
-      <c r="A16" s="106">
-        <v>14</v>
+        <v>188</v>
+      </c>
+      <c r="L14" s="143"/>
+      <c r="M14" s="143"/>
+      <c r="N14" s="143"/>
+      <c r="O14" s="123"/>
+    </row>
+    <row r="15" spans="1:15" s="179" customFormat="1" ht="11.25">
+      <c r="A15" s="172">
+        <v>12</v>
+      </c>
+      <c r="B15" s="172" t="s">
+        <v>362</v>
+      </c>
+      <c r="C15" s="197">
+        <v>2.9</v>
+      </c>
+      <c r="D15" s="173" t="s">
+        <v>363</v>
+      </c>
+      <c r="E15" s="175" t="s">
+        <v>364</v>
+      </c>
+      <c r="F15" s="175" t="s">
+        <v>364</v>
+      </c>
+      <c r="G15" s="175" t="s">
+        <v>372</v>
+      </c>
+      <c r="H15" s="175" t="s">
+        <v>183</v>
+      </c>
+      <c r="I15" s="180"/>
+      <c r="J15" s="180"/>
+      <c r="K15" s="168" t="s">
+        <v>188</v>
+      </c>
+      <c r="L15" s="175"/>
+      <c r="M15" s="175"/>
+      <c r="N15" s="175"/>
+      <c r="O15" s="178"/>
+    </row>
+    <row r="16" spans="1:15" s="25" customFormat="1" ht="11.25">
+      <c r="A16" s="31">
+        <v>13</v>
       </c>
       <c r="B16" s="31" t="s">
         <v>155</v>
       </c>
-      <c r="C16" s="125" t="s">
-        <v>293</v>
-      </c>
-      <c r="D16" s="146" t="s">
-        <v>280</v>
-      </c>
-      <c r="E16" s="144" t="s">
-        <v>289</v>
-      </c>
-      <c r="F16" s="144" t="s">
-        <v>289</v>
-      </c>
-      <c r="G16" s="145" t="s">
-        <v>178</v>
-      </c>
-      <c r="H16" s="145" t="s">
-        <v>176</v>
+      <c r="C16" s="196" t="s">
+        <v>287</v>
+      </c>
+      <c r="D16" s="173" t="s">
+        <v>365</v>
+      </c>
+      <c r="E16" s="142" t="s">
+        <v>283</v>
+      </c>
+      <c r="F16" s="142" t="s">
+        <v>283</v>
+      </c>
+      <c r="G16" s="143" t="s">
+        <v>372</v>
+      </c>
+      <c r="H16" s="142" t="s">
+        <v>183</v>
       </c>
       <c r="I16" s="55"/>
       <c r="J16" s="55"/>
       <c r="K16" s="36" t="s">
-        <v>189</v>
-      </c>
-      <c r="L16" s="144"/>
-      <c r="M16" s="144"/>
-      <c r="N16" s="144"/>
-      <c r="O16" s="144"/>
-    </row>
-    <row r="17" spans="1:15" s="32" customFormat="1" ht="12" customHeight="1">
-      <c r="A17" s="106">
-        <v>24</v>
-      </c>
-      <c r="B17" s="31" t="s">
-        <v>155</v>
-      </c>
-      <c r="C17" s="125">
-        <v>3</v>
-      </c>
-      <c r="D17" s="131" t="s">
-        <v>210</v>
-      </c>
-      <c r="E17" s="120"/>
-      <c r="F17" s="120"/>
-      <c r="G17" s="121"/>
-      <c r="H17" s="121"/>
-      <c r="I17" s="55"/>
-      <c r="J17" s="55"/>
-      <c r="K17" s="36"/>
-      <c r="L17" s="120"/>
-      <c r="M17" s="120"/>
-      <c r="N17" s="120"/>
-      <c r="O17" s="120"/>
-    </row>
-    <row r="18" spans="1:15" s="32" customFormat="1" ht="12" customHeight="1">
-      <c r="A18" s="31">
-        <v>25</v>
-      </c>
-      <c r="B18" s="31" t="s">
-        <v>155</v>
-      </c>
-      <c r="C18" s="125">
-        <v>3.1</v>
-      </c>
-      <c r="D18" s="53" t="s">
-        <v>193</v>
-      </c>
-      <c r="E18" s="53" t="s">
-        <v>211</v>
-      </c>
-      <c r="F18" s="53" t="s">
-        <v>211</v>
-      </c>
-      <c r="G18" s="130" t="s">
+        <v>188</v>
+      </c>
+      <c r="L16" s="165"/>
+      <c r="M16" s="165"/>
+      <c r="N16" s="165"/>
+      <c r="O16" s="123"/>
+    </row>
+    <row r="17" spans="1:15" s="179" customFormat="1" ht="11.25">
+      <c r="A17" s="172">
+        <v>14</v>
+      </c>
+      <c r="B17" s="172" t="s">
+        <v>362</v>
+      </c>
+      <c r="C17" s="197">
+        <v>2.11</v>
+      </c>
+      <c r="D17" s="173" t="s">
+        <v>366</v>
+      </c>
+      <c r="E17" s="175" t="s">
+        <v>367</v>
+      </c>
+      <c r="F17" s="175" t="s">
+        <v>367</v>
+      </c>
+      <c r="G17" s="175" t="s">
+        <v>372</v>
+      </c>
+      <c r="H17" s="174" t="s">
+        <v>183</v>
+      </c>
+      <c r="I17" s="176"/>
+      <c r="J17" s="176"/>
+      <c r="K17" s="168" t="s">
+        <v>188</v>
+      </c>
+      <c r="L17" s="175"/>
+      <c r="M17" s="175"/>
+      <c r="N17" s="175"/>
+      <c r="O17" s="178"/>
+    </row>
+    <row r="18" spans="1:15" s="179" customFormat="1" ht="11.25">
+      <c r="A18" s="172">
+        <v>15</v>
+      </c>
+      <c r="B18" s="172" t="s">
+        <v>362</v>
+      </c>
+      <c r="C18" s="197">
+        <v>2.12</v>
+      </c>
+      <c r="D18" s="173" t="s">
+        <v>368</v>
+      </c>
+      <c r="E18" s="175" t="s">
+        <v>370</v>
+      </c>
+      <c r="F18" s="175" t="s">
+        <v>370</v>
+      </c>
+      <c r="G18" s="175" t="s">
         <v>178</v>
       </c>
-      <c r="H18" s="130" t="s">
-        <v>176</v>
-      </c>
-      <c r="I18" s="55"/>
-      <c r="J18" s="55"/>
-      <c r="K18" s="36" t="s">
-        <v>189</v>
-      </c>
-      <c r="L18" s="120"/>
-      <c r="M18" s="120"/>
-      <c r="N18" s="120"/>
-      <c r="O18" s="120"/>
-    </row>
-    <row r="19" spans="1:15" s="25" customFormat="1" ht="11.25">
-      <c r="A19" s="106">
-        <v>26</v>
-      </c>
-      <c r="B19" s="106" t="s">
-        <v>155</v>
-      </c>
-      <c r="C19" s="125">
-        <v>3.2</v>
-      </c>
-      <c r="D19" s="53" t="s">
-        <v>191</v>
-      </c>
-      <c r="E19" s="53" t="s">
-        <v>192</v>
-      </c>
-      <c r="F19" s="53" t="s">
-        <v>192</v>
-      </c>
-      <c r="G19" s="130" t="s">
+      <c r="H18" s="174" t="s">
+        <v>373</v>
+      </c>
+      <c r="I18" s="176"/>
+      <c r="J18" s="176"/>
+      <c r="K18" s="168" t="s">
+        <v>188</v>
+      </c>
+      <c r="L18" s="175"/>
+      <c r="M18" s="175"/>
+      <c r="N18" s="175"/>
+      <c r="O18" s="178"/>
+    </row>
+    <row r="19" spans="1:15" s="179" customFormat="1" ht="11.25">
+      <c r="A19" s="172">
+        <v>16</v>
+      </c>
+      <c r="B19" s="172" t="s">
+        <v>362</v>
+      </c>
+      <c r="C19" s="197">
+        <v>2.13</v>
+      </c>
+      <c r="D19" s="173" t="s">
+        <v>369</v>
+      </c>
+      <c r="E19" s="175" t="s">
+        <v>371</v>
+      </c>
+      <c r="F19" s="175" t="s">
+        <v>371</v>
+      </c>
+      <c r="G19" s="175" t="s">
         <v>178</v>
       </c>
-      <c r="H19" s="130" t="s">
-        <v>184</v>
-      </c>
-      <c r="I19" s="109"/>
-      <c r="J19" s="109"/>
-      <c r="K19" s="36" t="s">
-        <v>189</v>
-      </c>
-      <c r="L19" s="120" t="s">
-        <v>185</v>
-      </c>
-      <c r="M19" s="121"/>
-      <c r="N19" s="121"/>
-      <c r="O19" s="121"/>
-    </row>
-    <row r="20" spans="1:15" s="32" customFormat="1" ht="12" customHeight="1">
+      <c r="H19" s="174" t="s">
+        <v>373</v>
+      </c>
+      <c r="I19" s="176"/>
+      <c r="J19" s="176"/>
+      <c r="K19" s="168" t="s">
+        <v>188</v>
+      </c>
+      <c r="L19" s="175"/>
+      <c r="M19" s="175"/>
+      <c r="N19" s="175"/>
+      <c r="O19" s="178"/>
+    </row>
+    <row r="20" spans="1:15" s="32" customFormat="1" ht="11.25">
       <c r="A20" s="31">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="B20" s="31" t="s">
         <v>155</v>
       </c>
-      <c r="C20" s="122">
-        <v>3.3</v>
-      </c>
-      <c r="D20" s="53" t="s">
-        <v>212</v>
-      </c>
-      <c r="E20" s="53" t="s">
-        <v>220</v>
-      </c>
-      <c r="F20" s="53" t="s">
-        <v>220</v>
-      </c>
-      <c r="G20" s="130" t="s">
+      <c r="C20" s="196" t="s">
+        <v>355</v>
+      </c>
+      <c r="D20" s="124" t="s">
+        <v>197</v>
+      </c>
+      <c r="E20" s="142" t="s">
+        <v>284</v>
+      </c>
+      <c r="F20" s="142" t="s">
+        <v>284</v>
+      </c>
+      <c r="G20" s="143" t="s">
         <v>178</v>
       </c>
-      <c r="H20" s="130" t="s">
+      <c r="H20" s="142" t="s">
         <v>176</v>
       </c>
       <c r="I20" s="55"/>
       <c r="J20" s="55"/>
       <c r="K20" s="36" t="s">
-        <v>189</v>
-      </c>
-      <c r="L20" s="120"/>
-      <c r="M20" s="120"/>
-      <c r="N20" s="120"/>
-      <c r="O20" s="120"/>
-    </row>
-    <row r="21" spans="1:15" s="32" customFormat="1" ht="12" customHeight="1">
+        <v>188</v>
+      </c>
+      <c r="L20" s="142"/>
+      <c r="M20" s="142"/>
+      <c r="N20" s="142"/>
+      <c r="O20" s="142"/>
+    </row>
+    <row r="21" spans="1:15" s="32" customFormat="1" ht="11.25">
       <c r="A21" s="106">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B21" s="31" t="s">
         <v>155</v>
       </c>
-      <c r="C21" s="125">
-        <v>3.4</v>
-      </c>
-      <c r="D21" s="53" t="s">
-        <v>213</v>
-      </c>
-      <c r="E21" s="53" t="s">
-        <v>214</v>
-      </c>
-      <c r="F21" s="53" t="s">
-        <v>214</v>
-      </c>
-      <c r="G21" s="130" t="s">
+      <c r="C21" s="196" t="s">
+        <v>354</v>
+      </c>
+      <c r="D21" s="144" t="s">
+        <v>276</v>
+      </c>
+      <c r="E21" s="142" t="s">
+        <v>285</v>
+      </c>
+      <c r="F21" s="142" t="s">
+        <v>285</v>
+      </c>
+      <c r="G21" s="143" t="s">
         <v>178</v>
       </c>
-      <c r="H21" s="130" t="s">
-        <v>184</v>
+      <c r="H21" s="143" t="s">
+        <v>176</v>
       </c>
       <c r="I21" s="55"/>
       <c r="J21" s="55"/>
       <c r="K21" s="36" t="s">
-        <v>189</v>
-      </c>
-      <c r="L21" s="129" t="s">
-        <v>185</v>
-      </c>
-      <c r="M21" s="120"/>
-      <c r="N21" s="120"/>
-      <c r="O21" s="120"/>
-    </row>
-    <row r="22" spans="1:15" ht="12" customHeight="1">
-      <c r="A22" s="31">
-        <v>73</v>
+        <v>188</v>
+      </c>
+      <c r="L21" s="142"/>
+      <c r="M21" s="142"/>
+      <c r="N21" s="142"/>
+      <c r="O21" s="142"/>
+    </row>
+    <row r="22" spans="1:15" s="32" customFormat="1" ht="11.25">
+      <c r="A22" s="106">
+        <v>7</v>
       </c>
       <c r="B22" s="31" t="s">
         <v>155</v>
       </c>
-      <c r="C22" s="127" t="s">
-        <v>248</v>
-      </c>
-      <c r="D22" s="53" t="s">
-        <v>233</v>
-      </c>
-      <c r="E22" s="53"/>
-      <c r="F22" s="53"/>
-      <c r="G22" s="144" t="s">
-        <v>234</v>
-      </c>
-      <c r="H22" s="144"/>
+      <c r="C22" s="196">
+        <v>2.16</v>
+      </c>
+      <c r="D22" s="129" t="s">
+        <v>273</v>
+      </c>
+      <c r="E22" s="119" t="s">
+        <v>280</v>
+      </c>
+      <c r="F22" s="142" t="s">
+        <v>280</v>
+      </c>
+      <c r="G22" s="120" t="s">
+        <v>178</v>
+      </c>
+      <c r="H22" s="120" t="s">
+        <v>176</v>
+      </c>
       <c r="I22" s="55"/>
       <c r="J22" s="55"/>
-      <c r="K22" s="36"/>
-      <c r="L22" s="144"/>
-      <c r="M22" s="144"/>
-      <c r="N22" s="144">
-        <v>0</v>
-      </c>
-      <c r="O22" s="144"/>
+      <c r="K22" s="36" t="s">
+        <v>188</v>
+      </c>
+      <c r="L22" s="119"/>
+      <c r="M22" s="119"/>
+      <c r="N22" s="119"/>
+      <c r="O22" s="119"/>
     </row>
     <row r="23" spans="1:15" ht="12" customHeight="1">
-      <c r="A23" s="106">
-        <v>74</v>
+      <c r="A23" s="31">
+        <v>19</v>
       </c>
       <c r="B23" s="31" t="s">
         <v>155</v>
       </c>
-      <c r="C23" s="127" t="s">
-        <v>249</v>
+      <c r="C23" s="125" t="s">
+        <v>246</v>
       </c>
       <c r="D23" s="53" t="s">
-        <v>235</v>
-      </c>
-      <c r="E23" s="53" t="s">
-        <v>235</v>
-      </c>
+        <v>232</v>
+      </c>
+      <c r="E23" s="53"/>
       <c r="F23" s="53"/>
-      <c r="G23" s="144" t="s">
-        <v>188</v>
-      </c>
-      <c r="H23" s="144" t="s">
-        <v>236</v>
-      </c>
+      <c r="G23" s="142" t="s">
+        <v>233</v>
+      </c>
+      <c r="H23" s="142"/>
       <c r="I23" s="55"/>
       <c r="J23" s="55"/>
-      <c r="K23" s="36" t="s">
-        <v>189</v>
-      </c>
-      <c r="L23" s="144"/>
-      <c r="M23" s="144"/>
-      <c r="N23" s="144"/>
-      <c r="O23" s="144"/>
+      <c r="K23" s="36"/>
+      <c r="L23" s="142"/>
+      <c r="M23" s="142"/>
+      <c r="N23" s="142">
+        <v>0</v>
+      </c>
+      <c r="O23" s="142"/>
     </row>
     <row r="24" spans="1:15" ht="12" customHeight="1">
-      <c r="A24" s="31">
-        <v>75</v>
+      <c r="A24" s="106">
+        <v>20</v>
       </c>
       <c r="B24" s="31" t="s">
         <v>155</v>
       </c>
-      <c r="C24" s="127" t="s">
-        <v>250</v>
+      <c r="C24" s="125" t="s">
+        <v>247</v>
       </c>
       <c r="D24" s="53" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="E24" s="53" t="s">
-        <v>190</v>
-      </c>
-      <c r="F24" s="53" t="s">
-        <v>190</v>
-      </c>
-      <c r="G24" s="144" t="s">
-        <v>188</v>
-      </c>
-      <c r="H24" s="144" t="s">
-        <v>176</v>
+        <v>234</v>
+      </c>
+      <c r="F24" s="53"/>
+      <c r="G24" s="142" t="s">
+        <v>187</v>
+      </c>
+      <c r="H24" s="142" t="s">
+        <v>235</v>
       </c>
       <c r="I24" s="55"/>
       <c r="J24" s="55"/>
       <c r="K24" s="36" t="s">
-        <v>189</v>
-      </c>
-      <c r="L24" s="144"/>
-      <c r="M24" s="144"/>
-      <c r="N24" s="144"/>
-      <c r="O24" s="144"/>
+        <v>188</v>
+      </c>
+      <c r="L24" s="142"/>
+      <c r="M24" s="142"/>
+      <c r="N24" s="142"/>
+      <c r="O24" s="142"/>
     </row>
     <row r="25" spans="1:15" ht="12" customHeight="1">
-      <c r="A25" s="106">
-        <v>76</v>
+      <c r="A25" s="31">
+        <v>21</v>
       </c>
       <c r="B25" s="31" t="s">
         <v>155</v>
       </c>
-      <c r="C25" s="127" t="s">
-        <v>251</v>
-      </c>
-      <c r="D25" s="128" t="s">
-        <v>238</v>
+      <c r="C25" s="125" t="s">
+        <v>248</v>
+      </c>
+      <c r="D25" s="53" t="s">
+        <v>236</v>
       </c>
       <c r="E25" s="53" t="s">
-        <v>239</v>
+        <v>189</v>
       </c>
       <c r="F25" s="53" t="s">
-        <v>239</v>
-      </c>
-      <c r="G25" s="144" t="s">
-        <v>188</v>
-      </c>
-      <c r="H25" s="144" t="s">
+        <v>189</v>
+      </c>
+      <c r="G25" s="142" t="s">
+        <v>187</v>
+      </c>
+      <c r="H25" s="142" t="s">
         <v>176</v>
       </c>
       <c r="I25" s="55"/>
       <c r="J25" s="55"/>
       <c r="K25" s="36" t="s">
-        <v>189</v>
-      </c>
-      <c r="L25" s="144"/>
-      <c r="M25" s="144"/>
-      <c r="N25" s="144"/>
-      <c r="O25" s="144"/>
+        <v>188</v>
+      </c>
+      <c r="L25" s="142"/>
+      <c r="M25" s="142"/>
+      <c r="N25" s="142"/>
+      <c r="O25" s="142"/>
     </row>
     <row r="26" spans="1:15" ht="12" customHeight="1">
       <c r="A26" s="31">
-        <v>77</v>
+        <v>22</v>
       </c>
       <c r="B26" s="31" t="s">
         <v>155</v>
       </c>
-      <c r="C26" s="127" t="s">
-        <v>252</v>
-      </c>
-      <c r="D26" s="128" t="s">
-        <v>191</v>
+      <c r="C26" s="125" t="s">
+        <v>249</v>
+      </c>
+      <c r="D26" s="126" t="s">
+        <v>237</v>
       </c>
       <c r="E26" s="53" t="s">
-        <v>192</v>
+        <v>238</v>
       </c>
       <c r="F26" s="53" t="s">
-        <v>192</v>
-      </c>
-      <c r="G26" s="144" t="s">
-        <v>188</v>
-      </c>
-      <c r="H26" s="144" t="s">
-        <v>184</v>
+        <v>238</v>
+      </c>
+      <c r="G26" s="142" t="s">
+        <v>187</v>
+      </c>
+      <c r="H26" s="142" t="s">
+        <v>176</v>
       </c>
       <c r="I26" s="55"/>
       <c r="J26" s="55"/>
       <c r="K26" s="36" t="s">
-        <v>189</v>
-      </c>
-      <c r="L26" s="144" t="s">
-        <v>185</v>
-      </c>
-      <c r="M26" s="144"/>
-      <c r="N26" s="144"/>
-      <c r="O26" s="144"/>
+        <v>188</v>
+      </c>
+      <c r="L26" s="142"/>
+      <c r="M26" s="142"/>
+      <c r="N26" s="142"/>
+      <c r="O26" s="142"/>
     </row>
     <row r="27" spans="1:15" ht="12" customHeight="1">
       <c r="A27" s="106">
-        <v>78</v>
+        <v>23</v>
       </c>
       <c r="B27" s="31" t="s">
         <v>155</v>
       </c>
-      <c r="C27" s="127" t="s">
-        <v>253</v>
-      </c>
-      <c r="D27" s="128" t="s">
-        <v>193</v>
+      <c r="C27" s="125" t="s">
+        <v>250</v>
+      </c>
+      <c r="D27" s="126" t="s">
+        <v>190</v>
       </c>
       <c r="E27" s="53" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="F27" s="53" t="s">
-        <v>194</v>
-      </c>
-      <c r="G27" s="144" t="s">
-        <v>188</v>
-      </c>
-      <c r="H27" s="144" t="s">
-        <v>176</v>
+        <v>191</v>
+      </c>
+      <c r="G27" s="142" t="s">
+        <v>187</v>
+      </c>
+      <c r="H27" s="142" t="s">
+        <v>183</v>
       </c>
       <c r="I27" s="55"/>
       <c r="J27" s="55"/>
       <c r="K27" s="36" t="s">
-        <v>189</v>
-      </c>
-      <c r="L27" s="144"/>
-      <c r="M27" s="144"/>
-      <c r="N27" s="144"/>
-      <c r="O27" s="144"/>
+        <v>188</v>
+      </c>
+      <c r="L27" s="142" t="s">
+        <v>184</v>
+      </c>
+      <c r="M27" s="142"/>
+      <c r="N27" s="142"/>
+      <c r="O27" s="142"/>
     </row>
     <row r="28" spans="1:15" ht="12" customHeight="1">
       <c r="A28" s="31">
-        <v>79</v>
+        <v>24</v>
       </c>
       <c r="B28" s="31" t="s">
         <v>155</v>
       </c>
-      <c r="C28" s="127" t="s">
-        <v>254</v>
-      </c>
-      <c r="D28" s="53" t="s">
-        <v>240</v>
-      </c>
-      <c r="E28" s="144" t="s">
-        <v>241</v>
-      </c>
-      <c r="F28" s="144"/>
-      <c r="G28" s="144" t="s">
-        <v>182</v>
-      </c>
-      <c r="H28" s="144"/>
+      <c r="C28" s="125" t="s">
+        <v>251</v>
+      </c>
+      <c r="D28" s="126" t="s">
+        <v>192</v>
+      </c>
+      <c r="E28" s="53" t="s">
+        <v>193</v>
+      </c>
+      <c r="F28" s="53" t="s">
+        <v>193</v>
+      </c>
+      <c r="G28" s="142" t="s">
+        <v>187</v>
+      </c>
+      <c r="H28" s="142" t="s">
+        <v>176</v>
+      </c>
       <c r="I28" s="55"/>
       <c r="J28" s="55"/>
-      <c r="K28" s="36"/>
-      <c r="L28" s="144"/>
-      <c r="M28" s="144"/>
-      <c r="N28" s="144"/>
-      <c r="O28" s="144"/>
+      <c r="K28" s="36" t="s">
+        <v>188</v>
+      </c>
+      <c r="L28" s="142"/>
+      <c r="M28" s="142"/>
+      <c r="N28" s="142"/>
+      <c r="O28" s="142"/>
     </row>
     <row r="29" spans="1:15" ht="12" customHeight="1">
-      <c r="A29" s="106">
-        <v>80</v>
+      <c r="A29" s="31">
+        <v>25</v>
       </c>
       <c r="B29" s="31" t="s">
         <v>155</v>
       </c>
-      <c r="C29" s="127" t="s">
-        <v>255</v>
+      <c r="C29" s="125" t="s">
+        <v>252</v>
       </c>
       <c r="D29" s="53" t="s">
-        <v>195</v>
-      </c>
-      <c r="E29" s="144" t="s">
-        <v>242</v>
-      </c>
-      <c r="F29" s="144"/>
-      <c r="G29" s="144" t="s">
-        <v>182</v>
-      </c>
-      <c r="H29" s="144"/>
+        <v>239</v>
+      </c>
+      <c r="E29" s="142" t="s">
+        <v>240</v>
+      </c>
+      <c r="F29" s="142"/>
+      <c r="G29" s="142" t="s">
+        <v>181</v>
+      </c>
+      <c r="H29" s="142"/>
       <c r="I29" s="55"/>
       <c r="J29" s="55"/>
       <c r="K29" s="36"/>
-      <c r="L29" s="144"/>
-      <c r="M29" s="144"/>
-      <c r="N29" s="144"/>
-      <c r="O29" s="144"/>
+      <c r="L29" s="142"/>
+      <c r="M29" s="142"/>
+      <c r="N29" s="142"/>
+      <c r="O29" s="142"/>
     </row>
     <row r="30" spans="1:15" ht="12" customHeight="1">
-      <c r="A30" s="31">
-        <v>81</v>
+      <c r="A30" s="106">
+        <v>26</v>
       </c>
       <c r="B30" s="31" t="s">
         <v>155</v>
       </c>
-      <c r="C30" s="127" t="s">
-        <v>196</v>
+      <c r="C30" s="125" t="s">
+        <v>253</v>
       </c>
       <c r="D30" s="53" t="s">
-        <v>183</v>
-      </c>
-      <c r="E30" s="53"/>
-      <c r="F30" s="53"/>
-      <c r="G30" s="144" t="s">
-        <v>234</v>
-      </c>
-      <c r="H30" s="144"/>
+        <v>194</v>
+      </c>
+      <c r="E30" s="142" t="s">
+        <v>241</v>
+      </c>
+      <c r="F30" s="142"/>
+      <c r="G30" s="142" t="s">
+        <v>181</v>
+      </c>
+      <c r="H30" s="142"/>
       <c r="I30" s="55"/>
       <c r="J30" s="55"/>
       <c r="K30" s="36"/>
-      <c r="L30" s="144"/>
-      <c r="M30" s="144"/>
-      <c r="N30" s="144">
-        <v>0</v>
-      </c>
-      <c r="O30" s="144"/>
+      <c r="L30" s="142"/>
+      <c r="M30" s="142"/>
+      <c r="N30" s="142"/>
+      <c r="O30" s="142"/>
     </row>
     <row r="31" spans="1:15" ht="12" customHeight="1">
-      <c r="A31" s="106">
-        <v>82</v>
+      <c r="A31" s="31">
+        <v>27</v>
       </c>
       <c r="B31" s="31" t="s">
         <v>155</v>
       </c>
-      <c r="C31" s="127" t="s">
-        <v>256</v>
+      <c r="C31" s="125" t="s">
+        <v>195</v>
       </c>
       <c r="D31" s="53" t="s">
-        <v>235</v>
-      </c>
-      <c r="E31" s="53" t="s">
-        <v>235</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="E31" s="53"/>
       <c r="F31" s="53"/>
-      <c r="G31" s="144" t="s">
-        <v>188</v>
-      </c>
-      <c r="H31" s="144" t="s">
-        <v>236</v>
-      </c>
+      <c r="G31" s="142" t="s">
+        <v>233</v>
+      </c>
+      <c r="H31" s="142"/>
       <c r="I31" s="55"/>
       <c r="J31" s="55"/>
-      <c r="K31" s="36" t="s">
-        <v>189</v>
-      </c>
-      <c r="L31" s="144"/>
-      <c r="M31" s="144"/>
-      <c r="N31" s="144"/>
-      <c r="O31" s="144"/>
+      <c r="K31" s="36"/>
+      <c r="L31" s="142"/>
+      <c r="M31" s="142"/>
+      <c r="N31" s="142">
+        <v>0</v>
+      </c>
+      <c r="O31" s="142"/>
     </row>
     <row r="32" spans="1:15" ht="12" customHeight="1">
-      <c r="A32" s="31">
-        <v>83</v>
+      <c r="A32" s="106">
+        <v>28</v>
       </c>
       <c r="B32" s="31" t="s">
         <v>155</v>
       </c>
-      <c r="C32" s="127" t="s">
-        <v>257</v>
+      <c r="C32" s="125" t="s">
+        <v>254</v>
       </c>
       <c r="D32" s="53" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="E32" s="53" t="s">
-        <v>190</v>
-      </c>
-      <c r="F32" s="53" t="s">
-        <v>190</v>
-      </c>
-      <c r="G32" s="144" t="s">
-        <v>188</v>
-      </c>
-      <c r="H32" s="144" t="s">
-        <v>176</v>
+        <v>234</v>
+      </c>
+      <c r="F32" s="53"/>
+      <c r="G32" s="142" t="s">
+        <v>187</v>
+      </c>
+      <c r="H32" s="142" t="s">
+        <v>235</v>
       </c>
       <c r="I32" s="55"/>
       <c r="J32" s="55"/>
       <c r="K32" s="36" t="s">
-        <v>189</v>
-      </c>
-      <c r="L32" s="144"/>
-      <c r="M32" s="144"/>
-      <c r="N32" s="144"/>
-      <c r="O32" s="144"/>
+        <v>188</v>
+      </c>
+      <c r="L32" s="142"/>
+      <c r="M32" s="142"/>
+      <c r="N32" s="142"/>
+      <c r="O32" s="142"/>
     </row>
     <row r="33" spans="1:15" ht="12" customHeight="1">
-      <c r="A33" s="106">
-        <v>84</v>
+      <c r="A33" s="31">
+        <v>29</v>
       </c>
       <c r="B33" s="31" t="s">
         <v>155</v>
       </c>
-      <c r="C33" s="127" t="s">
-        <v>258</v>
+      <c r="C33" s="125" t="s">
+        <v>255</v>
       </c>
       <c r="D33" s="53" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="E33" s="53" t="s">
-        <v>246</v>
+        <v>189</v>
       </c>
       <c r="F33" s="53" t="s">
-        <v>246</v>
-      </c>
-      <c r="G33" s="144" t="s">
-        <v>188</v>
-      </c>
-      <c r="H33" s="144" t="s">
+        <v>189</v>
+      </c>
+      <c r="G33" s="142" t="s">
+        <v>187</v>
+      </c>
+      <c r="H33" s="142" t="s">
         <v>176</v>
       </c>
       <c r="I33" s="55"/>
       <c r="J33" s="55"/>
       <c r="K33" s="36" t="s">
-        <v>189</v>
-      </c>
-      <c r="L33" s="144"/>
-      <c r="M33" s="144"/>
-      <c r="N33" s="144"/>
-      <c r="O33" s="144"/>
+        <v>188</v>
+      </c>
+      <c r="L33" s="142"/>
+      <c r="M33" s="142"/>
+      <c r="N33" s="142"/>
+      <c r="O33" s="142"/>
     </row>
     <row r="34" spans="1:15" ht="12" customHeight="1">
       <c r="A34" s="31">
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="B34" s="31" t="s">
         <v>155</v>
       </c>
-      <c r="C34" s="127" t="s">
-        <v>259</v>
-      </c>
-      <c r="D34" s="128" t="s">
-        <v>198</v>
+      <c r="C34" s="125" t="s">
+        <v>256</v>
+      </c>
+      <c r="D34" s="53" t="s">
+        <v>243</v>
       </c>
       <c r="E34" s="53" t="s">
-        <v>128</v>
+        <v>244</v>
       </c>
       <c r="F34" s="53" t="s">
-        <v>128</v>
-      </c>
-      <c r="G34" s="144" t="s">
-        <v>188</v>
-      </c>
-      <c r="H34" s="144" t="s">
+        <v>244</v>
+      </c>
+      <c r="G34" s="142" t="s">
+        <v>187</v>
+      </c>
+      <c r="H34" s="142" t="s">
         <v>176</v>
       </c>
       <c r="I34" s="55"/>
       <c r="J34" s="55"/>
       <c r="K34" s="36" t="s">
-        <v>189</v>
-      </c>
-      <c r="L34" s="144"/>
-      <c r="M34" s="144"/>
-      <c r="N34" s="144"/>
-      <c r="O34" s="144"/>
+        <v>188</v>
+      </c>
+      <c r="L34" s="142"/>
+      <c r="M34" s="142"/>
+      <c r="N34" s="142"/>
+      <c r="O34" s="142"/>
     </row>
     <row r="35" spans="1:15" ht="12" customHeight="1">
       <c r="A35" s="106">
-        <v>86</v>
+        <v>31</v>
       </c>
       <c r="B35" s="31" t="s">
         <v>155</v>
       </c>
-      <c r="C35" s="127" t="s">
-        <v>260</v>
-      </c>
-      <c r="D35" s="128" t="s">
-        <v>191</v>
+      <c r="C35" s="125" t="s">
+        <v>257</v>
+      </c>
+      <c r="D35" s="126" t="s">
+        <v>197</v>
       </c>
       <c r="E35" s="53" t="s">
-        <v>192</v>
+        <v>128</v>
       </c>
       <c r="F35" s="53" t="s">
-        <v>192</v>
-      </c>
-      <c r="G35" s="144" t="s">
-        <v>188</v>
-      </c>
-      <c r="H35" s="144" t="s">
-        <v>184</v>
+        <v>128</v>
+      </c>
+      <c r="G35" s="142" t="s">
+        <v>187</v>
+      </c>
+      <c r="H35" s="142" t="s">
+        <v>176</v>
       </c>
       <c r="I35" s="55"/>
       <c r="J35" s="55"/>
       <c r="K35" s="36" t="s">
-        <v>189</v>
-      </c>
-      <c r="L35" s="144" t="s">
-        <v>185</v>
-      </c>
-      <c r="M35" s="144"/>
-      <c r="N35" s="144"/>
-      <c r="O35" s="144"/>
+        <v>188</v>
+      </c>
+      <c r="L35" s="142"/>
+      <c r="M35" s="142"/>
+      <c r="N35" s="142"/>
+      <c r="O35" s="142"/>
     </row>
     <row r="36" spans="1:15" ht="12" customHeight="1">
       <c r="A36" s="31">
-        <v>87</v>
+        <v>32</v>
       </c>
       <c r="B36" s="31" t="s">
         <v>155</v>
       </c>
-      <c r="C36" s="127" t="s">
-        <v>261</v>
-      </c>
-      <c r="D36" s="128" t="s">
-        <v>193</v>
+      <c r="C36" s="125" t="s">
+        <v>258</v>
+      </c>
+      <c r="D36" s="126" t="s">
+        <v>190</v>
       </c>
       <c r="E36" s="53" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="F36" s="53" t="s">
-        <v>194</v>
-      </c>
-      <c r="G36" s="144" t="s">
-        <v>188</v>
-      </c>
-      <c r="H36" s="144" t="s">
-        <v>176</v>
+        <v>191</v>
+      </c>
+      <c r="G36" s="142" t="s">
+        <v>187</v>
+      </c>
+      <c r="H36" s="142" t="s">
+        <v>183</v>
       </c>
       <c r="I36" s="55"/>
       <c r="J36" s="55"/>
       <c r="K36" s="36" t="s">
-        <v>189</v>
-      </c>
-      <c r="L36" s="144"/>
-      <c r="M36" s="144"/>
-      <c r="N36" s="144"/>
-      <c r="O36" s="144"/>
+        <v>188</v>
+      </c>
+      <c r="L36" s="142" t="s">
+        <v>184</v>
+      </c>
+      <c r="M36" s="142"/>
+      <c r="N36" s="142"/>
+      <c r="O36" s="142"/>
     </row>
     <row r="37" spans="1:15" ht="12" customHeight="1">
       <c r="A37" s="31">
-        <v>89</v>
+        <v>33</v>
       </c>
       <c r="B37" s="31" t="s">
         <v>155</v>
       </c>
-      <c r="C37" s="127" t="s">
-        <v>262</v>
-      </c>
-      <c r="D37" s="53" t="s">
-        <v>195</v>
-      </c>
-      <c r="E37" s="144" t="s">
-        <v>247</v>
-      </c>
-      <c r="F37" s="144"/>
-      <c r="G37" s="144" t="s">
-        <v>182</v>
-      </c>
-      <c r="H37" s="144"/>
+      <c r="C37" s="125" t="s">
+        <v>259</v>
+      </c>
+      <c r="D37" s="126" t="s">
+        <v>192</v>
+      </c>
+      <c r="E37" s="53" t="s">
+        <v>193</v>
+      </c>
+      <c r="F37" s="53" t="s">
+        <v>193</v>
+      </c>
+      <c r="G37" s="142" t="s">
+        <v>187</v>
+      </c>
+      <c r="H37" s="142" t="s">
+        <v>176</v>
+      </c>
       <c r="I37" s="55"/>
       <c r="J37" s="55"/>
-      <c r="K37" s="36"/>
-      <c r="L37" s="144"/>
-      <c r="M37" s="144"/>
-      <c r="N37" s="144"/>
-      <c r="O37" s="144"/>
-    </row>
-    <row r="38" spans="1:15" s="32" customFormat="1" ht="12" customHeight="1">
-      <c r="A38" s="31">
-        <v>29</v>
+      <c r="K37" s="36" t="s">
+        <v>188</v>
+      </c>
+      <c r="L37" s="142"/>
+      <c r="M37" s="142"/>
+      <c r="N37" s="142"/>
+      <c r="O37" s="142"/>
+    </row>
+    <row r="38" spans="1:15" ht="12" customHeight="1">
+      <c r="A38" s="106">
+        <v>34</v>
       </c>
       <c r="B38" s="31" t="s">
         <v>155</v>
       </c>
-      <c r="C38" s="127" t="s">
-        <v>197</v>
+      <c r="C38" s="125" t="s">
+        <v>260</v>
       </c>
       <c r="D38" s="53" t="s">
-        <v>216</v>
-      </c>
-      <c r="E38" s="120"/>
-      <c r="F38" s="120"/>
-      <c r="G38" s="121"/>
-      <c r="H38" s="121"/>
+        <v>194</v>
+      </c>
+      <c r="E38" s="142" t="s">
+        <v>245</v>
+      </c>
+      <c r="F38" s="142"/>
+      <c r="G38" s="142" t="s">
+        <v>181</v>
+      </c>
+      <c r="H38" s="142"/>
       <c r="I38" s="55"/>
       <c r="J38" s="55"/>
       <c r="K38" s="36"/>
-      <c r="L38" s="120"/>
-      <c r="M38" s="120"/>
-      <c r="N38" s="120"/>
-      <c r="O38" s="120"/>
+      <c r="L38" s="142"/>
+      <c r="M38" s="142"/>
+      <c r="N38" s="142"/>
+      <c r="O38" s="142"/>
     </row>
     <row r="39" spans="1:15" s="32" customFormat="1" ht="12" customHeight="1">
       <c r="A39" s="31">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B39" s="31" t="s">
         <v>155</v>
       </c>
-      <c r="C39" s="127" t="s">
-        <v>263</v>
-      </c>
-      <c r="D39" s="126" t="s">
-        <v>190</v>
-      </c>
-      <c r="E39" s="120" t="s">
-        <v>190</v>
-      </c>
-      <c r="F39" s="120" t="s">
-        <v>190</v>
-      </c>
-      <c r="G39" s="129" t="s">
-        <v>188</v>
-      </c>
-      <c r="H39" s="121" t="s">
-        <v>176</v>
-      </c>
+      <c r="C39" s="125" t="s">
+        <v>196</v>
+      </c>
+      <c r="D39" s="53" t="s">
+        <v>215</v>
+      </c>
+      <c r="E39" s="119"/>
+      <c r="F39" s="119"/>
+      <c r="G39" s="120"/>
+      <c r="H39" s="120"/>
       <c r="I39" s="55"/>
       <c r="J39" s="55"/>
       <c r="K39" s="36"/>
-      <c r="L39" s="120"/>
-      <c r="M39" s="120"/>
-      <c r="N39" s="120"/>
-      <c r="O39" s="120"/>
-    </row>
-    <row r="40" spans="1:15" s="32" customFormat="1" ht="11.25">
-      <c r="A40" s="31">
-        <v>33</v>
+      <c r="L39" s="119"/>
+      <c r="M39" s="119"/>
+      <c r="N39" s="119"/>
+      <c r="O39" s="119"/>
+    </row>
+    <row r="40" spans="1:15" s="32" customFormat="1" ht="12" customHeight="1">
+      <c r="A40" s="106">
+        <v>36</v>
       </c>
       <c r="B40" s="31" t="s">
         <v>155</v>
       </c>
-      <c r="C40" s="127" t="s">
-        <v>264</v>
-      </c>
-      <c r="D40" s="126" t="s">
-        <v>294</v>
-      </c>
-      <c r="E40" s="144" t="s">
-        <v>295</v>
-      </c>
-      <c r="F40" s="144" t="s">
-        <v>296</v>
-      </c>
-      <c r="G40" s="144" t="s">
-        <v>188</v>
-      </c>
-      <c r="H40" s="145" t="s">
+      <c r="C40" s="125" t="s">
+        <v>261</v>
+      </c>
+      <c r="D40" s="124" t="s">
+        <v>189</v>
+      </c>
+      <c r="E40" s="119" t="s">
+        <v>189</v>
+      </c>
+      <c r="F40" s="119" t="s">
+        <v>189</v>
+      </c>
+      <c r="G40" s="127" t="s">
+        <v>187</v>
+      </c>
+      <c r="H40" s="120" t="s">
         <v>176</v>
       </c>
       <c r="I40" s="55"/>
       <c r="J40" s="55"/>
       <c r="K40" s="36"/>
-      <c r="L40" s="144"/>
-      <c r="M40" s="144"/>
-      <c r="N40" s="144"/>
-      <c r="O40" s="144"/>
+      <c r="L40" s="119"/>
+      <c r="M40" s="119"/>
+      <c r="N40" s="119"/>
+      <c r="O40" s="119"/>
     </row>
     <row r="41" spans="1:15" s="32" customFormat="1" ht="11.25">
       <c r="A41" s="31">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B41" s="31" t="s">
         <v>155</v>
       </c>
-      <c r="C41" s="127" t="s">
-        <v>265</v>
-      </c>
-      <c r="D41" s="126" t="s">
-        <v>198</v>
-      </c>
-      <c r="E41" s="120" t="s">
-        <v>128</v>
-      </c>
-      <c r="F41" s="143" t="s">
-        <v>128</v>
-      </c>
-      <c r="G41" s="129" t="s">
-        <v>188</v>
-      </c>
-      <c r="H41" s="130" t="s">
+      <c r="C41" s="125" t="s">
+        <v>262</v>
+      </c>
+      <c r="D41" s="124" t="s">
+        <v>288</v>
+      </c>
+      <c r="E41" s="142" t="s">
+        <v>289</v>
+      </c>
+      <c r="F41" s="142" t="s">
+        <v>290</v>
+      </c>
+      <c r="G41" s="142" t="s">
+        <v>187</v>
+      </c>
+      <c r="H41" s="143" t="s">
         <v>176</v>
       </c>
       <c r="I41" s="55"/>
       <c r="J41" s="55"/>
       <c r="K41" s="36"/>
-      <c r="L41" s="120"/>
-      <c r="M41" s="120"/>
-      <c r="N41" s="120"/>
-      <c r="O41" s="120"/>
+      <c r="L41" s="142"/>
+      <c r="M41" s="142"/>
+      <c r="N41" s="142"/>
+      <c r="O41" s="142"/>
     </row>
     <row r="42" spans="1:15" s="32" customFormat="1" ht="11.25">
       <c r="A42" s="31">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B42" s="31" t="s">
         <v>155</v>
       </c>
-      <c r="C42" s="127" t="s">
-        <v>266</v>
-      </c>
-      <c r="D42" s="126" t="s">
-        <v>191</v>
-      </c>
-      <c r="E42" s="53" t="s">
-        <v>192</v>
-      </c>
-      <c r="F42" s="53" t="s">
-        <v>192</v>
-      </c>
-      <c r="G42" s="129" t="s">
-        <v>188</v>
-      </c>
-      <c r="H42" s="129" t="s">
-        <v>184</v>
+      <c r="C42" s="125" t="s">
+        <v>263</v>
+      </c>
+      <c r="D42" s="124" t="s">
+        <v>197</v>
+      </c>
+      <c r="E42" s="119" t="s">
+        <v>128</v>
+      </c>
+      <c r="F42" s="141" t="s">
+        <v>128</v>
+      </c>
+      <c r="G42" s="127" t="s">
+        <v>187</v>
+      </c>
+      <c r="H42" s="128" t="s">
+        <v>176</v>
       </c>
       <c r="I42" s="55"/>
       <c r="J42" s="55"/>
-      <c r="K42" s="36" t="s">
-        <v>189</v>
-      </c>
-      <c r="L42" s="129" t="s">
-        <v>185</v>
-      </c>
-      <c r="M42" s="120"/>
-      <c r="N42" s="120"/>
-      <c r="O42" s="120"/>
-    </row>
-    <row r="43" spans="1:15" s="32" customFormat="1" ht="12" customHeight="1">
+      <c r="K42" s="36"/>
+      <c r="L42" s="119"/>
+      <c r="M42" s="119"/>
+      <c r="N42" s="119"/>
+      <c r="O42" s="119"/>
+    </row>
+    <row r="43" spans="1:15" s="32" customFormat="1" ht="11.25">
       <c r="A43" s="106">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B43" s="31" t="s">
         <v>155</v>
       </c>
-      <c r="C43" s="127" t="s">
-        <v>267</v>
-      </c>
-      <c r="D43" s="126" t="s">
-        <v>193</v>
+      <c r="C43" s="125" t="s">
+        <v>264</v>
+      </c>
+      <c r="D43" s="124" t="s">
+        <v>190</v>
       </c>
       <c r="E43" s="53" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="F43" s="53" t="s">
-        <v>194</v>
-      </c>
-      <c r="G43" s="129" t="s">
-        <v>188</v>
-      </c>
-      <c r="H43" s="129" t="s">
-        <v>184</v>
+        <v>191</v>
+      </c>
+      <c r="G43" s="127" t="s">
+        <v>187</v>
+      </c>
+      <c r="H43" s="127" t="s">
+        <v>183</v>
       </c>
       <c r="I43" s="55"/>
       <c r="J43" s="55"/>
       <c r="K43" s="36" t="s">
-        <v>189</v>
-      </c>
-      <c r="L43" s="129" t="s">
-        <v>185</v>
-      </c>
-      <c r="M43" s="120"/>
-      <c r="N43" s="120"/>
-      <c r="O43" s="120"/>
-    </row>
-    <row r="44" spans="1:15" ht="12" customHeight="1">
+        <v>188</v>
+      </c>
+      <c r="L43" s="127" t="s">
+        <v>184</v>
+      </c>
+      <c r="M43" s="119"/>
+      <c r="N43" s="119"/>
+      <c r="O43" s="119"/>
+    </row>
+    <row r="44" spans="1:15" s="32" customFormat="1" ht="12" customHeight="1">
       <c r="A44" s="31">
-        <v>97</v>
+        <v>40</v>
       </c>
       <c r="B44" s="31" t="s">
         <v>155</v>
       </c>
-      <c r="C44" s="127" t="s">
-        <v>268</v>
-      </c>
-      <c r="D44" s="53" t="s">
-        <v>217</v>
+      <c r="C44" s="125" t="s">
+        <v>265</v>
+      </c>
+      <c r="D44" s="124" t="s">
+        <v>192</v>
       </c>
       <c r="E44" s="53" t="s">
-        <v>218</v>
-      </c>
-      <c r="F44" s="53"/>
-      <c r="G44" s="129" t="s">
-        <v>182</v>
-      </c>
-      <c r="H44" s="129"/>
+        <v>193</v>
+      </c>
+      <c r="F44" s="53" t="s">
+        <v>193</v>
+      </c>
+      <c r="G44" s="127" t="s">
+        <v>187</v>
+      </c>
+      <c r="H44" s="127" t="s">
+        <v>183</v>
+      </c>
       <c r="I44" s="55"/>
       <c r="J44" s="55"/>
-      <c r="K44" s="36"/>
-      <c r="L44" s="129"/>
-      <c r="M44" s="129"/>
-      <c r="N44" s="129"/>
-      <c r="O44" s="129"/>
-    </row>
-    <row r="45" spans="1:15" ht="12" customHeight="1">
-      <c r="A45" s="106">
-        <v>98</v>
+      <c r="K44" s="36" t="s">
+        <v>188</v>
+      </c>
+      <c r="L44" s="127" t="s">
+        <v>184</v>
+      </c>
+      <c r="M44" s="119"/>
+      <c r="N44" s="119"/>
+      <c r="O44" s="119"/>
+    </row>
+    <row r="45" spans="1:15" s="32" customFormat="1" ht="12" customHeight="1">
+      <c r="A45" s="31">
+        <v>41</v>
       </c>
       <c r="B45" s="31" t="s">
         <v>155</v>
       </c>
-      <c r="C45" s="127" t="s">
-        <v>232</v>
-      </c>
-      <c r="D45" s="128" t="s">
-        <v>195</v>
-      </c>
-      <c r="E45" s="53" t="s">
-        <v>219</v>
-      </c>
-      <c r="F45" s="53"/>
-      <c r="G45" s="143" t="s">
-        <v>182</v>
-      </c>
-      <c r="H45" s="129"/>
+      <c r="C45" s="196">
+        <v>7</v>
+      </c>
+      <c r="D45" s="129" t="s">
+        <v>209</v>
+      </c>
+      <c r="E45" s="119"/>
+      <c r="F45" s="119"/>
+      <c r="G45" s="120"/>
+      <c r="H45" s="120"/>
       <c r="I45" s="55"/>
       <c r="J45" s="55"/>
       <c r="K45" s="36"/>
-      <c r="L45" s="129"/>
-      <c r="M45" s="129"/>
-      <c r="N45" s="129"/>
-      <c r="O45" s="129"/>
-    </row>
-    <row r="46" spans="1:15" ht="12" customHeight="1">
+      <c r="L45" s="119"/>
+      <c r="M45" s="119"/>
+      <c r="N45" s="119"/>
+      <c r="O45" s="119"/>
+    </row>
+    <row r="46" spans="1:15" s="32" customFormat="1" ht="12" customHeight="1">
       <c r="A46" s="106">
-        <v>98</v>
+        <v>42</v>
       </c>
       <c r="B46" s="31" t="s">
         <v>155</v>
       </c>
-      <c r="C46" s="127" t="s">
-        <v>243</v>
-      </c>
-      <c r="D46" s="128" t="s">
-        <v>269</v>
+      <c r="C46" s="196">
+        <v>7.1</v>
+      </c>
+      <c r="D46" s="53" t="s">
+        <v>192</v>
       </c>
       <c r="E46" s="53" t="s">
-        <v>271</v>
-      </c>
-      <c r="F46" s="53"/>
-      <c r="G46" s="144" t="s">
-        <v>182</v>
-      </c>
-      <c r="H46" s="144"/>
+        <v>210</v>
+      </c>
+      <c r="F46" s="53" t="s">
+        <v>210</v>
+      </c>
+      <c r="G46" s="128" t="s">
+        <v>178</v>
+      </c>
+      <c r="H46" s="128" t="s">
+        <v>176</v>
+      </c>
       <c r="I46" s="55"/>
       <c r="J46" s="55"/>
-      <c r="K46" s="36"/>
-      <c r="L46" s="144"/>
-      <c r="M46" s="144"/>
-      <c r="N46" s="144"/>
-      <c r="O46" s="144"/>
-    </row>
-    <row r="47" spans="1:15" ht="12" customHeight="1">
-      <c r="A47" s="106">
-        <v>98</v>
-      </c>
-      <c r="B47" s="31" t="s">
+      <c r="K46" s="36" t="s">
+        <v>188</v>
+      </c>
+      <c r="L46" s="119"/>
+      <c r="M46" s="119"/>
+      <c r="N46" s="119"/>
+      <c r="O46" s="119"/>
+    </row>
+    <row r="47" spans="1:15" s="25" customFormat="1" ht="11.25">
+      <c r="A47" s="31">
+        <v>43</v>
+      </c>
+      <c r="B47" s="106" t="s">
         <v>155</v>
       </c>
-      <c r="C47" s="127" t="s">
-        <v>244</v>
-      </c>
-      <c r="D47" s="128" t="s">
-        <v>270</v>
+      <c r="C47" s="196">
+        <v>7.2</v>
+      </c>
+      <c r="D47" s="53" t="s">
+        <v>190</v>
       </c>
       <c r="E47" s="53" t="s">
-        <v>272</v>
-      </c>
-      <c r="F47" s="53"/>
-      <c r="G47" s="144" t="s">
-        <v>182</v>
-      </c>
-      <c r="H47" s="144"/>
-      <c r="I47" s="55"/>
-      <c r="J47" s="55"/>
-      <c r="K47" s="36"/>
-      <c r="L47" s="144"/>
-      <c r="M47" s="144"/>
-      <c r="N47" s="144"/>
-      <c r="O47" s="144"/>
+        <v>191</v>
+      </c>
+      <c r="F47" s="53" t="s">
+        <v>191</v>
+      </c>
+      <c r="G47" s="128" t="s">
+        <v>178</v>
+      </c>
+      <c r="H47" s="128" t="s">
+        <v>183</v>
+      </c>
+      <c r="I47" s="109"/>
+      <c r="J47" s="109"/>
+      <c r="K47" s="36" t="s">
+        <v>188</v>
+      </c>
+      <c r="L47" s="119" t="s">
+        <v>184</v>
+      </c>
+      <c r="M47" s="120"/>
+      <c r="N47" s="120"/>
+      <c r="O47" s="120"/>
+    </row>
+    <row r="48" spans="1:15" s="32" customFormat="1" ht="12" customHeight="1">
+      <c r="A48" s="106">
+        <v>44</v>
+      </c>
+      <c r="B48" s="31" t="s">
+        <v>155</v>
+      </c>
+      <c r="C48" s="106">
+        <v>7.3</v>
+      </c>
+      <c r="D48" s="53" t="s">
+        <v>211</v>
+      </c>
+      <c r="E48" s="53" t="s">
+        <v>219</v>
+      </c>
+      <c r="F48" s="53" t="s">
+        <v>219</v>
+      </c>
+      <c r="G48" s="128" t="s">
+        <v>178</v>
+      </c>
+      <c r="H48" s="128" t="s">
+        <v>176</v>
+      </c>
+      <c r="I48" s="55"/>
+      <c r="J48" s="55"/>
+      <c r="K48" s="36" t="s">
+        <v>188</v>
+      </c>
+      <c r="L48" s="119"/>
+      <c r="M48" s="119"/>
+      <c r="N48" s="119"/>
+      <c r="O48" s="119"/>
+    </row>
+    <row r="49" spans="1:15" s="32" customFormat="1" ht="12" customHeight="1">
+      <c r="A49" s="31">
+        <v>45</v>
+      </c>
+      <c r="B49" s="31" t="s">
+        <v>155</v>
+      </c>
+      <c r="C49" s="196">
+        <v>7.4</v>
+      </c>
+      <c r="D49" s="53" t="s">
+        <v>212</v>
+      </c>
+      <c r="E49" s="53" t="s">
+        <v>213</v>
+      </c>
+      <c r="F49" s="53" t="s">
+        <v>213</v>
+      </c>
+      <c r="G49" s="128" t="s">
+        <v>178</v>
+      </c>
+      <c r="H49" s="128" t="s">
+        <v>183</v>
+      </c>
+      <c r="I49" s="55"/>
+      <c r="J49" s="55"/>
+      <c r="K49" s="36" t="s">
+        <v>188</v>
+      </c>
+      <c r="L49" s="127" t="s">
+        <v>184</v>
+      </c>
+      <c r="M49" s="119"/>
+      <c r="N49" s="119"/>
+      <c r="O49" s="119"/>
+    </row>
+    <row r="50" spans="1:15" ht="12" customHeight="1">
+      <c r="A50" s="31">
+        <v>46</v>
+      </c>
+      <c r="B50" s="31" t="s">
+        <v>155</v>
+      </c>
+      <c r="C50" s="125" t="s">
+        <v>242</v>
+      </c>
+      <c r="D50" s="53" t="s">
+        <v>216</v>
+      </c>
+      <c r="E50" s="53" t="s">
+        <v>217</v>
+      </c>
+      <c r="F50" s="53"/>
+      <c r="G50" s="127" t="s">
+        <v>181</v>
+      </c>
+      <c r="H50" s="127"/>
+      <c r="I50" s="55"/>
+      <c r="J50" s="55"/>
+      <c r="K50" s="36"/>
+      <c r="L50" s="127"/>
+      <c r="M50" s="127"/>
+      <c r="N50" s="127"/>
+      <c r="O50" s="127"/>
+    </row>
+    <row r="51" spans="1:15" ht="12" customHeight="1">
+      <c r="A51" s="106">
+        <v>47</v>
+      </c>
+      <c r="B51" s="31" t="s">
+        <v>155</v>
+      </c>
+      <c r="C51" s="125" t="s">
+        <v>374</v>
+      </c>
+      <c r="D51" s="126" t="s">
+        <v>194</v>
+      </c>
+      <c r="E51" s="53" t="s">
+        <v>218</v>
+      </c>
+      <c r="F51" s="53"/>
+      <c r="G51" s="141" t="s">
+        <v>181</v>
+      </c>
+      <c r="H51" s="127"/>
+      <c r="I51" s="55"/>
+      <c r="J51" s="55"/>
+      <c r="K51" s="36"/>
+      <c r="L51" s="127"/>
+      <c r="M51" s="127"/>
+      <c r="N51" s="127"/>
+      <c r="O51" s="127"/>
+    </row>
+    <row r="52" spans="1:15" ht="12" customHeight="1">
+      <c r="A52" s="31">
+        <v>48</v>
+      </c>
+      <c r="B52" s="31" t="s">
+        <v>155</v>
+      </c>
+      <c r="C52" s="125" t="s">
+        <v>375</v>
+      </c>
+      <c r="D52" s="126" t="s">
+        <v>266</v>
+      </c>
+      <c r="E52" s="53" t="s">
+        <v>268</v>
+      </c>
+      <c r="F52" s="53"/>
+      <c r="G52" s="142" t="s">
+        <v>181</v>
+      </c>
+      <c r="H52" s="142"/>
+      <c r="I52" s="55"/>
+      <c r="J52" s="55"/>
+      <c r="K52" s="36"/>
+      <c r="L52" s="142"/>
+      <c r="M52" s="142"/>
+      <c r="N52" s="142"/>
+      <c r="O52" s="142"/>
+    </row>
+    <row r="53" spans="1:15" ht="12" customHeight="1">
+      <c r="A53" s="31">
+        <v>49</v>
+      </c>
+      <c r="B53" s="31" t="s">
+        <v>155</v>
+      </c>
+      <c r="C53" s="125" t="s">
+        <v>376</v>
+      </c>
+      <c r="D53" s="126" t="s">
+        <v>267</v>
+      </c>
+      <c r="E53" s="53" t="s">
+        <v>269</v>
+      </c>
+      <c r="F53" s="53"/>
+      <c r="G53" s="142" t="s">
+        <v>181</v>
+      </c>
+      <c r="H53" s="142"/>
+      <c r="I53" s="55"/>
+      <c r="J53" s="55"/>
+      <c r="K53" s="36"/>
+      <c r="L53" s="142"/>
+      <c r="M53" s="142"/>
+      <c r="N53" s="142"/>
+      <c r="O53" s="142"/>
+    </row>
+    <row r="54" spans="1:15" s="184" customFormat="1" ht="12" customHeight="1">
+      <c r="A54" s="172">
+        <v>50</v>
+      </c>
+      <c r="B54" s="172" t="s">
+        <v>362</v>
+      </c>
+      <c r="C54" s="181" t="s">
+        <v>377</v>
+      </c>
+      <c r="D54" s="182" t="s">
+        <v>378</v>
+      </c>
+      <c r="E54" s="183"/>
+      <c r="F54" s="183"/>
+      <c r="G54" s="174"/>
+      <c r="H54" s="174"/>
+      <c r="I54" s="176"/>
+      <c r="J54" s="176"/>
+      <c r="K54" s="168"/>
+      <c r="L54" s="174"/>
+      <c r="M54" s="174"/>
+      <c r="N54" s="174"/>
+      <c r="O54" s="174"/>
+    </row>
+    <row r="55" spans="1:15" s="184" customFormat="1" ht="12" customHeight="1">
+      <c r="A55" s="172">
+        <v>51</v>
+      </c>
+      <c r="B55" s="172" t="s">
+        <v>362</v>
+      </c>
+      <c r="C55" s="181" t="s">
+        <v>380</v>
+      </c>
+      <c r="D55" s="182" t="s">
+        <v>236</v>
+      </c>
+      <c r="E55" s="183" t="s">
+        <v>379</v>
+      </c>
+      <c r="F55" s="183" t="s">
+        <v>379</v>
+      </c>
+      <c r="G55" s="175" t="s">
+        <v>178</v>
+      </c>
+      <c r="H55" s="174" t="s">
+        <v>373</v>
+      </c>
+      <c r="I55" s="176"/>
+      <c r="J55" s="176"/>
+      <c r="K55" s="168" t="s">
+        <v>188</v>
+      </c>
+      <c r="L55" s="174"/>
+      <c r="M55" s="174"/>
+      <c r="N55" s="174"/>
+      <c r="O55" s="174"/>
+    </row>
+    <row r="56" spans="1:15" s="184" customFormat="1" ht="12" customHeight="1">
+      <c r="A56" s="171">
+        <v>52</v>
+      </c>
+      <c r="B56" s="172" t="s">
+        <v>362</v>
+      </c>
+      <c r="C56" s="181" t="s">
+        <v>381</v>
+      </c>
+      <c r="D56" s="182" t="s">
+        <v>197</v>
+      </c>
+      <c r="E56" s="183" t="s">
+        <v>128</v>
+      </c>
+      <c r="F56" s="183" t="s">
+        <v>128</v>
+      </c>
+      <c r="G56" s="175" t="s">
+        <v>178</v>
+      </c>
+      <c r="H56" s="174" t="s">
+        <v>176</v>
+      </c>
+      <c r="I56" s="176"/>
+      <c r="J56" s="176"/>
+      <c r="K56" s="168" t="s">
+        <v>188</v>
+      </c>
+      <c r="L56" s="174"/>
+      <c r="M56" s="174"/>
+      <c r="N56" s="174"/>
+      <c r="O56" s="174"/>
+    </row>
+    <row r="57" spans="1:15" s="184" customFormat="1" ht="12" customHeight="1">
+      <c r="A57" s="172">
+        <v>53</v>
+      </c>
+      <c r="B57" s="172" t="s">
+        <v>362</v>
+      </c>
+      <c r="C57" s="181" t="s">
+        <v>382</v>
+      </c>
+      <c r="D57" s="182" t="s">
+        <v>384</v>
+      </c>
+      <c r="E57" s="183" t="s">
+        <v>385</v>
+      </c>
+      <c r="F57" s="183" t="s">
+        <v>385</v>
+      </c>
+      <c r="G57" s="175" t="s">
+        <v>178</v>
+      </c>
+      <c r="H57" s="174" t="s">
+        <v>176</v>
+      </c>
+      <c r="I57" s="176"/>
+      <c r="J57" s="176"/>
+      <c r="K57" s="168" t="s">
+        <v>188</v>
+      </c>
+      <c r="L57" s="174"/>
+      <c r="M57" s="174"/>
+      <c r="N57" s="174"/>
+      <c r="O57" s="174"/>
+    </row>
+    <row r="58" spans="1:15" s="184" customFormat="1" ht="12" customHeight="1">
+      <c r="A58" s="172">
+        <v>54</v>
+      </c>
+      <c r="B58" s="172" t="s">
+        <v>362</v>
+      </c>
+      <c r="C58" s="181" t="s">
+        <v>383</v>
+      </c>
+      <c r="D58" s="182" t="s">
+        <v>387</v>
+      </c>
+      <c r="E58" s="183" t="s">
+        <v>388</v>
+      </c>
+      <c r="F58" s="183" t="s">
+        <v>388</v>
+      </c>
+      <c r="G58" s="174" t="s">
+        <v>372</v>
+      </c>
+      <c r="H58" s="174" t="s">
+        <v>183</v>
+      </c>
+      <c r="I58" s="176"/>
+      <c r="J58" s="176"/>
+      <c r="K58" s="168" t="s">
+        <v>188</v>
+      </c>
+      <c r="L58" s="174"/>
+      <c r="M58" s="174"/>
+      <c r="N58" s="174"/>
+      <c r="O58" s="174"/>
+    </row>
+    <row r="59" spans="1:15" s="184" customFormat="1" ht="12" customHeight="1">
+      <c r="A59" s="171">
+        <v>55</v>
+      </c>
+      <c r="B59" s="172" t="s">
+        <v>362</v>
+      </c>
+      <c r="C59" s="181" t="s">
+        <v>386</v>
+      </c>
+      <c r="D59" s="182" t="s">
+        <v>389</v>
+      </c>
+      <c r="E59" s="183" t="s">
+        <v>390</v>
+      </c>
+      <c r="F59" s="183" t="s">
+        <v>390</v>
+      </c>
+      <c r="G59" s="174" t="s">
+        <v>178</v>
+      </c>
+      <c r="H59" s="174" t="s">
+        <v>373</v>
+      </c>
+      <c r="I59" s="176"/>
+      <c r="J59" s="176"/>
+      <c r="K59" s="168" t="s">
+        <v>188</v>
+      </c>
+      <c r="L59" s="174"/>
+      <c r="M59" s="174"/>
+      <c r="N59" s="174"/>
+      <c r="O59" s="174"/>
+    </row>
+    <row r="60" spans="1:15" s="184" customFormat="1" ht="12" customHeight="1">
+      <c r="A60" s="172">
+        <v>56</v>
+      </c>
+      <c r="B60" s="172" t="s">
+        <v>362</v>
+      </c>
+      <c r="C60" s="181" t="s">
+        <v>396</v>
+      </c>
+      <c r="D60" s="182" t="s">
+        <v>239</v>
+      </c>
+      <c r="E60" s="183" t="s">
+        <v>399</v>
+      </c>
+      <c r="F60" s="183"/>
+      <c r="G60" s="174" t="s">
+        <v>181</v>
+      </c>
+      <c r="H60" s="174"/>
+      <c r="I60" s="176"/>
+      <c r="J60" s="176"/>
+      <c r="K60" s="168"/>
+      <c r="L60" s="174"/>
+      <c r="M60" s="174"/>
+      <c r="N60" s="174"/>
+      <c r="O60" s="174"/>
+    </row>
+    <row r="61" spans="1:15" s="184" customFormat="1" ht="12" customHeight="1">
+      <c r="A61" s="171">
+        <v>57</v>
+      </c>
+      <c r="B61" s="172" t="s">
+        <v>362</v>
+      </c>
+      <c r="C61" s="181" t="s">
+        <v>397</v>
+      </c>
+      <c r="D61" s="182" t="s">
+        <v>398</v>
+      </c>
+      <c r="E61" s="183" t="s">
+        <v>400</v>
+      </c>
+      <c r="F61" s="183"/>
+      <c r="G61" s="174" t="s">
+        <v>181</v>
+      </c>
+      <c r="H61" s="174"/>
+      <c r="I61" s="176"/>
+      <c r="J61" s="176"/>
+      <c r="K61" s="168"/>
+      <c r="L61" s="174"/>
+      <c r="M61" s="174"/>
+      <c r="N61" s="174"/>
+      <c r="O61" s="174"/>
+    </row>
+    <row r="62" spans="1:15" s="184" customFormat="1" ht="12" customHeight="1">
+      <c r="A62" s="172">
+        <v>58</v>
+      </c>
+      <c r="B62" s="172" t="s">
+        <v>362</v>
+      </c>
+      <c r="C62" s="181" t="s">
+        <v>231</v>
+      </c>
+      <c r="D62" s="182" t="s">
+        <v>392</v>
+      </c>
+      <c r="E62" s="183"/>
+      <c r="F62" s="183"/>
+      <c r="G62" s="174"/>
+      <c r="H62" s="174"/>
+      <c r="I62" s="176"/>
+      <c r="J62" s="176"/>
+      <c r="K62" s="168"/>
+      <c r="L62" s="174"/>
+      <c r="M62" s="174"/>
+      <c r="N62" s="174"/>
+      <c r="O62" s="174"/>
+    </row>
+    <row r="63" spans="1:15" s="184" customFormat="1" ht="12" customHeight="1">
+      <c r="A63" s="171">
+        <v>59</v>
+      </c>
+      <c r="B63" s="172" t="s">
+        <v>362</v>
+      </c>
+      <c r="C63" s="181" t="s">
+        <v>401</v>
+      </c>
+      <c r="D63" s="182" t="s">
+        <v>393</v>
+      </c>
+      <c r="E63" s="183" t="s">
+        <v>395</v>
+      </c>
+      <c r="F63" s="183" t="s">
+        <v>395</v>
+      </c>
+      <c r="G63" s="174" t="s">
+        <v>178</v>
+      </c>
+      <c r="H63" s="174" t="s">
+        <v>373</v>
+      </c>
+      <c r="I63" s="176"/>
+      <c r="J63" s="176"/>
+      <c r="K63" s="168" t="s">
+        <v>188</v>
+      </c>
+      <c r="L63" s="174"/>
+      <c r="M63" s="174"/>
+      <c r="N63" s="174"/>
+      <c r="O63" s="174"/>
+    </row>
+    <row r="64" spans="1:15" s="184" customFormat="1" ht="12" customHeight="1">
+      <c r="A64" s="171">
+        <v>59</v>
+      </c>
+      <c r="B64" s="172" t="s">
+        <v>362</v>
+      </c>
+      <c r="C64" s="181" t="s">
+        <v>402</v>
+      </c>
+      <c r="D64" s="182" t="s">
+        <v>391</v>
+      </c>
+      <c r="E64" s="182" t="s">
+        <v>394</v>
+      </c>
+      <c r="F64" s="182" t="s">
+        <v>394</v>
+      </c>
+      <c r="G64" s="174" t="s">
+        <v>178</v>
+      </c>
+      <c r="H64" s="174" t="s">
+        <v>176</v>
+      </c>
+      <c r="I64" s="176"/>
+      <c r="J64" s="176"/>
+      <c r="K64" s="168" t="s">
+        <v>188</v>
+      </c>
+      <c r="L64" s="174"/>
+      <c r="M64" s="174"/>
+      <c r="N64" s="174"/>
+      <c r="O64" s="174"/>
+    </row>
+    <row r="65" spans="1:15" s="184" customFormat="1" ht="12" customHeight="1">
+      <c r="A65" s="171"/>
+      <c r="B65" s="172"/>
+      <c r="C65" s="181"/>
+      <c r="D65" s="195"/>
+      <c r="E65" s="195"/>
+      <c r="F65" s="195"/>
+      <c r="G65" s="195"/>
+      <c r="H65" s="195"/>
+      <c r="I65" s="195"/>
+      <c r="J65" s="195"/>
+      <c r="K65" s="195"/>
+      <c r="L65" s="174"/>
+      <c r="M65" s="174"/>
+      <c r="N65" s="174"/>
+      <c r="O65" s="174"/>
+    </row>
+    <row r="66" spans="1:15" ht="12" customHeight="1">
+      <c r="A66" s="106"/>
+      <c r="B66" s="31"/>
+      <c r="C66" s="125"/>
+      <c r="D66" s="126"/>
+      <c r="E66" s="53"/>
+      <c r="F66" s="53"/>
+      <c r="G66" s="169"/>
+      <c r="H66" s="169"/>
+      <c r="I66" s="55"/>
+      <c r="J66" s="55"/>
+      <c r="K66" s="36"/>
+      <c r="L66" s="169"/>
+      <c r="M66" s="169"/>
+      <c r="N66" s="169"/>
+      <c r="O66" s="169"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -11310,16 +12236,16 @@
   </mergeCells>
   <dataValidations count="5">
     <dataValidation allowBlank="1" showErrorMessage="1" sqref="F5"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G5:G21 G23:G29 G31:G47">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G55:G57 G24:G30 G32:G53 G5:G10 G11:G22">
       <formula1>"Caption,Textbox,DateTimePicker,RichTextbox,Label,ComboBox,CheckBox,RadioButton,Button,DataGrid, Image,Link,Form,Frame,Menu,MenuItem,Other"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G22 G30">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G23 G31">
       <formula1>"Caption,TabControl,Textbox,DateTimePicker,RichTextbox,Label,ComboBox,CheckBox,RadioButton,Button,DataGrid, Image,Link,Form,Frame,Menu,MenuItem,Other"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K5:K47">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K5:K10 K11:K53">
       <formula1>"I,O,I/O"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5:H47">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5:H10 H11:H53">
       <formula1>"Text, Number, DateTime, Boolean"</formula1>
     </dataValidation>
   </dataValidations>
@@ -11627,10 +12553,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R9"/>
+  <dimension ref="A1:R11"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -11653,8 +12579,8 @@
     <col min="20" max="16384" width="9.140625" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="224" t="s">
+    <row r="1" spans="1:18" s="25" customFormat="1" ht="12" customHeight="1">
+      <c r="A1" s="260" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="104"/>
@@ -11689,8 +12615,8 @@
       <c r="K1" s="46"/>
       <c r="L1" s="46"/>
     </row>
-    <row r="2" spans="1:12" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="225"/>
+    <row r="2" spans="1:18" s="25" customFormat="1" ht="12" customHeight="1">
+      <c r="A2" s="261"/>
       <c r="B2" s="105"/>
       <c r="C2" s="30" t="s">
         <v>2</v>
@@ -11723,7 +12649,7 @@
       <c r="K2" s="46"/>
       <c r="L2" s="46"/>
     </row>
-    <row r="4" spans="1:12" s="23" customFormat="1" ht="11.25">
+    <row r="4" spans="1:18" s="23" customFormat="1" ht="11.25">
       <c r="A4" s="82" t="s">
         <v>44</v>
       </c>
@@ -11739,140 +12665,177 @@
       <c r="E4" s="82" t="s">
         <v>46</v>
       </c>
-      <c r="F4" s="195" t="s">
+      <c r="F4" s="271" t="s">
         <v>128</v>
       </c>
-      <c r="G4" s="195"/>
-      <c r="H4" s="195" t="s">
+      <c r="G4" s="272"/>
+      <c r="H4" s="272"/>
+      <c r="I4" s="273"/>
+      <c r="J4" s="170" t="s">
         <v>48</v>
       </c>
-      <c r="I4" s="195"/>
-      <c r="J4" s="195"/>
-    </row>
-    <row r="5" spans="1:12" s="32" customFormat="1" ht="21" customHeight="1">
+    </row>
+    <row r="5" spans="1:18" s="32" customFormat="1" ht="21" customHeight="1">
       <c r="A5" s="31">
         <v>1</v>
       </c>
-      <c r="B5" s="133" t="s">
+      <c r="B5" s="131" t="s">
         <v>155</v>
       </c>
-      <c r="C5" s="132" t="s">
+      <c r="C5" s="130" t="s">
         <v>131</v>
       </c>
-      <c r="D5" s="133"/>
-      <c r="E5" s="134" t="s">
+      <c r="D5" s="131"/>
+      <c r="E5" s="132" t="s">
         <v>176</v>
       </c>
-      <c r="F5" s="226" t="s">
-        <v>221</v>
-      </c>
-      <c r="G5" s="227"/>
-      <c r="H5" s="227"/>
-      <c r="I5" s="228"/>
-      <c r="J5" s="226" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" s="32" customFormat="1" ht="21" customHeight="1">
+      <c r="F5" s="262" t="s">
+        <v>220</v>
+      </c>
+      <c r="G5" s="263"/>
+      <c r="H5" s="263"/>
+      <c r="I5" s="264"/>
+      <c r="J5" s="262" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" s="32" customFormat="1" ht="21" customHeight="1">
       <c r="A6" s="31">
         <v>2</v>
       </c>
-      <c r="B6" s="133" t="s">
+      <c r="B6" s="131" t="s">
         <v>155</v>
       </c>
-      <c r="C6" s="132" t="s">
-        <v>297</v>
-      </c>
-      <c r="D6" s="133"/>
-      <c r="E6" s="134" t="s">
+      <c r="C6" s="130" t="s">
+        <v>291</v>
+      </c>
+      <c r="D6" s="131"/>
+      <c r="E6" s="132" t="s">
         <v>176</v>
       </c>
-      <c r="F6" s="229"/>
-      <c r="G6" s="230"/>
-      <c r="H6" s="230"/>
-      <c r="I6" s="231"/>
-      <c r="J6" s="229"/>
-    </row>
-    <row r="7" spans="1:12" s="32" customFormat="1" ht="21" customHeight="1">
+      <c r="F6" s="265"/>
+      <c r="G6" s="266"/>
+      <c r="H6" s="266"/>
+      <c r="I6" s="267"/>
+      <c r="J6" s="265"/>
+    </row>
+    <row r="7" spans="1:18" s="32" customFormat="1" ht="21" customHeight="1">
       <c r="A7" s="31">
         <v>3</v>
       </c>
-      <c r="B7" s="133" t="s">
+      <c r="B7" s="131" t="s">
         <v>155</v>
       </c>
-      <c r="C7" s="132" t="s">
+      <c r="C7" s="130" t="s">
         <v>131</v>
       </c>
-      <c r="D7" s="133"/>
-      <c r="E7" s="134" t="s">
+      <c r="D7" s="131"/>
+      <c r="E7" s="132" t="s">
         <v>176</v>
       </c>
-      <c r="F7" s="226" t="s">
-        <v>222</v>
-      </c>
-      <c r="G7" s="227"/>
-      <c r="H7" s="227"/>
-      <c r="I7" s="228"/>
-      <c r="J7" s="226" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" s="32" customFormat="1" ht="21" customHeight="1">
+      <c r="F7" s="262" t="s">
+        <v>221</v>
+      </c>
+      <c r="G7" s="263"/>
+      <c r="H7" s="263"/>
+      <c r="I7" s="264"/>
+      <c r="J7" s="262" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" s="32" customFormat="1" ht="24.75" customHeight="1">
       <c r="A8" s="31">
         <v>4</v>
       </c>
-      <c r="B8" s="133" t="s">
+      <c r="B8" s="131" t="s">
         <v>155</v>
       </c>
-      <c r="C8" s="132" t="s">
-        <v>297</v>
-      </c>
-      <c r="D8" s="133"/>
-      <c r="E8" s="134" t="s">
+      <c r="C8" s="130" t="s">
+        <v>291</v>
+      </c>
+      <c r="D8" s="131"/>
+      <c r="E8" s="132" t="s">
         <v>176</v>
       </c>
-      <c r="F8" s="229"/>
-      <c r="G8" s="230"/>
-      <c r="H8" s="230"/>
-      <c r="I8" s="231"/>
-      <c r="J8" s="229"/>
-    </row>
-    <row r="9" spans="1:12" ht="23.25" customHeight="1">
-      <c r="A9" s="31">
+      <c r="F8" s="265"/>
+      <c r="G8" s="266"/>
+      <c r="H8" s="266"/>
+      <c r="I8" s="267"/>
+      <c r="J8" s="265"/>
+    </row>
+    <row r="9" spans="1:18" ht="23.25" customHeight="1">
+      <c r="A9" s="185">
         <v>5</v>
       </c>
-      <c r="B9" s="133" t="s">
+      <c r="B9" s="186" t="s">
         <v>155</v>
       </c>
-      <c r="C9" s="147" t="s">
+      <c r="C9" s="194" t="s">
         <v>131</v>
       </c>
-      <c r="D9" s="147"/>
-      <c r="E9" s="148" t="s">
-        <v>298</v>
-      </c>
-      <c r="F9" s="219" t="s">
-        <v>299</v>
-      </c>
-      <c r="G9" s="220"/>
-      <c r="H9" s="221" t="s">
-        <v>300</v>
-      </c>
-      <c r="I9" s="222"/>
-      <c r="J9" s="223"/>
+      <c r="D9" s="187"/>
+      <c r="E9" s="188" t="s">
+        <v>292</v>
+      </c>
+      <c r="F9" s="268" t="s">
+        <v>293</v>
+      </c>
+      <c r="G9" s="269"/>
+      <c r="H9" s="269"/>
+      <c r="I9" s="270"/>
+      <c r="J9" s="189" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" s="192" customFormat="1" ht="27" customHeight="1">
+      <c r="A10" s="171">
+        <v>6</v>
+      </c>
+      <c r="B10" s="171" t="s">
+        <v>362</v>
+      </c>
+      <c r="C10" s="191" t="s">
+        <v>131</v>
+      </c>
+      <c r="D10" s="190"/>
+      <c r="E10" s="190" t="s">
+        <v>176</v>
+      </c>
+      <c r="F10" s="258" t="s">
+        <v>403</v>
+      </c>
+      <c r="G10" s="258"/>
+      <c r="H10" s="258"/>
+      <c r="I10" s="258"/>
+      <c r="J10" s="190" t="s">
+        <v>405</v>
+      </c>
+      <c r="L10" s="193"/>
+      <c r="M10" s="193"/>
+      <c r="N10" s="193"/>
+      <c r="O10" s="193"/>
+      <c r="P10" s="193"/>
+      <c r="Q10" s="193"/>
+      <c r="R10" s="193"/>
+    </row>
+    <row r="11" spans="1:18" ht="12" customHeight="1">
+      <c r="F11" s="259"/>
+      <c r="G11" s="259"/>
+      <c r="H11" s="259"/>
+      <c r="I11" s="259"/>
     </row>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="9">
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="F11:I11"/>
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="H4:J4"/>
     <mergeCell ref="F5:I6"/>
     <mergeCell ref="J5:J6"/>
     <mergeCell ref="F7:I8"/>
     <mergeCell ref="J7:J8"/>
-    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="F4:I4"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5:E9">
@@ -11890,8 +12853,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q1048229"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -11917,20 +12880,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="195" t="s">
+      <c r="A1" s="234" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="195"/>
-      <c r="C1" s="195"/>
-      <c r="D1" s="195"/>
+      <c r="B1" s="234"/>
+      <c r="C1" s="234"/>
+      <c r="D1" s="234"/>
       <c r="E1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="238" t="str">
+      <c r="F1" s="274" t="str">
         <f>'Update History'!D1</f>
         <v>ASOFT - ERP.NET</v>
       </c>
-      <c r="G1" s="238"/>
+      <c r="G1" s="274"/>
       <c r="H1" s="26" t="s">
         <v>3</v>
       </c>
@@ -11948,28 +12911,28 @@
       <c r="L1" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="235" t="str">
+      <c r="M1" s="287" t="str">
         <f>'Update History'!J1</f>
         <v>Thị Phượng</v>
       </c>
-      <c r="N1" s="236"/>
-      <c r="O1" s="237"/>
+      <c r="N1" s="288"/>
+      <c r="O1" s="289"/>
       <c r="P1" s="46"/>
       <c r="Q1" s="46"/>
     </row>
     <row r="2" spans="1:17" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="195"/>
-      <c r="B2" s="195"/>
-      <c r="C2" s="195"/>
-      <c r="D2" s="195"/>
+      <c r="A2" s="234"/>
+      <c r="B2" s="234"/>
+      <c r="C2" s="234"/>
+      <c r="D2" s="234"/>
       <c r="E2" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="238" t="str">
+      <c r="F2" s="274" t="str">
         <f>'Update History'!D2</f>
         <v>ASOFT-CRM</v>
       </c>
-      <c r="G2" s="238"/>
+      <c r="G2" s="274"/>
       <c r="H2" s="26" t="s">
         <v>49</v>
       </c>
@@ -11987,12 +12950,12 @@
       <c r="L2" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="235">
+      <c r="M2" s="287">
         <f>'Update History'!J2</f>
         <v>42821</v>
       </c>
-      <c r="N2" s="236"/>
-      <c r="O2" s="237"/>
+      <c r="N2" s="288"/>
+      <c r="O2" s="289"/>
       <c r="P2" s="46"/>
       <c r="Q2" s="46"/>
     </row>
@@ -12015,12 +12978,12 @@
       <c r="F4" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="G4" s="242" t="s">
+      <c r="G4" s="278" t="s">
         <v>55</v>
       </c>
-      <c r="H4" s="243"/>
-      <c r="I4" s="243"/>
-      <c r="J4" s="244"/>
+      <c r="H4" s="279"/>
+      <c r="I4" s="279"/>
+      <c r="J4" s="280"/>
       <c r="K4" s="35" t="s">
         <v>56</v>
       </c>
@@ -12042,10 +13005,10 @@
         <v>1</v>
       </c>
       <c r="B5" s="106" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="C5" s="68" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D5" s="114" t="s">
         <v>165</v>
@@ -12056,17 +13019,17 @@
       <c r="F5" s="113" t="s">
         <v>161</v>
       </c>
-      <c r="G5" s="239" t="s">
-        <v>348</v>
-      </c>
-      <c r="H5" s="240"/>
-      <c r="I5" s="240"/>
-      <c r="J5" s="241"/>
+      <c r="G5" s="275" t="s">
+        <v>338</v>
+      </c>
+      <c r="H5" s="276"/>
+      <c r="I5" s="276"/>
+      <c r="J5" s="277"/>
       <c r="K5" s="116" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="L5" s="116" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="M5" s="68" t="s">
         <v>159</v>
@@ -12082,11 +13045,11 @@
       <c r="A6" s="106">
         <v>10</v>
       </c>
-      <c r="B6" s="269" t="s">
-        <v>362</v>
+      <c r="B6" s="164" t="s">
+        <v>352</v>
       </c>
       <c r="C6" s="68" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="D6" s="114" t="s">
         <v>165</v>
@@ -12097,17 +13060,17 @@
       <c r="F6" s="113" t="s">
         <v>162</v>
       </c>
-      <c r="G6" s="266" t="s">
-        <v>361</v>
-      </c>
-      <c r="H6" s="267"/>
-      <c r="I6" s="267"/>
-      <c r="J6" s="268"/>
+      <c r="G6" s="301" t="s">
+        <v>351</v>
+      </c>
+      <c r="H6" s="302"/>
+      <c r="I6" s="302"/>
+      <c r="J6" s="303"/>
       <c r="K6" s="116" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="L6" s="116" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="M6" s="68" t="s">
         <v>159</v>
@@ -12123,11 +13086,11 @@
       <c r="A7" s="106">
         <v>11</v>
       </c>
-      <c r="B7" s="269" t="s">
-        <v>362</v>
+      <c r="B7" s="164" t="s">
+        <v>352</v>
       </c>
       <c r="C7" s="68" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="D7" s="114" t="s">
         <v>165</v>
@@ -12138,17 +13101,17 @@
       <c r="F7" s="113" t="s">
         <v>163</v>
       </c>
-      <c r="G7" s="266" t="s">
-        <v>363</v>
-      </c>
-      <c r="H7" s="267"/>
-      <c r="I7" s="267"/>
-      <c r="J7" s="268"/>
+      <c r="G7" s="301" t="s">
+        <v>353</v>
+      </c>
+      <c r="H7" s="302"/>
+      <c r="I7" s="302"/>
+      <c r="J7" s="303"/>
       <c r="K7" s="116" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="L7" s="116" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="M7" s="68" t="s">
         <v>159</v>
@@ -12168,7 +13131,7 @@
         <v>155</v>
       </c>
       <c r="C8" s="68" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D8" s="114" t="s">
         <v>165</v>
@@ -12179,17 +13142,17 @@
       <c r="F8" s="113" t="s">
         <v>164</v>
       </c>
-      <c r="G8" s="245" t="s">
-        <v>345</v>
-      </c>
-      <c r="H8" s="246"/>
-      <c r="I8" s="246"/>
-      <c r="J8" s="247"/>
+      <c r="G8" s="281" t="s">
+        <v>335</v>
+      </c>
+      <c r="H8" s="282"/>
+      <c r="I8" s="282"/>
+      <c r="J8" s="283"/>
       <c r="K8" s="116" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="L8" s="116" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="M8" s="68" t="s">
         <v>159</v>
@@ -12205,11 +13168,11 @@
       <c r="A9" s="106">
         <v>3</v>
       </c>
-      <c r="B9" s="106" t="s">
-        <v>155</v>
+      <c r="B9" s="171" t="s">
+        <v>362</v>
       </c>
       <c r="C9" s="68" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="D9" s="114" t="s">
         <v>165</v>
@@ -12218,19 +13181,19 @@
         <v>55</v>
       </c>
       <c r="F9" s="113" t="s">
-        <v>199</v>
-      </c>
-      <c r="G9" s="245" t="s">
-        <v>338</v>
-      </c>
-      <c r="H9" s="246"/>
-      <c r="I9" s="246"/>
-      <c r="J9" s="247"/>
-      <c r="K9" s="119" t="s">
-        <v>339</v>
-      </c>
-      <c r="L9" s="119" t="s">
-        <v>340</v>
+        <v>198</v>
+      </c>
+      <c r="G9" s="298" t="s">
+        <v>406</v>
+      </c>
+      <c r="H9" s="299"/>
+      <c r="I9" s="299"/>
+      <c r="J9" s="300"/>
+      <c r="K9" s="198" t="s">
+        <v>407</v>
+      </c>
+      <c r="L9" s="198" t="s">
+        <v>408</v>
       </c>
       <c r="M9" s="68" t="s">
         <v>167</v>
@@ -12239,7 +13202,7 @@
         <v>168</v>
       </c>
       <c r="O9" s="68" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="22.5">
@@ -12259,25 +13222,25 @@
         <v>55</v>
       </c>
       <c r="F10" s="113" t="s">
-        <v>215</v>
-      </c>
-      <c r="G10" s="245" t="s">
+        <v>214</v>
+      </c>
+      <c r="G10" s="281" t="s">
         <v>169</v>
       </c>
-      <c r="H10" s="246"/>
-      <c r="I10" s="246"/>
-      <c r="J10" s="247"/>
+      <c r="H10" s="282"/>
+      <c r="I10" s="282"/>
+      <c r="J10" s="283"/>
       <c r="K10" s="116" t="s">
         <v>170</v>
       </c>
       <c r="L10" s="116" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="M10" s="68"/>
       <c r="N10" s="115" t="s">
         <v>158</v>
       </c>
-      <c r="O10" s="248"/>
+      <c r="O10" s="290"/>
     </row>
     <row r="11" spans="1:17" ht="78.75">
       <c r="A11" s="106">
@@ -12287,7 +13250,7 @@
         <v>155</v>
       </c>
       <c r="C11" s="68" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="D11" s="114" t="s">
         <v>165</v>
@@ -12298,23 +13261,23 @@
       <c r="F11" s="113" t="s">
         <v>160</v>
       </c>
-      <c r="G11" s="253" t="s">
-        <v>303</v>
-      </c>
-      <c r="H11" s="254"/>
-      <c r="I11" s="254"/>
-      <c r="J11" s="255"/>
+      <c r="G11" s="295" t="s">
+        <v>404</v>
+      </c>
+      <c r="H11" s="296"/>
+      <c r="I11" s="296"/>
+      <c r="J11" s="297"/>
       <c r="K11" s="116" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="L11" s="116" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="M11" s="68"/>
       <c r="N11" s="115" t="s">
         <v>158</v>
       </c>
-      <c r="O11" s="249"/>
+      <c r="O11" s="291"/>
     </row>
     <row r="12" spans="1:17" ht="63" customHeight="1">
       <c r="A12" s="106">
@@ -12324,31 +13287,31 @@
         <v>155</v>
       </c>
       <c r="C12" s="68" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="D12" s="114" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="E12" s="114" t="s">
         <v>55</v>
       </c>
       <c r="F12" s="113" t="s">
+        <v>305</v>
+      </c>
+      <c r="G12" s="281" t="s">
+        <v>311</v>
+      </c>
+      <c r="H12" s="282"/>
+      <c r="I12" s="282"/>
+      <c r="J12" s="283"/>
+      <c r="K12" s="116" t="s">
         <v>312</v>
       </c>
-      <c r="G12" s="245" t="s">
-        <v>318</v>
-      </c>
-      <c r="H12" s="246"/>
-      <c r="I12" s="246"/>
-      <c r="J12" s="247"/>
-      <c r="K12" s="116" t="s">
-        <v>319</v>
-      </c>
       <c r="L12" s="116" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="M12" s="68" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="N12" s="115" t="s">
         <v>168</v>
@@ -12363,31 +13326,31 @@
         <v>155</v>
       </c>
       <c r="C13" s="68" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="D13" s="114" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="E13" s="114" t="s">
         <v>55</v>
       </c>
       <c r="F13" s="113" t="s">
-        <v>313</v>
-      </c>
-      <c r="G13" s="245" t="s">
-        <v>321</v>
-      </c>
-      <c r="H13" s="246"/>
-      <c r="I13" s="246"/>
-      <c r="J13" s="247"/>
+        <v>306</v>
+      </c>
+      <c r="G13" s="281" t="s">
+        <v>314</v>
+      </c>
+      <c r="H13" s="282"/>
+      <c r="I13" s="282"/>
+      <c r="J13" s="283"/>
       <c r="K13" s="116" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="L13" s="116" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="M13" s="68" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="N13" s="115" t="s">
         <v>168</v>
@@ -12402,116 +13365,116 @@
         <v>155</v>
       </c>
       <c r="C14" s="68" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="D14" s="114" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E14" s="114" t="s">
         <v>55</v>
       </c>
       <c r="F14" s="113" t="s">
-        <v>314</v>
-      </c>
-      <c r="G14" s="245" t="s">
-        <v>324</v>
-      </c>
-      <c r="H14" s="246"/>
-      <c r="I14" s="246"/>
-      <c r="J14" s="247"/>
+        <v>307</v>
+      </c>
+      <c r="G14" s="281" t="s">
+        <v>317</v>
+      </c>
+      <c r="H14" s="282"/>
+      <c r="I14" s="282"/>
+      <c r="J14" s="283"/>
       <c r="K14" s="116" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="L14" s="116" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="M14" s="68" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="N14" s="115" t="s">
         <v>168</v>
       </c>
-      <c r="O14" s="149"/>
-    </row>
-    <row r="15" spans="1:17" s="140" customFormat="1" ht="45">
+      <c r="O14" s="145"/>
+    </row>
+    <row r="15" spans="1:17" s="138" customFormat="1" ht="45">
       <c r="A15" s="106">
         <v>7</v>
       </c>
-      <c r="B15" s="136" t="s">
+      <c r="B15" s="134" t="s">
         <v>155</v>
       </c>
-      <c r="C15" s="135" t="s">
-        <v>208</v>
+      <c r="C15" s="133" t="s">
+        <v>207</v>
       </c>
       <c r="D15" s="114" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E15" s="114" t="s">
         <v>55</v>
       </c>
       <c r="F15" s="113" t="s">
-        <v>315</v>
-      </c>
-      <c r="G15" s="250" t="s">
+        <v>308</v>
+      </c>
+      <c r="G15" s="292" t="s">
+        <v>203</v>
+      </c>
+      <c r="H15" s="293"/>
+      <c r="I15" s="293"/>
+      <c r="J15" s="294"/>
+      <c r="K15" s="135" t="s">
         <v>204</v>
       </c>
-      <c r="H15" s="251"/>
-      <c r="I15" s="251"/>
-      <c r="J15" s="252"/>
-      <c r="K15" s="137" t="s">
+      <c r="L15" s="135" t="s">
         <v>205</v>
       </c>
-      <c r="L15" s="137" t="s">
+      <c r="M15" s="133"/>
+      <c r="N15" s="136" t="s">
+        <v>158</v>
+      </c>
+      <c r="O15" s="136" t="s">
         <v>206</v>
       </c>
-      <c r="M15" s="135"/>
-      <c r="N15" s="138" t="s">
+      <c r="P15" s="137"/>
+      <c r="Q15" s="137"/>
+    </row>
+    <row r="16" spans="1:17" s="138" customFormat="1" ht="63" customHeight="1">
+      <c r="A16" s="151">
+        <v>7</v>
+      </c>
+      <c r="B16" s="151" t="s">
+        <v>342</v>
+      </c>
+      <c r="C16" s="152" t="s">
+        <v>343</v>
+      </c>
+      <c r="D16" s="153" t="s">
+        <v>344</v>
+      </c>
+      <c r="E16" s="153" t="s">
+        <v>55</v>
+      </c>
+      <c r="F16" s="154" t="s">
+        <v>345</v>
+      </c>
+      <c r="G16" s="284" t="s">
+        <v>346</v>
+      </c>
+      <c r="H16" s="285"/>
+      <c r="I16" s="285"/>
+      <c r="J16" s="286"/>
+      <c r="K16" s="155" t="s">
+        <v>347</v>
+      </c>
+      <c r="L16" s="155" t="s">
+        <v>348</v>
+      </c>
+      <c r="M16" s="152"/>
+      <c r="N16" s="156" t="s">
         <v>158</v>
       </c>
-      <c r="O15" s="138" t="s">
-        <v>207</v>
-      </c>
-      <c r="P15" s="139"/>
-      <c r="Q15" s="139"/>
-    </row>
-    <row r="16" spans="1:17" s="140" customFormat="1" ht="63" customHeight="1">
-      <c r="A16" s="155">
-        <v>7</v>
-      </c>
-      <c r="B16" s="155" t="s">
-        <v>352</v>
-      </c>
-      <c r="C16" s="156" t="s">
-        <v>353</v>
-      </c>
-      <c r="D16" s="157" t="s">
-        <v>354</v>
-      </c>
-      <c r="E16" s="157" t="s">
-        <v>55</v>
-      </c>
-      <c r="F16" s="158" t="s">
-        <v>355</v>
-      </c>
-      <c r="G16" s="232" t="s">
-        <v>356</v>
-      </c>
-      <c r="H16" s="233"/>
-      <c r="I16" s="233"/>
-      <c r="J16" s="234"/>
-      <c r="K16" s="159" t="s">
-        <v>357</v>
-      </c>
-      <c r="L16" s="159" t="s">
-        <v>358</v>
-      </c>
-      <c r="M16" s="156"/>
-      <c r="N16" s="160" t="s">
-        <v>158</v>
-      </c>
-      <c r="O16" s="160"/>
-      <c r="P16" s="139"/>
-      <c r="Q16" s="139"/>
+      <c r="O16" s="156"/>
+      <c r="P16" s="137"/>
+      <c r="Q16" s="137"/>
     </row>
     <row r="17" spans="7:10" ht="12" customHeight="1">
       <c r="G17" s="32"/>
@@ -12717,11 +13680,6 @@
     <mergeCell ref="G16:J16"/>
     <mergeCell ref="M1:O1"/>
     <mergeCell ref="M2:O2"/>
-    <mergeCell ref="A1:D2"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="G5:J5"/>
-    <mergeCell ref="G4:J4"/>
     <mergeCell ref="G8:J8"/>
     <mergeCell ref="O10:O11"/>
     <mergeCell ref="G15:J15"/>
@@ -12730,6 +13688,11 @@
     <mergeCell ref="G9:J9"/>
     <mergeCell ref="G6:J6"/>
     <mergeCell ref="G7:J7"/>
+    <mergeCell ref="A1:D2"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="G5:J5"/>
+    <mergeCell ref="G4:J4"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="M1048229:M1048576 M15:M16"/>
@@ -12758,7 +13721,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K148"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A67" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A22" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="F97" sqref="F97"/>
     </sheetView>
   </sheetViews>
@@ -12776,10 +13739,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="12" customHeight="1">
-      <c r="A1" s="195" t="s">
+      <c r="A1" s="234" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="195"/>
+      <c r="B1" s="234"/>
       <c r="C1" s="30" t="s">
         <v>1</v>
       </c>
@@ -12810,8 +13773,8 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="12" customHeight="1">
-      <c r="A2" s="195"/>
-      <c r="B2" s="195"/>
+      <c r="A2" s="234"/>
+      <c r="B2" s="234"/>
       <c r="C2" s="30" t="s">
         <v>2</v>
       </c>
@@ -13129,66 +14092,66 @@
     <row r="26" spans="1:11" ht="12" customHeight="1">
       <c r="A26" s="63"/>
       <c r="B26" s="39"/>
-      <c r="C26" s="256" t="s">
-        <v>329</v>
-      </c>
-      <c r="D26" s="256"/>
-      <c r="E26" s="256"/>
-      <c r="F26" s="256"/>
-      <c r="G26" s="256"/>
-      <c r="H26" s="256"/>
-      <c r="I26" s="256"/>
-      <c r="J26" s="256"/>
+      <c r="C26" s="304" t="s">
+        <v>322</v>
+      </c>
+      <c r="D26" s="304"/>
+      <c r="E26" s="304"/>
+      <c r="F26" s="304"/>
+      <c r="G26" s="304"/>
+      <c r="H26" s="304"/>
+      <c r="I26" s="304"/>
+      <c r="J26" s="304"/>
     </row>
     <row r="27" spans="1:11" ht="12" customHeight="1">
       <c r="A27" s="63"/>
       <c r="B27" s="39"/>
-      <c r="C27" s="256"/>
-      <c r="D27" s="256"/>
-      <c r="E27" s="256"/>
-      <c r="F27" s="256"/>
-      <c r="G27" s="256"/>
-      <c r="H27" s="256"/>
-      <c r="I27" s="256"/>
-      <c r="J27" s="256"/>
+      <c r="C27" s="304"/>
+      <c r="D27" s="304"/>
+      <c r="E27" s="304"/>
+      <c r="F27" s="304"/>
+      <c r="G27" s="304"/>
+      <c r="H27" s="304"/>
+      <c r="I27" s="304"/>
+      <c r="J27" s="304"/>
     </row>
     <row r="28" spans="1:11" ht="12" customHeight="1">
       <c r="A28" s="63"/>
       <c r="B28" s="39"/>
-      <c r="C28" s="256"/>
-      <c r="D28" s="256"/>
-      <c r="E28" s="256"/>
-      <c r="F28" s="256"/>
-      <c r="G28" s="256"/>
-      <c r="H28" s="256"/>
-      <c r="I28" s="256"/>
-      <c r="J28" s="256"/>
+      <c r="C28" s="304"/>
+      <c r="D28" s="304"/>
+      <c r="E28" s="304"/>
+      <c r="F28" s="304"/>
+      <c r="G28" s="304"/>
+      <c r="H28" s="304"/>
+      <c r="I28" s="304"/>
+      <c r="J28" s="304"/>
     </row>
     <row r="29" spans="1:11" ht="12" customHeight="1">
       <c r="A29" s="63"/>
       <c r="B29" s="39"/>
-      <c r="C29" s="256"/>
-      <c r="D29" s="256"/>
-      <c r="E29" s="256"/>
-      <c r="F29" s="256"/>
-      <c r="G29" s="256"/>
-      <c r="H29" s="256"/>
-      <c r="I29" s="256"/>
-      <c r="J29" s="256"/>
+      <c r="C29" s="304"/>
+      <c r="D29" s="304"/>
+      <c r="E29" s="304"/>
+      <c r="F29" s="304"/>
+      <c r="G29" s="304"/>
+      <c r="H29" s="304"/>
+      <c r="I29" s="304"/>
+      <c r="J29" s="304"/>
     </row>
     <row r="30" spans="1:11" ht="12" customHeight="1">
       <c r="A30" s="63"/>
       <c r="B30" s="39"/>
-      <c r="C30" s="256" t="s">
-        <v>328</v>
-      </c>
-      <c r="D30" s="256"/>
-      <c r="E30" s="256"/>
-      <c r="F30" s="256"/>
-      <c r="G30" s="256"/>
-      <c r="H30" s="256"/>
-      <c r="I30" s="256"/>
-      <c r="J30" s="256"/>
+      <c r="C30" s="304" t="s">
+        <v>321</v>
+      </c>
+      <c r="D30" s="304"/>
+      <c r="E30" s="304"/>
+      <c r="F30" s="304"/>
+      <c r="G30" s="304"/>
+      <c r="H30" s="304"/>
+      <c r="I30" s="304"/>
+      <c r="J30" s="304"/>
     </row>
     <row r="31" spans="1:11" ht="12" customHeight="1">
       <c r="A31" s="63"/>
@@ -13349,78 +14312,78 @@
     <row r="44" spans="1:10" ht="12" customHeight="1">
       <c r="A44" s="63"/>
       <c r="B44" s="39"/>
-      <c r="C44" s="256" t="s">
-        <v>331</v>
-      </c>
-      <c r="D44" s="256"/>
-      <c r="E44" s="256"/>
-      <c r="F44" s="256"/>
-      <c r="G44" s="256"/>
-      <c r="H44" s="256"/>
-      <c r="I44" s="256"/>
-      <c r="J44" s="256"/>
+      <c r="C44" s="304" t="s">
+        <v>324</v>
+      </c>
+      <c r="D44" s="304"/>
+      <c r="E44" s="304"/>
+      <c r="F44" s="304"/>
+      <c r="G44" s="304"/>
+      <c r="H44" s="304"/>
+      <c r="I44" s="304"/>
+      <c r="J44" s="304"/>
     </row>
     <row r="45" spans="1:10" ht="12" customHeight="1">
       <c r="A45" s="63"/>
       <c r="B45" s="39"/>
-      <c r="C45" s="256"/>
-      <c r="D45" s="256"/>
-      <c r="E45" s="256"/>
-      <c r="F45" s="256"/>
-      <c r="G45" s="256"/>
-      <c r="H45" s="256"/>
-      <c r="I45" s="256"/>
-      <c r="J45" s="256"/>
+      <c r="C45" s="304"/>
+      <c r="D45" s="304"/>
+      <c r="E45" s="304"/>
+      <c r="F45" s="304"/>
+      <c r="G45" s="304"/>
+      <c r="H45" s="304"/>
+      <c r="I45" s="304"/>
+      <c r="J45" s="304"/>
     </row>
     <row r="46" spans="1:10" ht="12" customHeight="1">
       <c r="A46" s="63"/>
       <c r="B46" s="39"/>
-      <c r="C46" s="256"/>
-      <c r="D46" s="256"/>
-      <c r="E46" s="256"/>
-      <c r="F46" s="256"/>
-      <c r="G46" s="256"/>
-      <c r="H46" s="256"/>
-      <c r="I46" s="256"/>
-      <c r="J46" s="256"/>
+      <c r="C46" s="304"/>
+      <c r="D46" s="304"/>
+      <c r="E46" s="304"/>
+      <c r="F46" s="304"/>
+      <c r="G46" s="304"/>
+      <c r="H46" s="304"/>
+      <c r="I46" s="304"/>
+      <c r="J46" s="304"/>
     </row>
     <row r="47" spans="1:10" ht="12" customHeight="1">
       <c r="A47" s="63"/>
       <c r="B47" s="39"/>
-      <c r="C47" s="256"/>
-      <c r="D47" s="256"/>
-      <c r="E47" s="256"/>
-      <c r="F47" s="256"/>
-      <c r="G47" s="256"/>
-      <c r="H47" s="256"/>
-      <c r="I47" s="256"/>
-      <c r="J47" s="256"/>
+      <c r="C47" s="304"/>
+      <c r="D47" s="304"/>
+      <c r="E47" s="304"/>
+      <c r="F47" s="304"/>
+      <c r="G47" s="304"/>
+      <c r="H47" s="304"/>
+      <c r="I47" s="304"/>
+      <c r="J47" s="304"/>
     </row>
     <row r="48" spans="1:10" ht="12" customHeight="1">
       <c r="A48" s="63"/>
       <c r="B48" s="39"/>
-      <c r="C48" s="256"/>
-      <c r="D48" s="256"/>
-      <c r="E48" s="256"/>
-      <c r="F48" s="256"/>
-      <c r="G48" s="256"/>
-      <c r="H48" s="256"/>
-      <c r="I48" s="256"/>
-      <c r="J48" s="256"/>
+      <c r="C48" s="304"/>
+      <c r="D48" s="304"/>
+      <c r="E48" s="304"/>
+      <c r="F48" s="304"/>
+      <c r="G48" s="304"/>
+      <c r="H48" s="304"/>
+      <c r="I48" s="304"/>
+      <c r="J48" s="304"/>
     </row>
     <row r="49" spans="1:10" ht="12" customHeight="1">
       <c r="A49" s="63"/>
       <c r="B49" s="39"/>
-      <c r="C49" s="256" t="s">
-        <v>332</v>
-      </c>
-      <c r="D49" s="256"/>
-      <c r="E49" s="256"/>
-      <c r="F49" s="256"/>
-      <c r="G49" s="256"/>
-      <c r="H49" s="256"/>
-      <c r="I49" s="256"/>
-      <c r="J49" s="256"/>
+      <c r="C49" s="304" t="s">
+        <v>325</v>
+      </c>
+      <c r="D49" s="304"/>
+      <c r="E49" s="304"/>
+      <c r="F49" s="304"/>
+      <c r="G49" s="304"/>
+      <c r="H49" s="304"/>
+      <c r="I49" s="304"/>
+      <c r="J49" s="304"/>
     </row>
     <row r="50" spans="1:10" ht="12" customHeight="1">
       <c r="A50" s="63"/>
@@ -13581,78 +14544,78 @@
     <row r="63" spans="1:10" ht="12" customHeight="1">
       <c r="A63" s="63"/>
       <c r="B63" s="39"/>
-      <c r="C63" s="256" t="s">
-        <v>333</v>
-      </c>
-      <c r="D63" s="256"/>
-      <c r="E63" s="256"/>
-      <c r="F63" s="256"/>
-      <c r="G63" s="256"/>
-      <c r="H63" s="256"/>
-      <c r="I63" s="256"/>
-      <c r="J63" s="256"/>
+      <c r="C63" s="304" t="s">
+        <v>326</v>
+      </c>
+      <c r="D63" s="304"/>
+      <c r="E63" s="304"/>
+      <c r="F63" s="304"/>
+      <c r="G63" s="304"/>
+      <c r="H63" s="304"/>
+      <c r="I63" s="304"/>
+      <c r="J63" s="304"/>
     </row>
     <row r="64" spans="1:10" ht="12" customHeight="1">
       <c r="A64" s="63"/>
       <c r="B64" s="39"/>
-      <c r="C64" s="256"/>
-      <c r="D64" s="256"/>
-      <c r="E64" s="256"/>
-      <c r="F64" s="256"/>
-      <c r="G64" s="256"/>
-      <c r="H64" s="256"/>
-      <c r="I64" s="256"/>
-      <c r="J64" s="256"/>
+      <c r="C64" s="304"/>
+      <c r="D64" s="304"/>
+      <c r="E64" s="304"/>
+      <c r="F64" s="304"/>
+      <c r="G64" s="304"/>
+      <c r="H64" s="304"/>
+      <c r="I64" s="304"/>
+      <c r="J64" s="304"/>
     </row>
     <row r="65" spans="1:10" ht="12" customHeight="1">
       <c r="A65" s="63"/>
       <c r="B65" s="39"/>
-      <c r="C65" s="256"/>
-      <c r="D65" s="256"/>
-      <c r="E65" s="256"/>
-      <c r="F65" s="256"/>
-      <c r="G65" s="256"/>
-      <c r="H65" s="256"/>
-      <c r="I65" s="256"/>
-      <c r="J65" s="256"/>
+      <c r="C65" s="304"/>
+      <c r="D65" s="304"/>
+      <c r="E65" s="304"/>
+      <c r="F65" s="304"/>
+      <c r="G65" s="304"/>
+      <c r="H65" s="304"/>
+      <c r="I65" s="304"/>
+      <c r="J65" s="304"/>
     </row>
     <row r="66" spans="1:10" ht="12" customHeight="1">
       <c r="A66" s="63"/>
       <c r="B66" s="39"/>
-      <c r="C66" s="256"/>
-      <c r="D66" s="256"/>
-      <c r="E66" s="256"/>
-      <c r="F66" s="256"/>
-      <c r="G66" s="256"/>
-      <c r="H66" s="256"/>
-      <c r="I66" s="256"/>
-      <c r="J66" s="256"/>
+      <c r="C66" s="304"/>
+      <c r="D66" s="304"/>
+      <c r="E66" s="304"/>
+      <c r="F66" s="304"/>
+      <c r="G66" s="304"/>
+      <c r="H66" s="304"/>
+      <c r="I66" s="304"/>
+      <c r="J66" s="304"/>
     </row>
     <row r="67" spans="1:10" ht="12" customHeight="1">
       <c r="A67" s="63"/>
       <c r="B67" s="39"/>
-      <c r="C67" s="256"/>
-      <c r="D67" s="256"/>
-      <c r="E67" s="256"/>
-      <c r="F67" s="256"/>
-      <c r="G67" s="256"/>
-      <c r="H67" s="256"/>
-      <c r="I67" s="256"/>
-      <c r="J67" s="256"/>
+      <c r="C67" s="304"/>
+      <c r="D67" s="304"/>
+      <c r="E67" s="304"/>
+      <c r="F67" s="304"/>
+      <c r="G67" s="304"/>
+      <c r="H67" s="304"/>
+      <c r="I67" s="304"/>
+      <c r="J67" s="304"/>
     </row>
     <row r="68" spans="1:10" ht="12" customHeight="1">
       <c r="A68" s="63"/>
       <c r="B68" s="39"/>
-      <c r="C68" s="256" t="s">
-        <v>334</v>
-      </c>
-      <c r="D68" s="256"/>
-      <c r="E68" s="256"/>
-      <c r="F68" s="256"/>
-      <c r="G68" s="256"/>
-      <c r="H68" s="256"/>
-      <c r="I68" s="256"/>
-      <c r="J68" s="256"/>
+      <c r="C68" s="304" t="s">
+        <v>327</v>
+      </c>
+      <c r="D68" s="304"/>
+      <c r="E68" s="304"/>
+      <c r="F68" s="304"/>
+      <c r="G68" s="304"/>
+      <c r="H68" s="304"/>
+      <c r="I68" s="304"/>
+      <c r="J68" s="304"/>
     </row>
     <row r="69" spans="1:10" ht="12" customHeight="1">
       <c r="A69" s="63"/>
@@ -13800,48 +14763,48 @@
     <row r="81" spans="1:10" ht="12" customHeight="1">
       <c r="A81" s="63"/>
       <c r="B81" s="39"/>
-      <c r="C81" s="256" t="s">
-        <v>335</v>
-      </c>
-      <c r="D81" s="256"/>
-      <c r="E81" s="256"/>
-      <c r="F81" s="256"/>
-      <c r="G81" s="256"/>
-      <c r="H81" s="256"/>
-      <c r="I81" s="256"/>
-      <c r="J81" s="256"/>
+      <c r="C81" s="304" t="s">
+        <v>328</v>
+      </c>
+      <c r="D81" s="304"/>
+      <c r="E81" s="304"/>
+      <c r="F81" s="304"/>
+      <c r="G81" s="304"/>
+      <c r="H81" s="304"/>
+      <c r="I81" s="304"/>
+      <c r="J81" s="304"/>
     </row>
     <row r="82" spans="1:10" ht="12" customHeight="1">
       <c r="A82" s="63"/>
       <c r="B82" s="39"/>
-      <c r="C82" s="256"/>
-      <c r="D82" s="256"/>
-      <c r="E82" s="256"/>
-      <c r="F82" s="256"/>
-      <c r="G82" s="256"/>
-      <c r="H82" s="256"/>
-      <c r="I82" s="256"/>
-      <c r="J82" s="256"/>
+      <c r="C82" s="304"/>
+      <c r="D82" s="304"/>
+      <c r="E82" s="304"/>
+      <c r="F82" s="304"/>
+      <c r="G82" s="304"/>
+      <c r="H82" s="304"/>
+      <c r="I82" s="304"/>
+      <c r="J82" s="304"/>
     </row>
     <row r="83" spans="1:10" ht="12" customHeight="1">
       <c r="A83" s="63"/>
       <c r="B83" s="39"/>
-      <c r="C83" s="141" t="s">
-        <v>336</v>
-      </c>
-      <c r="D83" s="123"/>
-      <c r="E83" s="123"/>
-      <c r="F83" s="123"/>
-      <c r="G83" s="123"/>
-      <c r="H83" s="123"/>
-      <c r="I83" s="123"/>
-      <c r="J83" s="123"/>
+      <c r="C83" s="139" t="s">
+        <v>329</v>
+      </c>
+      <c r="D83" s="122"/>
+      <c r="E83" s="122"/>
+      <c r="F83" s="122"/>
+      <c r="G83" s="122"/>
+      <c r="H83" s="122"/>
+      <c r="I83" s="122"/>
+      <c r="J83" s="122"/>
     </row>
     <row r="84" spans="1:10" ht="12" customHeight="1">
       <c r="A84" s="63"/>
       <c r="B84" s="39"/>
-      <c r="C84" s="142" t="s">
-        <v>337</v>
+      <c r="C84" s="140" t="s">
+        <v>330</v>
       </c>
       <c r="D84" s="118"/>
       <c r="E84" s="118"/>
@@ -13854,29 +14817,29 @@
     <row r="85" spans="1:10" ht="12" customHeight="1">
       <c r="A85" s="63"/>
       <c r="B85" s="39"/>
-      <c r="C85" s="150" t="s">
-        <v>341</v>
+      <c r="C85" s="146" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="86" spans="1:10" ht="12" customHeight="1">
       <c r="A86" s="38"/>
       <c r="B86" s="39"/>
       <c r="C86" s="22" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
     </row>
     <row r="87" spans="1:10" ht="12" customHeight="1">
       <c r="A87" s="38"/>
       <c r="B87" s="39"/>
       <c r="C87" s="22" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
     </row>
     <row r="88" spans="1:10" ht="11.25" customHeight="1">
       <c r="A88" s="63"/>
       <c r="B88" s="39"/>
       <c r="C88" s="39" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="D88" s="39"/>
       <c r="E88" s="39"/>
@@ -14034,20 +14997,20 @@
       <c r="J100" s="42"/>
     </row>
     <row r="101" spans="1:10" ht="12" customHeight="1">
-      <c r="A101" s="161" t="s">
-        <v>352</v>
-      </c>
-      <c r="B101" s="162" t="s">
-        <v>359</v>
-      </c>
-      <c r="C101" s="163"/>
-      <c r="D101" s="164"/>
-      <c r="E101" s="164"/>
-      <c r="F101" s="164"/>
-      <c r="G101" s="164"/>
-      <c r="H101" s="164"/>
-      <c r="I101" s="164"/>
-      <c r="J101" s="165"/>
+      <c r="A101" s="157" t="s">
+        <v>342</v>
+      </c>
+      <c r="B101" s="158" t="s">
+        <v>349</v>
+      </c>
+      <c r="C101" s="159"/>
+      <c r="D101" s="160"/>
+      <c r="E101" s="160"/>
+      <c r="F101" s="160"/>
+      <c r="G101" s="160"/>
+      <c r="H101" s="160"/>
+      <c r="I101" s="160"/>
+      <c r="J101" s="161"/>
     </row>
     <row r="102" spans="1:10" ht="12" customHeight="1">
       <c r="A102" s="38"/>
@@ -14653,10 +15616,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="195" t="s">
+      <c r="A1" s="234" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="195"/>
+      <c r="B1" s="234"/>
       <c r="C1" s="30" t="s">
         <v>1</v>
       </c>
@@ -14687,8 +15650,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="195"/>
-      <c r="B2" s="195"/>
+      <c r="A2" s="234"/>
+      <c r="B2" s="234"/>
       <c r="C2" s="30" t="s">
         <v>2</v>
       </c>

--- a/2018/CRM/03_DetailDesign/CRMF2082_Xem chi tiet yeu cau.xlsx
+++ b/2018/CRM/03_DetailDesign/CRMF2082_Xem chi tiet yeu cau.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\01.CRM\1_Tài liệu phân tích_Yêu cầu\03_DetailDesign\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\01.CRM\1_Tai lieu phan tich_Yeu cau\03_DetailDesign\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="15480" windowHeight="9990" tabRatio="836" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="15480" windowHeight="9990" tabRatio="836" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Coverpage" sheetId="20" r:id="rId1"/>
@@ -49,7 +49,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="8">'Func Spec'!$A$1:$J$21</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="9">Help!$A$1:$K$62</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'Input Check'!$A$1:$I$14</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'Item Screen'!$A$1:$O$68</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'Item Screen'!$A$1:$O$69</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'Layout Screen'!$A$1:$J$52</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Update History'!$A$1:$J$34</definedName>
     <definedName name="RB">#REF!</definedName>
@@ -1419,7 +1419,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="409">
   <si>
     <t>Detail Design</t>
   </si>
@@ -2053,9 +2053,6 @@
   </si>
   <si>
     <t>2.4</t>
-  </si>
-  <si>
-    <t>2.6</t>
   </si>
   <si>
     <t>Button</t>
@@ -2795,12 +2792,6 @@
 Order By A.CreateDate desc</t>
   </si>
   <si>
-    <t>2.15</t>
-  </si>
-  <si>
-    <t>2.14</t>
-  </si>
-  <si>
     <t>Tấn Đạt</t>
   </si>
   <si>
@@ -3014,6 +3005,12 @@
   </si>
   <si>
     <t xml:space="preserve">Bổ sung các trường: Loại yêu cầu, Dự án, Deadline mong muốn, Deadline thực tế hoàn thành, Số giờ cho phép, Số giờ thực tế, </t>
+  </si>
+  <si>
+    <t>Phân loại bug</t>
+  </si>
+  <si>
+    <t>BugTypeID</t>
   </si>
 </sst>
 </file>
@@ -3543,7 +3540,7 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="309">
+  <cellXfs count="310">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4051,75 +4048,123 @@
     <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="25" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="25" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="25" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="25" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="25" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="25" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -4129,51 +4174,6 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4276,6 +4276,75 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -4296,75 +4365,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -7735,65 +7735,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="27" customHeight="1">
-      <c r="A1" s="210"/>
-      <c r="B1" s="210"/>
-      <c r="C1" s="212" t="s">
+      <c r="A1" s="205"/>
+      <c r="B1" s="205"/>
+      <c r="C1" s="207" t="s">
         <v>152</v>
       </c>
-      <c r="D1" s="213"/>
-      <c r="E1" s="213"/>
-      <c r="F1" s="214"/>
-      <c r="G1" s="211" t="s">
+      <c r="D1" s="208"/>
+      <c r="E1" s="208"/>
+      <c r="F1" s="209"/>
+      <c r="G1" s="206" t="s">
         <v>148</v>
       </c>
-      <c r="H1" s="211"/>
-      <c r="I1" s="211" t="s">
+      <c r="H1" s="206"/>
+      <c r="I1" s="206" t="s">
         <v>149</v>
       </c>
-      <c r="J1" s="211"/>
+      <c r="J1" s="206"/>
     </row>
     <row r="2" spans="1:18" ht="23.25" customHeight="1">
-      <c r="A2" s="210"/>
-      <c r="B2" s="210"/>
-      <c r="C2" s="215"/>
-      <c r="D2" s="216"/>
-      <c r="E2" s="216"/>
-      <c r="F2" s="217"/>
-      <c r="G2" s="211" t="s">
+      <c r="A2" s="205"/>
+      <c r="B2" s="205"/>
+      <c r="C2" s="210"/>
+      <c r="D2" s="211"/>
+      <c r="E2" s="211"/>
+      <c r="F2" s="212"/>
+      <c r="G2" s="206" t="s">
         <v>150</v>
       </c>
-      <c r="H2" s="211"/>
-      <c r="I2" s="211"/>
-      <c r="J2" s="211"/>
+      <c r="H2" s="206"/>
+      <c r="I2" s="206"/>
+      <c r="J2" s="206"/>
     </row>
     <row r="3" spans="1:18" ht="12.75" customHeight="1">
-      <c r="A3" s="210"/>
-      <c r="B3" s="210"/>
-      <c r="C3" s="218"/>
-      <c r="D3" s="219"/>
-      <c r="E3" s="219"/>
-      <c r="F3" s="220"/>
-      <c r="G3" s="207" t="s">
+      <c r="A3" s="205"/>
+      <c r="B3" s="205"/>
+      <c r="C3" s="213"/>
+      <c r="D3" s="214"/>
+      <c r="E3" s="214"/>
+      <c r="F3" s="215"/>
+      <c r="G3" s="202" t="s">
         <v>151</v>
       </c>
-      <c r="H3" s="208"/>
-      <c r="I3" s="207"/>
-      <c r="J3" s="208"/>
+      <c r="H3" s="203"/>
+      <c r="I3" s="202"/>
+      <c r="J3" s="203"/>
     </row>
     <row r="4" spans="1:18">
       <c r="H4" s="97"/>
     </row>
     <row r="13" spans="1:18" ht="30">
-      <c r="A13" s="209"/>
-      <c r="B13" s="209"/>
-      <c r="C13" s="209"/>
-      <c r="D13" s="209"/>
-      <c r="E13" s="209"/>
-      <c r="F13" s="209"/>
-      <c r="G13" s="209"/>
-      <c r="H13" s="209"/>
-      <c r="I13" s="209"/>
-      <c r="J13" s="209"/>
+      <c r="A13" s="204"/>
+      <c r="B13" s="204"/>
+      <c r="C13" s="204"/>
+      <c r="D13" s="204"/>
+      <c r="E13" s="204"/>
+      <c r="F13" s="204"/>
+      <c r="G13" s="204"/>
+      <c r="H13" s="204"/>
+      <c r="I13" s="204"/>
+      <c r="J13" s="204"/>
       <c r="K13" s="98"/>
       <c r="L13" s="98"/>
       <c r="M13" s="98"/>
@@ -7804,56 +7804,56 @@
       <c r="R13" s="98"/>
     </row>
     <row r="14" spans="1:18" ht="26.25">
-      <c r="B14" s="203"/>
-      <c r="C14" s="203"/>
-      <c r="D14" s="203"/>
-      <c r="E14" s="203"/>
-      <c r="F14" s="203"/>
-      <c r="G14" s="203"/>
-      <c r="H14" s="203"/>
-      <c r="I14" s="203"/>
-      <c r="J14" s="203"/>
-      <c r="K14" s="203"/>
-      <c r="L14" s="203"/>
-      <c r="M14" s="203"/>
-      <c r="N14" s="203"/>
-      <c r="O14" s="203"/>
-      <c r="P14" s="203"/>
-      <c r="Q14" s="203"/>
-      <c r="R14" s="203"/>
+      <c r="B14" s="200"/>
+      <c r="C14" s="200"/>
+      <c r="D14" s="200"/>
+      <c r="E14" s="200"/>
+      <c r="F14" s="200"/>
+      <c r="G14" s="200"/>
+      <c r="H14" s="200"/>
+      <c r="I14" s="200"/>
+      <c r="J14" s="200"/>
+      <c r="K14" s="200"/>
+      <c r="L14" s="200"/>
+      <c r="M14" s="200"/>
+      <c r="N14" s="200"/>
+      <c r="O14" s="200"/>
+      <c r="P14" s="200"/>
+      <c r="Q14" s="200"/>
+      <c r="R14" s="200"/>
     </row>
     <row r="15" spans="1:18" ht="26.25">
-      <c r="B15" s="203"/>
-      <c r="C15" s="203"/>
-      <c r="D15" s="203"/>
-      <c r="E15" s="203"/>
-      <c r="F15" s="203"/>
-      <c r="G15" s="203"/>
-      <c r="H15" s="203"/>
-      <c r="I15" s="203"/>
-      <c r="J15" s="203"/>
-      <c r="K15" s="203"/>
-      <c r="L15" s="203"/>
-      <c r="M15" s="203"/>
-      <c r="N15" s="203"/>
-      <c r="O15" s="203"/>
-      <c r="P15" s="203"/>
-      <c r="Q15" s="203"/>
-      <c r="R15" s="203"/>
+      <c r="B15" s="200"/>
+      <c r="C15" s="200"/>
+      <c r="D15" s="200"/>
+      <c r="E15" s="200"/>
+      <c r="F15" s="200"/>
+      <c r="G15" s="200"/>
+      <c r="H15" s="200"/>
+      <c r="I15" s="200"/>
+      <c r="J15" s="200"/>
+      <c r="K15" s="200"/>
+      <c r="L15" s="200"/>
+      <c r="M15" s="200"/>
+      <c r="N15" s="200"/>
+      <c r="O15" s="200"/>
+      <c r="P15" s="200"/>
+      <c r="Q15" s="200"/>
+      <c r="R15" s="200"/>
     </row>
     <row r="16" spans="1:18" ht="26.25">
-      <c r="A16" s="206" t="s">
+      <c r="A16" s="201" t="s">
         <v>152</v>
       </c>
-      <c r="B16" s="206"/>
-      <c r="C16" s="206"/>
-      <c r="D16" s="206"/>
-      <c r="E16" s="206"/>
-      <c r="F16" s="206"/>
-      <c r="G16" s="206"/>
-      <c r="H16" s="206"/>
-      <c r="I16" s="206"/>
-      <c r="J16" s="206"/>
+      <c r="B16" s="201"/>
+      <c r="C16" s="201"/>
+      <c r="D16" s="201"/>
+      <c r="E16" s="201"/>
+      <c r="F16" s="201"/>
+      <c r="G16" s="201"/>
+      <c r="H16" s="201"/>
+      <c r="I16" s="201"/>
+      <c r="J16" s="201"/>
       <c r="K16" s="99"/>
       <c r="L16" s="99"/>
       <c r="M16" s="99"/>
@@ -7864,384 +7864,384 @@
       <c r="R16" s="99"/>
     </row>
     <row r="17" spans="1:195" ht="14.1" customHeight="1">
-      <c r="B17" s="203"/>
-      <c r="C17" s="203"/>
-      <c r="D17" s="203"/>
-      <c r="E17" s="203"/>
-      <c r="F17" s="203"/>
-      <c r="G17" s="203"/>
-      <c r="H17" s="203"/>
-      <c r="I17" s="203"/>
-      <c r="J17" s="203"/>
-      <c r="K17" s="203"/>
-      <c r="L17" s="203"/>
-      <c r="M17" s="203"/>
-      <c r="N17" s="203"/>
-      <c r="O17" s="203"/>
-      <c r="P17" s="203"/>
-      <c r="Q17" s="203"/>
-      <c r="R17" s="203"/>
+      <c r="B17" s="200"/>
+      <c r="C17" s="200"/>
+      <c r="D17" s="200"/>
+      <c r="E17" s="200"/>
+      <c r="F17" s="200"/>
+      <c r="G17" s="200"/>
+      <c r="H17" s="200"/>
+      <c r="I17" s="200"/>
+      <c r="J17" s="200"/>
+      <c r="K17" s="200"/>
+      <c r="L17" s="200"/>
+      <c r="M17" s="200"/>
+      <c r="N17" s="200"/>
+      <c r="O17" s="200"/>
+      <c r="P17" s="200"/>
+      <c r="Q17" s="200"/>
+      <c r="R17" s="200"/>
     </row>
     <row r="18" spans="1:195" ht="26.25">
-      <c r="B18" s="203"/>
-      <c r="C18" s="203"/>
-      <c r="D18" s="203"/>
-      <c r="E18" s="203"/>
-      <c r="F18" s="203"/>
-      <c r="G18" s="203"/>
-      <c r="H18" s="203"/>
-      <c r="I18" s="203"/>
-      <c r="J18" s="203"/>
-      <c r="K18" s="203"/>
-      <c r="L18" s="203"/>
-      <c r="M18" s="203"/>
-      <c r="N18" s="203"/>
-      <c r="O18" s="203"/>
-      <c r="P18" s="203"/>
-      <c r="Q18" s="203"/>
-      <c r="R18" s="203"/>
+      <c r="B18" s="200"/>
+      <c r="C18" s="200"/>
+      <c r="D18" s="200"/>
+      <c r="E18" s="200"/>
+      <c r="F18" s="200"/>
+      <c r="G18" s="200"/>
+      <c r="H18" s="200"/>
+      <c r="I18" s="200"/>
+      <c r="J18" s="200"/>
+      <c r="K18" s="200"/>
+      <c r="L18" s="200"/>
+      <c r="M18" s="200"/>
+      <c r="N18" s="200"/>
+      <c r="O18" s="200"/>
+      <c r="P18" s="200"/>
+      <c r="Q18" s="200"/>
+      <c r="R18" s="200"/>
     </row>
     <row r="19" spans="1:195" ht="23.25">
-      <c r="B19" s="205"/>
-      <c r="C19" s="205"/>
-      <c r="D19" s="205"/>
-      <c r="E19" s="205"/>
-      <c r="F19" s="205"/>
-      <c r="G19" s="205"/>
-      <c r="H19" s="205"/>
-      <c r="I19" s="205"/>
-      <c r="J19" s="205"/>
-      <c r="K19" s="205"/>
-      <c r="L19" s="205"/>
-      <c r="M19" s="205"/>
-      <c r="N19" s="205"/>
-      <c r="O19" s="205"/>
-      <c r="P19" s="205"/>
-      <c r="Q19" s="205"/>
-      <c r="R19" s="205"/>
+      <c r="B19" s="217"/>
+      <c r="C19" s="217"/>
+      <c r="D19" s="217"/>
+      <c r="E19" s="217"/>
+      <c r="F19" s="217"/>
+      <c r="G19" s="217"/>
+      <c r="H19" s="217"/>
+      <c r="I19" s="217"/>
+      <c r="J19" s="217"/>
+      <c r="K19" s="217"/>
+      <c r="L19" s="217"/>
+      <c r="M19" s="217"/>
+      <c r="N19" s="217"/>
+      <c r="O19" s="217"/>
+      <c r="P19" s="217"/>
+      <c r="Q19" s="217"/>
+      <c r="R19" s="217"/>
     </row>
     <row r="20" spans="1:195" ht="26.25">
-      <c r="B20" s="203"/>
-      <c r="C20" s="203"/>
-      <c r="D20" s="203"/>
-      <c r="E20" s="203"/>
-      <c r="F20" s="203"/>
-      <c r="G20" s="203"/>
-      <c r="H20" s="203"/>
-      <c r="I20" s="203"/>
-      <c r="J20" s="203"/>
-      <c r="K20" s="203"/>
-      <c r="L20" s="203"/>
-      <c r="M20" s="203"/>
-      <c r="N20" s="203"/>
-      <c r="O20" s="203"/>
-      <c r="P20" s="203"/>
-      <c r="Q20" s="203"/>
-      <c r="R20" s="203"/>
+      <c r="B20" s="200"/>
+      <c r="C20" s="200"/>
+      <c r="D20" s="200"/>
+      <c r="E20" s="200"/>
+      <c r="F20" s="200"/>
+      <c r="G20" s="200"/>
+      <c r="H20" s="200"/>
+      <c r="I20" s="200"/>
+      <c r="J20" s="200"/>
+      <c r="K20" s="200"/>
+      <c r="L20" s="200"/>
+      <c r="M20" s="200"/>
+      <c r="N20" s="200"/>
+      <c r="O20" s="200"/>
+      <c r="P20" s="200"/>
+      <c r="Q20" s="200"/>
+      <c r="R20" s="200"/>
     </row>
     <row r="21" spans="1:195" ht="26.25">
-      <c r="B21" s="203"/>
-      <c r="C21" s="203"/>
-      <c r="D21" s="203"/>
-      <c r="E21" s="203"/>
-      <c r="F21" s="203"/>
-      <c r="G21" s="203"/>
-      <c r="H21" s="203"/>
-      <c r="I21" s="203"/>
-      <c r="J21" s="203"/>
-      <c r="K21" s="203"/>
-      <c r="L21" s="203"/>
-      <c r="M21" s="203"/>
-      <c r="N21" s="203"/>
-      <c r="O21" s="203"/>
-      <c r="P21" s="203"/>
-      <c r="Q21" s="203"/>
-      <c r="R21" s="203"/>
+      <c r="B21" s="200"/>
+      <c r="C21" s="200"/>
+      <c r="D21" s="200"/>
+      <c r="E21" s="200"/>
+      <c r="F21" s="200"/>
+      <c r="G21" s="200"/>
+      <c r="H21" s="200"/>
+      <c r="I21" s="200"/>
+      <c r="J21" s="200"/>
+      <c r="K21" s="200"/>
+      <c r="L21" s="200"/>
+      <c r="M21" s="200"/>
+      <c r="N21" s="200"/>
+      <c r="O21" s="200"/>
+      <c r="P21" s="200"/>
+      <c r="Q21" s="200"/>
+      <c r="R21" s="200"/>
     </row>
     <row r="22" spans="1:195" ht="25.5">
-      <c r="B22" s="204"/>
-      <c r="C22" s="204"/>
-      <c r="D22" s="204"/>
-      <c r="E22" s="204"/>
-      <c r="F22" s="204"/>
-      <c r="G22" s="204"/>
-      <c r="H22" s="204"/>
-      <c r="I22" s="204"/>
-      <c r="J22" s="204"/>
-      <c r="K22" s="204"/>
-      <c r="L22" s="204"/>
-      <c r="M22" s="204"/>
-      <c r="N22" s="204"/>
-      <c r="O22" s="204"/>
-      <c r="P22" s="204"/>
-      <c r="Q22" s="204"/>
-      <c r="R22" s="204"/>
+      <c r="B22" s="216"/>
+      <c r="C22" s="216"/>
+      <c r="D22" s="216"/>
+      <c r="E22" s="216"/>
+      <c r="F22" s="216"/>
+      <c r="G22" s="216"/>
+      <c r="H22" s="216"/>
+      <c r="I22" s="216"/>
+      <c r="J22" s="216"/>
+      <c r="K22" s="216"/>
+      <c r="L22" s="216"/>
+      <c r="M22" s="216"/>
+      <c r="N22" s="216"/>
+      <c r="O22" s="216"/>
+      <c r="P22" s="216"/>
+      <c r="Q22" s="216"/>
+      <c r="R22" s="216"/>
     </row>
     <row r="23" spans="1:195" ht="25.5">
-      <c r="B23" s="204"/>
-      <c r="C23" s="204"/>
-      <c r="D23" s="204"/>
-      <c r="E23" s="204"/>
-      <c r="F23" s="204"/>
-      <c r="G23" s="204"/>
-      <c r="H23" s="204"/>
-      <c r="I23" s="204"/>
-      <c r="J23" s="204"/>
-      <c r="K23" s="204"/>
-      <c r="L23" s="204"/>
-      <c r="M23" s="204"/>
-      <c r="N23" s="204"/>
-      <c r="O23" s="204"/>
-      <c r="P23" s="204"/>
-      <c r="Q23" s="204"/>
-      <c r="R23" s="204"/>
+      <c r="B23" s="216"/>
+      <c r="C23" s="216"/>
+      <c r="D23" s="216"/>
+      <c r="E23" s="216"/>
+      <c r="F23" s="216"/>
+      <c r="G23" s="216"/>
+      <c r="H23" s="216"/>
+      <c r="I23" s="216"/>
+      <c r="J23" s="216"/>
+      <c r="K23" s="216"/>
+      <c r="L23" s="216"/>
+      <c r="M23" s="216"/>
+      <c r="N23" s="216"/>
+      <c r="O23" s="216"/>
+      <c r="P23" s="216"/>
+      <c r="Q23" s="216"/>
+      <c r="R23" s="216"/>
     </row>
     <row r="25" spans="1:195" ht="11.25" customHeight="1"/>
     <row r="26" spans="1:195" ht="18">
-      <c r="B26" s="201"/>
-      <c r="C26" s="201"/>
-      <c r="D26" s="201"/>
-      <c r="E26" s="201"/>
-      <c r="F26" s="201"/>
-      <c r="G26" s="201"/>
-      <c r="H26" s="201"/>
-      <c r="I26" s="201"/>
-      <c r="J26" s="201"/>
-      <c r="K26" s="201"/>
-      <c r="L26" s="201"/>
-      <c r="M26" s="201"/>
-      <c r="N26" s="201"/>
-      <c r="O26" s="201"/>
-      <c r="P26" s="201"/>
-      <c r="Q26" s="201"/>
-      <c r="R26" s="201"/>
+      <c r="B26" s="218"/>
+      <c r="C26" s="218"/>
+      <c r="D26" s="218"/>
+      <c r="E26" s="218"/>
+      <c r="F26" s="218"/>
+      <c r="G26" s="218"/>
+      <c r="H26" s="218"/>
+      <c r="I26" s="218"/>
+      <c r="J26" s="218"/>
+      <c r="K26" s="218"/>
+      <c r="L26" s="218"/>
+      <c r="M26" s="218"/>
+      <c r="N26" s="218"/>
+      <c r="O26" s="218"/>
+      <c r="P26" s="218"/>
+      <c r="Q26" s="218"/>
+      <c r="R26" s="218"/>
     </row>
     <row r="28" spans="1:195" ht="18">
-      <c r="B28" s="202"/>
-      <c r="C28" s="202"/>
-      <c r="D28" s="202"/>
-      <c r="E28" s="202"/>
-      <c r="F28" s="202"/>
-      <c r="G28" s="202"/>
-      <c r="H28" s="202"/>
-      <c r="I28" s="202"/>
-      <c r="J28" s="202"/>
-      <c r="K28" s="202"/>
-      <c r="L28" s="202"/>
-      <c r="M28" s="202"/>
-      <c r="N28" s="202"/>
-      <c r="O28" s="202"/>
-      <c r="P28" s="202"/>
-      <c r="Q28" s="202"/>
-      <c r="R28" s="202"/>
-      <c r="S28" s="200"/>
-      <c r="T28" s="200"/>
-      <c r="U28" s="200"/>
-      <c r="V28" s="200"/>
-      <c r="W28" s="200"/>
-      <c r="X28" s="200"/>
-      <c r="Y28" s="200"/>
-      <c r="Z28" s="200"/>
-      <c r="AA28" s="200"/>
-      <c r="AB28" s="200"/>
-      <c r="AC28" s="200"/>
-      <c r="AD28" s="200"/>
-      <c r="AE28" s="200"/>
-      <c r="AF28" s="200"/>
-      <c r="AG28" s="200"/>
-      <c r="AH28" s="200"/>
-      <c r="AI28" s="200"/>
-      <c r="AJ28" s="200"/>
-      <c r="AK28" s="200"/>
-      <c r="AL28" s="200"/>
-      <c r="AM28" s="200"/>
-      <c r="AN28" s="200"/>
-      <c r="AO28" s="200"/>
-      <c r="AP28" s="200"/>
-      <c r="AQ28" s="200"/>
-      <c r="AR28" s="200"/>
-      <c r="AS28" s="200"/>
-      <c r="AT28" s="200"/>
-      <c r="AU28" s="200"/>
-      <c r="AV28" s="200"/>
-      <c r="AW28" s="200"/>
-      <c r="AX28" s="200"/>
-      <c r="AY28" s="200"/>
-      <c r="AZ28" s="200"/>
-      <c r="BA28" s="200"/>
-      <c r="BB28" s="200"/>
-      <c r="BC28" s="200"/>
-      <c r="BD28" s="200"/>
-      <c r="BE28" s="200"/>
-      <c r="BF28" s="200"/>
-      <c r="BG28" s="200"/>
-      <c r="BH28" s="200"/>
-      <c r="BI28" s="200"/>
-      <c r="BJ28" s="200"/>
-      <c r="BK28" s="200"/>
-      <c r="BL28" s="200"/>
-      <c r="BM28" s="200"/>
-      <c r="BN28" s="200"/>
-      <c r="BO28" s="200"/>
-      <c r="BP28" s="200"/>
-      <c r="BQ28" s="200"/>
-      <c r="BR28" s="200"/>
-      <c r="BS28" s="200"/>
-      <c r="BT28" s="200"/>
-      <c r="BU28" s="200"/>
-      <c r="BV28" s="200"/>
-      <c r="BW28" s="200"/>
-      <c r="BX28" s="200"/>
-      <c r="BY28" s="200"/>
-      <c r="BZ28" s="200"/>
-      <c r="CA28" s="200"/>
-      <c r="CB28" s="200"/>
-      <c r="CC28" s="200"/>
-      <c r="CD28" s="200"/>
-      <c r="CE28" s="200"/>
-      <c r="CF28" s="200"/>
-      <c r="CG28" s="200"/>
-      <c r="CH28" s="200"/>
-      <c r="CI28" s="200"/>
-      <c r="CJ28" s="200"/>
-      <c r="CK28" s="200"/>
-      <c r="CL28" s="200"/>
-      <c r="CM28" s="200"/>
-      <c r="CN28" s="200"/>
-      <c r="CO28" s="200"/>
-      <c r="CP28" s="200"/>
-      <c r="CQ28" s="200"/>
-      <c r="CR28" s="200"/>
-      <c r="CS28" s="200"/>
-      <c r="CT28" s="200"/>
-      <c r="CU28" s="200"/>
-      <c r="CV28" s="200"/>
-      <c r="CW28" s="200"/>
-      <c r="CX28" s="200"/>
-      <c r="CY28" s="200"/>
-      <c r="CZ28" s="200"/>
-      <c r="DA28" s="200"/>
-      <c r="DB28" s="200"/>
-      <c r="DC28" s="200"/>
-      <c r="DD28" s="200"/>
-      <c r="DE28" s="200"/>
-      <c r="DF28" s="200"/>
-      <c r="DG28" s="200"/>
-      <c r="DH28" s="200"/>
-      <c r="DI28" s="200"/>
-      <c r="DJ28" s="200"/>
-      <c r="DK28" s="200"/>
-      <c r="DL28" s="200"/>
-      <c r="DM28" s="200"/>
-      <c r="DN28" s="200"/>
-      <c r="DO28" s="200"/>
-      <c r="DP28" s="200"/>
-      <c r="DQ28" s="200"/>
-      <c r="DR28" s="200"/>
-      <c r="DS28" s="200"/>
-      <c r="DT28" s="200"/>
-      <c r="DU28" s="200"/>
-      <c r="DV28" s="200"/>
-      <c r="DW28" s="200"/>
-      <c r="DX28" s="200"/>
-      <c r="DY28" s="200"/>
-      <c r="DZ28" s="200"/>
-      <c r="EA28" s="200"/>
-      <c r="EB28" s="200"/>
-      <c r="EC28" s="200"/>
-      <c r="ED28" s="200"/>
-      <c r="EE28" s="200"/>
-      <c r="EF28" s="200"/>
-      <c r="EG28" s="200"/>
-      <c r="EH28" s="200"/>
-      <c r="EI28" s="200"/>
-      <c r="EJ28" s="200"/>
-      <c r="EK28" s="200"/>
-      <c r="EL28" s="200"/>
-      <c r="EM28" s="200"/>
-      <c r="EN28" s="200"/>
-      <c r="EO28" s="200"/>
-      <c r="EP28" s="200"/>
-      <c r="EQ28" s="200"/>
-      <c r="ER28" s="200"/>
-      <c r="ES28" s="200"/>
-      <c r="ET28" s="200"/>
-      <c r="EU28" s="200"/>
-      <c r="EV28" s="200"/>
-      <c r="EW28" s="200"/>
-      <c r="EX28" s="200"/>
-      <c r="EY28" s="200"/>
-      <c r="EZ28" s="200"/>
-      <c r="FA28" s="200"/>
-      <c r="FB28" s="200"/>
-      <c r="FC28" s="200"/>
-      <c r="FD28" s="200"/>
-      <c r="FE28" s="200"/>
-      <c r="FF28" s="200"/>
-      <c r="FG28" s="200"/>
-      <c r="FH28" s="200"/>
-      <c r="FI28" s="200"/>
-      <c r="FJ28" s="200"/>
-      <c r="FK28" s="200"/>
-      <c r="FL28" s="200"/>
-      <c r="FM28" s="200"/>
-      <c r="FN28" s="200"/>
-      <c r="FO28" s="200"/>
-      <c r="FP28" s="200"/>
-      <c r="FQ28" s="200"/>
-      <c r="FR28" s="200"/>
-      <c r="FS28" s="200"/>
-      <c r="FT28" s="200"/>
-      <c r="FU28" s="200"/>
-      <c r="FV28" s="200"/>
-      <c r="FW28" s="200"/>
-      <c r="FX28" s="200"/>
-      <c r="FY28" s="200"/>
-      <c r="FZ28" s="200"/>
-      <c r="GA28" s="200"/>
-      <c r="GB28" s="200"/>
-      <c r="GC28" s="200"/>
-      <c r="GD28" s="200"/>
-      <c r="GE28" s="200"/>
-      <c r="GF28" s="200"/>
-      <c r="GG28" s="200"/>
-      <c r="GH28" s="200"/>
-      <c r="GI28" s="200"/>
-      <c r="GJ28" s="200"/>
-      <c r="GK28" s="200"/>
-      <c r="GL28" s="200"/>
+      <c r="B28" s="220"/>
+      <c r="C28" s="220"/>
+      <c r="D28" s="220"/>
+      <c r="E28" s="220"/>
+      <c r="F28" s="220"/>
+      <c r="G28" s="220"/>
+      <c r="H28" s="220"/>
+      <c r="I28" s="220"/>
+      <c r="J28" s="220"/>
+      <c r="K28" s="220"/>
+      <c r="L28" s="220"/>
+      <c r="M28" s="220"/>
+      <c r="N28" s="220"/>
+      <c r="O28" s="220"/>
+      <c r="P28" s="220"/>
+      <c r="Q28" s="220"/>
+      <c r="R28" s="220"/>
+      <c r="S28" s="219"/>
+      <c r="T28" s="219"/>
+      <c r="U28" s="219"/>
+      <c r="V28" s="219"/>
+      <c r="W28" s="219"/>
+      <c r="X28" s="219"/>
+      <c r="Y28" s="219"/>
+      <c r="Z28" s="219"/>
+      <c r="AA28" s="219"/>
+      <c r="AB28" s="219"/>
+      <c r="AC28" s="219"/>
+      <c r="AD28" s="219"/>
+      <c r="AE28" s="219"/>
+      <c r="AF28" s="219"/>
+      <c r="AG28" s="219"/>
+      <c r="AH28" s="219"/>
+      <c r="AI28" s="219"/>
+      <c r="AJ28" s="219"/>
+      <c r="AK28" s="219"/>
+      <c r="AL28" s="219"/>
+      <c r="AM28" s="219"/>
+      <c r="AN28" s="219"/>
+      <c r="AO28" s="219"/>
+      <c r="AP28" s="219"/>
+      <c r="AQ28" s="219"/>
+      <c r="AR28" s="219"/>
+      <c r="AS28" s="219"/>
+      <c r="AT28" s="219"/>
+      <c r="AU28" s="219"/>
+      <c r="AV28" s="219"/>
+      <c r="AW28" s="219"/>
+      <c r="AX28" s="219"/>
+      <c r="AY28" s="219"/>
+      <c r="AZ28" s="219"/>
+      <c r="BA28" s="219"/>
+      <c r="BB28" s="219"/>
+      <c r="BC28" s="219"/>
+      <c r="BD28" s="219"/>
+      <c r="BE28" s="219"/>
+      <c r="BF28" s="219"/>
+      <c r="BG28" s="219"/>
+      <c r="BH28" s="219"/>
+      <c r="BI28" s="219"/>
+      <c r="BJ28" s="219"/>
+      <c r="BK28" s="219"/>
+      <c r="BL28" s="219"/>
+      <c r="BM28" s="219"/>
+      <c r="BN28" s="219"/>
+      <c r="BO28" s="219"/>
+      <c r="BP28" s="219"/>
+      <c r="BQ28" s="219"/>
+      <c r="BR28" s="219"/>
+      <c r="BS28" s="219"/>
+      <c r="BT28" s="219"/>
+      <c r="BU28" s="219"/>
+      <c r="BV28" s="219"/>
+      <c r="BW28" s="219"/>
+      <c r="BX28" s="219"/>
+      <c r="BY28" s="219"/>
+      <c r="BZ28" s="219"/>
+      <c r="CA28" s="219"/>
+      <c r="CB28" s="219"/>
+      <c r="CC28" s="219"/>
+      <c r="CD28" s="219"/>
+      <c r="CE28" s="219"/>
+      <c r="CF28" s="219"/>
+      <c r="CG28" s="219"/>
+      <c r="CH28" s="219"/>
+      <c r="CI28" s="219"/>
+      <c r="CJ28" s="219"/>
+      <c r="CK28" s="219"/>
+      <c r="CL28" s="219"/>
+      <c r="CM28" s="219"/>
+      <c r="CN28" s="219"/>
+      <c r="CO28" s="219"/>
+      <c r="CP28" s="219"/>
+      <c r="CQ28" s="219"/>
+      <c r="CR28" s="219"/>
+      <c r="CS28" s="219"/>
+      <c r="CT28" s="219"/>
+      <c r="CU28" s="219"/>
+      <c r="CV28" s="219"/>
+      <c r="CW28" s="219"/>
+      <c r="CX28" s="219"/>
+      <c r="CY28" s="219"/>
+      <c r="CZ28" s="219"/>
+      <c r="DA28" s="219"/>
+      <c r="DB28" s="219"/>
+      <c r="DC28" s="219"/>
+      <c r="DD28" s="219"/>
+      <c r="DE28" s="219"/>
+      <c r="DF28" s="219"/>
+      <c r="DG28" s="219"/>
+      <c r="DH28" s="219"/>
+      <c r="DI28" s="219"/>
+      <c r="DJ28" s="219"/>
+      <c r="DK28" s="219"/>
+      <c r="DL28" s="219"/>
+      <c r="DM28" s="219"/>
+      <c r="DN28" s="219"/>
+      <c r="DO28" s="219"/>
+      <c r="DP28" s="219"/>
+      <c r="DQ28" s="219"/>
+      <c r="DR28" s="219"/>
+      <c r="DS28" s="219"/>
+      <c r="DT28" s="219"/>
+      <c r="DU28" s="219"/>
+      <c r="DV28" s="219"/>
+      <c r="DW28" s="219"/>
+      <c r="DX28" s="219"/>
+      <c r="DY28" s="219"/>
+      <c r="DZ28" s="219"/>
+      <c r="EA28" s="219"/>
+      <c r="EB28" s="219"/>
+      <c r="EC28" s="219"/>
+      <c r="ED28" s="219"/>
+      <c r="EE28" s="219"/>
+      <c r="EF28" s="219"/>
+      <c r="EG28" s="219"/>
+      <c r="EH28" s="219"/>
+      <c r="EI28" s="219"/>
+      <c r="EJ28" s="219"/>
+      <c r="EK28" s="219"/>
+      <c r="EL28" s="219"/>
+      <c r="EM28" s="219"/>
+      <c r="EN28" s="219"/>
+      <c r="EO28" s="219"/>
+      <c r="EP28" s="219"/>
+      <c r="EQ28" s="219"/>
+      <c r="ER28" s="219"/>
+      <c r="ES28" s="219"/>
+      <c r="ET28" s="219"/>
+      <c r="EU28" s="219"/>
+      <c r="EV28" s="219"/>
+      <c r="EW28" s="219"/>
+      <c r="EX28" s="219"/>
+      <c r="EY28" s="219"/>
+      <c r="EZ28" s="219"/>
+      <c r="FA28" s="219"/>
+      <c r="FB28" s="219"/>
+      <c r="FC28" s="219"/>
+      <c r="FD28" s="219"/>
+      <c r="FE28" s="219"/>
+      <c r="FF28" s="219"/>
+      <c r="FG28" s="219"/>
+      <c r="FH28" s="219"/>
+      <c r="FI28" s="219"/>
+      <c r="FJ28" s="219"/>
+      <c r="FK28" s="219"/>
+      <c r="FL28" s="219"/>
+      <c r="FM28" s="219"/>
+      <c r="FN28" s="219"/>
+      <c r="FO28" s="219"/>
+      <c r="FP28" s="219"/>
+      <c r="FQ28" s="219"/>
+      <c r="FR28" s="219"/>
+      <c r="FS28" s="219"/>
+      <c r="FT28" s="219"/>
+      <c r="FU28" s="219"/>
+      <c r="FV28" s="219"/>
+      <c r="FW28" s="219"/>
+      <c r="FX28" s="219"/>
+      <c r="FY28" s="219"/>
+      <c r="FZ28" s="219"/>
+      <c r="GA28" s="219"/>
+      <c r="GB28" s="219"/>
+      <c r="GC28" s="219"/>
+      <c r="GD28" s="219"/>
+      <c r="GE28" s="219"/>
+      <c r="GF28" s="219"/>
+      <c r="GG28" s="219"/>
+      <c r="GH28" s="219"/>
+      <c r="GI28" s="219"/>
+      <c r="GJ28" s="219"/>
+      <c r="GK28" s="219"/>
+      <c r="GL28" s="219"/>
       <c r="GM28" s="100"/>
     </row>
     <row r="29" spans="1:195" ht="18">
-      <c r="B29" s="201"/>
-      <c r="C29" s="201"/>
-      <c r="D29" s="201"/>
-      <c r="E29" s="201"/>
-      <c r="F29" s="201"/>
-      <c r="G29" s="201"/>
-      <c r="H29" s="201"/>
-      <c r="I29" s="201"/>
-      <c r="J29" s="201"/>
-      <c r="K29" s="201"/>
-      <c r="L29" s="201"/>
-      <c r="M29" s="201"/>
-      <c r="N29" s="201"/>
-      <c r="O29" s="201"/>
-      <c r="P29" s="201"/>
-      <c r="Q29" s="201"/>
-      <c r="R29" s="201"/>
+      <c r="B29" s="218"/>
+      <c r="C29" s="218"/>
+      <c r="D29" s="218"/>
+      <c r="E29" s="218"/>
+      <c r="F29" s="218"/>
+      <c r="G29" s="218"/>
+      <c r="H29" s="218"/>
+      <c r="I29" s="218"/>
+      <c r="J29" s="218"/>
+      <c r="K29" s="218"/>
+      <c r="L29" s="218"/>
+      <c r="M29" s="218"/>
+      <c r="N29" s="218"/>
+      <c r="O29" s="218"/>
+      <c r="P29" s="218"/>
+      <c r="Q29" s="218"/>
+      <c r="R29" s="218"/>
     </row>
     <row r="30" spans="1:195" ht="13.5" customHeight="1">
-      <c r="A30" s="199"/>
-      <c r="B30" s="199"/>
-      <c r="C30" s="199"/>
-      <c r="D30" s="199"/>
-      <c r="E30" s="199"/>
-      <c r="F30" s="199"/>
-      <c r="G30" s="199"/>
-      <c r="H30" s="199"/>
-      <c r="I30" s="199"/>
-      <c r="J30" s="199"/>
+      <c r="A30" s="221"/>
+      <c r="B30" s="221"/>
+      <c r="C30" s="221"/>
+      <c r="D30" s="221"/>
+      <c r="E30" s="221"/>
+      <c r="F30" s="221"/>
+      <c r="G30" s="221"/>
+      <c r="H30" s="221"/>
+      <c r="I30" s="221"/>
+      <c r="J30" s="221"/>
       <c r="K30" s="101"/>
       <c r="L30" s="101"/>
       <c r="M30" s="101"/>
@@ -8252,16 +8252,16 @@
       <c r="R30" s="101"/>
     </row>
     <row r="31" spans="1:195" ht="13.5" customHeight="1">
-      <c r="A31" s="199"/>
-      <c r="B31" s="199"/>
-      <c r="C31" s="199"/>
-      <c r="D31" s="199"/>
-      <c r="E31" s="199"/>
-      <c r="F31" s="199"/>
-      <c r="G31" s="199"/>
-      <c r="H31" s="199"/>
-      <c r="I31" s="199"/>
-      <c r="J31" s="199"/>
+      <c r="A31" s="221"/>
+      <c r="B31" s="221"/>
+      <c r="C31" s="221"/>
+      <c r="D31" s="221"/>
+      <c r="E31" s="221"/>
+      <c r="F31" s="221"/>
+      <c r="G31" s="221"/>
+      <c r="H31" s="221"/>
+      <c r="I31" s="221"/>
+      <c r="J31" s="221"/>
       <c r="K31" s="101"/>
       <c r="L31" s="101"/>
       <c r="M31" s="101"/>
@@ -8273,6 +8273,28 @@
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="A30:J30"/>
+    <mergeCell ref="A31:J31"/>
+    <mergeCell ref="DF28:DV28"/>
+    <mergeCell ref="DW28:EM28"/>
+    <mergeCell ref="EN28:FD28"/>
+    <mergeCell ref="B26:R26"/>
+    <mergeCell ref="FE28:FU28"/>
+    <mergeCell ref="FV28:GL28"/>
+    <mergeCell ref="B29:R29"/>
+    <mergeCell ref="S28:X28"/>
+    <mergeCell ref="Y28:AO28"/>
+    <mergeCell ref="AP28:BF28"/>
+    <mergeCell ref="BG28:BW28"/>
+    <mergeCell ref="BX28:CN28"/>
+    <mergeCell ref="CO28:DE28"/>
+    <mergeCell ref="B28:R28"/>
+    <mergeCell ref="B18:R18"/>
+    <mergeCell ref="B20:R20"/>
+    <mergeCell ref="B21:R21"/>
+    <mergeCell ref="B22:R22"/>
+    <mergeCell ref="B23:R23"/>
+    <mergeCell ref="B19:R19"/>
     <mergeCell ref="B14:R14"/>
     <mergeCell ref="B15:R15"/>
     <mergeCell ref="A16:J16"/>
@@ -8286,28 +8308,6 @@
     <mergeCell ref="C1:F3"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="I2:J2"/>
-    <mergeCell ref="B18:R18"/>
-    <mergeCell ref="B20:R20"/>
-    <mergeCell ref="B21:R21"/>
-    <mergeCell ref="B22:R22"/>
-    <mergeCell ref="B23:R23"/>
-    <mergeCell ref="B19:R19"/>
-    <mergeCell ref="B26:R26"/>
-    <mergeCell ref="FE28:FU28"/>
-    <mergeCell ref="FV28:GL28"/>
-    <mergeCell ref="B29:R29"/>
-    <mergeCell ref="S28:X28"/>
-    <mergeCell ref="Y28:AO28"/>
-    <mergeCell ref="AP28:BF28"/>
-    <mergeCell ref="BG28:BW28"/>
-    <mergeCell ref="BX28:CN28"/>
-    <mergeCell ref="CO28:DE28"/>
-    <mergeCell ref="B28:R28"/>
-    <mergeCell ref="A30:J30"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="DF28:DV28"/>
-    <mergeCell ref="DW28:EM28"/>
-    <mergeCell ref="EN28:FD28"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.196850393700787" right="0.196850393700787" top="0.39370078740157499" bottom="0" header="0" footer="0"/>
@@ -8334,14 +8334,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="14.25">
-      <c r="B1" s="305" t="s">
+      <c r="B1" s="306" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="305"/>
-      <c r="D1" s="305"/>
-      <c r="E1" s="305"/>
-      <c r="F1" s="305"/>
-      <c r="G1" s="305"/>
+      <c r="C1" s="306"/>
+      <c r="D1" s="306"/>
+      <c r="E1" s="306"/>
+      <c r="F1" s="306"/>
+      <c r="G1" s="306"/>
     </row>
     <row r="2" spans="2:7" s="17" customFormat="1">
       <c r="B2" s="16"/>
@@ -8534,11 +8534,11 @@
       </c>
     </row>
     <row r="27" spans="2:7" ht="200.25" customHeight="1">
-      <c r="E27" s="306" t="s">
+      <c r="E27" s="307" t="s">
         <v>37</v>
       </c>
-      <c r="F27" s="307"/>
-      <c r="G27" s="308"/>
+      <c r="F27" s="308"/>
+      <c r="G27" s="309"/>
     </row>
     <row r="29" spans="2:7">
       <c r="B29" s="19" t="s">
@@ -8862,10 +8862,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="234" t="s">
+      <c r="A1" s="222" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="234"/>
+      <c r="B1" s="222"/>
       <c r="C1" s="30" t="s">
         <v>1</v>
       </c>
@@ -8876,7 +8876,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="33" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G1" s="30" t="s">
         <v>5</v>
@@ -8892,8 +8892,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="234"/>
-      <c r="B2" s="234"/>
+      <c r="A2" s="222"/>
+      <c r="B2" s="222"/>
       <c r="C2" s="30" t="s">
         <v>2</v>
       </c>
@@ -8904,7 +8904,7 @@
         <v>4</v>
       </c>
       <c r="F2" s="33" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G2" s="30" t="s">
         <v>6</v>
@@ -8932,14 +8932,14 @@
       <c r="D4" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="235" t="s">
+      <c r="E4" s="223" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="235"/>
-      <c r="G4" s="235"/>
-      <c r="H4" s="235"/>
-      <c r="I4" s="235"/>
-      <c r="J4" s="235"/>
+      <c r="F4" s="223"/>
+      <c r="G4" s="223"/>
+      <c r="H4" s="223"/>
+      <c r="I4" s="223"/>
+      <c r="J4" s="223"/>
     </row>
     <row r="5" spans="1:10" s="25" customFormat="1" ht="47.25" customHeight="1">
       <c r="A5" s="108">
@@ -8954,14 +8954,14 @@
       <c r="D5" s="34">
         <v>42821</v>
       </c>
-      <c r="E5" s="236" t="s">
+      <c r="E5" s="224" t="s">
         <v>157</v>
       </c>
-      <c r="F5" s="236"/>
-      <c r="G5" s="236"/>
-      <c r="H5" s="236"/>
-      <c r="I5" s="236"/>
-      <c r="J5" s="236"/>
+      <c r="F5" s="224"/>
+      <c r="G5" s="224"/>
+      <c r="H5" s="224"/>
+      <c r="I5" s="224"/>
+      <c r="J5" s="224"/>
     </row>
     <row r="6" spans="1:10" ht="12.75">
       <c r="A6" s="72">
@@ -8976,14 +8976,14 @@
       <c r="D6" s="148">
         <v>42877</v>
       </c>
-      <c r="E6" s="237" t="s">
-        <v>339</v>
-      </c>
-      <c r="F6" s="238"/>
-      <c r="G6" s="238"/>
-      <c r="H6" s="238"/>
-      <c r="I6" s="238"/>
-      <c r="J6" s="239"/>
+      <c r="E6" s="225" t="s">
+        <v>338</v>
+      </c>
+      <c r="F6" s="226"/>
+      <c r="G6" s="226"/>
+      <c r="H6" s="226"/>
+      <c r="I6" s="226"/>
+      <c r="J6" s="227"/>
     </row>
     <row r="7" spans="1:10" ht="12" customHeight="1">
       <c r="A7" s="73">
@@ -8998,14 +8998,14 @@
       <c r="D7" s="150">
         <v>42879</v>
       </c>
-      <c r="E7" s="225" t="s">
-        <v>341</v>
-      </c>
-      <c r="F7" s="226"/>
-      <c r="G7" s="226"/>
-      <c r="H7" s="226"/>
-      <c r="I7" s="226"/>
-      <c r="J7" s="227"/>
+      <c r="E7" s="229" t="s">
+        <v>340</v>
+      </c>
+      <c r="F7" s="230"/>
+      <c r="G7" s="230"/>
+      <c r="H7" s="230"/>
+      <c r="I7" s="230"/>
+      <c r="J7" s="231"/>
     </row>
     <row r="8" spans="1:10" ht="12" customHeight="1">
       <c r="A8" s="74">
@@ -9020,14 +9020,14 @@
       <c r="D8" s="163">
         <v>42983</v>
       </c>
-      <c r="E8" s="228" t="s">
-        <v>350</v>
-      </c>
-      <c r="F8" s="229"/>
-      <c r="G8" s="229"/>
-      <c r="H8" s="229"/>
-      <c r="I8" s="229"/>
-      <c r="J8" s="230"/>
+      <c r="E8" s="232" t="s">
+        <v>349</v>
+      </c>
+      <c r="F8" s="233"/>
+      <c r="G8" s="233"/>
+      <c r="H8" s="233"/>
+      <c r="I8" s="233"/>
+      <c r="J8" s="234"/>
     </row>
     <row r="9" spans="1:10" ht="12" customHeight="1">
       <c r="A9" s="75">
@@ -9037,19 +9037,19 @@
         <v>5</v>
       </c>
       <c r="C9" s="167" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="D9" s="168" t="s">
-        <v>357</v>
-      </c>
-      <c r="E9" s="231" t="s">
-        <v>409</v>
-      </c>
-      <c r="F9" s="232"/>
-      <c r="G9" s="232"/>
-      <c r="H9" s="232"/>
-      <c r="I9" s="232"/>
-      <c r="J9" s="233"/>
+        <v>354</v>
+      </c>
+      <c r="E9" s="235" t="s">
+        <v>406</v>
+      </c>
+      <c r="F9" s="236"/>
+      <c r="G9" s="236"/>
+      <c r="H9" s="236"/>
+      <c r="I9" s="236"/>
+      <c r="J9" s="237"/>
     </row>
     <row r="10" spans="1:10" ht="12" customHeight="1">
       <c r="A10" s="76">
@@ -9060,12 +9060,12 @@
       </c>
       <c r="C10" s="66"/>
       <c r="D10" s="36"/>
-      <c r="E10" s="222"/>
-      <c r="F10" s="223"/>
-      <c r="G10" s="223"/>
-      <c r="H10" s="223"/>
-      <c r="I10" s="223"/>
-      <c r="J10" s="224"/>
+      <c r="E10" s="238"/>
+      <c r="F10" s="239"/>
+      <c r="G10" s="239"/>
+      <c r="H10" s="239"/>
+      <c r="I10" s="239"/>
+      <c r="J10" s="240"/>
     </row>
     <row r="11" spans="1:10" ht="12" customHeight="1">
       <c r="A11" s="77">
@@ -9076,12 +9076,12 @@
       </c>
       <c r="C11" s="66"/>
       <c r="D11" s="36"/>
-      <c r="E11" s="222"/>
-      <c r="F11" s="223"/>
-      <c r="G11" s="223"/>
-      <c r="H11" s="223"/>
-      <c r="I11" s="223"/>
-      <c r="J11" s="224"/>
+      <c r="E11" s="238"/>
+      <c r="F11" s="239"/>
+      <c r="G11" s="239"/>
+      <c r="H11" s="239"/>
+      <c r="I11" s="239"/>
+      <c r="J11" s="240"/>
     </row>
     <row r="12" spans="1:10" ht="12" customHeight="1">
       <c r="A12" s="78">
@@ -9092,12 +9092,12 @@
       </c>
       <c r="C12" s="66"/>
       <c r="D12" s="36"/>
-      <c r="E12" s="222"/>
-      <c r="F12" s="223"/>
-      <c r="G12" s="223"/>
-      <c r="H12" s="223"/>
-      <c r="I12" s="223"/>
-      <c r="J12" s="224"/>
+      <c r="E12" s="238"/>
+      <c r="F12" s="239"/>
+      <c r="G12" s="239"/>
+      <c r="H12" s="239"/>
+      <c r="I12" s="239"/>
+      <c r="J12" s="240"/>
     </row>
     <row r="13" spans="1:10" ht="12" customHeight="1">
       <c r="A13" s="79">
@@ -9108,12 +9108,12 @@
       </c>
       <c r="C13" s="66"/>
       <c r="D13" s="36"/>
-      <c r="E13" s="222"/>
-      <c r="F13" s="223"/>
-      <c r="G13" s="223"/>
-      <c r="H13" s="223"/>
-      <c r="I13" s="223"/>
-      <c r="J13" s="224"/>
+      <c r="E13" s="238"/>
+      <c r="F13" s="239"/>
+      <c r="G13" s="239"/>
+      <c r="H13" s="239"/>
+      <c r="I13" s="239"/>
+      <c r="J13" s="240"/>
     </row>
     <row r="14" spans="1:10" ht="12" customHeight="1">
       <c r="A14" s="80">
@@ -9124,12 +9124,12 @@
       </c>
       <c r="C14" s="66"/>
       <c r="D14" s="36"/>
-      <c r="E14" s="222"/>
-      <c r="F14" s="223"/>
-      <c r="G14" s="223"/>
-      <c r="H14" s="223"/>
-      <c r="I14" s="223"/>
-      <c r="J14" s="224"/>
+      <c r="E14" s="238"/>
+      <c r="F14" s="239"/>
+      <c r="G14" s="239"/>
+      <c r="H14" s="239"/>
+      <c r="I14" s="239"/>
+      <c r="J14" s="240"/>
     </row>
     <row r="15" spans="1:10" ht="12" customHeight="1">
       <c r="A15" s="36">
@@ -9140,12 +9140,12 @@
       </c>
       <c r="C15" s="66"/>
       <c r="D15" s="36"/>
-      <c r="E15" s="221"/>
-      <c r="F15" s="221"/>
-      <c r="G15" s="221"/>
-      <c r="H15" s="221"/>
-      <c r="I15" s="221"/>
-      <c r="J15" s="221"/>
+      <c r="E15" s="228"/>
+      <c r="F15" s="228"/>
+      <c r="G15" s="228"/>
+      <c r="H15" s="228"/>
+      <c r="I15" s="228"/>
+      <c r="J15" s="228"/>
     </row>
     <row r="16" spans="1:10" ht="12" customHeight="1">
       <c r="A16" s="72">
@@ -9156,12 +9156,12 @@
       </c>
       <c r="C16" s="66"/>
       <c r="D16" s="36"/>
-      <c r="E16" s="221"/>
-      <c r="F16" s="221"/>
-      <c r="G16" s="221"/>
-      <c r="H16" s="221"/>
-      <c r="I16" s="221"/>
-      <c r="J16" s="221"/>
+      <c r="E16" s="228"/>
+      <c r="F16" s="228"/>
+      <c r="G16" s="228"/>
+      <c r="H16" s="228"/>
+      <c r="I16" s="228"/>
+      <c r="J16" s="228"/>
     </row>
     <row r="17" spans="1:10" ht="12" customHeight="1">
       <c r="A17" s="73">
@@ -9172,12 +9172,12 @@
       </c>
       <c r="C17" s="66"/>
       <c r="D17" s="36"/>
-      <c r="E17" s="221"/>
-      <c r="F17" s="221"/>
-      <c r="G17" s="221"/>
-      <c r="H17" s="221"/>
-      <c r="I17" s="221"/>
-      <c r="J17" s="221"/>
+      <c r="E17" s="228"/>
+      <c r="F17" s="228"/>
+      <c r="G17" s="228"/>
+      <c r="H17" s="228"/>
+      <c r="I17" s="228"/>
+      <c r="J17" s="228"/>
     </row>
     <row r="18" spans="1:10" ht="12" customHeight="1">
       <c r="A18" s="74">
@@ -9188,12 +9188,12 @@
       </c>
       <c r="C18" s="66"/>
       <c r="D18" s="36"/>
-      <c r="E18" s="221"/>
-      <c r="F18" s="221"/>
-      <c r="G18" s="221"/>
-      <c r="H18" s="221"/>
-      <c r="I18" s="221"/>
-      <c r="J18" s="221"/>
+      <c r="E18" s="228"/>
+      <c r="F18" s="228"/>
+      <c r="G18" s="228"/>
+      <c r="H18" s="228"/>
+      <c r="I18" s="228"/>
+      <c r="J18" s="228"/>
     </row>
     <row r="19" spans="1:10" ht="12" customHeight="1">
       <c r="A19" s="75">
@@ -9204,12 +9204,12 @@
       </c>
       <c r="C19" s="66"/>
       <c r="D19" s="36"/>
-      <c r="E19" s="221"/>
-      <c r="F19" s="221"/>
-      <c r="G19" s="221"/>
-      <c r="H19" s="221"/>
-      <c r="I19" s="221"/>
-      <c r="J19" s="221"/>
+      <c r="E19" s="228"/>
+      <c r="F19" s="228"/>
+      <c r="G19" s="228"/>
+      <c r="H19" s="228"/>
+      <c r="I19" s="228"/>
+      <c r="J19" s="228"/>
     </row>
     <row r="20" spans="1:10" ht="12" customHeight="1">
       <c r="A20" s="76">
@@ -9220,12 +9220,12 @@
       </c>
       <c r="C20" s="66"/>
       <c r="D20" s="36"/>
-      <c r="E20" s="221"/>
-      <c r="F20" s="221"/>
-      <c r="G20" s="221"/>
-      <c r="H20" s="221"/>
-      <c r="I20" s="221"/>
-      <c r="J20" s="221"/>
+      <c r="E20" s="228"/>
+      <c r="F20" s="228"/>
+      <c r="G20" s="228"/>
+      <c r="H20" s="228"/>
+      <c r="I20" s="228"/>
+      <c r="J20" s="228"/>
     </row>
     <row r="21" spans="1:10" ht="12" customHeight="1">
       <c r="A21" s="77">
@@ -9236,12 +9236,12 @@
       </c>
       <c r="C21" s="66"/>
       <c r="D21" s="36"/>
-      <c r="E21" s="221"/>
-      <c r="F21" s="221"/>
-      <c r="G21" s="221"/>
-      <c r="H21" s="221"/>
-      <c r="I21" s="221"/>
-      <c r="J21" s="221"/>
+      <c r="E21" s="228"/>
+      <c r="F21" s="228"/>
+      <c r="G21" s="228"/>
+      <c r="H21" s="228"/>
+      <c r="I21" s="228"/>
+      <c r="J21" s="228"/>
     </row>
     <row r="22" spans="1:10" ht="12" customHeight="1">
       <c r="A22" s="78">
@@ -9252,12 +9252,12 @@
       </c>
       <c r="C22" s="66"/>
       <c r="D22" s="36"/>
-      <c r="E22" s="221"/>
-      <c r="F22" s="221"/>
-      <c r="G22" s="221"/>
-      <c r="H22" s="221"/>
-      <c r="I22" s="221"/>
-      <c r="J22" s="221"/>
+      <c r="E22" s="228"/>
+      <c r="F22" s="228"/>
+      <c r="G22" s="228"/>
+      <c r="H22" s="228"/>
+      <c r="I22" s="228"/>
+      <c r="J22" s="228"/>
     </row>
     <row r="23" spans="1:10" ht="12" customHeight="1">
       <c r="A23" s="79">
@@ -9268,12 +9268,12 @@
       </c>
       <c r="C23" s="66"/>
       <c r="D23" s="36"/>
-      <c r="E23" s="221"/>
-      <c r="F23" s="221"/>
-      <c r="G23" s="221"/>
-      <c r="H23" s="221"/>
-      <c r="I23" s="221"/>
-      <c r="J23" s="221"/>
+      <c r="E23" s="228"/>
+      <c r="F23" s="228"/>
+      <c r="G23" s="228"/>
+      <c r="H23" s="228"/>
+      <c r="I23" s="228"/>
+      <c r="J23" s="228"/>
     </row>
     <row r="24" spans="1:10" ht="12" customHeight="1">
       <c r="A24" s="80">
@@ -9284,12 +9284,12 @@
       </c>
       <c r="C24" s="66"/>
       <c r="D24" s="36"/>
-      <c r="E24" s="221"/>
-      <c r="F24" s="221"/>
-      <c r="G24" s="221"/>
-      <c r="H24" s="221"/>
-      <c r="I24" s="221"/>
-      <c r="J24" s="221"/>
+      <c r="E24" s="228"/>
+      <c r="F24" s="228"/>
+      <c r="G24" s="228"/>
+      <c r="H24" s="228"/>
+      <c r="I24" s="228"/>
+      <c r="J24" s="228"/>
     </row>
     <row r="25" spans="1:10" ht="12" customHeight="1">
       <c r="A25" s="36">
@@ -9300,12 +9300,12 @@
       </c>
       <c r="C25" s="66"/>
       <c r="D25" s="36"/>
-      <c r="E25" s="221"/>
-      <c r="F25" s="221"/>
-      <c r="G25" s="221"/>
-      <c r="H25" s="221"/>
-      <c r="I25" s="221"/>
-      <c r="J25" s="221"/>
+      <c r="E25" s="228"/>
+      <c r="F25" s="228"/>
+      <c r="G25" s="228"/>
+      <c r="H25" s="228"/>
+      <c r="I25" s="228"/>
+      <c r="J25" s="228"/>
     </row>
     <row r="26" spans="1:10" ht="12" customHeight="1">
       <c r="A26" s="72">
@@ -9316,12 +9316,12 @@
       </c>
       <c r="C26" s="66"/>
       <c r="D26" s="36"/>
-      <c r="E26" s="221"/>
-      <c r="F26" s="221"/>
-      <c r="G26" s="221"/>
-      <c r="H26" s="221"/>
-      <c r="I26" s="221"/>
-      <c r="J26" s="221"/>
+      <c r="E26" s="228"/>
+      <c r="F26" s="228"/>
+      <c r="G26" s="228"/>
+      <c r="H26" s="228"/>
+      <c r="I26" s="228"/>
+      <c r="J26" s="228"/>
     </row>
     <row r="27" spans="1:10" ht="12" customHeight="1">
       <c r="A27" s="73">
@@ -9332,12 +9332,12 @@
       </c>
       <c r="C27" s="66"/>
       <c r="D27" s="36"/>
-      <c r="E27" s="221"/>
-      <c r="F27" s="221"/>
-      <c r="G27" s="221"/>
-      <c r="H27" s="221"/>
-      <c r="I27" s="221"/>
-      <c r="J27" s="221"/>
+      <c r="E27" s="228"/>
+      <c r="F27" s="228"/>
+      <c r="G27" s="228"/>
+      <c r="H27" s="228"/>
+      <c r="I27" s="228"/>
+      <c r="J27" s="228"/>
     </row>
     <row r="28" spans="1:10" ht="12" customHeight="1">
       <c r="A28" s="74">
@@ -9348,12 +9348,12 @@
       </c>
       <c r="C28" s="66"/>
       <c r="D28" s="36"/>
-      <c r="E28" s="221"/>
-      <c r="F28" s="221"/>
-      <c r="G28" s="221"/>
-      <c r="H28" s="221"/>
-      <c r="I28" s="221"/>
-      <c r="J28" s="221"/>
+      <c r="E28" s="228"/>
+      <c r="F28" s="228"/>
+      <c r="G28" s="228"/>
+      <c r="H28" s="228"/>
+      <c r="I28" s="228"/>
+      <c r="J28" s="228"/>
     </row>
     <row r="29" spans="1:10" ht="12" customHeight="1">
       <c r="A29" s="75">
@@ -9364,12 +9364,12 @@
       </c>
       <c r="C29" s="66"/>
       <c r="D29" s="36"/>
-      <c r="E29" s="221"/>
-      <c r="F29" s="221"/>
-      <c r="G29" s="221"/>
-      <c r="H29" s="221"/>
-      <c r="I29" s="221"/>
-      <c r="J29" s="221"/>
+      <c r="E29" s="228"/>
+      <c r="F29" s="228"/>
+      <c r="G29" s="228"/>
+      <c r="H29" s="228"/>
+      <c r="I29" s="228"/>
+      <c r="J29" s="228"/>
     </row>
     <row r="30" spans="1:10" ht="12" customHeight="1">
       <c r="A30" s="76">
@@ -9380,12 +9380,12 @@
       </c>
       <c r="C30" s="66"/>
       <c r="D30" s="36"/>
-      <c r="E30" s="221"/>
-      <c r="F30" s="221"/>
-      <c r="G30" s="221"/>
-      <c r="H30" s="221"/>
-      <c r="I30" s="221"/>
-      <c r="J30" s="221"/>
+      <c r="E30" s="228"/>
+      <c r="F30" s="228"/>
+      <c r="G30" s="228"/>
+      <c r="H30" s="228"/>
+      <c r="I30" s="228"/>
+      <c r="J30" s="228"/>
     </row>
     <row r="31" spans="1:10" ht="12" customHeight="1">
       <c r="A31" s="77">
@@ -9396,12 +9396,12 @@
       </c>
       <c r="C31" s="66"/>
       <c r="D31" s="36"/>
-      <c r="E31" s="221"/>
-      <c r="F31" s="221"/>
-      <c r="G31" s="221"/>
-      <c r="H31" s="221"/>
-      <c r="I31" s="221"/>
-      <c r="J31" s="221"/>
+      <c r="E31" s="228"/>
+      <c r="F31" s="228"/>
+      <c r="G31" s="228"/>
+      <c r="H31" s="228"/>
+      <c r="I31" s="228"/>
+      <c r="J31" s="228"/>
     </row>
     <row r="32" spans="1:10" ht="12" customHeight="1">
       <c r="A32" s="78">
@@ -9412,12 +9412,12 @@
       </c>
       <c r="C32" s="66"/>
       <c r="D32" s="36"/>
-      <c r="E32" s="221"/>
-      <c r="F32" s="221"/>
-      <c r="G32" s="221"/>
-      <c r="H32" s="221"/>
-      <c r="I32" s="221"/>
-      <c r="J32" s="221"/>
+      <c r="E32" s="228"/>
+      <c r="F32" s="228"/>
+      <c r="G32" s="228"/>
+      <c r="H32" s="228"/>
+      <c r="I32" s="228"/>
+      <c r="J32" s="228"/>
     </row>
     <row r="33" spans="1:10" ht="12" customHeight="1">
       <c r="A33" s="79">
@@ -9428,12 +9428,12 @@
       </c>
       <c r="C33" s="66"/>
       <c r="D33" s="36"/>
-      <c r="E33" s="221"/>
-      <c r="F33" s="221"/>
-      <c r="G33" s="221"/>
-      <c r="H33" s="221"/>
-      <c r="I33" s="221"/>
-      <c r="J33" s="221"/>
+      <c r="E33" s="228"/>
+      <c r="F33" s="228"/>
+      <c r="G33" s="228"/>
+      <c r="H33" s="228"/>
+      <c r="I33" s="228"/>
+      <c r="J33" s="228"/>
     </row>
     <row r="34" spans="1:10" ht="12" customHeight="1">
       <c r="A34" s="80">
@@ -9444,26 +9444,20 @@
       </c>
       <c r="C34" s="66"/>
       <c r="D34" s="36"/>
-      <c r="E34" s="221"/>
-      <c r="F34" s="221"/>
-      <c r="G34" s="221"/>
-      <c r="H34" s="221"/>
-      <c r="I34" s="221"/>
-      <c r="J34" s="221"/>
+      <c r="E34" s="228"/>
+      <c r="F34" s="228"/>
+      <c r="G34" s="228"/>
+      <c r="H34" s="228"/>
+      <c r="I34" s="228"/>
+      <c r="J34" s="228"/>
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="E4:J4"/>
-    <mergeCell ref="E5:J5"/>
-    <mergeCell ref="E6:J6"/>
-    <mergeCell ref="E22:J22"/>
-    <mergeCell ref="E23:J23"/>
-    <mergeCell ref="E24:J24"/>
-    <mergeCell ref="E7:J7"/>
-    <mergeCell ref="E8:J8"/>
-    <mergeCell ref="E9:J9"/>
-    <mergeCell ref="E10:J10"/>
+    <mergeCell ref="E26:J26"/>
+    <mergeCell ref="E27:J27"/>
+    <mergeCell ref="E28:J28"/>
+    <mergeCell ref="E29:J29"/>
+    <mergeCell ref="E30:J30"/>
     <mergeCell ref="E31:J31"/>
     <mergeCell ref="E32:J32"/>
     <mergeCell ref="E33:J33"/>
@@ -9480,11 +9474,17 @@
     <mergeCell ref="E20:J20"/>
     <mergeCell ref="E13:J13"/>
     <mergeCell ref="E21:J21"/>
-    <mergeCell ref="E26:J26"/>
-    <mergeCell ref="E27:J27"/>
-    <mergeCell ref="E28:J28"/>
-    <mergeCell ref="E29:J29"/>
-    <mergeCell ref="E30:J30"/>
+    <mergeCell ref="E23:J23"/>
+    <mergeCell ref="E24:J24"/>
+    <mergeCell ref="E7:J7"/>
+    <mergeCell ref="E8:J8"/>
+    <mergeCell ref="E9:J9"/>
+    <mergeCell ref="E10:J10"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="E4:J4"/>
+    <mergeCell ref="E5:J5"/>
+    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="E22:J22"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1">
@@ -9529,10 +9529,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="234" t="s">
+      <c r="A1" s="222" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="234"/>
+      <c r="B1" s="222"/>
       <c r="C1" s="30" t="s">
         <v>1</v>
       </c>
@@ -9563,8 +9563,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="234"/>
-      <c r="B2" s="234"/>
+      <c r="A2" s="222"/>
+      <c r="B2" s="222"/>
       <c r="C2" s="30" t="s">
         <v>2</v>
       </c>
@@ -9595,20 +9595,20 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="12" customHeight="1">
-      <c r="A4" s="240" t="s">
+      <c r="A4" s="241" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="242"/>
-      <c r="C4" s="242"/>
-      <c r="D4" s="242"/>
-      <c r="E4" s="242"/>
-      <c r="F4" s="242"/>
-      <c r="G4" s="242"/>
-      <c r="H4" s="241"/>
-      <c r="I4" s="240" t="s">
+      <c r="B4" s="243"/>
+      <c r="C4" s="243"/>
+      <c r="D4" s="243"/>
+      <c r="E4" s="243"/>
+      <c r="F4" s="243"/>
+      <c r="G4" s="243"/>
+      <c r="H4" s="242"/>
+      <c r="I4" s="241" t="s">
         <v>38</v>
       </c>
-      <c r="J4" s="241"/>
+      <c r="J4" s="242"/>
     </row>
     <row r="5" spans="1:10" ht="12" customHeight="1">
       <c r="A5" s="38"/>
@@ -9619,10 +9619,10 @@
       <c r="F5" s="39"/>
       <c r="G5" s="39"/>
       <c r="H5" s="40"/>
-      <c r="I5" s="247" t="s">
-        <v>227</v>
-      </c>
-      <c r="J5" s="248"/>
+      <c r="I5" s="248" t="s">
+        <v>226</v>
+      </c>
+      <c r="J5" s="249"/>
     </row>
     <row r="6" spans="1:10" ht="12" customHeight="1">
       <c r="A6" s="38"/>
@@ -9633,8 +9633,8 @@
       <c r="F6" s="39"/>
       <c r="G6" s="39"/>
       <c r="H6" s="41"/>
-      <c r="I6" s="249"/>
-      <c r="J6" s="250"/>
+      <c r="I6" s="250"/>
+      <c r="J6" s="251"/>
     </row>
     <row r="7" spans="1:10" ht="12" customHeight="1">
       <c r="A7" s="38"/>
@@ -9645,8 +9645,8 @@
       <c r="F7" s="39"/>
       <c r="G7" s="39"/>
       <c r="H7" s="41"/>
-      <c r="I7" s="249"/>
-      <c r="J7" s="250"/>
+      <c r="I7" s="250"/>
+      <c r="J7" s="251"/>
     </row>
     <row r="8" spans="1:10" ht="12" customHeight="1">
       <c r="A8" s="38"/>
@@ -9657,8 +9657,8 @@
       <c r="F8" s="39"/>
       <c r="G8" s="39"/>
       <c r="H8" s="41"/>
-      <c r="I8" s="249"/>
-      <c r="J8" s="250"/>
+      <c r="I8" s="250"/>
+      <c r="J8" s="251"/>
     </row>
     <row r="9" spans="1:10" ht="12" customHeight="1">
       <c r="A9" s="38"/>
@@ -9669,8 +9669,8 @@
       <c r="F9" s="39"/>
       <c r="G9" s="39"/>
       <c r="H9" s="41"/>
-      <c r="I9" s="249"/>
-      <c r="J9" s="250"/>
+      <c r="I9" s="250"/>
+      <c r="J9" s="251"/>
     </row>
     <row r="10" spans="1:10" ht="12" customHeight="1">
       <c r="A10" s="38"/>
@@ -9681,8 +9681,8 @@
       <c r="F10" s="39"/>
       <c r="G10" s="39"/>
       <c r="H10" s="41"/>
-      <c r="I10" s="251"/>
-      <c r="J10" s="252"/>
+      <c r="I10" s="252"/>
+      <c r="J10" s="253"/>
     </row>
     <row r="11" spans="1:10" ht="12" customHeight="1">
       <c r="A11" s="38"/>
@@ -9693,10 +9693,10 @@
       <c r="F11" s="39"/>
       <c r="G11" s="39"/>
       <c r="H11" s="42"/>
-      <c r="I11" s="240" t="s">
+      <c r="I11" s="241" t="s">
         <v>39</v>
       </c>
-      <c r="J11" s="241"/>
+      <c r="J11" s="242"/>
     </row>
     <row r="12" spans="1:10" ht="12" customHeight="1">
       <c r="A12" s="38"/>
@@ -9707,10 +9707,10 @@
       <c r="F12" s="39"/>
       <c r="G12" s="39"/>
       <c r="H12" s="41"/>
-      <c r="I12" s="243" t="s">
-        <v>228</v>
-      </c>
-      <c r="J12" s="244"/>
+      <c r="I12" s="244" t="s">
+        <v>227</v>
+      </c>
+      <c r="J12" s="245"/>
     </row>
     <row r="13" spans="1:10" ht="12" customHeight="1">
       <c r="A13" s="38"/>
@@ -9721,8 +9721,8 @@
       <c r="F13" s="39"/>
       <c r="G13" s="39"/>
       <c r="H13" s="41"/>
-      <c r="I13" s="245"/>
-      <c r="J13" s="246"/>
+      <c r="I13" s="246"/>
+      <c r="J13" s="247"/>
     </row>
     <row r="14" spans="1:10" ht="12" customHeight="1">
       <c r="A14" s="38"/>
@@ -9733,8 +9733,8 @@
       <c r="F14" s="39"/>
       <c r="G14" s="39"/>
       <c r="H14" s="41"/>
-      <c r="I14" s="245"/>
-      <c r="J14" s="246"/>
+      <c r="I14" s="246"/>
+      <c r="J14" s="247"/>
     </row>
     <row r="15" spans="1:10" ht="12" customHeight="1">
       <c r="A15" s="38"/>
@@ -9745,8 +9745,8 @@
       <c r="F15" s="39"/>
       <c r="G15" s="39"/>
       <c r="H15" s="41"/>
-      <c r="I15" s="245"/>
-      <c r="J15" s="246"/>
+      <c r="I15" s="246"/>
+      <c r="J15" s="247"/>
     </row>
     <row r="16" spans="1:10" ht="12" customHeight="1">
       <c r="A16" s="38"/>
@@ -9757,8 +9757,8 @@
       <c r="F16" s="39"/>
       <c r="G16" s="39"/>
       <c r="H16" s="41"/>
-      <c r="I16" s="245"/>
-      <c r="J16" s="246"/>
+      <c r="I16" s="246"/>
+      <c r="J16" s="247"/>
     </row>
     <row r="17" spans="1:10" ht="12" customHeight="1">
       <c r="A17" s="38"/>
@@ -9769,8 +9769,8 @@
       <c r="F17" s="39"/>
       <c r="G17" s="39"/>
       <c r="H17" s="41"/>
-      <c r="I17" s="245"/>
-      <c r="J17" s="246"/>
+      <c r="I17" s="246"/>
+      <c r="J17" s="247"/>
     </row>
     <row r="18" spans="1:10" ht="12" customHeight="1">
       <c r="A18" s="38"/>
@@ -9781,8 +9781,8 @@
       <c r="F18" s="39"/>
       <c r="G18" s="39"/>
       <c r="H18" s="41"/>
-      <c r="I18" s="245"/>
-      <c r="J18" s="246"/>
+      <c r="I18" s="246"/>
+      <c r="J18" s="247"/>
     </row>
     <row r="19" spans="1:10" ht="12" customHeight="1">
       <c r="A19" s="38"/>
@@ -9793,8 +9793,8 @@
       <c r="F19" s="39"/>
       <c r="G19" s="39"/>
       <c r="H19" s="41"/>
-      <c r="I19" s="245"/>
-      <c r="J19" s="246"/>
+      <c r="I19" s="246"/>
+      <c r="J19" s="247"/>
     </row>
     <row r="20" spans="1:10" ht="12" customHeight="1">
       <c r="A20" s="38"/>
@@ -9805,8 +9805,8 @@
       <c r="F20" s="39"/>
       <c r="G20" s="39"/>
       <c r="H20" s="41"/>
-      <c r="I20" s="245"/>
-      <c r="J20" s="246"/>
+      <c r="I20" s="246"/>
+      <c r="J20" s="247"/>
     </row>
     <row r="21" spans="1:10" ht="12" customHeight="1">
       <c r="A21" s="38"/>
@@ -9817,8 +9817,8 @@
       <c r="F21" s="39"/>
       <c r="G21" s="39"/>
       <c r="H21" s="41"/>
-      <c r="I21" s="245"/>
-      <c r="J21" s="246"/>
+      <c r="I21" s="246"/>
+      <c r="J21" s="247"/>
     </row>
     <row r="22" spans="1:10" ht="12" customHeight="1">
       <c r="A22" s="38"/>
@@ -9829,8 +9829,8 @@
       <c r="F22" s="39"/>
       <c r="G22" s="39"/>
       <c r="H22" s="41"/>
-      <c r="I22" s="245"/>
-      <c r="J22" s="246"/>
+      <c r="I22" s="246"/>
+      <c r="J22" s="247"/>
     </row>
     <row r="23" spans="1:10" ht="12" customHeight="1">
       <c r="A23" s="38"/>
@@ -9841,8 +9841,8 @@
       <c r="F23" s="39"/>
       <c r="G23" s="39"/>
       <c r="H23" s="41"/>
-      <c r="I23" s="245"/>
-      <c r="J23" s="246"/>
+      <c r="I23" s="246"/>
+      <c r="J23" s="247"/>
     </row>
     <row r="24" spans="1:10" ht="12" customHeight="1">
       <c r="A24" s="38"/>
@@ -9853,8 +9853,8 @@
       <c r="F24" s="39"/>
       <c r="G24" s="39"/>
       <c r="H24" s="41"/>
-      <c r="I24" s="245"/>
-      <c r="J24" s="246"/>
+      <c r="I24" s="246"/>
+      <c r="J24" s="247"/>
     </row>
     <row r="25" spans="1:10" ht="12" customHeight="1">
       <c r="A25" s="38"/>
@@ -9865,8 +9865,8 @@
       <c r="F25" s="39"/>
       <c r="G25" s="39"/>
       <c r="H25" s="41"/>
-      <c r="I25" s="245"/>
-      <c r="J25" s="246"/>
+      <c r="I25" s="246"/>
+      <c r="J25" s="247"/>
     </row>
     <row r="26" spans="1:10" ht="12" customHeight="1">
       <c r="A26" s="38"/>
@@ -9877,8 +9877,8 @@
       <c r="F26" s="39"/>
       <c r="G26" s="39"/>
       <c r="H26" s="41"/>
-      <c r="I26" s="245"/>
-      <c r="J26" s="246"/>
+      <c r="I26" s="246"/>
+      <c r="J26" s="247"/>
     </row>
     <row r="27" spans="1:10" ht="12" customHeight="1">
       <c r="A27" s="38"/>
@@ -9889,8 +9889,8 @@
       <c r="F27" s="39"/>
       <c r="G27" s="39"/>
       <c r="H27" s="41"/>
-      <c r="I27" s="245"/>
-      <c r="J27" s="246"/>
+      <c r="I27" s="246"/>
+      <c r="J27" s="247"/>
     </row>
     <row r="28" spans="1:10" ht="12" customHeight="1">
       <c r="A28" s="38"/>
@@ -9901,8 +9901,8 @@
       <c r="F28" s="39"/>
       <c r="G28" s="39"/>
       <c r="H28" s="41"/>
-      <c r="I28" s="245"/>
-      <c r="J28" s="246"/>
+      <c r="I28" s="246"/>
+      <c r="J28" s="247"/>
     </row>
     <row r="29" spans="1:10" ht="12" customHeight="1">
       <c r="A29" s="38"/>
@@ -9913,8 +9913,8 @@
       <c r="F29" s="39"/>
       <c r="G29" s="39"/>
       <c r="H29" s="41"/>
-      <c r="I29" s="245"/>
-      <c r="J29" s="246"/>
+      <c r="I29" s="246"/>
+      <c r="J29" s="247"/>
     </row>
     <row r="30" spans="1:10" ht="12" customHeight="1">
       <c r="A30" s="38"/>
@@ -9925,8 +9925,8 @@
       <c r="F30" s="39"/>
       <c r="G30" s="39"/>
       <c r="H30" s="41"/>
-      <c r="I30" s="245"/>
-      <c r="J30" s="246"/>
+      <c r="I30" s="246"/>
+      <c r="J30" s="247"/>
     </row>
     <row r="31" spans="1:10" ht="12" customHeight="1">
       <c r="A31" s="38"/>
@@ -9937,8 +9937,8 @@
       <c r="F31" s="39"/>
       <c r="G31" s="39"/>
       <c r="H31" s="41"/>
-      <c r="I31" s="245"/>
-      <c r="J31" s="246"/>
+      <c r="I31" s="246"/>
+      <c r="J31" s="247"/>
     </row>
     <row r="32" spans="1:10" ht="12" customHeight="1">
       <c r="A32" s="38"/>
@@ -9949,8 +9949,8 @@
       <c r="F32" s="39"/>
       <c r="G32" s="39"/>
       <c r="H32" s="41"/>
-      <c r="I32" s="245"/>
-      <c r="J32" s="246"/>
+      <c r="I32" s="246"/>
+      <c r="J32" s="247"/>
     </row>
     <row r="33" spans="1:10" ht="12" customHeight="1">
       <c r="A33" s="38"/>
@@ -9961,8 +9961,8 @@
       <c r="F33" s="39"/>
       <c r="G33" s="39"/>
       <c r="H33" s="41"/>
-      <c r="I33" s="245"/>
-      <c r="J33" s="246"/>
+      <c r="I33" s="246"/>
+      <c r="J33" s="247"/>
     </row>
     <row r="34" spans="1:10" ht="12" customHeight="1">
       <c r="A34" s="38"/>
@@ -9973,8 +9973,8 @@
       <c r="F34" s="39"/>
       <c r="G34" s="39"/>
       <c r="H34" s="41"/>
-      <c r="I34" s="245"/>
-      <c r="J34" s="246"/>
+      <c r="I34" s="246"/>
+      <c r="J34" s="247"/>
     </row>
     <row r="35" spans="1:10" ht="12" customHeight="1">
       <c r="A35" s="38"/>
@@ -9985,8 +9985,8 @@
       <c r="F35" s="39"/>
       <c r="G35" s="39"/>
       <c r="H35" s="41"/>
-      <c r="I35" s="245"/>
-      <c r="J35" s="246"/>
+      <c r="I35" s="246"/>
+      <c r="J35" s="247"/>
     </row>
     <row r="36" spans="1:10" ht="12" customHeight="1">
       <c r="A36" s="38"/>
@@ -9997,8 +9997,8 @@
       <c r="F36" s="39"/>
       <c r="G36" s="39"/>
       <c r="H36" s="41"/>
-      <c r="I36" s="245"/>
-      <c r="J36" s="246"/>
+      <c r="I36" s="246"/>
+      <c r="J36" s="247"/>
     </row>
     <row r="37" spans="1:10" ht="12" customHeight="1">
       <c r="A37" s="38"/>
@@ -10009,8 +10009,8 @@
       <c r="F37" s="39"/>
       <c r="G37" s="39"/>
       <c r="H37" s="41"/>
-      <c r="I37" s="245"/>
-      <c r="J37" s="246"/>
+      <c r="I37" s="246"/>
+      <c r="J37" s="247"/>
     </row>
     <row r="38" spans="1:10" ht="12" customHeight="1">
       <c r="A38" s="38"/>
@@ -10021,8 +10021,8 @@
       <c r="F38" s="39"/>
       <c r="G38" s="39"/>
       <c r="H38" s="41"/>
-      <c r="I38" s="245"/>
-      <c r="J38" s="246"/>
+      <c r="I38" s="246"/>
+      <c r="J38" s="247"/>
     </row>
     <row r="39" spans="1:10" ht="12" customHeight="1">
       <c r="A39" s="38"/>
@@ -10033,8 +10033,8 @@
       <c r="F39" s="39"/>
       <c r="G39" s="39"/>
       <c r="H39" s="41"/>
-      <c r="I39" s="245"/>
-      <c r="J39" s="246"/>
+      <c r="I39" s="246"/>
+      <c r="J39" s="247"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -10059,13 +10059,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O66"/>
+  <dimension ref="A1:O67"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="6" ySplit="4" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="E40" sqref="E40"/>
+      <selection pane="bottomRight" activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -10088,12 +10088,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="234" t="s">
+      <c r="A1" s="222" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="234"/>
-      <c r="C1" s="234"/>
-      <c r="D1" s="234"/>
+      <c r="B1" s="222"/>
+      <c r="C1" s="222"/>
+      <c r="D1" s="222"/>
       <c r="E1" s="29" t="s">
         <v>1</v>
       </c>
@@ -10101,16 +10101,16 @@
         <f>'Update History'!D1</f>
         <v>ASOFT - ERP.NET</v>
       </c>
-      <c r="G1" s="253" t="s">
+      <c r="G1" s="254" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="254"/>
-      <c r="I1" s="255" t="str">
+      <c r="H1" s="255"/>
+      <c r="I1" s="256" t="str">
         <f>'Update History'!F1</f>
         <v>CRMF2082</v>
       </c>
-      <c r="J1" s="256"/>
-      <c r="K1" s="257"/>
+      <c r="J1" s="257"/>
+      <c r="K1" s="258"/>
       <c r="L1" s="30" t="s">
         <v>5</v>
       </c>
@@ -10127,10 +10127,10 @@
       </c>
     </row>
     <row r="2" spans="1:15" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="234"/>
-      <c r="B2" s="234"/>
-      <c r="C2" s="234"/>
-      <c r="D2" s="234"/>
+      <c r="A2" s="222"/>
+      <c r="B2" s="222"/>
+      <c r="C2" s="222"/>
+      <c r="D2" s="222"/>
       <c r="E2" s="29" t="s">
         <v>2</v>
       </c>
@@ -10138,16 +10138,16 @@
         <f>'Update History'!D2</f>
         <v>ASOFT-CRM</v>
       </c>
-      <c r="G2" s="253" t="s">
+      <c r="G2" s="254" t="s">
         <v>49</v>
       </c>
-      <c r="H2" s="254"/>
-      <c r="I2" s="255" t="str">
+      <c r="H2" s="255"/>
+      <c r="I2" s="256" t="str">
         <f>'Update History'!F2</f>
         <v>Xem chi tiết yêu cầu</v>
       </c>
-      <c r="J2" s="256"/>
-      <c r="K2" s="257"/>
+      <c r="J2" s="257"/>
+      <c r="K2" s="258"/>
       <c r="L2" s="30" t="s">
         <v>6</v>
       </c>
@@ -10221,7 +10221,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="53" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E5" s="110"/>
       <c r="F5" s="110"/>
@@ -10246,7 +10246,7 @@
         <v>2</v>
       </c>
       <c r="D6" s="121" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E6" s="120" t="s">
         <v>173</v>
@@ -10275,13 +10275,13 @@
         <v>175</v>
       </c>
       <c r="D7" s="121" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E7" s="120" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F7" s="120" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G7" s="120" t="s">
         <v>178</v>
@@ -10292,13 +10292,13 @@
       <c r="I7" s="109"/>
       <c r="J7" s="109"/>
       <c r="K7" s="36" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L7" s="120"/>
       <c r="M7" s="120"/>
       <c r="N7" s="120"/>
       <c r="O7" s="123" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="8" spans="1:15" s="25" customFormat="1" ht="11.25">
@@ -10312,13 +10312,13 @@
         <v>177</v>
       </c>
       <c r="D8" s="129" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E8" s="120" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F8" s="143" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G8" s="120" t="s">
         <v>178</v>
@@ -10329,7 +10329,7 @@
       <c r="I8" s="109"/>
       <c r="J8" s="109"/>
       <c r="K8" s="36" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L8" s="120"/>
       <c r="M8" s="120"/>
@@ -10344,16 +10344,16 @@
         <v>155</v>
       </c>
       <c r="C9" s="196" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D9" s="144" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E9" s="119" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F9" s="142" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G9" s="120" t="s">
         <v>178</v>
@@ -10364,7 +10364,7 @@
       <c r="I9" s="55"/>
       <c r="J9" s="55"/>
       <c r="K9" s="36" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L9" s="119"/>
       <c r="M9" s="119"/>
@@ -10382,13 +10382,13 @@
         <v>179</v>
       </c>
       <c r="D10" s="124" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E10" s="119" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F10" s="142" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G10" s="120" t="s">
         <v>178</v>
@@ -10399,7 +10399,7 @@
       <c r="I10" s="55"/>
       <c r="J10" s="55"/>
       <c r="K10" s="36" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L10" s="119"/>
       <c r="M10" s="119"/>
@@ -10411,19 +10411,19 @@
         <v>8</v>
       </c>
       <c r="B11" s="172" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C11" s="197">
         <v>2.5</v>
       </c>
       <c r="D11" s="173" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="E11" s="174" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="F11" s="174" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="G11" s="175" t="s">
         <v>178</v>
@@ -10434,82 +10434,82 @@
       <c r="I11" s="176"/>
       <c r="J11" s="176"/>
       <c r="K11" s="168" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L11" s="174"/>
       <c r="M11" s="174"/>
       <c r="N11" s="174"/>
       <c r="O11" s="174"/>
     </row>
-    <row r="12" spans="1:15" s="32" customFormat="1" ht="11.25">
-      <c r="A12" s="31">
+    <row r="12" spans="1:15" s="177" customFormat="1" ht="11.25">
+      <c r="A12" s="172">
         <v>9</v>
       </c>
-      <c r="B12" s="31" t="s">
+      <c r="B12" s="172" t="s">
+        <v>359</v>
+      </c>
+      <c r="C12" s="197">
+        <v>2.6</v>
+      </c>
+      <c r="D12" s="173" t="s">
+        <v>407</v>
+      </c>
+      <c r="E12" s="174" t="s">
+        <v>408</v>
+      </c>
+      <c r="F12" s="174" t="s">
+        <v>408</v>
+      </c>
+      <c r="G12" s="199" t="s">
+        <v>178</v>
+      </c>
+      <c r="H12" s="199" t="s">
+        <v>176</v>
+      </c>
+      <c r="I12" s="176"/>
+      <c r="J12" s="176"/>
+      <c r="K12" s="168" t="s">
+        <v>187</v>
+      </c>
+      <c r="L12" s="174"/>
+      <c r="M12" s="174"/>
+      <c r="N12" s="174"/>
+      <c r="O12" s="174"/>
+    </row>
+    <row r="13" spans="1:15" s="32" customFormat="1" ht="11.25">
+      <c r="A13" s="31">
+        <v>9</v>
+      </c>
+      <c r="B13" s="31" t="s">
         <v>155</v>
       </c>
-      <c r="C12" s="196" t="s">
-        <v>180</v>
-      </c>
-      <c r="D12" s="129" t="s">
-        <v>274</v>
-      </c>
-      <c r="E12" s="119" t="s">
-        <v>281</v>
-      </c>
-      <c r="F12" s="142" t="s">
-        <v>281</v>
-      </c>
-      <c r="G12" s="120" t="s">
+      <c r="C13" s="196">
+        <v>2.7</v>
+      </c>
+      <c r="D13" s="129" t="s">
+        <v>273</v>
+      </c>
+      <c r="E13" s="119" t="s">
+        <v>280</v>
+      </c>
+      <c r="F13" s="142" t="s">
+        <v>280</v>
+      </c>
+      <c r="G13" s="120" t="s">
         <v>178</v>
       </c>
-      <c r="H12" s="120" t="s">
+      <c r="H13" s="120" t="s">
         <v>176</v>
       </c>
-      <c r="I12" s="55"/>
-      <c r="J12" s="55"/>
-      <c r="K12" s="36" t="s">
-        <v>188</v>
-      </c>
-      <c r="L12" s="119"/>
-      <c r="M12" s="119"/>
-      <c r="N12" s="119"/>
-      <c r="O12" s="119"/>
-    </row>
-    <row r="13" spans="1:15" s="177" customFormat="1" ht="11.25">
-      <c r="A13" s="172">
-        <v>10</v>
-      </c>
-      <c r="B13" s="172" t="s">
-        <v>362</v>
-      </c>
-      <c r="C13" s="197">
-        <v>2.7</v>
-      </c>
-      <c r="D13" s="173" t="s">
-        <v>360</v>
-      </c>
-      <c r="E13" s="174" t="s">
-        <v>361</v>
-      </c>
-      <c r="F13" s="174" t="s">
-        <v>361</v>
-      </c>
-      <c r="G13" s="175" t="s">
-        <v>178</v>
-      </c>
-      <c r="H13" s="175" t="s">
-        <v>176</v>
-      </c>
-      <c r="I13" s="176"/>
-      <c r="J13" s="176"/>
-      <c r="K13" s="168" t="s">
-        <v>188</v>
-      </c>
-      <c r="L13" s="174"/>
-      <c r="M13" s="174"/>
-      <c r="N13" s="174"/>
-      <c r="O13" s="174"/>
+      <c r="I13" s="55"/>
+      <c r="J13" s="55"/>
+      <c r="K13" s="36" t="s">
+        <v>187</v>
+      </c>
+      <c r="L13" s="119"/>
+      <c r="M13" s="119"/>
+      <c r="N13" s="119"/>
+      <c r="O13" s="119"/>
     </row>
     <row r="14" spans="1:15" s="25" customFormat="1" ht="11.25">
       <c r="A14" s="31">
@@ -10519,16 +10519,16 @@
         <v>155</v>
       </c>
       <c r="C14" s="196" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D14" s="144" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E14" s="143" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F14" s="143" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G14" s="143" t="s">
         <v>178</v>
@@ -10539,7 +10539,7 @@
       <c r="I14" s="109"/>
       <c r="J14" s="109"/>
       <c r="K14" s="36" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L14" s="143"/>
       <c r="M14" s="143"/>
@@ -10551,30 +10551,30 @@
         <v>12</v>
       </c>
       <c r="B15" s="172" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C15" s="197">
         <v>2.9</v>
       </c>
       <c r="D15" s="173" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="E15" s="175" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="F15" s="175" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="G15" s="175" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="H15" s="175" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I15" s="180"/>
       <c r="J15" s="180"/>
       <c r="K15" s="168" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L15" s="175"/>
       <c r="M15" s="175"/>
@@ -10589,27 +10589,27 @@
         <v>155</v>
       </c>
       <c r="C16" s="196" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D16" s="173" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="E16" s="142" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F16" s="142" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G16" s="143" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="H16" s="142" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I16" s="55"/>
       <c r="J16" s="55"/>
       <c r="K16" s="36" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L16" s="165"/>
       <c r="M16" s="165"/>
@@ -10621,30 +10621,30 @@
         <v>14</v>
       </c>
       <c r="B17" s="172" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C17" s="197">
         <v>2.11</v>
       </c>
       <c r="D17" s="173" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="E17" s="175" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="F17" s="175" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="G17" s="175" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="H17" s="174" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I17" s="176"/>
       <c r="J17" s="176"/>
       <c r="K17" s="168" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L17" s="175"/>
       <c r="M17" s="175"/>
@@ -10656,30 +10656,30 @@
         <v>15</v>
       </c>
       <c r="B18" s="172" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C18" s="197">
         <v>2.12</v>
       </c>
       <c r="D18" s="173" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="E18" s="175" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="F18" s="175" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="G18" s="175" t="s">
         <v>178</v>
       </c>
       <c r="H18" s="174" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="I18" s="176"/>
       <c r="J18" s="176"/>
       <c r="K18" s="168" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L18" s="175"/>
       <c r="M18" s="175"/>
@@ -10691,100 +10691,100 @@
         <v>16</v>
       </c>
       <c r="B19" s="172" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C19" s="197">
         <v>2.13</v>
       </c>
       <c r="D19" s="173" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="E19" s="175" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="F19" s="175" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="G19" s="175" t="s">
         <v>178</v>
       </c>
       <c r="H19" s="174" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="I19" s="176"/>
       <c r="J19" s="176"/>
       <c r="K19" s="168" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L19" s="175"/>
       <c r="M19" s="175"/>
       <c r="N19" s="175"/>
       <c r="O19" s="178"/>
     </row>
-    <row r="20" spans="1:15" s="32" customFormat="1" ht="11.25">
-      <c r="A20" s="31">
+    <row r="20" spans="1:15" s="177" customFormat="1" ht="11.25">
+      <c r="A20" s="172">
+        <v>10</v>
+      </c>
+      <c r="B20" s="172" t="s">
+        <v>359</v>
+      </c>
+      <c r="C20" s="197">
+        <v>2.14</v>
+      </c>
+      <c r="D20" s="173" t="s">
+        <v>357</v>
+      </c>
+      <c r="E20" s="174" t="s">
+        <v>358</v>
+      </c>
+      <c r="F20" s="174" t="s">
+        <v>358</v>
+      </c>
+      <c r="G20" s="175" t="s">
+        <v>178</v>
+      </c>
+      <c r="H20" s="175" t="s">
+        <v>176</v>
+      </c>
+      <c r="I20" s="176"/>
+      <c r="J20" s="176"/>
+      <c r="K20" s="168" t="s">
+        <v>187</v>
+      </c>
+      <c r="L20" s="174"/>
+      <c r="M20" s="174"/>
+      <c r="N20" s="174"/>
+      <c r="O20" s="174"/>
+    </row>
+    <row r="21" spans="1:15" s="32" customFormat="1" ht="11.25">
+      <c r="A21" s="31">
         <v>17</v>
-      </c>
-      <c r="B20" s="31" t="s">
-        <v>155</v>
-      </c>
-      <c r="C20" s="196" t="s">
-        <v>355</v>
-      </c>
-      <c r="D20" s="124" t="s">
-        <v>197</v>
-      </c>
-      <c r="E20" s="142" t="s">
-        <v>284</v>
-      </c>
-      <c r="F20" s="142" t="s">
-        <v>284</v>
-      </c>
-      <c r="G20" s="143" t="s">
-        <v>178</v>
-      </c>
-      <c r="H20" s="142" t="s">
-        <v>176</v>
-      </c>
-      <c r="I20" s="55"/>
-      <c r="J20" s="55"/>
-      <c r="K20" s="36" t="s">
-        <v>188</v>
-      </c>
-      <c r="L20" s="142"/>
-      <c r="M20" s="142"/>
-      <c r="N20" s="142"/>
-      <c r="O20" s="142"/>
-    </row>
-    <row r="21" spans="1:15" s="32" customFormat="1" ht="11.25">
-      <c r="A21" s="106">
-        <v>18</v>
       </c>
       <c r="B21" s="31" t="s">
         <v>155</v>
       </c>
-      <c r="C21" s="196" t="s">
-        <v>354</v>
-      </c>
-      <c r="D21" s="144" t="s">
-        <v>276</v>
+      <c r="C21" s="196">
+        <v>2.15</v>
+      </c>
+      <c r="D21" s="124" t="s">
+        <v>196</v>
       </c>
       <c r="E21" s="142" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F21" s="142" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G21" s="143" t="s">
         <v>178</v>
       </c>
-      <c r="H21" s="143" t="s">
+      <c r="H21" s="142" t="s">
         <v>176</v>
       </c>
       <c r="I21" s="55"/>
       <c r="J21" s="55"/>
       <c r="K21" s="36" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L21" s="142"/>
       <c r="M21" s="142"/>
@@ -10793,7 +10793,7 @@
     </row>
     <row r="22" spans="1:15" s="32" customFormat="1" ht="11.25">
       <c r="A22" s="106">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="B22" s="31" t="s">
         <v>155</v>
@@ -10801,122 +10801,122 @@
       <c r="C22" s="196">
         <v>2.16</v>
       </c>
-      <c r="D22" s="129" t="s">
-        <v>273</v>
-      </c>
-      <c r="E22" s="119" t="s">
-        <v>280</v>
+      <c r="D22" s="144" t="s">
+        <v>275</v>
+      </c>
+      <c r="E22" s="142" t="s">
+        <v>284</v>
       </c>
       <c r="F22" s="142" t="s">
-        <v>280</v>
-      </c>
-      <c r="G22" s="120" t="s">
+        <v>284</v>
+      </c>
+      <c r="G22" s="143" t="s">
         <v>178</v>
       </c>
-      <c r="H22" s="120" t="s">
+      <c r="H22" s="143" t="s">
         <v>176</v>
       </c>
       <c r="I22" s="55"/>
       <c r="J22" s="55"/>
       <c r="K22" s="36" t="s">
-        <v>188</v>
-      </c>
-      <c r="L22" s="119"/>
-      <c r="M22" s="119"/>
-      <c r="N22" s="119"/>
-      <c r="O22" s="119"/>
-    </row>
-    <row r="23" spans="1:15" ht="12" customHeight="1">
-      <c r="A23" s="31">
-        <v>19</v>
+        <v>187</v>
+      </c>
+      <c r="L22" s="142"/>
+      <c r="M22" s="142"/>
+      <c r="N22" s="142"/>
+      <c r="O22" s="142"/>
+    </row>
+    <row r="23" spans="1:15" s="32" customFormat="1" ht="11.25">
+      <c r="A23" s="106">
+        <v>7</v>
       </c>
       <c r="B23" s="31" t="s">
         <v>155</v>
       </c>
-      <c r="C23" s="125" t="s">
-        <v>246</v>
-      </c>
-      <c r="D23" s="53" t="s">
-        <v>232</v>
-      </c>
-      <c r="E23" s="53"/>
-      <c r="F23" s="53"/>
-      <c r="G23" s="142" t="s">
-        <v>233</v>
-      </c>
-      <c r="H23" s="142"/>
+      <c r="C23" s="196">
+        <v>2.17</v>
+      </c>
+      <c r="D23" s="129" t="s">
+        <v>272</v>
+      </c>
+      <c r="E23" s="119" t="s">
+        <v>279</v>
+      </c>
+      <c r="F23" s="142" t="s">
+        <v>279</v>
+      </c>
+      <c r="G23" s="120" t="s">
+        <v>178</v>
+      </c>
+      <c r="H23" s="120" t="s">
+        <v>176</v>
+      </c>
       <c r="I23" s="55"/>
       <c r="J23" s="55"/>
-      <c r="K23" s="36"/>
-      <c r="L23" s="142"/>
-      <c r="M23" s="142"/>
-      <c r="N23" s="142">
-        <v>0</v>
-      </c>
-      <c r="O23" s="142"/>
+      <c r="K23" s="36" t="s">
+        <v>187</v>
+      </c>
+      <c r="L23" s="119"/>
+      <c r="M23" s="119"/>
+      <c r="N23" s="119"/>
+      <c r="O23" s="119"/>
     </row>
     <row r="24" spans="1:15" ht="12" customHeight="1">
-      <c r="A24" s="106">
-        <v>20</v>
+      <c r="A24" s="31">
+        <v>19</v>
       </c>
       <c r="B24" s="31" t="s">
         <v>155</v>
       </c>
       <c r="C24" s="125" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D24" s="53" t="s">
-        <v>234</v>
-      </c>
-      <c r="E24" s="53" t="s">
-        <v>234</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="E24" s="53"/>
       <c r="F24" s="53"/>
       <c r="G24" s="142" t="s">
-        <v>187</v>
-      </c>
-      <c r="H24" s="142" t="s">
-        <v>235</v>
-      </c>
+        <v>232</v>
+      </c>
+      <c r="H24" s="142"/>
       <c r="I24" s="55"/>
       <c r="J24" s="55"/>
-      <c r="K24" s="36" t="s">
-        <v>188</v>
-      </c>
+      <c r="K24" s="36"/>
       <c r="L24" s="142"/>
       <c r="M24" s="142"/>
-      <c r="N24" s="142"/>
+      <c r="N24" s="142">
+        <v>0</v>
+      </c>
       <c r="O24" s="142"/>
     </row>
     <row r="25" spans="1:15" ht="12" customHeight="1">
-      <c r="A25" s="31">
-        <v>21</v>
+      <c r="A25" s="106">
+        <v>20</v>
       </c>
       <c r="B25" s="31" t="s">
         <v>155</v>
       </c>
       <c r="C25" s="125" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D25" s="53" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E25" s="53" t="s">
-        <v>189</v>
-      </c>
-      <c r="F25" s="53" t="s">
-        <v>189</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="F25" s="53"/>
       <c r="G25" s="142" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H25" s="142" t="s">
-        <v>176</v>
+        <v>234</v>
       </c>
       <c r="I25" s="55"/>
       <c r="J25" s="55"/>
       <c r="K25" s="36" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L25" s="142"/>
       <c r="M25" s="142"/>
@@ -10925,25 +10925,25 @@
     </row>
     <row r="26" spans="1:15" ht="12" customHeight="1">
       <c r="A26" s="31">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B26" s="31" t="s">
         <v>155</v>
       </c>
       <c r="C26" s="125" t="s">
-        <v>249</v>
-      </c>
-      <c r="D26" s="126" t="s">
-        <v>237</v>
+        <v>247</v>
+      </c>
+      <c r="D26" s="53" t="s">
+        <v>235</v>
       </c>
       <c r="E26" s="53" t="s">
-        <v>238</v>
+        <v>188</v>
       </c>
       <c r="F26" s="53" t="s">
-        <v>238</v>
+        <v>188</v>
       </c>
       <c r="G26" s="142" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H26" s="142" t="s">
         <v>176</v>
@@ -10951,7 +10951,7 @@
       <c r="I26" s="55"/>
       <c r="J26" s="55"/>
       <c r="K26" s="36" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L26" s="142"/>
       <c r="M26" s="142"/>
@@ -10959,125 +10959,131 @@
       <c r="O26" s="142"/>
     </row>
     <row r="27" spans="1:15" ht="12" customHeight="1">
-      <c r="A27" s="106">
-        <v>23</v>
+      <c r="A27" s="31">
+        <v>22</v>
       </c>
       <c r="B27" s="31" t="s">
         <v>155</v>
       </c>
       <c r="C27" s="125" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D27" s="126" t="s">
-        <v>190</v>
+        <v>236</v>
       </c>
       <c r="E27" s="53" t="s">
-        <v>191</v>
+        <v>237</v>
       </c>
       <c r="F27" s="53" t="s">
-        <v>191</v>
+        <v>237</v>
       </c>
       <c r="G27" s="142" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H27" s="142" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="I27" s="55"/>
       <c r="J27" s="55"/>
       <c r="K27" s="36" t="s">
-        <v>188</v>
-      </c>
-      <c r="L27" s="142" t="s">
-        <v>184</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="L27" s="142"/>
       <c r="M27" s="142"/>
       <c r="N27" s="142"/>
       <c r="O27" s="142"/>
     </row>
     <row r="28" spans="1:15" ht="12" customHeight="1">
-      <c r="A28" s="31">
-        <v>24</v>
+      <c r="A28" s="106">
+        <v>23</v>
       </c>
       <c r="B28" s="31" t="s">
         <v>155</v>
       </c>
       <c r="C28" s="125" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D28" s="126" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E28" s="53" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F28" s="53" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G28" s="142" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H28" s="142" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="I28" s="55"/>
       <c r="J28" s="55"/>
       <c r="K28" s="36" t="s">
-        <v>188</v>
-      </c>
-      <c r="L28" s="142"/>
+        <v>187</v>
+      </c>
+      <c r="L28" s="142" t="s">
+        <v>183</v>
+      </c>
       <c r="M28" s="142"/>
       <c r="N28" s="142"/>
       <c r="O28" s="142"/>
     </row>
     <row r="29" spans="1:15" ht="12" customHeight="1">
       <c r="A29" s="31">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B29" s="31" t="s">
         <v>155</v>
       </c>
       <c r="C29" s="125" t="s">
-        <v>252</v>
-      </c>
-      <c r="D29" s="53" t="s">
-        <v>239</v>
-      </c>
-      <c r="E29" s="142" t="s">
-        <v>240</v>
-      </c>
-      <c r="F29" s="142"/>
+        <v>250</v>
+      </c>
+      <c r="D29" s="126" t="s">
+        <v>191</v>
+      </c>
+      <c r="E29" s="53" t="s">
+        <v>192</v>
+      </c>
+      <c r="F29" s="53" t="s">
+        <v>192</v>
+      </c>
       <c r="G29" s="142" t="s">
-        <v>181</v>
-      </c>
-      <c r="H29" s="142"/>
+        <v>186</v>
+      </c>
+      <c r="H29" s="142" t="s">
+        <v>176</v>
+      </c>
       <c r="I29" s="55"/>
       <c r="J29" s="55"/>
-      <c r="K29" s="36"/>
+      <c r="K29" s="36" t="s">
+        <v>187</v>
+      </c>
       <c r="L29" s="142"/>
       <c r="M29" s="142"/>
       <c r="N29" s="142"/>
       <c r="O29" s="142"/>
     </row>
     <row r="30" spans="1:15" ht="12" customHeight="1">
-      <c r="A30" s="106">
-        <v>26</v>
+      <c r="A30" s="31">
+        <v>25</v>
       </c>
       <c r="B30" s="31" t="s">
         <v>155</v>
       </c>
       <c r="C30" s="125" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D30" s="53" t="s">
-        <v>194</v>
+        <v>238</v>
       </c>
       <c r="E30" s="142" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F30" s="142"/>
       <c r="G30" s="142" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H30" s="142"/>
       <c r="I30" s="55"/>
@@ -11089,22 +11095,24 @@
       <c r="O30" s="142"/>
     </row>
     <row r="31" spans="1:15" ht="12" customHeight="1">
-      <c r="A31" s="31">
-        <v>27</v>
+      <c r="A31" s="106">
+        <v>26</v>
       </c>
       <c r="B31" s="31" t="s">
         <v>155</v>
       </c>
       <c r="C31" s="125" t="s">
-        <v>195</v>
+        <v>252</v>
       </c>
       <c r="D31" s="53" t="s">
-        <v>182</v>
-      </c>
-      <c r="E31" s="53"/>
-      <c r="F31" s="53"/>
+        <v>193</v>
+      </c>
+      <c r="E31" s="142" t="s">
+        <v>240</v>
+      </c>
+      <c r="F31" s="142"/>
       <c r="G31" s="142" t="s">
-        <v>233</v>
+        <v>180</v>
       </c>
       <c r="H31" s="142"/>
       <c r="I31" s="55"/>
@@ -11112,73 +11120,65 @@
       <c r="K31" s="36"/>
       <c r="L31" s="142"/>
       <c r="M31" s="142"/>
-      <c r="N31" s="142">
-        <v>0</v>
-      </c>
+      <c r="N31" s="142"/>
       <c r="O31" s="142"/>
     </row>
     <row r="32" spans="1:15" ht="12" customHeight="1">
-      <c r="A32" s="106">
-        <v>28</v>
+      <c r="A32" s="31">
+        <v>27</v>
       </c>
       <c r="B32" s="31" t="s">
         <v>155</v>
       </c>
       <c r="C32" s="125" t="s">
-        <v>254</v>
+        <v>194</v>
       </c>
       <c r="D32" s="53" t="s">
-        <v>234</v>
-      </c>
-      <c r="E32" s="53" t="s">
-        <v>234</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="E32" s="53"/>
       <c r="F32" s="53"/>
       <c r="G32" s="142" t="s">
-        <v>187</v>
-      </c>
-      <c r="H32" s="142" t="s">
-        <v>235</v>
-      </c>
+        <v>232</v>
+      </c>
+      <c r="H32" s="142"/>
       <c r="I32" s="55"/>
       <c r="J32" s="55"/>
-      <c r="K32" s="36" t="s">
-        <v>188</v>
-      </c>
+      <c r="K32" s="36"/>
       <c r="L32" s="142"/>
       <c r="M32" s="142"/>
-      <c r="N32" s="142"/>
+      <c r="N32" s="142">
+        <v>0</v>
+      </c>
       <c r="O32" s="142"/>
     </row>
     <row r="33" spans="1:15" ht="12" customHeight="1">
-      <c r="A33" s="31">
-        <v>29</v>
+      <c r="A33" s="106">
+        <v>28</v>
       </c>
       <c r="B33" s="31" t="s">
         <v>155</v>
       </c>
       <c r="C33" s="125" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D33" s="53" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E33" s="53" t="s">
-        <v>189</v>
-      </c>
-      <c r="F33" s="53" t="s">
-        <v>189</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="F33" s="53"/>
       <c r="G33" s="142" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H33" s="142" t="s">
-        <v>176</v>
+        <v>234</v>
       </c>
       <c r="I33" s="55"/>
       <c r="J33" s="55"/>
       <c r="K33" s="36" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L33" s="142"/>
       <c r="M33" s="142"/>
@@ -11187,25 +11187,25 @@
     </row>
     <row r="34" spans="1:15" ht="12" customHeight="1">
       <c r="A34" s="31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B34" s="31" t="s">
         <v>155</v>
       </c>
       <c r="C34" s="125" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D34" s="53" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="E34" s="53" t="s">
-        <v>244</v>
+        <v>188</v>
       </c>
       <c r="F34" s="53" t="s">
-        <v>244</v>
+        <v>188</v>
       </c>
       <c r="G34" s="142" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H34" s="142" t="s">
         <v>176</v>
@@ -11213,7 +11213,7 @@
       <c r="I34" s="55"/>
       <c r="J34" s="55"/>
       <c r="K34" s="36" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L34" s="142"/>
       <c r="M34" s="142"/>
@@ -11221,26 +11221,26 @@
       <c r="O34" s="142"/>
     </row>
     <row r="35" spans="1:15" ht="12" customHeight="1">
-      <c r="A35" s="106">
-        <v>31</v>
+      <c r="A35" s="31">
+        <v>30</v>
       </c>
       <c r="B35" s="31" t="s">
         <v>155</v>
       </c>
       <c r="C35" s="125" t="s">
-        <v>257</v>
-      </c>
-      <c r="D35" s="126" t="s">
-        <v>197</v>
+        <v>255</v>
+      </c>
+      <c r="D35" s="53" t="s">
+        <v>242</v>
       </c>
       <c r="E35" s="53" t="s">
-        <v>128</v>
+        <v>243</v>
       </c>
       <c r="F35" s="53" t="s">
-        <v>128</v>
+        <v>243</v>
       </c>
       <c r="G35" s="142" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H35" s="142" t="s">
         <v>176</v>
@@ -11248,7 +11248,7 @@
       <c r="I35" s="55"/>
       <c r="J35" s="55"/>
       <c r="K35" s="36" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L35" s="142"/>
       <c r="M35" s="142"/>
@@ -11256,156 +11256,158 @@
       <c r="O35" s="142"/>
     </row>
     <row r="36" spans="1:15" ht="12" customHeight="1">
-      <c r="A36" s="31">
-        <v>32</v>
+      <c r="A36" s="106">
+        <v>31</v>
       </c>
       <c r="B36" s="31" t="s">
         <v>155</v>
       </c>
       <c r="C36" s="125" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D36" s="126" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="E36" s="53" t="s">
-        <v>191</v>
+        <v>128</v>
       </c>
       <c r="F36" s="53" t="s">
-        <v>191</v>
+        <v>128</v>
       </c>
       <c r="G36" s="142" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H36" s="142" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="I36" s="55"/>
       <c r="J36" s="55"/>
       <c r="K36" s="36" t="s">
-        <v>188</v>
-      </c>
-      <c r="L36" s="142" t="s">
-        <v>184</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="L36" s="142"/>
       <c r="M36" s="142"/>
       <c r="N36" s="142"/>
       <c r="O36" s="142"/>
     </row>
     <row r="37" spans="1:15" ht="12" customHeight="1">
       <c r="A37" s="31">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B37" s="31" t="s">
         <v>155</v>
       </c>
       <c r="C37" s="125" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D37" s="126" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E37" s="53" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F37" s="53" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G37" s="142" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H37" s="142" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="I37" s="55"/>
       <c r="J37" s="55"/>
       <c r="K37" s="36" t="s">
-        <v>188</v>
-      </c>
-      <c r="L37" s="142"/>
+        <v>187</v>
+      </c>
+      <c r="L37" s="142" t="s">
+        <v>183</v>
+      </c>
       <c r="M37" s="142"/>
       <c r="N37" s="142"/>
       <c r="O37" s="142"/>
     </row>
     <row r="38" spans="1:15" ht="12" customHeight="1">
-      <c r="A38" s="106">
-        <v>34</v>
+      <c r="A38" s="31">
+        <v>33</v>
       </c>
       <c r="B38" s="31" t="s">
         <v>155</v>
       </c>
       <c r="C38" s="125" t="s">
-        <v>260</v>
-      </c>
-      <c r="D38" s="53" t="s">
-        <v>194</v>
-      </c>
-      <c r="E38" s="142" t="s">
-        <v>245</v>
-      </c>
-      <c r="F38" s="142"/>
+        <v>258</v>
+      </c>
+      <c r="D38" s="126" t="s">
+        <v>191</v>
+      </c>
+      <c r="E38" s="53" t="s">
+        <v>192</v>
+      </c>
+      <c r="F38" s="53" t="s">
+        <v>192</v>
+      </c>
       <c r="G38" s="142" t="s">
-        <v>181</v>
-      </c>
-      <c r="H38" s="142"/>
+        <v>186</v>
+      </c>
+      <c r="H38" s="142" t="s">
+        <v>176</v>
+      </c>
       <c r="I38" s="55"/>
       <c r="J38" s="55"/>
-      <c r="K38" s="36"/>
+      <c r="K38" s="36" t="s">
+        <v>187</v>
+      </c>
       <c r="L38" s="142"/>
       <c r="M38" s="142"/>
       <c r="N38" s="142"/>
       <c r="O38" s="142"/>
     </row>
-    <row r="39" spans="1:15" s="32" customFormat="1" ht="12" customHeight="1">
-      <c r="A39" s="31">
-        <v>35</v>
+    <row r="39" spans="1:15" ht="12" customHeight="1">
+      <c r="A39" s="106">
+        <v>34</v>
       </c>
       <c r="B39" s="31" t="s">
         <v>155</v>
       </c>
       <c r="C39" s="125" t="s">
-        <v>196</v>
+        <v>259</v>
       </c>
       <c r="D39" s="53" t="s">
-        <v>215</v>
-      </c>
-      <c r="E39" s="119"/>
-      <c r="F39" s="119"/>
-      <c r="G39" s="120"/>
-      <c r="H39" s="120"/>
+        <v>193</v>
+      </c>
+      <c r="E39" s="142" t="s">
+        <v>244</v>
+      </c>
+      <c r="F39" s="142"/>
+      <c r="G39" s="142" t="s">
+        <v>180</v>
+      </c>
+      <c r="H39" s="142"/>
       <c r="I39" s="55"/>
       <c r="J39" s="55"/>
       <c r="K39" s="36"/>
-      <c r="L39" s="119"/>
-      <c r="M39" s="119"/>
-      <c r="N39" s="119"/>
-      <c r="O39" s="119"/>
+      <c r="L39" s="142"/>
+      <c r="M39" s="142"/>
+      <c r="N39" s="142"/>
+      <c r="O39" s="142"/>
     </row>
     <row r="40" spans="1:15" s="32" customFormat="1" ht="12" customHeight="1">
-      <c r="A40" s="106">
-        <v>36</v>
+      <c r="A40" s="31">
+        <v>35</v>
       </c>
       <c r="B40" s="31" t="s">
         <v>155</v>
       </c>
       <c r="C40" s="125" t="s">
-        <v>261</v>
-      </c>
-      <c r="D40" s="124" t="s">
-        <v>189</v>
-      </c>
-      <c r="E40" s="119" t="s">
-        <v>189</v>
-      </c>
-      <c r="F40" s="119" t="s">
-        <v>189</v>
-      </c>
-      <c r="G40" s="127" t="s">
-        <v>187</v>
-      </c>
-      <c r="H40" s="120" t="s">
-        <v>176</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="D40" s="53" t="s">
+        <v>214</v>
+      </c>
+      <c r="E40" s="119"/>
+      <c r="F40" s="119"/>
+      <c r="G40" s="120"/>
+      <c r="H40" s="120"/>
       <c r="I40" s="55"/>
       <c r="J40" s="55"/>
       <c r="K40" s="36"/>
@@ -11414,141 +11416,137 @@
       <c r="N40" s="119"/>
       <c r="O40" s="119"/>
     </row>
-    <row r="41" spans="1:15" s="32" customFormat="1" ht="11.25">
-      <c r="A41" s="31">
-        <v>37</v>
+    <row r="41" spans="1:15" s="32" customFormat="1" ht="12" customHeight="1">
+      <c r="A41" s="106">
+        <v>36</v>
       </c>
       <c r="B41" s="31" t="s">
         <v>155</v>
       </c>
       <c r="C41" s="125" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D41" s="124" t="s">
-        <v>288</v>
-      </c>
-      <c r="E41" s="142" t="s">
-        <v>289</v>
-      </c>
-      <c r="F41" s="142" t="s">
-        <v>290</v>
-      </c>
-      <c r="G41" s="142" t="s">
-        <v>187</v>
-      </c>
-      <c r="H41" s="143" t="s">
+        <v>188</v>
+      </c>
+      <c r="E41" s="119" t="s">
+        <v>188</v>
+      </c>
+      <c r="F41" s="119" t="s">
+        <v>188</v>
+      </c>
+      <c r="G41" s="127" t="s">
+        <v>186</v>
+      </c>
+      <c r="H41" s="120" t="s">
         <v>176</v>
       </c>
       <c r="I41" s="55"/>
       <c r="J41" s="55"/>
       <c r="K41" s="36"/>
-      <c r="L41" s="142"/>
-      <c r="M41" s="142"/>
-      <c r="N41" s="142"/>
-      <c r="O41" s="142"/>
+      <c r="L41" s="119"/>
+      <c r="M41" s="119"/>
+      <c r="N41" s="119"/>
+      <c r="O41" s="119"/>
     </row>
     <row r="42" spans="1:15" s="32" customFormat="1" ht="11.25">
       <c r="A42" s="31">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B42" s="31" t="s">
         <v>155</v>
       </c>
       <c r="C42" s="125" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D42" s="124" t="s">
-        <v>197</v>
-      </c>
-      <c r="E42" s="119" t="s">
-        <v>128</v>
-      </c>
-      <c r="F42" s="141" t="s">
-        <v>128</v>
-      </c>
-      <c r="G42" s="127" t="s">
-        <v>187</v>
-      </c>
-      <c r="H42" s="128" t="s">
+        <v>287</v>
+      </c>
+      <c r="E42" s="142" t="s">
+        <v>288</v>
+      </c>
+      <c r="F42" s="142" t="s">
+        <v>289</v>
+      </c>
+      <c r="G42" s="142" t="s">
+        <v>186</v>
+      </c>
+      <c r="H42" s="143" t="s">
         <v>176</v>
       </c>
       <c r="I42" s="55"/>
       <c r="J42" s="55"/>
       <c r="K42" s="36"/>
-      <c r="L42" s="119"/>
-      <c r="M42" s="119"/>
-      <c r="N42" s="119"/>
-      <c r="O42" s="119"/>
+      <c r="L42" s="142"/>
+      <c r="M42" s="142"/>
+      <c r="N42" s="142"/>
+      <c r="O42" s="142"/>
     </row>
     <row r="43" spans="1:15" s="32" customFormat="1" ht="11.25">
-      <c r="A43" s="106">
-        <v>39</v>
+      <c r="A43" s="31">
+        <v>38</v>
       </c>
       <c r="B43" s="31" t="s">
         <v>155</v>
       </c>
       <c r="C43" s="125" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D43" s="124" t="s">
-        <v>190</v>
-      </c>
-      <c r="E43" s="53" t="s">
-        <v>191</v>
-      </c>
-      <c r="F43" s="53" t="s">
-        <v>191</v>
+        <v>196</v>
+      </c>
+      <c r="E43" s="119" t="s">
+        <v>128</v>
+      </c>
+      <c r="F43" s="141" t="s">
+        <v>128</v>
       </c>
       <c r="G43" s="127" t="s">
-        <v>187</v>
-      </c>
-      <c r="H43" s="127" t="s">
-        <v>183</v>
+        <v>186</v>
+      </c>
+      <c r="H43" s="128" t="s">
+        <v>176</v>
       </c>
       <c r="I43" s="55"/>
       <c r="J43" s="55"/>
-      <c r="K43" s="36" t="s">
-        <v>188</v>
-      </c>
-      <c r="L43" s="127" t="s">
-        <v>184</v>
-      </c>
+      <c r="K43" s="36"/>
+      <c r="L43" s="119"/>
       <c r="M43" s="119"/>
       <c r="N43" s="119"/>
       <c r="O43" s="119"/>
     </row>
-    <row r="44" spans="1:15" s="32" customFormat="1" ht="12" customHeight="1">
-      <c r="A44" s="31">
-        <v>40</v>
+    <row r="44" spans="1:15" s="32" customFormat="1" ht="11.25">
+      <c r="A44" s="106">
+        <v>39</v>
       </c>
       <c r="B44" s="31" t="s">
         <v>155</v>
       </c>
       <c r="C44" s="125" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D44" s="124" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E44" s="53" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F44" s="53" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G44" s="127" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H44" s="127" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I44" s="55"/>
       <c r="J44" s="55"/>
       <c r="K44" s="36" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L44" s="127" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="M44" s="119"/>
       <c r="N44" s="119"/>
@@ -11556,221 +11554,229 @@
     </row>
     <row r="45" spans="1:15" s="32" customFormat="1" ht="12" customHeight="1">
       <c r="A45" s="31">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B45" s="31" t="s">
         <v>155</v>
       </c>
-      <c r="C45" s="196">
-        <v>7</v>
-      </c>
-      <c r="D45" s="129" t="s">
-        <v>209</v>
-      </c>
-      <c r="E45" s="119"/>
-      <c r="F45" s="119"/>
-      <c r="G45" s="120"/>
-      <c r="H45" s="120"/>
+      <c r="C45" s="125" t="s">
+        <v>264</v>
+      </c>
+      <c r="D45" s="124" t="s">
+        <v>191</v>
+      </c>
+      <c r="E45" s="53" t="s">
+        <v>192</v>
+      </c>
+      <c r="F45" s="53" t="s">
+        <v>192</v>
+      </c>
+      <c r="G45" s="127" t="s">
+        <v>186</v>
+      </c>
+      <c r="H45" s="127" t="s">
+        <v>182</v>
+      </c>
       <c r="I45" s="55"/>
       <c r="J45" s="55"/>
-      <c r="K45" s="36"/>
-      <c r="L45" s="119"/>
+      <c r="K45" s="36" t="s">
+        <v>187</v>
+      </c>
+      <c r="L45" s="127" t="s">
+        <v>183</v>
+      </c>
       <c r="M45" s="119"/>
       <c r="N45" s="119"/>
       <c r="O45" s="119"/>
     </row>
     <row r="46" spans="1:15" s="32" customFormat="1" ht="12" customHeight="1">
-      <c r="A46" s="106">
-        <v>42</v>
+      <c r="A46" s="31">
+        <v>41</v>
       </c>
       <c r="B46" s="31" t="s">
         <v>155</v>
       </c>
       <c r="C46" s="196">
-        <v>7.1</v>
-      </c>
-      <c r="D46" s="53" t="s">
-        <v>192</v>
-      </c>
-      <c r="E46" s="53" t="s">
-        <v>210</v>
-      </c>
-      <c r="F46" s="53" t="s">
-        <v>210</v>
-      </c>
-      <c r="G46" s="128" t="s">
-        <v>178</v>
-      </c>
-      <c r="H46" s="128" t="s">
-        <v>176</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="D46" s="129" t="s">
+        <v>208</v>
+      </c>
+      <c r="E46" s="119"/>
+      <c r="F46" s="119"/>
+      <c r="G46" s="120"/>
+      <c r="H46" s="120"/>
       <c r="I46" s="55"/>
       <c r="J46" s="55"/>
-      <c r="K46" s="36" t="s">
-        <v>188</v>
-      </c>
+      <c r="K46" s="36"/>
       <c r="L46" s="119"/>
       <c r="M46" s="119"/>
       <c r="N46" s="119"/>
       <c r="O46" s="119"/>
     </row>
-    <row r="47" spans="1:15" s="25" customFormat="1" ht="11.25">
-      <c r="A47" s="31">
-        <v>43</v>
-      </c>
-      <c r="B47" s="106" t="s">
+    <row r="47" spans="1:15" s="32" customFormat="1" ht="12" customHeight="1">
+      <c r="A47" s="106">
+        <v>42</v>
+      </c>
+      <c r="B47" s="31" t="s">
         <v>155</v>
       </c>
       <c r="C47" s="196">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="D47" s="53" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E47" s="53" t="s">
-        <v>191</v>
+        <v>209</v>
       </c>
       <c r="F47" s="53" t="s">
-        <v>191</v>
+        <v>209</v>
       </c>
       <c r="G47" s="128" t="s">
         <v>178</v>
       </c>
       <c r="H47" s="128" t="s">
-        <v>183</v>
-      </c>
-      <c r="I47" s="109"/>
-      <c r="J47" s="109"/>
+        <v>176</v>
+      </c>
+      <c r="I47" s="55"/>
+      <c r="J47" s="55"/>
       <c r="K47" s="36" t="s">
-        <v>188</v>
-      </c>
-      <c r="L47" s="119" t="s">
-        <v>184</v>
-      </c>
-      <c r="M47" s="120"/>
-      <c r="N47" s="120"/>
-      <c r="O47" s="120"/>
-    </row>
-    <row r="48" spans="1:15" s="32" customFormat="1" ht="12" customHeight="1">
-      <c r="A48" s="106">
-        <v>44</v>
-      </c>
-      <c r="B48" s="31" t="s">
+        <v>187</v>
+      </c>
+      <c r="L47" s="119"/>
+      <c r="M47" s="119"/>
+      <c r="N47" s="119"/>
+      <c r="O47" s="119"/>
+    </row>
+    <row r="48" spans="1:15" s="25" customFormat="1" ht="11.25">
+      <c r="A48" s="31">
+        <v>43</v>
+      </c>
+      <c r="B48" s="106" t="s">
         <v>155</v>
       </c>
-      <c r="C48" s="106">
-        <v>7.3</v>
+      <c r="C48" s="196">
+        <v>7.2</v>
       </c>
       <c r="D48" s="53" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="E48" s="53" t="s">
-        <v>219</v>
+        <v>190</v>
       </c>
       <c r="F48" s="53" t="s">
-        <v>219</v>
+        <v>190</v>
       </c>
       <c r="G48" s="128" t="s">
         <v>178</v>
       </c>
       <c r="H48" s="128" t="s">
-        <v>176</v>
-      </c>
-      <c r="I48" s="55"/>
-      <c r="J48" s="55"/>
+        <v>182</v>
+      </c>
+      <c r="I48" s="109"/>
+      <c r="J48" s="109"/>
       <c r="K48" s="36" t="s">
-        <v>188</v>
-      </c>
-      <c r="L48" s="119"/>
-      <c r="M48" s="119"/>
-      <c r="N48" s="119"/>
-      <c r="O48" s="119"/>
+        <v>187</v>
+      </c>
+      <c r="L48" s="119" t="s">
+        <v>183</v>
+      </c>
+      <c r="M48" s="120"/>
+      <c r="N48" s="120"/>
+      <c r="O48" s="120"/>
     </row>
     <row r="49" spans="1:15" s="32" customFormat="1" ht="12" customHeight="1">
-      <c r="A49" s="31">
-        <v>45</v>
+      <c r="A49" s="106">
+        <v>44</v>
       </c>
       <c r="B49" s="31" t="s">
         <v>155</v>
       </c>
-      <c r="C49" s="196">
-        <v>7.4</v>
+      <c r="C49" s="106">
+        <v>7.3</v>
       </c>
       <c r="D49" s="53" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E49" s="53" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="F49" s="53" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="G49" s="128" t="s">
         <v>178</v>
       </c>
       <c r="H49" s="128" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="I49" s="55"/>
       <c r="J49" s="55"/>
       <c r="K49" s="36" t="s">
-        <v>188</v>
-      </c>
-      <c r="L49" s="127" t="s">
-        <v>184</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="L49" s="119"/>
       <c r="M49" s="119"/>
       <c r="N49" s="119"/>
       <c r="O49" s="119"/>
     </row>
-    <row r="50" spans="1:15" ht="12" customHeight="1">
+    <row r="50" spans="1:15" s="32" customFormat="1" ht="12" customHeight="1">
       <c r="A50" s="31">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B50" s="31" t="s">
         <v>155</v>
       </c>
-      <c r="C50" s="125" t="s">
-        <v>242</v>
+      <c r="C50" s="196">
+        <v>7.4</v>
       </c>
       <c r="D50" s="53" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="E50" s="53" t="s">
-        <v>217</v>
-      </c>
-      <c r="F50" s="53"/>
-      <c r="G50" s="127" t="s">
-        <v>181</v>
-      </c>
-      <c r="H50" s="127"/>
+        <v>212</v>
+      </c>
+      <c r="F50" s="53" t="s">
+        <v>212</v>
+      </c>
+      <c r="G50" s="128" t="s">
+        <v>178</v>
+      </c>
+      <c r="H50" s="128" t="s">
+        <v>182</v>
+      </c>
       <c r="I50" s="55"/>
       <c r="J50" s="55"/>
-      <c r="K50" s="36"/>
-      <c r="L50" s="127"/>
-      <c r="M50" s="127"/>
-      <c r="N50" s="127"/>
-      <c r="O50" s="127"/>
+      <c r="K50" s="36" t="s">
+        <v>187</v>
+      </c>
+      <c r="L50" s="127" t="s">
+        <v>183</v>
+      </c>
+      <c r="M50" s="119"/>
+      <c r="N50" s="119"/>
+      <c r="O50" s="119"/>
     </row>
     <row r="51" spans="1:15" ht="12" customHeight="1">
-      <c r="A51" s="106">
-        <v>47</v>
+      <c r="A51" s="31">
+        <v>46</v>
       </c>
       <c r="B51" s="31" t="s">
         <v>155</v>
       </c>
       <c r="C51" s="125" t="s">
-        <v>374</v>
-      </c>
-      <c r="D51" s="126" t="s">
-        <v>194</v>
+        <v>241</v>
+      </c>
+      <c r="D51" s="53" t="s">
+        <v>215</v>
       </c>
       <c r="E51" s="53" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F51" s="53"/>
-      <c r="G51" s="141" t="s">
-        <v>181</v>
+      <c r="G51" s="127" t="s">
+        <v>180</v>
       </c>
       <c r="H51" s="127"/>
       <c r="I51" s="55"/>
@@ -11782,53 +11788,53 @@
       <c r="O51" s="127"/>
     </row>
     <row r="52" spans="1:15" ht="12" customHeight="1">
-      <c r="A52" s="31">
-        <v>48</v>
+      <c r="A52" s="106">
+        <v>47</v>
       </c>
       <c r="B52" s="31" t="s">
         <v>155</v>
       </c>
       <c r="C52" s="125" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="D52" s="126" t="s">
-        <v>266</v>
+        <v>193</v>
       </c>
       <c r="E52" s="53" t="s">
-        <v>268</v>
+        <v>217</v>
       </c>
       <c r="F52" s="53"/>
-      <c r="G52" s="142" t="s">
-        <v>181</v>
-      </c>
-      <c r="H52" s="142"/>
+      <c r="G52" s="141" t="s">
+        <v>180</v>
+      </c>
+      <c r="H52" s="127"/>
       <c r="I52" s="55"/>
       <c r="J52" s="55"/>
       <c r="K52" s="36"/>
-      <c r="L52" s="142"/>
-      <c r="M52" s="142"/>
-      <c r="N52" s="142"/>
-      <c r="O52" s="142"/>
+      <c r="L52" s="127"/>
+      <c r="M52" s="127"/>
+      <c r="N52" s="127"/>
+      <c r="O52" s="127"/>
     </row>
     <row r="53" spans="1:15" ht="12" customHeight="1">
       <c r="A53" s="31">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B53" s="31" t="s">
         <v>155</v>
       </c>
       <c r="C53" s="125" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="D53" s="126" t="s">
+        <v>265</v>
+      </c>
+      <c r="E53" s="53" t="s">
         <v>267</v>
-      </c>
-      <c r="E53" s="53" t="s">
-        <v>269</v>
       </c>
       <c r="F53" s="53"/>
       <c r="G53" s="142" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H53" s="142"/>
       <c r="I53" s="55"/>
@@ -11839,95 +11845,89 @@
       <c r="N53" s="142"/>
       <c r="O53" s="142"/>
     </row>
-    <row r="54" spans="1:15" s="184" customFormat="1" ht="12" customHeight="1">
-      <c r="A54" s="172">
-        <v>50</v>
-      </c>
-      <c r="B54" s="172" t="s">
-        <v>362</v>
-      </c>
-      <c r="C54" s="181" t="s">
-        <v>377</v>
-      </c>
-      <c r="D54" s="182" t="s">
-        <v>378</v>
-      </c>
-      <c r="E54" s="183"/>
-      <c r="F54" s="183"/>
-      <c r="G54" s="174"/>
-      <c r="H54" s="174"/>
-      <c r="I54" s="176"/>
-      <c r="J54" s="176"/>
-      <c r="K54" s="168"/>
-      <c r="L54" s="174"/>
-      <c r="M54" s="174"/>
-      <c r="N54" s="174"/>
-      <c r="O54" s="174"/>
+    <row r="54" spans="1:15" ht="12" customHeight="1">
+      <c r="A54" s="31">
+        <v>49</v>
+      </c>
+      <c r="B54" s="31" t="s">
+        <v>155</v>
+      </c>
+      <c r="C54" s="125" t="s">
+        <v>373</v>
+      </c>
+      <c r="D54" s="126" t="s">
+        <v>266</v>
+      </c>
+      <c r="E54" s="53" t="s">
+        <v>268</v>
+      </c>
+      <c r="F54" s="53"/>
+      <c r="G54" s="142" t="s">
+        <v>180</v>
+      </c>
+      <c r="H54" s="142"/>
+      <c r="I54" s="55"/>
+      <c r="J54" s="55"/>
+      <c r="K54" s="36"/>
+      <c r="L54" s="142"/>
+      <c r="M54" s="142"/>
+      <c r="N54" s="142"/>
+      <c r="O54" s="142"/>
     </row>
     <row r="55" spans="1:15" s="184" customFormat="1" ht="12" customHeight="1">
       <c r="A55" s="172">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B55" s="172" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C55" s="181" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="D55" s="182" t="s">
-        <v>236</v>
-      </c>
-      <c r="E55" s="183" t="s">
-        <v>379</v>
-      </c>
-      <c r="F55" s="183" t="s">
-        <v>379</v>
-      </c>
-      <c r="G55" s="175" t="s">
-        <v>178</v>
-      </c>
-      <c r="H55" s="174" t="s">
-        <v>373</v>
-      </c>
+        <v>375</v>
+      </c>
+      <c r="E55" s="183"/>
+      <c r="F55" s="183"/>
+      <c r="G55" s="174"/>
+      <c r="H55" s="174"/>
       <c r="I55" s="176"/>
       <c r="J55" s="176"/>
-      <c r="K55" s="168" t="s">
-        <v>188</v>
-      </c>
+      <c r="K55" s="168"/>
       <c r="L55" s="174"/>
       <c r="M55" s="174"/>
       <c r="N55" s="174"/>
       <c r="O55" s="174"/>
     </row>
     <row r="56" spans="1:15" s="184" customFormat="1" ht="12" customHeight="1">
-      <c r="A56" s="171">
-        <v>52</v>
+      <c r="A56" s="172">
+        <v>51</v>
       </c>
       <c r="B56" s="172" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C56" s="181" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="D56" s="182" t="s">
-        <v>197</v>
+        <v>235</v>
       </c>
       <c r="E56" s="183" t="s">
-        <v>128</v>
+        <v>376</v>
       </c>
       <c r="F56" s="183" t="s">
-        <v>128</v>
+        <v>376</v>
       </c>
       <c r="G56" s="175" t="s">
         <v>178</v>
       </c>
       <c r="H56" s="174" t="s">
-        <v>176</v>
+        <v>370</v>
       </c>
       <c r="I56" s="176"/>
       <c r="J56" s="176"/>
       <c r="K56" s="168" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L56" s="174"/>
       <c r="M56" s="174"/>
@@ -11935,23 +11935,23 @@
       <c r="O56" s="174"/>
     </row>
     <row r="57" spans="1:15" s="184" customFormat="1" ht="12" customHeight="1">
-      <c r="A57" s="172">
-        <v>53</v>
+      <c r="A57" s="171">
+        <v>52</v>
       </c>
       <c r="B57" s="172" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C57" s="181" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="D57" s="182" t="s">
-        <v>384</v>
+        <v>196</v>
       </c>
       <c r="E57" s="183" t="s">
-        <v>385</v>
+        <v>128</v>
       </c>
       <c r="F57" s="183" t="s">
-        <v>385</v>
+        <v>128</v>
       </c>
       <c r="G57" s="175" t="s">
         <v>178</v>
@@ -11962,7 +11962,7 @@
       <c r="I57" s="176"/>
       <c r="J57" s="176"/>
       <c r="K57" s="168" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L57" s="174"/>
       <c r="M57" s="174"/>
@@ -11971,33 +11971,33 @@
     </row>
     <row r="58" spans="1:15" s="184" customFormat="1" ht="12" customHeight="1">
       <c r="A58" s="172">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B58" s="172" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C58" s="181" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="D58" s="182" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="E58" s="183" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="F58" s="183" t="s">
-        <v>388</v>
-      </c>
-      <c r="G58" s="174" t="s">
-        <v>372</v>
+        <v>382</v>
+      </c>
+      <c r="G58" s="175" t="s">
+        <v>178</v>
       </c>
       <c r="H58" s="174" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="I58" s="176"/>
       <c r="J58" s="176"/>
       <c r="K58" s="168" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L58" s="174"/>
       <c r="M58" s="174"/>
@@ -12005,34 +12005,34 @@
       <c r="O58" s="174"/>
     </row>
     <row r="59" spans="1:15" s="184" customFormat="1" ht="12" customHeight="1">
-      <c r="A59" s="171">
-        <v>55</v>
+      <c r="A59" s="172">
+        <v>54</v>
       </c>
       <c r="B59" s="172" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C59" s="181" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="D59" s="182" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="E59" s="183" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="F59" s="183" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="G59" s="174" t="s">
-        <v>178</v>
+        <v>369</v>
       </c>
       <c r="H59" s="174" t="s">
-        <v>373</v>
+        <v>182</v>
       </c>
       <c r="I59" s="176"/>
       <c r="J59" s="176"/>
       <c r="K59" s="168" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L59" s="174"/>
       <c r="M59" s="174"/>
@@ -12040,53 +12040,59 @@
       <c r="O59" s="174"/>
     </row>
     <row r="60" spans="1:15" s="184" customFormat="1" ht="12" customHeight="1">
-      <c r="A60" s="172">
-        <v>56</v>
+      <c r="A60" s="171">
+        <v>55</v>
       </c>
       <c r="B60" s="172" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C60" s="181" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
       <c r="D60" s="182" t="s">
-        <v>239</v>
+        <v>386</v>
       </c>
       <c r="E60" s="183" t="s">
-        <v>399</v>
-      </c>
-      <c r="F60" s="183"/>
+        <v>387</v>
+      </c>
+      <c r="F60" s="183" t="s">
+        <v>387</v>
+      </c>
       <c r="G60" s="174" t="s">
-        <v>181</v>
-      </c>
-      <c r="H60" s="174"/>
+        <v>178</v>
+      </c>
+      <c r="H60" s="174" t="s">
+        <v>370</v>
+      </c>
       <c r="I60" s="176"/>
       <c r="J60" s="176"/>
-      <c r="K60" s="168"/>
+      <c r="K60" s="168" t="s">
+        <v>187</v>
+      </c>
       <c r="L60" s="174"/>
       <c r="M60" s="174"/>
       <c r="N60" s="174"/>
       <c r="O60" s="174"/>
     </row>
     <row r="61" spans="1:15" s="184" customFormat="1" ht="12" customHeight="1">
-      <c r="A61" s="171">
-        <v>57</v>
+      <c r="A61" s="172">
+        <v>56</v>
       </c>
       <c r="B61" s="172" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C61" s="181" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="D61" s="182" t="s">
-        <v>398</v>
+        <v>238</v>
       </c>
       <c r="E61" s="183" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="F61" s="183"/>
       <c r="G61" s="174" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H61" s="174"/>
       <c r="I61" s="176"/>
@@ -12098,21 +12104,25 @@
       <c r="O61" s="174"/>
     </row>
     <row r="62" spans="1:15" s="184" customFormat="1" ht="12" customHeight="1">
-      <c r="A62" s="172">
-        <v>58</v>
+      <c r="A62" s="171">
+        <v>57</v>
       </c>
       <c r="B62" s="172" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C62" s="181" t="s">
-        <v>231</v>
+        <v>394</v>
       </c>
       <c r="D62" s="182" t="s">
-        <v>392</v>
-      </c>
-      <c r="E62" s="183"/>
+        <v>395</v>
+      </c>
+      <c r="E62" s="183" t="s">
+        <v>397</v>
+      </c>
       <c r="F62" s="183"/>
-      <c r="G62" s="174"/>
+      <c r="G62" s="174" t="s">
+        <v>180</v>
+      </c>
       <c r="H62" s="174"/>
       <c r="I62" s="176"/>
       <c r="J62" s="176"/>
@@ -12123,35 +12133,25 @@
       <c r="O62" s="174"/>
     </row>
     <row r="63" spans="1:15" s="184" customFormat="1" ht="12" customHeight="1">
-      <c r="A63" s="171">
-        <v>59</v>
+      <c r="A63" s="172">
+        <v>58</v>
       </c>
       <c r="B63" s="172" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C63" s="181" t="s">
-        <v>401</v>
+        <v>230</v>
       </c>
       <c r="D63" s="182" t="s">
-        <v>393</v>
-      </c>
-      <c r="E63" s="183" t="s">
-        <v>395</v>
-      </c>
-      <c r="F63" s="183" t="s">
-        <v>395</v>
-      </c>
-      <c r="G63" s="174" t="s">
-        <v>178</v>
-      </c>
-      <c r="H63" s="174" t="s">
-        <v>373</v>
-      </c>
+        <v>389</v>
+      </c>
+      <c r="E63" s="183"/>
+      <c r="F63" s="183"/>
+      <c r="G63" s="174"/>
+      <c r="H63" s="174"/>
       <c r="I63" s="176"/>
       <c r="J63" s="176"/>
-      <c r="K63" s="168" t="s">
-        <v>188</v>
-      </c>
+      <c r="K63" s="168"/>
       <c r="L63" s="174"/>
       <c r="M63" s="174"/>
       <c r="N63" s="174"/>
@@ -12162,30 +12162,30 @@
         <v>59</v>
       </c>
       <c r="B64" s="172" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C64" s="181" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="D64" s="182" t="s">
-        <v>391</v>
-      </c>
-      <c r="E64" s="182" t="s">
-        <v>394</v>
-      </c>
-      <c r="F64" s="182" t="s">
-        <v>394</v>
+        <v>390</v>
+      </c>
+      <c r="E64" s="183" t="s">
+        <v>392</v>
+      </c>
+      <c r="F64" s="183" t="s">
+        <v>392</v>
       </c>
       <c r="G64" s="174" t="s">
         <v>178</v>
       </c>
       <c r="H64" s="174" t="s">
-        <v>176</v>
+        <v>370</v>
       </c>
       <c r="I64" s="176"/>
       <c r="J64" s="176"/>
       <c r="K64" s="168" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L64" s="174"/>
       <c r="M64" s="174"/>
@@ -12193,38 +12193,73 @@
       <c r="O64" s="174"/>
     </row>
     <row r="65" spans="1:15" s="184" customFormat="1" ht="12" customHeight="1">
-      <c r="A65" s="171"/>
-      <c r="B65" s="172"/>
-      <c r="C65" s="181"/>
-      <c r="D65" s="195"/>
-      <c r="E65" s="195"/>
-      <c r="F65" s="195"/>
-      <c r="G65" s="195"/>
-      <c r="H65" s="195"/>
-      <c r="I65" s="195"/>
-      <c r="J65" s="195"/>
-      <c r="K65" s="195"/>
+      <c r="A65" s="171">
+        <v>59</v>
+      </c>
+      <c r="B65" s="172" t="s">
+        <v>359</v>
+      </c>
+      <c r="C65" s="181" t="s">
+        <v>399</v>
+      </c>
+      <c r="D65" s="182" t="s">
+        <v>388</v>
+      </c>
+      <c r="E65" s="182" t="s">
+        <v>391</v>
+      </c>
+      <c r="F65" s="182" t="s">
+        <v>391</v>
+      </c>
+      <c r="G65" s="174" t="s">
+        <v>178</v>
+      </c>
+      <c r="H65" s="174" t="s">
+        <v>176</v>
+      </c>
+      <c r="I65" s="176"/>
+      <c r="J65" s="176"/>
+      <c r="K65" s="168" t="s">
+        <v>187</v>
+      </c>
       <c r="L65" s="174"/>
       <c r="M65" s="174"/>
       <c r="N65" s="174"/>
       <c r="O65" s="174"/>
     </row>
-    <row r="66" spans="1:15" ht="12" customHeight="1">
-      <c r="A66" s="106"/>
-      <c r="B66" s="31"/>
-      <c r="C66" s="125"/>
-      <c r="D66" s="126"/>
-      <c r="E66" s="53"/>
-      <c r="F66" s="53"/>
-      <c r="G66" s="169"/>
-      <c r="H66" s="169"/>
-      <c r="I66" s="55"/>
-      <c r="J66" s="55"/>
-      <c r="K66" s="36"/>
-      <c r="L66" s="169"/>
-      <c r="M66" s="169"/>
-      <c r="N66" s="169"/>
-      <c r="O66" s="169"/>
+    <row r="66" spans="1:15" s="184" customFormat="1" ht="12" customHeight="1">
+      <c r="A66" s="171"/>
+      <c r="B66" s="172"/>
+      <c r="C66" s="181"/>
+      <c r="D66" s="195"/>
+      <c r="E66" s="195"/>
+      <c r="F66" s="195"/>
+      <c r="G66" s="195"/>
+      <c r="H66" s="195"/>
+      <c r="I66" s="195"/>
+      <c r="J66" s="195"/>
+      <c r="K66" s="195"/>
+      <c r="L66" s="174"/>
+      <c r="M66" s="174"/>
+      <c r="N66" s="174"/>
+      <c r="O66" s="174"/>
+    </row>
+    <row r="67" spans="1:15" ht="12" customHeight="1">
+      <c r="A67" s="106"/>
+      <c r="B67" s="31"/>
+      <c r="C67" s="125"/>
+      <c r="D67" s="126"/>
+      <c r="E67" s="53"/>
+      <c r="F67" s="53"/>
+      <c r="G67" s="169"/>
+      <c r="H67" s="169"/>
+      <c r="I67" s="55"/>
+      <c r="J67" s="55"/>
+      <c r="K67" s="36"/>
+      <c r="L67" s="169"/>
+      <c r="M67" s="169"/>
+      <c r="N67" s="169"/>
+      <c r="O67" s="169"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -12236,16 +12271,16 @@
   </mergeCells>
   <dataValidations count="5">
     <dataValidation allowBlank="1" showErrorMessage="1" sqref="F5"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G55:G57 G24:G30 G32:G53 G5:G10 G11:G22">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G56:G58 G25:G31 G33:G54 G5:G23">
       <formula1>"Caption,Textbox,DateTimePicker,RichTextbox,Label,ComboBox,CheckBox,RadioButton,Button,DataGrid, Image,Link,Form,Frame,Menu,MenuItem,Other"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G23 G31">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G24 G32">
       <formula1>"Caption,TabControl,Textbox,DateTimePicker,RichTextbox,Label,ComboBox,CheckBox,RadioButton,Button,DataGrid, Image,Link,Form,Frame,Menu,MenuItem,Other"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K5:K10 K11:K53">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K5:K23 K24:K54">
       <formula1>"I,O,I/O"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5:H10 H11:H53">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5:H23 H24:H54">
       <formula1>"Text, Number, DateTime, Boolean"</formula1>
     </dataValidation>
   </dataValidations>
@@ -12555,7 +12590,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R11"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
@@ -12580,7 +12615,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="260" t="s">
+      <c r="A1" s="261" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="104"/>
@@ -12616,7 +12651,7 @@
       <c r="L1" s="46"/>
     </row>
     <row r="2" spans="1:18" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="261"/>
+      <c r="A2" s="262"/>
       <c r="B2" s="105"/>
       <c r="C2" s="30" t="s">
         <v>2</v>
@@ -12665,12 +12700,12 @@
       <c r="E4" s="82" t="s">
         <v>46</v>
       </c>
-      <c r="F4" s="271" t="s">
+      <c r="F4" s="272" t="s">
         <v>128</v>
       </c>
-      <c r="G4" s="272"/>
-      <c r="H4" s="272"/>
-      <c r="I4" s="273"/>
+      <c r="G4" s="273"/>
+      <c r="H4" s="273"/>
+      <c r="I4" s="274"/>
       <c r="J4" s="170" t="s">
         <v>48</v>
       </c>
@@ -12689,14 +12724,14 @@
       <c r="E5" s="132" t="s">
         <v>176</v>
       </c>
-      <c r="F5" s="262" t="s">
-        <v>220</v>
-      </c>
-      <c r="G5" s="263"/>
-      <c r="H5" s="263"/>
-      <c r="I5" s="264"/>
-      <c r="J5" s="262" t="s">
-        <v>200</v>
+      <c r="F5" s="263" t="s">
+        <v>219</v>
+      </c>
+      <c r="G5" s="264"/>
+      <c r="H5" s="264"/>
+      <c r="I5" s="265"/>
+      <c r="J5" s="263" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="6" spans="1:18" s="32" customFormat="1" ht="21" customHeight="1">
@@ -12707,17 +12742,17 @@
         <v>155</v>
       </c>
       <c r="C6" s="130" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D6" s="131"/>
       <c r="E6" s="132" t="s">
         <v>176</v>
       </c>
-      <c r="F6" s="265"/>
-      <c r="G6" s="266"/>
-      <c r="H6" s="266"/>
-      <c r="I6" s="267"/>
-      <c r="J6" s="265"/>
+      <c r="F6" s="266"/>
+      <c r="G6" s="267"/>
+      <c r="H6" s="267"/>
+      <c r="I6" s="268"/>
+      <c r="J6" s="266"/>
     </row>
     <row r="7" spans="1:18" s="32" customFormat="1" ht="21" customHeight="1">
       <c r="A7" s="31">
@@ -12733,14 +12768,14 @@
       <c r="E7" s="132" t="s">
         <v>176</v>
       </c>
-      <c r="F7" s="262" t="s">
-        <v>221</v>
-      </c>
-      <c r="G7" s="263"/>
-      <c r="H7" s="263"/>
-      <c r="I7" s="264"/>
-      <c r="J7" s="262" t="s">
-        <v>201</v>
+      <c r="F7" s="263" t="s">
+        <v>220</v>
+      </c>
+      <c r="G7" s="264"/>
+      <c r="H7" s="264"/>
+      <c r="I7" s="265"/>
+      <c r="J7" s="263" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="8" spans="1:18" s="32" customFormat="1" ht="24.75" customHeight="1">
@@ -12751,17 +12786,17 @@
         <v>155</v>
       </c>
       <c r="C8" s="130" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D8" s="131"/>
       <c r="E8" s="132" t="s">
         <v>176</v>
       </c>
-      <c r="F8" s="265"/>
-      <c r="G8" s="266"/>
-      <c r="H8" s="266"/>
-      <c r="I8" s="267"/>
-      <c r="J8" s="265"/>
+      <c r="F8" s="266"/>
+      <c r="G8" s="267"/>
+      <c r="H8" s="267"/>
+      <c r="I8" s="268"/>
+      <c r="J8" s="266"/>
     </row>
     <row r="9" spans="1:18" ht="23.25" customHeight="1">
       <c r="A9" s="185">
@@ -12775,16 +12810,16 @@
       </c>
       <c r="D9" s="187"/>
       <c r="E9" s="188" t="s">
+        <v>291</v>
+      </c>
+      <c r="F9" s="269" t="s">
         <v>292</v>
       </c>
-      <c r="F9" s="268" t="s">
+      <c r="G9" s="270"/>
+      <c r="H9" s="270"/>
+      <c r="I9" s="271"/>
+      <c r="J9" s="189" t="s">
         <v>293</v>
-      </c>
-      <c r="G9" s="269"/>
-      <c r="H9" s="269"/>
-      <c r="I9" s="270"/>
-      <c r="J9" s="189" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="10" spans="1:18" s="192" customFormat="1" ht="27" customHeight="1">
@@ -12792,7 +12827,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="171" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C10" s="191" t="s">
         <v>131</v>
@@ -12801,14 +12836,14 @@
       <c r="E10" s="190" t="s">
         <v>176</v>
       </c>
-      <c r="F10" s="258" t="s">
-        <v>403</v>
-      </c>
-      <c r="G10" s="258"/>
-      <c r="H10" s="258"/>
-      <c r="I10" s="258"/>
+      <c r="F10" s="259" t="s">
+        <v>400</v>
+      </c>
+      <c r="G10" s="259"/>
+      <c r="H10" s="259"/>
+      <c r="I10" s="259"/>
       <c r="J10" s="190" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="L10" s="193"/>
       <c r="M10" s="193"/>
@@ -12819,10 +12854,10 @@
       <c r="R10" s="193"/>
     </row>
     <row r="11" spans="1:18" ht="12" customHeight="1">
-      <c r="F11" s="259"/>
-      <c r="G11" s="259"/>
-      <c r="H11" s="259"/>
-      <c r="I11" s="259"/>
+      <c r="F11" s="260"/>
+      <c r="G11" s="260"/>
+      <c r="H11" s="260"/>
+      <c r="I11" s="260"/>
     </row>
   </sheetData>
   <dataConsolidate/>
@@ -12853,8 +12888,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q1048229"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -12880,20 +12915,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="234" t="s">
+      <c r="A1" s="222" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="234"/>
-      <c r="C1" s="234"/>
-      <c r="D1" s="234"/>
+      <c r="B1" s="222"/>
+      <c r="C1" s="222"/>
+      <c r="D1" s="222"/>
       <c r="E1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="274" t="str">
+      <c r="F1" s="298" t="str">
         <f>'Update History'!D1</f>
         <v>ASOFT - ERP.NET</v>
       </c>
-      <c r="G1" s="274"/>
+      <c r="G1" s="298"/>
       <c r="H1" s="26" t="s">
         <v>3</v>
       </c>
@@ -12911,28 +12946,28 @@
       <c r="L1" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="287" t="str">
+      <c r="M1" s="281" t="str">
         <f>'Update History'!J1</f>
         <v>Thị Phượng</v>
       </c>
-      <c r="N1" s="288"/>
-      <c r="O1" s="289"/>
+      <c r="N1" s="282"/>
+      <c r="O1" s="283"/>
       <c r="P1" s="46"/>
       <c r="Q1" s="46"/>
     </row>
     <row r="2" spans="1:17" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="234"/>
-      <c r="B2" s="234"/>
-      <c r="C2" s="234"/>
-      <c r="D2" s="234"/>
+      <c r="A2" s="222"/>
+      <c r="B2" s="222"/>
+      <c r="C2" s="222"/>
+      <c r="D2" s="222"/>
       <c r="E2" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="274" t="str">
+      <c r="F2" s="298" t="str">
         <f>'Update History'!D2</f>
         <v>ASOFT-CRM</v>
       </c>
-      <c r="G2" s="274"/>
+      <c r="G2" s="298"/>
       <c r="H2" s="26" t="s">
         <v>49</v>
       </c>
@@ -12950,12 +12985,12 @@
       <c r="L2" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="287">
+      <c r="M2" s="281">
         <f>'Update History'!J2</f>
         <v>42821</v>
       </c>
-      <c r="N2" s="288"/>
-      <c r="O2" s="289"/>
+      <c r="N2" s="282"/>
+      <c r="O2" s="283"/>
       <c r="P2" s="46"/>
       <c r="Q2" s="46"/>
     </row>
@@ -12978,12 +13013,12 @@
       <c r="F4" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="G4" s="278" t="s">
+      <c r="G4" s="302" t="s">
         <v>55</v>
       </c>
-      <c r="H4" s="279"/>
-      <c r="I4" s="279"/>
-      <c r="J4" s="280"/>
+      <c r="H4" s="303"/>
+      <c r="I4" s="303"/>
+      <c r="J4" s="304"/>
       <c r="K4" s="35" t="s">
         <v>56</v>
       </c>
@@ -13005,10 +13040,10 @@
         <v>1</v>
       </c>
       <c r="B5" s="106" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C5" s="68" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D5" s="114" t="s">
         <v>165</v>
@@ -13019,17 +13054,17 @@
       <c r="F5" s="113" t="s">
         <v>161</v>
       </c>
-      <c r="G5" s="275" t="s">
-        <v>338</v>
-      </c>
-      <c r="H5" s="276"/>
-      <c r="I5" s="276"/>
-      <c r="J5" s="277"/>
+      <c r="G5" s="299" t="s">
+        <v>337</v>
+      </c>
+      <c r="H5" s="300"/>
+      <c r="I5" s="300"/>
+      <c r="J5" s="301"/>
       <c r="K5" s="116" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="L5" s="116" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="M5" s="68" t="s">
         <v>159</v>
@@ -13046,10 +13081,10 @@
         <v>10</v>
       </c>
       <c r="B6" s="164" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C6" s="68" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D6" s="114" t="s">
         <v>165</v>
@@ -13060,17 +13095,17 @@
       <c r="F6" s="113" t="s">
         <v>162</v>
       </c>
-      <c r="G6" s="301" t="s">
-        <v>351</v>
-      </c>
-      <c r="H6" s="302"/>
-      <c r="I6" s="302"/>
-      <c r="J6" s="303"/>
+      <c r="G6" s="295" t="s">
+        <v>350</v>
+      </c>
+      <c r="H6" s="296"/>
+      <c r="I6" s="296"/>
+      <c r="J6" s="297"/>
       <c r="K6" s="116" t="s">
+        <v>308</v>
+      </c>
+      <c r="L6" s="116" t="s">
         <v>309</v>
-      </c>
-      <c r="L6" s="116" t="s">
-        <v>310</v>
       </c>
       <c r="M6" s="68" t="s">
         <v>159</v>
@@ -13087,10 +13122,10 @@
         <v>11</v>
       </c>
       <c r="B7" s="164" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C7" s="68" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D7" s="114" t="s">
         <v>165</v>
@@ -13101,17 +13136,17 @@
       <c r="F7" s="113" t="s">
         <v>163</v>
       </c>
-      <c r="G7" s="301" t="s">
-        <v>353</v>
-      </c>
-      <c r="H7" s="302"/>
-      <c r="I7" s="302"/>
-      <c r="J7" s="303"/>
+      <c r="G7" s="295" t="s">
+        <v>352</v>
+      </c>
+      <c r="H7" s="296"/>
+      <c r="I7" s="296"/>
+      <c r="J7" s="297"/>
       <c r="K7" s="116" t="s">
+        <v>335</v>
+      </c>
+      <c r="L7" s="116" t="s">
         <v>336</v>
-      </c>
-      <c r="L7" s="116" t="s">
-        <v>337</v>
       </c>
       <c r="M7" s="68" t="s">
         <v>159</v>
@@ -13131,7 +13166,7 @@
         <v>155</v>
       </c>
       <c r="C8" s="68" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D8" s="114" t="s">
         <v>165</v>
@@ -13142,17 +13177,17 @@
       <c r="F8" s="113" t="s">
         <v>164</v>
       </c>
-      <c r="G8" s="281" t="s">
-        <v>335</v>
-      </c>
-      <c r="H8" s="282"/>
-      <c r="I8" s="282"/>
-      <c r="J8" s="283"/>
+      <c r="G8" s="275" t="s">
+        <v>334</v>
+      </c>
+      <c r="H8" s="276"/>
+      <c r="I8" s="276"/>
+      <c r="J8" s="277"/>
       <c r="K8" s="116" t="s">
+        <v>308</v>
+      </c>
+      <c r="L8" s="116" t="s">
         <v>309</v>
-      </c>
-      <c r="L8" s="116" t="s">
-        <v>310</v>
       </c>
       <c r="M8" s="68" t="s">
         <v>159</v>
@@ -13169,10 +13204,10 @@
         <v>3</v>
       </c>
       <c r="B9" s="171" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C9" s="68" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D9" s="114" t="s">
         <v>165</v>
@@ -13181,19 +13216,19 @@
         <v>55</v>
       </c>
       <c r="F9" s="113" t="s">
-        <v>198</v>
-      </c>
-      <c r="G9" s="298" t="s">
-        <v>406</v>
-      </c>
-      <c r="H9" s="299"/>
-      <c r="I9" s="299"/>
-      <c r="J9" s="300"/>
+        <v>197</v>
+      </c>
+      <c r="G9" s="292" t="s">
+        <v>403</v>
+      </c>
+      <c r="H9" s="293"/>
+      <c r="I9" s="293"/>
+      <c r="J9" s="294"/>
       <c r="K9" s="198" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="L9" s="198" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="M9" s="68" t="s">
         <v>167</v>
@@ -13202,7 +13237,7 @@
         <v>168</v>
       </c>
       <c r="O9" s="68" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="22.5">
@@ -13222,25 +13257,25 @@
         <v>55</v>
       </c>
       <c r="F10" s="113" t="s">
-        <v>214</v>
-      </c>
-      <c r="G10" s="281" t="s">
+        <v>213</v>
+      </c>
+      <c r="G10" s="275" t="s">
         <v>169</v>
       </c>
-      <c r="H10" s="282"/>
-      <c r="I10" s="282"/>
-      <c r="J10" s="283"/>
+      <c r="H10" s="276"/>
+      <c r="I10" s="276"/>
+      <c r="J10" s="277"/>
       <c r="K10" s="116" t="s">
         <v>170</v>
       </c>
       <c r="L10" s="116" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="M10" s="68"/>
       <c r="N10" s="115" t="s">
         <v>158</v>
       </c>
-      <c r="O10" s="290"/>
+      <c r="O10" s="284"/>
     </row>
     <row r="11" spans="1:17" ht="78.75">
       <c r="A11" s="106">
@@ -13250,7 +13285,7 @@
         <v>155</v>
       </c>
       <c r="C11" s="68" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D11" s="114" t="s">
         <v>165</v>
@@ -13261,23 +13296,23 @@
       <c r="F11" s="113" t="s">
         <v>160</v>
       </c>
-      <c r="G11" s="295" t="s">
-        <v>404</v>
-      </c>
-      <c r="H11" s="296"/>
-      <c r="I11" s="296"/>
-      <c r="J11" s="297"/>
+      <c r="G11" s="289" t="s">
+        <v>401</v>
+      </c>
+      <c r="H11" s="290"/>
+      <c r="I11" s="290"/>
+      <c r="J11" s="291"/>
       <c r="K11" s="116" t="s">
+        <v>296</v>
+      </c>
+      <c r="L11" s="116" t="s">
         <v>297</v>
-      </c>
-      <c r="L11" s="116" t="s">
-        <v>298</v>
       </c>
       <c r="M11" s="68"/>
       <c r="N11" s="115" t="s">
         <v>158</v>
       </c>
-      <c r="O11" s="291"/>
+      <c r="O11" s="285"/>
     </row>
     <row r="12" spans="1:17" ht="63" customHeight="1">
       <c r="A12" s="106">
@@ -13287,31 +13322,31 @@
         <v>155</v>
       </c>
       <c r="C12" s="68" t="s">
+        <v>300</v>
+      </c>
+      <c r="D12" s="114" t="s">
         <v>301</v>
-      </c>
-      <c r="D12" s="114" t="s">
-        <v>302</v>
       </c>
       <c r="E12" s="114" t="s">
         <v>55</v>
       </c>
       <c r="F12" s="113" t="s">
-        <v>305</v>
-      </c>
-      <c r="G12" s="281" t="s">
+        <v>304</v>
+      </c>
+      <c r="G12" s="275" t="s">
+        <v>310</v>
+      </c>
+      <c r="H12" s="276"/>
+      <c r="I12" s="276"/>
+      <c r="J12" s="277"/>
+      <c r="K12" s="116" t="s">
         <v>311</v>
       </c>
-      <c r="H12" s="282"/>
-      <c r="I12" s="282"/>
-      <c r="J12" s="283"/>
-      <c r="K12" s="116" t="s">
+      <c r="L12" s="116" t="s">
         <v>312</v>
       </c>
-      <c r="L12" s="116" t="s">
-        <v>313</v>
-      </c>
       <c r="M12" s="68" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="N12" s="115" t="s">
         <v>168</v>
@@ -13326,31 +13361,31 @@
         <v>155</v>
       </c>
       <c r="C13" s="68" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D13" s="114" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E13" s="114" t="s">
         <v>55</v>
       </c>
       <c r="F13" s="113" t="s">
-        <v>306</v>
-      </c>
-      <c r="G13" s="281" t="s">
+        <v>305</v>
+      </c>
+      <c r="G13" s="275" t="s">
+        <v>313</v>
+      </c>
+      <c r="H13" s="276"/>
+      <c r="I13" s="276"/>
+      <c r="J13" s="277"/>
+      <c r="K13" s="116" t="s">
         <v>314</v>
       </c>
-      <c r="H13" s="282"/>
-      <c r="I13" s="282"/>
-      <c r="J13" s="283"/>
-      <c r="K13" s="116" t="s">
+      <c r="L13" s="116" t="s">
         <v>315</v>
       </c>
-      <c r="L13" s="116" t="s">
-        <v>316</v>
-      </c>
       <c r="M13" s="68" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="N13" s="115" t="s">
         <v>168</v>
@@ -13365,31 +13400,31 @@
         <v>155</v>
       </c>
       <c r="C14" s="68" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D14" s="114" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E14" s="114" t="s">
         <v>55</v>
       </c>
       <c r="F14" s="113" t="s">
-        <v>307</v>
-      </c>
-      <c r="G14" s="281" t="s">
+        <v>306</v>
+      </c>
+      <c r="G14" s="275" t="s">
+        <v>316</v>
+      </c>
+      <c r="H14" s="276"/>
+      <c r="I14" s="276"/>
+      <c r="J14" s="277"/>
+      <c r="K14" s="116" t="s">
         <v>317</v>
       </c>
-      <c r="H14" s="282"/>
-      <c r="I14" s="282"/>
-      <c r="J14" s="283"/>
-      <c r="K14" s="116" t="s">
+      <c r="L14" s="116" t="s">
         <v>318</v>
       </c>
-      <c r="L14" s="116" t="s">
-        <v>319</v>
-      </c>
       <c r="M14" s="68" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="N14" s="115" t="s">
         <v>168</v>
@@ -13404,35 +13439,35 @@
         <v>155</v>
       </c>
       <c r="C15" s="133" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D15" s="114" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E15" s="114" t="s">
         <v>55</v>
       </c>
       <c r="F15" s="113" t="s">
-        <v>308</v>
-      </c>
-      <c r="G15" s="292" t="s">
+        <v>307</v>
+      </c>
+      <c r="G15" s="286" t="s">
+        <v>202</v>
+      </c>
+      <c r="H15" s="287"/>
+      <c r="I15" s="287"/>
+      <c r="J15" s="288"/>
+      <c r="K15" s="135" t="s">
         <v>203</v>
       </c>
-      <c r="H15" s="293"/>
-      <c r="I15" s="293"/>
-      <c r="J15" s="294"/>
-      <c r="K15" s="135" t="s">
+      <c r="L15" s="135" t="s">
         <v>204</v>
-      </c>
-      <c r="L15" s="135" t="s">
-        <v>205</v>
       </c>
       <c r="M15" s="133"/>
       <c r="N15" s="136" t="s">
         <v>158</v>
       </c>
       <c r="O15" s="136" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="P15" s="137"/>
       <c r="Q15" s="137"/>
@@ -13442,31 +13477,31 @@
         <v>7</v>
       </c>
       <c r="B16" s="151" t="s">
+        <v>341</v>
+      </c>
+      <c r="C16" s="152" t="s">
         <v>342</v>
       </c>
-      <c r="C16" s="152" t="s">
+      <c r="D16" s="153" t="s">
         <v>343</v>
-      </c>
-      <c r="D16" s="153" t="s">
-        <v>344</v>
       </c>
       <c r="E16" s="153" t="s">
         <v>55</v>
       </c>
       <c r="F16" s="154" t="s">
+        <v>344</v>
+      </c>
+      <c r="G16" s="278" t="s">
         <v>345</v>
       </c>
-      <c r="G16" s="284" t="s">
+      <c r="H16" s="279"/>
+      <c r="I16" s="279"/>
+      <c r="J16" s="280"/>
+      <c r="K16" s="155" t="s">
         <v>346</v>
       </c>
-      <c r="H16" s="285"/>
-      <c r="I16" s="285"/>
-      <c r="J16" s="286"/>
-      <c r="K16" s="155" t="s">
+      <c r="L16" s="155" t="s">
         <v>347</v>
-      </c>
-      <c r="L16" s="155" t="s">
-        <v>348</v>
       </c>
       <c r="M16" s="152"/>
       <c r="N16" s="156" t="s">
@@ -13674,6 +13709,11 @@
   </sheetData>
   <dataConsolidate link="1"/>
   <mergeCells count="19">
+    <mergeCell ref="A1:D2"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="G5:J5"/>
+    <mergeCell ref="G4:J4"/>
     <mergeCell ref="G12:J12"/>
     <mergeCell ref="G13:J13"/>
     <mergeCell ref="G14:J14"/>
@@ -13688,11 +13728,6 @@
     <mergeCell ref="G9:J9"/>
     <mergeCell ref="G6:J6"/>
     <mergeCell ref="G7:J7"/>
-    <mergeCell ref="A1:D2"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="G5:J5"/>
-    <mergeCell ref="G4:J4"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="M1048229:M1048576 M15:M16"/>
@@ -13739,10 +13774,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="12" customHeight="1">
-      <c r="A1" s="234" t="s">
+      <c r="A1" s="222" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="234"/>
+      <c r="B1" s="222"/>
       <c r="C1" s="30" t="s">
         <v>1</v>
       </c>
@@ -13773,8 +13808,8 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="12" customHeight="1">
-      <c r="A2" s="234"/>
-      <c r="B2" s="234"/>
+      <c r="A2" s="222"/>
+      <c r="B2" s="222"/>
       <c r="C2" s="30" t="s">
         <v>2</v>
       </c>
@@ -14092,66 +14127,66 @@
     <row r="26" spans="1:11" ht="12" customHeight="1">
       <c r="A26" s="63"/>
       <c r="B26" s="39"/>
-      <c r="C26" s="304" t="s">
-        <v>322</v>
-      </c>
-      <c r="D26" s="304"/>
-      <c r="E26" s="304"/>
-      <c r="F26" s="304"/>
-      <c r="G26" s="304"/>
-      <c r="H26" s="304"/>
-      <c r="I26" s="304"/>
-      <c r="J26" s="304"/>
+      <c r="C26" s="305" t="s">
+        <v>321</v>
+      </c>
+      <c r="D26" s="305"/>
+      <c r="E26" s="305"/>
+      <c r="F26" s="305"/>
+      <c r="G26" s="305"/>
+      <c r="H26" s="305"/>
+      <c r="I26" s="305"/>
+      <c r="J26" s="305"/>
     </row>
     <row r="27" spans="1:11" ht="12" customHeight="1">
       <c r="A27" s="63"/>
       <c r="B27" s="39"/>
-      <c r="C27" s="304"/>
-      <c r="D27" s="304"/>
-      <c r="E27" s="304"/>
-      <c r="F27" s="304"/>
-      <c r="G27" s="304"/>
-      <c r="H27" s="304"/>
-      <c r="I27" s="304"/>
-      <c r="J27" s="304"/>
+      <c r="C27" s="305"/>
+      <c r="D27" s="305"/>
+      <c r="E27" s="305"/>
+      <c r="F27" s="305"/>
+      <c r="G27" s="305"/>
+      <c r="H27" s="305"/>
+      <c r="I27" s="305"/>
+      <c r="J27" s="305"/>
     </row>
     <row r="28" spans="1:11" ht="12" customHeight="1">
       <c r="A28" s="63"/>
       <c r="B28" s="39"/>
-      <c r="C28" s="304"/>
-      <c r="D28" s="304"/>
-      <c r="E28" s="304"/>
-      <c r="F28" s="304"/>
-      <c r="G28" s="304"/>
-      <c r="H28" s="304"/>
-      <c r="I28" s="304"/>
-      <c r="J28" s="304"/>
+      <c r="C28" s="305"/>
+      <c r="D28" s="305"/>
+      <c r="E28" s="305"/>
+      <c r="F28" s="305"/>
+      <c r="G28" s="305"/>
+      <c r="H28" s="305"/>
+      <c r="I28" s="305"/>
+      <c r="J28" s="305"/>
     </row>
     <row r="29" spans="1:11" ht="12" customHeight="1">
       <c r="A29" s="63"/>
       <c r="B29" s="39"/>
-      <c r="C29" s="304"/>
-      <c r="D29" s="304"/>
-      <c r="E29" s="304"/>
-      <c r="F29" s="304"/>
-      <c r="G29" s="304"/>
-      <c r="H29" s="304"/>
-      <c r="I29" s="304"/>
-      <c r="J29" s="304"/>
+      <c r="C29" s="305"/>
+      <c r="D29" s="305"/>
+      <c r="E29" s="305"/>
+      <c r="F29" s="305"/>
+      <c r="G29" s="305"/>
+      <c r="H29" s="305"/>
+      <c r="I29" s="305"/>
+      <c r="J29" s="305"/>
     </row>
     <row r="30" spans="1:11" ht="12" customHeight="1">
       <c r="A30" s="63"/>
       <c r="B30" s="39"/>
-      <c r="C30" s="304" t="s">
-        <v>321</v>
-      </c>
-      <c r="D30" s="304"/>
-      <c r="E30" s="304"/>
-      <c r="F30" s="304"/>
-      <c r="G30" s="304"/>
-      <c r="H30" s="304"/>
-      <c r="I30" s="304"/>
-      <c r="J30" s="304"/>
+      <c r="C30" s="305" t="s">
+        <v>320</v>
+      </c>
+      <c r="D30" s="305"/>
+      <c r="E30" s="305"/>
+      <c r="F30" s="305"/>
+      <c r="G30" s="305"/>
+      <c r="H30" s="305"/>
+      <c r="I30" s="305"/>
+      <c r="J30" s="305"/>
     </row>
     <row r="31" spans="1:11" ht="12" customHeight="1">
       <c r="A31" s="63"/>
@@ -14312,78 +14347,78 @@
     <row r="44" spans="1:10" ht="12" customHeight="1">
       <c r="A44" s="63"/>
       <c r="B44" s="39"/>
-      <c r="C44" s="304" t="s">
-        <v>324</v>
-      </c>
-      <c r="D44" s="304"/>
-      <c r="E44" s="304"/>
-      <c r="F44" s="304"/>
-      <c r="G44" s="304"/>
-      <c r="H44" s="304"/>
-      <c r="I44" s="304"/>
-      <c r="J44" s="304"/>
+      <c r="C44" s="305" t="s">
+        <v>323</v>
+      </c>
+      <c r="D44" s="305"/>
+      <c r="E44" s="305"/>
+      <c r="F44" s="305"/>
+      <c r="G44" s="305"/>
+      <c r="H44" s="305"/>
+      <c r="I44" s="305"/>
+      <c r="J44" s="305"/>
     </row>
     <row r="45" spans="1:10" ht="12" customHeight="1">
       <c r="A45" s="63"/>
       <c r="B45" s="39"/>
-      <c r="C45" s="304"/>
-      <c r="D45" s="304"/>
-      <c r="E45" s="304"/>
-      <c r="F45" s="304"/>
-      <c r="G45" s="304"/>
-      <c r="H45" s="304"/>
-      <c r="I45" s="304"/>
-      <c r="J45" s="304"/>
+      <c r="C45" s="305"/>
+      <c r="D45" s="305"/>
+      <c r="E45" s="305"/>
+      <c r="F45" s="305"/>
+      <c r="G45" s="305"/>
+      <c r="H45" s="305"/>
+      <c r="I45" s="305"/>
+      <c r="J45" s="305"/>
     </row>
     <row r="46" spans="1:10" ht="12" customHeight="1">
       <c r="A46" s="63"/>
       <c r="B46" s="39"/>
-      <c r="C46" s="304"/>
-      <c r="D46" s="304"/>
-      <c r="E46" s="304"/>
-      <c r="F46" s="304"/>
-      <c r="G46" s="304"/>
-      <c r="H46" s="304"/>
-      <c r="I46" s="304"/>
-      <c r="J46" s="304"/>
+      <c r="C46" s="305"/>
+      <c r="D46" s="305"/>
+      <c r="E46" s="305"/>
+      <c r="F46" s="305"/>
+      <c r="G46" s="305"/>
+      <c r="H46" s="305"/>
+      <c r="I46" s="305"/>
+      <c r="J46" s="305"/>
     </row>
     <row r="47" spans="1:10" ht="12" customHeight="1">
       <c r="A47" s="63"/>
       <c r="B47" s="39"/>
-      <c r="C47" s="304"/>
-      <c r="D47" s="304"/>
-      <c r="E47" s="304"/>
-      <c r="F47" s="304"/>
-      <c r="G47" s="304"/>
-      <c r="H47" s="304"/>
-      <c r="I47" s="304"/>
-      <c r="J47" s="304"/>
+      <c r="C47" s="305"/>
+      <c r="D47" s="305"/>
+      <c r="E47" s="305"/>
+      <c r="F47" s="305"/>
+      <c r="G47" s="305"/>
+      <c r="H47" s="305"/>
+      <c r="I47" s="305"/>
+      <c r="J47" s="305"/>
     </row>
     <row r="48" spans="1:10" ht="12" customHeight="1">
       <c r="A48" s="63"/>
       <c r="B48" s="39"/>
-      <c r="C48" s="304"/>
-      <c r="D48" s="304"/>
-      <c r="E48" s="304"/>
-      <c r="F48" s="304"/>
-      <c r="G48" s="304"/>
-      <c r="H48" s="304"/>
-      <c r="I48" s="304"/>
-      <c r="J48" s="304"/>
+      <c r="C48" s="305"/>
+      <c r="D48" s="305"/>
+      <c r="E48" s="305"/>
+      <c r="F48" s="305"/>
+      <c r="G48" s="305"/>
+      <c r="H48" s="305"/>
+      <c r="I48" s="305"/>
+      <c r="J48" s="305"/>
     </row>
     <row r="49" spans="1:10" ht="12" customHeight="1">
       <c r="A49" s="63"/>
       <c r="B49" s="39"/>
-      <c r="C49" s="304" t="s">
-        <v>325</v>
-      </c>
-      <c r="D49" s="304"/>
-      <c r="E49" s="304"/>
-      <c r="F49" s="304"/>
-      <c r="G49" s="304"/>
-      <c r="H49" s="304"/>
-      <c r="I49" s="304"/>
-      <c r="J49" s="304"/>
+      <c r="C49" s="305" t="s">
+        <v>324</v>
+      </c>
+      <c r="D49" s="305"/>
+      <c r="E49" s="305"/>
+      <c r="F49" s="305"/>
+      <c r="G49" s="305"/>
+      <c r="H49" s="305"/>
+      <c r="I49" s="305"/>
+      <c r="J49" s="305"/>
     </row>
     <row r="50" spans="1:10" ht="12" customHeight="1">
       <c r="A50" s="63"/>
@@ -14544,78 +14579,78 @@
     <row r="63" spans="1:10" ht="12" customHeight="1">
       <c r="A63" s="63"/>
       <c r="B63" s="39"/>
-      <c r="C63" s="304" t="s">
-        <v>326</v>
-      </c>
-      <c r="D63" s="304"/>
-      <c r="E63" s="304"/>
-      <c r="F63" s="304"/>
-      <c r="G63" s="304"/>
-      <c r="H63" s="304"/>
-      <c r="I63" s="304"/>
-      <c r="J63" s="304"/>
+      <c r="C63" s="305" t="s">
+        <v>325</v>
+      </c>
+      <c r="D63" s="305"/>
+      <c r="E63" s="305"/>
+      <c r="F63" s="305"/>
+      <c r="G63" s="305"/>
+      <c r="H63" s="305"/>
+      <c r="I63" s="305"/>
+      <c r="J63" s="305"/>
     </row>
     <row r="64" spans="1:10" ht="12" customHeight="1">
       <c r="A64" s="63"/>
       <c r="B64" s="39"/>
-      <c r="C64" s="304"/>
-      <c r="D64" s="304"/>
-      <c r="E64" s="304"/>
-      <c r="F64" s="304"/>
-      <c r="G64" s="304"/>
-      <c r="H64" s="304"/>
-      <c r="I64" s="304"/>
-      <c r="J64" s="304"/>
+      <c r="C64" s="305"/>
+      <c r="D64" s="305"/>
+      <c r="E64" s="305"/>
+      <c r="F64" s="305"/>
+      <c r="G64" s="305"/>
+      <c r="H64" s="305"/>
+      <c r="I64" s="305"/>
+      <c r="J64" s="305"/>
     </row>
     <row r="65" spans="1:10" ht="12" customHeight="1">
       <c r="A65" s="63"/>
       <c r="B65" s="39"/>
-      <c r="C65" s="304"/>
-      <c r="D65" s="304"/>
-      <c r="E65" s="304"/>
-      <c r="F65" s="304"/>
-      <c r="G65" s="304"/>
-      <c r="H65" s="304"/>
-      <c r="I65" s="304"/>
-      <c r="J65" s="304"/>
+      <c r="C65" s="305"/>
+      <c r="D65" s="305"/>
+      <c r="E65" s="305"/>
+      <c r="F65" s="305"/>
+      <c r="G65" s="305"/>
+      <c r="H65" s="305"/>
+      <c r="I65" s="305"/>
+      <c r="J65" s="305"/>
     </row>
     <row r="66" spans="1:10" ht="12" customHeight="1">
       <c r="A66" s="63"/>
       <c r="B66" s="39"/>
-      <c r="C66" s="304"/>
-      <c r="D66" s="304"/>
-      <c r="E66" s="304"/>
-      <c r="F66" s="304"/>
-      <c r="G66" s="304"/>
-      <c r="H66" s="304"/>
-      <c r="I66" s="304"/>
-      <c r="J66" s="304"/>
+      <c r="C66" s="305"/>
+      <c r="D66" s="305"/>
+      <c r="E66" s="305"/>
+      <c r="F66" s="305"/>
+      <c r="G66" s="305"/>
+      <c r="H66" s="305"/>
+      <c r="I66" s="305"/>
+      <c r="J66" s="305"/>
     </row>
     <row r="67" spans="1:10" ht="12" customHeight="1">
       <c r="A67" s="63"/>
       <c r="B67" s="39"/>
-      <c r="C67" s="304"/>
-      <c r="D67" s="304"/>
-      <c r="E67" s="304"/>
-      <c r="F67" s="304"/>
-      <c r="G67" s="304"/>
-      <c r="H67" s="304"/>
-      <c r="I67" s="304"/>
-      <c r="J67" s="304"/>
+      <c r="C67" s="305"/>
+      <c r="D67" s="305"/>
+      <c r="E67" s="305"/>
+      <c r="F67" s="305"/>
+      <c r="G67" s="305"/>
+      <c r="H67" s="305"/>
+      <c r="I67" s="305"/>
+      <c r="J67" s="305"/>
     </row>
     <row r="68" spans="1:10" ht="12" customHeight="1">
       <c r="A68" s="63"/>
       <c r="B68" s="39"/>
-      <c r="C68" s="304" t="s">
-        <v>327</v>
-      </c>
-      <c r="D68" s="304"/>
-      <c r="E68" s="304"/>
-      <c r="F68" s="304"/>
-      <c r="G68" s="304"/>
-      <c r="H68" s="304"/>
-      <c r="I68" s="304"/>
-      <c r="J68" s="304"/>
+      <c r="C68" s="305" t="s">
+        <v>326</v>
+      </c>
+      <c r="D68" s="305"/>
+      <c r="E68" s="305"/>
+      <c r="F68" s="305"/>
+      <c r="G68" s="305"/>
+      <c r="H68" s="305"/>
+      <c r="I68" s="305"/>
+      <c r="J68" s="305"/>
     </row>
     <row r="69" spans="1:10" ht="12" customHeight="1">
       <c r="A69" s="63"/>
@@ -14763,34 +14798,34 @@
     <row r="81" spans="1:10" ht="12" customHeight="1">
       <c r="A81" s="63"/>
       <c r="B81" s="39"/>
-      <c r="C81" s="304" t="s">
-        <v>328</v>
-      </c>
-      <c r="D81" s="304"/>
-      <c r="E81" s="304"/>
-      <c r="F81" s="304"/>
-      <c r="G81" s="304"/>
-      <c r="H81" s="304"/>
-      <c r="I81" s="304"/>
-      <c r="J81" s="304"/>
+      <c r="C81" s="305" t="s">
+        <v>327</v>
+      </c>
+      <c r="D81" s="305"/>
+      <c r="E81" s="305"/>
+      <c r="F81" s="305"/>
+      <c r="G81" s="305"/>
+      <c r="H81" s="305"/>
+      <c r="I81" s="305"/>
+      <c r="J81" s="305"/>
     </row>
     <row r="82" spans="1:10" ht="12" customHeight="1">
       <c r="A82" s="63"/>
       <c r="B82" s="39"/>
-      <c r="C82" s="304"/>
-      <c r="D82" s="304"/>
-      <c r="E82" s="304"/>
-      <c r="F82" s="304"/>
-      <c r="G82" s="304"/>
-      <c r="H82" s="304"/>
-      <c r="I82" s="304"/>
-      <c r="J82" s="304"/>
+      <c r="C82" s="305"/>
+      <c r="D82" s="305"/>
+      <c r="E82" s="305"/>
+      <c r="F82" s="305"/>
+      <c r="G82" s="305"/>
+      <c r="H82" s="305"/>
+      <c r="I82" s="305"/>
+      <c r="J82" s="305"/>
     </row>
     <row r="83" spans="1:10" ht="12" customHeight="1">
       <c r="A83" s="63"/>
       <c r="B83" s="39"/>
       <c r="C83" s="139" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D83" s="122"/>
       <c r="E83" s="122"/>
@@ -14804,7 +14839,7 @@
       <c r="A84" s="63"/>
       <c r="B84" s="39"/>
       <c r="C84" s="140" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D84" s="118"/>
       <c r="E84" s="118"/>
@@ -14818,28 +14853,28 @@
       <c r="A85" s="63"/>
       <c r="B85" s="39"/>
       <c r="C85" s="146" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="86" spans="1:10" ht="12" customHeight="1">
       <c r="A86" s="38"/>
       <c r="B86" s="39"/>
       <c r="C86" s="22" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="87" spans="1:10" ht="12" customHeight="1">
       <c r="A87" s="38"/>
       <c r="B87" s="39"/>
       <c r="C87" s="22" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="88" spans="1:10" ht="11.25" customHeight="1">
       <c r="A88" s="63"/>
       <c r="B88" s="39"/>
       <c r="C88" s="39" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D88" s="39"/>
       <c r="E88" s="39"/>
@@ -14998,10 +15033,10 @@
     </row>
     <row r="101" spans="1:10" ht="12" customHeight="1">
       <c r="A101" s="157" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B101" s="158" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C101" s="159"/>
       <c r="D101" s="160"/>
@@ -15616,10 +15651,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="234" t="s">
+      <c r="A1" s="222" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="234"/>
+      <c r="B1" s="222"/>
       <c r="C1" s="30" t="s">
         <v>1</v>
       </c>
@@ -15650,8 +15685,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="234"/>
-      <c r="B2" s="234"/>
+      <c r="A2" s="222"/>
+      <c r="B2" s="222"/>
       <c r="C2" s="30" t="s">
         <v>2</v>
       </c>

--- a/2018/CRM/03_DetailDesign/CRMF2082_Xem chi tiet yeu cau.xlsx
+++ b/2018/CRM/03_DetailDesign/CRMF2082_Xem chi tiet yeu cau.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="15480" windowHeight="9990" tabRatio="836" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="15480" windowHeight="9990" tabRatio="836" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Coverpage" sheetId="20" r:id="rId1"/>
@@ -49,7 +49,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="8">'Func Spec'!$A$1:$J$21</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="9">Help!$A$1:$K$62</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'Input Check'!$A$1:$I$14</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'Item Screen'!$A$1:$O$69</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'Item Screen'!$A$1:$O$80</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'Layout Screen'!$A$1:$J$52</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Update History'!$A$1:$J$34</definedName>
     <definedName name="RB">#REF!</definedName>
@@ -1419,7 +1419,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="944" uniqueCount="441">
   <si>
     <t>Detail Design</t>
   </si>
@@ -2215,9 +2215,6 @@
   </si>
   <si>
     <t>Xem chi tiết yêu cầu - CRMF2082</t>
-  </si>
-  <si>
-    <t>8</t>
   </si>
   <si>
     <t>Đính kém</t>
@@ -2852,9 +2849,6 @@
     <t>11</t>
   </si>
   <si>
-    <t>11.1</t>
-  </si>
-  <si>
     <t>3</t>
   </si>
   <si>
@@ -2925,12 +2919,6 @@
   </si>
   <si>
     <t>btnDelete</t>
-  </si>
-  <si>
-    <t>8.1</t>
-  </si>
-  <si>
-    <t>8.2</t>
   </si>
   <si>
     <t>Click btnChoose:
@@ -3011,6 +2999,115 @@
   </si>
   <si>
     <t>BugTypeID</t>
+  </si>
+  <si>
+    <t>6.6</t>
+  </si>
+  <si>
+    <t>6.7</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>7.1</t>
+  </si>
+  <si>
+    <t>7.2</t>
+  </si>
+  <si>
+    <t>7.3</t>
+  </si>
+  <si>
+    <t>7.4</t>
+  </si>
+  <si>
+    <t>7.5</t>
+  </si>
+  <si>
+    <t>9.1</t>
+  </si>
+  <si>
+    <t>9.2</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>12.1</t>
+  </si>
+  <si>
+    <t>Tab Liên hệ</t>
+  </si>
+  <si>
+    <t>Mã liên hệ</t>
+  </si>
+  <si>
+    <t>ContactID</t>
+  </si>
+  <si>
+    <t>Tên liên hệ</t>
+  </si>
+  <si>
+    <t>ContactName</t>
+  </si>
+  <si>
+    <t>Xưng hô</t>
+  </si>
+  <si>
+    <t>Prefix</t>
+  </si>
+  <si>
+    <t>Địa chỉ</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Số di động</t>
+  </si>
+  <si>
+    <t>Điện thoại</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>HomeEmail</t>
+  </si>
+  <si>
+    <t>HomeMobile</t>
+  </si>
+  <si>
+    <t>HomeTel</t>
+  </si>
+  <si>
+    <t>4.8</t>
+  </si>
+  <si>
+    <t>4.9</t>
+  </si>
+  <si>
+    <t>4.10</t>
+  </si>
+  <si>
+    <t>4.11</t>
+  </si>
+  <si>
+    <t>4.12</t>
+  </si>
+  <si>
+    <t>btnChooseContact</t>
+  </si>
+  <si>
+    <t>btnDeleteContact</t>
+  </si>
+  <si>
+    <t>Click btnChooseContact</t>
+  </si>
+  <si>
+    <t>Click btnChooseContact:
+Truyền tham số @DivisionID để gọi đến màn hình CRMF9002</t>
   </si>
 </sst>
 </file>
@@ -3962,9 +4059,6 @@
     <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4051,6 +4145,12 @@
     <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4230,9 +4330,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4546,14 +4643,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>78442</xdr:rowOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>11206</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>2700618</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>145117</xdr:rowOff>
+      <xdr:colOff>2722887</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>100853</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4577,8 +4674,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="0" y="1019736"/>
-          <a:ext cx="9659471" cy="7283263"/>
+          <a:off x="0" y="638735"/>
+          <a:ext cx="9681740" cy="8561294"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7735,65 +7832,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="27" customHeight="1">
-      <c r="A1" s="205"/>
-      <c r="B1" s="205"/>
-      <c r="C1" s="207" t="s">
+      <c r="A1" s="206"/>
+      <c r="B1" s="206"/>
+      <c r="C1" s="208" t="s">
         <v>152</v>
       </c>
-      <c r="D1" s="208"/>
-      <c r="E1" s="208"/>
-      <c r="F1" s="209"/>
-      <c r="G1" s="206" t="s">
+      <c r="D1" s="209"/>
+      <c r="E1" s="209"/>
+      <c r="F1" s="210"/>
+      <c r="G1" s="207" t="s">
         <v>148</v>
       </c>
-      <c r="H1" s="206"/>
-      <c r="I1" s="206" t="s">
+      <c r="H1" s="207"/>
+      <c r="I1" s="207" t="s">
         <v>149</v>
       </c>
-      <c r="J1" s="206"/>
+      <c r="J1" s="207"/>
     </row>
     <row r="2" spans="1:18" ht="23.25" customHeight="1">
-      <c r="A2" s="205"/>
-      <c r="B2" s="205"/>
-      <c r="C2" s="210"/>
-      <c r="D2" s="211"/>
-      <c r="E2" s="211"/>
-      <c r="F2" s="212"/>
-      <c r="G2" s="206" t="s">
+      <c r="A2" s="206"/>
+      <c r="B2" s="206"/>
+      <c r="C2" s="211"/>
+      <c r="D2" s="212"/>
+      <c r="E2" s="212"/>
+      <c r="F2" s="213"/>
+      <c r="G2" s="207" t="s">
         <v>150</v>
       </c>
-      <c r="H2" s="206"/>
-      <c r="I2" s="206"/>
-      <c r="J2" s="206"/>
+      <c r="H2" s="207"/>
+      <c r="I2" s="207"/>
+      <c r="J2" s="207"/>
     </row>
     <row r="3" spans="1:18" ht="12.75" customHeight="1">
-      <c r="A3" s="205"/>
-      <c r="B3" s="205"/>
-      <c r="C3" s="213"/>
-      <c r="D3" s="214"/>
-      <c r="E3" s="214"/>
-      <c r="F3" s="215"/>
-      <c r="G3" s="202" t="s">
+      <c r="A3" s="206"/>
+      <c r="B3" s="206"/>
+      <c r="C3" s="214"/>
+      <c r="D3" s="215"/>
+      <c r="E3" s="215"/>
+      <c r="F3" s="216"/>
+      <c r="G3" s="203" t="s">
         <v>151</v>
       </c>
-      <c r="H3" s="203"/>
-      <c r="I3" s="202"/>
-      <c r="J3" s="203"/>
+      <c r="H3" s="204"/>
+      <c r="I3" s="203"/>
+      <c r="J3" s="204"/>
     </row>
     <row r="4" spans="1:18">
       <c r="H4" s="97"/>
     </row>
     <row r="13" spans="1:18" ht="30">
-      <c r="A13" s="204"/>
-      <c r="B13" s="204"/>
-      <c r="C13" s="204"/>
-      <c r="D13" s="204"/>
-      <c r="E13" s="204"/>
-      <c r="F13" s="204"/>
-      <c r="G13" s="204"/>
-      <c r="H13" s="204"/>
-      <c r="I13" s="204"/>
-      <c r="J13" s="204"/>
+      <c r="A13" s="205"/>
+      <c r="B13" s="205"/>
+      <c r="C13" s="205"/>
+      <c r="D13" s="205"/>
+      <c r="E13" s="205"/>
+      <c r="F13" s="205"/>
+      <c r="G13" s="205"/>
+      <c r="H13" s="205"/>
+      <c r="I13" s="205"/>
+      <c r="J13" s="205"/>
       <c r="K13" s="98"/>
       <c r="L13" s="98"/>
       <c r="M13" s="98"/>
@@ -7804,56 +7901,56 @@
       <c r="R13" s="98"/>
     </row>
     <row r="14" spans="1:18" ht="26.25">
-      <c r="B14" s="200"/>
-      <c r="C14" s="200"/>
-      <c r="D14" s="200"/>
-      <c r="E14" s="200"/>
-      <c r="F14" s="200"/>
-      <c r="G14" s="200"/>
-      <c r="H14" s="200"/>
-      <c r="I14" s="200"/>
-      <c r="J14" s="200"/>
-      <c r="K14" s="200"/>
-      <c r="L14" s="200"/>
-      <c r="M14" s="200"/>
-      <c r="N14" s="200"/>
-      <c r="O14" s="200"/>
-      <c r="P14" s="200"/>
-      <c r="Q14" s="200"/>
-      <c r="R14" s="200"/>
+      <c r="B14" s="201"/>
+      <c r="C14" s="201"/>
+      <c r="D14" s="201"/>
+      <c r="E14" s="201"/>
+      <c r="F14" s="201"/>
+      <c r="G14" s="201"/>
+      <c r="H14" s="201"/>
+      <c r="I14" s="201"/>
+      <c r="J14" s="201"/>
+      <c r="K14" s="201"/>
+      <c r="L14" s="201"/>
+      <c r="M14" s="201"/>
+      <c r="N14" s="201"/>
+      <c r="O14" s="201"/>
+      <c r="P14" s="201"/>
+      <c r="Q14" s="201"/>
+      <c r="R14" s="201"/>
     </row>
     <row r="15" spans="1:18" ht="26.25">
-      <c r="B15" s="200"/>
-      <c r="C15" s="200"/>
-      <c r="D15" s="200"/>
-      <c r="E15" s="200"/>
-      <c r="F15" s="200"/>
-      <c r="G15" s="200"/>
-      <c r="H15" s="200"/>
-      <c r="I15" s="200"/>
-      <c r="J15" s="200"/>
-      <c r="K15" s="200"/>
-      <c r="L15" s="200"/>
-      <c r="M15" s="200"/>
-      <c r="N15" s="200"/>
-      <c r="O15" s="200"/>
-      <c r="P15" s="200"/>
-      <c r="Q15" s="200"/>
-      <c r="R15" s="200"/>
+      <c r="B15" s="201"/>
+      <c r="C15" s="201"/>
+      <c r="D15" s="201"/>
+      <c r="E15" s="201"/>
+      <c r="F15" s="201"/>
+      <c r="G15" s="201"/>
+      <c r="H15" s="201"/>
+      <c r="I15" s="201"/>
+      <c r="J15" s="201"/>
+      <c r="K15" s="201"/>
+      <c r="L15" s="201"/>
+      <c r="M15" s="201"/>
+      <c r="N15" s="201"/>
+      <c r="O15" s="201"/>
+      <c r="P15" s="201"/>
+      <c r="Q15" s="201"/>
+      <c r="R15" s="201"/>
     </row>
     <row r="16" spans="1:18" ht="26.25">
-      <c r="A16" s="201" t="s">
+      <c r="A16" s="202" t="s">
         <v>152</v>
       </c>
-      <c r="B16" s="201"/>
-      <c r="C16" s="201"/>
-      <c r="D16" s="201"/>
-      <c r="E16" s="201"/>
-      <c r="F16" s="201"/>
-      <c r="G16" s="201"/>
-      <c r="H16" s="201"/>
-      <c r="I16" s="201"/>
-      <c r="J16" s="201"/>
+      <c r="B16" s="202"/>
+      <c r="C16" s="202"/>
+      <c r="D16" s="202"/>
+      <c r="E16" s="202"/>
+      <c r="F16" s="202"/>
+      <c r="G16" s="202"/>
+      <c r="H16" s="202"/>
+      <c r="I16" s="202"/>
+      <c r="J16" s="202"/>
       <c r="K16" s="99"/>
       <c r="L16" s="99"/>
       <c r="M16" s="99"/>
@@ -7864,384 +7961,384 @@
       <c r="R16" s="99"/>
     </row>
     <row r="17" spans="1:195" ht="14.1" customHeight="1">
-      <c r="B17" s="200"/>
-      <c r="C17" s="200"/>
-      <c r="D17" s="200"/>
-      <c r="E17" s="200"/>
-      <c r="F17" s="200"/>
-      <c r="G17" s="200"/>
-      <c r="H17" s="200"/>
-      <c r="I17" s="200"/>
-      <c r="J17" s="200"/>
-      <c r="K17" s="200"/>
-      <c r="L17" s="200"/>
-      <c r="M17" s="200"/>
-      <c r="N17" s="200"/>
-      <c r="O17" s="200"/>
-      <c r="P17" s="200"/>
-      <c r="Q17" s="200"/>
-      <c r="R17" s="200"/>
+      <c r="B17" s="201"/>
+      <c r="C17" s="201"/>
+      <c r="D17" s="201"/>
+      <c r="E17" s="201"/>
+      <c r="F17" s="201"/>
+      <c r="G17" s="201"/>
+      <c r="H17" s="201"/>
+      <c r="I17" s="201"/>
+      <c r="J17" s="201"/>
+      <c r="K17" s="201"/>
+      <c r="L17" s="201"/>
+      <c r="M17" s="201"/>
+      <c r="N17" s="201"/>
+      <c r="O17" s="201"/>
+      <c r="P17" s="201"/>
+      <c r="Q17" s="201"/>
+      <c r="R17" s="201"/>
     </row>
     <row r="18" spans="1:195" ht="26.25">
-      <c r="B18" s="200"/>
-      <c r="C18" s="200"/>
-      <c r="D18" s="200"/>
-      <c r="E18" s="200"/>
-      <c r="F18" s="200"/>
-      <c r="G18" s="200"/>
-      <c r="H18" s="200"/>
-      <c r="I18" s="200"/>
-      <c r="J18" s="200"/>
-      <c r="K18" s="200"/>
-      <c r="L18" s="200"/>
-      <c r="M18" s="200"/>
-      <c r="N18" s="200"/>
-      <c r="O18" s="200"/>
-      <c r="P18" s="200"/>
-      <c r="Q18" s="200"/>
-      <c r="R18" s="200"/>
+      <c r="B18" s="201"/>
+      <c r="C18" s="201"/>
+      <c r="D18" s="201"/>
+      <c r="E18" s="201"/>
+      <c r="F18" s="201"/>
+      <c r="G18" s="201"/>
+      <c r="H18" s="201"/>
+      <c r="I18" s="201"/>
+      <c r="J18" s="201"/>
+      <c r="K18" s="201"/>
+      <c r="L18" s="201"/>
+      <c r="M18" s="201"/>
+      <c r="N18" s="201"/>
+      <c r="O18" s="201"/>
+      <c r="P18" s="201"/>
+      <c r="Q18" s="201"/>
+      <c r="R18" s="201"/>
     </row>
     <row r="19" spans="1:195" ht="23.25">
-      <c r="B19" s="217"/>
-      <c r="C19" s="217"/>
-      <c r="D19" s="217"/>
-      <c r="E19" s="217"/>
-      <c r="F19" s="217"/>
-      <c r="G19" s="217"/>
-      <c r="H19" s="217"/>
-      <c r="I19" s="217"/>
-      <c r="J19" s="217"/>
-      <c r="K19" s="217"/>
-      <c r="L19" s="217"/>
-      <c r="M19" s="217"/>
-      <c r="N19" s="217"/>
-      <c r="O19" s="217"/>
-      <c r="P19" s="217"/>
-      <c r="Q19" s="217"/>
-      <c r="R19" s="217"/>
+      <c r="B19" s="218"/>
+      <c r="C19" s="218"/>
+      <c r="D19" s="218"/>
+      <c r="E19" s="218"/>
+      <c r="F19" s="218"/>
+      <c r="G19" s="218"/>
+      <c r="H19" s="218"/>
+      <c r="I19" s="218"/>
+      <c r="J19" s="218"/>
+      <c r="K19" s="218"/>
+      <c r="L19" s="218"/>
+      <c r="M19" s="218"/>
+      <c r="N19" s="218"/>
+      <c r="O19" s="218"/>
+      <c r="P19" s="218"/>
+      <c r="Q19" s="218"/>
+      <c r="R19" s="218"/>
     </row>
     <row r="20" spans="1:195" ht="26.25">
-      <c r="B20" s="200"/>
-      <c r="C20" s="200"/>
-      <c r="D20" s="200"/>
-      <c r="E20" s="200"/>
-      <c r="F20" s="200"/>
-      <c r="G20" s="200"/>
-      <c r="H20" s="200"/>
-      <c r="I20" s="200"/>
-      <c r="J20" s="200"/>
-      <c r="K20" s="200"/>
-      <c r="L20" s="200"/>
-      <c r="M20" s="200"/>
-      <c r="N20" s="200"/>
-      <c r="O20" s="200"/>
-      <c r="P20" s="200"/>
-      <c r="Q20" s="200"/>
-      <c r="R20" s="200"/>
+      <c r="B20" s="201"/>
+      <c r="C20" s="201"/>
+      <c r="D20" s="201"/>
+      <c r="E20" s="201"/>
+      <c r="F20" s="201"/>
+      <c r="G20" s="201"/>
+      <c r="H20" s="201"/>
+      <c r="I20" s="201"/>
+      <c r="J20" s="201"/>
+      <c r="K20" s="201"/>
+      <c r="L20" s="201"/>
+      <c r="M20" s="201"/>
+      <c r="N20" s="201"/>
+      <c r="O20" s="201"/>
+      <c r="P20" s="201"/>
+      <c r="Q20" s="201"/>
+      <c r="R20" s="201"/>
     </row>
     <row r="21" spans="1:195" ht="26.25">
-      <c r="B21" s="200"/>
-      <c r="C21" s="200"/>
-      <c r="D21" s="200"/>
-      <c r="E21" s="200"/>
-      <c r="F21" s="200"/>
-      <c r="G21" s="200"/>
-      <c r="H21" s="200"/>
-      <c r="I21" s="200"/>
-      <c r="J21" s="200"/>
-      <c r="K21" s="200"/>
-      <c r="L21" s="200"/>
-      <c r="M21" s="200"/>
-      <c r="N21" s="200"/>
-      <c r="O21" s="200"/>
-      <c r="P21" s="200"/>
-      <c r="Q21" s="200"/>
-      <c r="R21" s="200"/>
+      <c r="B21" s="201"/>
+      <c r="C21" s="201"/>
+      <c r="D21" s="201"/>
+      <c r="E21" s="201"/>
+      <c r="F21" s="201"/>
+      <c r="G21" s="201"/>
+      <c r="H21" s="201"/>
+      <c r="I21" s="201"/>
+      <c r="J21" s="201"/>
+      <c r="K21" s="201"/>
+      <c r="L21" s="201"/>
+      <c r="M21" s="201"/>
+      <c r="N21" s="201"/>
+      <c r="O21" s="201"/>
+      <c r="P21" s="201"/>
+      <c r="Q21" s="201"/>
+      <c r="R21" s="201"/>
     </row>
     <row r="22" spans="1:195" ht="25.5">
-      <c r="B22" s="216"/>
-      <c r="C22" s="216"/>
-      <c r="D22" s="216"/>
-      <c r="E22" s="216"/>
-      <c r="F22" s="216"/>
-      <c r="G22" s="216"/>
-      <c r="H22" s="216"/>
-      <c r="I22" s="216"/>
-      <c r="J22" s="216"/>
-      <c r="K22" s="216"/>
-      <c r="L22" s="216"/>
-      <c r="M22" s="216"/>
-      <c r="N22" s="216"/>
-      <c r="O22" s="216"/>
-      <c r="P22" s="216"/>
-      <c r="Q22" s="216"/>
-      <c r="R22" s="216"/>
+      <c r="B22" s="217"/>
+      <c r="C22" s="217"/>
+      <c r="D22" s="217"/>
+      <c r="E22" s="217"/>
+      <c r="F22" s="217"/>
+      <c r="G22" s="217"/>
+      <c r="H22" s="217"/>
+      <c r="I22" s="217"/>
+      <c r="J22" s="217"/>
+      <c r="K22" s="217"/>
+      <c r="L22" s="217"/>
+      <c r="M22" s="217"/>
+      <c r="N22" s="217"/>
+      <c r="O22" s="217"/>
+      <c r="P22" s="217"/>
+      <c r="Q22" s="217"/>
+      <c r="R22" s="217"/>
     </row>
     <row r="23" spans="1:195" ht="25.5">
-      <c r="B23" s="216"/>
-      <c r="C23" s="216"/>
-      <c r="D23" s="216"/>
-      <c r="E23" s="216"/>
-      <c r="F23" s="216"/>
-      <c r="G23" s="216"/>
-      <c r="H23" s="216"/>
-      <c r="I23" s="216"/>
-      <c r="J23" s="216"/>
-      <c r="K23" s="216"/>
-      <c r="L23" s="216"/>
-      <c r="M23" s="216"/>
-      <c r="N23" s="216"/>
-      <c r="O23" s="216"/>
-      <c r="P23" s="216"/>
-      <c r="Q23" s="216"/>
-      <c r="R23" s="216"/>
+      <c r="B23" s="217"/>
+      <c r="C23" s="217"/>
+      <c r="D23" s="217"/>
+      <c r="E23" s="217"/>
+      <c r="F23" s="217"/>
+      <c r="G23" s="217"/>
+      <c r="H23" s="217"/>
+      <c r="I23" s="217"/>
+      <c r="J23" s="217"/>
+      <c r="K23" s="217"/>
+      <c r="L23" s="217"/>
+      <c r="M23" s="217"/>
+      <c r="N23" s="217"/>
+      <c r="O23" s="217"/>
+      <c r="P23" s="217"/>
+      <c r="Q23" s="217"/>
+      <c r="R23" s="217"/>
     </row>
     <row r="25" spans="1:195" ht="11.25" customHeight="1"/>
     <row r="26" spans="1:195" ht="18">
-      <c r="B26" s="218"/>
-      <c r="C26" s="218"/>
-      <c r="D26" s="218"/>
-      <c r="E26" s="218"/>
-      <c r="F26" s="218"/>
-      <c r="G26" s="218"/>
-      <c r="H26" s="218"/>
-      <c r="I26" s="218"/>
-      <c r="J26" s="218"/>
-      <c r="K26" s="218"/>
-      <c r="L26" s="218"/>
-      <c r="M26" s="218"/>
-      <c r="N26" s="218"/>
-      <c r="O26" s="218"/>
-      <c r="P26" s="218"/>
-      <c r="Q26" s="218"/>
-      <c r="R26" s="218"/>
+      <c r="B26" s="219"/>
+      <c r="C26" s="219"/>
+      <c r="D26" s="219"/>
+      <c r="E26" s="219"/>
+      <c r="F26" s="219"/>
+      <c r="G26" s="219"/>
+      <c r="H26" s="219"/>
+      <c r="I26" s="219"/>
+      <c r="J26" s="219"/>
+      <c r="K26" s="219"/>
+      <c r="L26" s="219"/>
+      <c r="M26" s="219"/>
+      <c r="N26" s="219"/>
+      <c r="O26" s="219"/>
+      <c r="P26" s="219"/>
+      <c r="Q26" s="219"/>
+      <c r="R26" s="219"/>
     </row>
     <row r="28" spans="1:195" ht="18">
-      <c r="B28" s="220"/>
-      <c r="C28" s="220"/>
-      <c r="D28" s="220"/>
-      <c r="E28" s="220"/>
-      <c r="F28" s="220"/>
-      <c r="G28" s="220"/>
-      <c r="H28" s="220"/>
-      <c r="I28" s="220"/>
-      <c r="J28" s="220"/>
-      <c r="K28" s="220"/>
-      <c r="L28" s="220"/>
-      <c r="M28" s="220"/>
-      <c r="N28" s="220"/>
-      <c r="O28" s="220"/>
-      <c r="P28" s="220"/>
-      <c r="Q28" s="220"/>
-      <c r="R28" s="220"/>
-      <c r="S28" s="219"/>
-      <c r="T28" s="219"/>
-      <c r="U28" s="219"/>
-      <c r="V28" s="219"/>
-      <c r="W28" s="219"/>
-      <c r="X28" s="219"/>
-      <c r="Y28" s="219"/>
-      <c r="Z28" s="219"/>
-      <c r="AA28" s="219"/>
-      <c r="AB28" s="219"/>
-      <c r="AC28" s="219"/>
-      <c r="AD28" s="219"/>
-      <c r="AE28" s="219"/>
-      <c r="AF28" s="219"/>
-      <c r="AG28" s="219"/>
-      <c r="AH28" s="219"/>
-      <c r="AI28" s="219"/>
-      <c r="AJ28" s="219"/>
-      <c r="AK28" s="219"/>
-      <c r="AL28" s="219"/>
-      <c r="AM28" s="219"/>
-      <c r="AN28" s="219"/>
-      <c r="AO28" s="219"/>
-      <c r="AP28" s="219"/>
-      <c r="AQ28" s="219"/>
-      <c r="AR28" s="219"/>
-      <c r="AS28" s="219"/>
-      <c r="AT28" s="219"/>
-      <c r="AU28" s="219"/>
-      <c r="AV28" s="219"/>
-      <c r="AW28" s="219"/>
-      <c r="AX28" s="219"/>
-      <c r="AY28" s="219"/>
-      <c r="AZ28" s="219"/>
-      <c r="BA28" s="219"/>
-      <c r="BB28" s="219"/>
-      <c r="BC28" s="219"/>
-      <c r="BD28" s="219"/>
-      <c r="BE28" s="219"/>
-      <c r="BF28" s="219"/>
-      <c r="BG28" s="219"/>
-      <c r="BH28" s="219"/>
-      <c r="BI28" s="219"/>
-      <c r="BJ28" s="219"/>
-      <c r="BK28" s="219"/>
-      <c r="BL28" s="219"/>
-      <c r="BM28" s="219"/>
-      <c r="BN28" s="219"/>
-      <c r="BO28" s="219"/>
-      <c r="BP28" s="219"/>
-      <c r="BQ28" s="219"/>
-      <c r="BR28" s="219"/>
-      <c r="BS28" s="219"/>
-      <c r="BT28" s="219"/>
-      <c r="BU28" s="219"/>
-      <c r="BV28" s="219"/>
-      <c r="BW28" s="219"/>
-      <c r="BX28" s="219"/>
-      <c r="BY28" s="219"/>
-      <c r="BZ28" s="219"/>
-      <c r="CA28" s="219"/>
-      <c r="CB28" s="219"/>
-      <c r="CC28" s="219"/>
-      <c r="CD28" s="219"/>
-      <c r="CE28" s="219"/>
-      <c r="CF28" s="219"/>
-      <c r="CG28" s="219"/>
-      <c r="CH28" s="219"/>
-      <c r="CI28" s="219"/>
-      <c r="CJ28" s="219"/>
-      <c r="CK28" s="219"/>
-      <c r="CL28" s="219"/>
-      <c r="CM28" s="219"/>
-      <c r="CN28" s="219"/>
-      <c r="CO28" s="219"/>
-      <c r="CP28" s="219"/>
-      <c r="CQ28" s="219"/>
-      <c r="CR28" s="219"/>
-      <c r="CS28" s="219"/>
-      <c r="CT28" s="219"/>
-      <c r="CU28" s="219"/>
-      <c r="CV28" s="219"/>
-      <c r="CW28" s="219"/>
-      <c r="CX28" s="219"/>
-      <c r="CY28" s="219"/>
-      <c r="CZ28" s="219"/>
-      <c r="DA28" s="219"/>
-      <c r="DB28" s="219"/>
-      <c r="DC28" s="219"/>
-      <c r="DD28" s="219"/>
-      <c r="DE28" s="219"/>
-      <c r="DF28" s="219"/>
-      <c r="DG28" s="219"/>
-      <c r="DH28" s="219"/>
-      <c r="DI28" s="219"/>
-      <c r="DJ28" s="219"/>
-      <c r="DK28" s="219"/>
-      <c r="DL28" s="219"/>
-      <c r="DM28" s="219"/>
-      <c r="DN28" s="219"/>
-      <c r="DO28" s="219"/>
-      <c r="DP28" s="219"/>
-      <c r="DQ28" s="219"/>
-      <c r="DR28" s="219"/>
-      <c r="DS28" s="219"/>
-      <c r="DT28" s="219"/>
-      <c r="DU28" s="219"/>
-      <c r="DV28" s="219"/>
-      <c r="DW28" s="219"/>
-      <c r="DX28" s="219"/>
-      <c r="DY28" s="219"/>
-      <c r="DZ28" s="219"/>
-      <c r="EA28" s="219"/>
-      <c r="EB28" s="219"/>
-      <c r="EC28" s="219"/>
-      <c r="ED28" s="219"/>
-      <c r="EE28" s="219"/>
-      <c r="EF28" s="219"/>
-      <c r="EG28" s="219"/>
-      <c r="EH28" s="219"/>
-      <c r="EI28" s="219"/>
-      <c r="EJ28" s="219"/>
-      <c r="EK28" s="219"/>
-      <c r="EL28" s="219"/>
-      <c r="EM28" s="219"/>
-      <c r="EN28" s="219"/>
-      <c r="EO28" s="219"/>
-      <c r="EP28" s="219"/>
-      <c r="EQ28" s="219"/>
-      <c r="ER28" s="219"/>
-      <c r="ES28" s="219"/>
-      <c r="ET28" s="219"/>
-      <c r="EU28" s="219"/>
-      <c r="EV28" s="219"/>
-      <c r="EW28" s="219"/>
-      <c r="EX28" s="219"/>
-      <c r="EY28" s="219"/>
-      <c r="EZ28" s="219"/>
-      <c r="FA28" s="219"/>
-      <c r="FB28" s="219"/>
-      <c r="FC28" s="219"/>
-      <c r="FD28" s="219"/>
-      <c r="FE28" s="219"/>
-      <c r="FF28" s="219"/>
-      <c r="FG28" s="219"/>
-      <c r="FH28" s="219"/>
-      <c r="FI28" s="219"/>
-      <c r="FJ28" s="219"/>
-      <c r="FK28" s="219"/>
-      <c r="FL28" s="219"/>
-      <c r="FM28" s="219"/>
-      <c r="FN28" s="219"/>
-      <c r="FO28" s="219"/>
-      <c r="FP28" s="219"/>
-      <c r="FQ28" s="219"/>
-      <c r="FR28" s="219"/>
-      <c r="FS28" s="219"/>
-      <c r="FT28" s="219"/>
-      <c r="FU28" s="219"/>
-      <c r="FV28" s="219"/>
-      <c r="FW28" s="219"/>
-      <c r="FX28" s="219"/>
-      <c r="FY28" s="219"/>
-      <c r="FZ28" s="219"/>
-      <c r="GA28" s="219"/>
-      <c r="GB28" s="219"/>
-      <c r="GC28" s="219"/>
-      <c r="GD28" s="219"/>
-      <c r="GE28" s="219"/>
-      <c r="GF28" s="219"/>
-      <c r="GG28" s="219"/>
-      <c r="GH28" s="219"/>
-      <c r="GI28" s="219"/>
-      <c r="GJ28" s="219"/>
-      <c r="GK28" s="219"/>
-      <c r="GL28" s="219"/>
+      <c r="B28" s="221"/>
+      <c r="C28" s="221"/>
+      <c r="D28" s="221"/>
+      <c r="E28" s="221"/>
+      <c r="F28" s="221"/>
+      <c r="G28" s="221"/>
+      <c r="H28" s="221"/>
+      <c r="I28" s="221"/>
+      <c r="J28" s="221"/>
+      <c r="K28" s="221"/>
+      <c r="L28" s="221"/>
+      <c r="M28" s="221"/>
+      <c r="N28" s="221"/>
+      <c r="O28" s="221"/>
+      <c r="P28" s="221"/>
+      <c r="Q28" s="221"/>
+      <c r="R28" s="221"/>
+      <c r="S28" s="220"/>
+      <c r="T28" s="220"/>
+      <c r="U28" s="220"/>
+      <c r="V28" s="220"/>
+      <c r="W28" s="220"/>
+      <c r="X28" s="220"/>
+      <c r="Y28" s="220"/>
+      <c r="Z28" s="220"/>
+      <c r="AA28" s="220"/>
+      <c r="AB28" s="220"/>
+      <c r="AC28" s="220"/>
+      <c r="AD28" s="220"/>
+      <c r="AE28" s="220"/>
+      <c r="AF28" s="220"/>
+      <c r="AG28" s="220"/>
+      <c r="AH28" s="220"/>
+      <c r="AI28" s="220"/>
+      <c r="AJ28" s="220"/>
+      <c r="AK28" s="220"/>
+      <c r="AL28" s="220"/>
+      <c r="AM28" s="220"/>
+      <c r="AN28" s="220"/>
+      <c r="AO28" s="220"/>
+      <c r="AP28" s="220"/>
+      <c r="AQ28" s="220"/>
+      <c r="AR28" s="220"/>
+      <c r="AS28" s="220"/>
+      <c r="AT28" s="220"/>
+      <c r="AU28" s="220"/>
+      <c r="AV28" s="220"/>
+      <c r="AW28" s="220"/>
+      <c r="AX28" s="220"/>
+      <c r="AY28" s="220"/>
+      <c r="AZ28" s="220"/>
+      <c r="BA28" s="220"/>
+      <c r="BB28" s="220"/>
+      <c r="BC28" s="220"/>
+      <c r="BD28" s="220"/>
+      <c r="BE28" s="220"/>
+      <c r="BF28" s="220"/>
+      <c r="BG28" s="220"/>
+      <c r="BH28" s="220"/>
+      <c r="BI28" s="220"/>
+      <c r="BJ28" s="220"/>
+      <c r="BK28" s="220"/>
+      <c r="BL28" s="220"/>
+      <c r="BM28" s="220"/>
+      <c r="BN28" s="220"/>
+      <c r="BO28" s="220"/>
+      <c r="BP28" s="220"/>
+      <c r="BQ28" s="220"/>
+      <c r="BR28" s="220"/>
+      <c r="BS28" s="220"/>
+      <c r="BT28" s="220"/>
+      <c r="BU28" s="220"/>
+      <c r="BV28" s="220"/>
+      <c r="BW28" s="220"/>
+      <c r="BX28" s="220"/>
+      <c r="BY28" s="220"/>
+      <c r="BZ28" s="220"/>
+      <c r="CA28" s="220"/>
+      <c r="CB28" s="220"/>
+      <c r="CC28" s="220"/>
+      <c r="CD28" s="220"/>
+      <c r="CE28" s="220"/>
+      <c r="CF28" s="220"/>
+      <c r="CG28" s="220"/>
+      <c r="CH28" s="220"/>
+      <c r="CI28" s="220"/>
+      <c r="CJ28" s="220"/>
+      <c r="CK28" s="220"/>
+      <c r="CL28" s="220"/>
+      <c r="CM28" s="220"/>
+      <c r="CN28" s="220"/>
+      <c r="CO28" s="220"/>
+      <c r="CP28" s="220"/>
+      <c r="CQ28" s="220"/>
+      <c r="CR28" s="220"/>
+      <c r="CS28" s="220"/>
+      <c r="CT28" s="220"/>
+      <c r="CU28" s="220"/>
+      <c r="CV28" s="220"/>
+      <c r="CW28" s="220"/>
+      <c r="CX28" s="220"/>
+      <c r="CY28" s="220"/>
+      <c r="CZ28" s="220"/>
+      <c r="DA28" s="220"/>
+      <c r="DB28" s="220"/>
+      <c r="DC28" s="220"/>
+      <c r="DD28" s="220"/>
+      <c r="DE28" s="220"/>
+      <c r="DF28" s="220"/>
+      <c r="DG28" s="220"/>
+      <c r="DH28" s="220"/>
+      <c r="DI28" s="220"/>
+      <c r="DJ28" s="220"/>
+      <c r="DK28" s="220"/>
+      <c r="DL28" s="220"/>
+      <c r="DM28" s="220"/>
+      <c r="DN28" s="220"/>
+      <c r="DO28" s="220"/>
+      <c r="DP28" s="220"/>
+      <c r="DQ28" s="220"/>
+      <c r="DR28" s="220"/>
+      <c r="DS28" s="220"/>
+      <c r="DT28" s="220"/>
+      <c r="DU28" s="220"/>
+      <c r="DV28" s="220"/>
+      <c r="DW28" s="220"/>
+      <c r="DX28" s="220"/>
+      <c r="DY28" s="220"/>
+      <c r="DZ28" s="220"/>
+      <c r="EA28" s="220"/>
+      <c r="EB28" s="220"/>
+      <c r="EC28" s="220"/>
+      <c r="ED28" s="220"/>
+      <c r="EE28" s="220"/>
+      <c r="EF28" s="220"/>
+      <c r="EG28" s="220"/>
+      <c r="EH28" s="220"/>
+      <c r="EI28" s="220"/>
+      <c r="EJ28" s="220"/>
+      <c r="EK28" s="220"/>
+      <c r="EL28" s="220"/>
+      <c r="EM28" s="220"/>
+      <c r="EN28" s="220"/>
+      <c r="EO28" s="220"/>
+      <c r="EP28" s="220"/>
+      <c r="EQ28" s="220"/>
+      <c r="ER28" s="220"/>
+      <c r="ES28" s="220"/>
+      <c r="ET28" s="220"/>
+      <c r="EU28" s="220"/>
+      <c r="EV28" s="220"/>
+      <c r="EW28" s="220"/>
+      <c r="EX28" s="220"/>
+      <c r="EY28" s="220"/>
+      <c r="EZ28" s="220"/>
+      <c r="FA28" s="220"/>
+      <c r="FB28" s="220"/>
+      <c r="FC28" s="220"/>
+      <c r="FD28" s="220"/>
+      <c r="FE28" s="220"/>
+      <c r="FF28" s="220"/>
+      <c r="FG28" s="220"/>
+      <c r="FH28" s="220"/>
+      <c r="FI28" s="220"/>
+      <c r="FJ28" s="220"/>
+      <c r="FK28" s="220"/>
+      <c r="FL28" s="220"/>
+      <c r="FM28" s="220"/>
+      <c r="FN28" s="220"/>
+      <c r="FO28" s="220"/>
+      <c r="FP28" s="220"/>
+      <c r="FQ28" s="220"/>
+      <c r="FR28" s="220"/>
+      <c r="FS28" s="220"/>
+      <c r="FT28" s="220"/>
+      <c r="FU28" s="220"/>
+      <c r="FV28" s="220"/>
+      <c r="FW28" s="220"/>
+      <c r="FX28" s="220"/>
+      <c r="FY28" s="220"/>
+      <c r="FZ28" s="220"/>
+      <c r="GA28" s="220"/>
+      <c r="GB28" s="220"/>
+      <c r="GC28" s="220"/>
+      <c r="GD28" s="220"/>
+      <c r="GE28" s="220"/>
+      <c r="GF28" s="220"/>
+      <c r="GG28" s="220"/>
+      <c r="GH28" s="220"/>
+      <c r="GI28" s="220"/>
+      <c r="GJ28" s="220"/>
+      <c r="GK28" s="220"/>
+      <c r="GL28" s="220"/>
       <c r="GM28" s="100"/>
     </row>
     <row r="29" spans="1:195" ht="18">
-      <c r="B29" s="218"/>
-      <c r="C29" s="218"/>
-      <c r="D29" s="218"/>
-      <c r="E29" s="218"/>
-      <c r="F29" s="218"/>
-      <c r="G29" s="218"/>
-      <c r="H29" s="218"/>
-      <c r="I29" s="218"/>
-      <c r="J29" s="218"/>
-      <c r="K29" s="218"/>
-      <c r="L29" s="218"/>
-      <c r="M29" s="218"/>
-      <c r="N29" s="218"/>
-      <c r="O29" s="218"/>
-      <c r="P29" s="218"/>
-      <c r="Q29" s="218"/>
-      <c r="R29" s="218"/>
+      <c r="B29" s="219"/>
+      <c r="C29" s="219"/>
+      <c r="D29" s="219"/>
+      <c r="E29" s="219"/>
+      <c r="F29" s="219"/>
+      <c r="G29" s="219"/>
+      <c r="H29" s="219"/>
+      <c r="I29" s="219"/>
+      <c r="J29" s="219"/>
+      <c r="K29" s="219"/>
+      <c r="L29" s="219"/>
+      <c r="M29" s="219"/>
+      <c r="N29" s="219"/>
+      <c r="O29" s="219"/>
+      <c r="P29" s="219"/>
+      <c r="Q29" s="219"/>
+      <c r="R29" s="219"/>
     </row>
     <row r="30" spans="1:195" ht="13.5" customHeight="1">
-      <c r="A30" s="221"/>
-      <c r="B30" s="221"/>
-      <c r="C30" s="221"/>
-      <c r="D30" s="221"/>
-      <c r="E30" s="221"/>
-      <c r="F30" s="221"/>
-      <c r="G30" s="221"/>
-      <c r="H30" s="221"/>
-      <c r="I30" s="221"/>
-      <c r="J30" s="221"/>
+      <c r="A30" s="222"/>
+      <c r="B30" s="222"/>
+      <c r="C30" s="222"/>
+      <c r="D30" s="222"/>
+      <c r="E30" s="222"/>
+      <c r="F30" s="222"/>
+      <c r="G30" s="222"/>
+      <c r="H30" s="222"/>
+      <c r="I30" s="222"/>
+      <c r="J30" s="222"/>
       <c r="K30" s="101"/>
       <c r="L30" s="101"/>
       <c r="M30" s="101"/>
@@ -8252,16 +8349,16 @@
       <c r="R30" s="101"/>
     </row>
     <row r="31" spans="1:195" ht="13.5" customHeight="1">
-      <c r="A31" s="221"/>
-      <c r="B31" s="221"/>
-      <c r="C31" s="221"/>
-      <c r="D31" s="221"/>
-      <c r="E31" s="221"/>
-      <c r="F31" s="221"/>
-      <c r="G31" s="221"/>
-      <c r="H31" s="221"/>
-      <c r="I31" s="221"/>
-      <c r="J31" s="221"/>
+      <c r="A31" s="222"/>
+      <c r="B31" s="222"/>
+      <c r="C31" s="222"/>
+      <c r="D31" s="222"/>
+      <c r="E31" s="222"/>
+      <c r="F31" s="222"/>
+      <c r="G31" s="222"/>
+      <c r="H31" s="222"/>
+      <c r="I31" s="222"/>
+      <c r="J31" s="222"/>
       <c r="K31" s="101"/>
       <c r="L31" s="101"/>
       <c r="M31" s="101"/>
@@ -8846,7 +8943,7 @@
   <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22:J22"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -8862,10 +8959,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="222" t="s">
+      <c r="A1" s="223" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="222"/>
+      <c r="B1" s="223"/>
       <c r="C1" s="30" t="s">
         <v>1</v>
       </c>
@@ -8888,12 +8985,12 @@
         <v>7</v>
       </c>
       <c r="J1" s="81" t="s">
-        <v>172</v>
+        <v>352</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="222"/>
-      <c r="B2" s="222"/>
+      <c r="A2" s="223"/>
+      <c r="B2" s="223"/>
       <c r="C2" s="30" t="s">
         <v>2</v>
       </c>
@@ -8915,8 +9012,8 @@
       <c r="I2" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="34">
-        <v>42821</v>
+      <c r="J2" s="34" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="12" customHeight="1">
@@ -8932,14 +9029,14 @@
       <c r="D4" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="223" t="s">
+      <c r="E4" s="224" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="223"/>
-      <c r="G4" s="223"/>
-      <c r="H4" s="223"/>
-      <c r="I4" s="223"/>
-      <c r="J4" s="223"/>
+      <c r="F4" s="224"/>
+      <c r="G4" s="224"/>
+      <c r="H4" s="224"/>
+      <c r="I4" s="224"/>
+      <c r="J4" s="224"/>
     </row>
     <row r="5" spans="1:10" s="25" customFormat="1" ht="47.25" customHeight="1">
       <c r="A5" s="108">
@@ -8954,14 +9051,14 @@
       <c r="D5" s="34">
         <v>42821</v>
       </c>
-      <c r="E5" s="224" t="s">
+      <c r="E5" s="225" t="s">
         <v>157</v>
       </c>
-      <c r="F5" s="224"/>
-      <c r="G5" s="224"/>
-      <c r="H5" s="224"/>
-      <c r="I5" s="224"/>
-      <c r="J5" s="224"/>
+      <c r="F5" s="225"/>
+      <c r="G5" s="225"/>
+      <c r="H5" s="225"/>
+      <c r="I5" s="225"/>
+      <c r="J5" s="225"/>
     </row>
     <row r="6" spans="1:10" ht="12.75">
       <c r="A6" s="72">
@@ -8976,14 +9073,14 @@
       <c r="D6" s="148">
         <v>42877</v>
       </c>
-      <c r="E6" s="225" t="s">
-        <v>338</v>
-      </c>
-      <c r="F6" s="226"/>
-      <c r="G6" s="226"/>
-      <c r="H6" s="226"/>
-      <c r="I6" s="226"/>
-      <c r="J6" s="227"/>
+      <c r="E6" s="226" t="s">
+        <v>337</v>
+      </c>
+      <c r="F6" s="227"/>
+      <c r="G6" s="227"/>
+      <c r="H6" s="227"/>
+      <c r="I6" s="227"/>
+      <c r="J6" s="228"/>
     </row>
     <row r="7" spans="1:10" ht="12" customHeight="1">
       <c r="A7" s="73">
@@ -8998,14 +9095,14 @@
       <c r="D7" s="150">
         <v>42879</v>
       </c>
-      <c r="E7" s="229" t="s">
-        <v>340</v>
-      </c>
-      <c r="F7" s="230"/>
-      <c r="G7" s="230"/>
-      <c r="H7" s="230"/>
-      <c r="I7" s="230"/>
-      <c r="J7" s="231"/>
+      <c r="E7" s="230" t="s">
+        <v>339</v>
+      </c>
+      <c r="F7" s="231"/>
+      <c r="G7" s="231"/>
+      <c r="H7" s="231"/>
+      <c r="I7" s="231"/>
+      <c r="J7" s="232"/>
     </row>
     <row r="8" spans="1:10" ht="12" customHeight="1">
       <c r="A8" s="74">
@@ -9020,14 +9117,14 @@
       <c r="D8" s="163">
         <v>42983</v>
       </c>
-      <c r="E8" s="232" t="s">
-        <v>349</v>
-      </c>
-      <c r="F8" s="233"/>
-      <c r="G8" s="233"/>
-      <c r="H8" s="233"/>
-      <c r="I8" s="233"/>
-      <c r="J8" s="234"/>
+      <c r="E8" s="233" t="s">
+        <v>348</v>
+      </c>
+      <c r="F8" s="234"/>
+      <c r="G8" s="234"/>
+      <c r="H8" s="234"/>
+      <c r="I8" s="234"/>
+      <c r="J8" s="235"/>
     </row>
     <row r="9" spans="1:10" ht="12" customHeight="1">
       <c r="A9" s="75">
@@ -9037,19 +9134,19 @@
         <v>5</v>
       </c>
       <c r="C9" s="167" t="s">
+        <v>352</v>
+      </c>
+      <c r="D9" s="168" t="s">
         <v>353</v>
       </c>
-      <c r="D9" s="168" t="s">
-        <v>354</v>
-      </c>
-      <c r="E9" s="235" t="s">
-        <v>406</v>
-      </c>
-      <c r="F9" s="236"/>
-      <c r="G9" s="236"/>
-      <c r="H9" s="236"/>
-      <c r="I9" s="236"/>
-      <c r="J9" s="237"/>
+      <c r="E9" s="236" t="s">
+        <v>402</v>
+      </c>
+      <c r="F9" s="237"/>
+      <c r="G9" s="237"/>
+      <c r="H9" s="237"/>
+      <c r="I9" s="237"/>
+      <c r="J9" s="238"/>
     </row>
     <row r="10" spans="1:10" ht="12" customHeight="1">
       <c r="A10" s="76">
@@ -9060,12 +9157,12 @@
       </c>
       <c r="C10" s="66"/>
       <c r="D10" s="36"/>
-      <c r="E10" s="238"/>
-      <c r="F10" s="239"/>
-      <c r="G10" s="239"/>
-      <c r="H10" s="239"/>
-      <c r="I10" s="239"/>
-      <c r="J10" s="240"/>
+      <c r="E10" s="239"/>
+      <c r="F10" s="240"/>
+      <c r="G10" s="240"/>
+      <c r="H10" s="240"/>
+      <c r="I10" s="240"/>
+      <c r="J10" s="241"/>
     </row>
     <row r="11" spans="1:10" ht="12" customHeight="1">
       <c r="A11" s="77">
@@ -9076,12 +9173,12 @@
       </c>
       <c r="C11" s="66"/>
       <c r="D11" s="36"/>
-      <c r="E11" s="238"/>
-      <c r="F11" s="239"/>
-      <c r="G11" s="239"/>
-      <c r="H11" s="239"/>
-      <c r="I11" s="239"/>
-      <c r="J11" s="240"/>
+      <c r="E11" s="239"/>
+      <c r="F11" s="240"/>
+      <c r="G11" s="240"/>
+      <c r="H11" s="240"/>
+      <c r="I11" s="240"/>
+      <c r="J11" s="241"/>
     </row>
     <row r="12" spans="1:10" ht="12" customHeight="1">
       <c r="A12" s="78">
@@ -9092,12 +9189,12 @@
       </c>
       <c r="C12" s="66"/>
       <c r="D12" s="36"/>
-      <c r="E12" s="238"/>
-      <c r="F12" s="239"/>
-      <c r="G12" s="239"/>
-      <c r="H12" s="239"/>
-      <c r="I12" s="239"/>
-      <c r="J12" s="240"/>
+      <c r="E12" s="239"/>
+      <c r="F12" s="240"/>
+      <c r="G12" s="240"/>
+      <c r="H12" s="240"/>
+      <c r="I12" s="240"/>
+      <c r="J12" s="241"/>
     </row>
     <row r="13" spans="1:10" ht="12" customHeight="1">
       <c r="A13" s="79">
@@ -9108,12 +9205,12 @@
       </c>
       <c r="C13" s="66"/>
       <c r="D13" s="36"/>
-      <c r="E13" s="238"/>
-      <c r="F13" s="239"/>
-      <c r="G13" s="239"/>
-      <c r="H13" s="239"/>
-      <c r="I13" s="239"/>
-      <c r="J13" s="240"/>
+      <c r="E13" s="239"/>
+      <c r="F13" s="240"/>
+      <c r="G13" s="240"/>
+      <c r="H13" s="240"/>
+      <c r="I13" s="240"/>
+      <c r="J13" s="241"/>
     </row>
     <row r="14" spans="1:10" ht="12" customHeight="1">
       <c r="A14" s="80">
@@ -9124,12 +9221,12 @@
       </c>
       <c r="C14" s="66"/>
       <c r="D14" s="36"/>
-      <c r="E14" s="238"/>
-      <c r="F14" s="239"/>
-      <c r="G14" s="239"/>
-      <c r="H14" s="239"/>
-      <c r="I14" s="239"/>
-      <c r="J14" s="240"/>
+      <c r="E14" s="239"/>
+      <c r="F14" s="240"/>
+      <c r="G14" s="240"/>
+      <c r="H14" s="240"/>
+      <c r="I14" s="240"/>
+      <c r="J14" s="241"/>
     </row>
     <row r="15" spans="1:10" ht="12" customHeight="1">
       <c r="A15" s="36">
@@ -9140,12 +9237,12 @@
       </c>
       <c r="C15" s="66"/>
       <c r="D15" s="36"/>
-      <c r="E15" s="228"/>
-      <c r="F15" s="228"/>
-      <c r="G15" s="228"/>
-      <c r="H15" s="228"/>
-      <c r="I15" s="228"/>
-      <c r="J15" s="228"/>
+      <c r="E15" s="229"/>
+      <c r="F15" s="229"/>
+      <c r="G15" s="229"/>
+      <c r="H15" s="229"/>
+      <c r="I15" s="229"/>
+      <c r="J15" s="229"/>
     </row>
     <row r="16" spans="1:10" ht="12" customHeight="1">
       <c r="A16" s="72">
@@ -9156,12 +9253,12 @@
       </c>
       <c r="C16" s="66"/>
       <c r="D16" s="36"/>
-      <c r="E16" s="228"/>
-      <c r="F16" s="228"/>
-      <c r="G16" s="228"/>
-      <c r="H16" s="228"/>
-      <c r="I16" s="228"/>
-      <c r="J16" s="228"/>
+      <c r="E16" s="229"/>
+      <c r="F16" s="229"/>
+      <c r="G16" s="229"/>
+      <c r="H16" s="229"/>
+      <c r="I16" s="229"/>
+      <c r="J16" s="229"/>
     </row>
     <row r="17" spans="1:10" ht="12" customHeight="1">
       <c r="A17" s="73">
@@ -9172,12 +9269,12 @@
       </c>
       <c r="C17" s="66"/>
       <c r="D17" s="36"/>
-      <c r="E17" s="228"/>
-      <c r="F17" s="228"/>
-      <c r="G17" s="228"/>
-      <c r="H17" s="228"/>
-      <c r="I17" s="228"/>
-      <c r="J17" s="228"/>
+      <c r="E17" s="229"/>
+      <c r="F17" s="229"/>
+      <c r="G17" s="229"/>
+      <c r="H17" s="229"/>
+      <c r="I17" s="229"/>
+      <c r="J17" s="229"/>
     </row>
     <row r="18" spans="1:10" ht="12" customHeight="1">
       <c r="A18" s="74">
@@ -9188,12 +9285,12 @@
       </c>
       <c r="C18" s="66"/>
       <c r="D18" s="36"/>
-      <c r="E18" s="228"/>
-      <c r="F18" s="228"/>
-      <c r="G18" s="228"/>
-      <c r="H18" s="228"/>
-      <c r="I18" s="228"/>
-      <c r="J18" s="228"/>
+      <c r="E18" s="229"/>
+      <c r="F18" s="229"/>
+      <c r="G18" s="229"/>
+      <c r="H18" s="229"/>
+      <c r="I18" s="229"/>
+      <c r="J18" s="229"/>
     </row>
     <row r="19" spans="1:10" ht="12" customHeight="1">
       <c r="A19" s="75">
@@ -9204,12 +9301,12 @@
       </c>
       <c r="C19" s="66"/>
       <c r="D19" s="36"/>
-      <c r="E19" s="228"/>
-      <c r="F19" s="228"/>
-      <c r="G19" s="228"/>
-      <c r="H19" s="228"/>
-      <c r="I19" s="228"/>
-      <c r="J19" s="228"/>
+      <c r="E19" s="229"/>
+      <c r="F19" s="229"/>
+      <c r="G19" s="229"/>
+      <c r="H19" s="229"/>
+      <c r="I19" s="229"/>
+      <c r="J19" s="229"/>
     </row>
     <row r="20" spans="1:10" ht="12" customHeight="1">
       <c r="A20" s="76">
@@ -9220,12 +9317,12 @@
       </c>
       <c r="C20" s="66"/>
       <c r="D20" s="36"/>
-      <c r="E20" s="228"/>
-      <c r="F20" s="228"/>
-      <c r="G20" s="228"/>
-      <c r="H20" s="228"/>
-      <c r="I20" s="228"/>
-      <c r="J20" s="228"/>
+      <c r="E20" s="229"/>
+      <c r="F20" s="229"/>
+      <c r="G20" s="229"/>
+      <c r="H20" s="229"/>
+      <c r="I20" s="229"/>
+      <c r="J20" s="229"/>
     </row>
     <row r="21" spans="1:10" ht="12" customHeight="1">
       <c r="A21" s="77">
@@ -9236,12 +9333,12 @@
       </c>
       <c r="C21" s="66"/>
       <c r="D21" s="36"/>
-      <c r="E21" s="228"/>
-      <c r="F21" s="228"/>
-      <c r="G21" s="228"/>
-      <c r="H21" s="228"/>
-      <c r="I21" s="228"/>
-      <c r="J21" s="228"/>
+      <c r="E21" s="229"/>
+      <c r="F21" s="229"/>
+      <c r="G21" s="229"/>
+      <c r="H21" s="229"/>
+      <c r="I21" s="229"/>
+      <c r="J21" s="229"/>
     </row>
     <row r="22" spans="1:10" ht="12" customHeight="1">
       <c r="A22" s="78">
@@ -9252,12 +9349,12 @@
       </c>
       <c r="C22" s="66"/>
       <c r="D22" s="36"/>
-      <c r="E22" s="228"/>
-      <c r="F22" s="228"/>
-      <c r="G22" s="228"/>
-      <c r="H22" s="228"/>
-      <c r="I22" s="228"/>
-      <c r="J22" s="228"/>
+      <c r="E22" s="229"/>
+      <c r="F22" s="229"/>
+      <c r="G22" s="229"/>
+      <c r="H22" s="229"/>
+      <c r="I22" s="229"/>
+      <c r="J22" s="229"/>
     </row>
     <row r="23" spans="1:10" ht="12" customHeight="1">
       <c r="A23" s="79">
@@ -9268,12 +9365,12 @@
       </c>
       <c r="C23" s="66"/>
       <c r="D23" s="36"/>
-      <c r="E23" s="228"/>
-      <c r="F23" s="228"/>
-      <c r="G23" s="228"/>
-      <c r="H23" s="228"/>
-      <c r="I23" s="228"/>
-      <c r="J23" s="228"/>
+      <c r="E23" s="229"/>
+      <c r="F23" s="229"/>
+      <c r="G23" s="229"/>
+      <c r="H23" s="229"/>
+      <c r="I23" s="229"/>
+      <c r="J23" s="229"/>
     </row>
     <row r="24" spans="1:10" ht="12" customHeight="1">
       <c r="A24" s="80">
@@ -9284,12 +9381,12 @@
       </c>
       <c r="C24" s="66"/>
       <c r="D24" s="36"/>
-      <c r="E24" s="228"/>
-      <c r="F24" s="228"/>
-      <c r="G24" s="228"/>
-      <c r="H24" s="228"/>
-      <c r="I24" s="228"/>
-      <c r="J24" s="228"/>
+      <c r="E24" s="229"/>
+      <c r="F24" s="229"/>
+      <c r="G24" s="229"/>
+      <c r="H24" s="229"/>
+      <c r="I24" s="229"/>
+      <c r="J24" s="229"/>
     </row>
     <row r="25" spans="1:10" ht="12" customHeight="1">
       <c r="A25" s="36">
@@ -9300,12 +9397,12 @@
       </c>
       <c r="C25" s="66"/>
       <c r="D25" s="36"/>
-      <c r="E25" s="228"/>
-      <c r="F25" s="228"/>
-      <c r="G25" s="228"/>
-      <c r="H25" s="228"/>
-      <c r="I25" s="228"/>
-      <c r="J25" s="228"/>
+      <c r="E25" s="229"/>
+      <c r="F25" s="229"/>
+      <c r="G25" s="229"/>
+      <c r="H25" s="229"/>
+      <c r="I25" s="229"/>
+      <c r="J25" s="229"/>
     </row>
     <row r="26" spans="1:10" ht="12" customHeight="1">
       <c r="A26" s="72">
@@ -9316,12 +9413,12 @@
       </c>
       <c r="C26" s="66"/>
       <c r="D26" s="36"/>
-      <c r="E26" s="228"/>
-      <c r="F26" s="228"/>
-      <c r="G26" s="228"/>
-      <c r="H26" s="228"/>
-      <c r="I26" s="228"/>
-      <c r="J26" s="228"/>
+      <c r="E26" s="229"/>
+      <c r="F26" s="229"/>
+      <c r="G26" s="229"/>
+      <c r="H26" s="229"/>
+      <c r="I26" s="229"/>
+      <c r="J26" s="229"/>
     </row>
     <row r="27" spans="1:10" ht="12" customHeight="1">
       <c r="A27" s="73">
@@ -9332,12 +9429,12 @@
       </c>
       <c r="C27" s="66"/>
       <c r="D27" s="36"/>
-      <c r="E27" s="228"/>
-      <c r="F27" s="228"/>
-      <c r="G27" s="228"/>
-      <c r="H27" s="228"/>
-      <c r="I27" s="228"/>
-      <c r="J27" s="228"/>
+      <c r="E27" s="229"/>
+      <c r="F27" s="229"/>
+      <c r="G27" s="229"/>
+      <c r="H27" s="229"/>
+      <c r="I27" s="229"/>
+      <c r="J27" s="229"/>
     </row>
     <row r="28" spans="1:10" ht="12" customHeight="1">
       <c r="A28" s="74">
@@ -9348,12 +9445,12 @@
       </c>
       <c r="C28" s="66"/>
       <c r="D28" s="36"/>
-      <c r="E28" s="228"/>
-      <c r="F28" s="228"/>
-      <c r="G28" s="228"/>
-      <c r="H28" s="228"/>
-      <c r="I28" s="228"/>
-      <c r="J28" s="228"/>
+      <c r="E28" s="229"/>
+      <c r="F28" s="229"/>
+      <c r="G28" s="229"/>
+      <c r="H28" s="229"/>
+      <c r="I28" s="229"/>
+      <c r="J28" s="229"/>
     </row>
     <row r="29" spans="1:10" ht="12" customHeight="1">
       <c r="A29" s="75">
@@ -9364,12 +9461,12 @@
       </c>
       <c r="C29" s="66"/>
       <c r="D29" s="36"/>
-      <c r="E29" s="228"/>
-      <c r="F29" s="228"/>
-      <c r="G29" s="228"/>
-      <c r="H29" s="228"/>
-      <c r="I29" s="228"/>
-      <c r="J29" s="228"/>
+      <c r="E29" s="229"/>
+      <c r="F29" s="229"/>
+      <c r="G29" s="229"/>
+      <c r="H29" s="229"/>
+      <c r="I29" s="229"/>
+      <c r="J29" s="229"/>
     </row>
     <row r="30" spans="1:10" ht="12" customHeight="1">
       <c r="A30" s="76">
@@ -9380,12 +9477,12 @@
       </c>
       <c r="C30" s="66"/>
       <c r="D30" s="36"/>
-      <c r="E30" s="228"/>
-      <c r="F30" s="228"/>
-      <c r="G30" s="228"/>
-      <c r="H30" s="228"/>
-      <c r="I30" s="228"/>
-      <c r="J30" s="228"/>
+      <c r="E30" s="229"/>
+      <c r="F30" s="229"/>
+      <c r="G30" s="229"/>
+      <c r="H30" s="229"/>
+      <c r="I30" s="229"/>
+      <c r="J30" s="229"/>
     </row>
     <row r="31" spans="1:10" ht="12" customHeight="1">
       <c r="A31" s="77">
@@ -9396,12 +9493,12 @@
       </c>
       <c r="C31" s="66"/>
       <c r="D31" s="36"/>
-      <c r="E31" s="228"/>
-      <c r="F31" s="228"/>
-      <c r="G31" s="228"/>
-      <c r="H31" s="228"/>
-      <c r="I31" s="228"/>
-      <c r="J31" s="228"/>
+      <c r="E31" s="229"/>
+      <c r="F31" s="229"/>
+      <c r="G31" s="229"/>
+      <c r="H31" s="229"/>
+      <c r="I31" s="229"/>
+      <c r="J31" s="229"/>
     </row>
     <row r="32" spans="1:10" ht="12" customHeight="1">
       <c r="A32" s="78">
@@ -9412,12 +9509,12 @@
       </c>
       <c r="C32" s="66"/>
       <c r="D32" s="36"/>
-      <c r="E32" s="228"/>
-      <c r="F32" s="228"/>
-      <c r="G32" s="228"/>
-      <c r="H32" s="228"/>
-      <c r="I32" s="228"/>
-      <c r="J32" s="228"/>
+      <c r="E32" s="229"/>
+      <c r="F32" s="229"/>
+      <c r="G32" s="229"/>
+      <c r="H32" s="229"/>
+      <c r="I32" s="229"/>
+      <c r="J32" s="229"/>
     </row>
     <row r="33" spans="1:10" ht="12" customHeight="1">
       <c r="A33" s="79">
@@ -9428,12 +9525,12 @@
       </c>
       <c r="C33" s="66"/>
       <c r="D33" s="36"/>
-      <c r="E33" s="228"/>
-      <c r="F33" s="228"/>
-      <c r="G33" s="228"/>
-      <c r="H33" s="228"/>
-      <c r="I33" s="228"/>
-      <c r="J33" s="228"/>
+      <c r="E33" s="229"/>
+      <c r="F33" s="229"/>
+      <c r="G33" s="229"/>
+      <c r="H33" s="229"/>
+      <c r="I33" s="229"/>
+      <c r="J33" s="229"/>
     </row>
     <row r="34" spans="1:10" ht="12" customHeight="1">
       <c r="A34" s="80">
@@ -9444,12 +9541,12 @@
       </c>
       <c r="C34" s="66"/>
       <c r="D34" s="36"/>
-      <c r="E34" s="228"/>
-      <c r="F34" s="228"/>
-      <c r="G34" s="228"/>
-      <c r="H34" s="228"/>
-      <c r="I34" s="228"/>
-      <c r="J34" s="228"/>
+      <c r="E34" s="229"/>
+      <c r="F34" s="229"/>
+      <c r="G34" s="229"/>
+      <c r="H34" s="229"/>
+      <c r="I34" s="229"/>
+      <c r="J34" s="229"/>
     </row>
   </sheetData>
   <mergeCells count="32">
@@ -9509,8 +9606,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A10" zoomScale="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="L40" sqref="L40"/>
+    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12:J39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -9529,10 +9626,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="222" t="s">
+      <c r="A1" s="223" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="222"/>
+      <c r="B1" s="223"/>
       <c r="C1" s="30" t="s">
         <v>1</v>
       </c>
@@ -9559,12 +9656,12 @@
       </c>
       <c r="J1" s="59" t="str">
         <f>'Update History'!J1</f>
-        <v>Thị Phượng</v>
+        <v>Tấn Đạt</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="222"/>
-      <c r="B2" s="222"/>
+      <c r="A2" s="223"/>
+      <c r="B2" s="223"/>
       <c r="C2" s="30" t="s">
         <v>2</v>
       </c>
@@ -9589,26 +9686,26 @@
       <c r="I2" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="59">
+      <c r="J2" s="59" t="str">
         <f>'Update History'!J2</f>
-        <v>42821</v>
+        <v>26/01/2018</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="12" customHeight="1">
-      <c r="A4" s="241" t="s">
+      <c r="A4" s="242" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="243"/>
-      <c r="C4" s="243"/>
-      <c r="D4" s="243"/>
-      <c r="E4" s="243"/>
-      <c r="F4" s="243"/>
-      <c r="G4" s="243"/>
-      <c r="H4" s="242"/>
-      <c r="I4" s="241" t="s">
+      <c r="B4" s="244"/>
+      <c r="C4" s="244"/>
+      <c r="D4" s="244"/>
+      <c r="E4" s="244"/>
+      <c r="F4" s="244"/>
+      <c r="G4" s="244"/>
+      <c r="H4" s="243"/>
+      <c r="I4" s="242" t="s">
         <v>38</v>
       </c>
-      <c r="J4" s="242"/>
+      <c r="J4" s="243"/>
     </row>
     <row r="5" spans="1:10" ht="12" customHeight="1">
       <c r="A5" s="38"/>
@@ -9619,10 +9716,10 @@
       <c r="F5" s="39"/>
       <c r="G5" s="39"/>
       <c r="H5" s="40"/>
-      <c r="I5" s="248" t="s">
+      <c r="I5" s="249" t="s">
         <v>226</v>
       </c>
-      <c r="J5" s="249"/>
+      <c r="J5" s="250"/>
     </row>
     <row r="6" spans="1:10" ht="12" customHeight="1">
       <c r="A6" s="38"/>
@@ -9633,8 +9730,8 @@
       <c r="F6" s="39"/>
       <c r="G6" s="39"/>
       <c r="H6" s="41"/>
-      <c r="I6" s="250"/>
-      <c r="J6" s="251"/>
+      <c r="I6" s="251"/>
+      <c r="J6" s="252"/>
     </row>
     <row r="7" spans="1:10" ht="12" customHeight="1">
       <c r="A7" s="38"/>
@@ -9645,8 +9742,8 @@
       <c r="F7" s="39"/>
       <c r="G7" s="39"/>
       <c r="H7" s="41"/>
-      <c r="I7" s="250"/>
-      <c r="J7" s="251"/>
+      <c r="I7" s="251"/>
+      <c r="J7" s="252"/>
     </row>
     <row r="8" spans="1:10" ht="12" customHeight="1">
       <c r="A8" s="38"/>
@@ -9657,8 +9754,8 @@
       <c r="F8" s="39"/>
       <c r="G8" s="39"/>
       <c r="H8" s="41"/>
-      <c r="I8" s="250"/>
-      <c r="J8" s="251"/>
+      <c r="I8" s="251"/>
+      <c r="J8" s="252"/>
     </row>
     <row r="9" spans="1:10" ht="12" customHeight="1">
       <c r="A9" s="38"/>
@@ -9669,8 +9766,8 @@
       <c r="F9" s="39"/>
       <c r="G9" s="39"/>
       <c r="H9" s="41"/>
-      <c r="I9" s="250"/>
-      <c r="J9" s="251"/>
+      <c r="I9" s="251"/>
+      <c r="J9" s="252"/>
     </row>
     <row r="10" spans="1:10" ht="12" customHeight="1">
       <c r="A10" s="38"/>
@@ -9681,8 +9778,8 @@
       <c r="F10" s="39"/>
       <c r="G10" s="39"/>
       <c r="H10" s="41"/>
-      <c r="I10" s="252"/>
-      <c r="J10" s="253"/>
+      <c r="I10" s="253"/>
+      <c r="J10" s="254"/>
     </row>
     <row r="11" spans="1:10" ht="12" customHeight="1">
       <c r="A11" s="38"/>
@@ -9693,10 +9790,10 @@
       <c r="F11" s="39"/>
       <c r="G11" s="39"/>
       <c r="H11" s="42"/>
-      <c r="I11" s="241" t="s">
+      <c r="I11" s="242" t="s">
         <v>39</v>
       </c>
-      <c r="J11" s="242"/>
+      <c r="J11" s="243"/>
     </row>
     <row r="12" spans="1:10" ht="12" customHeight="1">
       <c r="A12" s="38"/>
@@ -9707,10 +9804,10 @@
       <c r="F12" s="39"/>
       <c r="G12" s="39"/>
       <c r="H12" s="41"/>
-      <c r="I12" s="244" t="s">
+      <c r="I12" s="245" t="s">
         <v>227</v>
       </c>
-      <c r="J12" s="245"/>
+      <c r="J12" s="246"/>
     </row>
     <row r="13" spans="1:10" ht="12" customHeight="1">
       <c r="A13" s="38"/>
@@ -9721,8 +9818,8 @@
       <c r="F13" s="39"/>
       <c r="G13" s="39"/>
       <c r="H13" s="41"/>
-      <c r="I13" s="246"/>
-      <c r="J13" s="247"/>
+      <c r="I13" s="247"/>
+      <c r="J13" s="248"/>
     </row>
     <row r="14" spans="1:10" ht="12" customHeight="1">
       <c r="A14" s="38"/>
@@ -9733,8 +9830,8 @@
       <c r="F14" s="39"/>
       <c r="G14" s="39"/>
       <c r="H14" s="41"/>
-      <c r="I14" s="246"/>
-      <c r="J14" s="247"/>
+      <c r="I14" s="247"/>
+      <c r="J14" s="248"/>
     </row>
     <row r="15" spans="1:10" ht="12" customHeight="1">
       <c r="A15" s="38"/>
@@ -9745,8 +9842,8 @@
       <c r="F15" s="39"/>
       <c r="G15" s="39"/>
       <c r="H15" s="41"/>
-      <c r="I15" s="246"/>
-      <c r="J15" s="247"/>
+      <c r="I15" s="247"/>
+      <c r="J15" s="248"/>
     </row>
     <row r="16" spans="1:10" ht="12" customHeight="1">
       <c r="A16" s="38"/>
@@ -9757,8 +9854,8 @@
       <c r="F16" s="39"/>
       <c r="G16" s="39"/>
       <c r="H16" s="41"/>
-      <c r="I16" s="246"/>
-      <c r="J16" s="247"/>
+      <c r="I16" s="247"/>
+      <c r="J16" s="248"/>
     </row>
     <row r="17" spans="1:10" ht="12" customHeight="1">
       <c r="A17" s="38"/>
@@ -9769,8 +9866,8 @@
       <c r="F17" s="39"/>
       <c r="G17" s="39"/>
       <c r="H17" s="41"/>
-      <c r="I17" s="246"/>
-      <c r="J17" s="247"/>
+      <c r="I17" s="247"/>
+      <c r="J17" s="248"/>
     </row>
     <row r="18" spans="1:10" ht="12" customHeight="1">
       <c r="A18" s="38"/>
@@ -9781,8 +9878,8 @@
       <c r="F18" s="39"/>
       <c r="G18" s="39"/>
       <c r="H18" s="41"/>
-      <c r="I18" s="246"/>
-      <c r="J18" s="247"/>
+      <c r="I18" s="247"/>
+      <c r="J18" s="248"/>
     </row>
     <row r="19" spans="1:10" ht="12" customHeight="1">
       <c r="A19" s="38"/>
@@ -9793,8 +9890,8 @@
       <c r="F19" s="39"/>
       <c r="G19" s="39"/>
       <c r="H19" s="41"/>
-      <c r="I19" s="246"/>
-      <c r="J19" s="247"/>
+      <c r="I19" s="247"/>
+      <c r="J19" s="248"/>
     </row>
     <row r="20" spans="1:10" ht="12" customHeight="1">
       <c r="A20" s="38"/>
@@ -9805,8 +9902,8 @@
       <c r="F20" s="39"/>
       <c r="G20" s="39"/>
       <c r="H20" s="41"/>
-      <c r="I20" s="246"/>
-      <c r="J20" s="247"/>
+      <c r="I20" s="247"/>
+      <c r="J20" s="248"/>
     </row>
     <row r="21" spans="1:10" ht="12" customHeight="1">
       <c r="A21" s="38"/>
@@ -9817,8 +9914,8 @@
       <c r="F21" s="39"/>
       <c r="G21" s="39"/>
       <c r="H21" s="41"/>
-      <c r="I21" s="246"/>
-      <c r="J21" s="247"/>
+      <c r="I21" s="247"/>
+      <c r="J21" s="248"/>
     </row>
     <row r="22" spans="1:10" ht="12" customHeight="1">
       <c r="A22" s="38"/>
@@ -9829,8 +9926,8 @@
       <c r="F22" s="39"/>
       <c r="G22" s="39"/>
       <c r="H22" s="41"/>
-      <c r="I22" s="246"/>
-      <c r="J22" s="247"/>
+      <c r="I22" s="247"/>
+      <c r="J22" s="248"/>
     </row>
     <row r="23" spans="1:10" ht="12" customHeight="1">
       <c r="A23" s="38"/>
@@ -9841,8 +9938,8 @@
       <c r="F23" s="39"/>
       <c r="G23" s="39"/>
       <c r="H23" s="41"/>
-      <c r="I23" s="246"/>
-      <c r="J23" s="247"/>
+      <c r="I23" s="247"/>
+      <c r="J23" s="248"/>
     </row>
     <row r="24" spans="1:10" ht="12" customHeight="1">
       <c r="A24" s="38"/>
@@ -9853,8 +9950,8 @@
       <c r="F24" s="39"/>
       <c r="G24" s="39"/>
       <c r="H24" s="41"/>
-      <c r="I24" s="246"/>
-      <c r="J24" s="247"/>
+      <c r="I24" s="247"/>
+      <c r="J24" s="248"/>
     </row>
     <row r="25" spans="1:10" ht="12" customHeight="1">
       <c r="A25" s="38"/>
@@ -9865,8 +9962,8 @@
       <c r="F25" s="39"/>
       <c r="G25" s="39"/>
       <c r="H25" s="41"/>
-      <c r="I25" s="246"/>
-      <c r="J25" s="247"/>
+      <c r="I25" s="247"/>
+      <c r="J25" s="248"/>
     </row>
     <row r="26" spans="1:10" ht="12" customHeight="1">
       <c r="A26" s="38"/>
@@ -9877,8 +9974,8 @@
       <c r="F26" s="39"/>
       <c r="G26" s="39"/>
       <c r="H26" s="41"/>
-      <c r="I26" s="246"/>
-      <c r="J26" s="247"/>
+      <c r="I26" s="247"/>
+      <c r="J26" s="248"/>
     </row>
     <row r="27" spans="1:10" ht="12" customHeight="1">
       <c r="A27" s="38"/>
@@ -9889,8 +9986,8 @@
       <c r="F27" s="39"/>
       <c r="G27" s="39"/>
       <c r="H27" s="41"/>
-      <c r="I27" s="246"/>
-      <c r="J27" s="247"/>
+      <c r="I27" s="247"/>
+      <c r="J27" s="248"/>
     </row>
     <row r="28" spans="1:10" ht="12" customHeight="1">
       <c r="A28" s="38"/>
@@ -9901,8 +9998,8 @@
       <c r="F28" s="39"/>
       <c r="G28" s="39"/>
       <c r="H28" s="41"/>
-      <c r="I28" s="246"/>
-      <c r="J28" s="247"/>
+      <c r="I28" s="247"/>
+      <c r="J28" s="248"/>
     </row>
     <row r="29" spans="1:10" ht="12" customHeight="1">
       <c r="A29" s="38"/>
@@ -9913,8 +10010,8 @@
       <c r="F29" s="39"/>
       <c r="G29" s="39"/>
       <c r="H29" s="41"/>
-      <c r="I29" s="246"/>
-      <c r="J29" s="247"/>
+      <c r="I29" s="247"/>
+      <c r="J29" s="248"/>
     </row>
     <row r="30" spans="1:10" ht="12" customHeight="1">
       <c r="A30" s="38"/>
@@ -9925,8 +10022,8 @@
       <c r="F30" s="39"/>
       <c r="G30" s="39"/>
       <c r="H30" s="41"/>
-      <c r="I30" s="246"/>
-      <c r="J30" s="247"/>
+      <c r="I30" s="247"/>
+      <c r="J30" s="248"/>
     </row>
     <row r="31" spans="1:10" ht="12" customHeight="1">
       <c r="A31" s="38"/>
@@ -9937,8 +10034,8 @@
       <c r="F31" s="39"/>
       <c r="G31" s="39"/>
       <c r="H31" s="41"/>
-      <c r="I31" s="246"/>
-      <c r="J31" s="247"/>
+      <c r="I31" s="247"/>
+      <c r="J31" s="248"/>
     </row>
     <row r="32" spans="1:10" ht="12" customHeight="1">
       <c r="A32" s="38"/>
@@ -9949,8 +10046,8 @@
       <c r="F32" s="39"/>
       <c r="G32" s="39"/>
       <c r="H32" s="41"/>
-      <c r="I32" s="246"/>
-      <c r="J32" s="247"/>
+      <c r="I32" s="247"/>
+      <c r="J32" s="248"/>
     </row>
     <row r="33" spans="1:10" ht="12" customHeight="1">
       <c r="A33" s="38"/>
@@ -9961,8 +10058,8 @@
       <c r="F33" s="39"/>
       <c r="G33" s="39"/>
       <c r="H33" s="41"/>
-      <c r="I33" s="246"/>
-      <c r="J33" s="247"/>
+      <c r="I33" s="247"/>
+      <c r="J33" s="248"/>
     </row>
     <row r="34" spans="1:10" ht="12" customHeight="1">
       <c r="A34" s="38"/>
@@ -9973,8 +10070,8 @@
       <c r="F34" s="39"/>
       <c r="G34" s="39"/>
       <c r="H34" s="41"/>
-      <c r="I34" s="246"/>
-      <c r="J34" s="247"/>
+      <c r="I34" s="247"/>
+      <c r="J34" s="248"/>
     </row>
     <row r="35" spans="1:10" ht="12" customHeight="1">
       <c r="A35" s="38"/>
@@ -9985,8 +10082,8 @@
       <c r="F35" s="39"/>
       <c r="G35" s="39"/>
       <c r="H35" s="41"/>
-      <c r="I35" s="246"/>
-      <c r="J35" s="247"/>
+      <c r="I35" s="247"/>
+      <c r="J35" s="248"/>
     </row>
     <row r="36" spans="1:10" ht="12" customHeight="1">
       <c r="A36" s="38"/>
@@ -9997,8 +10094,8 @@
       <c r="F36" s="39"/>
       <c r="G36" s="39"/>
       <c r="H36" s="41"/>
-      <c r="I36" s="246"/>
-      <c r="J36" s="247"/>
+      <c r="I36" s="247"/>
+      <c r="J36" s="248"/>
     </row>
     <row r="37" spans="1:10" ht="12" customHeight="1">
       <c r="A37" s="38"/>
@@ -10009,8 +10106,8 @@
       <c r="F37" s="39"/>
       <c r="G37" s="39"/>
       <c r="H37" s="41"/>
-      <c r="I37" s="246"/>
-      <c r="J37" s="247"/>
+      <c r="I37" s="247"/>
+      <c r="J37" s="248"/>
     </row>
     <row r="38" spans="1:10" ht="12" customHeight="1">
       <c r="A38" s="38"/>
@@ -10021,8 +10118,8 @@
       <c r="F38" s="39"/>
       <c r="G38" s="39"/>
       <c r="H38" s="41"/>
-      <c r="I38" s="246"/>
-      <c r="J38" s="247"/>
+      <c r="I38" s="247"/>
+      <c r="J38" s="248"/>
     </row>
     <row r="39" spans="1:10" ht="12" customHeight="1">
       <c r="A39" s="38"/>
@@ -10033,8 +10130,8 @@
       <c r="F39" s="39"/>
       <c r="G39" s="39"/>
       <c r="H39" s="41"/>
-      <c r="I39" s="246"/>
-      <c r="J39" s="247"/>
+      <c r="I39" s="247"/>
+      <c r="J39" s="248"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -10059,13 +10156,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O67"/>
+  <dimension ref="A1:O78"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="6" ySplit="4" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane xSplit="6" ySplit="4" topLeftCell="G48" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="D32" sqref="D32"/>
+      <selection pane="bottomRight" activeCell="E61" sqref="E61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -10088,12 +10185,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="222" t="s">
+      <c r="A1" s="223" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="222"/>
-      <c r="C1" s="222"/>
-      <c r="D1" s="222"/>
+      <c r="B1" s="223"/>
+      <c r="C1" s="223"/>
+      <c r="D1" s="223"/>
       <c r="E1" s="29" t="s">
         <v>1</v>
       </c>
@@ -10101,16 +10198,16 @@
         <f>'Update History'!D1</f>
         <v>ASOFT - ERP.NET</v>
       </c>
-      <c r="G1" s="254" t="s">
+      <c r="G1" s="255" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="255"/>
-      <c r="I1" s="256" t="str">
+      <c r="H1" s="256"/>
+      <c r="I1" s="257" t="str">
         <f>'Update History'!F1</f>
         <v>CRMF2082</v>
       </c>
-      <c r="J1" s="257"/>
-      <c r="K1" s="258"/>
+      <c r="J1" s="258"/>
+      <c r="K1" s="259"/>
       <c r="L1" s="30" t="s">
         <v>5</v>
       </c>
@@ -10123,14 +10220,14 @@
       </c>
       <c r="O1" s="59" t="str">
         <f>'Update History'!J1</f>
-        <v>Thị Phượng</v>
+        <v>Tấn Đạt</v>
       </c>
     </row>
     <row r="2" spans="1:15" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="222"/>
-      <c r="B2" s="222"/>
-      <c r="C2" s="222"/>
-      <c r="D2" s="222"/>
+      <c r="A2" s="223"/>
+      <c r="B2" s="223"/>
+      <c r="C2" s="223"/>
+      <c r="D2" s="223"/>
       <c r="E2" s="29" t="s">
         <v>2</v>
       </c>
@@ -10138,16 +10235,16 @@
         <f>'Update History'!D2</f>
         <v>ASOFT-CRM</v>
       </c>
-      <c r="G2" s="254" t="s">
+      <c r="G2" s="255" t="s">
         <v>49</v>
       </c>
-      <c r="H2" s="255"/>
-      <c r="I2" s="256" t="str">
+      <c r="H2" s="256"/>
+      <c r="I2" s="257" t="str">
         <f>'Update History'!F2</f>
         <v>Xem chi tiết yêu cầu</v>
       </c>
-      <c r="J2" s="257"/>
-      <c r="K2" s="258"/>
+      <c r="J2" s="258"/>
+      <c r="K2" s="259"/>
       <c r="L2" s="30" t="s">
         <v>6</v>
       </c>
@@ -10158,9 +10255,9 @@
       <c r="N2" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="O2" s="59">
+      <c r="O2" s="59" t="str">
         <f>'Update History'!J2</f>
-        <v>42821</v>
+        <v>26/01/2018</v>
       </c>
     </row>
     <row r="4" spans="1:15" s="21" customFormat="1" ht="23.25" customHeight="1">
@@ -10271,7 +10368,7 @@
       <c r="B7" s="106" t="s">
         <v>155</v>
       </c>
-      <c r="C7" s="196" t="s">
+      <c r="C7" s="195" t="s">
         <v>175</v>
       </c>
       <c r="D7" s="121" t="s">
@@ -10308,17 +10405,17 @@
       <c r="B8" s="106" t="s">
         <v>155</v>
       </c>
-      <c r="C8" s="196" t="s">
+      <c r="C8" s="195" t="s">
         <v>177</v>
       </c>
       <c r="D8" s="129" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E8" s="120" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F8" s="143" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G8" s="120" t="s">
         <v>178</v>
@@ -10343,17 +10440,17 @@
       <c r="B9" s="31" t="s">
         <v>155</v>
       </c>
-      <c r="C9" s="196" t="s">
+      <c r="C9" s="195" t="s">
         <v>207</v>
       </c>
       <c r="D9" s="144" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E9" s="119" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F9" s="142" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G9" s="120" t="s">
         <v>178</v>
@@ -10378,17 +10475,17 @@
       <c r="B10" s="31" t="s">
         <v>155</v>
       </c>
-      <c r="C10" s="196" t="s">
+      <c r="C10" s="195" t="s">
         <v>179</v>
       </c>
       <c r="D10" s="124" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E10" s="119" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F10" s="142" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G10" s="120" t="s">
         <v>178</v>
@@ -10406,75 +10503,75 @@
       <c r="N10" s="119"/>
       <c r="O10" s="119"/>
     </row>
-    <row r="11" spans="1:15" s="177" customFormat="1" ht="11.25">
-      <c r="A11" s="172">
+    <row r="11" spans="1:15" s="176" customFormat="1" ht="11.25">
+      <c r="A11" s="171">
         <v>8</v>
       </c>
-      <c r="B11" s="172" t="s">
-        <v>359</v>
-      </c>
-      <c r="C11" s="197">
+      <c r="B11" s="171" t="s">
+        <v>358</v>
+      </c>
+      <c r="C11" s="196">
         <v>2.5</v>
       </c>
-      <c r="D11" s="173" t="s">
+      <c r="D11" s="172" t="s">
+        <v>354</v>
+      </c>
+      <c r="E11" s="173" t="s">
         <v>355</v>
       </c>
-      <c r="E11" s="174" t="s">
-        <v>356</v>
-      </c>
-      <c r="F11" s="174" t="s">
-        <v>356</v>
-      </c>
-      <c r="G11" s="175" t="s">
+      <c r="F11" s="173" t="s">
+        <v>355</v>
+      </c>
+      <c r="G11" s="174" t="s">
         <v>178</v>
       </c>
-      <c r="H11" s="175" t="s">
+      <c r="H11" s="174" t="s">
         <v>176</v>
       </c>
-      <c r="I11" s="176"/>
-      <c r="J11" s="176"/>
+      <c r="I11" s="175"/>
+      <c r="J11" s="175"/>
       <c r="K11" s="168" t="s">
         <v>187</v>
       </c>
-      <c r="L11" s="174"/>
-      <c r="M11" s="174"/>
-      <c r="N11" s="174"/>
-      <c r="O11" s="174"/>
-    </row>
-    <row r="12" spans="1:15" s="177" customFormat="1" ht="11.25">
-      <c r="A12" s="172">
+      <c r="L11" s="173"/>
+      <c r="M11" s="173"/>
+      <c r="N11" s="173"/>
+      <c r="O11" s="173"/>
+    </row>
+    <row r="12" spans="1:15" s="176" customFormat="1" ht="11.25">
+      <c r="A12" s="171">
         <v>9</v>
       </c>
-      <c r="B12" s="172" t="s">
-        <v>359</v>
-      </c>
-      <c r="C12" s="197">
+      <c r="B12" s="171" t="s">
+        <v>358</v>
+      </c>
+      <c r="C12" s="196">
         <v>2.6</v>
       </c>
-      <c r="D12" s="173" t="s">
-        <v>407</v>
-      </c>
-      <c r="E12" s="174" t="s">
-        <v>408</v>
-      </c>
-      <c r="F12" s="174" t="s">
-        <v>408</v>
-      </c>
-      <c r="G12" s="199" t="s">
+      <c r="D12" s="172" t="s">
+        <v>403</v>
+      </c>
+      <c r="E12" s="173" t="s">
+        <v>404</v>
+      </c>
+      <c r="F12" s="173" t="s">
+        <v>404</v>
+      </c>
+      <c r="G12" s="198" t="s">
         <v>178</v>
       </c>
-      <c r="H12" s="199" t="s">
+      <c r="H12" s="198" t="s">
         <v>176</v>
       </c>
-      <c r="I12" s="176"/>
-      <c r="J12" s="176"/>
+      <c r="I12" s="175"/>
+      <c r="J12" s="175"/>
       <c r="K12" s="168" t="s">
         <v>187</v>
       </c>
-      <c r="L12" s="174"/>
-      <c r="M12" s="174"/>
-      <c r="N12" s="174"/>
-      <c r="O12" s="174"/>
+      <c r="L12" s="173"/>
+      <c r="M12" s="173"/>
+      <c r="N12" s="173"/>
+      <c r="O12" s="173"/>
     </row>
     <row r="13" spans="1:15" s="32" customFormat="1" ht="11.25">
       <c r="A13" s="31">
@@ -10483,17 +10580,17 @@
       <c r="B13" s="31" t="s">
         <v>155</v>
       </c>
-      <c r="C13" s="196">
+      <c r="C13" s="195">
         <v>2.7</v>
       </c>
       <c r="D13" s="129" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E13" s="119" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F13" s="142" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G13" s="120" t="s">
         <v>178</v>
@@ -10518,17 +10615,17 @@
       <c r="B14" s="106" t="s">
         <v>155</v>
       </c>
-      <c r="C14" s="196" t="s">
-        <v>285</v>
+      <c r="C14" s="195" t="s">
+        <v>284</v>
       </c>
       <c r="D14" s="144" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E14" s="143" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F14" s="143" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G14" s="143" t="s">
         <v>178</v>
@@ -10546,40 +10643,40 @@
       <c r="N14" s="143"/>
       <c r="O14" s="123"/>
     </row>
-    <row r="15" spans="1:15" s="179" customFormat="1" ht="11.25">
-      <c r="A15" s="172">
+    <row r="15" spans="1:15" s="178" customFormat="1" ht="11.25">
+      <c r="A15" s="171">
         <v>12</v>
       </c>
-      <c r="B15" s="172" t="s">
+      <c r="B15" s="171" t="s">
+        <v>358</v>
+      </c>
+      <c r="C15" s="196">
+        <v>2.9</v>
+      </c>
+      <c r="D15" s="172" t="s">
         <v>359</v>
       </c>
-      <c r="C15" s="197">
-        <v>2.9</v>
-      </c>
-      <c r="D15" s="173" t="s">
+      <c r="E15" s="174" t="s">
         <v>360</v>
       </c>
-      <c r="E15" s="175" t="s">
-        <v>361</v>
-      </c>
-      <c r="F15" s="175" t="s">
-        <v>361</v>
-      </c>
-      <c r="G15" s="175" t="s">
-        <v>369</v>
-      </c>
-      <c r="H15" s="175" t="s">
+      <c r="F15" s="174" t="s">
+        <v>360</v>
+      </c>
+      <c r="G15" s="174" t="s">
+        <v>368</v>
+      </c>
+      <c r="H15" s="174" t="s">
         <v>182</v>
       </c>
-      <c r="I15" s="180"/>
-      <c r="J15" s="180"/>
+      <c r="I15" s="179"/>
+      <c r="J15" s="179"/>
       <c r="K15" s="168" t="s">
         <v>187</v>
       </c>
-      <c r="L15" s="175"/>
-      <c r="M15" s="175"/>
-      <c r="N15" s="175"/>
-      <c r="O15" s="178"/>
+      <c r="L15" s="174"/>
+      <c r="M15" s="174"/>
+      <c r="N15" s="174"/>
+      <c r="O15" s="177"/>
     </row>
     <row r="16" spans="1:15" s="25" customFormat="1" ht="11.25">
       <c r="A16" s="31">
@@ -10588,20 +10685,20 @@
       <c r="B16" s="31" t="s">
         <v>155</v>
       </c>
-      <c r="C16" s="196" t="s">
-        <v>286</v>
-      </c>
-      <c r="D16" s="173" t="s">
-        <v>362</v>
+      <c r="C16" s="195" t="s">
+        <v>285</v>
+      </c>
+      <c r="D16" s="172" t="s">
+        <v>361</v>
       </c>
       <c r="E16" s="142" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F16" s="142" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G16" s="143" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H16" s="142" t="s">
         <v>182</v>
@@ -10616,145 +10713,145 @@
       <c r="N16" s="165"/>
       <c r="O16" s="123"/>
     </row>
-    <row r="17" spans="1:15" s="179" customFormat="1" ht="11.25">
-      <c r="A17" s="172">
+    <row r="17" spans="1:15" s="178" customFormat="1" ht="11.25">
+      <c r="A17" s="171">
         <v>14</v>
       </c>
-      <c r="B17" s="172" t="s">
-        <v>359</v>
-      </c>
-      <c r="C17" s="197">
+      <c r="B17" s="171" t="s">
+        <v>358</v>
+      </c>
+      <c r="C17" s="196">
         <v>2.11</v>
       </c>
-      <c r="D17" s="173" t="s">
+      <c r="D17" s="172" t="s">
+        <v>362</v>
+      </c>
+      <c r="E17" s="174" t="s">
         <v>363</v>
       </c>
-      <c r="E17" s="175" t="s">
-        <v>364</v>
-      </c>
-      <c r="F17" s="175" t="s">
-        <v>364</v>
-      </c>
-      <c r="G17" s="175" t="s">
-        <v>369</v>
-      </c>
-      <c r="H17" s="174" t="s">
+      <c r="F17" s="174" t="s">
+        <v>363</v>
+      </c>
+      <c r="G17" s="174" t="s">
+        <v>368</v>
+      </c>
+      <c r="H17" s="173" t="s">
         <v>182</v>
       </c>
-      <c r="I17" s="176"/>
-      <c r="J17" s="176"/>
+      <c r="I17" s="175"/>
+      <c r="J17" s="175"/>
       <c r="K17" s="168" t="s">
         <v>187</v>
       </c>
-      <c r="L17" s="175"/>
-      <c r="M17" s="175"/>
-      <c r="N17" s="175"/>
-      <c r="O17" s="178"/>
-    </row>
-    <row r="18" spans="1:15" s="179" customFormat="1" ht="11.25">
-      <c r="A18" s="172">
+      <c r="L17" s="174"/>
+      <c r="M17" s="174"/>
+      <c r="N17" s="174"/>
+      <c r="O17" s="177"/>
+    </row>
+    <row r="18" spans="1:15" s="178" customFormat="1" ht="11.25">
+      <c r="A18" s="171">
         <v>15</v>
       </c>
-      <c r="B18" s="172" t="s">
-        <v>359</v>
-      </c>
-      <c r="C18" s="197">
+      <c r="B18" s="171" t="s">
+        <v>358</v>
+      </c>
+      <c r="C18" s="196">
         <v>2.12</v>
       </c>
-      <c r="D18" s="173" t="s">
-        <v>365</v>
-      </c>
-      <c r="E18" s="175" t="s">
-        <v>367</v>
-      </c>
-      <c r="F18" s="175" t="s">
-        <v>367</v>
-      </c>
-      <c r="G18" s="175" t="s">
+      <c r="D18" s="172" t="s">
+        <v>364</v>
+      </c>
+      <c r="E18" s="174" t="s">
+        <v>366</v>
+      </c>
+      <c r="F18" s="174" t="s">
+        <v>366</v>
+      </c>
+      <c r="G18" s="174" t="s">
         <v>178</v>
       </c>
-      <c r="H18" s="174" t="s">
-        <v>370</v>
-      </c>
-      <c r="I18" s="176"/>
-      <c r="J18" s="176"/>
+      <c r="H18" s="173" t="s">
+        <v>369</v>
+      </c>
+      <c r="I18" s="175"/>
+      <c r="J18" s="175"/>
       <c r="K18" s="168" t="s">
         <v>187</v>
       </c>
-      <c r="L18" s="175"/>
-      <c r="M18" s="175"/>
-      <c r="N18" s="175"/>
-      <c r="O18" s="178"/>
-    </row>
-    <row r="19" spans="1:15" s="179" customFormat="1" ht="11.25">
-      <c r="A19" s="172">
+      <c r="L18" s="174"/>
+      <c r="M18" s="174"/>
+      <c r="N18" s="174"/>
+      <c r="O18" s="177"/>
+    </row>
+    <row r="19" spans="1:15" s="178" customFormat="1" ht="11.25">
+      <c r="A19" s="171">
         <v>16</v>
       </c>
-      <c r="B19" s="172" t="s">
-        <v>359</v>
-      </c>
-      <c r="C19" s="197">
+      <c r="B19" s="171" t="s">
+        <v>358</v>
+      </c>
+      <c r="C19" s="196">
         <v>2.13</v>
       </c>
-      <c r="D19" s="173" t="s">
-        <v>366</v>
-      </c>
-      <c r="E19" s="175" t="s">
-        <v>368</v>
-      </c>
-      <c r="F19" s="175" t="s">
-        <v>368</v>
-      </c>
-      <c r="G19" s="175" t="s">
+      <c r="D19" s="172" t="s">
+        <v>365</v>
+      </c>
+      <c r="E19" s="174" t="s">
+        <v>367</v>
+      </c>
+      <c r="F19" s="174" t="s">
+        <v>367</v>
+      </c>
+      <c r="G19" s="174" t="s">
         <v>178</v>
       </c>
-      <c r="H19" s="174" t="s">
-        <v>370</v>
-      </c>
-      <c r="I19" s="176"/>
-      <c r="J19" s="176"/>
+      <c r="H19" s="173" t="s">
+        <v>369</v>
+      </c>
+      <c r="I19" s="175"/>
+      <c r="J19" s="175"/>
       <c r="K19" s="168" t="s">
         <v>187</v>
       </c>
-      <c r="L19" s="175"/>
-      <c r="M19" s="175"/>
-      <c r="N19" s="175"/>
-      <c r="O19" s="178"/>
-    </row>
-    <row r="20" spans="1:15" s="177" customFormat="1" ht="11.25">
-      <c r="A20" s="172">
+      <c r="L19" s="174"/>
+      <c r="M19" s="174"/>
+      <c r="N19" s="174"/>
+      <c r="O19" s="177"/>
+    </row>
+    <row r="20" spans="1:15" s="176" customFormat="1" ht="11.25">
+      <c r="A20" s="171">
         <v>10</v>
       </c>
-      <c r="B20" s="172" t="s">
-        <v>359</v>
-      </c>
-      <c r="C20" s="197">
+      <c r="B20" s="171" t="s">
+        <v>358</v>
+      </c>
+      <c r="C20" s="196">
         <v>2.14</v>
       </c>
-      <c r="D20" s="173" t="s">
+      <c r="D20" s="172" t="s">
+        <v>356</v>
+      </c>
+      <c r="E20" s="173" t="s">
         <v>357</v>
       </c>
-      <c r="E20" s="174" t="s">
-        <v>358</v>
-      </c>
-      <c r="F20" s="174" t="s">
-        <v>358</v>
-      </c>
-      <c r="G20" s="175" t="s">
+      <c r="F20" s="173" t="s">
+        <v>357</v>
+      </c>
+      <c r="G20" s="174" t="s">
         <v>178</v>
       </c>
-      <c r="H20" s="175" t="s">
+      <c r="H20" s="174" t="s">
         <v>176</v>
       </c>
-      <c r="I20" s="176"/>
-      <c r="J20" s="176"/>
+      <c r="I20" s="175"/>
+      <c r="J20" s="175"/>
       <c r="K20" s="168" t="s">
         <v>187</v>
       </c>
-      <c r="L20" s="174"/>
-      <c r="M20" s="174"/>
-      <c r="N20" s="174"/>
-      <c r="O20" s="174"/>
+      <c r="L20" s="173"/>
+      <c r="M20" s="173"/>
+      <c r="N20" s="173"/>
+      <c r="O20" s="173"/>
     </row>
     <row r="21" spans="1:15" s="32" customFormat="1" ht="11.25">
       <c r="A21" s="31">
@@ -10763,17 +10860,17 @@
       <c r="B21" s="31" t="s">
         <v>155</v>
       </c>
-      <c r="C21" s="196">
+      <c r="C21" s="195">
         <v>2.15</v>
       </c>
       <c r="D21" s="124" t="s">
         <v>196</v>
       </c>
       <c r="E21" s="142" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F21" s="142" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G21" s="143" t="s">
         <v>178</v>
@@ -10798,17 +10895,17 @@
       <c r="B22" s="31" t="s">
         <v>155</v>
       </c>
-      <c r="C22" s="196">
+      <c r="C22" s="195">
         <v>2.16</v>
       </c>
       <c r="D22" s="144" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E22" s="142" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F22" s="142" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G22" s="143" t="s">
         <v>178</v>
@@ -10833,17 +10930,17 @@
       <c r="B23" s="31" t="s">
         <v>155</v>
       </c>
-      <c r="C23" s="196">
+      <c r="C23" s="195">
         <v>2.17</v>
       </c>
       <c r="D23" s="129" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E23" s="119" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F23" s="142" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G23" s="120" t="s">
         <v>178</v>
@@ -10869,15 +10966,15 @@
         <v>155</v>
       </c>
       <c r="C24" s="125" t="s">
-        <v>245</v>
+        <v>194</v>
       </c>
       <c r="D24" s="53" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E24" s="53"/>
       <c r="F24" s="53"/>
       <c r="G24" s="142" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H24" s="142"/>
       <c r="I24" s="55"/>
@@ -10898,20 +10995,20 @@
         <v>155</v>
       </c>
       <c r="C25" s="125" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="D25" s="53" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E25" s="53" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F25" s="53"/>
       <c r="G25" s="142" t="s">
         <v>186</v>
       </c>
       <c r="H25" s="142" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I25" s="55"/>
       <c r="J25" s="55"/>
@@ -10931,10 +11028,10 @@
         <v>155</v>
       </c>
       <c r="C26" s="125" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="D26" s="53" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E26" s="53" t="s">
         <v>188</v>
@@ -10966,16 +11063,16 @@
         <v>155</v>
       </c>
       <c r="C27" s="125" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="D27" s="126" t="s">
+        <v>235</v>
+      </c>
+      <c r="E27" s="53" t="s">
         <v>236</v>
       </c>
-      <c r="E27" s="53" t="s">
-        <v>237</v>
-      </c>
       <c r="F27" s="53" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G27" s="142" t="s">
         <v>186</v>
@@ -11001,7 +11098,7 @@
         <v>155</v>
       </c>
       <c r="C28" s="125" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="D28" s="126" t="s">
         <v>189</v>
@@ -11038,7 +11135,7 @@
         <v>155</v>
       </c>
       <c r="C29" s="125" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="D29" s="126" t="s">
         <v>191</v>
@@ -11073,13 +11170,13 @@
         <v>155</v>
       </c>
       <c r="C30" s="125" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="D30" s="53" t="s">
+        <v>237</v>
+      </c>
+      <c r="E30" s="142" t="s">
         <v>238</v>
-      </c>
-      <c r="E30" s="142" t="s">
-        <v>239</v>
       </c>
       <c r="F30" s="142"/>
       <c r="G30" s="142" t="s">
@@ -11102,13 +11199,13 @@
         <v>155</v>
       </c>
       <c r="C31" s="125" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="D31" s="53" t="s">
         <v>193</v>
       </c>
       <c r="E31" s="142" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F31" s="142"/>
       <c r="G31" s="142" t="s">
@@ -11131,7 +11228,7 @@
         <v>155</v>
       </c>
       <c r="C32" s="125" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D32" s="53" t="s">
         <v>181</v>
@@ -11139,7 +11236,7 @@
       <c r="E32" s="53"/>
       <c r="F32" s="53"/>
       <c r="G32" s="142" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H32" s="142"/>
       <c r="I32" s="55"/>
@@ -11160,20 +11257,20 @@
         <v>155</v>
       </c>
       <c r="C33" s="125" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="D33" s="53" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E33" s="53" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F33" s="53"/>
       <c r="G33" s="142" t="s">
         <v>186</v>
       </c>
       <c r="H33" s="142" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I33" s="55"/>
       <c r="J33" s="55"/>
@@ -11193,10 +11290,10 @@
         <v>155</v>
       </c>
       <c r="C34" s="125" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="D34" s="53" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E34" s="53" t="s">
         <v>188</v>
@@ -11228,16 +11325,16 @@
         <v>155</v>
       </c>
       <c r="C35" s="125" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="D35" s="53" t="s">
+        <v>241</v>
+      </c>
+      <c r="E35" s="53" t="s">
         <v>242</v>
       </c>
-      <c r="E35" s="53" t="s">
-        <v>243</v>
-      </c>
       <c r="F35" s="53" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G35" s="142" t="s">
         <v>186</v>
@@ -11263,7 +11360,7 @@
         <v>155</v>
       </c>
       <c r="C36" s="125" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="D36" s="126" t="s">
         <v>196</v>
@@ -11298,7 +11395,7 @@
         <v>155</v>
       </c>
       <c r="C37" s="125" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="D37" s="126" t="s">
         <v>189</v>
@@ -11335,7 +11432,7 @@
         <v>155</v>
       </c>
       <c r="C38" s="125" t="s">
-        <v>258</v>
+        <v>405</v>
       </c>
       <c r="D38" s="126" t="s">
         <v>191</v>
@@ -11370,13 +11467,13 @@
         <v>155</v>
       </c>
       <c r="C39" s="125" t="s">
-        <v>259</v>
+        <v>406</v>
       </c>
       <c r="D39" s="53" t="s">
         <v>193</v>
       </c>
       <c r="E39" s="142" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F39" s="142"/>
       <c r="G39" s="142" t="s">
@@ -11399,7 +11496,7 @@
         <v>155</v>
       </c>
       <c r="C40" s="125" t="s">
-        <v>195</v>
+        <v>407</v>
       </c>
       <c r="D40" s="53" t="s">
         <v>214</v>
@@ -11424,7 +11521,7 @@
         <v>155</v>
       </c>
       <c r="C41" s="125" t="s">
-        <v>260</v>
+        <v>408</v>
       </c>
       <c r="D41" s="124" t="s">
         <v>188</v>
@@ -11457,16 +11554,16 @@
         <v>155</v>
       </c>
       <c r="C42" s="125" t="s">
-        <v>261</v>
+        <v>409</v>
       </c>
       <c r="D42" s="124" t="s">
+        <v>286</v>
+      </c>
+      <c r="E42" s="142" t="s">
         <v>287</v>
       </c>
-      <c r="E42" s="142" t="s">
+      <c r="F42" s="142" t="s">
         <v>288</v>
-      </c>
-      <c r="F42" s="142" t="s">
-        <v>289</v>
       </c>
       <c r="G42" s="142" t="s">
         <v>186</v>
@@ -11490,7 +11587,7 @@
         <v>155</v>
       </c>
       <c r="C43" s="125" t="s">
-        <v>262</v>
+        <v>410</v>
       </c>
       <c r="D43" s="124" t="s">
         <v>196</v>
@@ -11523,7 +11620,7 @@
         <v>155</v>
       </c>
       <c r="C44" s="125" t="s">
-        <v>263</v>
+        <v>411</v>
       </c>
       <c r="D44" s="124" t="s">
         <v>189</v>
@@ -11560,7 +11657,7 @@
         <v>155</v>
       </c>
       <c r="C45" s="125" t="s">
-        <v>264</v>
+        <v>412</v>
       </c>
       <c r="D45" s="124" t="s">
         <v>191</v>
@@ -11596,8 +11693,8 @@
       <c r="B46" s="31" t="s">
         <v>155</v>
       </c>
-      <c r="C46" s="196">
-        <v>7</v>
+      <c r="C46" s="195">
+        <v>8</v>
       </c>
       <c r="D46" s="129" t="s">
         <v>208</v>
@@ -11621,8 +11718,8 @@
       <c r="B47" s="31" t="s">
         <v>155</v>
       </c>
-      <c r="C47" s="196">
-        <v>7.1</v>
+      <c r="C47" s="195">
+        <v>8.1</v>
       </c>
       <c r="D47" s="53" t="s">
         <v>191</v>
@@ -11656,8 +11753,8 @@
       <c r="B48" s="106" t="s">
         <v>155</v>
       </c>
-      <c r="C48" s="196">
-        <v>7.2</v>
+      <c r="C48" s="195">
+        <v>8.1999999999999993</v>
       </c>
       <c r="D48" s="53" t="s">
         <v>189</v>
@@ -11694,7 +11791,7 @@
         <v>155</v>
       </c>
       <c r="C49" s="106">
-        <v>7.3</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="D49" s="53" t="s">
         <v>210</v>
@@ -11728,8 +11825,8 @@
       <c r="B50" s="31" t="s">
         <v>155</v>
       </c>
-      <c r="C50" s="196">
-        <v>7.4</v>
+      <c r="C50" s="195">
+        <v>8.4</v>
       </c>
       <c r="D50" s="53" t="s">
         <v>211</v>
@@ -11766,7 +11863,7 @@
         <v>155</v>
       </c>
       <c r="C51" s="125" t="s">
-        <v>241</v>
+        <v>370</v>
       </c>
       <c r="D51" s="53" t="s">
         <v>215</v>
@@ -11824,13 +11921,13 @@
         <v>155</v>
       </c>
       <c r="C53" s="125" t="s">
-        <v>372</v>
+        <v>415</v>
       </c>
       <c r="D53" s="126" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E53" s="53" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F53" s="53"/>
       <c r="G53" s="142" t="s">
@@ -11853,13 +11950,13 @@
         <v>155</v>
       </c>
       <c r="C54" s="125" t="s">
-        <v>373</v>
+        <v>416</v>
       </c>
       <c r="D54" s="126" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E54" s="53" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F54" s="53"/>
       <c r="G54" s="142" t="s">
@@ -11874,392 +11971,789 @@
       <c r="N54" s="142"/>
       <c r="O54" s="142"/>
     </row>
-    <row r="55" spans="1:15" s="184" customFormat="1" ht="12" customHeight="1">
-      <c r="A55" s="172">
+    <row r="55" spans="1:15" s="183" customFormat="1" ht="12" customHeight="1">
+      <c r="A55" s="171">
         <v>50</v>
       </c>
-      <c r="B55" s="172" t="s">
-        <v>359</v>
-      </c>
-      <c r="C55" s="181" t="s">
+      <c r="B55" s="171" t="s">
+        <v>358</v>
+      </c>
+      <c r="C55" s="180" t="s">
+        <v>372</v>
+      </c>
+      <c r="D55" s="181" t="s">
+        <v>373</v>
+      </c>
+      <c r="E55" s="182"/>
+      <c r="F55" s="182"/>
+      <c r="G55" s="173"/>
+      <c r="H55" s="173"/>
+      <c r="I55" s="175"/>
+      <c r="J55" s="175"/>
+      <c r="K55" s="168"/>
+      <c r="L55" s="173"/>
+      <c r="M55" s="173"/>
+      <c r="N55" s="173"/>
+      <c r="O55" s="173"/>
+    </row>
+    <row r="56" spans="1:15" s="183" customFormat="1" ht="12" customHeight="1">
+      <c r="A56" s="171">
+        <v>51</v>
+      </c>
+      <c r="B56" s="171" t="s">
+        <v>358</v>
+      </c>
+      <c r="C56" s="180" t="s">
+        <v>375</v>
+      </c>
+      <c r="D56" s="181" t="s">
+        <v>234</v>
+      </c>
+      <c r="E56" s="182" t="s">
         <v>374</v>
       </c>
-      <c r="D55" s="182" t="s">
-        <v>375</v>
-      </c>
-      <c r="E55" s="183"/>
-      <c r="F55" s="183"/>
-      <c r="G55" s="174"/>
-      <c r="H55" s="174"/>
-      <c r="I55" s="176"/>
-      <c r="J55" s="176"/>
-      <c r="K55" s="168"/>
-      <c r="L55" s="174"/>
-      <c r="M55" s="174"/>
-      <c r="N55" s="174"/>
-      <c r="O55" s="174"/>
-    </row>
-    <row r="56" spans="1:15" s="184" customFormat="1" ht="12" customHeight="1">
-      <c r="A56" s="172">
-        <v>51</v>
-      </c>
-      <c r="B56" s="172" t="s">
-        <v>359</v>
-      </c>
-      <c r="C56" s="181" t="s">
-        <v>377</v>
-      </c>
-      <c r="D56" s="182" t="s">
-        <v>235</v>
-      </c>
-      <c r="E56" s="183" t="s">
-        <v>376</v>
-      </c>
-      <c r="F56" s="183" t="s">
-        <v>376</v>
-      </c>
-      <c r="G56" s="175" t="s">
+      <c r="F56" s="182" t="s">
+        <v>374</v>
+      </c>
+      <c r="G56" s="174" t="s">
         <v>178</v>
       </c>
-      <c r="H56" s="174" t="s">
-        <v>370</v>
-      </c>
-      <c r="I56" s="176"/>
-      <c r="J56" s="176"/>
+      <c r="H56" s="173" t="s">
+        <v>369</v>
+      </c>
+      <c r="I56" s="175"/>
+      <c r="J56" s="175"/>
       <c r="K56" s="168" t="s">
         <v>187</v>
       </c>
-      <c r="L56" s="174"/>
-      <c r="M56" s="174"/>
-      <c r="N56" s="174"/>
-      <c r="O56" s="174"/>
-    </row>
-    <row r="57" spans="1:15" s="184" customFormat="1" ht="12" customHeight="1">
-      <c r="A57" s="171">
+      <c r="L56" s="173"/>
+      <c r="M56" s="173"/>
+      <c r="N56" s="173"/>
+      <c r="O56" s="173"/>
+    </row>
+    <row r="57" spans="1:15" s="183" customFormat="1" ht="12" customHeight="1">
+      <c r="A57" s="170">
         <v>52</v>
       </c>
-      <c r="B57" s="172" t="s">
-        <v>359</v>
-      </c>
-      <c r="C57" s="181" t="s">
-        <v>378</v>
-      </c>
-      <c r="D57" s="182" t="s">
+      <c r="B57" s="171" t="s">
+        <v>358</v>
+      </c>
+      <c r="C57" s="180" t="s">
+        <v>376</v>
+      </c>
+      <c r="D57" s="181" t="s">
         <v>196</v>
       </c>
-      <c r="E57" s="183" t="s">
+      <c r="E57" s="182" t="s">
         <v>128</v>
       </c>
-      <c r="F57" s="183" t="s">
+      <c r="F57" s="182" t="s">
         <v>128</v>
       </c>
-      <c r="G57" s="175" t="s">
+      <c r="G57" s="174" t="s">
         <v>178</v>
       </c>
-      <c r="H57" s="174" t="s">
+      <c r="H57" s="173" t="s">
         <v>176</v>
       </c>
-      <c r="I57" s="176"/>
-      <c r="J57" s="176"/>
+      <c r="I57" s="175"/>
+      <c r="J57" s="175"/>
       <c r="K57" s="168" t="s">
         <v>187</v>
       </c>
-      <c r="L57" s="174"/>
-      <c r="M57" s="174"/>
-      <c r="N57" s="174"/>
-      <c r="O57" s="174"/>
-    </row>
-    <row r="58" spans="1:15" s="184" customFormat="1" ht="12" customHeight="1">
-      <c r="A58" s="172">
+      <c r="L57" s="173"/>
+      <c r="M57" s="173"/>
+      <c r="N57" s="173"/>
+      <c r="O57" s="173"/>
+    </row>
+    <row r="58" spans="1:15" s="183" customFormat="1" ht="12" customHeight="1">
+      <c r="A58" s="171">
         <v>53</v>
       </c>
-      <c r="B58" s="172" t="s">
-        <v>359</v>
-      </c>
-      <c r="C58" s="181" t="s">
+      <c r="B58" s="171" t="s">
+        <v>358</v>
+      </c>
+      <c r="C58" s="180" t="s">
+        <v>377</v>
+      </c>
+      <c r="D58" s="181" t="s">
         <v>379</v>
       </c>
-      <c r="D58" s="182" t="s">
-        <v>381</v>
-      </c>
-      <c r="E58" s="183" t="s">
-        <v>382</v>
-      </c>
-      <c r="F58" s="183" t="s">
-        <v>382</v>
-      </c>
-      <c r="G58" s="175" t="s">
+      <c r="E58" s="182" t="s">
+        <v>380</v>
+      </c>
+      <c r="F58" s="182" t="s">
+        <v>380</v>
+      </c>
+      <c r="G58" s="174" t="s">
         <v>178</v>
       </c>
-      <c r="H58" s="174" t="s">
+      <c r="H58" s="173" t="s">
         <v>176</v>
       </c>
-      <c r="I58" s="176"/>
-      <c r="J58" s="176"/>
+      <c r="I58" s="175"/>
+      <c r="J58" s="175"/>
       <c r="K58" s="168" t="s">
         <v>187</v>
       </c>
-      <c r="L58" s="174"/>
-      <c r="M58" s="174"/>
-      <c r="N58" s="174"/>
-      <c r="O58" s="174"/>
-    </row>
-    <row r="59" spans="1:15" s="184" customFormat="1" ht="12" customHeight="1">
-      <c r="A59" s="172">
+      <c r="L58" s="173"/>
+      <c r="M58" s="173"/>
+      <c r="N58" s="173"/>
+      <c r="O58" s="173"/>
+    </row>
+    <row r="59" spans="1:15" s="183" customFormat="1" ht="12" customHeight="1">
+      <c r="A59" s="171">
         <v>54</v>
       </c>
-      <c r="B59" s="172" t="s">
-        <v>359</v>
-      </c>
-      <c r="C59" s="181" t="s">
-        <v>380</v>
-      </c>
-      <c r="D59" s="182" t="s">
-        <v>384</v>
-      </c>
-      <c r="E59" s="183" t="s">
-        <v>385</v>
-      </c>
-      <c r="F59" s="183" t="s">
-        <v>385</v>
-      </c>
-      <c r="G59" s="174" t="s">
-        <v>369</v>
-      </c>
-      <c r="H59" s="174" t="s">
+      <c r="B59" s="171" t="s">
+        <v>358</v>
+      </c>
+      <c r="C59" s="180" t="s">
+        <v>378</v>
+      </c>
+      <c r="D59" s="181" t="s">
+        <v>382</v>
+      </c>
+      <c r="E59" s="182" t="s">
+        <v>383</v>
+      </c>
+      <c r="F59" s="182" t="s">
+        <v>383</v>
+      </c>
+      <c r="G59" s="173" t="s">
+        <v>368</v>
+      </c>
+      <c r="H59" s="173" t="s">
         <v>182</v>
       </c>
-      <c r="I59" s="176"/>
-      <c r="J59" s="176"/>
+      <c r="I59" s="175"/>
+      <c r="J59" s="175"/>
       <c r="K59" s="168" t="s">
         <v>187</v>
       </c>
-      <c r="L59" s="174"/>
-      <c r="M59" s="174"/>
-      <c r="N59" s="174"/>
-      <c r="O59" s="174"/>
-    </row>
-    <row r="60" spans="1:15" s="184" customFormat="1" ht="12" customHeight="1">
-      <c r="A60" s="171">
+      <c r="L59" s="173"/>
+      <c r="M59" s="173"/>
+      <c r="N59" s="173"/>
+      <c r="O59" s="173"/>
+    </row>
+    <row r="60" spans="1:15" s="183" customFormat="1" ht="12" customHeight="1">
+      <c r="A60" s="170">
         <v>55</v>
       </c>
-      <c r="B60" s="172" t="s">
-        <v>359</v>
-      </c>
-      <c r="C60" s="181" t="s">
-        <v>383</v>
-      </c>
-      <c r="D60" s="182" t="s">
-        <v>386</v>
-      </c>
-      <c r="E60" s="183" t="s">
-        <v>387</v>
-      </c>
-      <c r="F60" s="183" t="s">
-        <v>387</v>
-      </c>
-      <c r="G60" s="174" t="s">
+      <c r="B60" s="171" t="s">
+        <v>358</v>
+      </c>
+      <c r="C60" s="180" t="s">
+        <v>381</v>
+      </c>
+      <c r="D60" s="181" t="s">
+        <v>384</v>
+      </c>
+      <c r="E60" s="182" t="s">
+        <v>385</v>
+      </c>
+      <c r="F60" s="182" t="s">
+        <v>385</v>
+      </c>
+      <c r="G60" s="173" t="s">
         <v>178</v>
       </c>
-      <c r="H60" s="174" t="s">
-        <v>370</v>
-      </c>
-      <c r="I60" s="176"/>
-      <c r="J60" s="176"/>
+      <c r="H60" s="173" t="s">
+        <v>369</v>
+      </c>
+      <c r="I60" s="175"/>
+      <c r="J60" s="175"/>
       <c r="K60" s="168" t="s">
         <v>187</v>
       </c>
-      <c r="L60" s="174"/>
-      <c r="M60" s="174"/>
-      <c r="N60" s="174"/>
-      <c r="O60" s="174"/>
-    </row>
-    <row r="61" spans="1:15" s="184" customFormat="1" ht="12" customHeight="1">
-      <c r="A61" s="172">
+      <c r="L60" s="173"/>
+      <c r="M60" s="173"/>
+      <c r="N60" s="173"/>
+      <c r="O60" s="173"/>
+    </row>
+    <row r="61" spans="1:15" s="183" customFormat="1" ht="12" customHeight="1">
+      <c r="A61" s="171">
         <v>56</v>
       </c>
-      <c r="B61" s="172" t="s">
-        <v>359</v>
-      </c>
-      <c r="C61" s="181" t="s">
+      <c r="B61" s="171" t="s">
+        <v>358</v>
+      </c>
+      <c r="C61" s="180" t="s">
+        <v>391</v>
+      </c>
+      <c r="D61" s="181" t="s">
+        <v>237</v>
+      </c>
+      <c r="E61" s="182" t="s">
+        <v>394</v>
+      </c>
+      <c r="F61" s="182"/>
+      <c r="G61" s="173" t="s">
+        <v>180</v>
+      </c>
+      <c r="H61" s="173"/>
+      <c r="I61" s="175"/>
+      <c r="J61" s="175"/>
+      <c r="K61" s="168"/>
+      <c r="L61" s="173"/>
+      <c r="M61" s="173"/>
+      <c r="N61" s="173"/>
+      <c r="O61" s="173"/>
+    </row>
+    <row r="62" spans="1:15" s="183" customFormat="1" ht="12" customHeight="1">
+      <c r="A62" s="170">
+        <v>57</v>
+      </c>
+      <c r="B62" s="171" t="s">
+        <v>358</v>
+      </c>
+      <c r="C62" s="180" t="s">
+        <v>392</v>
+      </c>
+      <c r="D62" s="181" t="s">
         <v>393</v>
       </c>
-      <c r="D61" s="182" t="s">
-        <v>238</v>
-      </c>
-      <c r="E61" s="183" t="s">
-        <v>396</v>
-      </c>
-      <c r="F61" s="183"/>
-      <c r="G61" s="174" t="s">
+      <c r="E62" s="182" t="s">
+        <v>395</v>
+      </c>
+      <c r="F62" s="182"/>
+      <c r="G62" s="173" t="s">
         <v>180</v>
       </c>
-      <c r="H61" s="174"/>
-      <c r="I61" s="176"/>
-      <c r="J61" s="176"/>
-      <c r="K61" s="168"/>
-      <c r="L61" s="174"/>
-      <c r="M61" s="174"/>
-      <c r="N61" s="174"/>
-      <c r="O61" s="174"/>
-    </row>
-    <row r="62" spans="1:15" s="184" customFormat="1" ht="12" customHeight="1">
-      <c r="A62" s="171">
-        <v>57</v>
-      </c>
-      <c r="B62" s="172" t="s">
-        <v>359</v>
-      </c>
-      <c r="C62" s="181" t="s">
-        <v>394</v>
-      </c>
-      <c r="D62" s="182" t="s">
-        <v>395</v>
-      </c>
-      <c r="E62" s="183" t="s">
-        <v>397</v>
-      </c>
-      <c r="F62" s="183"/>
-      <c r="G62" s="174" t="s">
-        <v>180</v>
-      </c>
-      <c r="H62" s="174"/>
-      <c r="I62" s="176"/>
-      <c r="J62" s="176"/>
+      <c r="H62" s="173"/>
+      <c r="I62" s="175"/>
+      <c r="J62" s="175"/>
       <c r="K62" s="168"/>
-      <c r="L62" s="174"/>
-      <c r="M62" s="174"/>
-      <c r="N62" s="174"/>
-      <c r="O62" s="174"/>
-    </row>
-    <row r="63" spans="1:15" s="184" customFormat="1" ht="12" customHeight="1">
-      <c r="A63" s="172">
+      <c r="L62" s="173"/>
+      <c r="M62" s="173"/>
+      <c r="N62" s="173"/>
+      <c r="O62" s="173"/>
+    </row>
+    <row r="63" spans="1:15" s="183" customFormat="1" ht="12" customHeight="1">
+      <c r="A63" s="171">
         <v>58</v>
       </c>
-      <c r="B63" s="172" t="s">
-        <v>359</v>
-      </c>
-      <c r="C63" s="181" t="s">
-        <v>230</v>
-      </c>
-      <c r="D63" s="182" t="s">
-        <v>389</v>
-      </c>
-      <c r="E63" s="183"/>
-      <c r="F63" s="183"/>
-      <c r="G63" s="174"/>
-      <c r="H63" s="174"/>
-      <c r="I63" s="176"/>
-      <c r="J63" s="176"/>
+      <c r="B63" s="171" t="s">
+        <v>358</v>
+      </c>
+      <c r="C63" s="180" t="s">
+        <v>240</v>
+      </c>
+      <c r="D63" s="181" t="s">
+        <v>387</v>
+      </c>
+      <c r="E63" s="182"/>
+      <c r="F63" s="182"/>
+      <c r="G63" s="173"/>
+      <c r="H63" s="173"/>
+      <c r="I63" s="175"/>
+      <c r="J63" s="175"/>
       <c r="K63" s="168"/>
-      <c r="L63" s="174"/>
-      <c r="M63" s="174"/>
-      <c r="N63" s="174"/>
-      <c r="O63" s="174"/>
-    </row>
-    <row r="64" spans="1:15" s="184" customFormat="1" ht="12" customHeight="1">
-      <c r="A64" s="171">
+      <c r="L63" s="173"/>
+      <c r="M63" s="173"/>
+      <c r="N63" s="173"/>
+      <c r="O63" s="173"/>
+    </row>
+    <row r="64" spans="1:15" s="183" customFormat="1" ht="12" customHeight="1">
+      <c r="A64" s="170">
         <v>59</v>
       </c>
-      <c r="B64" s="172" t="s">
-        <v>359</v>
-      </c>
-      <c r="C64" s="181" t="s">
-        <v>398</v>
-      </c>
-      <c r="D64" s="182" t="s">
+      <c r="B64" s="171" t="s">
+        <v>358</v>
+      </c>
+      <c r="C64" s="180" t="s">
+        <v>413</v>
+      </c>
+      <c r="D64" s="181" t="s">
+        <v>388</v>
+      </c>
+      <c r="E64" s="182" t="s">
         <v>390</v>
       </c>
-      <c r="E64" s="183" t="s">
-        <v>392</v>
-      </c>
-      <c r="F64" s="183" t="s">
-        <v>392</v>
-      </c>
-      <c r="G64" s="174" t="s">
+      <c r="F64" s="182" t="s">
+        <v>390</v>
+      </c>
+      <c r="G64" s="173" t="s">
         <v>178</v>
       </c>
-      <c r="H64" s="174" t="s">
-        <v>370</v>
-      </c>
-      <c r="I64" s="176"/>
-      <c r="J64" s="176"/>
+      <c r="H64" s="173" t="s">
+        <v>369</v>
+      </c>
+      <c r="I64" s="175"/>
+      <c r="J64" s="175"/>
       <c r="K64" s="168" t="s">
         <v>187</v>
       </c>
-      <c r="L64" s="174"/>
-      <c r="M64" s="174"/>
-      <c r="N64" s="174"/>
-      <c r="O64" s="174"/>
-    </row>
-    <row r="65" spans="1:15" s="184" customFormat="1" ht="12" customHeight="1">
+      <c r="L64" s="173"/>
+      <c r="M64" s="173"/>
+      <c r="N64" s="173"/>
+      <c r="O64" s="173"/>
+    </row>
+    <row r="65" spans="1:15" s="183" customFormat="1" ht="12" customHeight="1">
       <c r="A65" s="171">
-        <v>59</v>
-      </c>
-      <c r="B65" s="172" t="s">
-        <v>359</v>
-      </c>
-      <c r="C65" s="181" t="s">
-        <v>399</v>
-      </c>
-      <c r="D65" s="182" t="s">
-        <v>388</v>
-      </c>
-      <c r="E65" s="182" t="s">
-        <v>391</v>
-      </c>
-      <c r="F65" s="182" t="s">
-        <v>391</v>
-      </c>
-      <c r="G65" s="174" t="s">
+        <v>60</v>
+      </c>
+      <c r="B65" s="171" t="s">
+        <v>358</v>
+      </c>
+      <c r="C65" s="180" t="s">
+        <v>414</v>
+      </c>
+      <c r="D65" s="181" t="s">
+        <v>386</v>
+      </c>
+      <c r="E65" s="181" t="s">
+        <v>389</v>
+      </c>
+      <c r="F65" s="181" t="s">
+        <v>389</v>
+      </c>
+      <c r="G65" s="173" t="s">
         <v>178</v>
       </c>
-      <c r="H65" s="174" t="s">
+      <c r="H65" s="173" t="s">
         <v>176</v>
       </c>
-      <c r="I65" s="176"/>
-      <c r="J65" s="176"/>
+      <c r="I65" s="175"/>
+      <c r="J65" s="175"/>
       <c r="K65" s="168" t="s">
         <v>187</v>
       </c>
-      <c r="L65" s="174"/>
-      <c r="M65" s="174"/>
-      <c r="N65" s="174"/>
-      <c r="O65" s="174"/>
-    </row>
-    <row r="66" spans="1:15" s="184" customFormat="1" ht="12" customHeight="1">
-      <c r="A66" s="171"/>
-      <c r="B66" s="172"/>
-      <c r="C66" s="181"/>
-      <c r="D66" s="195"/>
-      <c r="E66" s="195"/>
-      <c r="F66" s="195"/>
-      <c r="G66" s="195"/>
-      <c r="H66" s="195"/>
-      <c r="I66" s="195"/>
-      <c r="J66" s="195"/>
-      <c r="K66" s="195"/>
-      <c r="L66" s="174"/>
-      <c r="M66" s="174"/>
-      <c r="N66" s="174"/>
-      <c r="O66" s="174"/>
-    </row>
-    <row r="67" spans="1:15" ht="12" customHeight="1">
-      <c r="A67" s="106"/>
-      <c r="B67" s="31"/>
-      <c r="C67" s="125"/>
-      <c r="D67" s="126"/>
-      <c r="E67" s="53"/>
-      <c r="F67" s="53"/>
-      <c r="G67" s="169"/>
-      <c r="H67" s="169"/>
-      <c r="I67" s="55"/>
-      <c r="J67" s="55"/>
-      <c r="K67" s="36"/>
-      <c r="L67" s="169"/>
-      <c r="M67" s="169"/>
-      <c r="N67" s="169"/>
-      <c r="O67" s="169"/>
+      <c r="L65" s="173"/>
+      <c r="M65" s="173"/>
+      <c r="N65" s="173"/>
+      <c r="O65" s="173"/>
+    </row>
+    <row r="66" spans="1:15" s="183" customFormat="1" ht="12" customHeight="1">
+      <c r="A66" s="170">
+        <v>61</v>
+      </c>
+      <c r="B66" s="171" t="s">
+        <v>358</v>
+      </c>
+      <c r="C66" s="180" t="s">
+        <v>244</v>
+      </c>
+      <c r="D66" s="194" t="s">
+        <v>417</v>
+      </c>
+      <c r="E66" s="194"/>
+      <c r="F66" s="194"/>
+      <c r="G66" s="194"/>
+      <c r="H66" s="194"/>
+      <c r="I66" s="194"/>
+      <c r="J66" s="194"/>
+      <c r="K66" s="199"/>
+      <c r="L66" s="173"/>
+      <c r="M66" s="173"/>
+      <c r="N66" s="173"/>
+      <c r="O66" s="173"/>
+    </row>
+    <row r="67" spans="1:15" s="183" customFormat="1" ht="12" customHeight="1">
+      <c r="A67" s="171">
+        <v>62</v>
+      </c>
+      <c r="B67" s="171" t="s">
+        <v>358</v>
+      </c>
+      <c r="C67" s="180" t="s">
+        <v>245</v>
+      </c>
+      <c r="D67" s="194" t="s">
+        <v>234</v>
+      </c>
+      <c r="E67" s="194" t="s">
+        <v>374</v>
+      </c>
+      <c r="F67" s="194" t="s">
+        <v>374</v>
+      </c>
+      <c r="G67" s="194" t="s">
+        <v>178</v>
+      </c>
+      <c r="H67" s="194" t="s">
+        <v>369</v>
+      </c>
+      <c r="I67" s="194"/>
+      <c r="J67" s="194"/>
+      <c r="K67" s="199" t="s">
+        <v>187</v>
+      </c>
+      <c r="L67" s="173"/>
+      <c r="M67" s="173"/>
+      <c r="N67" s="173"/>
+      <c r="O67" s="173"/>
+    </row>
+    <row r="68" spans="1:15" s="183" customFormat="1" ht="12" customHeight="1">
+      <c r="A68" s="170">
+        <v>63</v>
+      </c>
+      <c r="B68" s="171" t="s">
+        <v>358</v>
+      </c>
+      <c r="C68" s="180" t="s">
+        <v>246</v>
+      </c>
+      <c r="D68" s="194" t="s">
+        <v>422</v>
+      </c>
+      <c r="E68" s="194" t="s">
+        <v>423</v>
+      </c>
+      <c r="F68" s="194" t="s">
+        <v>423</v>
+      </c>
+      <c r="G68" s="194" t="s">
+        <v>178</v>
+      </c>
+      <c r="H68" s="194" t="s">
+        <v>176</v>
+      </c>
+      <c r="I68" s="194"/>
+      <c r="J68" s="194"/>
+      <c r="K68" s="199" t="s">
+        <v>187</v>
+      </c>
+      <c r="L68" s="173"/>
+      <c r="M68" s="173"/>
+      <c r="N68" s="173"/>
+      <c r="O68" s="173"/>
+    </row>
+    <row r="69" spans="1:15" s="183" customFormat="1" ht="12" customHeight="1">
+      <c r="A69" s="171">
+        <v>64</v>
+      </c>
+      <c r="B69" s="171" t="s">
+        <v>358</v>
+      </c>
+      <c r="C69" s="180" t="s">
+        <v>247</v>
+      </c>
+      <c r="D69" s="194" t="s">
+        <v>418</v>
+      </c>
+      <c r="E69" s="194" t="s">
+        <v>419</v>
+      </c>
+      <c r="F69" s="194" t="s">
+        <v>419</v>
+      </c>
+      <c r="G69" s="194" t="s">
+        <v>178</v>
+      </c>
+      <c r="H69" s="194" t="s">
+        <v>176</v>
+      </c>
+      <c r="I69" s="194"/>
+      <c r="J69" s="194"/>
+      <c r="K69" s="199" t="s">
+        <v>187</v>
+      </c>
+      <c r="L69" s="173"/>
+      <c r="M69" s="173"/>
+      <c r="N69" s="173"/>
+      <c r="O69" s="173"/>
+    </row>
+    <row r="70" spans="1:15" s="183" customFormat="1" ht="12" customHeight="1">
+      <c r="A70" s="170">
+        <v>65</v>
+      </c>
+      <c r="B70" s="171" t="s">
+        <v>358</v>
+      </c>
+      <c r="C70" s="180" t="s">
+        <v>248</v>
+      </c>
+      <c r="D70" s="194" t="s">
+        <v>420</v>
+      </c>
+      <c r="E70" s="194" t="s">
+        <v>421</v>
+      </c>
+      <c r="F70" s="194" t="s">
+        <v>421</v>
+      </c>
+      <c r="G70" s="194" t="s">
+        <v>178</v>
+      </c>
+      <c r="H70" s="194" t="s">
+        <v>176</v>
+      </c>
+      <c r="I70" s="194"/>
+      <c r="J70" s="194"/>
+      <c r="K70" s="199" t="s">
+        <v>187</v>
+      </c>
+      <c r="L70" s="173"/>
+      <c r="M70" s="173"/>
+      <c r="N70" s="173"/>
+      <c r="O70" s="173"/>
+    </row>
+    <row r="71" spans="1:15" s="183" customFormat="1" ht="12" customHeight="1">
+      <c r="A71" s="171">
+        <v>66</v>
+      </c>
+      <c r="B71" s="171" t="s">
+        <v>358</v>
+      </c>
+      <c r="C71" s="180" t="s">
+        <v>249</v>
+      </c>
+      <c r="D71" s="194" t="s">
+        <v>424</v>
+      </c>
+      <c r="E71" s="194" t="s">
+        <v>428</v>
+      </c>
+      <c r="F71" s="194" t="s">
+        <v>428</v>
+      </c>
+      <c r="G71" s="194" t="s">
+        <v>178</v>
+      </c>
+      <c r="H71" s="194" t="s">
+        <v>176</v>
+      </c>
+      <c r="I71" s="194"/>
+      <c r="J71" s="194"/>
+      <c r="K71" s="199" t="s">
+        <v>187</v>
+      </c>
+      <c r="L71" s="173"/>
+      <c r="M71" s="173"/>
+      <c r="N71" s="173"/>
+      <c r="O71" s="173"/>
+    </row>
+    <row r="72" spans="1:15" s="183" customFormat="1" ht="12" customHeight="1">
+      <c r="A72" s="170">
+        <v>67</v>
+      </c>
+      <c r="B72" s="171" t="s">
+        <v>358</v>
+      </c>
+      <c r="C72" s="180" t="s">
+        <v>250</v>
+      </c>
+      <c r="D72" s="194" t="s">
+        <v>425</v>
+      </c>
+      <c r="E72" s="194" t="s">
+        <v>429</v>
+      </c>
+      <c r="F72" s="194" t="s">
+        <v>429</v>
+      </c>
+      <c r="G72" s="194" t="s">
+        <v>178</v>
+      </c>
+      <c r="H72" s="194" t="s">
+        <v>176</v>
+      </c>
+      <c r="I72" s="194"/>
+      <c r="J72" s="194"/>
+      <c r="K72" s="199" t="s">
+        <v>187</v>
+      </c>
+      <c r="L72" s="173"/>
+      <c r="M72" s="173"/>
+      <c r="N72" s="173"/>
+      <c r="O72" s="173"/>
+    </row>
+    <row r="73" spans="1:15" s="183" customFormat="1" ht="12" customHeight="1">
+      <c r="A73" s="171">
+        <v>68</v>
+      </c>
+      <c r="B73" s="171" t="s">
+        <v>358</v>
+      </c>
+      <c r="C73" s="180" t="s">
+        <v>251</v>
+      </c>
+      <c r="D73" s="194" t="s">
+        <v>426</v>
+      </c>
+      <c r="E73" s="194" t="s">
+        <v>430</v>
+      </c>
+      <c r="F73" s="194" t="s">
+        <v>430</v>
+      </c>
+      <c r="G73" s="194" t="s">
+        <v>178</v>
+      </c>
+      <c r="H73" s="194" t="s">
+        <v>176</v>
+      </c>
+      <c r="I73" s="194"/>
+      <c r="J73" s="194"/>
+      <c r="K73" s="199" t="s">
+        <v>187</v>
+      </c>
+      <c r="L73" s="173"/>
+      <c r="M73" s="173"/>
+      <c r="N73" s="173"/>
+      <c r="O73" s="173"/>
+    </row>
+    <row r="74" spans="1:15" s="183" customFormat="1" ht="12" customHeight="1">
+      <c r="A74" s="170">
+        <v>69</v>
+      </c>
+      <c r="B74" s="171" t="s">
+        <v>358</v>
+      </c>
+      <c r="C74" s="180" t="s">
+        <v>432</v>
+      </c>
+      <c r="D74" s="194" t="s">
+        <v>427</v>
+      </c>
+      <c r="E74" s="194" t="s">
+        <v>431</v>
+      </c>
+      <c r="F74" s="194" t="s">
+        <v>431</v>
+      </c>
+      <c r="G74" s="194" t="s">
+        <v>178</v>
+      </c>
+      <c r="H74" s="194" t="s">
+        <v>176</v>
+      </c>
+      <c r="I74" s="194"/>
+      <c r="J74" s="194"/>
+      <c r="K74" s="199" t="s">
+        <v>187</v>
+      </c>
+      <c r="L74" s="173"/>
+      <c r="M74" s="173"/>
+      <c r="N74" s="173"/>
+      <c r="O74" s="173"/>
+    </row>
+    <row r="75" spans="1:15" s="183" customFormat="1" ht="12" customHeight="1">
+      <c r="A75" s="171">
+        <v>70</v>
+      </c>
+      <c r="B75" s="171" t="s">
+        <v>358</v>
+      </c>
+      <c r="C75" s="180" t="s">
+        <v>433</v>
+      </c>
+      <c r="D75" s="194" t="s">
+        <v>191</v>
+      </c>
+      <c r="E75" s="194" t="s">
+        <v>192</v>
+      </c>
+      <c r="F75" s="194" t="s">
+        <v>192</v>
+      </c>
+      <c r="G75" s="194" t="s">
+        <v>178</v>
+      </c>
+      <c r="H75" s="194" t="s">
+        <v>176</v>
+      </c>
+      <c r="I75" s="194"/>
+      <c r="J75" s="194"/>
+      <c r="K75" s="199" t="s">
+        <v>187</v>
+      </c>
+      <c r="L75" s="173"/>
+      <c r="M75" s="173"/>
+      <c r="N75" s="173"/>
+      <c r="O75" s="173"/>
+    </row>
+    <row r="76" spans="1:15" s="183" customFormat="1" ht="12" customHeight="1">
+      <c r="A76" s="170">
+        <v>71</v>
+      </c>
+      <c r="B76" s="171" t="s">
+        <v>358</v>
+      </c>
+      <c r="C76" s="180" t="s">
+        <v>434</v>
+      </c>
+      <c r="D76" s="194" t="s">
+        <v>189</v>
+      </c>
+      <c r="E76" s="194" t="s">
+        <v>190</v>
+      </c>
+      <c r="F76" s="194" t="s">
+        <v>190</v>
+      </c>
+      <c r="G76" s="194" t="s">
+        <v>178</v>
+      </c>
+      <c r="H76" s="194" t="s">
+        <v>182</v>
+      </c>
+      <c r="I76" s="194"/>
+      <c r="J76" s="194"/>
+      <c r="K76" s="199" t="s">
+        <v>187</v>
+      </c>
+      <c r="L76" s="173" t="s">
+        <v>183</v>
+      </c>
+      <c r="M76" s="173"/>
+      <c r="N76" s="173"/>
+      <c r="O76" s="173"/>
+    </row>
+    <row r="77" spans="1:15" s="183" customFormat="1" ht="12" customHeight="1">
+      <c r="A77" s="170">
+        <v>72</v>
+      </c>
+      <c r="B77" s="171" t="s">
+        <v>358</v>
+      </c>
+      <c r="C77" s="180" t="s">
+        <v>435</v>
+      </c>
+      <c r="D77" s="194"/>
+      <c r="E77" s="194" t="s">
+        <v>437</v>
+      </c>
+      <c r="F77" s="194"/>
+      <c r="G77" s="173" t="s">
+        <v>180</v>
+      </c>
+      <c r="H77" s="194"/>
+      <c r="I77" s="194"/>
+      <c r="J77" s="194"/>
+      <c r="K77" s="199"/>
+      <c r="L77" s="173"/>
+      <c r="M77" s="173"/>
+      <c r="N77" s="173"/>
+      <c r="O77" s="173"/>
+    </row>
+    <row r="78" spans="1:15" s="183" customFormat="1" ht="12" customHeight="1">
+      <c r="A78" s="170">
+        <v>73</v>
+      </c>
+      <c r="B78" s="171" t="s">
+        <v>358</v>
+      </c>
+      <c r="C78" s="180" t="s">
+        <v>436</v>
+      </c>
+      <c r="D78" s="194"/>
+      <c r="E78" s="194" t="s">
+        <v>438</v>
+      </c>
+      <c r="F78" s="194"/>
+      <c r="G78" s="173" t="s">
+        <v>180</v>
+      </c>
+      <c r="H78" s="194"/>
+      <c r="I78" s="194"/>
+      <c r="J78" s="194"/>
+      <c r="K78" s="199"/>
+      <c r="L78" s="173"/>
+      <c r="M78" s="173"/>
+      <c r="N78" s="173"/>
+      <c r="O78" s="173"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -12271,16 +12765,16 @@
   </mergeCells>
   <dataValidations count="5">
     <dataValidation allowBlank="1" showErrorMessage="1" sqref="F5"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G56:G58 G25:G31 G33:G54 G5:G23">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G56:G58 G25:G31 G33:G54 G5:G23 G67:G70">
       <formula1>"Caption,Textbox,DateTimePicker,RichTextbox,Label,ComboBox,CheckBox,RadioButton,Button,DataGrid, Image,Link,Form,Frame,Menu,MenuItem,Other"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G24 G32">
       <formula1>"Caption,TabControl,Textbox,DateTimePicker,RichTextbox,Label,ComboBox,CheckBox,RadioButton,Button,DataGrid, Image,Link,Form,Frame,Menu,MenuItem,Other"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K5:K23 K24:K54">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K5:K54">
       <formula1>"I,O,I/O"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5:H23 H24:H54">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5:H54">
       <formula1>"Text, Number, DateTime, Boolean"</formula1>
     </dataValidation>
   </dataValidations>
@@ -12347,7 +12841,7 @@
       </c>
       <c r="I1" s="59" t="str">
         <f>'Update History'!J1</f>
-        <v>Thị Phượng</v>
+        <v>Tấn Đạt</v>
       </c>
       <c r="J1" s="58"/>
     </row>
@@ -12377,9 +12871,9 @@
       <c r="H2" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="59">
+      <c r="I2" s="59" t="str">
         <f>'Update History'!J2</f>
-        <v>42821</v>
+        <v>26/01/2018</v>
       </c>
       <c r="J2" s="59"/>
     </row>
@@ -12591,7 +13085,7 @@
   <dimension ref="A1:R11"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -12645,7 +13139,7 @@
       </c>
       <c r="J1" s="34" t="str">
         <f>'Update History'!J1</f>
-        <v>Thị Phượng</v>
+        <v>Tấn Đạt</v>
       </c>
       <c r="K1" s="46"/>
       <c r="L1" s="46"/>
@@ -12677,9 +13171,9 @@
       <c r="I2" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="34">
+      <c r="J2" s="34" t="str">
         <f>'Update History'!J2</f>
-        <v>42821</v>
+        <v>26/01/2018</v>
       </c>
       <c r="K2" s="46"/>
       <c r="L2" s="46"/>
@@ -12706,7 +13200,7 @@
       <c r="G4" s="273"/>
       <c r="H4" s="273"/>
       <c r="I4" s="274"/>
-      <c r="J4" s="170" t="s">
+      <c r="J4" s="169" t="s">
         <v>48</v>
       </c>
     </row>
@@ -12742,7 +13236,7 @@
         <v>155</v>
       </c>
       <c r="C6" s="130" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D6" s="131"/>
       <c r="E6" s="132" t="s">
@@ -12786,7 +13280,7 @@
         <v>155</v>
       </c>
       <c r="C8" s="130" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D8" s="131"/>
       <c r="E8" s="132" t="s">
@@ -12799,65 +13293,90 @@
       <c r="J8" s="266"/>
     </row>
     <row r="9" spans="1:18" ht="23.25" customHeight="1">
-      <c r="A9" s="185">
+      <c r="A9" s="184">
         <v>5</v>
       </c>
-      <c r="B9" s="186" t="s">
+      <c r="B9" s="185" t="s">
         <v>155</v>
       </c>
-      <c r="C9" s="194" t="s">
+      <c r="C9" s="193" t="s">
         <v>131</v>
       </c>
-      <c r="D9" s="187"/>
-      <c r="E9" s="188" t="s">
+      <c r="D9" s="186"/>
+      <c r="E9" s="187" t="s">
+        <v>290</v>
+      </c>
+      <c r="F9" s="269" t="s">
         <v>291</v>
-      </c>
-      <c r="F9" s="269" t="s">
-        <v>292</v>
       </c>
       <c r="G9" s="270"/>
       <c r="H9" s="270"/>
       <c r="I9" s="271"/>
-      <c r="J9" s="189" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" s="192" customFormat="1" ht="27" customHeight="1">
-      <c r="A10" s="171">
+      <c r="J9" s="188" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" s="191" customFormat="1" ht="27" customHeight="1">
+      <c r="A10" s="170">
         <v>6</v>
       </c>
-      <c r="B10" s="171" t="s">
-        <v>359</v>
-      </c>
-      <c r="C10" s="191" t="s">
+      <c r="B10" s="170" t="s">
+        <v>358</v>
+      </c>
+      <c r="C10" s="190" t="s">
         <v>131</v>
       </c>
-      <c r="D10" s="190"/>
-      <c r="E10" s="190" t="s">
+      <c r="D10" s="189"/>
+      <c r="E10" s="189" t="s">
         <v>176</v>
       </c>
-      <c r="F10" s="259" t="s">
-        <v>400</v>
-      </c>
-      <c r="G10" s="259"/>
-      <c r="H10" s="259"/>
-      <c r="I10" s="259"/>
-      <c r="J10" s="190" t="s">
-        <v>402</v>
-      </c>
-      <c r="L10" s="193"/>
-      <c r="M10" s="193"/>
-      <c r="N10" s="193"/>
-      <c r="O10" s="193"/>
-      <c r="P10" s="193"/>
-      <c r="Q10" s="193"/>
-      <c r="R10" s="193"/>
-    </row>
-    <row r="11" spans="1:18" ht="12" customHeight="1">
-      <c r="F11" s="260"/>
+      <c r="F10" s="260" t="s">
+        <v>396</v>
+      </c>
+      <c r="G10" s="260"/>
+      <c r="H10" s="260"/>
+      <c r="I10" s="260"/>
+      <c r="J10" s="189" t="s">
+        <v>398</v>
+      </c>
+      <c r="L10" s="192"/>
+      <c r="M10" s="192"/>
+      <c r="N10" s="192"/>
+      <c r="O10" s="192"/>
+      <c r="P10" s="192"/>
+      <c r="Q10" s="192"/>
+      <c r="R10" s="192"/>
+    </row>
+    <row r="11" spans="1:18" s="191" customFormat="1" ht="33.75">
+      <c r="A11" s="170">
+        <v>7</v>
+      </c>
+      <c r="B11" s="170" t="s">
+        <v>358</v>
+      </c>
+      <c r="C11" s="190" t="s">
+        <v>131</v>
+      </c>
+      <c r="D11" s="189"/>
+      <c r="E11" s="189" t="s">
+        <v>176</v>
+      </c>
+      <c r="F11" s="260" t="s">
+        <v>440</v>
+      </c>
       <c r="G11" s="260"/>
       <c r="H11" s="260"/>
       <c r="I11" s="260"/>
+      <c r="J11" s="200" t="s">
+        <v>439</v>
+      </c>
+      <c r="L11" s="192"/>
+      <c r="M11" s="192"/>
+      <c r="N11" s="192"/>
+      <c r="O11" s="192"/>
+      <c r="P11" s="192"/>
+      <c r="Q11" s="192"/>
+      <c r="R11" s="192"/>
     </row>
   </sheetData>
   <dataConsolidate/>
@@ -12888,7 +13407,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q1048229"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="F1" sqref="F1:G1"/>
     </sheetView>
   </sheetViews>
@@ -12915,12 +13434,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="222" t="s">
+      <c r="A1" s="223" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="222"/>
-      <c r="C1" s="222"/>
-      <c r="D1" s="222"/>
+      <c r="B1" s="223"/>
+      <c r="C1" s="223"/>
+      <c r="D1" s="223"/>
       <c r="E1" s="30" t="s">
         <v>1</v>
       </c>
@@ -12948,7 +13467,7 @@
       </c>
       <c r="M1" s="281" t="str">
         <f>'Update History'!J1</f>
-        <v>Thị Phượng</v>
+        <v>Tấn Đạt</v>
       </c>
       <c r="N1" s="282"/>
       <c r="O1" s="283"/>
@@ -12956,10 +13475,10 @@
       <c r="Q1" s="46"/>
     </row>
     <row r="2" spans="1:17" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="222"/>
-      <c r="B2" s="222"/>
-      <c r="C2" s="222"/>
-      <c r="D2" s="222"/>
+      <c r="A2" s="223"/>
+      <c r="B2" s="223"/>
+      <c r="C2" s="223"/>
+      <c r="D2" s="223"/>
       <c r="E2" s="30" t="s">
         <v>2</v>
       </c>
@@ -12985,9 +13504,9 @@
       <c r="L2" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="281">
+      <c r="M2" s="281" t="str">
         <f>'Update History'!J2</f>
-        <v>42821</v>
+        <v>26/01/2018</v>
       </c>
       <c r="N2" s="282"/>
       <c r="O2" s="283"/>
@@ -13040,7 +13559,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="106" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C5" s="68" t="s">
         <v>221</v>
@@ -13055,16 +13574,16 @@
         <v>161</v>
       </c>
       <c r="G5" s="299" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H5" s="300"/>
       <c r="I5" s="300"/>
       <c r="J5" s="301"/>
       <c r="K5" s="116" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="L5" s="116" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="M5" s="68" t="s">
         <v>159</v>
@@ -13081,10 +13600,10 @@
         <v>10</v>
       </c>
       <c r="B6" s="164" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C6" s="68" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D6" s="114" t="s">
         <v>165</v>
@@ -13096,16 +13615,16 @@
         <v>162</v>
       </c>
       <c r="G6" s="295" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H6" s="296"/>
       <c r="I6" s="296"/>
       <c r="J6" s="297"/>
       <c r="K6" s="116" t="s">
+        <v>307</v>
+      </c>
+      <c r="L6" s="116" t="s">
         <v>308</v>
-      </c>
-      <c r="L6" s="116" t="s">
-        <v>309</v>
       </c>
       <c r="M6" s="68" t="s">
         <v>159</v>
@@ -13122,10 +13641,10 @@
         <v>11</v>
       </c>
       <c r="B7" s="164" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C7" s="68" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D7" s="114" t="s">
         <v>165</v>
@@ -13137,16 +13656,16 @@
         <v>163</v>
       </c>
       <c r="G7" s="295" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H7" s="296"/>
       <c r="I7" s="296"/>
       <c r="J7" s="297"/>
       <c r="K7" s="116" t="s">
+        <v>334</v>
+      </c>
+      <c r="L7" s="116" t="s">
         <v>335</v>
-      </c>
-      <c r="L7" s="116" t="s">
-        <v>336</v>
       </c>
       <c r="M7" s="68" t="s">
         <v>159</v>
@@ -13178,16 +13697,16 @@
         <v>164</v>
       </c>
       <c r="G8" s="275" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H8" s="276"/>
       <c r="I8" s="276"/>
       <c r="J8" s="277"/>
       <c r="K8" s="116" t="s">
+        <v>307</v>
+      </c>
+      <c r="L8" s="116" t="s">
         <v>308</v>
-      </c>
-      <c r="L8" s="116" t="s">
-        <v>309</v>
       </c>
       <c r="M8" s="68" t="s">
         <v>159</v>
@@ -13203,11 +13722,11 @@
       <c r="A9" s="106">
         <v>3</v>
       </c>
-      <c r="B9" s="171" t="s">
-        <v>359</v>
+      <c r="B9" s="170" t="s">
+        <v>358</v>
       </c>
       <c r="C9" s="68" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D9" s="114" t="s">
         <v>165</v>
@@ -13219,16 +13738,16 @@
         <v>197</v>
       </c>
       <c r="G9" s="292" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="H9" s="293"/>
       <c r="I9" s="293"/>
       <c r="J9" s="294"/>
-      <c r="K9" s="198" t="s">
-        <v>404</v>
-      </c>
-      <c r="L9" s="198" t="s">
-        <v>405</v>
+      <c r="K9" s="197" t="s">
+        <v>400</v>
+      </c>
+      <c r="L9" s="197" t="s">
+        <v>401</v>
       </c>
       <c r="M9" s="68" t="s">
         <v>167</v>
@@ -13269,7 +13788,7 @@
         <v>170</v>
       </c>
       <c r="L10" s="116" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="M10" s="68"/>
       <c r="N10" s="115" t="s">
@@ -13285,7 +13804,7 @@
         <v>155</v>
       </c>
       <c r="C11" s="68" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D11" s="114" t="s">
         <v>165</v>
@@ -13297,16 +13816,16 @@
         <v>160</v>
       </c>
       <c r="G11" s="289" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="H11" s="290"/>
       <c r="I11" s="290"/>
       <c r="J11" s="291"/>
       <c r="K11" s="116" t="s">
+        <v>295</v>
+      </c>
+      <c r="L11" s="116" t="s">
         <v>296</v>
-      </c>
-      <c r="L11" s="116" t="s">
-        <v>297</v>
       </c>
       <c r="M11" s="68"/>
       <c r="N11" s="115" t="s">
@@ -13322,31 +13841,31 @@
         <v>155</v>
       </c>
       <c r="C12" s="68" t="s">
+        <v>299</v>
+      </c>
+      <c r="D12" s="114" t="s">
         <v>300</v>
-      </c>
-      <c r="D12" s="114" t="s">
-        <v>301</v>
       </c>
       <c r="E12" s="114" t="s">
         <v>55</v>
       </c>
       <c r="F12" s="113" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G12" s="275" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H12" s="276"/>
       <c r="I12" s="276"/>
       <c r="J12" s="277"/>
       <c r="K12" s="116" t="s">
+        <v>310</v>
+      </c>
+      <c r="L12" s="116" t="s">
         <v>311</v>
       </c>
-      <c r="L12" s="116" t="s">
-        <v>312</v>
-      </c>
       <c r="M12" s="68" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="N12" s="115" t="s">
         <v>168</v>
@@ -13361,31 +13880,31 @@
         <v>155</v>
       </c>
       <c r="C13" s="68" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D13" s="114" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E13" s="114" t="s">
         <v>55</v>
       </c>
       <c r="F13" s="113" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G13" s="275" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H13" s="276"/>
       <c r="I13" s="276"/>
       <c r="J13" s="277"/>
       <c r="K13" s="116" t="s">
+        <v>313</v>
+      </c>
+      <c r="L13" s="116" t="s">
         <v>314</v>
       </c>
-      <c r="L13" s="116" t="s">
-        <v>315</v>
-      </c>
       <c r="M13" s="68" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="N13" s="115" t="s">
         <v>168</v>
@@ -13400,7 +13919,7 @@
         <v>155</v>
       </c>
       <c r="C14" s="68" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D14" s="114" t="s">
         <v>201</v>
@@ -13409,19 +13928,19 @@
         <v>55</v>
       </c>
       <c r="F14" s="113" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G14" s="275" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H14" s="276"/>
       <c r="I14" s="276"/>
       <c r="J14" s="277"/>
       <c r="K14" s="116" t="s">
+        <v>316</v>
+      </c>
+      <c r="L14" s="116" t="s">
         <v>317</v>
-      </c>
-      <c r="L14" s="116" t="s">
-        <v>318</v>
       </c>
       <c r="M14" s="68" t="s">
         <v>201</v>
@@ -13448,7 +13967,7 @@
         <v>55</v>
       </c>
       <c r="F15" s="113" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G15" s="286" t="s">
         <v>202</v>
@@ -13477,31 +13996,31 @@
         <v>7</v>
       </c>
       <c r="B16" s="151" t="s">
+        <v>340</v>
+      </c>
+      <c r="C16" s="152" t="s">
         <v>341</v>
       </c>
-      <c r="C16" s="152" t="s">
+      <c r="D16" s="153" t="s">
         <v>342</v>
-      </c>
-      <c r="D16" s="153" t="s">
-        <v>343</v>
       </c>
       <c r="E16" s="153" t="s">
         <v>55</v>
       </c>
       <c r="F16" s="154" t="s">
+        <v>343</v>
+      </c>
+      <c r="G16" s="278" t="s">
         <v>344</v>
-      </c>
-      <c r="G16" s="278" t="s">
-        <v>345</v>
       </c>
       <c r="H16" s="279"/>
       <c r="I16" s="279"/>
       <c r="J16" s="280"/>
       <c r="K16" s="155" t="s">
+        <v>345</v>
+      </c>
+      <c r="L16" s="155" t="s">
         <v>346</v>
-      </c>
-      <c r="L16" s="155" t="s">
-        <v>347</v>
       </c>
       <c r="M16" s="152"/>
       <c r="N16" s="156" t="s">
@@ -13774,10 +14293,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="12" customHeight="1">
-      <c r="A1" s="222" t="s">
+      <c r="A1" s="223" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="222"/>
+      <c r="B1" s="223"/>
       <c r="C1" s="30" t="s">
         <v>1</v>
       </c>
@@ -13804,12 +14323,12 @@
       </c>
       <c r="J1" s="34" t="str">
         <f>'Update History'!J1</f>
-        <v>Thị Phượng</v>
+        <v>Tấn Đạt</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="12" customHeight="1">
-      <c r="A2" s="222"/>
-      <c r="B2" s="222"/>
+      <c r="A2" s="223"/>
+      <c r="B2" s="223"/>
       <c r="C2" s="30" t="s">
         <v>2</v>
       </c>
@@ -13834,9 +14353,9 @@
       <c r="I2" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="34">
+      <c r="J2" s="34" t="str">
         <f>'Update History'!J2</f>
-        <v>42821</v>
+        <v>26/01/2018</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="12" customHeight="1">
@@ -14128,7 +14647,7 @@
       <c r="A26" s="63"/>
       <c r="B26" s="39"/>
       <c r="C26" s="305" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D26" s="305"/>
       <c r="E26" s="305"/>
@@ -14178,7 +14697,7 @@
       <c r="A30" s="63"/>
       <c r="B30" s="39"/>
       <c r="C30" s="305" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D30" s="305"/>
       <c r="E30" s="305"/>
@@ -14348,7 +14867,7 @@
       <c r="A44" s="63"/>
       <c r="B44" s="39"/>
       <c r="C44" s="305" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D44" s="305"/>
       <c r="E44" s="305"/>
@@ -14410,7 +14929,7 @@
       <c r="A49" s="63"/>
       <c r="B49" s="39"/>
       <c r="C49" s="305" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D49" s="305"/>
       <c r="E49" s="305"/>
@@ -14580,7 +15099,7 @@
       <c r="A63" s="63"/>
       <c r="B63" s="39"/>
       <c r="C63" s="305" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D63" s="305"/>
       <c r="E63" s="305"/>
@@ -14642,7 +15161,7 @@
       <c r="A68" s="63"/>
       <c r="B68" s="39"/>
       <c r="C68" s="305" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D68" s="305"/>
       <c r="E68" s="305"/>
@@ -14799,7 +15318,7 @@
       <c r="A81" s="63"/>
       <c r="B81" s="39"/>
       <c r="C81" s="305" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D81" s="305"/>
       <c r="E81" s="305"/>
@@ -14825,7 +15344,7 @@
       <c r="A83" s="63"/>
       <c r="B83" s="39"/>
       <c r="C83" s="139" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D83" s="122"/>
       <c r="E83" s="122"/>
@@ -14839,7 +15358,7 @@
       <c r="A84" s="63"/>
       <c r="B84" s="39"/>
       <c r="C84" s="140" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D84" s="118"/>
       <c r="E84" s="118"/>
@@ -14853,28 +15372,28 @@
       <c r="A85" s="63"/>
       <c r="B85" s="39"/>
       <c r="C85" s="146" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="86" spans="1:10" ht="12" customHeight="1">
       <c r="A86" s="38"/>
       <c r="B86" s="39"/>
       <c r="C86" s="22" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="87" spans="1:10" ht="12" customHeight="1">
       <c r="A87" s="38"/>
       <c r="B87" s="39"/>
       <c r="C87" s="22" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="88" spans="1:10" ht="11.25" customHeight="1">
       <c r="A88" s="63"/>
       <c r="B88" s="39"/>
       <c r="C88" s="39" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D88" s="39"/>
       <c r="E88" s="39"/>
@@ -15033,10 +15552,10 @@
     </row>
     <row r="101" spans="1:10" ht="12" customHeight="1">
       <c r="A101" s="157" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B101" s="158" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C101" s="159"/>
       <c r="D101" s="160"/>
@@ -15651,10 +16170,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="222" t="s">
+      <c r="A1" s="223" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="222"/>
+      <c r="B1" s="223"/>
       <c r="C1" s="30" t="s">
         <v>1</v>
       </c>
@@ -15681,12 +16200,12 @@
       </c>
       <c r="J1" s="34" t="str">
         <f>'Update History'!J1</f>
-        <v>Thị Phượng</v>
+        <v>Tấn Đạt</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="222"/>
-      <c r="B2" s="222"/>
+      <c r="A2" s="223"/>
+      <c r="B2" s="223"/>
       <c r="C2" s="30" t="s">
         <v>2</v>
       </c>
@@ -15711,9 +16230,9 @@
       <c r="I2" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="34">
+      <c r="J2" s="34" t="str">
         <f>'Update History'!J2</f>
-        <v>42821</v>
+        <v>26/01/2018</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="12" customHeight="1">

--- a/2018/CRM/03_DetailDesign/CRMF2082_Xem chi tiet yeu cau.xlsx
+++ b/2018/CRM/03_DetailDesign/CRMF2082_Xem chi tiet yeu cau.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="15480" windowHeight="9990" tabRatio="836" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="15480" windowHeight="9990" tabRatio="836" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Coverpage" sheetId="20" r:id="rId1"/>
@@ -1419,7 +1419,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="944" uniqueCount="441">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="957" uniqueCount="447">
   <si>
     <t>Detail Design</t>
   </si>
@@ -2992,9 +2992,6 @@
   @RealTime</t>
   </si>
   <si>
-    <t xml:space="preserve">Bổ sung các trường: Loại yêu cầu, Dự án, Deadline mong muốn, Deadline thực tế hoàn thành, Số giờ cho phép, Số giờ thực tế, </t>
-  </si>
-  <si>
     <t>Phân loại bug</t>
   </si>
   <si>
@@ -3108,6 +3105,31 @@
   <si>
     <t>Click btnChooseContact:
 Truyền tham số @DivisionID để gọi đến màn hình CRMF9002</t>
+  </si>
+  <si>
+    <t>Xoá thông tin liên hệ</t>
+  </si>
+  <si>
+    <t>@SQL013</t>
+  </si>
+  <si>
+    <t>00ML000129</t>
+  </si>
+  <si>
+    <t>Require</t>
+  </si>
+  <si>
+    <t>Delete from CRMT20801_CRMT10001_REL
+Where RelatedToTypeID = @RelatedToTypeID
+And ContactID = @ContactID</t>
+  </si>
+  <si>
+    <t>- STT yêu cầu là: 2;5 (bên file Tasklist)
+- Bổ sung các trường: Loại yêu cầu, Dự án, Deadline mong muốn, Deadline thực tế hoàn thành, Số giờ cho phép, Số giờ thực tế, tab Liên hệ</t>
+  </si>
+  <si>
+    <t>- STT yêu cầu là: 1 (bên file Tasklist)
+- Bổ sung trường: Dự án</t>
   </si>
 </sst>
 </file>
@@ -3120,7 +3142,7 @@
     <numFmt numFmtId="166" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
     <numFmt numFmtId="167" formatCode="&quot;¥&quot;#,##0;[Red]&quot;¥&quot;\-#,##0"/>
   </numFmts>
-  <fonts count="31">
+  <fonts count="33">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3306,6 +3328,18 @@
       <sz val="15"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="0"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="15">
@@ -3637,7 +3671,7 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="310">
+  <cellXfs count="331">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4151,6 +4185,20 @@
     <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="11" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4256,7 +4304,7 @@
     <xf numFmtId="0" fontId="11" fillId="6" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4373,6 +4421,15 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -4382,13 +4439,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="11" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4477,6 +4528,46 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="32" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="32" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="32" fillId="8" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="8" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -4494,6 +4585,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF0000FF"/>
       <color rgb="FF00FF00"/>
       <color rgb="FFFF00FF"/>
       <color rgb="FF00FFFF"/>
@@ -7832,65 +7924,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="27" customHeight="1">
-      <c r="A1" s="206"/>
-      <c r="B1" s="206"/>
-      <c r="C1" s="208" t="s">
+      <c r="A1" s="212"/>
+      <c r="B1" s="212"/>
+      <c r="C1" s="214" t="s">
         <v>152</v>
       </c>
-      <c r="D1" s="209"/>
-      <c r="E1" s="209"/>
-      <c r="F1" s="210"/>
-      <c r="G1" s="207" t="s">
+      <c r="D1" s="215"/>
+      <c r="E1" s="215"/>
+      <c r="F1" s="216"/>
+      <c r="G1" s="213" t="s">
         <v>148</v>
       </c>
-      <c r="H1" s="207"/>
-      <c r="I1" s="207" t="s">
+      <c r="H1" s="213"/>
+      <c r="I1" s="213" t="s">
         <v>149</v>
       </c>
-      <c r="J1" s="207"/>
+      <c r="J1" s="213"/>
     </row>
     <row r="2" spans="1:18" ht="23.25" customHeight="1">
-      <c r="A2" s="206"/>
-      <c r="B2" s="206"/>
-      <c r="C2" s="211"/>
-      <c r="D2" s="212"/>
-      <c r="E2" s="212"/>
-      <c r="F2" s="213"/>
-      <c r="G2" s="207" t="s">
+      <c r="A2" s="212"/>
+      <c r="B2" s="212"/>
+      <c r="C2" s="217"/>
+      <c r="D2" s="218"/>
+      <c r="E2" s="218"/>
+      <c r="F2" s="219"/>
+      <c r="G2" s="213" t="s">
         <v>150</v>
       </c>
-      <c r="H2" s="207"/>
-      <c r="I2" s="207"/>
-      <c r="J2" s="207"/>
+      <c r="H2" s="213"/>
+      <c r="I2" s="213"/>
+      <c r="J2" s="213"/>
     </row>
     <row r="3" spans="1:18" ht="12.75" customHeight="1">
-      <c r="A3" s="206"/>
-      <c r="B3" s="206"/>
-      <c r="C3" s="214"/>
-      <c r="D3" s="215"/>
-      <c r="E3" s="215"/>
-      <c r="F3" s="216"/>
-      <c r="G3" s="203" t="s">
+      <c r="A3" s="212"/>
+      <c r="B3" s="212"/>
+      <c r="C3" s="220"/>
+      <c r="D3" s="221"/>
+      <c r="E3" s="221"/>
+      <c r="F3" s="222"/>
+      <c r="G3" s="209" t="s">
         <v>151</v>
       </c>
-      <c r="H3" s="204"/>
-      <c r="I3" s="203"/>
-      <c r="J3" s="204"/>
+      <c r="H3" s="210"/>
+      <c r="I3" s="209"/>
+      <c r="J3" s="210"/>
     </row>
     <row r="4" spans="1:18">
       <c r="H4" s="97"/>
     </row>
     <row r="13" spans="1:18" ht="30">
-      <c r="A13" s="205"/>
-      <c r="B13" s="205"/>
-      <c r="C13" s="205"/>
-      <c r="D13" s="205"/>
-      <c r="E13" s="205"/>
-      <c r="F13" s="205"/>
-      <c r="G13" s="205"/>
-      <c r="H13" s="205"/>
-      <c r="I13" s="205"/>
-      <c r="J13" s="205"/>
+      <c r="A13" s="211"/>
+      <c r="B13" s="211"/>
+      <c r="C13" s="211"/>
+      <c r="D13" s="211"/>
+      <c r="E13" s="211"/>
+      <c r="F13" s="211"/>
+      <c r="G13" s="211"/>
+      <c r="H13" s="211"/>
+      <c r="I13" s="211"/>
+      <c r="J13" s="211"/>
       <c r="K13" s="98"/>
       <c r="L13" s="98"/>
       <c r="M13" s="98"/>
@@ -7901,56 +7993,56 @@
       <c r="R13" s="98"/>
     </row>
     <row r="14" spans="1:18" ht="26.25">
-      <c r="B14" s="201"/>
-      <c r="C14" s="201"/>
-      <c r="D14" s="201"/>
-      <c r="E14" s="201"/>
-      <c r="F14" s="201"/>
-      <c r="G14" s="201"/>
-      <c r="H14" s="201"/>
-      <c r="I14" s="201"/>
-      <c r="J14" s="201"/>
-      <c r="K14" s="201"/>
-      <c r="L14" s="201"/>
-      <c r="M14" s="201"/>
-      <c r="N14" s="201"/>
-      <c r="O14" s="201"/>
-      <c r="P14" s="201"/>
-      <c r="Q14" s="201"/>
-      <c r="R14" s="201"/>
+      <c r="B14" s="207"/>
+      <c r="C14" s="207"/>
+      <c r="D14" s="207"/>
+      <c r="E14" s="207"/>
+      <c r="F14" s="207"/>
+      <c r="G14" s="207"/>
+      <c r="H14" s="207"/>
+      <c r="I14" s="207"/>
+      <c r="J14" s="207"/>
+      <c r="K14" s="207"/>
+      <c r="L14" s="207"/>
+      <c r="M14" s="207"/>
+      <c r="N14" s="207"/>
+      <c r="O14" s="207"/>
+      <c r="P14" s="207"/>
+      <c r="Q14" s="207"/>
+      <c r="R14" s="207"/>
     </row>
     <row r="15" spans="1:18" ht="26.25">
-      <c r="B15" s="201"/>
-      <c r="C15" s="201"/>
-      <c r="D15" s="201"/>
-      <c r="E15" s="201"/>
-      <c r="F15" s="201"/>
-      <c r="G15" s="201"/>
-      <c r="H15" s="201"/>
-      <c r="I15" s="201"/>
-      <c r="J15" s="201"/>
-      <c r="K15" s="201"/>
-      <c r="L15" s="201"/>
-      <c r="M15" s="201"/>
-      <c r="N15" s="201"/>
-      <c r="O15" s="201"/>
-      <c r="P15" s="201"/>
-      <c r="Q15" s="201"/>
-      <c r="R15" s="201"/>
+      <c r="B15" s="207"/>
+      <c r="C15" s="207"/>
+      <c r="D15" s="207"/>
+      <c r="E15" s="207"/>
+      <c r="F15" s="207"/>
+      <c r="G15" s="207"/>
+      <c r="H15" s="207"/>
+      <c r="I15" s="207"/>
+      <c r="J15" s="207"/>
+      <c r="K15" s="207"/>
+      <c r="L15" s="207"/>
+      <c r="M15" s="207"/>
+      <c r="N15" s="207"/>
+      <c r="O15" s="207"/>
+      <c r="P15" s="207"/>
+      <c r="Q15" s="207"/>
+      <c r="R15" s="207"/>
     </row>
     <row r="16" spans="1:18" ht="26.25">
-      <c r="A16" s="202" t="s">
+      <c r="A16" s="208" t="s">
         <v>152</v>
       </c>
-      <c r="B16" s="202"/>
-      <c r="C16" s="202"/>
-      <c r="D16" s="202"/>
-      <c r="E16" s="202"/>
-      <c r="F16" s="202"/>
-      <c r="G16" s="202"/>
-      <c r="H16" s="202"/>
-      <c r="I16" s="202"/>
-      <c r="J16" s="202"/>
+      <c r="B16" s="208"/>
+      <c r="C16" s="208"/>
+      <c r="D16" s="208"/>
+      <c r="E16" s="208"/>
+      <c r="F16" s="208"/>
+      <c r="G16" s="208"/>
+      <c r="H16" s="208"/>
+      <c r="I16" s="208"/>
+      <c r="J16" s="208"/>
       <c r="K16" s="99"/>
       <c r="L16" s="99"/>
       <c r="M16" s="99"/>
@@ -7961,384 +8053,384 @@
       <c r="R16" s="99"/>
     </row>
     <row r="17" spans="1:195" ht="14.1" customHeight="1">
-      <c r="B17" s="201"/>
-      <c r="C17" s="201"/>
-      <c r="D17" s="201"/>
-      <c r="E17" s="201"/>
-      <c r="F17" s="201"/>
-      <c r="G17" s="201"/>
-      <c r="H17" s="201"/>
-      <c r="I17" s="201"/>
-      <c r="J17" s="201"/>
-      <c r="K17" s="201"/>
-      <c r="L17" s="201"/>
-      <c r="M17" s="201"/>
-      <c r="N17" s="201"/>
-      <c r="O17" s="201"/>
-      <c r="P17" s="201"/>
-      <c r="Q17" s="201"/>
-      <c r="R17" s="201"/>
+      <c r="B17" s="207"/>
+      <c r="C17" s="207"/>
+      <c r="D17" s="207"/>
+      <c r="E17" s="207"/>
+      <c r="F17" s="207"/>
+      <c r="G17" s="207"/>
+      <c r="H17" s="207"/>
+      <c r="I17" s="207"/>
+      <c r="J17" s="207"/>
+      <c r="K17" s="207"/>
+      <c r="L17" s="207"/>
+      <c r="M17" s="207"/>
+      <c r="N17" s="207"/>
+      <c r="O17" s="207"/>
+      <c r="P17" s="207"/>
+      <c r="Q17" s="207"/>
+      <c r="R17" s="207"/>
     </row>
     <row r="18" spans="1:195" ht="26.25">
-      <c r="B18" s="201"/>
-      <c r="C18" s="201"/>
-      <c r="D18" s="201"/>
-      <c r="E18" s="201"/>
-      <c r="F18" s="201"/>
-      <c r="G18" s="201"/>
-      <c r="H18" s="201"/>
-      <c r="I18" s="201"/>
-      <c r="J18" s="201"/>
-      <c r="K18" s="201"/>
-      <c r="L18" s="201"/>
-      <c r="M18" s="201"/>
-      <c r="N18" s="201"/>
-      <c r="O18" s="201"/>
-      <c r="P18" s="201"/>
-      <c r="Q18" s="201"/>
-      <c r="R18" s="201"/>
+      <c r="B18" s="207"/>
+      <c r="C18" s="207"/>
+      <c r="D18" s="207"/>
+      <c r="E18" s="207"/>
+      <c r="F18" s="207"/>
+      <c r="G18" s="207"/>
+      <c r="H18" s="207"/>
+      <c r="I18" s="207"/>
+      <c r="J18" s="207"/>
+      <c r="K18" s="207"/>
+      <c r="L18" s="207"/>
+      <c r="M18" s="207"/>
+      <c r="N18" s="207"/>
+      <c r="O18" s="207"/>
+      <c r="P18" s="207"/>
+      <c r="Q18" s="207"/>
+      <c r="R18" s="207"/>
     </row>
     <row r="19" spans="1:195" ht="23.25">
-      <c r="B19" s="218"/>
-      <c r="C19" s="218"/>
-      <c r="D19" s="218"/>
-      <c r="E19" s="218"/>
-      <c r="F19" s="218"/>
-      <c r="G19" s="218"/>
-      <c r="H19" s="218"/>
-      <c r="I19" s="218"/>
-      <c r="J19" s="218"/>
-      <c r="K19" s="218"/>
-      <c r="L19" s="218"/>
-      <c r="M19" s="218"/>
-      <c r="N19" s="218"/>
-      <c r="O19" s="218"/>
-      <c r="P19" s="218"/>
-      <c r="Q19" s="218"/>
-      <c r="R19" s="218"/>
+      <c r="B19" s="224"/>
+      <c r="C19" s="224"/>
+      <c r="D19" s="224"/>
+      <c r="E19" s="224"/>
+      <c r="F19" s="224"/>
+      <c r="G19" s="224"/>
+      <c r="H19" s="224"/>
+      <c r="I19" s="224"/>
+      <c r="J19" s="224"/>
+      <c r="K19" s="224"/>
+      <c r="L19" s="224"/>
+      <c r="M19" s="224"/>
+      <c r="N19" s="224"/>
+      <c r="O19" s="224"/>
+      <c r="P19" s="224"/>
+      <c r="Q19" s="224"/>
+      <c r="R19" s="224"/>
     </row>
     <row r="20" spans="1:195" ht="26.25">
-      <c r="B20" s="201"/>
-      <c r="C20" s="201"/>
-      <c r="D20" s="201"/>
-      <c r="E20" s="201"/>
-      <c r="F20" s="201"/>
-      <c r="G20" s="201"/>
-      <c r="H20" s="201"/>
-      <c r="I20" s="201"/>
-      <c r="J20" s="201"/>
-      <c r="K20" s="201"/>
-      <c r="L20" s="201"/>
-      <c r="M20" s="201"/>
-      <c r="N20" s="201"/>
-      <c r="O20" s="201"/>
-      <c r="P20" s="201"/>
-      <c r="Q20" s="201"/>
-      <c r="R20" s="201"/>
+      <c r="B20" s="207"/>
+      <c r="C20" s="207"/>
+      <c r="D20" s="207"/>
+      <c r="E20" s="207"/>
+      <c r="F20" s="207"/>
+      <c r="G20" s="207"/>
+      <c r="H20" s="207"/>
+      <c r="I20" s="207"/>
+      <c r="J20" s="207"/>
+      <c r="K20" s="207"/>
+      <c r="L20" s="207"/>
+      <c r="M20" s="207"/>
+      <c r="N20" s="207"/>
+      <c r="O20" s="207"/>
+      <c r="P20" s="207"/>
+      <c r="Q20" s="207"/>
+      <c r="R20" s="207"/>
     </row>
     <row r="21" spans="1:195" ht="26.25">
-      <c r="B21" s="201"/>
-      <c r="C21" s="201"/>
-      <c r="D21" s="201"/>
-      <c r="E21" s="201"/>
-      <c r="F21" s="201"/>
-      <c r="G21" s="201"/>
-      <c r="H21" s="201"/>
-      <c r="I21" s="201"/>
-      <c r="J21" s="201"/>
-      <c r="K21" s="201"/>
-      <c r="L21" s="201"/>
-      <c r="M21" s="201"/>
-      <c r="N21" s="201"/>
-      <c r="O21" s="201"/>
-      <c r="P21" s="201"/>
-      <c r="Q21" s="201"/>
-      <c r="R21" s="201"/>
+      <c r="B21" s="207"/>
+      <c r="C21" s="207"/>
+      <c r="D21" s="207"/>
+      <c r="E21" s="207"/>
+      <c r="F21" s="207"/>
+      <c r="G21" s="207"/>
+      <c r="H21" s="207"/>
+      <c r="I21" s="207"/>
+      <c r="J21" s="207"/>
+      <c r="K21" s="207"/>
+      <c r="L21" s="207"/>
+      <c r="M21" s="207"/>
+      <c r="N21" s="207"/>
+      <c r="O21" s="207"/>
+      <c r="P21" s="207"/>
+      <c r="Q21" s="207"/>
+      <c r="R21" s="207"/>
     </row>
     <row r="22" spans="1:195" ht="25.5">
-      <c r="B22" s="217"/>
-      <c r="C22" s="217"/>
-      <c r="D22" s="217"/>
-      <c r="E22" s="217"/>
-      <c r="F22" s="217"/>
-      <c r="G22" s="217"/>
-      <c r="H22" s="217"/>
-      <c r="I22" s="217"/>
-      <c r="J22" s="217"/>
-      <c r="K22" s="217"/>
-      <c r="L22" s="217"/>
-      <c r="M22" s="217"/>
-      <c r="N22" s="217"/>
-      <c r="O22" s="217"/>
-      <c r="P22" s="217"/>
-      <c r="Q22" s="217"/>
-      <c r="R22" s="217"/>
+      <c r="B22" s="223"/>
+      <c r="C22" s="223"/>
+      <c r="D22" s="223"/>
+      <c r="E22" s="223"/>
+      <c r="F22" s="223"/>
+      <c r="G22" s="223"/>
+      <c r="H22" s="223"/>
+      <c r="I22" s="223"/>
+      <c r="J22" s="223"/>
+      <c r="K22" s="223"/>
+      <c r="L22" s="223"/>
+      <c r="M22" s="223"/>
+      <c r="N22" s="223"/>
+      <c r="O22" s="223"/>
+      <c r="P22" s="223"/>
+      <c r="Q22" s="223"/>
+      <c r="R22" s="223"/>
     </row>
     <row r="23" spans="1:195" ht="25.5">
-      <c r="B23" s="217"/>
-      <c r="C23" s="217"/>
-      <c r="D23" s="217"/>
-      <c r="E23" s="217"/>
-      <c r="F23" s="217"/>
-      <c r="G23" s="217"/>
-      <c r="H23" s="217"/>
-      <c r="I23" s="217"/>
-      <c r="J23" s="217"/>
-      <c r="K23" s="217"/>
-      <c r="L23" s="217"/>
-      <c r="M23" s="217"/>
-      <c r="N23" s="217"/>
-      <c r="O23" s="217"/>
-      <c r="P23" s="217"/>
-      <c r="Q23" s="217"/>
-      <c r="R23" s="217"/>
+      <c r="B23" s="223"/>
+      <c r="C23" s="223"/>
+      <c r="D23" s="223"/>
+      <c r="E23" s="223"/>
+      <c r="F23" s="223"/>
+      <c r="G23" s="223"/>
+      <c r="H23" s="223"/>
+      <c r="I23" s="223"/>
+      <c r="J23" s="223"/>
+      <c r="K23" s="223"/>
+      <c r="L23" s="223"/>
+      <c r="M23" s="223"/>
+      <c r="N23" s="223"/>
+      <c r="O23" s="223"/>
+      <c r="P23" s="223"/>
+      <c r="Q23" s="223"/>
+      <c r="R23" s="223"/>
     </row>
     <row r="25" spans="1:195" ht="11.25" customHeight="1"/>
     <row r="26" spans="1:195" ht="18">
-      <c r="B26" s="219"/>
-      <c r="C26" s="219"/>
-      <c r="D26" s="219"/>
-      <c r="E26" s="219"/>
-      <c r="F26" s="219"/>
-      <c r="G26" s="219"/>
-      <c r="H26" s="219"/>
-      <c r="I26" s="219"/>
-      <c r="J26" s="219"/>
-      <c r="K26" s="219"/>
-      <c r="L26" s="219"/>
-      <c r="M26" s="219"/>
-      <c r="N26" s="219"/>
-      <c r="O26" s="219"/>
-      <c r="P26" s="219"/>
-      <c r="Q26" s="219"/>
-      <c r="R26" s="219"/>
+      <c r="B26" s="225"/>
+      <c r="C26" s="225"/>
+      <c r="D26" s="225"/>
+      <c r="E26" s="225"/>
+      <c r="F26" s="225"/>
+      <c r="G26" s="225"/>
+      <c r="H26" s="225"/>
+      <c r="I26" s="225"/>
+      <c r="J26" s="225"/>
+      <c r="K26" s="225"/>
+      <c r="L26" s="225"/>
+      <c r="M26" s="225"/>
+      <c r="N26" s="225"/>
+      <c r="O26" s="225"/>
+      <c r="P26" s="225"/>
+      <c r="Q26" s="225"/>
+      <c r="R26" s="225"/>
     </row>
     <row r="28" spans="1:195" ht="18">
-      <c r="B28" s="221"/>
-      <c r="C28" s="221"/>
-      <c r="D28" s="221"/>
-      <c r="E28" s="221"/>
-      <c r="F28" s="221"/>
-      <c r="G28" s="221"/>
-      <c r="H28" s="221"/>
-      <c r="I28" s="221"/>
-      <c r="J28" s="221"/>
-      <c r="K28" s="221"/>
-      <c r="L28" s="221"/>
-      <c r="M28" s="221"/>
-      <c r="N28" s="221"/>
-      <c r="O28" s="221"/>
-      <c r="P28" s="221"/>
-      <c r="Q28" s="221"/>
-      <c r="R28" s="221"/>
-      <c r="S28" s="220"/>
-      <c r="T28" s="220"/>
-      <c r="U28" s="220"/>
-      <c r="V28" s="220"/>
-      <c r="W28" s="220"/>
-      <c r="X28" s="220"/>
-      <c r="Y28" s="220"/>
-      <c r="Z28" s="220"/>
-      <c r="AA28" s="220"/>
-      <c r="AB28" s="220"/>
-      <c r="AC28" s="220"/>
-      <c r="AD28" s="220"/>
-      <c r="AE28" s="220"/>
-      <c r="AF28" s="220"/>
-      <c r="AG28" s="220"/>
-      <c r="AH28" s="220"/>
-      <c r="AI28" s="220"/>
-      <c r="AJ28" s="220"/>
-      <c r="AK28" s="220"/>
-      <c r="AL28" s="220"/>
-      <c r="AM28" s="220"/>
-      <c r="AN28" s="220"/>
-      <c r="AO28" s="220"/>
-      <c r="AP28" s="220"/>
-      <c r="AQ28" s="220"/>
-      <c r="AR28" s="220"/>
-      <c r="AS28" s="220"/>
-      <c r="AT28" s="220"/>
-      <c r="AU28" s="220"/>
-      <c r="AV28" s="220"/>
-      <c r="AW28" s="220"/>
-      <c r="AX28" s="220"/>
-      <c r="AY28" s="220"/>
-      <c r="AZ28" s="220"/>
-      <c r="BA28" s="220"/>
-      <c r="BB28" s="220"/>
-      <c r="BC28" s="220"/>
-      <c r="BD28" s="220"/>
-      <c r="BE28" s="220"/>
-      <c r="BF28" s="220"/>
-      <c r="BG28" s="220"/>
-      <c r="BH28" s="220"/>
-      <c r="BI28" s="220"/>
-      <c r="BJ28" s="220"/>
-      <c r="BK28" s="220"/>
-      <c r="BL28" s="220"/>
-      <c r="BM28" s="220"/>
-      <c r="BN28" s="220"/>
-      <c r="BO28" s="220"/>
-      <c r="BP28" s="220"/>
-      <c r="BQ28" s="220"/>
-      <c r="BR28" s="220"/>
-      <c r="BS28" s="220"/>
-      <c r="BT28" s="220"/>
-      <c r="BU28" s="220"/>
-      <c r="BV28" s="220"/>
-      <c r="BW28" s="220"/>
-      <c r="BX28" s="220"/>
-      <c r="BY28" s="220"/>
-      <c r="BZ28" s="220"/>
-      <c r="CA28" s="220"/>
-      <c r="CB28" s="220"/>
-      <c r="CC28" s="220"/>
-      <c r="CD28" s="220"/>
-      <c r="CE28" s="220"/>
-      <c r="CF28" s="220"/>
-      <c r="CG28" s="220"/>
-      <c r="CH28" s="220"/>
-      <c r="CI28" s="220"/>
-      <c r="CJ28" s="220"/>
-      <c r="CK28" s="220"/>
-      <c r="CL28" s="220"/>
-      <c r="CM28" s="220"/>
-      <c r="CN28" s="220"/>
-      <c r="CO28" s="220"/>
-      <c r="CP28" s="220"/>
-      <c r="CQ28" s="220"/>
-      <c r="CR28" s="220"/>
-      <c r="CS28" s="220"/>
-      <c r="CT28" s="220"/>
-      <c r="CU28" s="220"/>
-      <c r="CV28" s="220"/>
-      <c r="CW28" s="220"/>
-      <c r="CX28" s="220"/>
-      <c r="CY28" s="220"/>
-      <c r="CZ28" s="220"/>
-      <c r="DA28" s="220"/>
-      <c r="DB28" s="220"/>
-      <c r="DC28" s="220"/>
-      <c r="DD28" s="220"/>
-      <c r="DE28" s="220"/>
-      <c r="DF28" s="220"/>
-      <c r="DG28" s="220"/>
-      <c r="DH28" s="220"/>
-      <c r="DI28" s="220"/>
-      <c r="DJ28" s="220"/>
-      <c r="DK28" s="220"/>
-      <c r="DL28" s="220"/>
-      <c r="DM28" s="220"/>
-      <c r="DN28" s="220"/>
-      <c r="DO28" s="220"/>
-      <c r="DP28" s="220"/>
-      <c r="DQ28" s="220"/>
-      <c r="DR28" s="220"/>
-      <c r="DS28" s="220"/>
-      <c r="DT28" s="220"/>
-      <c r="DU28" s="220"/>
-      <c r="DV28" s="220"/>
-      <c r="DW28" s="220"/>
-      <c r="DX28" s="220"/>
-      <c r="DY28" s="220"/>
-      <c r="DZ28" s="220"/>
-      <c r="EA28" s="220"/>
-      <c r="EB28" s="220"/>
-      <c r="EC28" s="220"/>
-      <c r="ED28" s="220"/>
-      <c r="EE28" s="220"/>
-      <c r="EF28" s="220"/>
-      <c r="EG28" s="220"/>
-      <c r="EH28" s="220"/>
-      <c r="EI28" s="220"/>
-      <c r="EJ28" s="220"/>
-      <c r="EK28" s="220"/>
-      <c r="EL28" s="220"/>
-      <c r="EM28" s="220"/>
-      <c r="EN28" s="220"/>
-      <c r="EO28" s="220"/>
-      <c r="EP28" s="220"/>
-      <c r="EQ28" s="220"/>
-      <c r="ER28" s="220"/>
-      <c r="ES28" s="220"/>
-      <c r="ET28" s="220"/>
-      <c r="EU28" s="220"/>
-      <c r="EV28" s="220"/>
-      <c r="EW28" s="220"/>
-      <c r="EX28" s="220"/>
-      <c r="EY28" s="220"/>
-      <c r="EZ28" s="220"/>
-      <c r="FA28" s="220"/>
-      <c r="FB28" s="220"/>
-      <c r="FC28" s="220"/>
-      <c r="FD28" s="220"/>
-      <c r="FE28" s="220"/>
-      <c r="FF28" s="220"/>
-      <c r="FG28" s="220"/>
-      <c r="FH28" s="220"/>
-      <c r="FI28" s="220"/>
-      <c r="FJ28" s="220"/>
-      <c r="FK28" s="220"/>
-      <c r="FL28" s="220"/>
-      <c r="FM28" s="220"/>
-      <c r="FN28" s="220"/>
-      <c r="FO28" s="220"/>
-      <c r="FP28" s="220"/>
-      <c r="FQ28" s="220"/>
-      <c r="FR28" s="220"/>
-      <c r="FS28" s="220"/>
-      <c r="FT28" s="220"/>
-      <c r="FU28" s="220"/>
-      <c r="FV28" s="220"/>
-      <c r="FW28" s="220"/>
-      <c r="FX28" s="220"/>
-      <c r="FY28" s="220"/>
-      <c r="FZ28" s="220"/>
-      <c r="GA28" s="220"/>
-      <c r="GB28" s="220"/>
-      <c r="GC28" s="220"/>
-      <c r="GD28" s="220"/>
-      <c r="GE28" s="220"/>
-      <c r="GF28" s="220"/>
-      <c r="GG28" s="220"/>
-      <c r="GH28" s="220"/>
-      <c r="GI28" s="220"/>
-      <c r="GJ28" s="220"/>
-      <c r="GK28" s="220"/>
-      <c r="GL28" s="220"/>
+      <c r="B28" s="227"/>
+      <c r="C28" s="227"/>
+      <c r="D28" s="227"/>
+      <c r="E28" s="227"/>
+      <c r="F28" s="227"/>
+      <c r="G28" s="227"/>
+      <c r="H28" s="227"/>
+      <c r="I28" s="227"/>
+      <c r="J28" s="227"/>
+      <c r="K28" s="227"/>
+      <c r="L28" s="227"/>
+      <c r="M28" s="227"/>
+      <c r="N28" s="227"/>
+      <c r="O28" s="227"/>
+      <c r="P28" s="227"/>
+      <c r="Q28" s="227"/>
+      <c r="R28" s="227"/>
+      <c r="S28" s="226"/>
+      <c r="T28" s="226"/>
+      <c r="U28" s="226"/>
+      <c r="V28" s="226"/>
+      <c r="W28" s="226"/>
+      <c r="X28" s="226"/>
+      <c r="Y28" s="226"/>
+      <c r="Z28" s="226"/>
+      <c r="AA28" s="226"/>
+      <c r="AB28" s="226"/>
+      <c r="AC28" s="226"/>
+      <c r="AD28" s="226"/>
+      <c r="AE28" s="226"/>
+      <c r="AF28" s="226"/>
+      <c r="AG28" s="226"/>
+      <c r="AH28" s="226"/>
+      <c r="AI28" s="226"/>
+      <c r="AJ28" s="226"/>
+      <c r="AK28" s="226"/>
+      <c r="AL28" s="226"/>
+      <c r="AM28" s="226"/>
+      <c r="AN28" s="226"/>
+      <c r="AO28" s="226"/>
+      <c r="AP28" s="226"/>
+      <c r="AQ28" s="226"/>
+      <c r="AR28" s="226"/>
+      <c r="AS28" s="226"/>
+      <c r="AT28" s="226"/>
+      <c r="AU28" s="226"/>
+      <c r="AV28" s="226"/>
+      <c r="AW28" s="226"/>
+      <c r="AX28" s="226"/>
+      <c r="AY28" s="226"/>
+      <c r="AZ28" s="226"/>
+      <c r="BA28" s="226"/>
+      <c r="BB28" s="226"/>
+      <c r="BC28" s="226"/>
+      <c r="BD28" s="226"/>
+      <c r="BE28" s="226"/>
+      <c r="BF28" s="226"/>
+      <c r="BG28" s="226"/>
+      <c r="BH28" s="226"/>
+      <c r="BI28" s="226"/>
+      <c r="BJ28" s="226"/>
+      <c r="BK28" s="226"/>
+      <c r="BL28" s="226"/>
+      <c r="BM28" s="226"/>
+      <c r="BN28" s="226"/>
+      <c r="BO28" s="226"/>
+      <c r="BP28" s="226"/>
+      <c r="BQ28" s="226"/>
+      <c r="BR28" s="226"/>
+      <c r="BS28" s="226"/>
+      <c r="BT28" s="226"/>
+      <c r="BU28" s="226"/>
+      <c r="BV28" s="226"/>
+      <c r="BW28" s="226"/>
+      <c r="BX28" s="226"/>
+      <c r="BY28" s="226"/>
+      <c r="BZ28" s="226"/>
+      <c r="CA28" s="226"/>
+      <c r="CB28" s="226"/>
+      <c r="CC28" s="226"/>
+      <c r="CD28" s="226"/>
+      <c r="CE28" s="226"/>
+      <c r="CF28" s="226"/>
+      <c r="CG28" s="226"/>
+      <c r="CH28" s="226"/>
+      <c r="CI28" s="226"/>
+      <c r="CJ28" s="226"/>
+      <c r="CK28" s="226"/>
+      <c r="CL28" s="226"/>
+      <c r="CM28" s="226"/>
+      <c r="CN28" s="226"/>
+      <c r="CO28" s="226"/>
+      <c r="CP28" s="226"/>
+      <c r="CQ28" s="226"/>
+      <c r="CR28" s="226"/>
+      <c r="CS28" s="226"/>
+      <c r="CT28" s="226"/>
+      <c r="CU28" s="226"/>
+      <c r="CV28" s="226"/>
+      <c r="CW28" s="226"/>
+      <c r="CX28" s="226"/>
+      <c r="CY28" s="226"/>
+      <c r="CZ28" s="226"/>
+      <c r="DA28" s="226"/>
+      <c r="DB28" s="226"/>
+      <c r="DC28" s="226"/>
+      <c r="DD28" s="226"/>
+      <c r="DE28" s="226"/>
+      <c r="DF28" s="226"/>
+      <c r="DG28" s="226"/>
+      <c r="DH28" s="226"/>
+      <c r="DI28" s="226"/>
+      <c r="DJ28" s="226"/>
+      <c r="DK28" s="226"/>
+      <c r="DL28" s="226"/>
+      <c r="DM28" s="226"/>
+      <c r="DN28" s="226"/>
+      <c r="DO28" s="226"/>
+      <c r="DP28" s="226"/>
+      <c r="DQ28" s="226"/>
+      <c r="DR28" s="226"/>
+      <c r="DS28" s="226"/>
+      <c r="DT28" s="226"/>
+      <c r="DU28" s="226"/>
+      <c r="DV28" s="226"/>
+      <c r="DW28" s="226"/>
+      <c r="DX28" s="226"/>
+      <c r="DY28" s="226"/>
+      <c r="DZ28" s="226"/>
+      <c r="EA28" s="226"/>
+      <c r="EB28" s="226"/>
+      <c r="EC28" s="226"/>
+      <c r="ED28" s="226"/>
+      <c r="EE28" s="226"/>
+      <c r="EF28" s="226"/>
+      <c r="EG28" s="226"/>
+      <c r="EH28" s="226"/>
+      <c r="EI28" s="226"/>
+      <c r="EJ28" s="226"/>
+      <c r="EK28" s="226"/>
+      <c r="EL28" s="226"/>
+      <c r="EM28" s="226"/>
+      <c r="EN28" s="226"/>
+      <c r="EO28" s="226"/>
+      <c r="EP28" s="226"/>
+      <c r="EQ28" s="226"/>
+      <c r="ER28" s="226"/>
+      <c r="ES28" s="226"/>
+      <c r="ET28" s="226"/>
+      <c r="EU28" s="226"/>
+      <c r="EV28" s="226"/>
+      <c r="EW28" s="226"/>
+      <c r="EX28" s="226"/>
+      <c r="EY28" s="226"/>
+      <c r="EZ28" s="226"/>
+      <c r="FA28" s="226"/>
+      <c r="FB28" s="226"/>
+      <c r="FC28" s="226"/>
+      <c r="FD28" s="226"/>
+      <c r="FE28" s="226"/>
+      <c r="FF28" s="226"/>
+      <c r="FG28" s="226"/>
+      <c r="FH28" s="226"/>
+      <c r="FI28" s="226"/>
+      <c r="FJ28" s="226"/>
+      <c r="FK28" s="226"/>
+      <c r="FL28" s="226"/>
+      <c r="FM28" s="226"/>
+      <c r="FN28" s="226"/>
+      <c r="FO28" s="226"/>
+      <c r="FP28" s="226"/>
+      <c r="FQ28" s="226"/>
+      <c r="FR28" s="226"/>
+      <c r="FS28" s="226"/>
+      <c r="FT28" s="226"/>
+      <c r="FU28" s="226"/>
+      <c r="FV28" s="226"/>
+      <c r="FW28" s="226"/>
+      <c r="FX28" s="226"/>
+      <c r="FY28" s="226"/>
+      <c r="FZ28" s="226"/>
+      <c r="GA28" s="226"/>
+      <c r="GB28" s="226"/>
+      <c r="GC28" s="226"/>
+      <c r="GD28" s="226"/>
+      <c r="GE28" s="226"/>
+      <c r="GF28" s="226"/>
+      <c r="GG28" s="226"/>
+      <c r="GH28" s="226"/>
+      <c r="GI28" s="226"/>
+      <c r="GJ28" s="226"/>
+      <c r="GK28" s="226"/>
+      <c r="GL28" s="226"/>
       <c r="GM28" s="100"/>
     </row>
     <row r="29" spans="1:195" ht="18">
-      <c r="B29" s="219"/>
-      <c r="C29" s="219"/>
-      <c r="D29" s="219"/>
-      <c r="E29" s="219"/>
-      <c r="F29" s="219"/>
-      <c r="G29" s="219"/>
-      <c r="H29" s="219"/>
-      <c r="I29" s="219"/>
-      <c r="J29" s="219"/>
-      <c r="K29" s="219"/>
-      <c r="L29" s="219"/>
-      <c r="M29" s="219"/>
-      <c r="N29" s="219"/>
-      <c r="O29" s="219"/>
-      <c r="P29" s="219"/>
-      <c r="Q29" s="219"/>
-      <c r="R29" s="219"/>
+      <c r="B29" s="225"/>
+      <c r="C29" s="225"/>
+      <c r="D29" s="225"/>
+      <c r="E29" s="225"/>
+      <c r="F29" s="225"/>
+      <c r="G29" s="225"/>
+      <c r="H29" s="225"/>
+      <c r="I29" s="225"/>
+      <c r="J29" s="225"/>
+      <c r="K29" s="225"/>
+      <c r="L29" s="225"/>
+      <c r="M29" s="225"/>
+      <c r="N29" s="225"/>
+      <c r="O29" s="225"/>
+      <c r="P29" s="225"/>
+      <c r="Q29" s="225"/>
+      <c r="R29" s="225"/>
     </row>
     <row r="30" spans="1:195" ht="13.5" customHeight="1">
-      <c r="A30" s="222"/>
-      <c r="B30" s="222"/>
-      <c r="C30" s="222"/>
-      <c r="D30" s="222"/>
-      <c r="E30" s="222"/>
-      <c r="F30" s="222"/>
-      <c r="G30" s="222"/>
-      <c r="H30" s="222"/>
-      <c r="I30" s="222"/>
-      <c r="J30" s="222"/>
+      <c r="A30" s="228"/>
+      <c r="B30" s="228"/>
+      <c r="C30" s="228"/>
+      <c r="D30" s="228"/>
+      <c r="E30" s="228"/>
+      <c r="F30" s="228"/>
+      <c r="G30" s="228"/>
+      <c r="H30" s="228"/>
+      <c r="I30" s="228"/>
+      <c r="J30" s="228"/>
       <c r="K30" s="101"/>
       <c r="L30" s="101"/>
       <c r="M30" s="101"/>
@@ -8349,16 +8441,16 @@
       <c r="R30" s="101"/>
     </row>
     <row r="31" spans="1:195" ht="13.5" customHeight="1">
-      <c r="A31" s="222"/>
-      <c r="B31" s="222"/>
-      <c r="C31" s="222"/>
-      <c r="D31" s="222"/>
-      <c r="E31" s="222"/>
-      <c r="F31" s="222"/>
-      <c r="G31" s="222"/>
-      <c r="H31" s="222"/>
-      <c r="I31" s="222"/>
-      <c r="J31" s="222"/>
+      <c r="A31" s="228"/>
+      <c r="B31" s="228"/>
+      <c r="C31" s="228"/>
+      <c r="D31" s="228"/>
+      <c r="E31" s="228"/>
+      <c r="F31" s="228"/>
+      <c r="G31" s="228"/>
+      <c r="H31" s="228"/>
+      <c r="I31" s="228"/>
+      <c r="J31" s="228"/>
       <c r="K31" s="101"/>
       <c r="L31" s="101"/>
       <c r="M31" s="101"/>
@@ -8431,14 +8523,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="14.25">
-      <c r="B1" s="306" t="s">
+      <c r="B1" s="313" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="306"/>
-      <c r="D1" s="306"/>
-      <c r="E1" s="306"/>
-      <c r="F1" s="306"/>
-      <c r="G1" s="306"/>
+      <c r="C1" s="313"/>
+      <c r="D1" s="313"/>
+      <c r="E1" s="313"/>
+      <c r="F1" s="313"/>
+      <c r="G1" s="313"/>
     </row>
     <row r="2" spans="2:7" s="17" customFormat="1">
       <c r="B2" s="16"/>
@@ -8631,11 +8723,11 @@
       </c>
     </row>
     <row r="27" spans="2:7" ht="200.25" customHeight="1">
-      <c r="E27" s="307" t="s">
+      <c r="E27" s="314" t="s">
         <v>37</v>
       </c>
-      <c r="F27" s="308"/>
-      <c r="G27" s="309"/>
+      <c r="F27" s="315"/>
+      <c r="G27" s="316"/>
     </row>
     <row r="29" spans="2:7">
       <c r="B29" s="19" t="s">
@@ -8942,8 +9034,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10:J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -8959,10 +9051,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="223" t="s">
+      <c r="A1" s="229" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="223"/>
+      <c r="B1" s="229"/>
       <c r="C1" s="30" t="s">
         <v>1</v>
       </c>
@@ -8989,8 +9081,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="223"/>
-      <c r="B2" s="223"/>
+      <c r="A2" s="229"/>
+      <c r="B2" s="229"/>
       <c r="C2" s="30" t="s">
         <v>2</v>
       </c>
@@ -9029,14 +9121,14 @@
       <c r="D4" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="224" t="s">
+      <c r="E4" s="230" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="224"/>
-      <c r="G4" s="224"/>
-      <c r="H4" s="224"/>
-      <c r="I4" s="224"/>
-      <c r="J4" s="224"/>
+      <c r="F4" s="230"/>
+      <c r="G4" s="230"/>
+      <c r="H4" s="230"/>
+      <c r="I4" s="230"/>
+      <c r="J4" s="230"/>
     </row>
     <row r="5" spans="1:10" s="25" customFormat="1" ht="47.25" customHeight="1">
       <c r="A5" s="108">
@@ -9051,14 +9143,14 @@
       <c r="D5" s="34">
         <v>42821</v>
       </c>
-      <c r="E5" s="225" t="s">
+      <c r="E5" s="231" t="s">
         <v>157</v>
       </c>
-      <c r="F5" s="225"/>
-      <c r="G5" s="225"/>
-      <c r="H5" s="225"/>
-      <c r="I5" s="225"/>
-      <c r="J5" s="225"/>
+      <c r="F5" s="231"/>
+      <c r="G5" s="231"/>
+      <c r="H5" s="231"/>
+      <c r="I5" s="231"/>
+      <c r="J5" s="231"/>
     </row>
     <row r="6" spans="1:10" ht="12.75">
       <c r="A6" s="72">
@@ -9073,14 +9165,14 @@
       <c r="D6" s="148">
         <v>42877</v>
       </c>
-      <c r="E6" s="226" t="s">
+      <c r="E6" s="232" t="s">
         <v>337</v>
       </c>
-      <c r="F6" s="227"/>
-      <c r="G6" s="227"/>
-      <c r="H6" s="227"/>
-      <c r="I6" s="227"/>
-      <c r="J6" s="228"/>
+      <c r="F6" s="233"/>
+      <c r="G6" s="233"/>
+      <c r="H6" s="233"/>
+      <c r="I6" s="233"/>
+      <c r="J6" s="234"/>
     </row>
     <row r="7" spans="1:10" ht="12" customHeight="1">
       <c r="A7" s="73">
@@ -9095,14 +9187,14 @@
       <c r="D7" s="150">
         <v>42879</v>
       </c>
-      <c r="E7" s="230" t="s">
+      <c r="E7" s="236" t="s">
         <v>339</v>
       </c>
-      <c r="F7" s="231"/>
-      <c r="G7" s="231"/>
-      <c r="H7" s="231"/>
-      <c r="I7" s="231"/>
-      <c r="J7" s="232"/>
+      <c r="F7" s="237"/>
+      <c r="G7" s="237"/>
+      <c r="H7" s="237"/>
+      <c r="I7" s="237"/>
+      <c r="J7" s="238"/>
     </row>
     <row r="8" spans="1:10" ht="12" customHeight="1">
       <c r="A8" s="74">
@@ -9117,16 +9209,16 @@
       <c r="D8" s="163">
         <v>42983</v>
       </c>
-      <c r="E8" s="233" t="s">
+      <c r="E8" s="239" t="s">
         <v>348</v>
       </c>
-      <c r="F8" s="234"/>
-      <c r="G8" s="234"/>
-      <c r="H8" s="234"/>
-      <c r="I8" s="234"/>
-      <c r="J8" s="235"/>
-    </row>
-    <row r="9" spans="1:10" ht="12" customHeight="1">
+      <c r="F8" s="240"/>
+      <c r="G8" s="240"/>
+      <c r="H8" s="240"/>
+      <c r="I8" s="240"/>
+      <c r="J8" s="241"/>
+    </row>
+    <row r="9" spans="1:10" ht="52.5" customHeight="1">
       <c r="A9" s="75">
         <v>5</v>
       </c>
@@ -9139,30 +9231,34 @@
       <c r="D9" s="168" t="s">
         <v>353</v>
       </c>
-      <c r="E9" s="236" t="s">
-        <v>402</v>
-      </c>
-      <c r="F9" s="237"/>
-      <c r="G9" s="237"/>
-      <c r="H9" s="237"/>
-      <c r="I9" s="237"/>
-      <c r="J9" s="238"/>
-    </row>
-    <row r="10" spans="1:10" ht="12" customHeight="1">
+      <c r="E9" s="242" t="s">
+        <v>445</v>
+      </c>
+      <c r="F9" s="243"/>
+      <c r="G9" s="243"/>
+      <c r="H9" s="243"/>
+      <c r="I9" s="243"/>
+      <c r="J9" s="244"/>
+    </row>
+    <row r="10" spans="1:10" s="322" customFormat="1" ht="27" customHeight="1">
       <c r="A10" s="76">
         <v>6</v>
       </c>
-      <c r="B10" s="37">
+      <c r="B10" s="317">
         <v>6</v>
       </c>
-      <c r="C10" s="66"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="239"/>
-      <c r="F10" s="240"/>
-      <c r="G10" s="240"/>
-      <c r="H10" s="240"/>
-      <c r="I10" s="240"/>
-      <c r="J10" s="241"/>
+      <c r="C10" s="318" t="s">
+        <v>352</v>
+      </c>
+      <c r="D10" s="319"/>
+      <c r="E10" s="323" t="s">
+        <v>446</v>
+      </c>
+      <c r="F10" s="320"/>
+      <c r="G10" s="320"/>
+      <c r="H10" s="320"/>
+      <c r="I10" s="320"/>
+      <c r="J10" s="321"/>
     </row>
     <row r="11" spans="1:10" ht="12" customHeight="1">
       <c r="A11" s="77">
@@ -9173,12 +9269,12 @@
       </c>
       <c r="C11" s="66"/>
       <c r="D11" s="36"/>
-      <c r="E11" s="239"/>
-      <c r="F11" s="240"/>
-      <c r="G11" s="240"/>
-      <c r="H11" s="240"/>
-      <c r="I11" s="240"/>
-      <c r="J11" s="241"/>
+      <c r="E11" s="245"/>
+      <c r="F11" s="246"/>
+      <c r="G11" s="246"/>
+      <c r="H11" s="246"/>
+      <c r="I11" s="246"/>
+      <c r="J11" s="247"/>
     </row>
     <row r="12" spans="1:10" ht="12" customHeight="1">
       <c r="A12" s="78">
@@ -9189,12 +9285,12 @@
       </c>
       <c r="C12" s="66"/>
       <c r="D12" s="36"/>
-      <c r="E12" s="239"/>
-      <c r="F12" s="240"/>
-      <c r="G12" s="240"/>
-      <c r="H12" s="240"/>
-      <c r="I12" s="240"/>
-      <c r="J12" s="241"/>
+      <c r="E12" s="245"/>
+      <c r="F12" s="246"/>
+      <c r="G12" s="246"/>
+      <c r="H12" s="246"/>
+      <c r="I12" s="246"/>
+      <c r="J12" s="247"/>
     </row>
     <row r="13" spans="1:10" ht="12" customHeight="1">
       <c r="A13" s="79">
@@ -9205,12 +9301,12 @@
       </c>
       <c r="C13" s="66"/>
       <c r="D13" s="36"/>
-      <c r="E13" s="239"/>
-      <c r="F13" s="240"/>
-      <c r="G13" s="240"/>
-      <c r="H13" s="240"/>
-      <c r="I13" s="240"/>
-      <c r="J13" s="241"/>
+      <c r="E13" s="245"/>
+      <c r="F13" s="246"/>
+      <c r="G13" s="246"/>
+      <c r="H13" s="246"/>
+      <c r="I13" s="246"/>
+      <c r="J13" s="247"/>
     </row>
     <row r="14" spans="1:10" ht="12" customHeight="1">
       <c r="A14" s="80">
@@ -9221,12 +9317,12 @@
       </c>
       <c r="C14" s="66"/>
       <c r="D14" s="36"/>
-      <c r="E14" s="239"/>
-      <c r="F14" s="240"/>
-      <c r="G14" s="240"/>
-      <c r="H14" s="240"/>
-      <c r="I14" s="240"/>
-      <c r="J14" s="241"/>
+      <c r="E14" s="245"/>
+      <c r="F14" s="246"/>
+      <c r="G14" s="246"/>
+      <c r="H14" s="246"/>
+      <c r="I14" s="246"/>
+      <c r="J14" s="247"/>
     </row>
     <row r="15" spans="1:10" ht="12" customHeight="1">
       <c r="A15" s="36">
@@ -9237,12 +9333,12 @@
       </c>
       <c r="C15" s="66"/>
       <c r="D15" s="36"/>
-      <c r="E15" s="229"/>
-      <c r="F15" s="229"/>
-      <c r="G15" s="229"/>
-      <c r="H15" s="229"/>
-      <c r="I15" s="229"/>
-      <c r="J15" s="229"/>
+      <c r="E15" s="235"/>
+      <c r="F15" s="235"/>
+      <c r="G15" s="235"/>
+      <c r="H15" s="235"/>
+      <c r="I15" s="235"/>
+      <c r="J15" s="235"/>
     </row>
     <row r="16" spans="1:10" ht="12" customHeight="1">
       <c r="A16" s="72">
@@ -9253,12 +9349,12 @@
       </c>
       <c r="C16" s="66"/>
       <c r="D16" s="36"/>
-      <c r="E16" s="229"/>
-      <c r="F16" s="229"/>
-      <c r="G16" s="229"/>
-      <c r="H16" s="229"/>
-      <c r="I16" s="229"/>
-      <c r="J16" s="229"/>
+      <c r="E16" s="235"/>
+      <c r="F16" s="235"/>
+      <c r="G16" s="235"/>
+      <c r="H16" s="235"/>
+      <c r="I16" s="235"/>
+      <c r="J16" s="235"/>
     </row>
     <row r="17" spans="1:10" ht="12" customHeight="1">
       <c r="A17" s="73">
@@ -9269,12 +9365,12 @@
       </c>
       <c r="C17" s="66"/>
       <c r="D17" s="36"/>
-      <c r="E17" s="229"/>
-      <c r="F17" s="229"/>
-      <c r="G17" s="229"/>
-      <c r="H17" s="229"/>
-      <c r="I17" s="229"/>
-      <c r="J17" s="229"/>
+      <c r="E17" s="235"/>
+      <c r="F17" s="235"/>
+      <c r="G17" s="235"/>
+      <c r="H17" s="235"/>
+      <c r="I17" s="235"/>
+      <c r="J17" s="235"/>
     </row>
     <row r="18" spans="1:10" ht="12" customHeight="1">
       <c r="A18" s="74">
@@ -9285,12 +9381,12 @@
       </c>
       <c r="C18" s="66"/>
       <c r="D18" s="36"/>
-      <c r="E18" s="229"/>
-      <c r="F18" s="229"/>
-      <c r="G18" s="229"/>
-      <c r="H18" s="229"/>
-      <c r="I18" s="229"/>
-      <c r="J18" s="229"/>
+      <c r="E18" s="235"/>
+      <c r="F18" s="235"/>
+      <c r="G18" s="235"/>
+      <c r="H18" s="235"/>
+      <c r="I18" s="235"/>
+      <c r="J18" s="235"/>
     </row>
     <row r="19" spans="1:10" ht="12" customHeight="1">
       <c r="A19" s="75">
@@ -9301,12 +9397,12 @@
       </c>
       <c r="C19" s="66"/>
       <c r="D19" s="36"/>
-      <c r="E19" s="229"/>
-      <c r="F19" s="229"/>
-      <c r="G19" s="229"/>
-      <c r="H19" s="229"/>
-      <c r="I19" s="229"/>
-      <c r="J19" s="229"/>
+      <c r="E19" s="235"/>
+      <c r="F19" s="235"/>
+      <c r="G19" s="235"/>
+      <c r="H19" s="235"/>
+      <c r="I19" s="235"/>
+      <c r="J19" s="235"/>
     </row>
     <row r="20" spans="1:10" ht="12" customHeight="1">
       <c r="A20" s="76">
@@ -9317,12 +9413,12 @@
       </c>
       <c r="C20" s="66"/>
       <c r="D20" s="36"/>
-      <c r="E20" s="229"/>
-      <c r="F20" s="229"/>
-      <c r="G20" s="229"/>
-      <c r="H20" s="229"/>
-      <c r="I20" s="229"/>
-      <c r="J20" s="229"/>
+      <c r="E20" s="235"/>
+      <c r="F20" s="235"/>
+      <c r="G20" s="235"/>
+      <c r="H20" s="235"/>
+      <c r="I20" s="235"/>
+      <c r="J20" s="235"/>
     </row>
     <row r="21" spans="1:10" ht="12" customHeight="1">
       <c r="A21" s="77">
@@ -9333,12 +9429,12 @@
       </c>
       <c r="C21" s="66"/>
       <c r="D21" s="36"/>
-      <c r="E21" s="229"/>
-      <c r="F21" s="229"/>
-      <c r="G21" s="229"/>
-      <c r="H21" s="229"/>
-      <c r="I21" s="229"/>
-      <c r="J21" s="229"/>
+      <c r="E21" s="235"/>
+      <c r="F21" s="235"/>
+      <c r="G21" s="235"/>
+      <c r="H21" s="235"/>
+      <c r="I21" s="235"/>
+      <c r="J21" s="235"/>
     </row>
     <row r="22" spans="1:10" ht="12" customHeight="1">
       <c r="A22" s="78">
@@ -9349,12 +9445,12 @@
       </c>
       <c r="C22" s="66"/>
       <c r="D22" s="36"/>
-      <c r="E22" s="229"/>
-      <c r="F22" s="229"/>
-      <c r="G22" s="229"/>
-      <c r="H22" s="229"/>
-      <c r="I22" s="229"/>
-      <c r="J22" s="229"/>
+      <c r="E22" s="235"/>
+      <c r="F22" s="235"/>
+      <c r="G22" s="235"/>
+      <c r="H22" s="235"/>
+      <c r="I22" s="235"/>
+      <c r="J22" s="235"/>
     </row>
     <row r="23" spans="1:10" ht="12" customHeight="1">
       <c r="A23" s="79">
@@ -9365,12 +9461,12 @@
       </c>
       <c r="C23" s="66"/>
       <c r="D23" s="36"/>
-      <c r="E23" s="229"/>
-      <c r="F23" s="229"/>
-      <c r="G23" s="229"/>
-      <c r="H23" s="229"/>
-      <c r="I23" s="229"/>
-      <c r="J23" s="229"/>
+      <c r="E23" s="235"/>
+      <c r="F23" s="235"/>
+      <c r="G23" s="235"/>
+      <c r="H23" s="235"/>
+      <c r="I23" s="235"/>
+      <c r="J23" s="235"/>
     </row>
     <row r="24" spans="1:10" ht="12" customHeight="1">
       <c r="A24" s="80">
@@ -9381,12 +9477,12 @@
       </c>
       <c r="C24" s="66"/>
       <c r="D24" s="36"/>
-      <c r="E24" s="229"/>
-      <c r="F24" s="229"/>
-      <c r="G24" s="229"/>
-      <c r="H24" s="229"/>
-      <c r="I24" s="229"/>
-      <c r="J24" s="229"/>
+      <c r="E24" s="235"/>
+      <c r="F24" s="235"/>
+      <c r="G24" s="235"/>
+      <c r="H24" s="235"/>
+      <c r="I24" s="235"/>
+      <c r="J24" s="235"/>
     </row>
     <row r="25" spans="1:10" ht="12" customHeight="1">
       <c r="A25" s="36">
@@ -9397,12 +9493,12 @@
       </c>
       <c r="C25" s="66"/>
       <c r="D25" s="36"/>
-      <c r="E25" s="229"/>
-      <c r="F25" s="229"/>
-      <c r="G25" s="229"/>
-      <c r="H25" s="229"/>
-      <c r="I25" s="229"/>
-      <c r="J25" s="229"/>
+      <c r="E25" s="235"/>
+      <c r="F25" s="235"/>
+      <c r="G25" s="235"/>
+      <c r="H25" s="235"/>
+      <c r="I25" s="235"/>
+      <c r="J25" s="235"/>
     </row>
     <row r="26" spans="1:10" ht="12" customHeight="1">
       <c r="A26" s="72">
@@ -9413,12 +9509,12 @@
       </c>
       <c r="C26" s="66"/>
       <c r="D26" s="36"/>
-      <c r="E26" s="229"/>
-      <c r="F26" s="229"/>
-      <c r="G26" s="229"/>
-      <c r="H26" s="229"/>
-      <c r="I26" s="229"/>
-      <c r="J26" s="229"/>
+      <c r="E26" s="235"/>
+      <c r="F26" s="235"/>
+      <c r="G26" s="235"/>
+      <c r="H26" s="235"/>
+      <c r="I26" s="235"/>
+      <c r="J26" s="235"/>
     </row>
     <row r="27" spans="1:10" ht="12" customHeight="1">
       <c r="A27" s="73">
@@ -9429,12 +9525,12 @@
       </c>
       <c r="C27" s="66"/>
       <c r="D27" s="36"/>
-      <c r="E27" s="229"/>
-      <c r="F27" s="229"/>
-      <c r="G27" s="229"/>
-      <c r="H27" s="229"/>
-      <c r="I27" s="229"/>
-      <c r="J27" s="229"/>
+      <c r="E27" s="235"/>
+      <c r="F27" s="235"/>
+      <c r="G27" s="235"/>
+      <c r="H27" s="235"/>
+      <c r="I27" s="235"/>
+      <c r="J27" s="235"/>
     </row>
     <row r="28" spans="1:10" ht="12" customHeight="1">
       <c r="A28" s="74">
@@ -9445,12 +9541,12 @@
       </c>
       <c r="C28" s="66"/>
       <c r="D28" s="36"/>
-      <c r="E28" s="229"/>
-      <c r="F28" s="229"/>
-      <c r="G28" s="229"/>
-      <c r="H28" s="229"/>
-      <c r="I28" s="229"/>
-      <c r="J28" s="229"/>
+      <c r="E28" s="235"/>
+      <c r="F28" s="235"/>
+      <c r="G28" s="235"/>
+      <c r="H28" s="235"/>
+      <c r="I28" s="235"/>
+      <c r="J28" s="235"/>
     </row>
     <row r="29" spans="1:10" ht="12" customHeight="1">
       <c r="A29" s="75">
@@ -9461,12 +9557,12 @@
       </c>
       <c r="C29" s="66"/>
       <c r="D29" s="36"/>
-      <c r="E29" s="229"/>
-      <c r="F29" s="229"/>
-      <c r="G29" s="229"/>
-      <c r="H29" s="229"/>
-      <c r="I29" s="229"/>
-      <c r="J29" s="229"/>
+      <c r="E29" s="235"/>
+      <c r="F29" s="235"/>
+      <c r="G29" s="235"/>
+      <c r="H29" s="235"/>
+      <c r="I29" s="235"/>
+      <c r="J29" s="235"/>
     </row>
     <row r="30" spans="1:10" ht="12" customHeight="1">
       <c r="A30" s="76">
@@ -9477,12 +9573,12 @@
       </c>
       <c r="C30" s="66"/>
       <c r="D30" s="36"/>
-      <c r="E30" s="229"/>
-      <c r="F30" s="229"/>
-      <c r="G30" s="229"/>
-      <c r="H30" s="229"/>
-      <c r="I30" s="229"/>
-      <c r="J30" s="229"/>
+      <c r="E30" s="235"/>
+      <c r="F30" s="235"/>
+      <c r="G30" s="235"/>
+      <c r="H30" s="235"/>
+      <c r="I30" s="235"/>
+      <c r="J30" s="235"/>
     </row>
     <row r="31" spans="1:10" ht="12" customHeight="1">
       <c r="A31" s="77">
@@ -9493,12 +9589,12 @@
       </c>
       <c r="C31" s="66"/>
       <c r="D31" s="36"/>
-      <c r="E31" s="229"/>
-      <c r="F31" s="229"/>
-      <c r="G31" s="229"/>
-      <c r="H31" s="229"/>
-      <c r="I31" s="229"/>
-      <c r="J31" s="229"/>
+      <c r="E31" s="235"/>
+      <c r="F31" s="235"/>
+      <c r="G31" s="235"/>
+      <c r="H31" s="235"/>
+      <c r="I31" s="235"/>
+      <c r="J31" s="235"/>
     </row>
     <row r="32" spans="1:10" ht="12" customHeight="1">
       <c r="A32" s="78">
@@ -9509,12 +9605,12 @@
       </c>
       <c r="C32" s="66"/>
       <c r="D32" s="36"/>
-      <c r="E32" s="229"/>
-      <c r="F32" s="229"/>
-      <c r="G32" s="229"/>
-      <c r="H32" s="229"/>
-      <c r="I32" s="229"/>
-      <c r="J32" s="229"/>
+      <c r="E32" s="235"/>
+      <c r="F32" s="235"/>
+      <c r="G32" s="235"/>
+      <c r="H32" s="235"/>
+      <c r="I32" s="235"/>
+      <c r="J32" s="235"/>
     </row>
     <row r="33" spans="1:10" ht="12" customHeight="1">
       <c r="A33" s="79">
@@ -9525,12 +9621,12 @@
       </c>
       <c r="C33" s="66"/>
       <c r="D33" s="36"/>
-      <c r="E33" s="229"/>
-      <c r="F33" s="229"/>
-      <c r="G33" s="229"/>
-      <c r="H33" s="229"/>
-      <c r="I33" s="229"/>
-      <c r="J33" s="229"/>
+      <c r="E33" s="235"/>
+      <c r="F33" s="235"/>
+      <c r="G33" s="235"/>
+      <c r="H33" s="235"/>
+      <c r="I33" s="235"/>
+      <c r="J33" s="235"/>
     </row>
     <row r="34" spans="1:10" ht="12" customHeight="1">
       <c r="A34" s="80">
@@ -9541,12 +9637,12 @@
       </c>
       <c r="C34" s="66"/>
       <c r="D34" s="36"/>
-      <c r="E34" s="229"/>
-      <c r="F34" s="229"/>
-      <c r="G34" s="229"/>
-      <c r="H34" s="229"/>
-      <c r="I34" s="229"/>
-      <c r="J34" s="229"/>
+      <c r="E34" s="235"/>
+      <c r="F34" s="235"/>
+      <c r="G34" s="235"/>
+      <c r="H34" s="235"/>
+      <c r="I34" s="235"/>
+      <c r="J34" s="235"/>
     </row>
   </sheetData>
   <mergeCells count="32">
@@ -9606,7 +9702,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A13" zoomScale="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="I12" sqref="I12:J39"/>
     </sheetView>
   </sheetViews>
@@ -9626,10 +9722,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="223" t="s">
+      <c r="A1" s="229" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="223"/>
+      <c r="B1" s="229"/>
       <c r="C1" s="30" t="s">
         <v>1</v>
       </c>
@@ -9660,8 +9756,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="223"/>
-      <c r="B2" s="223"/>
+      <c r="A2" s="229"/>
+      <c r="B2" s="229"/>
       <c r="C2" s="30" t="s">
         <v>2</v>
       </c>
@@ -9692,20 +9788,20 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="12" customHeight="1">
-      <c r="A4" s="242" t="s">
+      <c r="A4" s="248" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="244"/>
-      <c r="C4" s="244"/>
-      <c r="D4" s="244"/>
-      <c r="E4" s="244"/>
-      <c r="F4" s="244"/>
-      <c r="G4" s="244"/>
-      <c r="H4" s="243"/>
-      <c r="I4" s="242" t="s">
+      <c r="B4" s="250"/>
+      <c r="C4" s="250"/>
+      <c r="D4" s="250"/>
+      <c r="E4" s="250"/>
+      <c r="F4" s="250"/>
+      <c r="G4" s="250"/>
+      <c r="H4" s="249"/>
+      <c r="I4" s="248" t="s">
         <v>38</v>
       </c>
-      <c r="J4" s="243"/>
+      <c r="J4" s="249"/>
     </row>
     <row r="5" spans="1:10" ht="12" customHeight="1">
       <c r="A5" s="38"/>
@@ -9716,10 +9812,10 @@
       <c r="F5" s="39"/>
       <c r="G5" s="39"/>
       <c r="H5" s="40"/>
-      <c r="I5" s="249" t="s">
+      <c r="I5" s="255" t="s">
         <v>226</v>
       </c>
-      <c r="J5" s="250"/>
+      <c r="J5" s="256"/>
     </row>
     <row r="6" spans="1:10" ht="12" customHeight="1">
       <c r="A6" s="38"/>
@@ -9730,8 +9826,8 @@
       <c r="F6" s="39"/>
       <c r="G6" s="39"/>
       <c r="H6" s="41"/>
-      <c r="I6" s="251"/>
-      <c r="J6" s="252"/>
+      <c r="I6" s="257"/>
+      <c r="J6" s="258"/>
     </row>
     <row r="7" spans="1:10" ht="12" customHeight="1">
       <c r="A7" s="38"/>
@@ -9742,8 +9838,8 @@
       <c r="F7" s="39"/>
       <c r="G7" s="39"/>
       <c r="H7" s="41"/>
-      <c r="I7" s="251"/>
-      <c r="J7" s="252"/>
+      <c r="I7" s="257"/>
+      <c r="J7" s="258"/>
     </row>
     <row r="8" spans="1:10" ht="12" customHeight="1">
       <c r="A8" s="38"/>
@@ -9754,8 +9850,8 @@
       <c r="F8" s="39"/>
       <c r="G8" s="39"/>
       <c r="H8" s="41"/>
-      <c r="I8" s="251"/>
-      <c r="J8" s="252"/>
+      <c r="I8" s="257"/>
+      <c r="J8" s="258"/>
     </row>
     <row r="9" spans="1:10" ht="12" customHeight="1">
       <c r="A9" s="38"/>
@@ -9766,8 +9862,8 @@
       <c r="F9" s="39"/>
       <c r="G9" s="39"/>
       <c r="H9" s="41"/>
-      <c r="I9" s="251"/>
-      <c r="J9" s="252"/>
+      <c r="I9" s="257"/>
+      <c r="J9" s="258"/>
     </row>
     <row r="10" spans="1:10" ht="12" customHeight="1">
       <c r="A10" s="38"/>
@@ -9778,8 +9874,8 @@
       <c r="F10" s="39"/>
       <c r="G10" s="39"/>
       <c r="H10" s="41"/>
-      <c r="I10" s="253"/>
-      <c r="J10" s="254"/>
+      <c r="I10" s="259"/>
+      <c r="J10" s="260"/>
     </row>
     <row r="11" spans="1:10" ht="12" customHeight="1">
       <c r="A11" s="38"/>
@@ -9790,10 +9886,10 @@
       <c r="F11" s="39"/>
       <c r="G11" s="39"/>
       <c r="H11" s="42"/>
-      <c r="I11" s="242" t="s">
+      <c r="I11" s="248" t="s">
         <v>39</v>
       </c>
-      <c r="J11" s="243"/>
+      <c r="J11" s="249"/>
     </row>
     <row r="12" spans="1:10" ht="12" customHeight="1">
       <c r="A12" s="38"/>
@@ -9804,10 +9900,10 @@
       <c r="F12" s="39"/>
       <c r="G12" s="39"/>
       <c r="H12" s="41"/>
-      <c r="I12" s="245" t="s">
+      <c r="I12" s="251" t="s">
         <v>227</v>
       </c>
-      <c r="J12" s="246"/>
+      <c r="J12" s="252"/>
     </row>
     <row r="13" spans="1:10" ht="12" customHeight="1">
       <c r="A13" s="38"/>
@@ -9818,8 +9914,8 @@
       <c r="F13" s="39"/>
       <c r="G13" s="39"/>
       <c r="H13" s="41"/>
-      <c r="I13" s="247"/>
-      <c r="J13" s="248"/>
+      <c r="I13" s="253"/>
+      <c r="J13" s="254"/>
     </row>
     <row r="14" spans="1:10" ht="12" customHeight="1">
       <c r="A14" s="38"/>
@@ -9830,8 +9926,8 @@
       <c r="F14" s="39"/>
       <c r="G14" s="39"/>
       <c r="H14" s="41"/>
-      <c r="I14" s="247"/>
-      <c r="J14" s="248"/>
+      <c r="I14" s="253"/>
+      <c r="J14" s="254"/>
     </row>
     <row r="15" spans="1:10" ht="12" customHeight="1">
       <c r="A15" s="38"/>
@@ -9842,8 +9938,8 @@
       <c r="F15" s="39"/>
       <c r="G15" s="39"/>
       <c r="H15" s="41"/>
-      <c r="I15" s="247"/>
-      <c r="J15" s="248"/>
+      <c r="I15" s="253"/>
+      <c r="J15" s="254"/>
     </row>
     <row r="16" spans="1:10" ht="12" customHeight="1">
       <c r="A16" s="38"/>
@@ -9854,8 +9950,8 @@
       <c r="F16" s="39"/>
       <c r="G16" s="39"/>
       <c r="H16" s="41"/>
-      <c r="I16" s="247"/>
-      <c r="J16" s="248"/>
+      <c r="I16" s="253"/>
+      <c r="J16" s="254"/>
     </row>
     <row r="17" spans="1:10" ht="12" customHeight="1">
       <c r="A17" s="38"/>
@@ -9866,8 +9962,8 @@
       <c r="F17" s="39"/>
       <c r="G17" s="39"/>
       <c r="H17" s="41"/>
-      <c r="I17" s="247"/>
-      <c r="J17" s="248"/>
+      <c r="I17" s="253"/>
+      <c r="J17" s="254"/>
     </row>
     <row r="18" spans="1:10" ht="12" customHeight="1">
       <c r="A18" s="38"/>
@@ -9878,8 +9974,8 @@
       <c r="F18" s="39"/>
       <c r="G18" s="39"/>
       <c r="H18" s="41"/>
-      <c r="I18" s="247"/>
-      <c r="J18" s="248"/>
+      <c r="I18" s="253"/>
+      <c r="J18" s="254"/>
     </row>
     <row r="19" spans="1:10" ht="12" customHeight="1">
       <c r="A19" s="38"/>
@@ -9890,8 +9986,8 @@
       <c r="F19" s="39"/>
       <c r="G19" s="39"/>
       <c r="H19" s="41"/>
-      <c r="I19" s="247"/>
-      <c r="J19" s="248"/>
+      <c r="I19" s="253"/>
+      <c r="J19" s="254"/>
     </row>
     <row r="20" spans="1:10" ht="12" customHeight="1">
       <c r="A20" s="38"/>
@@ -9902,8 +9998,8 @@
       <c r="F20" s="39"/>
       <c r="G20" s="39"/>
       <c r="H20" s="41"/>
-      <c r="I20" s="247"/>
-      <c r="J20" s="248"/>
+      <c r="I20" s="253"/>
+      <c r="J20" s="254"/>
     </row>
     <row r="21" spans="1:10" ht="12" customHeight="1">
       <c r="A21" s="38"/>
@@ -9914,8 +10010,8 @@
       <c r="F21" s="39"/>
       <c r="G21" s="39"/>
       <c r="H21" s="41"/>
-      <c r="I21" s="247"/>
-      <c r="J21" s="248"/>
+      <c r="I21" s="253"/>
+      <c r="J21" s="254"/>
     </row>
     <row r="22" spans="1:10" ht="12" customHeight="1">
       <c r="A22" s="38"/>
@@ -9926,8 +10022,8 @@
       <c r="F22" s="39"/>
       <c r="G22" s="39"/>
       <c r="H22" s="41"/>
-      <c r="I22" s="247"/>
-      <c r="J22" s="248"/>
+      <c r="I22" s="253"/>
+      <c r="J22" s="254"/>
     </row>
     <row r="23" spans="1:10" ht="12" customHeight="1">
       <c r="A23" s="38"/>
@@ -9938,8 +10034,8 @@
       <c r="F23" s="39"/>
       <c r="G23" s="39"/>
       <c r="H23" s="41"/>
-      <c r="I23" s="247"/>
-      <c r="J23" s="248"/>
+      <c r="I23" s="253"/>
+      <c r="J23" s="254"/>
     </row>
     <row r="24" spans="1:10" ht="12" customHeight="1">
       <c r="A24" s="38"/>
@@ -9950,8 +10046,8 @@
       <c r="F24" s="39"/>
       <c r="G24" s="39"/>
       <c r="H24" s="41"/>
-      <c r="I24" s="247"/>
-      <c r="J24" s="248"/>
+      <c r="I24" s="253"/>
+      <c r="J24" s="254"/>
     </row>
     <row r="25" spans="1:10" ht="12" customHeight="1">
       <c r="A25" s="38"/>
@@ -9962,8 +10058,8 @@
       <c r="F25" s="39"/>
       <c r="G25" s="39"/>
       <c r="H25" s="41"/>
-      <c r="I25" s="247"/>
-      <c r="J25" s="248"/>
+      <c r="I25" s="253"/>
+      <c r="J25" s="254"/>
     </row>
     <row r="26" spans="1:10" ht="12" customHeight="1">
       <c r="A26" s="38"/>
@@ -9974,8 +10070,8 @@
       <c r="F26" s="39"/>
       <c r="G26" s="39"/>
       <c r="H26" s="41"/>
-      <c r="I26" s="247"/>
-      <c r="J26" s="248"/>
+      <c r="I26" s="253"/>
+      <c r="J26" s="254"/>
     </row>
     <row r="27" spans="1:10" ht="12" customHeight="1">
       <c r="A27" s="38"/>
@@ -9986,8 +10082,8 @@
       <c r="F27" s="39"/>
       <c r="G27" s="39"/>
       <c r="H27" s="41"/>
-      <c r="I27" s="247"/>
-      <c r="J27" s="248"/>
+      <c r="I27" s="253"/>
+      <c r="J27" s="254"/>
     </row>
     <row r="28" spans="1:10" ht="12" customHeight="1">
       <c r="A28" s="38"/>
@@ -9998,8 +10094,8 @@
       <c r="F28" s="39"/>
       <c r="G28" s="39"/>
       <c r="H28" s="41"/>
-      <c r="I28" s="247"/>
-      <c r="J28" s="248"/>
+      <c r="I28" s="253"/>
+      <c r="J28" s="254"/>
     </row>
     <row r="29" spans="1:10" ht="12" customHeight="1">
       <c r="A29" s="38"/>
@@ -10010,8 +10106,8 @@
       <c r="F29" s="39"/>
       <c r="G29" s="39"/>
       <c r="H29" s="41"/>
-      <c r="I29" s="247"/>
-      <c r="J29" s="248"/>
+      <c r="I29" s="253"/>
+      <c r="J29" s="254"/>
     </row>
     <row r="30" spans="1:10" ht="12" customHeight="1">
       <c r="A30" s="38"/>
@@ -10022,8 +10118,8 @@
       <c r="F30" s="39"/>
       <c r="G30" s="39"/>
       <c r="H30" s="41"/>
-      <c r="I30" s="247"/>
-      <c r="J30" s="248"/>
+      <c r="I30" s="253"/>
+      <c r="J30" s="254"/>
     </row>
     <row r="31" spans="1:10" ht="12" customHeight="1">
       <c r="A31" s="38"/>
@@ -10034,8 +10130,8 @@
       <c r="F31" s="39"/>
       <c r="G31" s="39"/>
       <c r="H31" s="41"/>
-      <c r="I31" s="247"/>
-      <c r="J31" s="248"/>
+      <c r="I31" s="253"/>
+      <c r="J31" s="254"/>
     </row>
     <row r="32" spans="1:10" ht="12" customHeight="1">
       <c r="A32" s="38"/>
@@ -10046,8 +10142,8 @@
       <c r="F32" s="39"/>
       <c r="G32" s="39"/>
       <c r="H32" s="41"/>
-      <c r="I32" s="247"/>
-      <c r="J32" s="248"/>
+      <c r="I32" s="253"/>
+      <c r="J32" s="254"/>
     </row>
     <row r="33" spans="1:10" ht="12" customHeight="1">
       <c r="A33" s="38"/>
@@ -10058,8 +10154,8 @@
       <c r="F33" s="39"/>
       <c r="G33" s="39"/>
       <c r="H33" s="41"/>
-      <c r="I33" s="247"/>
-      <c r="J33" s="248"/>
+      <c r="I33" s="253"/>
+      <c r="J33" s="254"/>
     </row>
     <row r="34" spans="1:10" ht="12" customHeight="1">
       <c r="A34" s="38"/>
@@ -10070,8 +10166,8 @@
       <c r="F34" s="39"/>
       <c r="G34" s="39"/>
       <c r="H34" s="41"/>
-      <c r="I34" s="247"/>
-      <c r="J34" s="248"/>
+      <c r="I34" s="253"/>
+      <c r="J34" s="254"/>
     </row>
     <row r="35" spans="1:10" ht="12" customHeight="1">
       <c r="A35" s="38"/>
@@ -10082,8 +10178,8 @@
       <c r="F35" s="39"/>
       <c r="G35" s="39"/>
       <c r="H35" s="41"/>
-      <c r="I35" s="247"/>
-      <c r="J35" s="248"/>
+      <c r="I35" s="253"/>
+      <c r="J35" s="254"/>
     </row>
     <row r="36" spans="1:10" ht="12" customHeight="1">
       <c r="A36" s="38"/>
@@ -10094,8 +10190,8 @@
       <c r="F36" s="39"/>
       <c r="G36" s="39"/>
       <c r="H36" s="41"/>
-      <c r="I36" s="247"/>
-      <c r="J36" s="248"/>
+      <c r="I36" s="253"/>
+      <c r="J36" s="254"/>
     </row>
     <row r="37" spans="1:10" ht="12" customHeight="1">
       <c r="A37" s="38"/>
@@ -10106,8 +10202,8 @@
       <c r="F37" s="39"/>
       <c r="G37" s="39"/>
       <c r="H37" s="41"/>
-      <c r="I37" s="247"/>
-      <c r="J37" s="248"/>
+      <c r="I37" s="253"/>
+      <c r="J37" s="254"/>
     </row>
     <row r="38" spans="1:10" ht="12" customHeight="1">
       <c r="A38" s="38"/>
@@ -10118,8 +10214,8 @@
       <c r="F38" s="39"/>
       <c r="G38" s="39"/>
       <c r="H38" s="41"/>
-      <c r="I38" s="247"/>
-      <c r="J38" s="248"/>
+      <c r="I38" s="253"/>
+      <c r="J38" s="254"/>
     </row>
     <row r="39" spans="1:10" ht="12" customHeight="1">
       <c r="A39" s="38"/>
@@ -10130,8 +10226,8 @@
       <c r="F39" s="39"/>
       <c r="G39" s="39"/>
       <c r="H39" s="41"/>
-      <c r="I39" s="247"/>
-      <c r="J39" s="248"/>
+      <c r="I39" s="253"/>
+      <c r="J39" s="254"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -10158,11 +10254,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O78"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="6" ySplit="4" topLeftCell="G48" activePane="bottomRight" state="frozen"/>
+    <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane xSplit="6" ySplit="4" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="E61" sqref="E61"/>
+      <selection pane="bottomRight" activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -10185,12 +10281,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="223" t="s">
+      <c r="A1" s="229" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="223"/>
-      <c r="C1" s="223"/>
-      <c r="D1" s="223"/>
+      <c r="B1" s="229"/>
+      <c r="C1" s="229"/>
+      <c r="D1" s="229"/>
       <c r="E1" s="29" t="s">
         <v>1</v>
       </c>
@@ -10198,16 +10294,16 @@
         <f>'Update History'!D1</f>
         <v>ASOFT - ERP.NET</v>
       </c>
-      <c r="G1" s="255" t="s">
+      <c r="G1" s="261" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="256"/>
-      <c r="I1" s="257" t="str">
+      <c r="H1" s="262"/>
+      <c r="I1" s="263" t="str">
         <f>'Update History'!F1</f>
         <v>CRMF2082</v>
       </c>
-      <c r="J1" s="258"/>
-      <c r="K1" s="259"/>
+      <c r="J1" s="264"/>
+      <c r="K1" s="265"/>
       <c r="L1" s="30" t="s">
         <v>5</v>
       </c>
@@ -10224,10 +10320,10 @@
       </c>
     </row>
     <row r="2" spans="1:15" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="223"/>
-      <c r="B2" s="223"/>
-      <c r="C2" s="223"/>
-      <c r="D2" s="223"/>
+      <c r="A2" s="229"/>
+      <c r="B2" s="229"/>
+      <c r="C2" s="229"/>
+      <c r="D2" s="229"/>
       <c r="E2" s="29" t="s">
         <v>2</v>
       </c>
@@ -10235,16 +10331,16 @@
         <f>'Update History'!D2</f>
         <v>ASOFT-CRM</v>
       </c>
-      <c r="G2" s="255" t="s">
+      <c r="G2" s="261" t="s">
         <v>49</v>
       </c>
-      <c r="H2" s="256"/>
-      <c r="I2" s="257" t="str">
+      <c r="H2" s="262"/>
+      <c r="I2" s="263" t="str">
         <f>'Update History'!F2</f>
         <v>Xem chi tiết yêu cầu</v>
       </c>
-      <c r="J2" s="258"/>
-      <c r="K2" s="259"/>
+      <c r="J2" s="264"/>
+      <c r="K2" s="265"/>
       <c r="L2" s="30" t="s">
         <v>6</v>
       </c>
@@ -10549,13 +10645,13 @@
         <v>2.6</v>
       </c>
       <c r="D12" s="172" t="s">
+        <v>402</v>
+      </c>
+      <c r="E12" s="173" t="s">
         <v>403</v>
       </c>
-      <c r="E12" s="173" t="s">
-        <v>404</v>
-      </c>
       <c r="F12" s="173" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="G12" s="198" t="s">
         <v>178</v>
@@ -10818,40 +10914,40 @@
       <c r="N19" s="174"/>
       <c r="O19" s="177"/>
     </row>
-    <row r="20" spans="1:15" s="176" customFormat="1" ht="11.25">
-      <c r="A20" s="171">
+    <row r="20" spans="1:15" s="330" customFormat="1" ht="11.25">
+      <c r="A20" s="324">
         <v>10</v>
       </c>
-      <c r="B20" s="171" t="s">
+      <c r="B20" s="324" t="s">
         <v>358</v>
       </c>
-      <c r="C20" s="196">
+      <c r="C20" s="325">
         <v>2.14</v>
       </c>
-      <c r="D20" s="172" t="s">
+      <c r="D20" s="326" t="s">
         <v>356</v>
       </c>
-      <c r="E20" s="173" t="s">
+      <c r="E20" s="327" t="s">
         <v>357</v>
       </c>
-      <c r="F20" s="173" t="s">
+      <c r="F20" s="327" t="s">
         <v>357</v>
       </c>
-      <c r="G20" s="174" t="s">
+      <c r="G20" s="328" t="s">
         <v>178</v>
       </c>
-      <c r="H20" s="174" t="s">
+      <c r="H20" s="328" t="s">
         <v>176</v>
       </c>
-      <c r="I20" s="175"/>
-      <c r="J20" s="175"/>
-      <c r="K20" s="168" t="s">
+      <c r="I20" s="329"/>
+      <c r="J20" s="329"/>
+      <c r="K20" s="319" t="s">
         <v>187</v>
       </c>
-      <c r="L20" s="173"/>
-      <c r="M20" s="173"/>
-      <c r="N20" s="173"/>
-      <c r="O20" s="173"/>
+      <c r="L20" s="327"/>
+      <c r="M20" s="327"/>
+      <c r="N20" s="327"/>
+      <c r="O20" s="327"/>
     </row>
     <row r="21" spans="1:15" s="32" customFormat="1" ht="11.25">
       <c r="A21" s="31">
@@ -11432,7 +11528,7 @@
         <v>155</v>
       </c>
       <c r="C38" s="125" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D38" s="126" t="s">
         <v>191</v>
@@ -11467,7 +11563,7 @@
         <v>155</v>
       </c>
       <c r="C39" s="125" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D39" s="53" t="s">
         <v>193</v>
@@ -11496,7 +11592,7 @@
         <v>155</v>
       </c>
       <c r="C40" s="125" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D40" s="53" t="s">
         <v>214</v>
@@ -11521,7 +11617,7 @@
         <v>155</v>
       </c>
       <c r="C41" s="125" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D41" s="124" t="s">
         <v>188</v>
@@ -11554,7 +11650,7 @@
         <v>155</v>
       </c>
       <c r="C42" s="125" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D42" s="124" t="s">
         <v>286</v>
@@ -11587,7 +11683,7 @@
         <v>155</v>
       </c>
       <c r="C43" s="125" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D43" s="124" t="s">
         <v>196</v>
@@ -11620,7 +11716,7 @@
         <v>155</v>
       </c>
       <c r="C44" s="125" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D44" s="124" t="s">
         <v>189</v>
@@ -11657,7 +11753,7 @@
         <v>155</v>
       </c>
       <c r="C45" s="125" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D45" s="124" t="s">
         <v>191</v>
@@ -11921,7 +12017,7 @@
         <v>155</v>
       </c>
       <c r="C53" s="125" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D53" s="126" t="s">
         <v>264</v>
@@ -11950,7 +12046,7 @@
         <v>155</v>
       </c>
       <c r="C54" s="125" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D54" s="126" t="s">
         <v>265</v>
@@ -12262,7 +12358,7 @@
         <v>358</v>
       </c>
       <c r="C64" s="180" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D64" s="181" t="s">
         <v>388</v>
@@ -12297,7 +12393,7 @@
         <v>358</v>
       </c>
       <c r="C65" s="180" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D65" s="181" t="s">
         <v>386</v>
@@ -12335,7 +12431,7 @@
         <v>244</v>
       </c>
       <c r="D66" s="194" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E66" s="194"/>
       <c r="F66" s="194"/>
@@ -12395,13 +12491,13 @@
         <v>246</v>
       </c>
       <c r="D68" s="194" t="s">
+        <v>421</v>
+      </c>
+      <c r="E68" s="194" t="s">
         <v>422</v>
       </c>
-      <c r="E68" s="194" t="s">
-        <v>423</v>
-      </c>
       <c r="F68" s="194" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="G68" s="194" t="s">
         <v>178</v>
@@ -12430,13 +12526,13 @@
         <v>247</v>
       </c>
       <c r="D69" s="194" t="s">
+        <v>417</v>
+      </c>
+      <c r="E69" s="194" t="s">
         <v>418</v>
       </c>
-      <c r="E69" s="194" t="s">
-        <v>419</v>
-      </c>
       <c r="F69" s="194" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="G69" s="194" t="s">
         <v>178</v>
@@ -12465,13 +12561,13 @@
         <v>248</v>
       </c>
       <c r="D70" s="194" t="s">
+        <v>419</v>
+      </c>
+      <c r="E70" s="194" t="s">
         <v>420</v>
       </c>
-      <c r="E70" s="194" t="s">
-        <v>421</v>
-      </c>
       <c r="F70" s="194" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="G70" s="194" t="s">
         <v>178</v>
@@ -12500,13 +12596,13 @@
         <v>249</v>
       </c>
       <c r="D71" s="194" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E71" s="194" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="F71" s="194" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="G71" s="194" t="s">
         <v>178</v>
@@ -12535,13 +12631,13 @@
         <v>250</v>
       </c>
       <c r="D72" s="194" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E72" s="194" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="F72" s="194" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G72" s="194" t="s">
         <v>178</v>
@@ -12570,13 +12666,13 @@
         <v>251</v>
       </c>
       <c r="D73" s="194" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E73" s="194" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="F73" s="194" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="G73" s="194" t="s">
         <v>178</v>
@@ -12602,16 +12698,16 @@
         <v>358</v>
       </c>
       <c r="C74" s="180" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D74" s="194" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E74" s="194" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F74" s="194" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="G74" s="194" t="s">
         <v>178</v>
@@ -12637,7 +12733,7 @@
         <v>358</v>
       </c>
       <c r="C75" s="180" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D75" s="194" t="s">
         <v>191</v>
@@ -12672,7 +12768,7 @@
         <v>358</v>
       </c>
       <c r="C76" s="180" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D76" s="194" t="s">
         <v>189</v>
@@ -12709,11 +12805,11 @@
         <v>358</v>
       </c>
       <c r="C77" s="180" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D77" s="194"/>
       <c r="E77" s="194" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F77" s="194"/>
       <c r="G77" s="173" t="s">
@@ -12736,11 +12832,11 @@
         <v>358</v>
       </c>
       <c r="C78" s="180" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D78" s="194"/>
       <c r="E78" s="194" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="F78" s="194"/>
       <c r="G78" s="173" t="s">
@@ -12789,7 +12885,7 @@
   <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -12914,19 +13010,31 @@
       <c r="O4" s="32"/>
       <c r="P4" s="32"/>
     </row>
-    <row r="5" spans="1:16" s="46" customFormat="1" ht="11.25">
-      <c r="A5" s="106">
+    <row r="5" spans="1:16" s="206" customFormat="1" ht="14.25">
+      <c r="A5" s="170">
         <v>1</v>
       </c>
-      <c r="B5" s="31"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="108"/>
-      <c r="E5" s="108"/>
-      <c r="F5" s="108"/>
-      <c r="G5" s="108"/>
-      <c r="H5" s="108"/>
-      <c r="I5" s="108"/>
-      <c r="J5" s="108"/>
+      <c r="B5" s="203">
+        <v>5</v>
+      </c>
+      <c r="C5" s="194" t="s">
+        <v>437</v>
+      </c>
+      <c r="D5" s="204" t="s">
+        <v>443</v>
+      </c>
+      <c r="E5" s="204"/>
+      <c r="F5" s="204"/>
+      <c r="G5" s="204" t="s">
+        <v>180</v>
+      </c>
+      <c r="H5" s="204" t="s">
+        <v>168</v>
+      </c>
+      <c r="I5" s="205" t="s">
+        <v>442</v>
+      </c>
+      <c r="J5" s="204"/>
     </row>
     <row r="6" spans="1:16" s="25" customFormat="1" ht="11.25">
       <c r="A6" s="106">
@@ -13085,7 +13193,7 @@
   <dimension ref="A1:R11"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="F11" sqref="F11:I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -13109,7 +13217,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="261" t="s">
+      <c r="A1" s="267" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="104"/>
@@ -13145,7 +13253,7 @@
       <c r="L1" s="46"/>
     </row>
     <row r="2" spans="1:18" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="262"/>
+      <c r="A2" s="268"/>
       <c r="B2" s="105"/>
       <c r="C2" s="30" t="s">
         <v>2</v>
@@ -13194,12 +13302,12 @@
       <c r="E4" s="82" t="s">
         <v>46</v>
       </c>
-      <c r="F4" s="272" t="s">
+      <c r="F4" s="278" t="s">
         <v>128</v>
       </c>
-      <c r="G4" s="273"/>
-      <c r="H4" s="273"/>
-      <c r="I4" s="274"/>
+      <c r="G4" s="279"/>
+      <c r="H4" s="279"/>
+      <c r="I4" s="280"/>
       <c r="J4" s="169" t="s">
         <v>48</v>
       </c>
@@ -13218,13 +13326,13 @@
       <c r="E5" s="132" t="s">
         <v>176</v>
       </c>
-      <c r="F5" s="263" t="s">
+      <c r="F5" s="269" t="s">
         <v>219</v>
       </c>
-      <c r="G5" s="264"/>
-      <c r="H5" s="264"/>
-      <c r="I5" s="265"/>
-      <c r="J5" s="263" t="s">
+      <c r="G5" s="270"/>
+      <c r="H5" s="270"/>
+      <c r="I5" s="271"/>
+      <c r="J5" s="269" t="s">
         <v>199</v>
       </c>
     </row>
@@ -13242,11 +13350,11 @@
       <c r="E6" s="132" t="s">
         <v>176</v>
       </c>
-      <c r="F6" s="266"/>
-      <c r="G6" s="267"/>
-      <c r="H6" s="267"/>
-      <c r="I6" s="268"/>
-      <c r="J6" s="266"/>
+      <c r="F6" s="272"/>
+      <c r="G6" s="273"/>
+      <c r="H6" s="273"/>
+      <c r="I6" s="274"/>
+      <c r="J6" s="272"/>
     </row>
     <row r="7" spans="1:18" s="32" customFormat="1" ht="21" customHeight="1">
       <c r="A7" s="31">
@@ -13262,13 +13370,13 @@
       <c r="E7" s="132" t="s">
         <v>176</v>
       </c>
-      <c r="F7" s="263" t="s">
+      <c r="F7" s="269" t="s">
         <v>220</v>
       </c>
-      <c r="G7" s="264"/>
-      <c r="H7" s="264"/>
-      <c r="I7" s="265"/>
-      <c r="J7" s="263" t="s">
+      <c r="G7" s="270"/>
+      <c r="H7" s="270"/>
+      <c r="I7" s="271"/>
+      <c r="J7" s="269" t="s">
         <v>200</v>
       </c>
     </row>
@@ -13286,11 +13394,11 @@
       <c r="E8" s="132" t="s">
         <v>176</v>
       </c>
-      <c r="F8" s="266"/>
-      <c r="G8" s="267"/>
-      <c r="H8" s="267"/>
-      <c r="I8" s="268"/>
-      <c r="J8" s="266"/>
+      <c r="F8" s="272"/>
+      <c r="G8" s="273"/>
+      <c r="H8" s="273"/>
+      <c r="I8" s="274"/>
+      <c r="J8" s="272"/>
     </row>
     <row r="9" spans="1:18" ht="23.25" customHeight="1">
       <c r="A9" s="184">
@@ -13306,12 +13414,12 @@
       <c r="E9" s="187" t="s">
         <v>290</v>
       </c>
-      <c r="F9" s="269" t="s">
+      <c r="F9" s="275" t="s">
         <v>291</v>
       </c>
-      <c r="G9" s="270"/>
-      <c r="H9" s="270"/>
-      <c r="I9" s="271"/>
+      <c r="G9" s="276"/>
+      <c r="H9" s="276"/>
+      <c r="I9" s="277"/>
       <c r="J9" s="188" t="s">
         <v>292</v>
       </c>
@@ -13330,12 +13438,12 @@
       <c r="E10" s="189" t="s">
         <v>176</v>
       </c>
-      <c r="F10" s="260" t="s">
+      <c r="F10" s="266" t="s">
         <v>396</v>
       </c>
-      <c r="G10" s="260"/>
-      <c r="H10" s="260"/>
-      <c r="I10" s="260"/>
+      <c r="G10" s="266"/>
+      <c r="H10" s="266"/>
+      <c r="I10" s="266"/>
       <c r="J10" s="189" t="s">
         <v>398</v>
       </c>
@@ -13361,14 +13469,14 @@
       <c r="E11" s="189" t="s">
         <v>176</v>
       </c>
-      <c r="F11" s="260" t="s">
-        <v>440</v>
-      </c>
-      <c r="G11" s="260"/>
-      <c r="H11" s="260"/>
-      <c r="I11" s="260"/>
+      <c r="F11" s="266" t="s">
+        <v>439</v>
+      </c>
+      <c r="G11" s="266"/>
+      <c r="H11" s="266"/>
+      <c r="I11" s="266"/>
       <c r="J11" s="200" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="L11" s="192"/>
       <c r="M11" s="192"/>
@@ -13407,8 +13515,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q1048229"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:G1"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A10" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -13434,20 +13542,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="223" t="s">
+      <c r="A1" s="229" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="223"/>
-      <c r="C1" s="223"/>
-      <c r="D1" s="223"/>
+      <c r="B1" s="229"/>
+      <c r="C1" s="229"/>
+      <c r="D1" s="229"/>
       <c r="E1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="298" t="str">
+      <c r="F1" s="305" t="str">
         <f>'Update History'!D1</f>
         <v>ASOFT - ERP.NET</v>
       </c>
-      <c r="G1" s="298"/>
+      <c r="G1" s="305"/>
       <c r="H1" s="26" t="s">
         <v>3</v>
       </c>
@@ -13465,28 +13573,28 @@
       <c r="L1" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="281" t="str">
+      <c r="M1" s="288" t="str">
         <f>'Update History'!J1</f>
         <v>Tấn Đạt</v>
       </c>
-      <c r="N1" s="282"/>
-      <c r="O1" s="283"/>
+      <c r="N1" s="289"/>
+      <c r="O1" s="290"/>
       <c r="P1" s="46"/>
       <c r="Q1" s="46"/>
     </row>
     <row r="2" spans="1:17" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="223"/>
-      <c r="B2" s="223"/>
-      <c r="C2" s="223"/>
-      <c r="D2" s="223"/>
+      <c r="A2" s="229"/>
+      <c r="B2" s="229"/>
+      <c r="C2" s="229"/>
+      <c r="D2" s="229"/>
       <c r="E2" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="298" t="str">
+      <c r="F2" s="305" t="str">
         <f>'Update History'!D2</f>
         <v>ASOFT-CRM</v>
       </c>
-      <c r="G2" s="298"/>
+      <c r="G2" s="305"/>
       <c r="H2" s="26" t="s">
         <v>49</v>
       </c>
@@ -13504,12 +13612,12 @@
       <c r="L2" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="281" t="str">
+      <c r="M2" s="288" t="str">
         <f>'Update History'!J2</f>
         <v>26/01/2018</v>
       </c>
-      <c r="N2" s="282"/>
-      <c r="O2" s="283"/>
+      <c r="N2" s="289"/>
+      <c r="O2" s="290"/>
       <c r="P2" s="46"/>
       <c r="Q2" s="46"/>
     </row>
@@ -13532,12 +13640,12 @@
       <c r="F4" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="G4" s="302" t="s">
+      <c r="G4" s="309" t="s">
         <v>55</v>
       </c>
-      <c r="H4" s="303"/>
-      <c r="I4" s="303"/>
-      <c r="J4" s="304"/>
+      <c r="H4" s="310"/>
+      <c r="I4" s="310"/>
+      <c r="J4" s="311"/>
       <c r="K4" s="35" t="s">
         <v>56</v>
       </c>
@@ -13573,12 +13681,12 @@
       <c r="F5" s="113" t="s">
         <v>161</v>
       </c>
-      <c r="G5" s="299" t="s">
+      <c r="G5" s="306" t="s">
         <v>336</v>
       </c>
-      <c r="H5" s="300"/>
-      <c r="I5" s="300"/>
-      <c r="J5" s="301"/>
+      <c r="H5" s="307"/>
+      <c r="I5" s="307"/>
+      <c r="J5" s="308"/>
       <c r="K5" s="116" t="s">
         <v>293</v>
       </c>
@@ -13614,12 +13722,12 @@
       <c r="F6" s="113" t="s">
         <v>162</v>
       </c>
-      <c r="G6" s="295" t="s">
+      <c r="G6" s="302" t="s">
         <v>349</v>
       </c>
-      <c r="H6" s="296"/>
-      <c r="I6" s="296"/>
-      <c r="J6" s="297"/>
+      <c r="H6" s="303"/>
+      <c r="I6" s="303"/>
+      <c r="J6" s="304"/>
       <c r="K6" s="116" t="s">
         <v>307</v>
       </c>
@@ -13655,12 +13763,12 @@
       <c r="F7" s="113" t="s">
         <v>163</v>
       </c>
-      <c r="G7" s="295" t="s">
+      <c r="G7" s="302" t="s">
         <v>351</v>
       </c>
-      <c r="H7" s="296"/>
-      <c r="I7" s="296"/>
-      <c r="J7" s="297"/>
+      <c r="H7" s="303"/>
+      <c r="I7" s="303"/>
+      <c r="J7" s="304"/>
       <c r="K7" s="116" t="s">
         <v>334</v>
       </c>
@@ -13696,12 +13804,12 @@
       <c r="F8" s="113" t="s">
         <v>164</v>
       </c>
-      <c r="G8" s="275" t="s">
+      <c r="G8" s="284" t="s">
         <v>333</v>
       </c>
-      <c r="H8" s="276"/>
-      <c r="I8" s="276"/>
-      <c r="J8" s="277"/>
+      <c r="H8" s="285"/>
+      <c r="I8" s="285"/>
+      <c r="J8" s="286"/>
       <c r="K8" s="116" t="s">
         <v>307</v>
       </c>
@@ -13737,12 +13845,12 @@
       <c r="F9" s="113" t="s">
         <v>197</v>
       </c>
-      <c r="G9" s="292" t="s">
+      <c r="G9" s="299" t="s">
         <v>399</v>
       </c>
-      <c r="H9" s="293"/>
-      <c r="I9" s="293"/>
-      <c r="J9" s="294"/>
+      <c r="H9" s="300"/>
+      <c r="I9" s="300"/>
+      <c r="J9" s="301"/>
       <c r="K9" s="197" t="s">
         <v>400</v>
       </c>
@@ -13778,12 +13886,12 @@
       <c r="F10" s="113" t="s">
         <v>213</v>
       </c>
-      <c r="G10" s="275" t="s">
+      <c r="G10" s="284" t="s">
         <v>169</v>
       </c>
-      <c r="H10" s="276"/>
-      <c r="I10" s="276"/>
-      <c r="J10" s="277"/>
+      <c r="H10" s="285"/>
+      <c r="I10" s="285"/>
+      <c r="J10" s="286"/>
       <c r="K10" s="116" t="s">
         <v>170</v>
       </c>
@@ -13794,7 +13902,7 @@
       <c r="N10" s="115" t="s">
         <v>158</v>
       </c>
-      <c r="O10" s="284"/>
+      <c r="O10" s="291"/>
     </row>
     <row r="11" spans="1:17" ht="78.75">
       <c r="A11" s="106">
@@ -13815,12 +13923,12 @@
       <c r="F11" s="113" t="s">
         <v>160</v>
       </c>
-      <c r="G11" s="289" t="s">
+      <c r="G11" s="296" t="s">
         <v>397</v>
       </c>
-      <c r="H11" s="290"/>
-      <c r="I11" s="290"/>
-      <c r="J11" s="291"/>
+      <c r="H11" s="297"/>
+      <c r="I11" s="297"/>
+      <c r="J11" s="298"/>
       <c r="K11" s="116" t="s">
         <v>295</v>
       </c>
@@ -13831,7 +13939,7 @@
       <c r="N11" s="115" t="s">
         <v>158</v>
       </c>
-      <c r="O11" s="285"/>
+      <c r="O11" s="292"/>
     </row>
     <row r="12" spans="1:17" ht="63" customHeight="1">
       <c r="A12" s="106">
@@ -13852,12 +13960,12 @@
       <c r="F12" s="113" t="s">
         <v>303</v>
       </c>
-      <c r="G12" s="275" t="s">
+      <c r="G12" s="284" t="s">
         <v>309</v>
       </c>
-      <c r="H12" s="276"/>
-      <c r="I12" s="276"/>
-      <c r="J12" s="277"/>
+      <c r="H12" s="285"/>
+      <c r="I12" s="285"/>
+      <c r="J12" s="286"/>
       <c r="K12" s="116" t="s">
         <v>310</v>
       </c>
@@ -13891,12 +13999,12 @@
       <c r="F13" s="113" t="s">
         <v>304</v>
       </c>
-      <c r="G13" s="275" t="s">
+      <c r="G13" s="284" t="s">
         <v>312</v>
       </c>
-      <c r="H13" s="276"/>
-      <c r="I13" s="276"/>
-      <c r="J13" s="277"/>
+      <c r="H13" s="285"/>
+      <c r="I13" s="285"/>
+      <c r="J13" s="286"/>
       <c r="K13" s="116" t="s">
         <v>313</v>
       </c>
@@ -13930,12 +14038,12 @@
       <c r="F14" s="113" t="s">
         <v>305</v>
       </c>
-      <c r="G14" s="275" t="s">
+      <c r="G14" s="284" t="s">
         <v>315</v>
       </c>
-      <c r="H14" s="276"/>
-      <c r="I14" s="276"/>
-      <c r="J14" s="277"/>
+      <c r="H14" s="285"/>
+      <c r="I14" s="285"/>
+      <c r="J14" s="286"/>
       <c r="K14" s="116" t="s">
         <v>316</v>
       </c>
@@ -13969,12 +14077,12 @@
       <c r="F15" s="113" t="s">
         <v>306</v>
       </c>
-      <c r="G15" s="286" t="s">
+      <c r="G15" s="293" t="s">
         <v>202</v>
       </c>
-      <c r="H15" s="287"/>
-      <c r="I15" s="287"/>
-      <c r="J15" s="288"/>
+      <c r="H15" s="294"/>
+      <c r="I15" s="294"/>
+      <c r="J15" s="295"/>
       <c r="K15" s="135" t="s">
         <v>203</v>
       </c>
@@ -14010,12 +14118,12 @@
       <c r="F16" s="154" t="s">
         <v>343</v>
       </c>
-      <c r="G16" s="278" t="s">
+      <c r="G16" s="287" t="s">
         <v>344</v>
       </c>
-      <c r="H16" s="279"/>
-      <c r="I16" s="279"/>
-      <c r="J16" s="280"/>
+      <c r="H16" s="287"/>
+      <c r="I16" s="287"/>
+      <c r="J16" s="287"/>
       <c r="K16" s="155" t="s">
         <v>345</v>
       </c>
@@ -14030,97 +14138,124 @@
       <c r="P16" s="137"/>
       <c r="Q16" s="137"/>
     </row>
-    <row r="17" spans="7:10" ht="12" customHeight="1">
-      <c r="G17" s="32"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="57"/>
-      <c r="J17" s="57"/>
-    </row>
-    <row r="18" spans="7:10" ht="12" customHeight="1">
+    <row r="17" spans="1:17" s="183" customFormat="1" ht="39.75" customHeight="1">
+      <c r="A17" s="194">
+        <v>8</v>
+      </c>
+      <c r="B17" s="194" t="s">
+        <v>358</v>
+      </c>
+      <c r="C17" s="194" t="s">
+        <v>440</v>
+      </c>
+      <c r="D17" s="194" t="s">
+        <v>300</v>
+      </c>
+      <c r="E17" s="194" t="s">
+        <v>55</v>
+      </c>
+      <c r="F17" s="202" t="s">
+        <v>441</v>
+      </c>
+      <c r="G17" s="281" t="s">
+        <v>444</v>
+      </c>
+      <c r="H17" s="282"/>
+      <c r="I17" s="282"/>
+      <c r="J17" s="283"/>
+      <c r="K17" s="199"/>
+      <c r="L17" s="199"/>
+      <c r="M17" s="199"/>
+      <c r="N17" s="199"/>
+      <c r="O17" s="199"/>
+      <c r="P17" s="201"/>
+      <c r="Q17" s="201"/>
+    </row>
+    <row r="18" spans="1:17" ht="12" customHeight="1">
       <c r="G18" s="32"/>
       <c r="H18" s="32"/>
       <c r="I18" s="57"/>
       <c r="J18" s="57"/>
     </row>
-    <row r="19" spans="7:10" ht="12" customHeight="1">
+    <row r="19" spans="1:17" ht="12" customHeight="1">
       <c r="G19" s="32"/>
       <c r="H19" s="32"/>
       <c r="I19" s="57"/>
       <c r="J19" s="57"/>
     </row>
-    <row r="20" spans="7:10" ht="12" customHeight="1">
+    <row r="20" spans="1:17" ht="12" customHeight="1">
       <c r="G20" s="32"/>
       <c r="H20" s="32"/>
       <c r="I20" s="57"/>
       <c r="J20" s="57"/>
     </row>
-    <row r="21" spans="7:10" ht="12" customHeight="1">
+    <row r="21" spans="1:17" ht="12" customHeight="1">
       <c r="G21" s="32"/>
       <c r="H21" s="32"/>
       <c r="I21" s="57"/>
       <c r="J21" s="57"/>
     </row>
-    <row r="22" spans="7:10" ht="12" customHeight="1">
+    <row r="22" spans="1:17" ht="12" customHeight="1">
       <c r="G22" s="32"/>
       <c r="H22" s="32"/>
       <c r="I22" s="57"/>
       <c r="J22" s="57"/>
     </row>
-    <row r="23" spans="7:10" ht="12" customHeight="1">
+    <row r="23" spans="1:17" ht="12" customHeight="1">
       <c r="G23" s="32"/>
       <c r="H23" s="32"/>
       <c r="I23" s="57"/>
       <c r="J23" s="57"/>
     </row>
-    <row r="24" spans="7:10" ht="12" customHeight="1">
+    <row r="24" spans="1:17" ht="12" customHeight="1">
       <c r="G24" s="32"/>
       <c r="H24" s="32"/>
       <c r="I24" s="57"/>
       <c r="J24" s="57"/>
     </row>
-    <row r="25" spans="7:10" ht="12" customHeight="1">
+    <row r="25" spans="1:17" ht="12" customHeight="1">
       <c r="G25" s="32"/>
       <c r="H25" s="32"/>
       <c r="I25" s="57"/>
       <c r="J25" s="57"/>
     </row>
-    <row r="26" spans="7:10" ht="12" customHeight="1">
+    <row r="26" spans="1:17" ht="12" customHeight="1">
       <c r="G26" s="32"/>
       <c r="H26" s="32"/>
       <c r="I26" s="57"/>
       <c r="J26" s="57"/>
     </row>
-    <row r="27" spans="7:10" ht="12" customHeight="1">
+    <row r="27" spans="1:17" ht="12" customHeight="1">
       <c r="G27" s="32"/>
       <c r="H27" s="32"/>
       <c r="I27" s="57"/>
       <c r="J27" s="57"/>
     </row>
-    <row r="28" spans="7:10" ht="12" customHeight="1">
+    <row r="28" spans="1:17" ht="12" customHeight="1">
       <c r="G28" s="32"/>
       <c r="H28" s="32"/>
       <c r="I28" s="57"/>
       <c r="J28" s="57"/>
     </row>
-    <row r="29" spans="7:10" ht="12" customHeight="1">
+    <row r="29" spans="1:17" ht="12" customHeight="1">
       <c r="G29" s="32"/>
       <c r="H29" s="32"/>
       <c r="I29" s="57"/>
       <c r="J29" s="57"/>
     </row>
-    <row r="30" spans="7:10" ht="12" customHeight="1">
+    <row r="30" spans="1:17" ht="12" customHeight="1">
       <c r="G30" s="32"/>
       <c r="H30" s="32"/>
       <c r="I30" s="57"/>
       <c r="J30" s="57"/>
     </row>
-    <row r="31" spans="7:10" ht="12" customHeight="1">
+    <row r="31" spans="1:17" ht="12" customHeight="1">
       <c r="G31" s="32"/>
       <c r="H31" s="32"/>
       <c r="I31" s="57"/>
       <c r="J31" s="57"/>
     </row>
-    <row r="32" spans="7:10" ht="12" customHeight="1">
+    <row r="32" spans="1:17" ht="12" customHeight="1">
       <c r="G32" s="32"/>
       <c r="H32" s="32"/>
       <c r="I32" s="57"/>
@@ -14227,16 +14362,12 @@
     </row>
   </sheetData>
   <dataConsolidate link="1"/>
-  <mergeCells count="19">
+  <mergeCells count="20">
     <mergeCell ref="A1:D2"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="G5:J5"/>
     <mergeCell ref="G4:J4"/>
-    <mergeCell ref="G12:J12"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="G14:J14"/>
-    <mergeCell ref="G16:J16"/>
     <mergeCell ref="M1:O1"/>
     <mergeCell ref="M2:O2"/>
     <mergeCell ref="G8:J8"/>
@@ -14247,6 +14378,11 @@
     <mergeCell ref="G9:J9"/>
     <mergeCell ref="G6:J6"/>
     <mergeCell ref="G7:J7"/>
+    <mergeCell ref="G17:J17"/>
+    <mergeCell ref="G12:J12"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="G14:J14"/>
+    <mergeCell ref="G16:J16"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="M1048229:M1048576 M15:M16"/>
@@ -14275,7 +14411,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K148"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A22" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="F97" sqref="F97"/>
     </sheetView>
   </sheetViews>
@@ -14293,10 +14429,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="12" customHeight="1">
-      <c r="A1" s="223" t="s">
+      <c r="A1" s="229" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="223"/>
+      <c r="B1" s="229"/>
       <c r="C1" s="30" t="s">
         <v>1</v>
       </c>
@@ -14327,8 +14463,8 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="12" customHeight="1">
-      <c r="A2" s="223"/>
-      <c r="B2" s="223"/>
+      <c r="A2" s="229"/>
+      <c r="B2" s="229"/>
       <c r="C2" s="30" t="s">
         <v>2</v>
       </c>
@@ -14646,66 +14782,66 @@
     <row r="26" spans="1:11" ht="12" customHeight="1">
       <c r="A26" s="63"/>
       <c r="B26" s="39"/>
-      <c r="C26" s="305" t="s">
+      <c r="C26" s="312" t="s">
         <v>320</v>
       </c>
-      <c r="D26" s="305"/>
-      <c r="E26" s="305"/>
-      <c r="F26" s="305"/>
-      <c r="G26" s="305"/>
-      <c r="H26" s="305"/>
-      <c r="I26" s="305"/>
-      <c r="J26" s="305"/>
+      <c r="D26" s="312"/>
+      <c r="E26" s="312"/>
+      <c r="F26" s="312"/>
+      <c r="G26" s="312"/>
+      <c r="H26" s="312"/>
+      <c r="I26" s="312"/>
+      <c r="J26" s="312"/>
     </row>
     <row r="27" spans="1:11" ht="12" customHeight="1">
       <c r="A27" s="63"/>
       <c r="B27" s="39"/>
-      <c r="C27" s="305"/>
-      <c r="D27" s="305"/>
-      <c r="E27" s="305"/>
-      <c r="F27" s="305"/>
-      <c r="G27" s="305"/>
-      <c r="H27" s="305"/>
-      <c r="I27" s="305"/>
-      <c r="J27" s="305"/>
+      <c r="C27" s="312"/>
+      <c r="D27" s="312"/>
+      <c r="E27" s="312"/>
+      <c r="F27" s="312"/>
+      <c r="G27" s="312"/>
+      <c r="H27" s="312"/>
+      <c r="I27" s="312"/>
+      <c r="J27" s="312"/>
     </row>
     <row r="28" spans="1:11" ht="12" customHeight="1">
       <c r="A28" s="63"/>
       <c r="B28" s="39"/>
-      <c r="C28" s="305"/>
-      <c r="D28" s="305"/>
-      <c r="E28" s="305"/>
-      <c r="F28" s="305"/>
-      <c r="G28" s="305"/>
-      <c r="H28" s="305"/>
-      <c r="I28" s="305"/>
-      <c r="J28" s="305"/>
+      <c r="C28" s="312"/>
+      <c r="D28" s="312"/>
+      <c r="E28" s="312"/>
+      <c r="F28" s="312"/>
+      <c r="G28" s="312"/>
+      <c r="H28" s="312"/>
+      <c r="I28" s="312"/>
+      <c r="J28" s="312"/>
     </row>
     <row r="29" spans="1:11" ht="12" customHeight="1">
       <c r="A29" s="63"/>
       <c r="B29" s="39"/>
-      <c r="C29" s="305"/>
-      <c r="D29" s="305"/>
-      <c r="E29" s="305"/>
-      <c r="F29" s="305"/>
-      <c r="G29" s="305"/>
-      <c r="H29" s="305"/>
-      <c r="I29" s="305"/>
-      <c r="J29" s="305"/>
+      <c r="C29" s="312"/>
+      <c r="D29" s="312"/>
+      <c r="E29" s="312"/>
+      <c r="F29" s="312"/>
+      <c r="G29" s="312"/>
+      <c r="H29" s="312"/>
+      <c r="I29" s="312"/>
+      <c r="J29" s="312"/>
     </row>
     <row r="30" spans="1:11" ht="12" customHeight="1">
       <c r="A30" s="63"/>
       <c r="B30" s="39"/>
-      <c r="C30" s="305" t="s">
+      <c r="C30" s="312" t="s">
         <v>319</v>
       </c>
-      <c r="D30" s="305"/>
-      <c r="E30" s="305"/>
-      <c r="F30" s="305"/>
-      <c r="G30" s="305"/>
-      <c r="H30" s="305"/>
-      <c r="I30" s="305"/>
-      <c r="J30" s="305"/>
+      <c r="D30" s="312"/>
+      <c r="E30" s="312"/>
+      <c r="F30" s="312"/>
+      <c r="G30" s="312"/>
+      <c r="H30" s="312"/>
+      <c r="I30" s="312"/>
+      <c r="J30" s="312"/>
     </row>
     <row r="31" spans="1:11" ht="12" customHeight="1">
       <c r="A31" s="63"/>
@@ -14866,78 +15002,78 @@
     <row r="44" spans="1:10" ht="12" customHeight="1">
       <c r="A44" s="63"/>
       <c r="B44" s="39"/>
-      <c r="C44" s="305" t="s">
+      <c r="C44" s="312" t="s">
         <v>322</v>
       </c>
-      <c r="D44" s="305"/>
-      <c r="E44" s="305"/>
-      <c r="F44" s="305"/>
-      <c r="G44" s="305"/>
-      <c r="H44" s="305"/>
-      <c r="I44" s="305"/>
-      <c r="J44" s="305"/>
+      <c r="D44" s="312"/>
+      <c r="E44" s="312"/>
+      <c r="F44" s="312"/>
+      <c r="G44" s="312"/>
+      <c r="H44" s="312"/>
+      <c r="I44" s="312"/>
+      <c r="J44" s="312"/>
     </row>
     <row r="45" spans="1:10" ht="12" customHeight="1">
       <c r="A45" s="63"/>
       <c r="B45" s="39"/>
-      <c r="C45" s="305"/>
-      <c r="D45" s="305"/>
-      <c r="E45" s="305"/>
-      <c r="F45" s="305"/>
-      <c r="G45" s="305"/>
-      <c r="H45" s="305"/>
-      <c r="I45" s="305"/>
-      <c r="J45" s="305"/>
+      <c r="C45" s="312"/>
+      <c r="D45" s="312"/>
+      <c r="E45" s="312"/>
+      <c r="F45" s="312"/>
+      <c r="G45" s="312"/>
+      <c r="H45" s="312"/>
+      <c r="I45" s="312"/>
+      <c r="J45" s="312"/>
     </row>
     <row r="46" spans="1:10" ht="12" customHeight="1">
       <c r="A46" s="63"/>
       <c r="B46" s="39"/>
-      <c r="C46" s="305"/>
-      <c r="D46" s="305"/>
-      <c r="E46" s="305"/>
-      <c r="F46" s="305"/>
-      <c r="G46" s="305"/>
-      <c r="H46" s="305"/>
-      <c r="I46" s="305"/>
-      <c r="J46" s="305"/>
+      <c r="C46" s="312"/>
+      <c r="D46" s="312"/>
+      <c r="E46" s="312"/>
+      <c r="F46" s="312"/>
+      <c r="G46" s="312"/>
+      <c r="H46" s="312"/>
+      <c r="I46" s="312"/>
+      <c r="J46" s="312"/>
     </row>
     <row r="47" spans="1:10" ht="12" customHeight="1">
       <c r="A47" s="63"/>
       <c r="B47" s="39"/>
-      <c r="C47" s="305"/>
-      <c r="D47" s="305"/>
-      <c r="E47" s="305"/>
-      <c r="F47" s="305"/>
-      <c r="G47" s="305"/>
-      <c r="H47" s="305"/>
-      <c r="I47" s="305"/>
-      <c r="J47" s="305"/>
+      <c r="C47" s="312"/>
+      <c r="D47" s="312"/>
+      <c r="E47" s="312"/>
+      <c r="F47" s="312"/>
+      <c r="G47" s="312"/>
+      <c r="H47" s="312"/>
+      <c r="I47" s="312"/>
+      <c r="J47" s="312"/>
     </row>
     <row r="48" spans="1:10" ht="12" customHeight="1">
       <c r="A48" s="63"/>
       <c r="B48" s="39"/>
-      <c r="C48" s="305"/>
-      <c r="D48" s="305"/>
-      <c r="E48" s="305"/>
-      <c r="F48" s="305"/>
-      <c r="G48" s="305"/>
-      <c r="H48" s="305"/>
-      <c r="I48" s="305"/>
-      <c r="J48" s="305"/>
+      <c r="C48" s="312"/>
+      <c r="D48" s="312"/>
+      <c r="E48" s="312"/>
+      <c r="F48" s="312"/>
+      <c r="G48" s="312"/>
+      <c r="H48" s="312"/>
+      <c r="I48" s="312"/>
+      <c r="J48" s="312"/>
     </row>
     <row r="49" spans="1:10" ht="12" customHeight="1">
       <c r="A49" s="63"/>
       <c r="B49" s="39"/>
-      <c r="C49" s="305" t="s">
+      <c r="C49" s="312" t="s">
         <v>323</v>
       </c>
-      <c r="D49" s="305"/>
-      <c r="E49" s="305"/>
-      <c r="F49" s="305"/>
-      <c r="G49" s="305"/>
-      <c r="H49" s="305"/>
-      <c r="I49" s="305"/>
-      <c r="J49" s="305"/>
+      <c r="D49" s="312"/>
+      <c r="E49" s="312"/>
+      <c r="F49" s="312"/>
+      <c r="G49" s="312"/>
+      <c r="H49" s="312"/>
+      <c r="I49" s="312"/>
+      <c r="J49" s="312"/>
     </row>
     <row r="50" spans="1:10" ht="12" customHeight="1">
       <c r="A50" s="63"/>
@@ -15098,78 +15234,78 @@
     <row r="63" spans="1:10" ht="12" customHeight="1">
       <c r="A63" s="63"/>
       <c r="B63" s="39"/>
-      <c r="C63" s="305" t="s">
+      <c r="C63" s="312" t="s">
         <v>324</v>
       </c>
-      <c r="D63" s="305"/>
-      <c r="E63" s="305"/>
-      <c r="F63" s="305"/>
-      <c r="G63" s="305"/>
-      <c r="H63" s="305"/>
-      <c r="I63" s="305"/>
-      <c r="J63" s="305"/>
+      <c r="D63" s="312"/>
+      <c r="E63" s="312"/>
+      <c r="F63" s="312"/>
+      <c r="G63" s="312"/>
+      <c r="H63" s="312"/>
+      <c r="I63" s="312"/>
+      <c r="J63" s="312"/>
     </row>
     <row r="64" spans="1:10" ht="12" customHeight="1">
       <c r="A64" s="63"/>
       <c r="B64" s="39"/>
-      <c r="C64" s="305"/>
-      <c r="D64" s="305"/>
-      <c r="E64" s="305"/>
-      <c r="F64" s="305"/>
-      <c r="G64" s="305"/>
-      <c r="H64" s="305"/>
-      <c r="I64" s="305"/>
-      <c r="J64" s="305"/>
+      <c r="C64" s="312"/>
+      <c r="D64" s="312"/>
+      <c r="E64" s="312"/>
+      <c r="F64" s="312"/>
+      <c r="G64" s="312"/>
+      <c r="H64" s="312"/>
+      <c r="I64" s="312"/>
+      <c r="J64" s="312"/>
     </row>
     <row r="65" spans="1:10" ht="12" customHeight="1">
       <c r="A65" s="63"/>
       <c r="B65" s="39"/>
-      <c r="C65" s="305"/>
-      <c r="D65" s="305"/>
-      <c r="E65" s="305"/>
-      <c r="F65" s="305"/>
-      <c r="G65" s="305"/>
-      <c r="H65" s="305"/>
-      <c r="I65" s="305"/>
-      <c r="J65" s="305"/>
+      <c r="C65" s="312"/>
+      <c r="D65" s="312"/>
+      <c r="E65" s="312"/>
+      <c r="F65" s="312"/>
+      <c r="G65" s="312"/>
+      <c r="H65" s="312"/>
+      <c r="I65" s="312"/>
+      <c r="J65" s="312"/>
     </row>
     <row r="66" spans="1:10" ht="12" customHeight="1">
       <c r="A66" s="63"/>
       <c r="B66" s="39"/>
-      <c r="C66" s="305"/>
-      <c r="D66" s="305"/>
-      <c r="E66" s="305"/>
-      <c r="F66" s="305"/>
-      <c r="G66" s="305"/>
-      <c r="H66" s="305"/>
-      <c r="I66" s="305"/>
-      <c r="J66" s="305"/>
+      <c r="C66" s="312"/>
+      <c r="D66" s="312"/>
+      <c r="E66" s="312"/>
+      <c r="F66" s="312"/>
+      <c r="G66" s="312"/>
+      <c r="H66" s="312"/>
+      <c r="I66" s="312"/>
+      <c r="J66" s="312"/>
     </row>
     <row r="67" spans="1:10" ht="12" customHeight="1">
       <c r="A67" s="63"/>
       <c r="B67" s="39"/>
-      <c r="C67" s="305"/>
-      <c r="D67" s="305"/>
-      <c r="E67" s="305"/>
-      <c r="F67" s="305"/>
-      <c r="G67" s="305"/>
-      <c r="H67" s="305"/>
-      <c r="I67" s="305"/>
-      <c r="J67" s="305"/>
+      <c r="C67" s="312"/>
+      <c r="D67" s="312"/>
+      <c r="E67" s="312"/>
+      <c r="F67" s="312"/>
+      <c r="G67" s="312"/>
+      <c r="H67" s="312"/>
+      <c r="I67" s="312"/>
+      <c r="J67" s="312"/>
     </row>
     <row r="68" spans="1:10" ht="12" customHeight="1">
       <c r="A68" s="63"/>
       <c r="B68" s="39"/>
-      <c r="C68" s="305" t="s">
+      <c r="C68" s="312" t="s">
         <v>325</v>
       </c>
-      <c r="D68" s="305"/>
-      <c r="E68" s="305"/>
-      <c r="F68" s="305"/>
-      <c r="G68" s="305"/>
-      <c r="H68" s="305"/>
-      <c r="I68" s="305"/>
-      <c r="J68" s="305"/>
+      <c r="D68" s="312"/>
+      <c r="E68" s="312"/>
+      <c r="F68" s="312"/>
+      <c r="G68" s="312"/>
+      <c r="H68" s="312"/>
+      <c r="I68" s="312"/>
+      <c r="J68" s="312"/>
     </row>
     <row r="69" spans="1:10" ht="12" customHeight="1">
       <c r="A69" s="63"/>
@@ -15317,28 +15453,28 @@
     <row r="81" spans="1:10" ht="12" customHeight="1">
       <c r="A81" s="63"/>
       <c r="B81" s="39"/>
-      <c r="C81" s="305" t="s">
+      <c r="C81" s="312" t="s">
         <v>326</v>
       </c>
-      <c r="D81" s="305"/>
-      <c r="E81" s="305"/>
-      <c r="F81" s="305"/>
-      <c r="G81" s="305"/>
-      <c r="H81" s="305"/>
-      <c r="I81" s="305"/>
-      <c r="J81" s="305"/>
+      <c r="D81" s="312"/>
+      <c r="E81" s="312"/>
+      <c r="F81" s="312"/>
+      <c r="G81" s="312"/>
+      <c r="H81" s="312"/>
+      <c r="I81" s="312"/>
+      <c r="J81" s="312"/>
     </row>
     <row r="82" spans="1:10" ht="12" customHeight="1">
       <c r="A82" s="63"/>
       <c r="B82" s="39"/>
-      <c r="C82" s="305"/>
-      <c r="D82" s="305"/>
-      <c r="E82" s="305"/>
-      <c r="F82" s="305"/>
-      <c r="G82" s="305"/>
-      <c r="H82" s="305"/>
-      <c r="I82" s="305"/>
-      <c r="J82" s="305"/>
+      <c r="C82" s="312"/>
+      <c r="D82" s="312"/>
+      <c r="E82" s="312"/>
+      <c r="F82" s="312"/>
+      <c r="G82" s="312"/>
+      <c r="H82" s="312"/>
+      <c r="I82" s="312"/>
+      <c r="J82" s="312"/>
     </row>
     <row r="83" spans="1:10" ht="12" customHeight="1">
       <c r="A83" s="63"/>
@@ -16170,10 +16306,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="223" t="s">
+      <c r="A1" s="229" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="223"/>
+      <c r="B1" s="229"/>
       <c r="C1" s="30" t="s">
         <v>1</v>
       </c>
@@ -16204,8 +16340,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="223"/>
-      <c r="B2" s="223"/>
+      <c r="A2" s="229"/>
+      <c r="B2" s="229"/>
       <c r="C2" s="30" t="s">
         <v>2</v>
       </c>

--- a/2018/CRM/03_DetailDesign/CRMF2082_Xem chi tiet yeu cau.xlsx
+++ b/2018/CRM/03_DetailDesign/CRMF2082_Xem chi tiet yeu cau.xlsx
@@ -3124,12 +3124,12 @@
 And ContactID = @ContactID</t>
   </si>
   <si>
-    <t>- STT yêu cầu là: 2;5 (bên file Tasklist)
-- Bổ sung các trường: Loại yêu cầu, Dự án, Deadline mong muốn, Deadline thực tế hoàn thành, Số giờ cho phép, Số giờ thực tế, tab Liên hệ</t>
-  </si>
-  <si>
     <t>- STT yêu cầu là: 1 (bên file Tasklist)
 - Bổ sung trường: Dự án</t>
+  </si>
+  <si>
+    <t>- STT yêu cầu là: 4 (bên file Tasklist)
+- Bổ sung các trường: Loại yêu cầu, Deadline mong muốn, Deadline thực tế hoàn thành, Số giờ cho phép, Số giờ thực tế, tab Liên hệ</t>
   </si>
 </sst>
 </file>
@@ -4199,6 +4199,37 @@
     <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="32" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="32" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="32" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="8" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4313,6 +4344,15 @@
     <xf numFmtId="0" fontId="11" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="32" fillId="8" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -4528,46 +4568,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="32" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="32" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="32" fillId="8" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="8" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -7924,65 +7924,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="27" customHeight="1">
-      <c r="A1" s="212"/>
-      <c r="B1" s="212"/>
-      <c r="C1" s="214" t="s">
+      <c r="A1" s="223"/>
+      <c r="B1" s="223"/>
+      <c r="C1" s="225" t="s">
         <v>152</v>
       </c>
-      <c r="D1" s="215"/>
-      <c r="E1" s="215"/>
-      <c r="F1" s="216"/>
-      <c r="G1" s="213" t="s">
+      <c r="D1" s="226"/>
+      <c r="E1" s="226"/>
+      <c r="F1" s="227"/>
+      <c r="G1" s="224" t="s">
         <v>148</v>
       </c>
-      <c r="H1" s="213"/>
-      <c r="I1" s="213" t="s">
+      <c r="H1" s="224"/>
+      <c r="I1" s="224" t="s">
         <v>149</v>
       </c>
-      <c r="J1" s="213"/>
+      <c r="J1" s="224"/>
     </row>
     <row r="2" spans="1:18" ht="23.25" customHeight="1">
-      <c r="A2" s="212"/>
-      <c r="B2" s="212"/>
-      <c r="C2" s="217"/>
-      <c r="D2" s="218"/>
-      <c r="E2" s="218"/>
-      <c r="F2" s="219"/>
-      <c r="G2" s="213" t="s">
+      <c r="A2" s="223"/>
+      <c r="B2" s="223"/>
+      <c r="C2" s="228"/>
+      <c r="D2" s="229"/>
+      <c r="E2" s="229"/>
+      <c r="F2" s="230"/>
+      <c r="G2" s="224" t="s">
         <v>150</v>
       </c>
-      <c r="H2" s="213"/>
-      <c r="I2" s="213"/>
-      <c r="J2" s="213"/>
+      <c r="H2" s="224"/>
+      <c r="I2" s="224"/>
+      <c r="J2" s="224"/>
     </row>
     <row r="3" spans="1:18" ht="12.75" customHeight="1">
-      <c r="A3" s="212"/>
-      <c r="B3" s="212"/>
-      <c r="C3" s="220"/>
-      <c r="D3" s="221"/>
-      <c r="E3" s="221"/>
-      <c r="F3" s="222"/>
-      <c r="G3" s="209" t="s">
+      <c r="A3" s="223"/>
+      <c r="B3" s="223"/>
+      <c r="C3" s="231"/>
+      <c r="D3" s="232"/>
+      <c r="E3" s="232"/>
+      <c r="F3" s="233"/>
+      <c r="G3" s="220" t="s">
         <v>151</v>
       </c>
-      <c r="H3" s="210"/>
-      <c r="I3" s="209"/>
-      <c r="J3" s="210"/>
+      <c r="H3" s="221"/>
+      <c r="I3" s="220"/>
+      <c r="J3" s="221"/>
     </row>
     <row r="4" spans="1:18">
       <c r="H4" s="97"/>
     </row>
     <row r="13" spans="1:18" ht="30">
-      <c r="A13" s="211"/>
-      <c r="B13" s="211"/>
-      <c r="C13" s="211"/>
-      <c r="D13" s="211"/>
-      <c r="E13" s="211"/>
-      <c r="F13" s="211"/>
-      <c r="G13" s="211"/>
-      <c r="H13" s="211"/>
-      <c r="I13" s="211"/>
-      <c r="J13" s="211"/>
+      <c r="A13" s="222"/>
+      <c r="B13" s="222"/>
+      <c r="C13" s="222"/>
+      <c r="D13" s="222"/>
+      <c r="E13" s="222"/>
+      <c r="F13" s="222"/>
+      <c r="G13" s="222"/>
+      <c r="H13" s="222"/>
+      <c r="I13" s="222"/>
+      <c r="J13" s="222"/>
       <c r="K13" s="98"/>
       <c r="L13" s="98"/>
       <c r="M13" s="98"/>
@@ -7993,56 +7993,56 @@
       <c r="R13" s="98"/>
     </row>
     <row r="14" spans="1:18" ht="26.25">
-      <c r="B14" s="207"/>
-      <c r="C14" s="207"/>
-      <c r="D14" s="207"/>
-      <c r="E14" s="207"/>
-      <c r="F14" s="207"/>
-      <c r="G14" s="207"/>
-      <c r="H14" s="207"/>
-      <c r="I14" s="207"/>
-      <c r="J14" s="207"/>
-      <c r="K14" s="207"/>
-      <c r="L14" s="207"/>
-      <c r="M14" s="207"/>
-      <c r="N14" s="207"/>
-      <c r="O14" s="207"/>
-      <c r="P14" s="207"/>
-      <c r="Q14" s="207"/>
-      <c r="R14" s="207"/>
+      <c r="B14" s="218"/>
+      <c r="C14" s="218"/>
+      <c r="D14" s="218"/>
+      <c r="E14" s="218"/>
+      <c r="F14" s="218"/>
+      <c r="G14" s="218"/>
+      <c r="H14" s="218"/>
+      <c r="I14" s="218"/>
+      <c r="J14" s="218"/>
+      <c r="K14" s="218"/>
+      <c r="L14" s="218"/>
+      <c r="M14" s="218"/>
+      <c r="N14" s="218"/>
+      <c r="O14" s="218"/>
+      <c r="P14" s="218"/>
+      <c r="Q14" s="218"/>
+      <c r="R14" s="218"/>
     </row>
     <row r="15" spans="1:18" ht="26.25">
-      <c r="B15" s="207"/>
-      <c r="C15" s="207"/>
-      <c r="D15" s="207"/>
-      <c r="E15" s="207"/>
-      <c r="F15" s="207"/>
-      <c r="G15" s="207"/>
-      <c r="H15" s="207"/>
-      <c r="I15" s="207"/>
-      <c r="J15" s="207"/>
-      <c r="K15" s="207"/>
-      <c r="L15" s="207"/>
-      <c r="M15" s="207"/>
-      <c r="N15" s="207"/>
-      <c r="O15" s="207"/>
-      <c r="P15" s="207"/>
-      <c r="Q15" s="207"/>
-      <c r="R15" s="207"/>
+      <c r="B15" s="218"/>
+      <c r="C15" s="218"/>
+      <c r="D15" s="218"/>
+      <c r="E15" s="218"/>
+      <c r="F15" s="218"/>
+      <c r="G15" s="218"/>
+      <c r="H15" s="218"/>
+      <c r="I15" s="218"/>
+      <c r="J15" s="218"/>
+      <c r="K15" s="218"/>
+      <c r="L15" s="218"/>
+      <c r="M15" s="218"/>
+      <c r="N15" s="218"/>
+      <c r="O15" s="218"/>
+      <c r="P15" s="218"/>
+      <c r="Q15" s="218"/>
+      <c r="R15" s="218"/>
     </row>
     <row r="16" spans="1:18" ht="26.25">
-      <c r="A16" s="208" t="s">
+      <c r="A16" s="219" t="s">
         <v>152</v>
       </c>
-      <c r="B16" s="208"/>
-      <c r="C16" s="208"/>
-      <c r="D16" s="208"/>
-      <c r="E16" s="208"/>
-      <c r="F16" s="208"/>
-      <c r="G16" s="208"/>
-      <c r="H16" s="208"/>
-      <c r="I16" s="208"/>
-      <c r="J16" s="208"/>
+      <c r="B16" s="219"/>
+      <c r="C16" s="219"/>
+      <c r="D16" s="219"/>
+      <c r="E16" s="219"/>
+      <c r="F16" s="219"/>
+      <c r="G16" s="219"/>
+      <c r="H16" s="219"/>
+      <c r="I16" s="219"/>
+      <c r="J16" s="219"/>
       <c r="K16" s="99"/>
       <c r="L16" s="99"/>
       <c r="M16" s="99"/>
@@ -8053,384 +8053,384 @@
       <c r="R16" s="99"/>
     </row>
     <row r="17" spans="1:195" ht="14.1" customHeight="1">
-      <c r="B17" s="207"/>
-      <c r="C17" s="207"/>
-      <c r="D17" s="207"/>
-      <c r="E17" s="207"/>
-      <c r="F17" s="207"/>
-      <c r="G17" s="207"/>
-      <c r="H17" s="207"/>
-      <c r="I17" s="207"/>
-      <c r="J17" s="207"/>
-      <c r="K17" s="207"/>
-      <c r="L17" s="207"/>
-      <c r="M17" s="207"/>
-      <c r="N17" s="207"/>
-      <c r="O17" s="207"/>
-      <c r="P17" s="207"/>
-      <c r="Q17" s="207"/>
-      <c r="R17" s="207"/>
+      <c r="B17" s="218"/>
+      <c r="C17" s="218"/>
+      <c r="D17" s="218"/>
+      <c r="E17" s="218"/>
+      <c r="F17" s="218"/>
+      <c r="G17" s="218"/>
+      <c r="H17" s="218"/>
+      <c r="I17" s="218"/>
+      <c r="J17" s="218"/>
+      <c r="K17" s="218"/>
+      <c r="L17" s="218"/>
+      <c r="M17" s="218"/>
+      <c r="N17" s="218"/>
+      <c r="O17" s="218"/>
+      <c r="P17" s="218"/>
+      <c r="Q17" s="218"/>
+      <c r="R17" s="218"/>
     </row>
     <row r="18" spans="1:195" ht="26.25">
-      <c r="B18" s="207"/>
-      <c r="C18" s="207"/>
-      <c r="D18" s="207"/>
-      <c r="E18" s="207"/>
-      <c r="F18" s="207"/>
-      <c r="G18" s="207"/>
-      <c r="H18" s="207"/>
-      <c r="I18" s="207"/>
-      <c r="J18" s="207"/>
-      <c r="K18" s="207"/>
-      <c r="L18" s="207"/>
-      <c r="M18" s="207"/>
-      <c r="N18" s="207"/>
-      <c r="O18" s="207"/>
-      <c r="P18" s="207"/>
-      <c r="Q18" s="207"/>
-      <c r="R18" s="207"/>
+      <c r="B18" s="218"/>
+      <c r="C18" s="218"/>
+      <c r="D18" s="218"/>
+      <c r="E18" s="218"/>
+      <c r="F18" s="218"/>
+      <c r="G18" s="218"/>
+      <c r="H18" s="218"/>
+      <c r="I18" s="218"/>
+      <c r="J18" s="218"/>
+      <c r="K18" s="218"/>
+      <c r="L18" s="218"/>
+      <c r="M18" s="218"/>
+      <c r="N18" s="218"/>
+      <c r="O18" s="218"/>
+      <c r="P18" s="218"/>
+      <c r="Q18" s="218"/>
+      <c r="R18" s="218"/>
     </row>
     <row r="19" spans="1:195" ht="23.25">
-      <c r="B19" s="224"/>
-      <c r="C19" s="224"/>
-      <c r="D19" s="224"/>
-      <c r="E19" s="224"/>
-      <c r="F19" s="224"/>
-      <c r="G19" s="224"/>
-      <c r="H19" s="224"/>
-      <c r="I19" s="224"/>
-      <c r="J19" s="224"/>
-      <c r="K19" s="224"/>
-      <c r="L19" s="224"/>
-      <c r="M19" s="224"/>
-      <c r="N19" s="224"/>
-      <c r="O19" s="224"/>
-      <c r="P19" s="224"/>
-      <c r="Q19" s="224"/>
-      <c r="R19" s="224"/>
+      <c r="B19" s="235"/>
+      <c r="C19" s="235"/>
+      <c r="D19" s="235"/>
+      <c r="E19" s="235"/>
+      <c r="F19" s="235"/>
+      <c r="G19" s="235"/>
+      <c r="H19" s="235"/>
+      <c r="I19" s="235"/>
+      <c r="J19" s="235"/>
+      <c r="K19" s="235"/>
+      <c r="L19" s="235"/>
+      <c r="M19" s="235"/>
+      <c r="N19" s="235"/>
+      <c r="O19" s="235"/>
+      <c r="P19" s="235"/>
+      <c r="Q19" s="235"/>
+      <c r="R19" s="235"/>
     </row>
     <row r="20" spans="1:195" ht="26.25">
-      <c r="B20" s="207"/>
-      <c r="C20" s="207"/>
-      <c r="D20" s="207"/>
-      <c r="E20" s="207"/>
-      <c r="F20" s="207"/>
-      <c r="G20" s="207"/>
-      <c r="H20" s="207"/>
-      <c r="I20" s="207"/>
-      <c r="J20" s="207"/>
-      <c r="K20" s="207"/>
-      <c r="L20" s="207"/>
-      <c r="M20" s="207"/>
-      <c r="N20" s="207"/>
-      <c r="O20" s="207"/>
-      <c r="P20" s="207"/>
-      <c r="Q20" s="207"/>
-      <c r="R20" s="207"/>
+      <c r="B20" s="218"/>
+      <c r="C20" s="218"/>
+      <c r="D20" s="218"/>
+      <c r="E20" s="218"/>
+      <c r="F20" s="218"/>
+      <c r="G20" s="218"/>
+      <c r="H20" s="218"/>
+      <c r="I20" s="218"/>
+      <c r="J20" s="218"/>
+      <c r="K20" s="218"/>
+      <c r="L20" s="218"/>
+      <c r="M20" s="218"/>
+      <c r="N20" s="218"/>
+      <c r="O20" s="218"/>
+      <c r="P20" s="218"/>
+      <c r="Q20" s="218"/>
+      <c r="R20" s="218"/>
     </row>
     <row r="21" spans="1:195" ht="26.25">
-      <c r="B21" s="207"/>
-      <c r="C21" s="207"/>
-      <c r="D21" s="207"/>
-      <c r="E21" s="207"/>
-      <c r="F21" s="207"/>
-      <c r="G21" s="207"/>
-      <c r="H21" s="207"/>
-      <c r="I21" s="207"/>
-      <c r="J21" s="207"/>
-      <c r="K21" s="207"/>
-      <c r="L21" s="207"/>
-      <c r="M21" s="207"/>
-      <c r="N21" s="207"/>
-      <c r="O21" s="207"/>
-      <c r="P21" s="207"/>
-      <c r="Q21" s="207"/>
-      <c r="R21" s="207"/>
+      <c r="B21" s="218"/>
+      <c r="C21" s="218"/>
+      <c r="D21" s="218"/>
+      <c r="E21" s="218"/>
+      <c r="F21" s="218"/>
+      <c r="G21" s="218"/>
+      <c r="H21" s="218"/>
+      <c r="I21" s="218"/>
+      <c r="J21" s="218"/>
+      <c r="K21" s="218"/>
+      <c r="L21" s="218"/>
+      <c r="M21" s="218"/>
+      <c r="N21" s="218"/>
+      <c r="O21" s="218"/>
+      <c r="P21" s="218"/>
+      <c r="Q21" s="218"/>
+      <c r="R21" s="218"/>
     </row>
     <row r="22" spans="1:195" ht="25.5">
-      <c r="B22" s="223"/>
-      <c r="C22" s="223"/>
-      <c r="D22" s="223"/>
-      <c r="E22" s="223"/>
-      <c r="F22" s="223"/>
-      <c r="G22" s="223"/>
-      <c r="H22" s="223"/>
-      <c r="I22" s="223"/>
-      <c r="J22" s="223"/>
-      <c r="K22" s="223"/>
-      <c r="L22" s="223"/>
-      <c r="M22" s="223"/>
-      <c r="N22" s="223"/>
-      <c r="O22" s="223"/>
-      <c r="P22" s="223"/>
-      <c r="Q22" s="223"/>
-      <c r="R22" s="223"/>
+      <c r="B22" s="234"/>
+      <c r="C22" s="234"/>
+      <c r="D22" s="234"/>
+      <c r="E22" s="234"/>
+      <c r="F22" s="234"/>
+      <c r="G22" s="234"/>
+      <c r="H22" s="234"/>
+      <c r="I22" s="234"/>
+      <c r="J22" s="234"/>
+      <c r="K22" s="234"/>
+      <c r="L22" s="234"/>
+      <c r="M22" s="234"/>
+      <c r="N22" s="234"/>
+      <c r="O22" s="234"/>
+      <c r="P22" s="234"/>
+      <c r="Q22" s="234"/>
+      <c r="R22" s="234"/>
     </row>
     <row r="23" spans="1:195" ht="25.5">
-      <c r="B23" s="223"/>
-      <c r="C23" s="223"/>
-      <c r="D23" s="223"/>
-      <c r="E23" s="223"/>
-      <c r="F23" s="223"/>
-      <c r="G23" s="223"/>
-      <c r="H23" s="223"/>
-      <c r="I23" s="223"/>
-      <c r="J23" s="223"/>
-      <c r="K23" s="223"/>
-      <c r="L23" s="223"/>
-      <c r="M23" s="223"/>
-      <c r="N23" s="223"/>
-      <c r="O23" s="223"/>
-      <c r="P23" s="223"/>
-      <c r="Q23" s="223"/>
-      <c r="R23" s="223"/>
+      <c r="B23" s="234"/>
+      <c r="C23" s="234"/>
+      <c r="D23" s="234"/>
+      <c r="E23" s="234"/>
+      <c r="F23" s="234"/>
+      <c r="G23" s="234"/>
+      <c r="H23" s="234"/>
+      <c r="I23" s="234"/>
+      <c r="J23" s="234"/>
+      <c r="K23" s="234"/>
+      <c r="L23" s="234"/>
+      <c r="M23" s="234"/>
+      <c r="N23" s="234"/>
+      <c r="O23" s="234"/>
+      <c r="P23" s="234"/>
+      <c r="Q23" s="234"/>
+      <c r="R23" s="234"/>
     </row>
     <row r="25" spans="1:195" ht="11.25" customHeight="1"/>
     <row r="26" spans="1:195" ht="18">
-      <c r="B26" s="225"/>
-      <c r="C26" s="225"/>
-      <c r="D26" s="225"/>
-      <c r="E26" s="225"/>
-      <c r="F26" s="225"/>
-      <c r="G26" s="225"/>
-      <c r="H26" s="225"/>
-      <c r="I26" s="225"/>
-      <c r="J26" s="225"/>
-      <c r="K26" s="225"/>
-      <c r="L26" s="225"/>
-      <c r="M26" s="225"/>
-      <c r="N26" s="225"/>
-      <c r="O26" s="225"/>
-      <c r="P26" s="225"/>
-      <c r="Q26" s="225"/>
-      <c r="R26" s="225"/>
+      <c r="B26" s="236"/>
+      <c r="C26" s="236"/>
+      <c r="D26" s="236"/>
+      <c r="E26" s="236"/>
+      <c r="F26" s="236"/>
+      <c r="G26" s="236"/>
+      <c r="H26" s="236"/>
+      <c r="I26" s="236"/>
+      <c r="J26" s="236"/>
+      <c r="K26" s="236"/>
+      <c r="L26" s="236"/>
+      <c r="M26" s="236"/>
+      <c r="N26" s="236"/>
+      <c r="O26" s="236"/>
+      <c r="P26" s="236"/>
+      <c r="Q26" s="236"/>
+      <c r="R26" s="236"/>
     </row>
     <row r="28" spans="1:195" ht="18">
-      <c r="B28" s="227"/>
-      <c r="C28" s="227"/>
-      <c r="D28" s="227"/>
-      <c r="E28" s="227"/>
-      <c r="F28" s="227"/>
-      <c r="G28" s="227"/>
-      <c r="H28" s="227"/>
-      <c r="I28" s="227"/>
-      <c r="J28" s="227"/>
-      <c r="K28" s="227"/>
-      <c r="L28" s="227"/>
-      <c r="M28" s="227"/>
-      <c r="N28" s="227"/>
-      <c r="O28" s="227"/>
-      <c r="P28" s="227"/>
-      <c r="Q28" s="227"/>
-      <c r="R28" s="227"/>
-      <c r="S28" s="226"/>
-      <c r="T28" s="226"/>
-      <c r="U28" s="226"/>
-      <c r="V28" s="226"/>
-      <c r="W28" s="226"/>
-      <c r="X28" s="226"/>
-      <c r="Y28" s="226"/>
-      <c r="Z28" s="226"/>
-      <c r="AA28" s="226"/>
-      <c r="AB28" s="226"/>
-      <c r="AC28" s="226"/>
-      <c r="AD28" s="226"/>
-      <c r="AE28" s="226"/>
-      <c r="AF28" s="226"/>
-      <c r="AG28" s="226"/>
-      <c r="AH28" s="226"/>
-      <c r="AI28" s="226"/>
-      <c r="AJ28" s="226"/>
-      <c r="AK28" s="226"/>
-      <c r="AL28" s="226"/>
-      <c r="AM28" s="226"/>
-      <c r="AN28" s="226"/>
-      <c r="AO28" s="226"/>
-      <c r="AP28" s="226"/>
-      <c r="AQ28" s="226"/>
-      <c r="AR28" s="226"/>
-      <c r="AS28" s="226"/>
-      <c r="AT28" s="226"/>
-      <c r="AU28" s="226"/>
-      <c r="AV28" s="226"/>
-      <c r="AW28" s="226"/>
-      <c r="AX28" s="226"/>
-      <c r="AY28" s="226"/>
-      <c r="AZ28" s="226"/>
-      <c r="BA28" s="226"/>
-      <c r="BB28" s="226"/>
-      <c r="BC28" s="226"/>
-      <c r="BD28" s="226"/>
-      <c r="BE28" s="226"/>
-      <c r="BF28" s="226"/>
-      <c r="BG28" s="226"/>
-      <c r="BH28" s="226"/>
-      <c r="BI28" s="226"/>
-      <c r="BJ28" s="226"/>
-      <c r="BK28" s="226"/>
-      <c r="BL28" s="226"/>
-      <c r="BM28" s="226"/>
-      <c r="BN28" s="226"/>
-      <c r="BO28" s="226"/>
-      <c r="BP28" s="226"/>
-      <c r="BQ28" s="226"/>
-      <c r="BR28" s="226"/>
-      <c r="BS28" s="226"/>
-      <c r="BT28" s="226"/>
-      <c r="BU28" s="226"/>
-      <c r="BV28" s="226"/>
-      <c r="BW28" s="226"/>
-      <c r="BX28" s="226"/>
-      <c r="BY28" s="226"/>
-      <c r="BZ28" s="226"/>
-      <c r="CA28" s="226"/>
-      <c r="CB28" s="226"/>
-      <c r="CC28" s="226"/>
-      <c r="CD28" s="226"/>
-      <c r="CE28" s="226"/>
-      <c r="CF28" s="226"/>
-      <c r="CG28" s="226"/>
-      <c r="CH28" s="226"/>
-      <c r="CI28" s="226"/>
-      <c r="CJ28" s="226"/>
-      <c r="CK28" s="226"/>
-      <c r="CL28" s="226"/>
-      <c r="CM28" s="226"/>
-      <c r="CN28" s="226"/>
-      <c r="CO28" s="226"/>
-      <c r="CP28" s="226"/>
-      <c r="CQ28" s="226"/>
-      <c r="CR28" s="226"/>
-      <c r="CS28" s="226"/>
-      <c r="CT28" s="226"/>
-      <c r="CU28" s="226"/>
-      <c r="CV28" s="226"/>
-      <c r="CW28" s="226"/>
-      <c r="CX28" s="226"/>
-      <c r="CY28" s="226"/>
-      <c r="CZ28" s="226"/>
-      <c r="DA28" s="226"/>
-      <c r="DB28" s="226"/>
-      <c r="DC28" s="226"/>
-      <c r="DD28" s="226"/>
-      <c r="DE28" s="226"/>
-      <c r="DF28" s="226"/>
-      <c r="DG28" s="226"/>
-      <c r="DH28" s="226"/>
-      <c r="DI28" s="226"/>
-      <c r="DJ28" s="226"/>
-      <c r="DK28" s="226"/>
-      <c r="DL28" s="226"/>
-      <c r="DM28" s="226"/>
-      <c r="DN28" s="226"/>
-      <c r="DO28" s="226"/>
-      <c r="DP28" s="226"/>
-      <c r="DQ28" s="226"/>
-      <c r="DR28" s="226"/>
-      <c r="DS28" s="226"/>
-      <c r="DT28" s="226"/>
-      <c r="DU28" s="226"/>
-      <c r="DV28" s="226"/>
-      <c r="DW28" s="226"/>
-      <c r="DX28" s="226"/>
-      <c r="DY28" s="226"/>
-      <c r="DZ28" s="226"/>
-      <c r="EA28" s="226"/>
-      <c r="EB28" s="226"/>
-      <c r="EC28" s="226"/>
-      <c r="ED28" s="226"/>
-      <c r="EE28" s="226"/>
-      <c r="EF28" s="226"/>
-      <c r="EG28" s="226"/>
-      <c r="EH28" s="226"/>
-      <c r="EI28" s="226"/>
-      <c r="EJ28" s="226"/>
-      <c r="EK28" s="226"/>
-      <c r="EL28" s="226"/>
-      <c r="EM28" s="226"/>
-      <c r="EN28" s="226"/>
-      <c r="EO28" s="226"/>
-      <c r="EP28" s="226"/>
-      <c r="EQ28" s="226"/>
-      <c r="ER28" s="226"/>
-      <c r="ES28" s="226"/>
-      <c r="ET28" s="226"/>
-      <c r="EU28" s="226"/>
-      <c r="EV28" s="226"/>
-      <c r="EW28" s="226"/>
-      <c r="EX28" s="226"/>
-      <c r="EY28" s="226"/>
-      <c r="EZ28" s="226"/>
-      <c r="FA28" s="226"/>
-      <c r="FB28" s="226"/>
-      <c r="FC28" s="226"/>
-      <c r="FD28" s="226"/>
-      <c r="FE28" s="226"/>
-      <c r="FF28" s="226"/>
-      <c r="FG28" s="226"/>
-      <c r="FH28" s="226"/>
-      <c r="FI28" s="226"/>
-      <c r="FJ28" s="226"/>
-      <c r="FK28" s="226"/>
-      <c r="FL28" s="226"/>
-      <c r="FM28" s="226"/>
-      <c r="FN28" s="226"/>
-      <c r="FO28" s="226"/>
-      <c r="FP28" s="226"/>
-      <c r="FQ28" s="226"/>
-      <c r="FR28" s="226"/>
-      <c r="FS28" s="226"/>
-      <c r="FT28" s="226"/>
-      <c r="FU28" s="226"/>
-      <c r="FV28" s="226"/>
-      <c r="FW28" s="226"/>
-      <c r="FX28" s="226"/>
-      <c r="FY28" s="226"/>
-      <c r="FZ28" s="226"/>
-      <c r="GA28" s="226"/>
-      <c r="GB28" s="226"/>
-      <c r="GC28" s="226"/>
-      <c r="GD28" s="226"/>
-      <c r="GE28" s="226"/>
-      <c r="GF28" s="226"/>
-      <c r="GG28" s="226"/>
-      <c r="GH28" s="226"/>
-      <c r="GI28" s="226"/>
-      <c r="GJ28" s="226"/>
-      <c r="GK28" s="226"/>
-      <c r="GL28" s="226"/>
+      <c r="B28" s="238"/>
+      <c r="C28" s="238"/>
+      <c r="D28" s="238"/>
+      <c r="E28" s="238"/>
+      <c r="F28" s="238"/>
+      <c r="G28" s="238"/>
+      <c r="H28" s="238"/>
+      <c r="I28" s="238"/>
+      <c r="J28" s="238"/>
+      <c r="K28" s="238"/>
+      <c r="L28" s="238"/>
+      <c r="M28" s="238"/>
+      <c r="N28" s="238"/>
+      <c r="O28" s="238"/>
+      <c r="P28" s="238"/>
+      <c r="Q28" s="238"/>
+      <c r="R28" s="238"/>
+      <c r="S28" s="237"/>
+      <c r="T28" s="237"/>
+      <c r="U28" s="237"/>
+      <c r="V28" s="237"/>
+      <c r="W28" s="237"/>
+      <c r="X28" s="237"/>
+      <c r="Y28" s="237"/>
+      <c r="Z28" s="237"/>
+      <c r="AA28" s="237"/>
+      <c r="AB28" s="237"/>
+      <c r="AC28" s="237"/>
+      <c r="AD28" s="237"/>
+      <c r="AE28" s="237"/>
+      <c r="AF28" s="237"/>
+      <c r="AG28" s="237"/>
+      <c r="AH28" s="237"/>
+      <c r="AI28" s="237"/>
+      <c r="AJ28" s="237"/>
+      <c r="AK28" s="237"/>
+      <c r="AL28" s="237"/>
+      <c r="AM28" s="237"/>
+      <c r="AN28" s="237"/>
+      <c r="AO28" s="237"/>
+      <c r="AP28" s="237"/>
+      <c r="AQ28" s="237"/>
+      <c r="AR28" s="237"/>
+      <c r="AS28" s="237"/>
+      <c r="AT28" s="237"/>
+      <c r="AU28" s="237"/>
+      <c r="AV28" s="237"/>
+      <c r="AW28" s="237"/>
+      <c r="AX28" s="237"/>
+      <c r="AY28" s="237"/>
+      <c r="AZ28" s="237"/>
+      <c r="BA28" s="237"/>
+      <c r="BB28" s="237"/>
+      <c r="BC28" s="237"/>
+      <c r="BD28" s="237"/>
+      <c r="BE28" s="237"/>
+      <c r="BF28" s="237"/>
+      <c r="BG28" s="237"/>
+      <c r="BH28" s="237"/>
+      <c r="BI28" s="237"/>
+      <c r="BJ28" s="237"/>
+      <c r="BK28" s="237"/>
+      <c r="BL28" s="237"/>
+      <c r="BM28" s="237"/>
+      <c r="BN28" s="237"/>
+      <c r="BO28" s="237"/>
+      <c r="BP28" s="237"/>
+      <c r="BQ28" s="237"/>
+      <c r="BR28" s="237"/>
+      <c r="BS28" s="237"/>
+      <c r="BT28" s="237"/>
+      <c r="BU28" s="237"/>
+      <c r="BV28" s="237"/>
+      <c r="BW28" s="237"/>
+      <c r="BX28" s="237"/>
+      <c r="BY28" s="237"/>
+      <c r="BZ28" s="237"/>
+      <c r="CA28" s="237"/>
+      <c r="CB28" s="237"/>
+      <c r="CC28" s="237"/>
+      <c r="CD28" s="237"/>
+      <c r="CE28" s="237"/>
+      <c r="CF28" s="237"/>
+      <c r="CG28" s="237"/>
+      <c r="CH28" s="237"/>
+      <c r="CI28" s="237"/>
+      <c r="CJ28" s="237"/>
+      <c r="CK28" s="237"/>
+      <c r="CL28" s="237"/>
+      <c r="CM28" s="237"/>
+      <c r="CN28" s="237"/>
+      <c r="CO28" s="237"/>
+      <c r="CP28" s="237"/>
+      <c r="CQ28" s="237"/>
+      <c r="CR28" s="237"/>
+      <c r="CS28" s="237"/>
+      <c r="CT28" s="237"/>
+      <c r="CU28" s="237"/>
+      <c r="CV28" s="237"/>
+      <c r="CW28" s="237"/>
+      <c r="CX28" s="237"/>
+      <c r="CY28" s="237"/>
+      <c r="CZ28" s="237"/>
+      <c r="DA28" s="237"/>
+      <c r="DB28" s="237"/>
+      <c r="DC28" s="237"/>
+      <c r="DD28" s="237"/>
+      <c r="DE28" s="237"/>
+      <c r="DF28" s="237"/>
+      <c r="DG28" s="237"/>
+      <c r="DH28" s="237"/>
+      <c r="DI28" s="237"/>
+      <c r="DJ28" s="237"/>
+      <c r="DK28" s="237"/>
+      <c r="DL28" s="237"/>
+      <c r="DM28" s="237"/>
+      <c r="DN28" s="237"/>
+      <c r="DO28" s="237"/>
+      <c r="DP28" s="237"/>
+      <c r="DQ28" s="237"/>
+      <c r="DR28" s="237"/>
+      <c r="DS28" s="237"/>
+      <c r="DT28" s="237"/>
+      <c r="DU28" s="237"/>
+      <c r="DV28" s="237"/>
+      <c r="DW28" s="237"/>
+      <c r="DX28" s="237"/>
+      <c r="DY28" s="237"/>
+      <c r="DZ28" s="237"/>
+      <c r="EA28" s="237"/>
+      <c r="EB28" s="237"/>
+      <c r="EC28" s="237"/>
+      <c r="ED28" s="237"/>
+      <c r="EE28" s="237"/>
+      <c r="EF28" s="237"/>
+      <c r="EG28" s="237"/>
+      <c r="EH28" s="237"/>
+      <c r="EI28" s="237"/>
+      <c r="EJ28" s="237"/>
+      <c r="EK28" s="237"/>
+      <c r="EL28" s="237"/>
+      <c r="EM28" s="237"/>
+      <c r="EN28" s="237"/>
+      <c r="EO28" s="237"/>
+      <c r="EP28" s="237"/>
+      <c r="EQ28" s="237"/>
+      <c r="ER28" s="237"/>
+      <c r="ES28" s="237"/>
+      <c r="ET28" s="237"/>
+      <c r="EU28" s="237"/>
+      <c r="EV28" s="237"/>
+      <c r="EW28" s="237"/>
+      <c r="EX28" s="237"/>
+      <c r="EY28" s="237"/>
+      <c r="EZ28" s="237"/>
+      <c r="FA28" s="237"/>
+      <c r="FB28" s="237"/>
+      <c r="FC28" s="237"/>
+      <c r="FD28" s="237"/>
+      <c r="FE28" s="237"/>
+      <c r="FF28" s="237"/>
+      <c r="FG28" s="237"/>
+      <c r="FH28" s="237"/>
+      <c r="FI28" s="237"/>
+      <c r="FJ28" s="237"/>
+      <c r="FK28" s="237"/>
+      <c r="FL28" s="237"/>
+      <c r="FM28" s="237"/>
+      <c r="FN28" s="237"/>
+      <c r="FO28" s="237"/>
+      <c r="FP28" s="237"/>
+      <c r="FQ28" s="237"/>
+      <c r="FR28" s="237"/>
+      <c r="FS28" s="237"/>
+      <c r="FT28" s="237"/>
+      <c r="FU28" s="237"/>
+      <c r="FV28" s="237"/>
+      <c r="FW28" s="237"/>
+      <c r="FX28" s="237"/>
+      <c r="FY28" s="237"/>
+      <c r="FZ28" s="237"/>
+      <c r="GA28" s="237"/>
+      <c r="GB28" s="237"/>
+      <c r="GC28" s="237"/>
+      <c r="GD28" s="237"/>
+      <c r="GE28" s="237"/>
+      <c r="GF28" s="237"/>
+      <c r="GG28" s="237"/>
+      <c r="GH28" s="237"/>
+      <c r="GI28" s="237"/>
+      <c r="GJ28" s="237"/>
+      <c r="GK28" s="237"/>
+      <c r="GL28" s="237"/>
       <c r="GM28" s="100"/>
     </row>
     <row r="29" spans="1:195" ht="18">
-      <c r="B29" s="225"/>
-      <c r="C29" s="225"/>
-      <c r="D29" s="225"/>
-      <c r="E29" s="225"/>
-      <c r="F29" s="225"/>
-      <c r="G29" s="225"/>
-      <c r="H29" s="225"/>
-      <c r="I29" s="225"/>
-      <c r="J29" s="225"/>
-      <c r="K29" s="225"/>
-      <c r="L29" s="225"/>
-      <c r="M29" s="225"/>
-      <c r="N29" s="225"/>
-      <c r="O29" s="225"/>
-      <c r="P29" s="225"/>
-      <c r="Q29" s="225"/>
-      <c r="R29" s="225"/>
+      <c r="B29" s="236"/>
+      <c r="C29" s="236"/>
+      <c r="D29" s="236"/>
+      <c r="E29" s="236"/>
+      <c r="F29" s="236"/>
+      <c r="G29" s="236"/>
+      <c r="H29" s="236"/>
+      <c r="I29" s="236"/>
+      <c r="J29" s="236"/>
+      <c r="K29" s="236"/>
+      <c r="L29" s="236"/>
+      <c r="M29" s="236"/>
+      <c r="N29" s="236"/>
+      <c r="O29" s="236"/>
+      <c r="P29" s="236"/>
+      <c r="Q29" s="236"/>
+      <c r="R29" s="236"/>
     </row>
     <row r="30" spans="1:195" ht="13.5" customHeight="1">
-      <c r="A30" s="228"/>
-      <c r="B30" s="228"/>
-      <c r="C30" s="228"/>
-      <c r="D30" s="228"/>
-      <c r="E30" s="228"/>
-      <c r="F30" s="228"/>
-      <c r="G30" s="228"/>
-      <c r="H30" s="228"/>
-      <c r="I30" s="228"/>
-      <c r="J30" s="228"/>
+      <c r="A30" s="239"/>
+      <c r="B30" s="239"/>
+      <c r="C30" s="239"/>
+      <c r="D30" s="239"/>
+      <c r="E30" s="239"/>
+      <c r="F30" s="239"/>
+      <c r="G30" s="239"/>
+      <c r="H30" s="239"/>
+      <c r="I30" s="239"/>
+      <c r="J30" s="239"/>
       <c r="K30" s="101"/>
       <c r="L30" s="101"/>
       <c r="M30" s="101"/>
@@ -8441,16 +8441,16 @@
       <c r="R30" s="101"/>
     </row>
     <row r="31" spans="1:195" ht="13.5" customHeight="1">
-      <c r="A31" s="228"/>
-      <c r="B31" s="228"/>
-      <c r="C31" s="228"/>
-      <c r="D31" s="228"/>
-      <c r="E31" s="228"/>
-      <c r="F31" s="228"/>
-      <c r="G31" s="228"/>
-      <c r="H31" s="228"/>
-      <c r="I31" s="228"/>
-      <c r="J31" s="228"/>
+      <c r="A31" s="239"/>
+      <c r="B31" s="239"/>
+      <c r="C31" s="239"/>
+      <c r="D31" s="239"/>
+      <c r="E31" s="239"/>
+      <c r="F31" s="239"/>
+      <c r="G31" s="239"/>
+      <c r="H31" s="239"/>
+      <c r="I31" s="239"/>
+      <c r="J31" s="239"/>
       <c r="K31" s="101"/>
       <c r="L31" s="101"/>
       <c r="M31" s="101"/>
@@ -8523,14 +8523,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="14.25">
-      <c r="B1" s="313" t="s">
+      <c r="B1" s="327" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="313"/>
-      <c r="D1" s="313"/>
-      <c r="E1" s="313"/>
-      <c r="F1" s="313"/>
-      <c r="G1" s="313"/>
+      <c r="C1" s="327"/>
+      <c r="D1" s="327"/>
+      <c r="E1" s="327"/>
+      <c r="F1" s="327"/>
+      <c r="G1" s="327"/>
     </row>
     <row r="2" spans="2:7" s="17" customFormat="1">
       <c r="B2" s="16"/>
@@ -8723,11 +8723,11 @@
       </c>
     </row>
     <row r="27" spans="2:7" ht="200.25" customHeight="1">
-      <c r="E27" s="314" t="s">
+      <c r="E27" s="328" t="s">
         <v>37</v>
       </c>
-      <c r="F27" s="315"/>
-      <c r="G27" s="316"/>
+      <c r="F27" s="329"/>
+      <c r="G27" s="330"/>
     </row>
     <row r="29" spans="2:7">
       <c r="B29" s="19" t="s">
@@ -9051,10 +9051,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="229" t="s">
+      <c r="A1" s="240" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="229"/>
+      <c r="B1" s="240"/>
       <c r="C1" s="30" t="s">
         <v>1</v>
       </c>
@@ -9081,8 +9081,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="229"/>
-      <c r="B2" s="229"/>
+      <c r="A2" s="240"/>
+      <c r="B2" s="240"/>
       <c r="C2" s="30" t="s">
         <v>2</v>
       </c>
@@ -9121,14 +9121,14 @@
       <c r="D4" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="230" t="s">
+      <c r="E4" s="241" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="230"/>
-      <c r="G4" s="230"/>
-      <c r="H4" s="230"/>
-      <c r="I4" s="230"/>
-      <c r="J4" s="230"/>
+      <c r="F4" s="241"/>
+      <c r="G4" s="241"/>
+      <c r="H4" s="241"/>
+      <c r="I4" s="241"/>
+      <c r="J4" s="241"/>
     </row>
     <row r="5" spans="1:10" s="25" customFormat="1" ht="47.25" customHeight="1">
       <c r="A5" s="108">
@@ -9143,14 +9143,14 @@
       <c r="D5" s="34">
         <v>42821</v>
       </c>
-      <c r="E5" s="231" t="s">
+      <c r="E5" s="242" t="s">
         <v>157</v>
       </c>
-      <c r="F5" s="231"/>
-      <c r="G5" s="231"/>
-      <c r="H5" s="231"/>
-      <c r="I5" s="231"/>
-      <c r="J5" s="231"/>
+      <c r="F5" s="242"/>
+      <c r="G5" s="242"/>
+      <c r="H5" s="242"/>
+      <c r="I5" s="242"/>
+      <c r="J5" s="242"/>
     </row>
     <row r="6" spans="1:10" ht="12.75">
       <c r="A6" s="72">
@@ -9165,14 +9165,14 @@
       <c r="D6" s="148">
         <v>42877</v>
       </c>
-      <c r="E6" s="232" t="s">
+      <c r="E6" s="243" t="s">
         <v>337</v>
       </c>
-      <c r="F6" s="233"/>
-      <c r="G6" s="233"/>
-      <c r="H6" s="233"/>
-      <c r="I6" s="233"/>
-      <c r="J6" s="234"/>
+      <c r="F6" s="244"/>
+      <c r="G6" s="244"/>
+      <c r="H6" s="244"/>
+      <c r="I6" s="244"/>
+      <c r="J6" s="245"/>
     </row>
     <row r="7" spans="1:10" ht="12" customHeight="1">
       <c r="A7" s="73">
@@ -9187,14 +9187,14 @@
       <c r="D7" s="150">
         <v>42879</v>
       </c>
-      <c r="E7" s="236" t="s">
+      <c r="E7" s="247" t="s">
         <v>339</v>
       </c>
-      <c r="F7" s="237"/>
-      <c r="G7" s="237"/>
-      <c r="H7" s="237"/>
-      <c r="I7" s="237"/>
-      <c r="J7" s="238"/>
+      <c r="F7" s="248"/>
+      <c r="G7" s="248"/>
+      <c r="H7" s="248"/>
+      <c r="I7" s="248"/>
+      <c r="J7" s="249"/>
     </row>
     <row r="8" spans="1:10" ht="12" customHeight="1">
       <c r="A8" s="74">
@@ -9209,14 +9209,14 @@
       <c r="D8" s="163">
         <v>42983</v>
       </c>
-      <c r="E8" s="239" t="s">
+      <c r="E8" s="250" t="s">
         <v>348</v>
       </c>
-      <c r="F8" s="240"/>
-      <c r="G8" s="240"/>
-      <c r="H8" s="240"/>
-      <c r="I8" s="240"/>
-      <c r="J8" s="241"/>
+      <c r="F8" s="251"/>
+      <c r="G8" s="251"/>
+      <c r="H8" s="251"/>
+      <c r="I8" s="251"/>
+      <c r="J8" s="252"/>
     </row>
     <row r="9" spans="1:10" ht="52.5" customHeight="1">
       <c r="A9" s="75">
@@ -9231,34 +9231,34 @@
       <c r="D9" s="168" t="s">
         <v>353</v>
       </c>
-      <c r="E9" s="242" t="s">
-        <v>445</v>
-      </c>
-      <c r="F9" s="243"/>
-      <c r="G9" s="243"/>
-      <c r="H9" s="243"/>
-      <c r="I9" s="243"/>
-      <c r="J9" s="244"/>
-    </row>
-    <row r="10" spans="1:10" s="322" customFormat="1" ht="27" customHeight="1">
+      <c r="E9" s="253" t="s">
+        <v>446</v>
+      </c>
+      <c r="F9" s="254"/>
+      <c r="G9" s="254"/>
+      <c r="H9" s="254"/>
+      <c r="I9" s="254"/>
+      <c r="J9" s="255"/>
+    </row>
+    <row r="10" spans="1:10" s="210" customFormat="1" ht="27" customHeight="1">
       <c r="A10" s="76">
         <v>6</v>
       </c>
-      <c r="B10" s="317">
+      <c r="B10" s="207">
         <v>6</v>
       </c>
-      <c r="C10" s="318" t="s">
+      <c r="C10" s="208" t="s">
         <v>352</v>
       </c>
-      <c r="D10" s="319"/>
-      <c r="E10" s="323" t="s">
-        <v>446</v>
-      </c>
-      <c r="F10" s="320"/>
-      <c r="G10" s="320"/>
-      <c r="H10" s="320"/>
-      <c r="I10" s="320"/>
-      <c r="J10" s="321"/>
+      <c r="D10" s="209"/>
+      <c r="E10" s="256" t="s">
+        <v>445</v>
+      </c>
+      <c r="F10" s="257"/>
+      <c r="G10" s="257"/>
+      <c r="H10" s="257"/>
+      <c r="I10" s="257"/>
+      <c r="J10" s="258"/>
     </row>
     <row r="11" spans="1:10" ht="12" customHeight="1">
       <c r="A11" s="77">
@@ -9269,12 +9269,12 @@
       </c>
       <c r="C11" s="66"/>
       <c r="D11" s="36"/>
-      <c r="E11" s="245"/>
-      <c r="F11" s="246"/>
-      <c r="G11" s="246"/>
-      <c r="H11" s="246"/>
-      <c r="I11" s="246"/>
-      <c r="J11" s="247"/>
+      <c r="E11" s="259"/>
+      <c r="F11" s="260"/>
+      <c r="G11" s="260"/>
+      <c r="H11" s="260"/>
+      <c r="I11" s="260"/>
+      <c r="J11" s="261"/>
     </row>
     <row r="12" spans="1:10" ht="12" customHeight="1">
       <c r="A12" s="78">
@@ -9285,12 +9285,12 @@
       </c>
       <c r="C12" s="66"/>
       <c r="D12" s="36"/>
-      <c r="E12" s="245"/>
-      <c r="F12" s="246"/>
-      <c r="G12" s="246"/>
-      <c r="H12" s="246"/>
-      <c r="I12" s="246"/>
-      <c r="J12" s="247"/>
+      <c r="E12" s="259"/>
+      <c r="F12" s="260"/>
+      <c r="G12" s="260"/>
+      <c r="H12" s="260"/>
+      <c r="I12" s="260"/>
+      <c r="J12" s="261"/>
     </row>
     <row r="13" spans="1:10" ht="12" customHeight="1">
       <c r="A13" s="79">
@@ -9301,12 +9301,12 @@
       </c>
       <c r="C13" s="66"/>
       <c r="D13" s="36"/>
-      <c r="E13" s="245"/>
-      <c r="F13" s="246"/>
-      <c r="G13" s="246"/>
-      <c r="H13" s="246"/>
-      <c r="I13" s="246"/>
-      <c r="J13" s="247"/>
+      <c r="E13" s="259"/>
+      <c r="F13" s="260"/>
+      <c r="G13" s="260"/>
+      <c r="H13" s="260"/>
+      <c r="I13" s="260"/>
+      <c r="J13" s="261"/>
     </row>
     <row r="14" spans="1:10" ht="12" customHeight="1">
       <c r="A14" s="80">
@@ -9317,12 +9317,12 @@
       </c>
       <c r="C14" s="66"/>
       <c r="D14" s="36"/>
-      <c r="E14" s="245"/>
-      <c r="F14" s="246"/>
-      <c r="G14" s="246"/>
-      <c r="H14" s="246"/>
-      <c r="I14" s="246"/>
-      <c r="J14" s="247"/>
+      <c r="E14" s="259"/>
+      <c r="F14" s="260"/>
+      <c r="G14" s="260"/>
+      <c r="H14" s="260"/>
+      <c r="I14" s="260"/>
+      <c r="J14" s="261"/>
     </row>
     <row r="15" spans="1:10" ht="12" customHeight="1">
       <c r="A15" s="36">
@@ -9333,12 +9333,12 @@
       </c>
       <c r="C15" s="66"/>
       <c r="D15" s="36"/>
-      <c r="E15" s="235"/>
-      <c r="F15" s="235"/>
-      <c r="G15" s="235"/>
-      <c r="H15" s="235"/>
-      <c r="I15" s="235"/>
-      <c r="J15" s="235"/>
+      <c r="E15" s="246"/>
+      <c r="F15" s="246"/>
+      <c r="G15" s="246"/>
+      <c r="H15" s="246"/>
+      <c r="I15" s="246"/>
+      <c r="J15" s="246"/>
     </row>
     <row r="16" spans="1:10" ht="12" customHeight="1">
       <c r="A16" s="72">
@@ -9349,12 +9349,12 @@
       </c>
       <c r="C16" s="66"/>
       <c r="D16" s="36"/>
-      <c r="E16" s="235"/>
-      <c r="F16" s="235"/>
-      <c r="G16" s="235"/>
-      <c r="H16" s="235"/>
-      <c r="I16" s="235"/>
-      <c r="J16" s="235"/>
+      <c r="E16" s="246"/>
+      <c r="F16" s="246"/>
+      <c r="G16" s="246"/>
+      <c r="H16" s="246"/>
+      <c r="I16" s="246"/>
+      <c r="J16" s="246"/>
     </row>
     <row r="17" spans="1:10" ht="12" customHeight="1">
       <c r="A17" s="73">
@@ -9365,12 +9365,12 @@
       </c>
       <c r="C17" s="66"/>
       <c r="D17" s="36"/>
-      <c r="E17" s="235"/>
-      <c r="F17" s="235"/>
-      <c r="G17" s="235"/>
-      <c r="H17" s="235"/>
-      <c r="I17" s="235"/>
-      <c r="J17" s="235"/>
+      <c r="E17" s="246"/>
+      <c r="F17" s="246"/>
+      <c r="G17" s="246"/>
+      <c r="H17" s="246"/>
+      <c r="I17" s="246"/>
+      <c r="J17" s="246"/>
     </row>
     <row r="18" spans="1:10" ht="12" customHeight="1">
       <c r="A18" s="74">
@@ -9381,12 +9381,12 @@
       </c>
       <c r="C18" s="66"/>
       <c r="D18" s="36"/>
-      <c r="E18" s="235"/>
-      <c r="F18" s="235"/>
-      <c r="G18" s="235"/>
-      <c r="H18" s="235"/>
-      <c r="I18" s="235"/>
-      <c r="J18" s="235"/>
+      <c r="E18" s="246"/>
+      <c r="F18" s="246"/>
+      <c r="G18" s="246"/>
+      <c r="H18" s="246"/>
+      <c r="I18" s="246"/>
+      <c r="J18" s="246"/>
     </row>
     <row r="19" spans="1:10" ht="12" customHeight="1">
       <c r="A19" s="75">
@@ -9397,12 +9397,12 @@
       </c>
       <c r="C19" s="66"/>
       <c r="D19" s="36"/>
-      <c r="E19" s="235"/>
-      <c r="F19" s="235"/>
-      <c r="G19" s="235"/>
-      <c r="H19" s="235"/>
-      <c r="I19" s="235"/>
-      <c r="J19" s="235"/>
+      <c r="E19" s="246"/>
+      <c r="F19" s="246"/>
+      <c r="G19" s="246"/>
+      <c r="H19" s="246"/>
+      <c r="I19" s="246"/>
+      <c r="J19" s="246"/>
     </row>
     <row r="20" spans="1:10" ht="12" customHeight="1">
       <c r="A20" s="76">
@@ -9413,12 +9413,12 @@
       </c>
       <c r="C20" s="66"/>
       <c r="D20" s="36"/>
-      <c r="E20" s="235"/>
-      <c r="F20" s="235"/>
-      <c r="G20" s="235"/>
-      <c r="H20" s="235"/>
-      <c r="I20" s="235"/>
-      <c r="J20" s="235"/>
+      <c r="E20" s="246"/>
+      <c r="F20" s="246"/>
+      <c r="G20" s="246"/>
+      <c r="H20" s="246"/>
+      <c r="I20" s="246"/>
+      <c r="J20" s="246"/>
     </row>
     <row r="21" spans="1:10" ht="12" customHeight="1">
       <c r="A21" s="77">
@@ -9429,12 +9429,12 @@
       </c>
       <c r="C21" s="66"/>
       <c r="D21" s="36"/>
-      <c r="E21" s="235"/>
-      <c r="F21" s="235"/>
-      <c r="G21" s="235"/>
-      <c r="H21" s="235"/>
-      <c r="I21" s="235"/>
-      <c r="J21" s="235"/>
+      <c r="E21" s="246"/>
+      <c r="F21" s="246"/>
+      <c r="G21" s="246"/>
+      <c r="H21" s="246"/>
+      <c r="I21" s="246"/>
+      <c r="J21" s="246"/>
     </row>
     <row r="22" spans="1:10" ht="12" customHeight="1">
       <c r="A22" s="78">
@@ -9445,12 +9445,12 @@
       </c>
       <c r="C22" s="66"/>
       <c r="D22" s="36"/>
-      <c r="E22" s="235"/>
-      <c r="F22" s="235"/>
-      <c r="G22" s="235"/>
-      <c r="H22" s="235"/>
-      <c r="I22" s="235"/>
-      <c r="J22" s="235"/>
+      <c r="E22" s="246"/>
+      <c r="F22" s="246"/>
+      <c r="G22" s="246"/>
+      <c r="H22" s="246"/>
+      <c r="I22" s="246"/>
+      <c r="J22" s="246"/>
     </row>
     <row r="23" spans="1:10" ht="12" customHeight="1">
       <c r="A23" s="79">
@@ -9461,12 +9461,12 @@
       </c>
       <c r="C23" s="66"/>
       <c r="D23" s="36"/>
-      <c r="E23" s="235"/>
-      <c r="F23" s="235"/>
-      <c r="G23" s="235"/>
-      <c r="H23" s="235"/>
-      <c r="I23" s="235"/>
-      <c r="J23" s="235"/>
+      <c r="E23" s="246"/>
+      <c r="F23" s="246"/>
+      <c r="G23" s="246"/>
+      <c r="H23" s="246"/>
+      <c r="I23" s="246"/>
+      <c r="J23" s="246"/>
     </row>
     <row r="24" spans="1:10" ht="12" customHeight="1">
       <c r="A24" s="80">
@@ -9477,12 +9477,12 @@
       </c>
       <c r="C24" s="66"/>
       <c r="D24" s="36"/>
-      <c r="E24" s="235"/>
-      <c r="F24" s="235"/>
-      <c r="G24" s="235"/>
-      <c r="H24" s="235"/>
-      <c r="I24" s="235"/>
-      <c r="J24" s="235"/>
+      <c r="E24" s="246"/>
+      <c r="F24" s="246"/>
+      <c r="G24" s="246"/>
+      <c r="H24" s="246"/>
+      <c r="I24" s="246"/>
+      <c r="J24" s="246"/>
     </row>
     <row r="25" spans="1:10" ht="12" customHeight="1">
       <c r="A25" s="36">
@@ -9493,12 +9493,12 @@
       </c>
       <c r="C25" s="66"/>
       <c r="D25" s="36"/>
-      <c r="E25" s="235"/>
-      <c r="F25" s="235"/>
-      <c r="G25" s="235"/>
-      <c r="H25" s="235"/>
-      <c r="I25" s="235"/>
-      <c r="J25" s="235"/>
+      <c r="E25" s="246"/>
+      <c r="F25" s="246"/>
+      <c r="G25" s="246"/>
+      <c r="H25" s="246"/>
+      <c r="I25" s="246"/>
+      <c r="J25" s="246"/>
     </row>
     <row r="26" spans="1:10" ht="12" customHeight="1">
       <c r="A26" s="72">
@@ -9509,12 +9509,12 @@
       </c>
       <c r="C26" s="66"/>
       <c r="D26" s="36"/>
-      <c r="E26" s="235"/>
-      <c r="F26" s="235"/>
-      <c r="G26" s="235"/>
-      <c r="H26" s="235"/>
-      <c r="I26" s="235"/>
-      <c r="J26" s="235"/>
+      <c r="E26" s="246"/>
+      <c r="F26" s="246"/>
+      <c r="G26" s="246"/>
+      <c r="H26" s="246"/>
+      <c r="I26" s="246"/>
+      <c r="J26" s="246"/>
     </row>
     <row r="27" spans="1:10" ht="12" customHeight="1">
       <c r="A27" s="73">
@@ -9525,12 +9525,12 @@
       </c>
       <c r="C27" s="66"/>
       <c r="D27" s="36"/>
-      <c r="E27" s="235"/>
-      <c r="F27" s="235"/>
-      <c r="G27" s="235"/>
-      <c r="H27" s="235"/>
-      <c r="I27" s="235"/>
-      <c r="J27" s="235"/>
+      <c r="E27" s="246"/>
+      <c r="F27" s="246"/>
+      <c r="G27" s="246"/>
+      <c r="H27" s="246"/>
+      <c r="I27" s="246"/>
+      <c r="J27" s="246"/>
     </row>
     <row r="28" spans="1:10" ht="12" customHeight="1">
       <c r="A28" s="74">
@@ -9541,12 +9541,12 @@
       </c>
       <c r="C28" s="66"/>
       <c r="D28" s="36"/>
-      <c r="E28" s="235"/>
-      <c r="F28" s="235"/>
-      <c r="G28" s="235"/>
-      <c r="H28" s="235"/>
-      <c r="I28" s="235"/>
-      <c r="J28" s="235"/>
+      <c r="E28" s="246"/>
+      <c r="F28" s="246"/>
+      <c r="G28" s="246"/>
+      <c r="H28" s="246"/>
+      <c r="I28" s="246"/>
+      <c r="J28" s="246"/>
     </row>
     <row r="29" spans="1:10" ht="12" customHeight="1">
       <c r="A29" s="75">
@@ -9557,12 +9557,12 @@
       </c>
       <c r="C29" s="66"/>
       <c r="D29" s="36"/>
-      <c r="E29" s="235"/>
-      <c r="F29" s="235"/>
-      <c r="G29" s="235"/>
-      <c r="H29" s="235"/>
-      <c r="I29" s="235"/>
-      <c r="J29" s="235"/>
+      <c r="E29" s="246"/>
+      <c r="F29" s="246"/>
+      <c r="G29" s="246"/>
+      <c r="H29" s="246"/>
+      <c r="I29" s="246"/>
+      <c r="J29" s="246"/>
     </row>
     <row r="30" spans="1:10" ht="12" customHeight="1">
       <c r="A30" s="76">
@@ -9573,12 +9573,12 @@
       </c>
       <c r="C30" s="66"/>
       <c r="D30" s="36"/>
-      <c r="E30" s="235"/>
-      <c r="F30" s="235"/>
-      <c r="G30" s="235"/>
-      <c r="H30" s="235"/>
-      <c r="I30" s="235"/>
-      <c r="J30" s="235"/>
+      <c r="E30" s="246"/>
+      <c r="F30" s="246"/>
+      <c r="G30" s="246"/>
+      <c r="H30" s="246"/>
+      <c r="I30" s="246"/>
+      <c r="J30" s="246"/>
     </row>
     <row r="31" spans="1:10" ht="12" customHeight="1">
       <c r="A31" s="77">
@@ -9589,12 +9589,12 @@
       </c>
       <c r="C31" s="66"/>
       <c r="D31" s="36"/>
-      <c r="E31" s="235"/>
-      <c r="F31" s="235"/>
-      <c r="G31" s="235"/>
-      <c r="H31" s="235"/>
-      <c r="I31" s="235"/>
-      <c r="J31" s="235"/>
+      <c r="E31" s="246"/>
+      <c r="F31" s="246"/>
+      <c r="G31" s="246"/>
+      <c r="H31" s="246"/>
+      <c r="I31" s="246"/>
+      <c r="J31" s="246"/>
     </row>
     <row r="32" spans="1:10" ht="12" customHeight="1">
       <c r="A32" s="78">
@@ -9605,12 +9605,12 @@
       </c>
       <c r="C32" s="66"/>
       <c r="D32" s="36"/>
-      <c r="E32" s="235"/>
-      <c r="F32" s="235"/>
-      <c r="G32" s="235"/>
-      <c r="H32" s="235"/>
-      <c r="I32" s="235"/>
-      <c r="J32" s="235"/>
+      <c r="E32" s="246"/>
+      <c r="F32" s="246"/>
+      <c r="G32" s="246"/>
+      <c r="H32" s="246"/>
+      <c r="I32" s="246"/>
+      <c r="J32" s="246"/>
     </row>
     <row r="33" spans="1:10" ht="12" customHeight="1">
       <c r="A33" s="79">
@@ -9621,12 +9621,12 @@
       </c>
       <c r="C33" s="66"/>
       <c r="D33" s="36"/>
-      <c r="E33" s="235"/>
-      <c r="F33" s="235"/>
-      <c r="G33" s="235"/>
-      <c r="H33" s="235"/>
-      <c r="I33" s="235"/>
-      <c r="J33" s="235"/>
+      <c r="E33" s="246"/>
+      <c r="F33" s="246"/>
+      <c r="G33" s="246"/>
+      <c r="H33" s="246"/>
+      <c r="I33" s="246"/>
+      <c r="J33" s="246"/>
     </row>
     <row r="34" spans="1:10" ht="12" customHeight="1">
       <c r="A34" s="80">
@@ -9637,12 +9637,12 @@
       </c>
       <c r="C34" s="66"/>
       <c r="D34" s="36"/>
-      <c r="E34" s="235"/>
-      <c r="F34" s="235"/>
-      <c r="G34" s="235"/>
-      <c r="H34" s="235"/>
-      <c r="I34" s="235"/>
-      <c r="J34" s="235"/>
+      <c r="E34" s="246"/>
+      <c r="F34" s="246"/>
+      <c r="G34" s="246"/>
+      <c r="H34" s="246"/>
+      <c r="I34" s="246"/>
+      <c r="J34" s="246"/>
     </row>
   </sheetData>
   <mergeCells count="32">
@@ -9722,10 +9722,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="229" t="s">
+      <c r="A1" s="240" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="229"/>
+      <c r="B1" s="240"/>
       <c r="C1" s="30" t="s">
         <v>1</v>
       </c>
@@ -9756,8 +9756,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="229"/>
-      <c r="B2" s="229"/>
+      <c r="A2" s="240"/>
+      <c r="B2" s="240"/>
       <c r="C2" s="30" t="s">
         <v>2</v>
       </c>
@@ -9788,20 +9788,20 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="12" customHeight="1">
-      <c r="A4" s="248" t="s">
+      <c r="A4" s="262" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="250"/>
-      <c r="C4" s="250"/>
-      <c r="D4" s="250"/>
-      <c r="E4" s="250"/>
-      <c r="F4" s="250"/>
-      <c r="G4" s="250"/>
-      <c r="H4" s="249"/>
-      <c r="I4" s="248" t="s">
+      <c r="B4" s="264"/>
+      <c r="C4" s="264"/>
+      <c r="D4" s="264"/>
+      <c r="E4" s="264"/>
+      <c r="F4" s="264"/>
+      <c r="G4" s="264"/>
+      <c r="H4" s="263"/>
+      <c r="I4" s="262" t="s">
         <v>38</v>
       </c>
-      <c r="J4" s="249"/>
+      <c r="J4" s="263"/>
     </row>
     <row r="5" spans="1:10" ht="12" customHeight="1">
       <c r="A5" s="38"/>
@@ -9812,10 +9812,10 @@
       <c r="F5" s="39"/>
       <c r="G5" s="39"/>
       <c r="H5" s="40"/>
-      <c r="I5" s="255" t="s">
+      <c r="I5" s="269" t="s">
         <v>226</v>
       </c>
-      <c r="J5" s="256"/>
+      <c r="J5" s="270"/>
     </row>
     <row r="6" spans="1:10" ht="12" customHeight="1">
       <c r="A6" s="38"/>
@@ -9826,8 +9826,8 @@
       <c r="F6" s="39"/>
       <c r="G6" s="39"/>
       <c r="H6" s="41"/>
-      <c r="I6" s="257"/>
-      <c r="J6" s="258"/>
+      <c r="I6" s="271"/>
+      <c r="J6" s="272"/>
     </row>
     <row r="7" spans="1:10" ht="12" customHeight="1">
       <c r="A7" s="38"/>
@@ -9838,8 +9838,8 @@
       <c r="F7" s="39"/>
       <c r="G7" s="39"/>
       <c r="H7" s="41"/>
-      <c r="I7" s="257"/>
-      <c r="J7" s="258"/>
+      <c r="I7" s="271"/>
+      <c r="J7" s="272"/>
     </row>
     <row r="8" spans="1:10" ht="12" customHeight="1">
       <c r="A8" s="38"/>
@@ -9850,8 +9850,8 @@
       <c r="F8" s="39"/>
       <c r="G8" s="39"/>
       <c r="H8" s="41"/>
-      <c r="I8" s="257"/>
-      <c r="J8" s="258"/>
+      <c r="I8" s="271"/>
+      <c r="J8" s="272"/>
     </row>
     <row r="9" spans="1:10" ht="12" customHeight="1">
       <c r="A9" s="38"/>
@@ -9862,8 +9862,8 @@
       <c r="F9" s="39"/>
       <c r="G9" s="39"/>
       <c r="H9" s="41"/>
-      <c r="I9" s="257"/>
-      <c r="J9" s="258"/>
+      <c r="I9" s="271"/>
+      <c r="J9" s="272"/>
     </row>
     <row r="10" spans="1:10" ht="12" customHeight="1">
       <c r="A10" s="38"/>
@@ -9874,8 +9874,8 @@
       <c r="F10" s="39"/>
       <c r="G10" s="39"/>
       <c r="H10" s="41"/>
-      <c r="I10" s="259"/>
-      <c r="J10" s="260"/>
+      <c r="I10" s="273"/>
+      <c r="J10" s="274"/>
     </row>
     <row r="11" spans="1:10" ht="12" customHeight="1">
       <c r="A11" s="38"/>
@@ -9886,10 +9886,10 @@
       <c r="F11" s="39"/>
       <c r="G11" s="39"/>
       <c r="H11" s="42"/>
-      <c r="I11" s="248" t="s">
+      <c r="I11" s="262" t="s">
         <v>39</v>
       </c>
-      <c r="J11" s="249"/>
+      <c r="J11" s="263"/>
     </row>
     <row r="12" spans="1:10" ht="12" customHeight="1">
       <c r="A12" s="38"/>
@@ -9900,10 +9900,10 @@
       <c r="F12" s="39"/>
       <c r="G12" s="39"/>
       <c r="H12" s="41"/>
-      <c r="I12" s="251" t="s">
+      <c r="I12" s="265" t="s">
         <v>227</v>
       </c>
-      <c r="J12" s="252"/>
+      <c r="J12" s="266"/>
     </row>
     <row r="13" spans="1:10" ht="12" customHeight="1">
       <c r="A13" s="38"/>
@@ -9914,8 +9914,8 @@
       <c r="F13" s="39"/>
       <c r="G13" s="39"/>
       <c r="H13" s="41"/>
-      <c r="I13" s="253"/>
-      <c r="J13" s="254"/>
+      <c r="I13" s="267"/>
+      <c r="J13" s="268"/>
     </row>
     <row r="14" spans="1:10" ht="12" customHeight="1">
       <c r="A14" s="38"/>
@@ -9926,8 +9926,8 @@
       <c r="F14" s="39"/>
       <c r="G14" s="39"/>
       <c r="H14" s="41"/>
-      <c r="I14" s="253"/>
-      <c r="J14" s="254"/>
+      <c r="I14" s="267"/>
+      <c r="J14" s="268"/>
     </row>
     <row r="15" spans="1:10" ht="12" customHeight="1">
       <c r="A15" s="38"/>
@@ -9938,8 +9938,8 @@
       <c r="F15" s="39"/>
       <c r="G15" s="39"/>
       <c r="H15" s="41"/>
-      <c r="I15" s="253"/>
-      <c r="J15" s="254"/>
+      <c r="I15" s="267"/>
+      <c r="J15" s="268"/>
     </row>
     <row r="16" spans="1:10" ht="12" customHeight="1">
       <c r="A16" s="38"/>
@@ -9950,8 +9950,8 @@
       <c r="F16" s="39"/>
       <c r="G16" s="39"/>
       <c r="H16" s="41"/>
-      <c r="I16" s="253"/>
-      <c r="J16" s="254"/>
+      <c r="I16" s="267"/>
+      <c r="J16" s="268"/>
     </row>
     <row r="17" spans="1:10" ht="12" customHeight="1">
       <c r="A17" s="38"/>
@@ -9962,8 +9962,8 @@
       <c r="F17" s="39"/>
       <c r="G17" s="39"/>
       <c r="H17" s="41"/>
-      <c r="I17" s="253"/>
-      <c r="J17" s="254"/>
+      <c r="I17" s="267"/>
+      <c r="J17" s="268"/>
     </row>
     <row r="18" spans="1:10" ht="12" customHeight="1">
       <c r="A18" s="38"/>
@@ -9974,8 +9974,8 @@
       <c r="F18" s="39"/>
       <c r="G18" s="39"/>
       <c r="H18" s="41"/>
-      <c r="I18" s="253"/>
-      <c r="J18" s="254"/>
+      <c r="I18" s="267"/>
+      <c r="J18" s="268"/>
     </row>
     <row r="19" spans="1:10" ht="12" customHeight="1">
       <c r="A19" s="38"/>
@@ -9986,8 +9986,8 @@
       <c r="F19" s="39"/>
       <c r="G19" s="39"/>
       <c r="H19" s="41"/>
-      <c r="I19" s="253"/>
-      <c r="J19" s="254"/>
+      <c r="I19" s="267"/>
+      <c r="J19" s="268"/>
     </row>
     <row r="20" spans="1:10" ht="12" customHeight="1">
       <c r="A20" s="38"/>
@@ -9998,8 +9998,8 @@
       <c r="F20" s="39"/>
       <c r="G20" s="39"/>
       <c r="H20" s="41"/>
-      <c r="I20" s="253"/>
-      <c r="J20" s="254"/>
+      <c r="I20" s="267"/>
+      <c r="J20" s="268"/>
     </row>
     <row r="21" spans="1:10" ht="12" customHeight="1">
       <c r="A21" s="38"/>
@@ -10010,8 +10010,8 @@
       <c r="F21" s="39"/>
       <c r="G21" s="39"/>
       <c r="H21" s="41"/>
-      <c r="I21" s="253"/>
-      <c r="J21" s="254"/>
+      <c r="I21" s="267"/>
+      <c r="J21" s="268"/>
     </row>
     <row r="22" spans="1:10" ht="12" customHeight="1">
       <c r="A22" s="38"/>
@@ -10022,8 +10022,8 @@
       <c r="F22" s="39"/>
       <c r="G22" s="39"/>
       <c r="H22" s="41"/>
-      <c r="I22" s="253"/>
-      <c r="J22" s="254"/>
+      <c r="I22" s="267"/>
+      <c r="J22" s="268"/>
     </row>
     <row r="23" spans="1:10" ht="12" customHeight="1">
       <c r="A23" s="38"/>
@@ -10034,8 +10034,8 @@
       <c r="F23" s="39"/>
       <c r="G23" s="39"/>
       <c r="H23" s="41"/>
-      <c r="I23" s="253"/>
-      <c r="J23" s="254"/>
+      <c r="I23" s="267"/>
+      <c r="J23" s="268"/>
     </row>
     <row r="24" spans="1:10" ht="12" customHeight="1">
       <c r="A24" s="38"/>
@@ -10046,8 +10046,8 @@
       <c r="F24" s="39"/>
       <c r="G24" s="39"/>
       <c r="H24" s="41"/>
-      <c r="I24" s="253"/>
-      <c r="J24" s="254"/>
+      <c r="I24" s="267"/>
+      <c r="J24" s="268"/>
     </row>
     <row r="25" spans="1:10" ht="12" customHeight="1">
       <c r="A25" s="38"/>
@@ -10058,8 +10058,8 @@
       <c r="F25" s="39"/>
       <c r="G25" s="39"/>
       <c r="H25" s="41"/>
-      <c r="I25" s="253"/>
-      <c r="J25" s="254"/>
+      <c r="I25" s="267"/>
+      <c r="J25" s="268"/>
     </row>
     <row r="26" spans="1:10" ht="12" customHeight="1">
       <c r="A26" s="38"/>
@@ -10070,8 +10070,8 @@
       <c r="F26" s="39"/>
       <c r="G26" s="39"/>
       <c r="H26" s="41"/>
-      <c r="I26" s="253"/>
-      <c r="J26" s="254"/>
+      <c r="I26" s="267"/>
+      <c r="J26" s="268"/>
     </row>
     <row r="27" spans="1:10" ht="12" customHeight="1">
       <c r="A27" s="38"/>
@@ -10082,8 +10082,8 @@
       <c r="F27" s="39"/>
       <c r="G27" s="39"/>
       <c r="H27" s="41"/>
-      <c r="I27" s="253"/>
-      <c r="J27" s="254"/>
+      <c r="I27" s="267"/>
+      <c r="J27" s="268"/>
     </row>
     <row r="28" spans="1:10" ht="12" customHeight="1">
       <c r="A28" s="38"/>
@@ -10094,8 +10094,8 @@
       <c r="F28" s="39"/>
       <c r="G28" s="39"/>
       <c r="H28" s="41"/>
-      <c r="I28" s="253"/>
-      <c r="J28" s="254"/>
+      <c r="I28" s="267"/>
+      <c r="J28" s="268"/>
     </row>
     <row r="29" spans="1:10" ht="12" customHeight="1">
       <c r="A29" s="38"/>
@@ -10106,8 +10106,8 @@
       <c r="F29" s="39"/>
       <c r="G29" s="39"/>
       <c r="H29" s="41"/>
-      <c r="I29" s="253"/>
-      <c r="J29" s="254"/>
+      <c r="I29" s="267"/>
+      <c r="J29" s="268"/>
     </row>
     <row r="30" spans="1:10" ht="12" customHeight="1">
       <c r="A30" s="38"/>
@@ -10118,8 +10118,8 @@
       <c r="F30" s="39"/>
       <c r="G30" s="39"/>
       <c r="H30" s="41"/>
-      <c r="I30" s="253"/>
-      <c r="J30" s="254"/>
+      <c r="I30" s="267"/>
+      <c r="J30" s="268"/>
     </row>
     <row r="31" spans="1:10" ht="12" customHeight="1">
       <c r="A31" s="38"/>
@@ -10130,8 +10130,8 @@
       <c r="F31" s="39"/>
       <c r="G31" s="39"/>
       <c r="H31" s="41"/>
-      <c r="I31" s="253"/>
-      <c r="J31" s="254"/>
+      <c r="I31" s="267"/>
+      <c r="J31" s="268"/>
     </row>
     <row r="32" spans="1:10" ht="12" customHeight="1">
       <c r="A32" s="38"/>
@@ -10142,8 +10142,8 @@
       <c r="F32" s="39"/>
       <c r="G32" s="39"/>
       <c r="H32" s="41"/>
-      <c r="I32" s="253"/>
-      <c r="J32" s="254"/>
+      <c r="I32" s="267"/>
+      <c r="J32" s="268"/>
     </row>
     <row r="33" spans="1:10" ht="12" customHeight="1">
       <c r="A33" s="38"/>
@@ -10154,8 +10154,8 @@
       <c r="F33" s="39"/>
       <c r="G33" s="39"/>
       <c r="H33" s="41"/>
-      <c r="I33" s="253"/>
-      <c r="J33" s="254"/>
+      <c r="I33" s="267"/>
+      <c r="J33" s="268"/>
     </row>
     <row r="34" spans="1:10" ht="12" customHeight="1">
       <c r="A34" s="38"/>
@@ -10166,8 +10166,8 @@
       <c r="F34" s="39"/>
       <c r="G34" s="39"/>
       <c r="H34" s="41"/>
-      <c r="I34" s="253"/>
-      <c r="J34" s="254"/>
+      <c r="I34" s="267"/>
+      <c r="J34" s="268"/>
     </row>
     <row r="35" spans="1:10" ht="12" customHeight="1">
       <c r="A35" s="38"/>
@@ -10178,8 +10178,8 @@
       <c r="F35" s="39"/>
       <c r="G35" s="39"/>
       <c r="H35" s="41"/>
-      <c r="I35" s="253"/>
-      <c r="J35" s="254"/>
+      <c r="I35" s="267"/>
+      <c r="J35" s="268"/>
     </row>
     <row r="36" spans="1:10" ht="12" customHeight="1">
       <c r="A36" s="38"/>
@@ -10190,8 +10190,8 @@
       <c r="F36" s="39"/>
       <c r="G36" s="39"/>
       <c r="H36" s="41"/>
-      <c r="I36" s="253"/>
-      <c r="J36" s="254"/>
+      <c r="I36" s="267"/>
+      <c r="J36" s="268"/>
     </row>
     <row r="37" spans="1:10" ht="12" customHeight="1">
       <c r="A37" s="38"/>
@@ -10202,8 +10202,8 @@
       <c r="F37" s="39"/>
       <c r="G37" s="39"/>
       <c r="H37" s="41"/>
-      <c r="I37" s="253"/>
-      <c r="J37" s="254"/>
+      <c r="I37" s="267"/>
+      <c r="J37" s="268"/>
     </row>
     <row r="38" spans="1:10" ht="12" customHeight="1">
       <c r="A38" s="38"/>
@@ -10214,8 +10214,8 @@
       <c r="F38" s="39"/>
       <c r="G38" s="39"/>
       <c r="H38" s="41"/>
-      <c r="I38" s="253"/>
-      <c r="J38" s="254"/>
+      <c r="I38" s="267"/>
+      <c r="J38" s="268"/>
     </row>
     <row r="39" spans="1:10" ht="12" customHeight="1">
       <c r="A39" s="38"/>
@@ -10226,8 +10226,8 @@
       <c r="F39" s="39"/>
       <c r="G39" s="39"/>
       <c r="H39" s="41"/>
-      <c r="I39" s="253"/>
-      <c r="J39" s="254"/>
+      <c r="I39" s="267"/>
+      <c r="J39" s="268"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -10281,12 +10281,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="229" t="s">
+      <c r="A1" s="240" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="229"/>
-      <c r="C1" s="229"/>
-      <c r="D1" s="229"/>
+      <c r="B1" s="240"/>
+      <c r="C1" s="240"/>
+      <c r="D1" s="240"/>
       <c r="E1" s="29" t="s">
         <v>1</v>
       </c>
@@ -10294,16 +10294,16 @@
         <f>'Update History'!D1</f>
         <v>ASOFT - ERP.NET</v>
       </c>
-      <c r="G1" s="261" t="s">
+      <c r="G1" s="275" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="262"/>
-      <c r="I1" s="263" t="str">
+      <c r="H1" s="276"/>
+      <c r="I1" s="277" t="str">
         <f>'Update History'!F1</f>
         <v>CRMF2082</v>
       </c>
-      <c r="J1" s="264"/>
-      <c r="K1" s="265"/>
+      <c r="J1" s="278"/>
+      <c r="K1" s="279"/>
       <c r="L1" s="30" t="s">
         <v>5</v>
       </c>
@@ -10320,10 +10320,10 @@
       </c>
     </row>
     <row r="2" spans="1:15" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="229"/>
-      <c r="B2" s="229"/>
-      <c r="C2" s="229"/>
-      <c r="D2" s="229"/>
+      <c r="A2" s="240"/>
+      <c r="B2" s="240"/>
+      <c r="C2" s="240"/>
+      <c r="D2" s="240"/>
       <c r="E2" s="29" t="s">
         <v>2</v>
       </c>
@@ -10331,16 +10331,16 @@
         <f>'Update History'!D2</f>
         <v>ASOFT-CRM</v>
       </c>
-      <c r="G2" s="261" t="s">
+      <c r="G2" s="275" t="s">
         <v>49</v>
       </c>
-      <c r="H2" s="262"/>
-      <c r="I2" s="263" t="str">
+      <c r="H2" s="276"/>
+      <c r="I2" s="277" t="str">
         <f>'Update History'!F2</f>
         <v>Xem chi tiết yêu cầu</v>
       </c>
-      <c r="J2" s="264"/>
-      <c r="K2" s="265"/>
+      <c r="J2" s="278"/>
+      <c r="K2" s="279"/>
       <c r="L2" s="30" t="s">
         <v>6</v>
       </c>
@@ -10914,40 +10914,40 @@
       <c r="N19" s="174"/>
       <c r="O19" s="177"/>
     </row>
-    <row r="20" spans="1:15" s="330" customFormat="1" ht="11.25">
-      <c r="A20" s="324">
+    <row r="20" spans="1:15" s="217" customFormat="1" ht="11.25">
+      <c r="A20" s="211">
         <v>10</v>
       </c>
-      <c r="B20" s="324" t="s">
+      <c r="B20" s="211" t="s">
         <v>358</v>
       </c>
-      <c r="C20" s="325">
+      <c r="C20" s="212">
         <v>2.14</v>
       </c>
-      <c r="D20" s="326" t="s">
+      <c r="D20" s="213" t="s">
         <v>356</v>
       </c>
-      <c r="E20" s="327" t="s">
+      <c r="E20" s="214" t="s">
         <v>357</v>
       </c>
-      <c r="F20" s="327" t="s">
+      <c r="F20" s="214" t="s">
         <v>357</v>
       </c>
-      <c r="G20" s="328" t="s">
+      <c r="G20" s="215" t="s">
         <v>178</v>
       </c>
-      <c r="H20" s="328" t="s">
+      <c r="H20" s="215" t="s">
         <v>176</v>
       </c>
-      <c r="I20" s="329"/>
-      <c r="J20" s="329"/>
-      <c r="K20" s="319" t="s">
+      <c r="I20" s="216"/>
+      <c r="J20" s="216"/>
+      <c r="K20" s="209" t="s">
         <v>187</v>
       </c>
-      <c r="L20" s="327"/>
-      <c r="M20" s="327"/>
-      <c r="N20" s="327"/>
-      <c r="O20" s="327"/>
+      <c r="L20" s="214"/>
+      <c r="M20" s="214"/>
+      <c r="N20" s="214"/>
+      <c r="O20" s="214"/>
     </row>
     <row r="21" spans="1:15" s="32" customFormat="1" ht="11.25">
       <c r="A21" s="31">
@@ -13217,7 +13217,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="267" t="s">
+      <c r="A1" s="281" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="104"/>
@@ -13253,7 +13253,7 @@
       <c r="L1" s="46"/>
     </row>
     <row r="2" spans="1:18" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="268"/>
+      <c r="A2" s="282"/>
       <c r="B2" s="105"/>
       <c r="C2" s="30" t="s">
         <v>2</v>
@@ -13302,12 +13302,12 @@
       <c r="E4" s="82" t="s">
         <v>46</v>
       </c>
-      <c r="F4" s="278" t="s">
+      <c r="F4" s="292" t="s">
         <v>128</v>
       </c>
-      <c r="G4" s="279"/>
-      <c r="H4" s="279"/>
-      <c r="I4" s="280"/>
+      <c r="G4" s="293"/>
+      <c r="H4" s="293"/>
+      <c r="I4" s="294"/>
       <c r="J4" s="169" t="s">
         <v>48</v>
       </c>
@@ -13326,13 +13326,13 @@
       <c r="E5" s="132" t="s">
         <v>176</v>
       </c>
-      <c r="F5" s="269" t="s">
+      <c r="F5" s="283" t="s">
         <v>219</v>
       </c>
-      <c r="G5" s="270"/>
-      <c r="H5" s="270"/>
-      <c r="I5" s="271"/>
-      <c r="J5" s="269" t="s">
+      <c r="G5" s="284"/>
+      <c r="H5" s="284"/>
+      <c r="I5" s="285"/>
+      <c r="J5" s="283" t="s">
         <v>199</v>
       </c>
     </row>
@@ -13350,11 +13350,11 @@
       <c r="E6" s="132" t="s">
         <v>176</v>
       </c>
-      <c r="F6" s="272"/>
-      <c r="G6" s="273"/>
-      <c r="H6" s="273"/>
-      <c r="I6" s="274"/>
-      <c r="J6" s="272"/>
+      <c r="F6" s="286"/>
+      <c r="G6" s="287"/>
+      <c r="H6" s="287"/>
+      <c r="I6" s="288"/>
+      <c r="J6" s="286"/>
     </row>
     <row r="7" spans="1:18" s="32" customFormat="1" ht="21" customHeight="1">
       <c r="A7" s="31">
@@ -13370,13 +13370,13 @@
       <c r="E7" s="132" t="s">
         <v>176</v>
       </c>
-      <c r="F7" s="269" t="s">
+      <c r="F7" s="283" t="s">
         <v>220</v>
       </c>
-      <c r="G7" s="270"/>
-      <c r="H7" s="270"/>
-      <c r="I7" s="271"/>
-      <c r="J7" s="269" t="s">
+      <c r="G7" s="284"/>
+      <c r="H7" s="284"/>
+      <c r="I7" s="285"/>
+      <c r="J7" s="283" t="s">
         <v>200</v>
       </c>
     </row>
@@ -13394,11 +13394,11 @@
       <c r="E8" s="132" t="s">
         <v>176</v>
       </c>
-      <c r="F8" s="272"/>
-      <c r="G8" s="273"/>
-      <c r="H8" s="273"/>
-      <c r="I8" s="274"/>
-      <c r="J8" s="272"/>
+      <c r="F8" s="286"/>
+      <c r="G8" s="287"/>
+      <c r="H8" s="287"/>
+      <c r="I8" s="288"/>
+      <c r="J8" s="286"/>
     </row>
     <row r="9" spans="1:18" ht="23.25" customHeight="1">
       <c r="A9" s="184">
@@ -13414,12 +13414,12 @@
       <c r="E9" s="187" t="s">
         <v>290</v>
       </c>
-      <c r="F9" s="275" t="s">
+      <c r="F9" s="289" t="s">
         <v>291</v>
       </c>
-      <c r="G9" s="276"/>
-      <c r="H9" s="276"/>
-      <c r="I9" s="277"/>
+      <c r="G9" s="290"/>
+      <c r="H9" s="290"/>
+      <c r="I9" s="291"/>
       <c r="J9" s="188" t="s">
         <v>292</v>
       </c>
@@ -13438,12 +13438,12 @@
       <c r="E10" s="189" t="s">
         <v>176</v>
       </c>
-      <c r="F10" s="266" t="s">
+      <c r="F10" s="280" t="s">
         <v>396</v>
       </c>
-      <c r="G10" s="266"/>
-      <c r="H10" s="266"/>
-      <c r="I10" s="266"/>
+      <c r="G10" s="280"/>
+      <c r="H10" s="280"/>
+      <c r="I10" s="280"/>
       <c r="J10" s="189" t="s">
         <v>398</v>
       </c>
@@ -13469,12 +13469,12 @@
       <c r="E11" s="189" t="s">
         <v>176</v>
       </c>
-      <c r="F11" s="266" t="s">
+      <c r="F11" s="280" t="s">
         <v>439</v>
       </c>
-      <c r="G11" s="266"/>
-      <c r="H11" s="266"/>
-      <c r="I11" s="266"/>
+      <c r="G11" s="280"/>
+      <c r="H11" s="280"/>
+      <c r="I11" s="280"/>
       <c r="J11" s="200" t="s">
         <v>438</v>
       </c>
@@ -13542,20 +13542,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="229" t="s">
+      <c r="A1" s="240" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="229"/>
-      <c r="C1" s="229"/>
-      <c r="D1" s="229"/>
+      <c r="B1" s="240"/>
+      <c r="C1" s="240"/>
+      <c r="D1" s="240"/>
       <c r="E1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="305" t="str">
+      <c r="F1" s="319" t="str">
         <f>'Update History'!D1</f>
         <v>ASOFT - ERP.NET</v>
       </c>
-      <c r="G1" s="305"/>
+      <c r="G1" s="319"/>
       <c r="H1" s="26" t="s">
         <v>3</v>
       </c>
@@ -13573,28 +13573,28 @@
       <c r="L1" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="288" t="str">
+      <c r="M1" s="302" t="str">
         <f>'Update History'!J1</f>
         <v>Tấn Đạt</v>
       </c>
-      <c r="N1" s="289"/>
-      <c r="O1" s="290"/>
+      <c r="N1" s="303"/>
+      <c r="O1" s="304"/>
       <c r="P1" s="46"/>
       <c r="Q1" s="46"/>
     </row>
     <row r="2" spans="1:17" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="229"/>
-      <c r="B2" s="229"/>
-      <c r="C2" s="229"/>
-      <c r="D2" s="229"/>
+      <c r="A2" s="240"/>
+      <c r="B2" s="240"/>
+      <c r="C2" s="240"/>
+      <c r="D2" s="240"/>
       <c r="E2" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="305" t="str">
+      <c r="F2" s="319" t="str">
         <f>'Update History'!D2</f>
         <v>ASOFT-CRM</v>
       </c>
-      <c r="G2" s="305"/>
+      <c r="G2" s="319"/>
       <c r="H2" s="26" t="s">
         <v>49</v>
       </c>
@@ -13612,12 +13612,12 @@
       <c r="L2" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="288" t="str">
+      <c r="M2" s="302" t="str">
         <f>'Update History'!J2</f>
         <v>26/01/2018</v>
       </c>
-      <c r="N2" s="289"/>
-      <c r="O2" s="290"/>
+      <c r="N2" s="303"/>
+      <c r="O2" s="304"/>
       <c r="P2" s="46"/>
       <c r="Q2" s="46"/>
     </row>
@@ -13640,12 +13640,12 @@
       <c r="F4" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="G4" s="309" t="s">
+      <c r="G4" s="323" t="s">
         <v>55</v>
       </c>
-      <c r="H4" s="310"/>
-      <c r="I4" s="310"/>
-      <c r="J4" s="311"/>
+      <c r="H4" s="324"/>
+      <c r="I4" s="324"/>
+      <c r="J4" s="325"/>
       <c r="K4" s="35" t="s">
         <v>56</v>
       </c>
@@ -13681,12 +13681,12 @@
       <c r="F5" s="113" t="s">
         <v>161</v>
       </c>
-      <c r="G5" s="306" t="s">
+      <c r="G5" s="320" t="s">
         <v>336</v>
       </c>
-      <c r="H5" s="307"/>
-      <c r="I5" s="307"/>
-      <c r="J5" s="308"/>
+      <c r="H5" s="321"/>
+      <c r="I5" s="321"/>
+      <c r="J5" s="322"/>
       <c r="K5" s="116" t="s">
         <v>293</v>
       </c>
@@ -13722,12 +13722,12 @@
       <c r="F6" s="113" t="s">
         <v>162</v>
       </c>
-      <c r="G6" s="302" t="s">
+      <c r="G6" s="316" t="s">
         <v>349</v>
       </c>
-      <c r="H6" s="303"/>
-      <c r="I6" s="303"/>
-      <c r="J6" s="304"/>
+      <c r="H6" s="317"/>
+      <c r="I6" s="317"/>
+      <c r="J6" s="318"/>
       <c r="K6" s="116" t="s">
         <v>307</v>
       </c>
@@ -13763,12 +13763,12 @@
       <c r="F7" s="113" t="s">
         <v>163</v>
       </c>
-      <c r="G7" s="302" t="s">
+      <c r="G7" s="316" t="s">
         <v>351</v>
       </c>
-      <c r="H7" s="303"/>
-      <c r="I7" s="303"/>
-      <c r="J7" s="304"/>
+      <c r="H7" s="317"/>
+      <c r="I7" s="317"/>
+      <c r="J7" s="318"/>
       <c r="K7" s="116" t="s">
         <v>334</v>
       </c>
@@ -13804,12 +13804,12 @@
       <c r="F8" s="113" t="s">
         <v>164</v>
       </c>
-      <c r="G8" s="284" t="s">
+      <c r="G8" s="298" t="s">
         <v>333</v>
       </c>
-      <c r="H8" s="285"/>
-      <c r="I8" s="285"/>
-      <c r="J8" s="286"/>
+      <c r="H8" s="299"/>
+      <c r="I8" s="299"/>
+      <c r="J8" s="300"/>
       <c r="K8" s="116" t="s">
         <v>307</v>
       </c>
@@ -13845,12 +13845,12 @@
       <c r="F9" s="113" t="s">
         <v>197</v>
       </c>
-      <c r="G9" s="299" t="s">
+      <c r="G9" s="313" t="s">
         <v>399</v>
       </c>
-      <c r="H9" s="300"/>
-      <c r="I9" s="300"/>
-      <c r="J9" s="301"/>
+      <c r="H9" s="314"/>
+      <c r="I9" s="314"/>
+      <c r="J9" s="315"/>
       <c r="K9" s="197" t="s">
         <v>400</v>
       </c>
@@ -13886,12 +13886,12 @@
       <c r="F10" s="113" t="s">
         <v>213</v>
       </c>
-      <c r="G10" s="284" t="s">
+      <c r="G10" s="298" t="s">
         <v>169</v>
       </c>
-      <c r="H10" s="285"/>
-      <c r="I10" s="285"/>
-      <c r="J10" s="286"/>
+      <c r="H10" s="299"/>
+      <c r="I10" s="299"/>
+      <c r="J10" s="300"/>
       <c r="K10" s="116" t="s">
         <v>170</v>
       </c>
@@ -13902,7 +13902,7 @@
       <c r="N10" s="115" t="s">
         <v>158</v>
       </c>
-      <c r="O10" s="291"/>
+      <c r="O10" s="305"/>
     </row>
     <row r="11" spans="1:17" ht="78.75">
       <c r="A11" s="106">
@@ -13923,12 +13923,12 @@
       <c r="F11" s="113" t="s">
         <v>160</v>
       </c>
-      <c r="G11" s="296" t="s">
+      <c r="G11" s="310" t="s">
         <v>397</v>
       </c>
-      <c r="H11" s="297"/>
-      <c r="I11" s="297"/>
-      <c r="J11" s="298"/>
+      <c r="H11" s="311"/>
+      <c r="I11" s="311"/>
+      <c r="J11" s="312"/>
       <c r="K11" s="116" t="s">
         <v>295</v>
       </c>
@@ -13939,7 +13939,7 @@
       <c r="N11" s="115" t="s">
         <v>158</v>
       </c>
-      <c r="O11" s="292"/>
+      <c r="O11" s="306"/>
     </row>
     <row r="12" spans="1:17" ht="63" customHeight="1">
       <c r="A12" s="106">
@@ -13960,12 +13960,12 @@
       <c r="F12" s="113" t="s">
         <v>303</v>
       </c>
-      <c r="G12" s="284" t="s">
+      <c r="G12" s="298" t="s">
         <v>309</v>
       </c>
-      <c r="H12" s="285"/>
-      <c r="I12" s="285"/>
-      <c r="J12" s="286"/>
+      <c r="H12" s="299"/>
+      <c r="I12" s="299"/>
+      <c r="J12" s="300"/>
       <c r="K12" s="116" t="s">
         <v>310</v>
       </c>
@@ -13999,12 +13999,12 @@
       <c r="F13" s="113" t="s">
         <v>304</v>
       </c>
-      <c r="G13" s="284" t="s">
+      <c r="G13" s="298" t="s">
         <v>312</v>
       </c>
-      <c r="H13" s="285"/>
-      <c r="I13" s="285"/>
-      <c r="J13" s="286"/>
+      <c r="H13" s="299"/>
+      <c r="I13" s="299"/>
+      <c r="J13" s="300"/>
       <c r="K13" s="116" t="s">
         <v>313</v>
       </c>
@@ -14038,12 +14038,12 @@
       <c r="F14" s="113" t="s">
         <v>305</v>
       </c>
-      <c r="G14" s="284" t="s">
+      <c r="G14" s="298" t="s">
         <v>315</v>
       </c>
-      <c r="H14" s="285"/>
-      <c r="I14" s="285"/>
-      <c r="J14" s="286"/>
+      <c r="H14" s="299"/>
+      <c r="I14" s="299"/>
+      <c r="J14" s="300"/>
       <c r="K14" s="116" t="s">
         <v>316</v>
       </c>
@@ -14077,12 +14077,12 @@
       <c r="F15" s="113" t="s">
         <v>306</v>
       </c>
-      <c r="G15" s="293" t="s">
+      <c r="G15" s="307" t="s">
         <v>202</v>
       </c>
-      <c r="H15" s="294"/>
-      <c r="I15" s="294"/>
-      <c r="J15" s="295"/>
+      <c r="H15" s="308"/>
+      <c r="I15" s="308"/>
+      <c r="J15" s="309"/>
       <c r="K15" s="135" t="s">
         <v>203</v>
       </c>
@@ -14118,12 +14118,12 @@
       <c r="F16" s="154" t="s">
         <v>343</v>
       </c>
-      <c r="G16" s="287" t="s">
+      <c r="G16" s="301" t="s">
         <v>344</v>
       </c>
-      <c r="H16" s="287"/>
-      <c r="I16" s="287"/>
-      <c r="J16" s="287"/>
+      <c r="H16" s="301"/>
+      <c r="I16" s="301"/>
+      <c r="J16" s="301"/>
       <c r="K16" s="155" t="s">
         <v>345</v>
       </c>
@@ -14157,12 +14157,12 @@
       <c r="F17" s="202" t="s">
         <v>441</v>
       </c>
-      <c r="G17" s="281" t="s">
+      <c r="G17" s="295" t="s">
         <v>444</v>
       </c>
-      <c r="H17" s="282"/>
-      <c r="I17" s="282"/>
-      <c r="J17" s="283"/>
+      <c r="H17" s="296"/>
+      <c r="I17" s="296"/>
+      <c r="J17" s="297"/>
       <c r="K17" s="199"/>
       <c r="L17" s="199"/>
       <c r="M17" s="199"/>
@@ -14429,10 +14429,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="12" customHeight="1">
-      <c r="A1" s="229" t="s">
+      <c r="A1" s="240" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="229"/>
+      <c r="B1" s="240"/>
       <c r="C1" s="30" t="s">
         <v>1</v>
       </c>
@@ -14463,8 +14463,8 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="12" customHeight="1">
-      <c r="A2" s="229"/>
-      <c r="B2" s="229"/>
+      <c r="A2" s="240"/>
+      <c r="B2" s="240"/>
       <c r="C2" s="30" t="s">
         <v>2</v>
       </c>
@@ -14782,66 +14782,66 @@
     <row r="26" spans="1:11" ht="12" customHeight="1">
       <c r="A26" s="63"/>
       <c r="B26" s="39"/>
-      <c r="C26" s="312" t="s">
+      <c r="C26" s="326" t="s">
         <v>320</v>
       </c>
-      <c r="D26" s="312"/>
-      <c r="E26" s="312"/>
-      <c r="F26" s="312"/>
-      <c r="G26" s="312"/>
-      <c r="H26" s="312"/>
-      <c r="I26" s="312"/>
-      <c r="J26" s="312"/>
+      <c r="D26" s="326"/>
+      <c r="E26" s="326"/>
+      <c r="F26" s="326"/>
+      <c r="G26" s="326"/>
+      <c r="H26" s="326"/>
+      <c r="I26" s="326"/>
+      <c r="J26" s="326"/>
     </row>
     <row r="27" spans="1:11" ht="12" customHeight="1">
       <c r="A27" s="63"/>
       <c r="B27" s="39"/>
-      <c r="C27" s="312"/>
-      <c r="D27" s="312"/>
-      <c r="E27" s="312"/>
-      <c r="F27" s="312"/>
-      <c r="G27" s="312"/>
-      <c r="H27" s="312"/>
-      <c r="I27" s="312"/>
-      <c r="J27" s="312"/>
+      <c r="C27" s="326"/>
+      <c r="D27" s="326"/>
+      <c r="E27" s="326"/>
+      <c r="F27" s="326"/>
+      <c r="G27" s="326"/>
+      <c r="H27" s="326"/>
+      <c r="I27" s="326"/>
+      <c r="J27" s="326"/>
     </row>
     <row r="28" spans="1:11" ht="12" customHeight="1">
       <c r="A28" s="63"/>
       <c r="B28" s="39"/>
-      <c r="C28" s="312"/>
-      <c r="D28" s="312"/>
-      <c r="E28" s="312"/>
-      <c r="F28" s="312"/>
-      <c r="G28" s="312"/>
-      <c r="H28" s="312"/>
-      <c r="I28" s="312"/>
-      <c r="J28" s="312"/>
+      <c r="C28" s="326"/>
+      <c r="D28" s="326"/>
+      <c r="E28" s="326"/>
+      <c r="F28" s="326"/>
+      <c r="G28" s="326"/>
+      <c r="H28" s="326"/>
+      <c r="I28" s="326"/>
+      <c r="J28" s="326"/>
     </row>
     <row r="29" spans="1:11" ht="12" customHeight="1">
       <c r="A29" s="63"/>
       <c r="B29" s="39"/>
-      <c r="C29" s="312"/>
-      <c r="D29" s="312"/>
-      <c r="E29" s="312"/>
-      <c r="F29" s="312"/>
-      <c r="G29" s="312"/>
-      <c r="H29" s="312"/>
-      <c r="I29" s="312"/>
-      <c r="J29" s="312"/>
+      <c r="C29" s="326"/>
+      <c r="D29" s="326"/>
+      <c r="E29" s="326"/>
+      <c r="F29" s="326"/>
+      <c r="G29" s="326"/>
+      <c r="H29" s="326"/>
+      <c r="I29" s="326"/>
+      <c r="J29" s="326"/>
     </row>
     <row r="30" spans="1:11" ht="12" customHeight="1">
       <c r="A30" s="63"/>
       <c r="B30" s="39"/>
-      <c r="C30" s="312" t="s">
+      <c r="C30" s="326" t="s">
         <v>319</v>
       </c>
-      <c r="D30" s="312"/>
-      <c r="E30" s="312"/>
-      <c r="F30" s="312"/>
-      <c r="G30" s="312"/>
-      <c r="H30" s="312"/>
-      <c r="I30" s="312"/>
-      <c r="J30" s="312"/>
+      <c r="D30" s="326"/>
+      <c r="E30" s="326"/>
+      <c r="F30" s="326"/>
+      <c r="G30" s="326"/>
+      <c r="H30" s="326"/>
+      <c r="I30" s="326"/>
+      <c r="J30" s="326"/>
     </row>
     <row r="31" spans="1:11" ht="12" customHeight="1">
       <c r="A31" s="63"/>
@@ -15002,78 +15002,78 @@
     <row r="44" spans="1:10" ht="12" customHeight="1">
       <c r="A44" s="63"/>
       <c r="B44" s="39"/>
-      <c r="C44" s="312" t="s">
+      <c r="C44" s="326" t="s">
         <v>322</v>
       </c>
-      <c r="D44" s="312"/>
-      <c r="E44" s="312"/>
-      <c r="F44" s="312"/>
-      <c r="G44" s="312"/>
-      <c r="H44" s="312"/>
-      <c r="I44" s="312"/>
-      <c r="J44" s="312"/>
+      <c r="D44" s="326"/>
+      <c r="E44" s="326"/>
+      <c r="F44" s="326"/>
+      <c r="G44" s="326"/>
+      <c r="H44" s="326"/>
+      <c r="I44" s="326"/>
+      <c r="J44" s="326"/>
     </row>
     <row r="45" spans="1:10" ht="12" customHeight="1">
       <c r="A45" s="63"/>
       <c r="B45" s="39"/>
-      <c r="C45" s="312"/>
-      <c r="D45" s="312"/>
-      <c r="E45" s="312"/>
-      <c r="F45" s="312"/>
-      <c r="G45" s="312"/>
-      <c r="H45" s="312"/>
-      <c r="I45" s="312"/>
-      <c r="J45" s="312"/>
+      <c r="C45" s="326"/>
+      <c r="D45" s="326"/>
+      <c r="E45" s="326"/>
+      <c r="F45" s="326"/>
+      <c r="G45" s="326"/>
+      <c r="H45" s="326"/>
+      <c r="I45" s="326"/>
+      <c r="J45" s="326"/>
     </row>
     <row r="46" spans="1:10" ht="12" customHeight="1">
       <c r="A46" s="63"/>
       <c r="B46" s="39"/>
-      <c r="C46" s="312"/>
-      <c r="D46" s="312"/>
-      <c r="E46" s="312"/>
-      <c r="F46" s="312"/>
-      <c r="G46" s="312"/>
-      <c r="H46" s="312"/>
-      <c r="I46" s="312"/>
-      <c r="J46" s="312"/>
+      <c r="C46" s="326"/>
+      <c r="D46" s="326"/>
+      <c r="E46" s="326"/>
+      <c r="F46" s="326"/>
+      <c r="G46" s="326"/>
+      <c r="H46" s="326"/>
+      <c r="I46" s="326"/>
+      <c r="J46" s="326"/>
     </row>
     <row r="47" spans="1:10" ht="12" customHeight="1">
       <c r="A47" s="63"/>
       <c r="B47" s="39"/>
-      <c r="C47" s="312"/>
-      <c r="D47" s="312"/>
-      <c r="E47" s="312"/>
-      <c r="F47" s="312"/>
-      <c r="G47" s="312"/>
-      <c r="H47" s="312"/>
-      <c r="I47" s="312"/>
-      <c r="J47" s="312"/>
+      <c r="C47" s="326"/>
+      <c r="D47" s="326"/>
+      <c r="E47" s="326"/>
+      <c r="F47" s="326"/>
+      <c r="G47" s="326"/>
+      <c r="H47" s="326"/>
+      <c r="I47" s="326"/>
+      <c r="J47" s="326"/>
     </row>
     <row r="48" spans="1:10" ht="12" customHeight="1">
       <c r="A48" s="63"/>
       <c r="B48" s="39"/>
-      <c r="C48" s="312"/>
-      <c r="D48" s="312"/>
-      <c r="E48" s="312"/>
-      <c r="F48" s="312"/>
-      <c r="G48" s="312"/>
-      <c r="H48" s="312"/>
-      <c r="I48" s="312"/>
-      <c r="J48" s="312"/>
+      <c r="C48" s="326"/>
+      <c r="D48" s="326"/>
+      <c r="E48" s="326"/>
+      <c r="F48" s="326"/>
+      <c r="G48" s="326"/>
+      <c r="H48" s="326"/>
+      <c r="I48" s="326"/>
+      <c r="J48" s="326"/>
     </row>
     <row r="49" spans="1:10" ht="12" customHeight="1">
       <c r="A49" s="63"/>
       <c r="B49" s="39"/>
-      <c r="C49" s="312" t="s">
+      <c r="C49" s="326" t="s">
         <v>323</v>
       </c>
-      <c r="D49" s="312"/>
-      <c r="E49" s="312"/>
-      <c r="F49" s="312"/>
-      <c r="G49" s="312"/>
-      <c r="H49" s="312"/>
-      <c r="I49" s="312"/>
-      <c r="J49" s="312"/>
+      <c r="D49" s="326"/>
+      <c r="E49" s="326"/>
+      <c r="F49" s="326"/>
+      <c r="G49" s="326"/>
+      <c r="H49" s="326"/>
+      <c r="I49" s="326"/>
+      <c r="J49" s="326"/>
     </row>
     <row r="50" spans="1:10" ht="12" customHeight="1">
       <c r="A50" s="63"/>
@@ -15234,78 +15234,78 @@
     <row r="63" spans="1:10" ht="12" customHeight="1">
       <c r="A63" s="63"/>
       <c r="B63" s="39"/>
-      <c r="C63" s="312" t="s">
+      <c r="C63" s="326" t="s">
         <v>324</v>
       </c>
-      <c r="D63" s="312"/>
-      <c r="E63" s="312"/>
-      <c r="F63" s="312"/>
-      <c r="G63" s="312"/>
-      <c r="H63" s="312"/>
-      <c r="I63" s="312"/>
-      <c r="J63" s="312"/>
+      <c r="D63" s="326"/>
+      <c r="E63" s="326"/>
+      <c r="F63" s="326"/>
+      <c r="G63" s="326"/>
+      <c r="H63" s="326"/>
+      <c r="I63" s="326"/>
+      <c r="J63" s="326"/>
     </row>
     <row r="64" spans="1:10" ht="12" customHeight="1">
       <c r="A64" s="63"/>
       <c r="B64" s="39"/>
-      <c r="C64" s="312"/>
-      <c r="D64" s="312"/>
-      <c r="E64" s="312"/>
-      <c r="F64" s="312"/>
-      <c r="G64" s="312"/>
-      <c r="H64" s="312"/>
-      <c r="I64" s="312"/>
-      <c r="J64" s="312"/>
+      <c r="C64" s="326"/>
+      <c r="D64" s="326"/>
+      <c r="E64" s="326"/>
+      <c r="F64" s="326"/>
+      <c r="G64" s="326"/>
+      <c r="H64" s="326"/>
+      <c r="I64" s="326"/>
+      <c r="J64" s="326"/>
     </row>
     <row r="65" spans="1:10" ht="12" customHeight="1">
       <c r="A65" s="63"/>
       <c r="B65" s="39"/>
-      <c r="C65" s="312"/>
-      <c r="D65" s="312"/>
-      <c r="E65" s="312"/>
-      <c r="F65" s="312"/>
-      <c r="G65" s="312"/>
-      <c r="H65" s="312"/>
-      <c r="I65" s="312"/>
-      <c r="J65" s="312"/>
+      <c r="C65" s="326"/>
+      <c r="D65" s="326"/>
+      <c r="E65" s="326"/>
+      <c r="F65" s="326"/>
+      <c r="G65" s="326"/>
+      <c r="H65" s="326"/>
+      <c r="I65" s="326"/>
+      <c r="J65" s="326"/>
     </row>
     <row r="66" spans="1:10" ht="12" customHeight="1">
       <c r="A66" s="63"/>
       <c r="B66" s="39"/>
-      <c r="C66" s="312"/>
-      <c r="D66" s="312"/>
-      <c r="E66" s="312"/>
-      <c r="F66" s="312"/>
-      <c r="G66" s="312"/>
-      <c r="H66" s="312"/>
-      <c r="I66" s="312"/>
-      <c r="J66" s="312"/>
+      <c r="C66" s="326"/>
+      <c r="D66" s="326"/>
+      <c r="E66" s="326"/>
+      <c r="F66" s="326"/>
+      <c r="G66" s="326"/>
+      <c r="H66" s="326"/>
+      <c r="I66" s="326"/>
+      <c r="J66" s="326"/>
     </row>
     <row r="67" spans="1:10" ht="12" customHeight="1">
       <c r="A67" s="63"/>
       <c r="B67" s="39"/>
-      <c r="C67" s="312"/>
-      <c r="D67" s="312"/>
-      <c r="E67" s="312"/>
-      <c r="F67" s="312"/>
-      <c r="G67" s="312"/>
-      <c r="H67" s="312"/>
-      <c r="I67" s="312"/>
-      <c r="J67" s="312"/>
+      <c r="C67" s="326"/>
+      <c r="D67" s="326"/>
+      <c r="E67" s="326"/>
+      <c r="F67" s="326"/>
+      <c r="G67" s="326"/>
+      <c r="H67" s="326"/>
+      <c r="I67" s="326"/>
+      <c r="J67" s="326"/>
     </row>
     <row r="68" spans="1:10" ht="12" customHeight="1">
       <c r="A68" s="63"/>
       <c r="B68" s="39"/>
-      <c r="C68" s="312" t="s">
+      <c r="C68" s="326" t="s">
         <v>325</v>
       </c>
-      <c r="D68" s="312"/>
-      <c r="E68" s="312"/>
-      <c r="F68" s="312"/>
-      <c r="G68" s="312"/>
-      <c r="H68" s="312"/>
-      <c r="I68" s="312"/>
-      <c r="J68" s="312"/>
+      <c r="D68" s="326"/>
+      <c r="E68" s="326"/>
+      <c r="F68" s="326"/>
+      <c r="G68" s="326"/>
+      <c r="H68" s="326"/>
+      <c r="I68" s="326"/>
+      <c r="J68" s="326"/>
     </row>
     <row r="69" spans="1:10" ht="12" customHeight="1">
       <c r="A69" s="63"/>
@@ -15453,28 +15453,28 @@
     <row r="81" spans="1:10" ht="12" customHeight="1">
       <c r="A81" s="63"/>
       <c r="B81" s="39"/>
-      <c r="C81" s="312" t="s">
+      <c r="C81" s="326" t="s">
         <v>326</v>
       </c>
-      <c r="D81" s="312"/>
-      <c r="E81" s="312"/>
-      <c r="F81" s="312"/>
-      <c r="G81" s="312"/>
-      <c r="H81" s="312"/>
-      <c r="I81" s="312"/>
-      <c r="J81" s="312"/>
+      <c r="D81" s="326"/>
+      <c r="E81" s="326"/>
+      <c r="F81" s="326"/>
+      <c r="G81" s="326"/>
+      <c r="H81" s="326"/>
+      <c r="I81" s="326"/>
+      <c r="J81" s="326"/>
     </row>
     <row r="82" spans="1:10" ht="12" customHeight="1">
       <c r="A82" s="63"/>
       <c r="B82" s="39"/>
-      <c r="C82" s="312"/>
-      <c r="D82" s="312"/>
-      <c r="E82" s="312"/>
-      <c r="F82" s="312"/>
-      <c r="G82" s="312"/>
-      <c r="H82" s="312"/>
-      <c r="I82" s="312"/>
-      <c r="J82" s="312"/>
+      <c r="C82" s="326"/>
+      <c r="D82" s="326"/>
+      <c r="E82" s="326"/>
+      <c r="F82" s="326"/>
+      <c r="G82" s="326"/>
+      <c r="H82" s="326"/>
+      <c r="I82" s="326"/>
+      <c r="J82" s="326"/>
     </row>
     <row r="83" spans="1:10" ht="12" customHeight="1">
       <c r="A83" s="63"/>
@@ -16306,10 +16306,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="229" t="s">
+      <c r="A1" s="240" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="229"/>
+      <c r="B1" s="240"/>
       <c r="C1" s="30" t="s">
         <v>1</v>
       </c>
@@ -16340,8 +16340,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="229"/>
-      <c r="B2" s="229"/>
+      <c r="A2" s="240"/>
+      <c r="B2" s="240"/>
       <c r="C2" s="30" t="s">
         <v>2</v>
       </c>

--- a/2018/CRM/03_DetailDesign/CRMF2082_Xem chi tiet yeu cau.xlsx
+++ b/2018/CRM/03_DetailDesign/CRMF2082_Xem chi tiet yeu cau.xlsx
@@ -1419,7 +1419,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="957" uniqueCount="447">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="959" uniqueCount="448">
   <si>
     <t>Detail Design</t>
   </si>
@@ -3124,12 +3124,16 @@
 And ContactID = @ContactID</t>
   </si>
   <si>
-    <t>- STT yêu cầu là: 1 (bên file Tasklist)
-- Bổ sung trường: Dự án</t>
-  </si>
-  <si>
     <t>- STT yêu cầu là: 4 (bên file Tasklist)
 - Bổ sung các trường: Loại yêu cầu, Deadline mong muốn, Deadline thực tế hoàn thành, Số giờ cho phép, Số giờ thực tế, tab Liên hệ</t>
+  </si>
+  <si>
+    <t>- STT yêu cầu là: 2 (bên file Tasklist)
+- Bổ sung tab Liên hệ</t>
+  </si>
+  <si>
+    <t>- STT yêu cầu là: 1 (bên file Tasklist)
+- Bổ sung trường Dự án</t>
   </si>
 </sst>
 </file>
@@ -3671,7 +3675,7 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="331">
+  <cellXfs count="344">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4212,27 +4216,30 @@
     <xf numFmtId="0" fontId="32" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="8" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="32" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="25" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="25" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="25" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4278,23 +4285,53 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="25" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="25" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="25" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="8" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4314,54 +4351,6 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="8" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4461,6 +4450,87 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -4470,90 +4540,9 @@
     <xf numFmtId="0" fontId="11" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="11" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -4568,6 +4557,56 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="32" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="32" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="32" fillId="9" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="9" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="32" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -7924,65 +7963,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="27" customHeight="1">
-      <c r="A1" s="223"/>
-      <c r="B1" s="223"/>
-      <c r="C1" s="225" t="s">
+      <c r="A1" s="224"/>
+      <c r="B1" s="224"/>
+      <c r="C1" s="226" t="s">
         <v>152</v>
       </c>
-      <c r="D1" s="226"/>
-      <c r="E1" s="226"/>
-      <c r="F1" s="227"/>
-      <c r="G1" s="224" t="s">
+      <c r="D1" s="227"/>
+      <c r="E1" s="227"/>
+      <c r="F1" s="228"/>
+      <c r="G1" s="225" t="s">
         <v>148</v>
       </c>
-      <c r="H1" s="224"/>
-      <c r="I1" s="224" t="s">
+      <c r="H1" s="225"/>
+      <c r="I1" s="225" t="s">
         <v>149</v>
       </c>
-      <c r="J1" s="224"/>
+      <c r="J1" s="225"/>
     </row>
     <row r="2" spans="1:18" ht="23.25" customHeight="1">
-      <c r="A2" s="223"/>
-      <c r="B2" s="223"/>
-      <c r="C2" s="228"/>
-      <c r="D2" s="229"/>
-      <c r="E2" s="229"/>
-      <c r="F2" s="230"/>
-      <c r="G2" s="224" t="s">
+      <c r="A2" s="224"/>
+      <c r="B2" s="224"/>
+      <c r="C2" s="229"/>
+      <c r="D2" s="230"/>
+      <c r="E2" s="230"/>
+      <c r="F2" s="231"/>
+      <c r="G2" s="225" t="s">
         <v>150</v>
       </c>
-      <c r="H2" s="224"/>
-      <c r="I2" s="224"/>
-      <c r="J2" s="224"/>
+      <c r="H2" s="225"/>
+      <c r="I2" s="225"/>
+      <c r="J2" s="225"/>
     </row>
     <row r="3" spans="1:18" ht="12.75" customHeight="1">
-      <c r="A3" s="223"/>
-      <c r="B3" s="223"/>
-      <c r="C3" s="231"/>
-      <c r="D3" s="232"/>
-      <c r="E3" s="232"/>
-      <c r="F3" s="233"/>
-      <c r="G3" s="220" t="s">
+      <c r="A3" s="224"/>
+      <c r="B3" s="224"/>
+      <c r="C3" s="232"/>
+      <c r="D3" s="233"/>
+      <c r="E3" s="233"/>
+      <c r="F3" s="234"/>
+      <c r="G3" s="221" t="s">
         <v>151</v>
       </c>
-      <c r="H3" s="221"/>
-      <c r="I3" s="220"/>
-      <c r="J3" s="221"/>
+      <c r="H3" s="222"/>
+      <c r="I3" s="221"/>
+      <c r="J3" s="222"/>
     </row>
     <row r="4" spans="1:18">
       <c r="H4" s="97"/>
     </row>
     <row r="13" spans="1:18" ht="30">
-      <c r="A13" s="222"/>
-      <c r="B13" s="222"/>
-      <c r="C13" s="222"/>
-      <c r="D13" s="222"/>
-      <c r="E13" s="222"/>
-      <c r="F13" s="222"/>
-      <c r="G13" s="222"/>
-      <c r="H13" s="222"/>
-      <c r="I13" s="222"/>
-      <c r="J13" s="222"/>
+      <c r="A13" s="223"/>
+      <c r="B13" s="223"/>
+      <c r="C13" s="223"/>
+      <c r="D13" s="223"/>
+      <c r="E13" s="223"/>
+      <c r="F13" s="223"/>
+      <c r="G13" s="223"/>
+      <c r="H13" s="223"/>
+      <c r="I13" s="223"/>
+      <c r="J13" s="223"/>
       <c r="K13" s="98"/>
       <c r="L13" s="98"/>
       <c r="M13" s="98"/>
@@ -7993,56 +8032,56 @@
       <c r="R13" s="98"/>
     </row>
     <row r="14" spans="1:18" ht="26.25">
-      <c r="B14" s="218"/>
-      <c r="C14" s="218"/>
-      <c r="D14" s="218"/>
-      <c r="E14" s="218"/>
-      <c r="F14" s="218"/>
-      <c r="G14" s="218"/>
-      <c r="H14" s="218"/>
-      <c r="I14" s="218"/>
-      <c r="J14" s="218"/>
-      <c r="K14" s="218"/>
-      <c r="L14" s="218"/>
-      <c r="M14" s="218"/>
-      <c r="N14" s="218"/>
-      <c r="O14" s="218"/>
-      <c r="P14" s="218"/>
-      <c r="Q14" s="218"/>
-      <c r="R14" s="218"/>
+      <c r="B14" s="217"/>
+      <c r="C14" s="217"/>
+      <c r="D14" s="217"/>
+      <c r="E14" s="217"/>
+      <c r="F14" s="217"/>
+      <c r="G14" s="217"/>
+      <c r="H14" s="217"/>
+      <c r="I14" s="217"/>
+      <c r="J14" s="217"/>
+      <c r="K14" s="217"/>
+      <c r="L14" s="217"/>
+      <c r="M14" s="217"/>
+      <c r="N14" s="217"/>
+      <c r="O14" s="217"/>
+      <c r="P14" s="217"/>
+      <c r="Q14" s="217"/>
+      <c r="R14" s="217"/>
     </row>
     <row r="15" spans="1:18" ht="26.25">
-      <c r="B15" s="218"/>
-      <c r="C15" s="218"/>
-      <c r="D15" s="218"/>
-      <c r="E15" s="218"/>
-      <c r="F15" s="218"/>
-      <c r="G15" s="218"/>
-      <c r="H15" s="218"/>
-      <c r="I15" s="218"/>
-      <c r="J15" s="218"/>
-      <c r="K15" s="218"/>
-      <c r="L15" s="218"/>
-      <c r="M15" s="218"/>
-      <c r="N15" s="218"/>
-      <c r="O15" s="218"/>
-      <c r="P15" s="218"/>
-      <c r="Q15" s="218"/>
-      <c r="R15" s="218"/>
+      <c r="B15" s="217"/>
+      <c r="C15" s="217"/>
+      <c r="D15" s="217"/>
+      <c r="E15" s="217"/>
+      <c r="F15" s="217"/>
+      <c r="G15" s="217"/>
+      <c r="H15" s="217"/>
+      <c r="I15" s="217"/>
+      <c r="J15" s="217"/>
+      <c r="K15" s="217"/>
+      <c r="L15" s="217"/>
+      <c r="M15" s="217"/>
+      <c r="N15" s="217"/>
+      <c r="O15" s="217"/>
+      <c r="P15" s="217"/>
+      <c r="Q15" s="217"/>
+      <c r="R15" s="217"/>
     </row>
     <row r="16" spans="1:18" ht="26.25">
-      <c r="A16" s="219" t="s">
+      <c r="A16" s="220" t="s">
         <v>152</v>
       </c>
-      <c r="B16" s="219"/>
-      <c r="C16" s="219"/>
-      <c r="D16" s="219"/>
-      <c r="E16" s="219"/>
-      <c r="F16" s="219"/>
-      <c r="G16" s="219"/>
-      <c r="H16" s="219"/>
-      <c r="I16" s="219"/>
-      <c r="J16" s="219"/>
+      <c r="B16" s="220"/>
+      <c r="C16" s="220"/>
+      <c r="D16" s="220"/>
+      <c r="E16" s="220"/>
+      <c r="F16" s="220"/>
+      <c r="G16" s="220"/>
+      <c r="H16" s="220"/>
+      <c r="I16" s="220"/>
+      <c r="J16" s="220"/>
       <c r="K16" s="99"/>
       <c r="L16" s="99"/>
       <c r="M16" s="99"/>
@@ -8053,384 +8092,384 @@
       <c r="R16" s="99"/>
     </row>
     <row r="17" spans="1:195" ht="14.1" customHeight="1">
-      <c r="B17" s="218"/>
-      <c r="C17" s="218"/>
-      <c r="D17" s="218"/>
-      <c r="E17" s="218"/>
-      <c r="F17" s="218"/>
-      <c r="G17" s="218"/>
-      <c r="H17" s="218"/>
-      <c r="I17" s="218"/>
-      <c r="J17" s="218"/>
-      <c r="K17" s="218"/>
-      <c r="L17" s="218"/>
-      <c r="M17" s="218"/>
-      <c r="N17" s="218"/>
-      <c r="O17" s="218"/>
-      <c r="P17" s="218"/>
-      <c r="Q17" s="218"/>
-      <c r="R17" s="218"/>
+      <c r="B17" s="217"/>
+      <c r="C17" s="217"/>
+      <c r="D17" s="217"/>
+      <c r="E17" s="217"/>
+      <c r="F17" s="217"/>
+      <c r="G17" s="217"/>
+      <c r="H17" s="217"/>
+      <c r="I17" s="217"/>
+      <c r="J17" s="217"/>
+      <c r="K17" s="217"/>
+      <c r="L17" s="217"/>
+      <c r="M17" s="217"/>
+      <c r="N17" s="217"/>
+      <c r="O17" s="217"/>
+      <c r="P17" s="217"/>
+      <c r="Q17" s="217"/>
+      <c r="R17" s="217"/>
     </row>
     <row r="18" spans="1:195" ht="26.25">
-      <c r="B18" s="218"/>
-      <c r="C18" s="218"/>
-      <c r="D18" s="218"/>
-      <c r="E18" s="218"/>
-      <c r="F18" s="218"/>
-      <c r="G18" s="218"/>
-      <c r="H18" s="218"/>
-      <c r="I18" s="218"/>
-      <c r="J18" s="218"/>
-      <c r="K18" s="218"/>
-      <c r="L18" s="218"/>
-      <c r="M18" s="218"/>
-      <c r="N18" s="218"/>
-      <c r="O18" s="218"/>
-      <c r="P18" s="218"/>
-      <c r="Q18" s="218"/>
-      <c r="R18" s="218"/>
+      <c r="B18" s="217"/>
+      <c r="C18" s="217"/>
+      <c r="D18" s="217"/>
+      <c r="E18" s="217"/>
+      <c r="F18" s="217"/>
+      <c r="G18" s="217"/>
+      <c r="H18" s="217"/>
+      <c r="I18" s="217"/>
+      <c r="J18" s="217"/>
+      <c r="K18" s="217"/>
+      <c r="L18" s="217"/>
+      <c r="M18" s="217"/>
+      <c r="N18" s="217"/>
+      <c r="O18" s="217"/>
+      <c r="P18" s="217"/>
+      <c r="Q18" s="217"/>
+      <c r="R18" s="217"/>
     </row>
     <row r="19" spans="1:195" ht="23.25">
-      <c r="B19" s="235"/>
-      <c r="C19" s="235"/>
-      <c r="D19" s="235"/>
-      <c r="E19" s="235"/>
-      <c r="F19" s="235"/>
-      <c r="G19" s="235"/>
-      <c r="H19" s="235"/>
-      <c r="I19" s="235"/>
-      <c r="J19" s="235"/>
-      <c r="K19" s="235"/>
-      <c r="L19" s="235"/>
-      <c r="M19" s="235"/>
-      <c r="N19" s="235"/>
-      <c r="O19" s="235"/>
-      <c r="P19" s="235"/>
-      <c r="Q19" s="235"/>
-      <c r="R19" s="235"/>
+      <c r="B19" s="219"/>
+      <c r="C19" s="219"/>
+      <c r="D19" s="219"/>
+      <c r="E19" s="219"/>
+      <c r="F19" s="219"/>
+      <c r="G19" s="219"/>
+      <c r="H19" s="219"/>
+      <c r="I19" s="219"/>
+      <c r="J19" s="219"/>
+      <c r="K19" s="219"/>
+      <c r="L19" s="219"/>
+      <c r="M19" s="219"/>
+      <c r="N19" s="219"/>
+      <c r="O19" s="219"/>
+      <c r="P19" s="219"/>
+      <c r="Q19" s="219"/>
+      <c r="R19" s="219"/>
     </row>
     <row r="20" spans="1:195" ht="26.25">
-      <c r="B20" s="218"/>
-      <c r="C20" s="218"/>
-      <c r="D20" s="218"/>
-      <c r="E20" s="218"/>
-      <c r="F20" s="218"/>
-      <c r="G20" s="218"/>
-      <c r="H20" s="218"/>
-      <c r="I20" s="218"/>
-      <c r="J20" s="218"/>
-      <c r="K20" s="218"/>
-      <c r="L20" s="218"/>
-      <c r="M20" s="218"/>
-      <c r="N20" s="218"/>
-      <c r="O20" s="218"/>
-      <c r="P20" s="218"/>
-      <c r="Q20" s="218"/>
-      <c r="R20" s="218"/>
+      <c r="B20" s="217"/>
+      <c r="C20" s="217"/>
+      <c r="D20" s="217"/>
+      <c r="E20" s="217"/>
+      <c r="F20" s="217"/>
+      <c r="G20" s="217"/>
+      <c r="H20" s="217"/>
+      <c r="I20" s="217"/>
+      <c r="J20" s="217"/>
+      <c r="K20" s="217"/>
+      <c r="L20" s="217"/>
+      <c r="M20" s="217"/>
+      <c r="N20" s="217"/>
+      <c r="O20" s="217"/>
+      <c r="P20" s="217"/>
+      <c r="Q20" s="217"/>
+      <c r="R20" s="217"/>
     </row>
     <row r="21" spans="1:195" ht="26.25">
-      <c r="B21" s="218"/>
-      <c r="C21" s="218"/>
-      <c r="D21" s="218"/>
-      <c r="E21" s="218"/>
-      <c r="F21" s="218"/>
-      <c r="G21" s="218"/>
-      <c r="H21" s="218"/>
-      <c r="I21" s="218"/>
-      <c r="J21" s="218"/>
-      <c r="K21" s="218"/>
-      <c r="L21" s="218"/>
-      <c r="M21" s="218"/>
-      <c r="N21" s="218"/>
-      <c r="O21" s="218"/>
-      <c r="P21" s="218"/>
-      <c r="Q21" s="218"/>
-      <c r="R21" s="218"/>
+      <c r="B21" s="217"/>
+      <c r="C21" s="217"/>
+      <c r="D21" s="217"/>
+      <c r="E21" s="217"/>
+      <c r="F21" s="217"/>
+      <c r="G21" s="217"/>
+      <c r="H21" s="217"/>
+      <c r="I21" s="217"/>
+      <c r="J21" s="217"/>
+      <c r="K21" s="217"/>
+      <c r="L21" s="217"/>
+      <c r="M21" s="217"/>
+      <c r="N21" s="217"/>
+      <c r="O21" s="217"/>
+      <c r="P21" s="217"/>
+      <c r="Q21" s="217"/>
+      <c r="R21" s="217"/>
     </row>
     <row r="22" spans="1:195" ht="25.5">
-      <c r="B22" s="234"/>
-      <c r="C22" s="234"/>
-      <c r="D22" s="234"/>
-      <c r="E22" s="234"/>
-      <c r="F22" s="234"/>
-      <c r="G22" s="234"/>
-      <c r="H22" s="234"/>
-      <c r="I22" s="234"/>
-      <c r="J22" s="234"/>
-      <c r="K22" s="234"/>
-      <c r="L22" s="234"/>
-      <c r="M22" s="234"/>
-      <c r="N22" s="234"/>
-      <c r="O22" s="234"/>
-      <c r="P22" s="234"/>
-      <c r="Q22" s="234"/>
-      <c r="R22" s="234"/>
+      <c r="B22" s="218"/>
+      <c r="C22" s="218"/>
+      <c r="D22" s="218"/>
+      <c r="E22" s="218"/>
+      <c r="F22" s="218"/>
+      <c r="G22" s="218"/>
+      <c r="H22" s="218"/>
+      <c r="I22" s="218"/>
+      <c r="J22" s="218"/>
+      <c r="K22" s="218"/>
+      <c r="L22" s="218"/>
+      <c r="M22" s="218"/>
+      <c r="N22" s="218"/>
+      <c r="O22" s="218"/>
+      <c r="P22" s="218"/>
+      <c r="Q22" s="218"/>
+      <c r="R22" s="218"/>
     </row>
     <row r="23" spans="1:195" ht="25.5">
-      <c r="B23" s="234"/>
-      <c r="C23" s="234"/>
-      <c r="D23" s="234"/>
-      <c r="E23" s="234"/>
-      <c r="F23" s="234"/>
-      <c r="G23" s="234"/>
-      <c r="H23" s="234"/>
-      <c r="I23" s="234"/>
-      <c r="J23" s="234"/>
-      <c r="K23" s="234"/>
-      <c r="L23" s="234"/>
-      <c r="M23" s="234"/>
-      <c r="N23" s="234"/>
-      <c r="O23" s="234"/>
-      <c r="P23" s="234"/>
-      <c r="Q23" s="234"/>
-      <c r="R23" s="234"/>
+      <c r="B23" s="218"/>
+      <c r="C23" s="218"/>
+      <c r="D23" s="218"/>
+      <c r="E23" s="218"/>
+      <c r="F23" s="218"/>
+      <c r="G23" s="218"/>
+      <c r="H23" s="218"/>
+      <c r="I23" s="218"/>
+      <c r="J23" s="218"/>
+      <c r="K23" s="218"/>
+      <c r="L23" s="218"/>
+      <c r="M23" s="218"/>
+      <c r="N23" s="218"/>
+      <c r="O23" s="218"/>
+      <c r="P23" s="218"/>
+      <c r="Q23" s="218"/>
+      <c r="R23" s="218"/>
     </row>
     <row r="25" spans="1:195" ht="11.25" customHeight="1"/>
     <row r="26" spans="1:195" ht="18">
-      <c r="B26" s="236"/>
-      <c r="C26" s="236"/>
-      <c r="D26" s="236"/>
-      <c r="E26" s="236"/>
-      <c r="F26" s="236"/>
-      <c r="G26" s="236"/>
-      <c r="H26" s="236"/>
-      <c r="I26" s="236"/>
-      <c r="J26" s="236"/>
-      <c r="K26" s="236"/>
-      <c r="L26" s="236"/>
-      <c r="M26" s="236"/>
-      <c r="N26" s="236"/>
-      <c r="O26" s="236"/>
-      <c r="P26" s="236"/>
-      <c r="Q26" s="236"/>
-      <c r="R26" s="236"/>
+      <c r="B26" s="215"/>
+      <c r="C26" s="215"/>
+      <c r="D26" s="215"/>
+      <c r="E26" s="215"/>
+      <c r="F26" s="215"/>
+      <c r="G26" s="215"/>
+      <c r="H26" s="215"/>
+      <c r="I26" s="215"/>
+      <c r="J26" s="215"/>
+      <c r="K26" s="215"/>
+      <c r="L26" s="215"/>
+      <c r="M26" s="215"/>
+      <c r="N26" s="215"/>
+      <c r="O26" s="215"/>
+      <c r="P26" s="215"/>
+      <c r="Q26" s="215"/>
+      <c r="R26" s="215"/>
     </row>
     <row r="28" spans="1:195" ht="18">
-      <c r="B28" s="238"/>
-      <c r="C28" s="238"/>
-      <c r="D28" s="238"/>
-      <c r="E28" s="238"/>
-      <c r="F28" s="238"/>
-      <c r="G28" s="238"/>
-      <c r="H28" s="238"/>
-      <c r="I28" s="238"/>
-      <c r="J28" s="238"/>
-      <c r="K28" s="238"/>
-      <c r="L28" s="238"/>
-      <c r="M28" s="238"/>
-      <c r="N28" s="238"/>
-      <c r="O28" s="238"/>
-      <c r="P28" s="238"/>
-      <c r="Q28" s="238"/>
-      <c r="R28" s="238"/>
-      <c r="S28" s="237"/>
-      <c r="T28" s="237"/>
-      <c r="U28" s="237"/>
-      <c r="V28" s="237"/>
-      <c r="W28" s="237"/>
-      <c r="X28" s="237"/>
-      <c r="Y28" s="237"/>
-      <c r="Z28" s="237"/>
-      <c r="AA28" s="237"/>
-      <c r="AB28" s="237"/>
-      <c r="AC28" s="237"/>
-      <c r="AD28" s="237"/>
-      <c r="AE28" s="237"/>
-      <c r="AF28" s="237"/>
-      <c r="AG28" s="237"/>
-      <c r="AH28" s="237"/>
-      <c r="AI28" s="237"/>
-      <c r="AJ28" s="237"/>
-      <c r="AK28" s="237"/>
-      <c r="AL28" s="237"/>
-      <c r="AM28" s="237"/>
-      <c r="AN28" s="237"/>
-      <c r="AO28" s="237"/>
-      <c r="AP28" s="237"/>
-      <c r="AQ28" s="237"/>
-      <c r="AR28" s="237"/>
-      <c r="AS28" s="237"/>
-      <c r="AT28" s="237"/>
-      <c r="AU28" s="237"/>
-      <c r="AV28" s="237"/>
-      <c r="AW28" s="237"/>
-      <c r="AX28" s="237"/>
-      <c r="AY28" s="237"/>
-      <c r="AZ28" s="237"/>
-      <c r="BA28" s="237"/>
-      <c r="BB28" s="237"/>
-      <c r="BC28" s="237"/>
-      <c r="BD28" s="237"/>
-      <c r="BE28" s="237"/>
-      <c r="BF28" s="237"/>
-      <c r="BG28" s="237"/>
-      <c r="BH28" s="237"/>
-      <c r="BI28" s="237"/>
-      <c r="BJ28" s="237"/>
-      <c r="BK28" s="237"/>
-      <c r="BL28" s="237"/>
-      <c r="BM28" s="237"/>
-      <c r="BN28" s="237"/>
-      <c r="BO28" s="237"/>
-      <c r="BP28" s="237"/>
-      <c r="BQ28" s="237"/>
-      <c r="BR28" s="237"/>
-      <c r="BS28" s="237"/>
-      <c r="BT28" s="237"/>
-      <c r="BU28" s="237"/>
-      <c r="BV28" s="237"/>
-      <c r="BW28" s="237"/>
-      <c r="BX28" s="237"/>
-      <c r="BY28" s="237"/>
-      <c r="BZ28" s="237"/>
-      <c r="CA28" s="237"/>
-      <c r="CB28" s="237"/>
-      <c r="CC28" s="237"/>
-      <c r="CD28" s="237"/>
-      <c r="CE28" s="237"/>
-      <c r="CF28" s="237"/>
-      <c r="CG28" s="237"/>
-      <c r="CH28" s="237"/>
-      <c r="CI28" s="237"/>
-      <c r="CJ28" s="237"/>
-      <c r="CK28" s="237"/>
-      <c r="CL28" s="237"/>
-      <c r="CM28" s="237"/>
-      <c r="CN28" s="237"/>
-      <c r="CO28" s="237"/>
-      <c r="CP28" s="237"/>
-      <c r="CQ28" s="237"/>
-      <c r="CR28" s="237"/>
-      <c r="CS28" s="237"/>
-      <c r="CT28" s="237"/>
-      <c r="CU28" s="237"/>
-      <c r="CV28" s="237"/>
-      <c r="CW28" s="237"/>
-      <c r="CX28" s="237"/>
-      <c r="CY28" s="237"/>
-      <c r="CZ28" s="237"/>
-      <c r="DA28" s="237"/>
-      <c r="DB28" s="237"/>
-      <c r="DC28" s="237"/>
-      <c r="DD28" s="237"/>
-      <c r="DE28" s="237"/>
-      <c r="DF28" s="237"/>
-      <c r="DG28" s="237"/>
-      <c r="DH28" s="237"/>
-      <c r="DI28" s="237"/>
-      <c r="DJ28" s="237"/>
-      <c r="DK28" s="237"/>
-      <c r="DL28" s="237"/>
-      <c r="DM28" s="237"/>
-      <c r="DN28" s="237"/>
-      <c r="DO28" s="237"/>
-      <c r="DP28" s="237"/>
-      <c r="DQ28" s="237"/>
-      <c r="DR28" s="237"/>
-      <c r="DS28" s="237"/>
-      <c r="DT28" s="237"/>
-      <c r="DU28" s="237"/>
-      <c r="DV28" s="237"/>
-      <c r="DW28" s="237"/>
-      <c r="DX28" s="237"/>
-      <c r="DY28" s="237"/>
-      <c r="DZ28" s="237"/>
-      <c r="EA28" s="237"/>
-      <c r="EB28" s="237"/>
-      <c r="EC28" s="237"/>
-      <c r="ED28" s="237"/>
-      <c r="EE28" s="237"/>
-      <c r="EF28" s="237"/>
-      <c r="EG28" s="237"/>
-      <c r="EH28" s="237"/>
-      <c r="EI28" s="237"/>
-      <c r="EJ28" s="237"/>
-      <c r="EK28" s="237"/>
-      <c r="EL28" s="237"/>
-      <c r="EM28" s="237"/>
-      <c r="EN28" s="237"/>
-      <c r="EO28" s="237"/>
-      <c r="EP28" s="237"/>
-      <c r="EQ28" s="237"/>
-      <c r="ER28" s="237"/>
-      <c r="ES28" s="237"/>
-      <c r="ET28" s="237"/>
-      <c r="EU28" s="237"/>
-      <c r="EV28" s="237"/>
-      <c r="EW28" s="237"/>
-      <c r="EX28" s="237"/>
-      <c r="EY28" s="237"/>
-      <c r="EZ28" s="237"/>
-      <c r="FA28" s="237"/>
-      <c r="FB28" s="237"/>
-      <c r="FC28" s="237"/>
-      <c r="FD28" s="237"/>
-      <c r="FE28" s="237"/>
-      <c r="FF28" s="237"/>
-      <c r="FG28" s="237"/>
-      <c r="FH28" s="237"/>
-      <c r="FI28" s="237"/>
-      <c r="FJ28" s="237"/>
-      <c r="FK28" s="237"/>
-      <c r="FL28" s="237"/>
-      <c r="FM28" s="237"/>
-      <c r="FN28" s="237"/>
-      <c r="FO28" s="237"/>
-      <c r="FP28" s="237"/>
-      <c r="FQ28" s="237"/>
-      <c r="FR28" s="237"/>
-      <c r="FS28" s="237"/>
-      <c r="FT28" s="237"/>
-      <c r="FU28" s="237"/>
-      <c r="FV28" s="237"/>
-      <c r="FW28" s="237"/>
-      <c r="FX28" s="237"/>
-      <c r="FY28" s="237"/>
-      <c r="FZ28" s="237"/>
-      <c r="GA28" s="237"/>
-      <c r="GB28" s="237"/>
-      <c r="GC28" s="237"/>
-      <c r="GD28" s="237"/>
-      <c r="GE28" s="237"/>
-      <c r="GF28" s="237"/>
-      <c r="GG28" s="237"/>
-      <c r="GH28" s="237"/>
-      <c r="GI28" s="237"/>
-      <c r="GJ28" s="237"/>
-      <c r="GK28" s="237"/>
-      <c r="GL28" s="237"/>
+      <c r="B28" s="216"/>
+      <c r="C28" s="216"/>
+      <c r="D28" s="216"/>
+      <c r="E28" s="216"/>
+      <c r="F28" s="216"/>
+      <c r="G28" s="216"/>
+      <c r="H28" s="216"/>
+      <c r="I28" s="216"/>
+      <c r="J28" s="216"/>
+      <c r="K28" s="216"/>
+      <c r="L28" s="216"/>
+      <c r="M28" s="216"/>
+      <c r="N28" s="216"/>
+      <c r="O28" s="216"/>
+      <c r="P28" s="216"/>
+      <c r="Q28" s="216"/>
+      <c r="R28" s="216"/>
+      <c r="S28" s="214"/>
+      <c r="T28" s="214"/>
+      <c r="U28" s="214"/>
+      <c r="V28" s="214"/>
+      <c r="W28" s="214"/>
+      <c r="X28" s="214"/>
+      <c r="Y28" s="214"/>
+      <c r="Z28" s="214"/>
+      <c r="AA28" s="214"/>
+      <c r="AB28" s="214"/>
+      <c r="AC28" s="214"/>
+      <c r="AD28" s="214"/>
+      <c r="AE28" s="214"/>
+      <c r="AF28" s="214"/>
+      <c r="AG28" s="214"/>
+      <c r="AH28" s="214"/>
+      <c r="AI28" s="214"/>
+      <c r="AJ28" s="214"/>
+      <c r="AK28" s="214"/>
+      <c r="AL28" s="214"/>
+      <c r="AM28" s="214"/>
+      <c r="AN28" s="214"/>
+      <c r="AO28" s="214"/>
+      <c r="AP28" s="214"/>
+      <c r="AQ28" s="214"/>
+      <c r="AR28" s="214"/>
+      <c r="AS28" s="214"/>
+      <c r="AT28" s="214"/>
+      <c r="AU28" s="214"/>
+      <c r="AV28" s="214"/>
+      <c r="AW28" s="214"/>
+      <c r="AX28" s="214"/>
+      <c r="AY28" s="214"/>
+      <c r="AZ28" s="214"/>
+      <c r="BA28" s="214"/>
+      <c r="BB28" s="214"/>
+      <c r="BC28" s="214"/>
+      <c r="BD28" s="214"/>
+      <c r="BE28" s="214"/>
+      <c r="BF28" s="214"/>
+      <c r="BG28" s="214"/>
+      <c r="BH28" s="214"/>
+      <c r="BI28" s="214"/>
+      <c r="BJ28" s="214"/>
+      <c r="BK28" s="214"/>
+      <c r="BL28" s="214"/>
+      <c r="BM28" s="214"/>
+      <c r="BN28" s="214"/>
+      <c r="BO28" s="214"/>
+      <c r="BP28" s="214"/>
+      <c r="BQ28" s="214"/>
+      <c r="BR28" s="214"/>
+      <c r="BS28" s="214"/>
+      <c r="BT28" s="214"/>
+      <c r="BU28" s="214"/>
+      <c r="BV28" s="214"/>
+      <c r="BW28" s="214"/>
+      <c r="BX28" s="214"/>
+      <c r="BY28" s="214"/>
+      <c r="BZ28" s="214"/>
+      <c r="CA28" s="214"/>
+      <c r="CB28" s="214"/>
+      <c r="CC28" s="214"/>
+      <c r="CD28" s="214"/>
+      <c r="CE28" s="214"/>
+      <c r="CF28" s="214"/>
+      <c r="CG28" s="214"/>
+      <c r="CH28" s="214"/>
+      <c r="CI28" s="214"/>
+      <c r="CJ28" s="214"/>
+      <c r="CK28" s="214"/>
+      <c r="CL28" s="214"/>
+      <c r="CM28" s="214"/>
+      <c r="CN28" s="214"/>
+      <c r="CO28" s="214"/>
+      <c r="CP28" s="214"/>
+      <c r="CQ28" s="214"/>
+      <c r="CR28" s="214"/>
+      <c r="CS28" s="214"/>
+      <c r="CT28" s="214"/>
+      <c r="CU28" s="214"/>
+      <c r="CV28" s="214"/>
+      <c r="CW28" s="214"/>
+      <c r="CX28" s="214"/>
+      <c r="CY28" s="214"/>
+      <c r="CZ28" s="214"/>
+      <c r="DA28" s="214"/>
+      <c r="DB28" s="214"/>
+      <c r="DC28" s="214"/>
+      <c r="DD28" s="214"/>
+      <c r="DE28" s="214"/>
+      <c r="DF28" s="214"/>
+      <c r="DG28" s="214"/>
+      <c r="DH28" s="214"/>
+      <c r="DI28" s="214"/>
+      <c r="DJ28" s="214"/>
+      <c r="DK28" s="214"/>
+      <c r="DL28" s="214"/>
+      <c r="DM28" s="214"/>
+      <c r="DN28" s="214"/>
+      <c r="DO28" s="214"/>
+      <c r="DP28" s="214"/>
+      <c r="DQ28" s="214"/>
+      <c r="DR28" s="214"/>
+      <c r="DS28" s="214"/>
+      <c r="DT28" s="214"/>
+      <c r="DU28" s="214"/>
+      <c r="DV28" s="214"/>
+      <c r="DW28" s="214"/>
+      <c r="DX28" s="214"/>
+      <c r="DY28" s="214"/>
+      <c r="DZ28" s="214"/>
+      <c r="EA28" s="214"/>
+      <c r="EB28" s="214"/>
+      <c r="EC28" s="214"/>
+      <c r="ED28" s="214"/>
+      <c r="EE28" s="214"/>
+      <c r="EF28" s="214"/>
+      <c r="EG28" s="214"/>
+      <c r="EH28" s="214"/>
+      <c r="EI28" s="214"/>
+      <c r="EJ28" s="214"/>
+      <c r="EK28" s="214"/>
+      <c r="EL28" s="214"/>
+      <c r="EM28" s="214"/>
+      <c r="EN28" s="214"/>
+      <c r="EO28" s="214"/>
+      <c r="EP28" s="214"/>
+      <c r="EQ28" s="214"/>
+      <c r="ER28" s="214"/>
+      <c r="ES28" s="214"/>
+      <c r="ET28" s="214"/>
+      <c r="EU28" s="214"/>
+      <c r="EV28" s="214"/>
+      <c r="EW28" s="214"/>
+      <c r="EX28" s="214"/>
+      <c r="EY28" s="214"/>
+      <c r="EZ28" s="214"/>
+      <c r="FA28" s="214"/>
+      <c r="FB28" s="214"/>
+      <c r="FC28" s="214"/>
+      <c r="FD28" s="214"/>
+      <c r="FE28" s="214"/>
+      <c r="FF28" s="214"/>
+      <c r="FG28" s="214"/>
+      <c r="FH28" s="214"/>
+      <c r="FI28" s="214"/>
+      <c r="FJ28" s="214"/>
+      <c r="FK28" s="214"/>
+      <c r="FL28" s="214"/>
+      <c r="FM28" s="214"/>
+      <c r="FN28" s="214"/>
+      <c r="FO28" s="214"/>
+      <c r="FP28" s="214"/>
+      <c r="FQ28" s="214"/>
+      <c r="FR28" s="214"/>
+      <c r="FS28" s="214"/>
+      <c r="FT28" s="214"/>
+      <c r="FU28" s="214"/>
+      <c r="FV28" s="214"/>
+      <c r="FW28" s="214"/>
+      <c r="FX28" s="214"/>
+      <c r="FY28" s="214"/>
+      <c r="FZ28" s="214"/>
+      <c r="GA28" s="214"/>
+      <c r="GB28" s="214"/>
+      <c r="GC28" s="214"/>
+      <c r="GD28" s="214"/>
+      <c r="GE28" s="214"/>
+      <c r="GF28" s="214"/>
+      <c r="GG28" s="214"/>
+      <c r="GH28" s="214"/>
+      <c r="GI28" s="214"/>
+      <c r="GJ28" s="214"/>
+      <c r="GK28" s="214"/>
+      <c r="GL28" s="214"/>
       <c r="GM28" s="100"/>
     </row>
     <row r="29" spans="1:195" ht="18">
-      <c r="B29" s="236"/>
-      <c r="C29" s="236"/>
-      <c r="D29" s="236"/>
-      <c r="E29" s="236"/>
-      <c r="F29" s="236"/>
-      <c r="G29" s="236"/>
-      <c r="H29" s="236"/>
-      <c r="I29" s="236"/>
-      <c r="J29" s="236"/>
-      <c r="K29" s="236"/>
-      <c r="L29" s="236"/>
-      <c r="M29" s="236"/>
-      <c r="N29" s="236"/>
-      <c r="O29" s="236"/>
-      <c r="P29" s="236"/>
-      <c r="Q29" s="236"/>
-      <c r="R29" s="236"/>
+      <c r="B29" s="215"/>
+      <c r="C29" s="215"/>
+      <c r="D29" s="215"/>
+      <c r="E29" s="215"/>
+      <c r="F29" s="215"/>
+      <c r="G29" s="215"/>
+      <c r="H29" s="215"/>
+      <c r="I29" s="215"/>
+      <c r="J29" s="215"/>
+      <c r="K29" s="215"/>
+      <c r="L29" s="215"/>
+      <c r="M29" s="215"/>
+      <c r="N29" s="215"/>
+      <c r="O29" s="215"/>
+      <c r="P29" s="215"/>
+      <c r="Q29" s="215"/>
+      <c r="R29" s="215"/>
     </row>
     <row r="30" spans="1:195" ht="13.5" customHeight="1">
-      <c r="A30" s="239"/>
-      <c r="B30" s="239"/>
-      <c r="C30" s="239"/>
-      <c r="D30" s="239"/>
-      <c r="E30" s="239"/>
-      <c r="F30" s="239"/>
-      <c r="G30" s="239"/>
-      <c r="H30" s="239"/>
-      <c r="I30" s="239"/>
-      <c r="J30" s="239"/>
+      <c r="A30" s="213"/>
+      <c r="B30" s="213"/>
+      <c r="C30" s="213"/>
+      <c r="D30" s="213"/>
+      <c r="E30" s="213"/>
+      <c r="F30" s="213"/>
+      <c r="G30" s="213"/>
+      <c r="H30" s="213"/>
+      <c r="I30" s="213"/>
+      <c r="J30" s="213"/>
       <c r="K30" s="101"/>
       <c r="L30" s="101"/>
       <c r="M30" s="101"/>
@@ -8441,16 +8480,16 @@
       <c r="R30" s="101"/>
     </row>
     <row r="31" spans="1:195" ht="13.5" customHeight="1">
-      <c r="A31" s="239"/>
-      <c r="B31" s="239"/>
-      <c r="C31" s="239"/>
-      <c r="D31" s="239"/>
-      <c r="E31" s="239"/>
-      <c r="F31" s="239"/>
-      <c r="G31" s="239"/>
-      <c r="H31" s="239"/>
-      <c r="I31" s="239"/>
-      <c r="J31" s="239"/>
+      <c r="A31" s="213"/>
+      <c r="B31" s="213"/>
+      <c r="C31" s="213"/>
+      <c r="D31" s="213"/>
+      <c r="E31" s="213"/>
+      <c r="F31" s="213"/>
+      <c r="G31" s="213"/>
+      <c r="H31" s="213"/>
+      <c r="I31" s="213"/>
+      <c r="J31" s="213"/>
       <c r="K31" s="101"/>
       <c r="L31" s="101"/>
       <c r="M31" s="101"/>
@@ -8462,28 +8501,6 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="A30:J30"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="DF28:DV28"/>
-    <mergeCell ref="DW28:EM28"/>
-    <mergeCell ref="EN28:FD28"/>
-    <mergeCell ref="B26:R26"/>
-    <mergeCell ref="FE28:FU28"/>
-    <mergeCell ref="FV28:GL28"/>
-    <mergeCell ref="B29:R29"/>
-    <mergeCell ref="S28:X28"/>
-    <mergeCell ref="Y28:AO28"/>
-    <mergeCell ref="AP28:BF28"/>
-    <mergeCell ref="BG28:BW28"/>
-    <mergeCell ref="BX28:CN28"/>
-    <mergeCell ref="CO28:DE28"/>
-    <mergeCell ref="B28:R28"/>
-    <mergeCell ref="B18:R18"/>
-    <mergeCell ref="B20:R20"/>
-    <mergeCell ref="B21:R21"/>
-    <mergeCell ref="B22:R22"/>
-    <mergeCell ref="B23:R23"/>
-    <mergeCell ref="B19:R19"/>
     <mergeCell ref="B14:R14"/>
     <mergeCell ref="B15:R15"/>
     <mergeCell ref="A16:J16"/>
@@ -8497,6 +8514,28 @@
     <mergeCell ref="C1:F3"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="I2:J2"/>
+    <mergeCell ref="B18:R18"/>
+    <mergeCell ref="B20:R20"/>
+    <mergeCell ref="B21:R21"/>
+    <mergeCell ref="B22:R22"/>
+    <mergeCell ref="B23:R23"/>
+    <mergeCell ref="B19:R19"/>
+    <mergeCell ref="B26:R26"/>
+    <mergeCell ref="FE28:FU28"/>
+    <mergeCell ref="FV28:GL28"/>
+    <mergeCell ref="B29:R29"/>
+    <mergeCell ref="S28:X28"/>
+    <mergeCell ref="Y28:AO28"/>
+    <mergeCell ref="AP28:BF28"/>
+    <mergeCell ref="BG28:BW28"/>
+    <mergeCell ref="BX28:CN28"/>
+    <mergeCell ref="CO28:DE28"/>
+    <mergeCell ref="B28:R28"/>
+    <mergeCell ref="A30:J30"/>
+    <mergeCell ref="A31:J31"/>
+    <mergeCell ref="DF28:DV28"/>
+    <mergeCell ref="DW28:EM28"/>
+    <mergeCell ref="EN28:FD28"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.196850393700787" right="0.196850393700787" top="0.39370078740157499" bottom="0" header="0" footer="0"/>
@@ -8523,14 +8562,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="14.25">
-      <c r="B1" s="327" t="s">
+      <c r="B1" s="322" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="327"/>
-      <c r="D1" s="327"/>
-      <c r="E1" s="327"/>
-      <c r="F1" s="327"/>
-      <c r="G1" s="327"/>
+      <c r="C1" s="322"/>
+      <c r="D1" s="322"/>
+      <c r="E1" s="322"/>
+      <c r="F1" s="322"/>
+      <c r="G1" s="322"/>
     </row>
     <row r="2" spans="2:7" s="17" customFormat="1">
       <c r="B2" s="16"/>
@@ -8723,11 +8762,11 @@
       </c>
     </row>
     <row r="27" spans="2:7" ht="200.25" customHeight="1">
-      <c r="E27" s="328" t="s">
+      <c r="E27" s="323" t="s">
         <v>37</v>
       </c>
-      <c r="F27" s="329"/>
-      <c r="G27" s="330"/>
+      <c r="F27" s="324"/>
+      <c r="G27" s="325"/>
     </row>
     <row r="29" spans="2:7">
       <c r="B29" s="19" t="s">
@@ -9035,7 +9074,7 @@
   <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10:J10"/>
+      <selection activeCell="E12" sqref="E12:J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -9051,10 +9090,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="240" t="s">
+      <c r="A1" s="251" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="240"/>
+      <c r="B1" s="251"/>
       <c r="C1" s="30" t="s">
         <v>1</v>
       </c>
@@ -9081,8 +9120,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="240"/>
-      <c r="B2" s="240"/>
+      <c r="A2" s="251"/>
+      <c r="B2" s="251"/>
       <c r="C2" s="30" t="s">
         <v>2</v>
       </c>
@@ -9121,14 +9160,14 @@
       <c r="D4" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="241" t="s">
+      <c r="E4" s="252" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="241"/>
-      <c r="G4" s="241"/>
-      <c r="H4" s="241"/>
-      <c r="I4" s="241"/>
-      <c r="J4" s="241"/>
+      <c r="F4" s="252"/>
+      <c r="G4" s="252"/>
+      <c r="H4" s="252"/>
+      <c r="I4" s="252"/>
+      <c r="J4" s="252"/>
     </row>
     <row r="5" spans="1:10" s="25" customFormat="1" ht="47.25" customHeight="1">
       <c r="A5" s="108">
@@ -9143,14 +9182,14 @@
       <c r="D5" s="34">
         <v>42821</v>
       </c>
-      <c r="E5" s="242" t="s">
+      <c r="E5" s="253" t="s">
         <v>157</v>
       </c>
-      <c r="F5" s="242"/>
-      <c r="G5" s="242"/>
-      <c r="H5" s="242"/>
-      <c r="I5" s="242"/>
-      <c r="J5" s="242"/>
+      <c r="F5" s="253"/>
+      <c r="G5" s="253"/>
+      <c r="H5" s="253"/>
+      <c r="I5" s="253"/>
+      <c r="J5" s="253"/>
     </row>
     <row r="6" spans="1:10" ht="12.75">
       <c r="A6" s="72">
@@ -9165,14 +9204,14 @@
       <c r="D6" s="148">
         <v>42877</v>
       </c>
-      <c r="E6" s="243" t="s">
+      <c r="E6" s="254" t="s">
         <v>337</v>
       </c>
-      <c r="F6" s="244"/>
-      <c r="G6" s="244"/>
-      <c r="H6" s="244"/>
-      <c r="I6" s="244"/>
-      <c r="J6" s="245"/>
+      <c r="F6" s="255"/>
+      <c r="G6" s="255"/>
+      <c r="H6" s="255"/>
+      <c r="I6" s="255"/>
+      <c r="J6" s="256"/>
     </row>
     <row r="7" spans="1:10" ht="12" customHeight="1">
       <c r="A7" s="73">
@@ -9187,14 +9226,14 @@
       <c r="D7" s="150">
         <v>42879</v>
       </c>
-      <c r="E7" s="247" t="s">
+      <c r="E7" s="239" t="s">
         <v>339</v>
       </c>
-      <c r="F7" s="248"/>
-      <c r="G7" s="248"/>
-      <c r="H7" s="248"/>
-      <c r="I7" s="248"/>
-      <c r="J7" s="249"/>
+      <c r="F7" s="240"/>
+      <c r="G7" s="240"/>
+      <c r="H7" s="240"/>
+      <c r="I7" s="240"/>
+      <c r="J7" s="241"/>
     </row>
     <row r="8" spans="1:10" ht="12" customHeight="1">
       <c r="A8" s="74">
@@ -9209,14 +9248,14 @@
       <c r="D8" s="163">
         <v>42983</v>
       </c>
-      <c r="E8" s="250" t="s">
+      <c r="E8" s="242" t="s">
         <v>348</v>
       </c>
-      <c r="F8" s="251"/>
-      <c r="G8" s="251"/>
-      <c r="H8" s="251"/>
-      <c r="I8" s="251"/>
-      <c r="J8" s="252"/>
+      <c r="F8" s="243"/>
+      <c r="G8" s="243"/>
+      <c r="H8" s="243"/>
+      <c r="I8" s="243"/>
+      <c r="J8" s="244"/>
     </row>
     <row r="9" spans="1:10" ht="52.5" customHeight="1">
       <c r="A9" s="75">
@@ -9231,14 +9270,14 @@
       <c r="D9" s="168" t="s">
         <v>353</v>
       </c>
-      <c r="E9" s="253" t="s">
-        <v>446</v>
-      </c>
-      <c r="F9" s="254"/>
-      <c r="G9" s="254"/>
-      <c r="H9" s="254"/>
-      <c r="I9" s="254"/>
-      <c r="J9" s="255"/>
+      <c r="E9" s="245" t="s">
+        <v>445</v>
+      </c>
+      <c r="F9" s="246"/>
+      <c r="G9" s="246"/>
+      <c r="H9" s="246"/>
+      <c r="I9" s="246"/>
+      <c r="J9" s="247"/>
     </row>
     <row r="10" spans="1:10" s="210" customFormat="1" ht="27" customHeight="1">
       <c r="A10" s="76">
@@ -9251,30 +9290,34 @@
         <v>352</v>
       </c>
       <c r="D10" s="209"/>
-      <c r="E10" s="256" t="s">
-        <v>445</v>
-      </c>
-      <c r="F10" s="257"/>
-      <c r="G10" s="257"/>
-      <c r="H10" s="257"/>
-      <c r="I10" s="257"/>
-      <c r="J10" s="258"/>
-    </row>
-    <row r="11" spans="1:10" ht="12" customHeight="1">
+      <c r="E10" s="248" t="s">
+        <v>446</v>
+      </c>
+      <c r="F10" s="249"/>
+      <c r="G10" s="249"/>
+      <c r="H10" s="249"/>
+      <c r="I10" s="249"/>
+      <c r="J10" s="250"/>
+    </row>
+    <row r="11" spans="1:10" s="331" customFormat="1" ht="30" customHeight="1">
       <c r="A11" s="77">
         <v>7</v>
       </c>
-      <c r="B11" s="37">
+      <c r="B11" s="326">
         <v>7</v>
       </c>
-      <c r="C11" s="66"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="259"/>
-      <c r="F11" s="260"/>
-      <c r="G11" s="260"/>
-      <c r="H11" s="260"/>
-      <c r="I11" s="260"/>
-      <c r="J11" s="261"/>
+      <c r="C11" s="327" t="s">
+        <v>352</v>
+      </c>
+      <c r="D11" s="328"/>
+      <c r="E11" s="332" t="s">
+        <v>447</v>
+      </c>
+      <c r="F11" s="329"/>
+      <c r="G11" s="329"/>
+      <c r="H11" s="329"/>
+      <c r="I11" s="329"/>
+      <c r="J11" s="330"/>
     </row>
     <row r="12" spans="1:10" ht="12" customHeight="1">
       <c r="A12" s="78">
@@ -9285,12 +9328,12 @@
       </c>
       <c r="C12" s="66"/>
       <c r="D12" s="36"/>
-      <c r="E12" s="259"/>
-      <c r="F12" s="260"/>
-      <c r="G12" s="260"/>
-      <c r="H12" s="260"/>
-      <c r="I12" s="260"/>
-      <c r="J12" s="261"/>
+      <c r="E12" s="236"/>
+      <c r="F12" s="237"/>
+      <c r="G12" s="237"/>
+      <c r="H12" s="237"/>
+      <c r="I12" s="237"/>
+      <c r="J12" s="238"/>
     </row>
     <row r="13" spans="1:10" ht="12" customHeight="1">
       <c r="A13" s="79">
@@ -9301,12 +9344,12 @@
       </c>
       <c r="C13" s="66"/>
       <c r="D13" s="36"/>
-      <c r="E13" s="259"/>
-      <c r="F13" s="260"/>
-      <c r="G13" s="260"/>
-      <c r="H13" s="260"/>
-      <c r="I13" s="260"/>
-      <c r="J13" s="261"/>
+      <c r="E13" s="236"/>
+      <c r="F13" s="237"/>
+      <c r="G13" s="237"/>
+      <c r="H13" s="237"/>
+      <c r="I13" s="237"/>
+      <c r="J13" s="238"/>
     </row>
     <row r="14" spans="1:10" ht="12" customHeight="1">
       <c r="A14" s="80">
@@ -9317,12 +9360,12 @@
       </c>
       <c r="C14" s="66"/>
       <c r="D14" s="36"/>
-      <c r="E14" s="259"/>
-      <c r="F14" s="260"/>
-      <c r="G14" s="260"/>
-      <c r="H14" s="260"/>
-      <c r="I14" s="260"/>
-      <c r="J14" s="261"/>
+      <c r="E14" s="236"/>
+      <c r="F14" s="237"/>
+      <c r="G14" s="237"/>
+      <c r="H14" s="237"/>
+      <c r="I14" s="237"/>
+      <c r="J14" s="238"/>
     </row>
     <row r="15" spans="1:10" ht="12" customHeight="1">
       <c r="A15" s="36">
@@ -9333,12 +9376,12 @@
       </c>
       <c r="C15" s="66"/>
       <c r="D15" s="36"/>
-      <c r="E15" s="246"/>
-      <c r="F15" s="246"/>
-      <c r="G15" s="246"/>
-      <c r="H15" s="246"/>
-      <c r="I15" s="246"/>
-      <c r="J15" s="246"/>
+      <c r="E15" s="235"/>
+      <c r="F15" s="235"/>
+      <c r="G15" s="235"/>
+      <c r="H15" s="235"/>
+      <c r="I15" s="235"/>
+      <c r="J15" s="235"/>
     </row>
     <row r="16" spans="1:10" ht="12" customHeight="1">
       <c r="A16" s="72">
@@ -9349,12 +9392,12 @@
       </c>
       <c r="C16" s="66"/>
       <c r="D16" s="36"/>
-      <c r="E16" s="246"/>
-      <c r="F16" s="246"/>
-      <c r="G16" s="246"/>
-      <c r="H16" s="246"/>
-      <c r="I16" s="246"/>
-      <c r="J16" s="246"/>
+      <c r="E16" s="235"/>
+      <c r="F16" s="235"/>
+      <c r="G16" s="235"/>
+      <c r="H16" s="235"/>
+      <c r="I16" s="235"/>
+      <c r="J16" s="235"/>
     </row>
     <row r="17" spans="1:10" ht="12" customHeight="1">
       <c r="A17" s="73">
@@ -9365,12 +9408,12 @@
       </c>
       <c r="C17" s="66"/>
       <c r="D17" s="36"/>
-      <c r="E17" s="246"/>
-      <c r="F17" s="246"/>
-      <c r="G17" s="246"/>
-      <c r="H17" s="246"/>
-      <c r="I17" s="246"/>
-      <c r="J17" s="246"/>
+      <c r="E17" s="235"/>
+      <c r="F17" s="235"/>
+      <c r="G17" s="235"/>
+      <c r="H17" s="235"/>
+      <c r="I17" s="235"/>
+      <c r="J17" s="235"/>
     </row>
     <row r="18" spans="1:10" ht="12" customHeight="1">
       <c r="A18" s="74">
@@ -9381,12 +9424,12 @@
       </c>
       <c r="C18" s="66"/>
       <c r="D18" s="36"/>
-      <c r="E18" s="246"/>
-      <c r="F18" s="246"/>
-      <c r="G18" s="246"/>
-      <c r="H18" s="246"/>
-      <c r="I18" s="246"/>
-      <c r="J18" s="246"/>
+      <c r="E18" s="235"/>
+      <c r="F18" s="235"/>
+      <c r="G18" s="235"/>
+      <c r="H18" s="235"/>
+      <c r="I18" s="235"/>
+      <c r="J18" s="235"/>
     </row>
     <row r="19" spans="1:10" ht="12" customHeight="1">
       <c r="A19" s="75">
@@ -9397,12 +9440,12 @@
       </c>
       <c r="C19" s="66"/>
       <c r="D19" s="36"/>
-      <c r="E19" s="246"/>
-      <c r="F19" s="246"/>
-      <c r="G19" s="246"/>
-      <c r="H19" s="246"/>
-      <c r="I19" s="246"/>
-      <c r="J19" s="246"/>
+      <c r="E19" s="235"/>
+      <c r="F19" s="235"/>
+      <c r="G19" s="235"/>
+      <c r="H19" s="235"/>
+      <c r="I19" s="235"/>
+      <c r="J19" s="235"/>
     </row>
     <row r="20" spans="1:10" ht="12" customHeight="1">
       <c r="A20" s="76">
@@ -9413,12 +9456,12 @@
       </c>
       <c r="C20" s="66"/>
       <c r="D20" s="36"/>
-      <c r="E20" s="246"/>
-      <c r="F20" s="246"/>
-      <c r="G20" s="246"/>
-      <c r="H20" s="246"/>
-      <c r="I20" s="246"/>
-      <c r="J20" s="246"/>
+      <c r="E20" s="235"/>
+      <c r="F20" s="235"/>
+      <c r="G20" s="235"/>
+      <c r="H20" s="235"/>
+      <c r="I20" s="235"/>
+      <c r="J20" s="235"/>
     </row>
     <row r="21" spans="1:10" ht="12" customHeight="1">
       <c r="A21" s="77">
@@ -9429,12 +9472,12 @@
       </c>
       <c r="C21" s="66"/>
       <c r="D21" s="36"/>
-      <c r="E21" s="246"/>
-      <c r="F21" s="246"/>
-      <c r="G21" s="246"/>
-      <c r="H21" s="246"/>
-      <c r="I21" s="246"/>
-      <c r="J21" s="246"/>
+      <c r="E21" s="235"/>
+      <c r="F21" s="235"/>
+      <c r="G21" s="235"/>
+      <c r="H21" s="235"/>
+      <c r="I21" s="235"/>
+      <c r="J21" s="235"/>
     </row>
     <row r="22" spans="1:10" ht="12" customHeight="1">
       <c r="A22" s="78">
@@ -9445,12 +9488,12 @@
       </c>
       <c r="C22" s="66"/>
       <c r="D22" s="36"/>
-      <c r="E22" s="246"/>
-      <c r="F22" s="246"/>
-      <c r="G22" s="246"/>
-      <c r="H22" s="246"/>
-      <c r="I22" s="246"/>
-      <c r="J22" s="246"/>
+      <c r="E22" s="235"/>
+      <c r="F22" s="235"/>
+      <c r="G22" s="235"/>
+      <c r="H22" s="235"/>
+      <c r="I22" s="235"/>
+      <c r="J22" s="235"/>
     </row>
     <row r="23" spans="1:10" ht="12" customHeight="1">
       <c r="A23" s="79">
@@ -9461,12 +9504,12 @@
       </c>
       <c r="C23" s="66"/>
       <c r="D23" s="36"/>
-      <c r="E23" s="246"/>
-      <c r="F23" s="246"/>
-      <c r="G23" s="246"/>
-      <c r="H23" s="246"/>
-      <c r="I23" s="246"/>
-      <c r="J23" s="246"/>
+      <c r="E23" s="235"/>
+      <c r="F23" s="235"/>
+      <c r="G23" s="235"/>
+      <c r="H23" s="235"/>
+      <c r="I23" s="235"/>
+      <c r="J23" s="235"/>
     </row>
     <row r="24" spans="1:10" ht="12" customHeight="1">
       <c r="A24" s="80">
@@ -9477,12 +9520,12 @@
       </c>
       <c r="C24" s="66"/>
       <c r="D24" s="36"/>
-      <c r="E24" s="246"/>
-      <c r="F24" s="246"/>
-      <c r="G24" s="246"/>
-      <c r="H24" s="246"/>
-      <c r="I24" s="246"/>
-      <c r="J24" s="246"/>
+      <c r="E24" s="235"/>
+      <c r="F24" s="235"/>
+      <c r="G24" s="235"/>
+      <c r="H24" s="235"/>
+      <c r="I24" s="235"/>
+      <c r="J24" s="235"/>
     </row>
     <row r="25" spans="1:10" ht="12" customHeight="1">
       <c r="A25" s="36">
@@ -9493,12 +9536,12 @@
       </c>
       <c r="C25" s="66"/>
       <c r="D25" s="36"/>
-      <c r="E25" s="246"/>
-      <c r="F25" s="246"/>
-      <c r="G25" s="246"/>
-      <c r="H25" s="246"/>
-      <c r="I25" s="246"/>
-      <c r="J25" s="246"/>
+      <c r="E25" s="235"/>
+      <c r="F25" s="235"/>
+      <c r="G25" s="235"/>
+      <c r="H25" s="235"/>
+      <c r="I25" s="235"/>
+      <c r="J25" s="235"/>
     </row>
     <row r="26" spans="1:10" ht="12" customHeight="1">
       <c r="A26" s="72">
@@ -9509,12 +9552,12 @@
       </c>
       <c r="C26" s="66"/>
       <c r="D26" s="36"/>
-      <c r="E26" s="246"/>
-      <c r="F26" s="246"/>
-      <c r="G26" s="246"/>
-      <c r="H26" s="246"/>
-      <c r="I26" s="246"/>
-      <c r="J26" s="246"/>
+      <c r="E26" s="235"/>
+      <c r="F26" s="235"/>
+      <c r="G26" s="235"/>
+      <c r="H26" s="235"/>
+      <c r="I26" s="235"/>
+      <c r="J26" s="235"/>
     </row>
     <row r="27" spans="1:10" ht="12" customHeight="1">
       <c r="A27" s="73">
@@ -9525,12 +9568,12 @@
       </c>
       <c r="C27" s="66"/>
       <c r="D27" s="36"/>
-      <c r="E27" s="246"/>
-      <c r="F27" s="246"/>
-      <c r="G27" s="246"/>
-      <c r="H27" s="246"/>
-      <c r="I27" s="246"/>
-      <c r="J27" s="246"/>
+      <c r="E27" s="235"/>
+      <c r="F27" s="235"/>
+      <c r="G27" s="235"/>
+      <c r="H27" s="235"/>
+      <c r="I27" s="235"/>
+      <c r="J27" s="235"/>
     </row>
     <row r="28" spans="1:10" ht="12" customHeight="1">
       <c r="A28" s="74">
@@ -9541,12 +9584,12 @@
       </c>
       <c r="C28" s="66"/>
       <c r="D28" s="36"/>
-      <c r="E28" s="246"/>
-      <c r="F28" s="246"/>
-      <c r="G28" s="246"/>
-      <c r="H28" s="246"/>
-      <c r="I28" s="246"/>
-      <c r="J28" s="246"/>
+      <c r="E28" s="235"/>
+      <c r="F28" s="235"/>
+      <c r="G28" s="235"/>
+      <c r="H28" s="235"/>
+      <c r="I28" s="235"/>
+      <c r="J28" s="235"/>
     </row>
     <row r="29" spans="1:10" ht="12" customHeight="1">
       <c r="A29" s="75">
@@ -9557,12 +9600,12 @@
       </c>
       <c r="C29" s="66"/>
       <c r="D29" s="36"/>
-      <c r="E29" s="246"/>
-      <c r="F29" s="246"/>
-      <c r="G29" s="246"/>
-      <c r="H29" s="246"/>
-      <c r="I29" s="246"/>
-      <c r="J29" s="246"/>
+      <c r="E29" s="235"/>
+      <c r="F29" s="235"/>
+      <c r="G29" s="235"/>
+      <c r="H29" s="235"/>
+      <c r="I29" s="235"/>
+      <c r="J29" s="235"/>
     </row>
     <row r="30" spans="1:10" ht="12" customHeight="1">
       <c r="A30" s="76">
@@ -9573,12 +9616,12 @@
       </c>
       <c r="C30" s="66"/>
       <c r="D30" s="36"/>
-      <c r="E30" s="246"/>
-      <c r="F30" s="246"/>
-      <c r="G30" s="246"/>
-      <c r="H30" s="246"/>
-      <c r="I30" s="246"/>
-      <c r="J30" s="246"/>
+      <c r="E30" s="235"/>
+      <c r="F30" s="235"/>
+      <c r="G30" s="235"/>
+      <c r="H30" s="235"/>
+      <c r="I30" s="235"/>
+      <c r="J30" s="235"/>
     </row>
     <row r="31" spans="1:10" ht="12" customHeight="1">
       <c r="A31" s="77">
@@ -9589,12 +9632,12 @@
       </c>
       <c r="C31" s="66"/>
       <c r="D31" s="36"/>
-      <c r="E31" s="246"/>
-      <c r="F31" s="246"/>
-      <c r="G31" s="246"/>
-      <c r="H31" s="246"/>
-      <c r="I31" s="246"/>
-      <c r="J31" s="246"/>
+      <c r="E31" s="235"/>
+      <c r="F31" s="235"/>
+      <c r="G31" s="235"/>
+      <c r="H31" s="235"/>
+      <c r="I31" s="235"/>
+      <c r="J31" s="235"/>
     </row>
     <row r="32" spans="1:10" ht="12" customHeight="1">
       <c r="A32" s="78">
@@ -9605,12 +9648,12 @@
       </c>
       <c r="C32" s="66"/>
       <c r="D32" s="36"/>
-      <c r="E32" s="246"/>
-      <c r="F32" s="246"/>
-      <c r="G32" s="246"/>
-      <c r="H32" s="246"/>
-      <c r="I32" s="246"/>
-      <c r="J32" s="246"/>
+      <c r="E32" s="235"/>
+      <c r="F32" s="235"/>
+      <c r="G32" s="235"/>
+      <c r="H32" s="235"/>
+      <c r="I32" s="235"/>
+      <c r="J32" s="235"/>
     </row>
     <row r="33" spans="1:10" ht="12" customHeight="1">
       <c r="A33" s="79">
@@ -9621,12 +9664,12 @@
       </c>
       <c r="C33" s="66"/>
       <c r="D33" s="36"/>
-      <c r="E33" s="246"/>
-      <c r="F33" s="246"/>
-      <c r="G33" s="246"/>
-      <c r="H33" s="246"/>
-      <c r="I33" s="246"/>
-      <c r="J33" s="246"/>
+      <c r="E33" s="235"/>
+      <c r="F33" s="235"/>
+      <c r="G33" s="235"/>
+      <c r="H33" s="235"/>
+      <c r="I33" s="235"/>
+      <c r="J33" s="235"/>
     </row>
     <row r="34" spans="1:10" ht="12" customHeight="1">
       <c r="A34" s="80">
@@ -9637,20 +9680,26 @@
       </c>
       <c r="C34" s="66"/>
       <c r="D34" s="36"/>
-      <c r="E34" s="246"/>
-      <c r="F34" s="246"/>
-      <c r="G34" s="246"/>
-      <c r="H34" s="246"/>
-      <c r="I34" s="246"/>
-      <c r="J34" s="246"/>
+      <c r="E34" s="235"/>
+      <c r="F34" s="235"/>
+      <c r="G34" s="235"/>
+      <c r="H34" s="235"/>
+      <c r="I34" s="235"/>
+      <c r="J34" s="235"/>
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="E26:J26"/>
-    <mergeCell ref="E27:J27"/>
-    <mergeCell ref="E28:J28"/>
-    <mergeCell ref="E29:J29"/>
-    <mergeCell ref="E30:J30"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="E4:J4"/>
+    <mergeCell ref="E5:J5"/>
+    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="E23:J23"/>
+    <mergeCell ref="E24:J24"/>
+    <mergeCell ref="E7:J7"/>
+    <mergeCell ref="E8:J8"/>
+    <mergeCell ref="E9:J9"/>
+    <mergeCell ref="E10:J10"/>
     <mergeCell ref="E31:J31"/>
     <mergeCell ref="E32:J32"/>
     <mergeCell ref="E33:J33"/>
@@ -9667,17 +9716,11 @@
     <mergeCell ref="E20:J20"/>
     <mergeCell ref="E13:J13"/>
     <mergeCell ref="E21:J21"/>
-    <mergeCell ref="E23:J23"/>
-    <mergeCell ref="E24:J24"/>
-    <mergeCell ref="E7:J7"/>
-    <mergeCell ref="E8:J8"/>
-    <mergeCell ref="E9:J9"/>
-    <mergeCell ref="E10:J10"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="E4:J4"/>
-    <mergeCell ref="E5:J5"/>
-    <mergeCell ref="E6:J6"/>
-    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="E26:J26"/>
+    <mergeCell ref="E27:J27"/>
+    <mergeCell ref="E28:J28"/>
+    <mergeCell ref="E29:J29"/>
+    <mergeCell ref="E30:J30"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1">
@@ -9722,10 +9765,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="240" t="s">
+      <c r="A1" s="251" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="240"/>
+      <c r="B1" s="251"/>
       <c r="C1" s="30" t="s">
         <v>1</v>
       </c>
@@ -9756,8 +9799,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="240"/>
-      <c r="B2" s="240"/>
+      <c r="A2" s="251"/>
+      <c r="B2" s="251"/>
       <c r="C2" s="30" t="s">
         <v>2</v>
       </c>
@@ -9788,20 +9831,20 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="12" customHeight="1">
-      <c r="A4" s="262" t="s">
+      <c r="A4" s="257" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="264"/>
-      <c r="C4" s="264"/>
-      <c r="D4" s="264"/>
-      <c r="E4" s="264"/>
-      <c r="F4" s="264"/>
-      <c r="G4" s="264"/>
-      <c r="H4" s="263"/>
-      <c r="I4" s="262" t="s">
+      <c r="B4" s="259"/>
+      <c r="C4" s="259"/>
+      <c r="D4" s="259"/>
+      <c r="E4" s="259"/>
+      <c r="F4" s="259"/>
+      <c r="G4" s="259"/>
+      <c r="H4" s="258"/>
+      <c r="I4" s="257" t="s">
         <v>38</v>
       </c>
-      <c r="J4" s="263"/>
+      <c r="J4" s="258"/>
     </row>
     <row r="5" spans="1:10" ht="12" customHeight="1">
       <c r="A5" s="38"/>
@@ -9812,10 +9855,10 @@
       <c r="F5" s="39"/>
       <c r="G5" s="39"/>
       <c r="H5" s="40"/>
-      <c r="I5" s="269" t="s">
+      <c r="I5" s="264" t="s">
         <v>226</v>
       </c>
-      <c r="J5" s="270"/>
+      <c r="J5" s="265"/>
     </row>
     <row r="6" spans="1:10" ht="12" customHeight="1">
       <c r="A6" s="38"/>
@@ -9826,8 +9869,8 @@
       <c r="F6" s="39"/>
       <c r="G6" s="39"/>
       <c r="H6" s="41"/>
-      <c r="I6" s="271"/>
-      <c r="J6" s="272"/>
+      <c r="I6" s="266"/>
+      <c r="J6" s="267"/>
     </row>
     <row r="7" spans="1:10" ht="12" customHeight="1">
       <c r="A7" s="38"/>
@@ -9838,8 +9881,8 @@
       <c r="F7" s="39"/>
       <c r="G7" s="39"/>
       <c r="H7" s="41"/>
-      <c r="I7" s="271"/>
-      <c r="J7" s="272"/>
+      <c r="I7" s="266"/>
+      <c r="J7" s="267"/>
     </row>
     <row r="8" spans="1:10" ht="12" customHeight="1">
       <c r="A8" s="38"/>
@@ -9850,8 +9893,8 @@
       <c r="F8" s="39"/>
       <c r="G8" s="39"/>
       <c r="H8" s="41"/>
-      <c r="I8" s="271"/>
-      <c r="J8" s="272"/>
+      <c r="I8" s="266"/>
+      <c r="J8" s="267"/>
     </row>
     <row r="9" spans="1:10" ht="12" customHeight="1">
       <c r="A9" s="38"/>
@@ -9862,8 +9905,8 @@
       <c r="F9" s="39"/>
       <c r="G9" s="39"/>
       <c r="H9" s="41"/>
-      <c r="I9" s="271"/>
-      <c r="J9" s="272"/>
+      <c r="I9" s="266"/>
+      <c r="J9" s="267"/>
     </row>
     <row r="10" spans="1:10" ht="12" customHeight="1">
       <c r="A10" s="38"/>
@@ -9874,8 +9917,8 @@
       <c r="F10" s="39"/>
       <c r="G10" s="39"/>
       <c r="H10" s="41"/>
-      <c r="I10" s="273"/>
-      <c r="J10" s="274"/>
+      <c r="I10" s="268"/>
+      <c r="J10" s="269"/>
     </row>
     <row r="11" spans="1:10" ht="12" customHeight="1">
       <c r="A11" s="38"/>
@@ -9886,10 +9929,10 @@
       <c r="F11" s="39"/>
       <c r="G11" s="39"/>
       <c r="H11" s="42"/>
-      <c r="I11" s="262" t="s">
+      <c r="I11" s="257" t="s">
         <v>39</v>
       </c>
-      <c r="J11" s="263"/>
+      <c r="J11" s="258"/>
     </row>
     <row r="12" spans="1:10" ht="12" customHeight="1">
       <c r="A12" s="38"/>
@@ -9900,10 +9943,10 @@
       <c r="F12" s="39"/>
       <c r="G12" s="39"/>
       <c r="H12" s="41"/>
-      <c r="I12" s="265" t="s">
+      <c r="I12" s="260" t="s">
         <v>227</v>
       </c>
-      <c r="J12" s="266"/>
+      <c r="J12" s="261"/>
     </row>
     <row r="13" spans="1:10" ht="12" customHeight="1">
       <c r="A13" s="38"/>
@@ -9914,8 +9957,8 @@
       <c r="F13" s="39"/>
       <c r="G13" s="39"/>
       <c r="H13" s="41"/>
-      <c r="I13" s="267"/>
-      <c r="J13" s="268"/>
+      <c r="I13" s="262"/>
+      <c r="J13" s="263"/>
     </row>
     <row r="14" spans="1:10" ht="12" customHeight="1">
       <c r="A14" s="38"/>
@@ -9926,8 +9969,8 @@
       <c r="F14" s="39"/>
       <c r="G14" s="39"/>
       <c r="H14" s="41"/>
-      <c r="I14" s="267"/>
-      <c r="J14" s="268"/>
+      <c r="I14" s="262"/>
+      <c r="J14" s="263"/>
     </row>
     <row r="15" spans="1:10" ht="12" customHeight="1">
       <c r="A15" s="38"/>
@@ -9938,8 +9981,8 @@
       <c r="F15" s="39"/>
       <c r="G15" s="39"/>
       <c r="H15" s="41"/>
-      <c r="I15" s="267"/>
-      <c r="J15" s="268"/>
+      <c r="I15" s="262"/>
+      <c r="J15" s="263"/>
     </row>
     <row r="16" spans="1:10" ht="12" customHeight="1">
       <c r="A16" s="38"/>
@@ -9950,8 +9993,8 @@
       <c r="F16" s="39"/>
       <c r="G16" s="39"/>
       <c r="H16" s="41"/>
-      <c r="I16" s="267"/>
-      <c r="J16" s="268"/>
+      <c r="I16" s="262"/>
+      <c r="J16" s="263"/>
     </row>
     <row r="17" spans="1:10" ht="12" customHeight="1">
       <c r="A17" s="38"/>
@@ -9962,8 +10005,8 @@
       <c r="F17" s="39"/>
       <c r="G17" s="39"/>
       <c r="H17" s="41"/>
-      <c r="I17" s="267"/>
-      <c r="J17" s="268"/>
+      <c r="I17" s="262"/>
+      <c r="J17" s="263"/>
     </row>
     <row r="18" spans="1:10" ht="12" customHeight="1">
       <c r="A18" s="38"/>
@@ -9974,8 +10017,8 @@
       <c r="F18" s="39"/>
       <c r="G18" s="39"/>
       <c r="H18" s="41"/>
-      <c r="I18" s="267"/>
-      <c r="J18" s="268"/>
+      <c r="I18" s="262"/>
+      <c r="J18" s="263"/>
     </row>
     <row r="19" spans="1:10" ht="12" customHeight="1">
       <c r="A19" s="38"/>
@@ -9986,8 +10029,8 @@
       <c r="F19" s="39"/>
       <c r="G19" s="39"/>
       <c r="H19" s="41"/>
-      <c r="I19" s="267"/>
-      <c r="J19" s="268"/>
+      <c r="I19" s="262"/>
+      <c r="J19" s="263"/>
     </row>
     <row r="20" spans="1:10" ht="12" customHeight="1">
       <c r="A20" s="38"/>
@@ -9998,8 +10041,8 @@
       <c r="F20" s="39"/>
       <c r="G20" s="39"/>
       <c r="H20" s="41"/>
-      <c r="I20" s="267"/>
-      <c r="J20" s="268"/>
+      <c r="I20" s="262"/>
+      <c r="J20" s="263"/>
     </row>
     <row r="21" spans="1:10" ht="12" customHeight="1">
       <c r="A21" s="38"/>
@@ -10010,8 +10053,8 @@
       <c r="F21" s="39"/>
       <c r="G21" s="39"/>
       <c r="H21" s="41"/>
-      <c r="I21" s="267"/>
-      <c r="J21" s="268"/>
+      <c r="I21" s="262"/>
+      <c r="J21" s="263"/>
     </row>
     <row r="22" spans="1:10" ht="12" customHeight="1">
       <c r="A22" s="38"/>
@@ -10022,8 +10065,8 @@
       <c r="F22" s="39"/>
       <c r="G22" s="39"/>
       <c r="H22" s="41"/>
-      <c r="I22" s="267"/>
-      <c r="J22" s="268"/>
+      <c r="I22" s="262"/>
+      <c r="J22" s="263"/>
     </row>
     <row r="23" spans="1:10" ht="12" customHeight="1">
       <c r="A23" s="38"/>
@@ -10034,8 +10077,8 @@
       <c r="F23" s="39"/>
       <c r="G23" s="39"/>
       <c r="H23" s="41"/>
-      <c r="I23" s="267"/>
-      <c r="J23" s="268"/>
+      <c r="I23" s="262"/>
+      <c r="J23" s="263"/>
     </row>
     <row r="24" spans="1:10" ht="12" customHeight="1">
       <c r="A24" s="38"/>
@@ -10046,8 +10089,8 @@
       <c r="F24" s="39"/>
       <c r="G24" s="39"/>
       <c r="H24" s="41"/>
-      <c r="I24" s="267"/>
-      <c r="J24" s="268"/>
+      <c r="I24" s="262"/>
+      <c r="J24" s="263"/>
     </row>
     <row r="25" spans="1:10" ht="12" customHeight="1">
       <c r="A25" s="38"/>
@@ -10058,8 +10101,8 @@
       <c r="F25" s="39"/>
       <c r="G25" s="39"/>
       <c r="H25" s="41"/>
-      <c r="I25" s="267"/>
-      <c r="J25" s="268"/>
+      <c r="I25" s="262"/>
+      <c r="J25" s="263"/>
     </row>
     <row r="26" spans="1:10" ht="12" customHeight="1">
       <c r="A26" s="38"/>
@@ -10070,8 +10113,8 @@
       <c r="F26" s="39"/>
       <c r="G26" s="39"/>
       <c r="H26" s="41"/>
-      <c r="I26" s="267"/>
-      <c r="J26" s="268"/>
+      <c r="I26" s="262"/>
+      <c r="J26" s="263"/>
     </row>
     <row r="27" spans="1:10" ht="12" customHeight="1">
       <c r="A27" s="38"/>
@@ -10082,8 +10125,8 @@
       <c r="F27" s="39"/>
       <c r="G27" s="39"/>
       <c r="H27" s="41"/>
-      <c r="I27" s="267"/>
-      <c r="J27" s="268"/>
+      <c r="I27" s="262"/>
+      <c r="J27" s="263"/>
     </row>
     <row r="28" spans="1:10" ht="12" customHeight="1">
       <c r="A28" s="38"/>
@@ -10094,8 +10137,8 @@
       <c r="F28" s="39"/>
       <c r="G28" s="39"/>
       <c r="H28" s="41"/>
-      <c r="I28" s="267"/>
-      <c r="J28" s="268"/>
+      <c r="I28" s="262"/>
+      <c r="J28" s="263"/>
     </row>
     <row r="29" spans="1:10" ht="12" customHeight="1">
       <c r="A29" s="38"/>
@@ -10106,8 +10149,8 @@
       <c r="F29" s="39"/>
       <c r="G29" s="39"/>
       <c r="H29" s="41"/>
-      <c r="I29" s="267"/>
-      <c r="J29" s="268"/>
+      <c r="I29" s="262"/>
+      <c r="J29" s="263"/>
     </row>
     <row r="30" spans="1:10" ht="12" customHeight="1">
       <c r="A30" s="38"/>
@@ -10118,8 +10161,8 @@
       <c r="F30" s="39"/>
       <c r="G30" s="39"/>
       <c r="H30" s="41"/>
-      <c r="I30" s="267"/>
-      <c r="J30" s="268"/>
+      <c r="I30" s="262"/>
+      <c r="J30" s="263"/>
     </row>
     <row r="31" spans="1:10" ht="12" customHeight="1">
       <c r="A31" s="38"/>
@@ -10130,8 +10173,8 @@
       <c r="F31" s="39"/>
       <c r="G31" s="39"/>
       <c r="H31" s="41"/>
-      <c r="I31" s="267"/>
-      <c r="J31" s="268"/>
+      <c r="I31" s="262"/>
+      <c r="J31" s="263"/>
     </row>
     <row r="32" spans="1:10" ht="12" customHeight="1">
       <c r="A32" s="38"/>
@@ -10142,8 +10185,8 @@
       <c r="F32" s="39"/>
       <c r="G32" s="39"/>
       <c r="H32" s="41"/>
-      <c r="I32" s="267"/>
-      <c r="J32" s="268"/>
+      <c r="I32" s="262"/>
+      <c r="J32" s="263"/>
     </row>
     <row r="33" spans="1:10" ht="12" customHeight="1">
       <c r="A33" s="38"/>
@@ -10154,8 +10197,8 @@
       <c r="F33" s="39"/>
       <c r="G33" s="39"/>
       <c r="H33" s="41"/>
-      <c r="I33" s="267"/>
-      <c r="J33" s="268"/>
+      <c r="I33" s="262"/>
+      <c r="J33" s="263"/>
     </row>
     <row r="34" spans="1:10" ht="12" customHeight="1">
       <c r="A34" s="38"/>
@@ -10166,8 +10209,8 @@
       <c r="F34" s="39"/>
       <c r="G34" s="39"/>
       <c r="H34" s="41"/>
-      <c r="I34" s="267"/>
-      <c r="J34" s="268"/>
+      <c r="I34" s="262"/>
+      <c r="J34" s="263"/>
     </row>
     <row r="35" spans="1:10" ht="12" customHeight="1">
       <c r="A35" s="38"/>
@@ -10178,8 +10221,8 @@
       <c r="F35" s="39"/>
       <c r="G35" s="39"/>
       <c r="H35" s="41"/>
-      <c r="I35" s="267"/>
-      <c r="J35" s="268"/>
+      <c r="I35" s="262"/>
+      <c r="J35" s="263"/>
     </row>
     <row r="36" spans="1:10" ht="12" customHeight="1">
       <c r="A36" s="38"/>
@@ -10190,8 +10233,8 @@
       <c r="F36" s="39"/>
       <c r="G36" s="39"/>
       <c r="H36" s="41"/>
-      <c r="I36" s="267"/>
-      <c r="J36" s="268"/>
+      <c r="I36" s="262"/>
+      <c r="J36" s="263"/>
     </row>
     <row r="37" spans="1:10" ht="12" customHeight="1">
       <c r="A37" s="38"/>
@@ -10202,8 +10245,8 @@
       <c r="F37" s="39"/>
       <c r="G37" s="39"/>
       <c r="H37" s="41"/>
-      <c r="I37" s="267"/>
-      <c r="J37" s="268"/>
+      <c r="I37" s="262"/>
+      <c r="J37" s="263"/>
     </row>
     <row r="38" spans="1:10" ht="12" customHeight="1">
       <c r="A38" s="38"/>
@@ -10214,8 +10257,8 @@
       <c r="F38" s="39"/>
       <c r="G38" s="39"/>
       <c r="H38" s="41"/>
-      <c r="I38" s="267"/>
-      <c r="J38" s="268"/>
+      <c r="I38" s="262"/>
+      <c r="J38" s="263"/>
     </row>
     <row r="39" spans="1:10" ht="12" customHeight="1">
       <c r="A39" s="38"/>
@@ -10226,8 +10269,8 @@
       <c r="F39" s="39"/>
       <c r="G39" s="39"/>
       <c r="H39" s="41"/>
-      <c r="I39" s="267"/>
-      <c r="J39" s="268"/>
+      <c r="I39" s="262"/>
+      <c r="J39" s="263"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -10255,10 +10298,10 @@
   <dimension ref="A1:O78"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="6" ySplit="4" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="4" topLeftCell="G8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="E34" sqref="E34"/>
+      <selection pane="bottomRight" activeCell="D63" sqref="D63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -10281,12 +10324,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="240" t="s">
+      <c r="A1" s="251" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="240"/>
-      <c r="C1" s="240"/>
-      <c r="D1" s="240"/>
+      <c r="B1" s="251"/>
+      <c r="C1" s="251"/>
+      <c r="D1" s="251"/>
       <c r="E1" s="29" t="s">
         <v>1</v>
       </c>
@@ -10294,16 +10337,16 @@
         <f>'Update History'!D1</f>
         <v>ASOFT - ERP.NET</v>
       </c>
-      <c r="G1" s="275" t="s">
+      <c r="G1" s="270" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="276"/>
-      <c r="I1" s="277" t="str">
+      <c r="H1" s="271"/>
+      <c r="I1" s="272" t="str">
         <f>'Update History'!F1</f>
         <v>CRMF2082</v>
       </c>
-      <c r="J1" s="278"/>
-      <c r="K1" s="279"/>
+      <c r="J1" s="273"/>
+      <c r="K1" s="274"/>
       <c r="L1" s="30" t="s">
         <v>5</v>
       </c>
@@ -10320,10 +10363,10 @@
       </c>
     </row>
     <row r="2" spans="1:15" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="240"/>
-      <c r="B2" s="240"/>
-      <c r="C2" s="240"/>
-      <c r="D2" s="240"/>
+      <c r="A2" s="251"/>
+      <c r="B2" s="251"/>
+      <c r="C2" s="251"/>
+      <c r="D2" s="251"/>
       <c r="E2" s="29" t="s">
         <v>2</v>
       </c>
@@ -10331,16 +10374,16 @@
         <f>'Update History'!D2</f>
         <v>ASOFT-CRM</v>
       </c>
-      <c r="G2" s="275" t="s">
+      <c r="G2" s="270" t="s">
         <v>49</v>
       </c>
-      <c r="H2" s="276"/>
-      <c r="I2" s="277" t="str">
+      <c r="H2" s="271"/>
+      <c r="I2" s="272" t="str">
         <f>'Update History'!F2</f>
         <v>Xem chi tiết yêu cầu</v>
       </c>
-      <c r="J2" s="278"/>
-      <c r="K2" s="279"/>
+      <c r="J2" s="273"/>
+      <c r="K2" s="274"/>
       <c r="L2" s="30" t="s">
         <v>6</v>
       </c>
@@ -10914,40 +10957,40 @@
       <c r="N19" s="174"/>
       <c r="O19" s="177"/>
     </row>
-    <row r="20" spans="1:15" s="217" customFormat="1" ht="11.25">
-      <c r="A20" s="211">
+    <row r="20" spans="1:15" s="339" customFormat="1" ht="11.25">
+      <c r="A20" s="333">
         <v>10</v>
       </c>
-      <c r="B20" s="211" t="s">
+      <c r="B20" s="333" t="s">
         <v>358</v>
       </c>
-      <c r="C20" s="212">
+      <c r="C20" s="334">
         <v>2.14</v>
       </c>
-      <c r="D20" s="213" t="s">
+      <c r="D20" s="335" t="s">
         <v>356</v>
       </c>
-      <c r="E20" s="214" t="s">
+      <c r="E20" s="336" t="s">
         <v>357</v>
       </c>
-      <c r="F20" s="214" t="s">
+      <c r="F20" s="336" t="s">
         <v>357</v>
       </c>
-      <c r="G20" s="215" t="s">
+      <c r="G20" s="337" t="s">
         <v>178</v>
       </c>
-      <c r="H20" s="215" t="s">
+      <c r="H20" s="337" t="s">
         <v>176</v>
       </c>
-      <c r="I20" s="216"/>
-      <c r="J20" s="216"/>
-      <c r="K20" s="209" t="s">
+      <c r="I20" s="338"/>
+      <c r="J20" s="338"/>
+      <c r="K20" s="328" t="s">
         <v>187</v>
       </c>
-      <c r="L20" s="214"/>
-      <c r="M20" s="214"/>
-      <c r="N20" s="214"/>
-      <c r="O20" s="214"/>
+      <c r="L20" s="336"/>
+      <c r="M20" s="336"/>
+      <c r="N20" s="336"/>
+      <c r="O20" s="336"/>
     </row>
     <row r="21" spans="1:15" s="32" customFormat="1" ht="11.25">
       <c r="A21" s="31">
@@ -12420,436 +12463,436 @@
       <c r="N65" s="173"/>
       <c r="O65" s="173"/>
     </row>
-    <row r="66" spans="1:15" s="183" customFormat="1" ht="12" customHeight="1">
-      <c r="A66" s="170">
+    <row r="66" spans="1:15" s="210" customFormat="1" ht="12" customHeight="1">
+      <c r="A66" s="340">
         <v>61</v>
       </c>
-      <c r="B66" s="171" t="s">
+      <c r="B66" s="211" t="s">
         <v>358</v>
       </c>
-      <c r="C66" s="180" t="s">
+      <c r="C66" s="341" t="s">
         <v>244</v>
       </c>
-      <c r="D66" s="194" t="s">
+      <c r="D66" s="342" t="s">
         <v>416</v>
       </c>
-      <c r="E66" s="194"/>
-      <c r="F66" s="194"/>
-      <c r="G66" s="194"/>
-      <c r="H66" s="194"/>
-      <c r="I66" s="194"/>
-      <c r="J66" s="194"/>
-      <c r="K66" s="199"/>
-      <c r="L66" s="173"/>
-      <c r="M66" s="173"/>
-      <c r="N66" s="173"/>
-      <c r="O66" s="173"/>
-    </row>
-    <row r="67" spans="1:15" s="183" customFormat="1" ht="12" customHeight="1">
-      <c r="A67" s="171">
+      <c r="E66" s="342"/>
+      <c r="F66" s="342"/>
+      <c r="G66" s="342"/>
+      <c r="H66" s="342"/>
+      <c r="I66" s="342"/>
+      <c r="J66" s="342"/>
+      <c r="K66" s="343"/>
+      <c r="L66" s="212"/>
+      <c r="M66" s="212"/>
+      <c r="N66" s="212"/>
+      <c r="O66" s="212"/>
+    </row>
+    <row r="67" spans="1:15" s="210" customFormat="1" ht="12" customHeight="1">
+      <c r="A67" s="211">
         <v>62</v>
       </c>
-      <c r="B67" s="171" t="s">
+      <c r="B67" s="211" t="s">
         <v>358</v>
       </c>
-      <c r="C67" s="180" t="s">
+      <c r="C67" s="341" t="s">
         <v>245</v>
       </c>
-      <c r="D67" s="194" t="s">
+      <c r="D67" s="342" t="s">
         <v>234</v>
       </c>
-      <c r="E67" s="194" t="s">
+      <c r="E67" s="342" t="s">
         <v>374</v>
       </c>
-      <c r="F67" s="194" t="s">
+      <c r="F67" s="342" t="s">
         <v>374</v>
       </c>
-      <c r="G67" s="194" t="s">
+      <c r="G67" s="342" t="s">
         <v>178</v>
       </c>
-      <c r="H67" s="194" t="s">
+      <c r="H67" s="342" t="s">
         <v>369</v>
       </c>
-      <c r="I67" s="194"/>
-      <c r="J67" s="194"/>
-      <c r="K67" s="199" t="s">
+      <c r="I67" s="342"/>
+      <c r="J67" s="342"/>
+      <c r="K67" s="343" t="s">
         <v>187</v>
       </c>
-      <c r="L67" s="173"/>
-      <c r="M67" s="173"/>
-      <c r="N67" s="173"/>
-      <c r="O67" s="173"/>
-    </row>
-    <row r="68" spans="1:15" s="183" customFormat="1" ht="12" customHeight="1">
-      <c r="A68" s="170">
+      <c r="L67" s="212"/>
+      <c r="M67" s="212"/>
+      <c r="N67" s="212"/>
+      <c r="O67" s="212"/>
+    </row>
+    <row r="68" spans="1:15" s="210" customFormat="1" ht="12" customHeight="1">
+      <c r="A68" s="340">
         <v>63</v>
       </c>
-      <c r="B68" s="171" t="s">
+      <c r="B68" s="211" t="s">
         <v>358</v>
       </c>
-      <c r="C68" s="180" t="s">
+      <c r="C68" s="341" t="s">
         <v>246</v>
       </c>
-      <c r="D68" s="194" t="s">
+      <c r="D68" s="342" t="s">
         <v>421</v>
       </c>
-      <c r="E68" s="194" t="s">
+      <c r="E68" s="342" t="s">
         <v>422</v>
       </c>
-      <c r="F68" s="194" t="s">
+      <c r="F68" s="342" t="s">
         <v>422</v>
       </c>
-      <c r="G68" s="194" t="s">
+      <c r="G68" s="342" t="s">
         <v>178</v>
       </c>
-      <c r="H68" s="194" t="s">
+      <c r="H68" s="342" t="s">
         <v>176</v>
       </c>
-      <c r="I68" s="194"/>
-      <c r="J68" s="194"/>
-      <c r="K68" s="199" t="s">
+      <c r="I68" s="342"/>
+      <c r="J68" s="342"/>
+      <c r="K68" s="343" t="s">
         <v>187</v>
       </c>
-      <c r="L68" s="173"/>
-      <c r="M68" s="173"/>
-      <c r="N68" s="173"/>
-      <c r="O68" s="173"/>
-    </row>
-    <row r="69" spans="1:15" s="183" customFormat="1" ht="12" customHeight="1">
-      <c r="A69" s="171">
+      <c r="L68" s="212"/>
+      <c r="M68" s="212"/>
+      <c r="N68" s="212"/>
+      <c r="O68" s="212"/>
+    </row>
+    <row r="69" spans="1:15" s="210" customFormat="1" ht="12" customHeight="1">
+      <c r="A69" s="211">
         <v>64</v>
       </c>
-      <c r="B69" s="171" t="s">
+      <c r="B69" s="211" t="s">
         <v>358</v>
       </c>
-      <c r="C69" s="180" t="s">
+      <c r="C69" s="341" t="s">
         <v>247</v>
       </c>
-      <c r="D69" s="194" t="s">
+      <c r="D69" s="342" t="s">
         <v>417</v>
       </c>
-      <c r="E69" s="194" t="s">
+      <c r="E69" s="342" t="s">
         <v>418</v>
       </c>
-      <c r="F69" s="194" t="s">
+      <c r="F69" s="342" t="s">
         <v>418</v>
       </c>
-      <c r="G69" s="194" t="s">
+      <c r="G69" s="342" t="s">
         <v>178</v>
       </c>
-      <c r="H69" s="194" t="s">
+      <c r="H69" s="342" t="s">
         <v>176</v>
       </c>
-      <c r="I69" s="194"/>
-      <c r="J69" s="194"/>
-      <c r="K69" s="199" t="s">
+      <c r="I69" s="342"/>
+      <c r="J69" s="342"/>
+      <c r="K69" s="343" t="s">
         <v>187</v>
       </c>
-      <c r="L69" s="173"/>
-      <c r="M69" s="173"/>
-      <c r="N69" s="173"/>
-      <c r="O69" s="173"/>
-    </row>
-    <row r="70" spans="1:15" s="183" customFormat="1" ht="12" customHeight="1">
-      <c r="A70" s="170">
+      <c r="L69" s="212"/>
+      <c r="M69" s="212"/>
+      <c r="N69" s="212"/>
+      <c r="O69" s="212"/>
+    </row>
+    <row r="70" spans="1:15" s="210" customFormat="1" ht="12" customHeight="1">
+      <c r="A70" s="340">
         <v>65</v>
       </c>
-      <c r="B70" s="171" t="s">
+      <c r="B70" s="211" t="s">
         <v>358</v>
       </c>
-      <c r="C70" s="180" t="s">
+      <c r="C70" s="341" t="s">
         <v>248</v>
       </c>
-      <c r="D70" s="194" t="s">
+      <c r="D70" s="342" t="s">
         <v>419</v>
       </c>
-      <c r="E70" s="194" t="s">
+      <c r="E70" s="342" t="s">
         <v>420</v>
       </c>
-      <c r="F70" s="194" t="s">
+      <c r="F70" s="342" t="s">
         <v>420</v>
       </c>
-      <c r="G70" s="194" t="s">
+      <c r="G70" s="342" t="s">
         <v>178</v>
       </c>
-      <c r="H70" s="194" t="s">
+      <c r="H70" s="342" t="s">
         <v>176</v>
       </c>
-      <c r="I70" s="194"/>
-      <c r="J70" s="194"/>
-      <c r="K70" s="199" t="s">
+      <c r="I70" s="342"/>
+      <c r="J70" s="342"/>
+      <c r="K70" s="343" t="s">
         <v>187</v>
       </c>
-      <c r="L70" s="173"/>
-      <c r="M70" s="173"/>
-      <c r="N70" s="173"/>
-      <c r="O70" s="173"/>
-    </row>
-    <row r="71" spans="1:15" s="183" customFormat="1" ht="12" customHeight="1">
-      <c r="A71" s="171">
+      <c r="L70" s="212"/>
+      <c r="M70" s="212"/>
+      <c r="N70" s="212"/>
+      <c r="O70" s="212"/>
+    </row>
+    <row r="71" spans="1:15" s="210" customFormat="1" ht="12" customHeight="1">
+      <c r="A71" s="211">
         <v>66</v>
       </c>
-      <c r="B71" s="171" t="s">
+      <c r="B71" s="211" t="s">
         <v>358</v>
       </c>
-      <c r="C71" s="180" t="s">
+      <c r="C71" s="341" t="s">
         <v>249</v>
       </c>
-      <c r="D71" s="194" t="s">
+      <c r="D71" s="342" t="s">
         <v>423</v>
       </c>
-      <c r="E71" s="194" t="s">
+      <c r="E71" s="342" t="s">
         <v>427</v>
       </c>
-      <c r="F71" s="194" t="s">
+      <c r="F71" s="342" t="s">
         <v>427</v>
       </c>
-      <c r="G71" s="194" t="s">
+      <c r="G71" s="342" t="s">
         <v>178</v>
       </c>
-      <c r="H71" s="194" t="s">
+      <c r="H71" s="342" t="s">
         <v>176</v>
       </c>
-      <c r="I71" s="194"/>
-      <c r="J71" s="194"/>
-      <c r="K71" s="199" t="s">
+      <c r="I71" s="342"/>
+      <c r="J71" s="342"/>
+      <c r="K71" s="343" t="s">
         <v>187</v>
       </c>
-      <c r="L71" s="173"/>
-      <c r="M71" s="173"/>
-      <c r="N71" s="173"/>
-      <c r="O71" s="173"/>
-    </row>
-    <row r="72" spans="1:15" s="183" customFormat="1" ht="12" customHeight="1">
-      <c r="A72" s="170">
+      <c r="L71" s="212"/>
+      <c r="M71" s="212"/>
+      <c r="N71" s="212"/>
+      <c r="O71" s="212"/>
+    </row>
+    <row r="72" spans="1:15" s="210" customFormat="1" ht="12" customHeight="1">
+      <c r="A72" s="340">
         <v>67</v>
       </c>
-      <c r="B72" s="171" t="s">
+      <c r="B72" s="211" t="s">
         <v>358</v>
       </c>
-      <c r="C72" s="180" t="s">
+      <c r="C72" s="341" t="s">
         <v>250</v>
       </c>
-      <c r="D72" s="194" t="s">
+      <c r="D72" s="342" t="s">
         <v>424</v>
       </c>
-      <c r="E72" s="194" t="s">
+      <c r="E72" s="342" t="s">
         <v>428</v>
       </c>
-      <c r="F72" s="194" t="s">
+      <c r="F72" s="342" t="s">
         <v>428</v>
       </c>
-      <c r="G72" s="194" t="s">
+      <c r="G72" s="342" t="s">
         <v>178</v>
       </c>
-      <c r="H72" s="194" t="s">
+      <c r="H72" s="342" t="s">
         <v>176</v>
       </c>
-      <c r="I72" s="194"/>
-      <c r="J72" s="194"/>
-      <c r="K72" s="199" t="s">
+      <c r="I72" s="342"/>
+      <c r="J72" s="342"/>
+      <c r="K72" s="343" t="s">
         <v>187</v>
       </c>
-      <c r="L72" s="173"/>
-      <c r="M72" s="173"/>
-      <c r="N72" s="173"/>
-      <c r="O72" s="173"/>
-    </row>
-    <row r="73" spans="1:15" s="183" customFormat="1" ht="12" customHeight="1">
-      <c r="A73" s="171">
+      <c r="L72" s="212"/>
+      <c r="M72" s="212"/>
+      <c r="N72" s="212"/>
+      <c r="O72" s="212"/>
+    </row>
+    <row r="73" spans="1:15" s="210" customFormat="1" ht="12" customHeight="1">
+      <c r="A73" s="211">
         <v>68</v>
       </c>
-      <c r="B73" s="171" t="s">
+      <c r="B73" s="211" t="s">
         <v>358</v>
       </c>
-      <c r="C73" s="180" t="s">
+      <c r="C73" s="341" t="s">
         <v>251</v>
       </c>
-      <c r="D73" s="194" t="s">
+      <c r="D73" s="342" t="s">
         <v>425</v>
       </c>
-      <c r="E73" s="194" t="s">
+      <c r="E73" s="342" t="s">
         <v>429</v>
       </c>
-      <c r="F73" s="194" t="s">
+      <c r="F73" s="342" t="s">
         <v>429</v>
       </c>
-      <c r="G73" s="194" t="s">
+      <c r="G73" s="342" t="s">
         <v>178</v>
       </c>
-      <c r="H73" s="194" t="s">
+      <c r="H73" s="342" t="s">
         <v>176</v>
       </c>
-      <c r="I73" s="194"/>
-      <c r="J73" s="194"/>
-      <c r="K73" s="199" t="s">
+      <c r="I73" s="342"/>
+      <c r="J73" s="342"/>
+      <c r="K73" s="343" t="s">
         <v>187</v>
       </c>
-      <c r="L73" s="173"/>
-      <c r="M73" s="173"/>
-      <c r="N73" s="173"/>
-      <c r="O73" s="173"/>
-    </row>
-    <row r="74" spans="1:15" s="183" customFormat="1" ht="12" customHeight="1">
-      <c r="A74" s="170">
+      <c r="L73" s="212"/>
+      <c r="M73" s="212"/>
+      <c r="N73" s="212"/>
+      <c r="O73" s="212"/>
+    </row>
+    <row r="74" spans="1:15" s="210" customFormat="1" ht="12" customHeight="1">
+      <c r="A74" s="340">
         <v>69</v>
       </c>
-      <c r="B74" s="171" t="s">
+      <c r="B74" s="211" t="s">
         <v>358</v>
       </c>
-      <c r="C74" s="180" t="s">
+      <c r="C74" s="341" t="s">
         <v>431</v>
       </c>
-      <c r="D74" s="194" t="s">
+      <c r="D74" s="342" t="s">
         <v>426</v>
       </c>
-      <c r="E74" s="194" t="s">
+      <c r="E74" s="342" t="s">
         <v>430</v>
       </c>
-      <c r="F74" s="194" t="s">
+      <c r="F74" s="342" t="s">
         <v>430</v>
       </c>
-      <c r="G74" s="194" t="s">
+      <c r="G74" s="342" t="s">
         <v>178</v>
       </c>
-      <c r="H74" s="194" t="s">
+      <c r="H74" s="342" t="s">
         <v>176</v>
       </c>
-      <c r="I74" s="194"/>
-      <c r="J74" s="194"/>
-      <c r="K74" s="199" t="s">
+      <c r="I74" s="342"/>
+      <c r="J74" s="342"/>
+      <c r="K74" s="343" t="s">
         <v>187</v>
       </c>
-      <c r="L74" s="173"/>
-      <c r="M74" s="173"/>
-      <c r="N74" s="173"/>
-      <c r="O74" s="173"/>
-    </row>
-    <row r="75" spans="1:15" s="183" customFormat="1" ht="12" customHeight="1">
-      <c r="A75" s="171">
+      <c r="L74" s="212"/>
+      <c r="M74" s="212"/>
+      <c r="N74" s="212"/>
+      <c r="O74" s="212"/>
+    </row>
+    <row r="75" spans="1:15" s="210" customFormat="1" ht="12" customHeight="1">
+      <c r="A75" s="211">
         <v>70</v>
       </c>
-      <c r="B75" s="171" t="s">
+      <c r="B75" s="211" t="s">
         <v>358</v>
       </c>
-      <c r="C75" s="180" t="s">
+      <c r="C75" s="341" t="s">
         <v>432</v>
       </c>
-      <c r="D75" s="194" t="s">
+      <c r="D75" s="342" t="s">
         <v>191</v>
       </c>
-      <c r="E75" s="194" t="s">
+      <c r="E75" s="342" t="s">
         <v>192</v>
       </c>
-      <c r="F75" s="194" t="s">
+      <c r="F75" s="342" t="s">
         <v>192</v>
       </c>
-      <c r="G75" s="194" t="s">
+      <c r="G75" s="342" t="s">
         <v>178</v>
       </c>
-      <c r="H75" s="194" t="s">
+      <c r="H75" s="342" t="s">
         <v>176</v>
       </c>
-      <c r="I75" s="194"/>
-      <c r="J75" s="194"/>
-      <c r="K75" s="199" t="s">
+      <c r="I75" s="342"/>
+      <c r="J75" s="342"/>
+      <c r="K75" s="343" t="s">
         <v>187</v>
       </c>
-      <c r="L75" s="173"/>
-      <c r="M75" s="173"/>
-      <c r="N75" s="173"/>
-      <c r="O75" s="173"/>
-    </row>
-    <row r="76" spans="1:15" s="183" customFormat="1" ht="12" customHeight="1">
-      <c r="A76" s="170">
+      <c r="L75" s="212"/>
+      <c r="M75" s="212"/>
+      <c r="N75" s="212"/>
+      <c r="O75" s="212"/>
+    </row>
+    <row r="76" spans="1:15" s="210" customFormat="1" ht="12" customHeight="1">
+      <c r="A76" s="340">
         <v>71</v>
       </c>
-      <c r="B76" s="171" t="s">
+      <c r="B76" s="211" t="s">
         <v>358</v>
       </c>
-      <c r="C76" s="180" t="s">
+      <c r="C76" s="341" t="s">
         <v>433</v>
       </c>
-      <c r="D76" s="194" t="s">
+      <c r="D76" s="342" t="s">
         <v>189</v>
       </c>
-      <c r="E76" s="194" t="s">
+      <c r="E76" s="342" t="s">
         <v>190</v>
       </c>
-      <c r="F76" s="194" t="s">
+      <c r="F76" s="342" t="s">
         <v>190</v>
       </c>
-      <c r="G76" s="194" t="s">
+      <c r="G76" s="342" t="s">
         <v>178</v>
       </c>
-      <c r="H76" s="194" t="s">
+      <c r="H76" s="342" t="s">
         <v>182</v>
       </c>
-      <c r="I76" s="194"/>
-      <c r="J76" s="194"/>
-      <c r="K76" s="199" t="s">
+      <c r="I76" s="342"/>
+      <c r="J76" s="342"/>
+      <c r="K76" s="343" t="s">
         <v>187</v>
       </c>
-      <c r="L76" s="173" t="s">
+      <c r="L76" s="212" t="s">
         <v>183</v>
       </c>
-      <c r="M76" s="173"/>
-      <c r="N76" s="173"/>
-      <c r="O76" s="173"/>
-    </row>
-    <row r="77" spans="1:15" s="183" customFormat="1" ht="12" customHeight="1">
-      <c r="A77" s="170">
+      <c r="M76" s="212"/>
+      <c r="N76" s="212"/>
+      <c r="O76" s="212"/>
+    </row>
+    <row r="77" spans="1:15" s="210" customFormat="1" ht="12" customHeight="1">
+      <c r="A77" s="340">
         <v>72</v>
       </c>
-      <c r="B77" s="171" t="s">
+      <c r="B77" s="211" t="s">
         <v>358</v>
       </c>
-      <c r="C77" s="180" t="s">
+      <c r="C77" s="341" t="s">
         <v>434</v>
       </c>
-      <c r="D77" s="194"/>
-      <c r="E77" s="194" t="s">
+      <c r="D77" s="342"/>
+      <c r="E77" s="342" t="s">
         <v>436</v>
       </c>
-      <c r="F77" s="194"/>
-      <c r="G77" s="173" t="s">
+      <c r="F77" s="342"/>
+      <c r="G77" s="212" t="s">
         <v>180</v>
       </c>
-      <c r="H77" s="194"/>
-      <c r="I77" s="194"/>
-      <c r="J77" s="194"/>
-      <c r="K77" s="199"/>
-      <c r="L77" s="173"/>
-      <c r="M77" s="173"/>
-      <c r="N77" s="173"/>
-      <c r="O77" s="173"/>
-    </row>
-    <row r="78" spans="1:15" s="183" customFormat="1" ht="12" customHeight="1">
-      <c r="A78" s="170">
+      <c r="H77" s="342"/>
+      <c r="I77" s="342"/>
+      <c r="J77" s="342"/>
+      <c r="K77" s="343"/>
+      <c r="L77" s="212"/>
+      <c r="M77" s="212"/>
+      <c r="N77" s="212"/>
+      <c r="O77" s="212"/>
+    </row>
+    <row r="78" spans="1:15" s="210" customFormat="1" ht="12" customHeight="1">
+      <c r="A78" s="340">
         <v>73</v>
       </c>
-      <c r="B78" s="171" t="s">
+      <c r="B78" s="211" t="s">
         <v>358</v>
       </c>
-      <c r="C78" s="180" t="s">
+      <c r="C78" s="341" t="s">
         <v>435</v>
       </c>
-      <c r="D78" s="194"/>
-      <c r="E78" s="194" t="s">
+      <c r="D78" s="342"/>
+      <c r="E78" s="342" t="s">
         <v>437</v>
       </c>
-      <c r="F78" s="194"/>
-      <c r="G78" s="173" t="s">
+      <c r="F78" s="342"/>
+      <c r="G78" s="212" t="s">
         <v>180</v>
       </c>
-      <c r="H78" s="194"/>
-      <c r="I78" s="194"/>
-      <c r="J78" s="194"/>
-      <c r="K78" s="199"/>
-      <c r="L78" s="173"/>
-      <c r="M78" s="173"/>
-      <c r="N78" s="173"/>
-      <c r="O78" s="173"/>
+      <c r="H78" s="342"/>
+      <c r="I78" s="342"/>
+      <c r="J78" s="342"/>
+      <c r="K78" s="343"/>
+      <c r="L78" s="212"/>
+      <c r="M78" s="212"/>
+      <c r="N78" s="212"/>
+      <c r="O78" s="212"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -13217,7 +13260,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="281" t="s">
+      <c r="A1" s="276" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="104"/>
@@ -13253,7 +13296,7 @@
       <c r="L1" s="46"/>
     </row>
     <row r="2" spans="1:18" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="282"/>
+      <c r="A2" s="277"/>
       <c r="B2" s="105"/>
       <c r="C2" s="30" t="s">
         <v>2</v>
@@ -13302,12 +13345,12 @@
       <c r="E4" s="82" t="s">
         <v>46</v>
       </c>
-      <c r="F4" s="292" t="s">
+      <c r="F4" s="287" t="s">
         <v>128</v>
       </c>
-      <c r="G4" s="293"/>
-      <c r="H4" s="293"/>
-      <c r="I4" s="294"/>
+      <c r="G4" s="288"/>
+      <c r="H4" s="288"/>
+      <c r="I4" s="289"/>
       <c r="J4" s="169" t="s">
         <v>48</v>
       </c>
@@ -13326,13 +13369,13 @@
       <c r="E5" s="132" t="s">
         <v>176</v>
       </c>
-      <c r="F5" s="283" t="s">
+      <c r="F5" s="278" t="s">
         <v>219</v>
       </c>
-      <c r="G5" s="284"/>
-      <c r="H5" s="284"/>
-      <c r="I5" s="285"/>
-      <c r="J5" s="283" t="s">
+      <c r="G5" s="279"/>
+      <c r="H5" s="279"/>
+      <c r="I5" s="280"/>
+      <c r="J5" s="278" t="s">
         <v>199</v>
       </c>
     </row>
@@ -13350,11 +13393,11 @@
       <c r="E6" s="132" t="s">
         <v>176</v>
       </c>
-      <c r="F6" s="286"/>
-      <c r="G6" s="287"/>
-      <c r="H6" s="287"/>
-      <c r="I6" s="288"/>
-      <c r="J6" s="286"/>
+      <c r="F6" s="281"/>
+      <c r="G6" s="282"/>
+      <c r="H6" s="282"/>
+      <c r="I6" s="283"/>
+      <c r="J6" s="281"/>
     </row>
     <row r="7" spans="1:18" s="32" customFormat="1" ht="21" customHeight="1">
       <c r="A7" s="31">
@@ -13370,13 +13413,13 @@
       <c r="E7" s="132" t="s">
         <v>176</v>
       </c>
-      <c r="F7" s="283" t="s">
+      <c r="F7" s="278" t="s">
         <v>220</v>
       </c>
-      <c r="G7" s="284"/>
-      <c r="H7" s="284"/>
-      <c r="I7" s="285"/>
-      <c r="J7" s="283" t="s">
+      <c r="G7" s="279"/>
+      <c r="H7" s="279"/>
+      <c r="I7" s="280"/>
+      <c r="J7" s="278" t="s">
         <v>200</v>
       </c>
     </row>
@@ -13394,11 +13437,11 @@
       <c r="E8" s="132" t="s">
         <v>176</v>
       </c>
-      <c r="F8" s="286"/>
-      <c r="G8" s="287"/>
-      <c r="H8" s="287"/>
-      <c r="I8" s="288"/>
-      <c r="J8" s="286"/>
+      <c r="F8" s="281"/>
+      <c r="G8" s="282"/>
+      <c r="H8" s="282"/>
+      <c r="I8" s="283"/>
+      <c r="J8" s="281"/>
     </row>
     <row r="9" spans="1:18" ht="23.25" customHeight="1">
       <c r="A9" s="184">
@@ -13414,12 +13457,12 @@
       <c r="E9" s="187" t="s">
         <v>290</v>
       </c>
-      <c r="F9" s="289" t="s">
+      <c r="F9" s="284" t="s">
         <v>291</v>
       </c>
-      <c r="G9" s="290"/>
-      <c r="H9" s="290"/>
-      <c r="I9" s="291"/>
+      <c r="G9" s="285"/>
+      <c r="H9" s="285"/>
+      <c r="I9" s="286"/>
       <c r="J9" s="188" t="s">
         <v>292</v>
       </c>
@@ -13438,12 +13481,12 @@
       <c r="E10" s="189" t="s">
         <v>176</v>
       </c>
-      <c r="F10" s="280" t="s">
+      <c r="F10" s="275" t="s">
         <v>396</v>
       </c>
-      <c r="G10" s="280"/>
-      <c r="H10" s="280"/>
-      <c r="I10" s="280"/>
+      <c r="G10" s="275"/>
+      <c r="H10" s="275"/>
+      <c r="I10" s="275"/>
       <c r="J10" s="189" t="s">
         <v>398</v>
       </c>
@@ -13469,12 +13512,12 @@
       <c r="E11" s="189" t="s">
         <v>176</v>
       </c>
-      <c r="F11" s="280" t="s">
+      <c r="F11" s="275" t="s">
         <v>439</v>
       </c>
-      <c r="G11" s="280"/>
-      <c r="H11" s="280"/>
-      <c r="I11" s="280"/>
+      <c r="G11" s="275"/>
+      <c r="H11" s="275"/>
+      <c r="I11" s="275"/>
       <c r="J11" s="200" t="s">
         <v>438</v>
       </c>
@@ -13542,20 +13585,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="240" t="s">
+      <c r="A1" s="251" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="240"/>
-      <c r="C1" s="240"/>
-      <c r="D1" s="240"/>
+      <c r="B1" s="251"/>
+      <c r="C1" s="251"/>
+      <c r="D1" s="251"/>
       <c r="E1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="319" t="str">
+      <c r="F1" s="290" t="str">
         <f>'Update History'!D1</f>
         <v>ASOFT - ERP.NET</v>
       </c>
-      <c r="G1" s="319"/>
+      <c r="G1" s="290"/>
       <c r="H1" s="26" t="s">
         <v>3</v>
       </c>
@@ -13573,28 +13616,28 @@
       <c r="L1" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="302" t="str">
+      <c r="M1" s="297" t="str">
         <f>'Update History'!J1</f>
         <v>Tấn Đạt</v>
       </c>
-      <c r="N1" s="303"/>
-      <c r="O1" s="304"/>
+      <c r="N1" s="298"/>
+      <c r="O1" s="299"/>
       <c r="P1" s="46"/>
       <c r="Q1" s="46"/>
     </row>
     <row r="2" spans="1:17" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="240"/>
-      <c r="B2" s="240"/>
-      <c r="C2" s="240"/>
-      <c r="D2" s="240"/>
+      <c r="A2" s="251"/>
+      <c r="B2" s="251"/>
+      <c r="C2" s="251"/>
+      <c r="D2" s="251"/>
       <c r="E2" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="319" t="str">
+      <c r="F2" s="290" t="str">
         <f>'Update History'!D2</f>
         <v>ASOFT-CRM</v>
       </c>
-      <c r="G2" s="319"/>
+      <c r="G2" s="290"/>
       <c r="H2" s="26" t="s">
         <v>49</v>
       </c>
@@ -13612,12 +13655,12 @@
       <c r="L2" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="302" t="str">
+      <c r="M2" s="297" t="str">
         <f>'Update History'!J2</f>
         <v>26/01/2018</v>
       </c>
-      <c r="N2" s="303"/>
-      <c r="O2" s="304"/>
+      <c r="N2" s="298"/>
+      <c r="O2" s="299"/>
       <c r="P2" s="46"/>
       <c r="Q2" s="46"/>
     </row>
@@ -13640,12 +13683,12 @@
       <c r="F4" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="G4" s="323" t="s">
+      <c r="G4" s="294" t="s">
         <v>55</v>
       </c>
-      <c r="H4" s="324"/>
-      <c r="I4" s="324"/>
-      <c r="J4" s="325"/>
+      <c r="H4" s="295"/>
+      <c r="I4" s="295"/>
+      <c r="J4" s="296"/>
       <c r="K4" s="35" t="s">
         <v>56</v>
       </c>
@@ -13681,12 +13724,12 @@
       <c r="F5" s="113" t="s">
         <v>161</v>
       </c>
-      <c r="G5" s="320" t="s">
+      <c r="G5" s="291" t="s">
         <v>336</v>
       </c>
-      <c r="H5" s="321"/>
-      <c r="I5" s="321"/>
-      <c r="J5" s="322"/>
+      <c r="H5" s="292"/>
+      <c r="I5" s="292"/>
+      <c r="J5" s="293"/>
       <c r="K5" s="116" t="s">
         <v>293</v>
       </c>
@@ -13722,12 +13765,12 @@
       <c r="F6" s="113" t="s">
         <v>162</v>
       </c>
-      <c r="G6" s="316" t="s">
+      <c r="G6" s="314" t="s">
         <v>349</v>
       </c>
-      <c r="H6" s="317"/>
-      <c r="I6" s="317"/>
-      <c r="J6" s="318"/>
+      <c r="H6" s="315"/>
+      <c r="I6" s="315"/>
+      <c r="J6" s="316"/>
       <c r="K6" s="116" t="s">
         <v>307</v>
       </c>
@@ -13763,12 +13806,12 @@
       <c r="F7" s="113" t="s">
         <v>163</v>
       </c>
-      <c r="G7" s="316" t="s">
+      <c r="G7" s="314" t="s">
         <v>351</v>
       </c>
-      <c r="H7" s="317"/>
-      <c r="I7" s="317"/>
-      <c r="J7" s="318"/>
+      <c r="H7" s="315"/>
+      <c r="I7" s="315"/>
+      <c r="J7" s="316"/>
       <c r="K7" s="116" t="s">
         <v>334</v>
       </c>
@@ -13804,12 +13847,12 @@
       <c r="F8" s="113" t="s">
         <v>164</v>
       </c>
-      <c r="G8" s="298" t="s">
+      <c r="G8" s="300" t="s">
         <v>333</v>
       </c>
-      <c r="H8" s="299"/>
-      <c r="I8" s="299"/>
-      <c r="J8" s="300"/>
+      <c r="H8" s="301"/>
+      <c r="I8" s="301"/>
+      <c r="J8" s="302"/>
       <c r="K8" s="116" t="s">
         <v>307</v>
       </c>
@@ -13845,12 +13888,12 @@
       <c r="F9" s="113" t="s">
         <v>197</v>
       </c>
-      <c r="G9" s="313" t="s">
+      <c r="G9" s="311" t="s">
         <v>399</v>
       </c>
-      <c r="H9" s="314"/>
-      <c r="I9" s="314"/>
-      <c r="J9" s="315"/>
+      <c r="H9" s="312"/>
+      <c r="I9" s="312"/>
+      <c r="J9" s="313"/>
       <c r="K9" s="197" t="s">
         <v>400</v>
       </c>
@@ -13886,12 +13929,12 @@
       <c r="F10" s="113" t="s">
         <v>213</v>
       </c>
-      <c r="G10" s="298" t="s">
+      <c r="G10" s="300" t="s">
         <v>169</v>
       </c>
-      <c r="H10" s="299"/>
-      <c r="I10" s="299"/>
-      <c r="J10" s="300"/>
+      <c r="H10" s="301"/>
+      <c r="I10" s="301"/>
+      <c r="J10" s="302"/>
       <c r="K10" s="116" t="s">
         <v>170</v>
       </c>
@@ -13902,7 +13945,7 @@
       <c r="N10" s="115" t="s">
         <v>158</v>
       </c>
-      <c r="O10" s="305"/>
+      <c r="O10" s="303"/>
     </row>
     <row r="11" spans="1:17" ht="78.75">
       <c r="A11" s="106">
@@ -13923,12 +13966,12 @@
       <c r="F11" s="113" t="s">
         <v>160</v>
       </c>
-      <c r="G11" s="310" t="s">
+      <c r="G11" s="308" t="s">
         <v>397</v>
       </c>
-      <c r="H11" s="311"/>
-      <c r="I11" s="311"/>
-      <c r="J11" s="312"/>
+      <c r="H11" s="309"/>
+      <c r="I11" s="309"/>
+      <c r="J11" s="310"/>
       <c r="K11" s="116" t="s">
         <v>295</v>
       </c>
@@ -13939,7 +13982,7 @@
       <c r="N11" s="115" t="s">
         <v>158</v>
       </c>
-      <c r="O11" s="306"/>
+      <c r="O11" s="304"/>
     </row>
     <row r="12" spans="1:17" ht="63" customHeight="1">
       <c r="A12" s="106">
@@ -13960,12 +14003,12 @@
       <c r="F12" s="113" t="s">
         <v>303</v>
       </c>
-      <c r="G12" s="298" t="s">
+      <c r="G12" s="300" t="s">
         <v>309</v>
       </c>
-      <c r="H12" s="299"/>
-      <c r="I12" s="299"/>
-      <c r="J12" s="300"/>
+      <c r="H12" s="301"/>
+      <c r="I12" s="301"/>
+      <c r="J12" s="302"/>
       <c r="K12" s="116" t="s">
         <v>310</v>
       </c>
@@ -13999,12 +14042,12 @@
       <c r="F13" s="113" t="s">
         <v>304</v>
       </c>
-      <c r="G13" s="298" t="s">
+      <c r="G13" s="300" t="s">
         <v>312</v>
       </c>
-      <c r="H13" s="299"/>
-      <c r="I13" s="299"/>
-      <c r="J13" s="300"/>
+      <c r="H13" s="301"/>
+      <c r="I13" s="301"/>
+      <c r="J13" s="302"/>
       <c r="K13" s="116" t="s">
         <v>313</v>
       </c>
@@ -14038,12 +14081,12 @@
       <c r="F14" s="113" t="s">
         <v>305</v>
       </c>
-      <c r="G14" s="298" t="s">
+      <c r="G14" s="300" t="s">
         <v>315</v>
       </c>
-      <c r="H14" s="299"/>
-      <c r="I14" s="299"/>
-      <c r="J14" s="300"/>
+      <c r="H14" s="301"/>
+      <c r="I14" s="301"/>
+      <c r="J14" s="302"/>
       <c r="K14" s="116" t="s">
         <v>316</v>
       </c>
@@ -14077,12 +14120,12 @@
       <c r="F15" s="113" t="s">
         <v>306</v>
       </c>
-      <c r="G15" s="307" t="s">
+      <c r="G15" s="305" t="s">
         <v>202</v>
       </c>
-      <c r="H15" s="308"/>
-      <c r="I15" s="308"/>
-      <c r="J15" s="309"/>
+      <c r="H15" s="306"/>
+      <c r="I15" s="306"/>
+      <c r="J15" s="307"/>
       <c r="K15" s="135" t="s">
         <v>203</v>
       </c>
@@ -14118,12 +14161,12 @@
       <c r="F16" s="154" t="s">
         <v>343</v>
       </c>
-      <c r="G16" s="301" t="s">
+      <c r="G16" s="320" t="s">
         <v>344</v>
       </c>
-      <c r="H16" s="301"/>
-      <c r="I16" s="301"/>
-      <c r="J16" s="301"/>
+      <c r="H16" s="320"/>
+      <c r="I16" s="320"/>
+      <c r="J16" s="320"/>
       <c r="K16" s="155" t="s">
         <v>345</v>
       </c>
@@ -14157,12 +14200,12 @@
       <c r="F17" s="202" t="s">
         <v>441</v>
       </c>
-      <c r="G17" s="295" t="s">
+      <c r="G17" s="317" t="s">
         <v>444</v>
       </c>
-      <c r="H17" s="296"/>
-      <c r="I17" s="296"/>
-      <c r="J17" s="297"/>
+      <c r="H17" s="318"/>
+      <c r="I17" s="318"/>
+      <c r="J17" s="319"/>
       <c r="K17" s="199"/>
       <c r="L17" s="199"/>
       <c r="M17" s="199"/>
@@ -14363,11 +14406,11 @@
   </sheetData>
   <dataConsolidate link="1"/>
   <mergeCells count="20">
-    <mergeCell ref="A1:D2"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="G5:J5"/>
-    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="G17:J17"/>
+    <mergeCell ref="G12:J12"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="G14:J14"/>
+    <mergeCell ref="G16:J16"/>
     <mergeCell ref="M1:O1"/>
     <mergeCell ref="M2:O2"/>
     <mergeCell ref="G8:J8"/>
@@ -14378,11 +14421,11 @@
     <mergeCell ref="G9:J9"/>
     <mergeCell ref="G6:J6"/>
     <mergeCell ref="G7:J7"/>
-    <mergeCell ref="G17:J17"/>
-    <mergeCell ref="G12:J12"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="G14:J14"/>
-    <mergeCell ref="G16:J16"/>
+    <mergeCell ref="A1:D2"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="G5:J5"/>
+    <mergeCell ref="G4:J4"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="M1048229:M1048576 M15:M16"/>
@@ -14429,10 +14472,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="12" customHeight="1">
-      <c r="A1" s="240" t="s">
+      <c r="A1" s="251" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="240"/>
+      <c r="B1" s="251"/>
       <c r="C1" s="30" t="s">
         <v>1</v>
       </c>
@@ -14463,8 +14506,8 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="12" customHeight="1">
-      <c r="A2" s="240"/>
-      <c r="B2" s="240"/>
+      <c r="A2" s="251"/>
+      <c r="B2" s="251"/>
       <c r="C2" s="30" t="s">
         <v>2</v>
       </c>
@@ -14782,66 +14825,66 @@
     <row r="26" spans="1:11" ht="12" customHeight="1">
       <c r="A26" s="63"/>
       <c r="B26" s="39"/>
-      <c r="C26" s="326" t="s">
+      <c r="C26" s="321" t="s">
         <v>320</v>
       </c>
-      <c r="D26" s="326"/>
-      <c r="E26" s="326"/>
-      <c r="F26" s="326"/>
-      <c r="G26" s="326"/>
-      <c r="H26" s="326"/>
-      <c r="I26" s="326"/>
-      <c r="J26" s="326"/>
+      <c r="D26" s="321"/>
+      <c r="E26" s="321"/>
+      <c r="F26" s="321"/>
+      <c r="G26" s="321"/>
+      <c r="H26" s="321"/>
+      <c r="I26" s="321"/>
+      <c r="J26" s="321"/>
     </row>
     <row r="27" spans="1:11" ht="12" customHeight="1">
       <c r="A27" s="63"/>
       <c r="B27" s="39"/>
-      <c r="C27" s="326"/>
-      <c r="D27" s="326"/>
-      <c r="E27" s="326"/>
-      <c r="F27" s="326"/>
-      <c r="G27" s="326"/>
-      <c r="H27" s="326"/>
-      <c r="I27" s="326"/>
-      <c r="J27" s="326"/>
+      <c r="C27" s="321"/>
+      <c r="D27" s="321"/>
+      <c r="E27" s="321"/>
+      <c r="F27" s="321"/>
+      <c r="G27" s="321"/>
+      <c r="H27" s="321"/>
+      <c r="I27" s="321"/>
+      <c r="J27" s="321"/>
     </row>
     <row r="28" spans="1:11" ht="12" customHeight="1">
       <c r="A28" s="63"/>
       <c r="B28" s="39"/>
-      <c r="C28" s="326"/>
-      <c r="D28" s="326"/>
-      <c r="E28" s="326"/>
-      <c r="F28" s="326"/>
-      <c r="G28" s="326"/>
-      <c r="H28" s="326"/>
-      <c r="I28" s="326"/>
-      <c r="J28" s="326"/>
+      <c r="C28" s="321"/>
+      <c r="D28" s="321"/>
+      <c r="E28" s="321"/>
+      <c r="F28" s="321"/>
+      <c r="G28" s="321"/>
+      <c r="H28" s="321"/>
+      <c r="I28" s="321"/>
+      <c r="J28" s="321"/>
     </row>
     <row r="29" spans="1:11" ht="12" customHeight="1">
       <c r="A29" s="63"/>
       <c r="B29" s="39"/>
-      <c r="C29" s="326"/>
-      <c r="D29" s="326"/>
-      <c r="E29" s="326"/>
-      <c r="F29" s="326"/>
-      <c r="G29" s="326"/>
-      <c r="H29" s="326"/>
-      <c r="I29" s="326"/>
-      <c r="J29" s="326"/>
+      <c r="C29" s="321"/>
+      <c r="D29" s="321"/>
+      <c r="E29" s="321"/>
+      <c r="F29" s="321"/>
+      <c r="G29" s="321"/>
+      <c r="H29" s="321"/>
+      <c r="I29" s="321"/>
+      <c r="J29" s="321"/>
     </row>
     <row r="30" spans="1:11" ht="12" customHeight="1">
       <c r="A30" s="63"/>
       <c r="B30" s="39"/>
-      <c r="C30" s="326" t="s">
+      <c r="C30" s="321" t="s">
         <v>319</v>
       </c>
-      <c r="D30" s="326"/>
-      <c r="E30" s="326"/>
-      <c r="F30" s="326"/>
-      <c r="G30" s="326"/>
-      <c r="H30" s="326"/>
-      <c r="I30" s="326"/>
-      <c r="J30" s="326"/>
+      <c r="D30" s="321"/>
+      <c r="E30" s="321"/>
+      <c r="F30" s="321"/>
+      <c r="G30" s="321"/>
+      <c r="H30" s="321"/>
+      <c r="I30" s="321"/>
+      <c r="J30" s="321"/>
     </row>
     <row r="31" spans="1:11" ht="12" customHeight="1">
       <c r="A31" s="63"/>
@@ -15002,78 +15045,78 @@
     <row r="44" spans="1:10" ht="12" customHeight="1">
       <c r="A44" s="63"/>
       <c r="B44" s="39"/>
-      <c r="C44" s="326" t="s">
+      <c r="C44" s="321" t="s">
         <v>322</v>
       </c>
-      <c r="D44" s="326"/>
-      <c r="E44" s="326"/>
-      <c r="F44" s="326"/>
-      <c r="G44" s="326"/>
-      <c r="H44" s="326"/>
-      <c r="I44" s="326"/>
-      <c r="J44" s="326"/>
+      <c r="D44" s="321"/>
+      <c r="E44" s="321"/>
+      <c r="F44" s="321"/>
+      <c r="G44" s="321"/>
+      <c r="H44" s="321"/>
+      <c r="I44" s="321"/>
+      <c r="J44" s="321"/>
     </row>
     <row r="45" spans="1:10" ht="12" customHeight="1">
       <c r="A45" s="63"/>
       <c r="B45" s="39"/>
-      <c r="C45" s="326"/>
-      <c r="D45" s="326"/>
-      <c r="E45" s="326"/>
-      <c r="F45" s="326"/>
-      <c r="G45" s="326"/>
-      <c r="H45" s="326"/>
-      <c r="I45" s="326"/>
-      <c r="J45" s="326"/>
+      <c r="C45" s="321"/>
+      <c r="D45" s="321"/>
+      <c r="E45" s="321"/>
+      <c r="F45" s="321"/>
+      <c r="G45" s="321"/>
+      <c r="H45" s="321"/>
+      <c r="I45" s="321"/>
+      <c r="J45" s="321"/>
     </row>
     <row r="46" spans="1:10" ht="12" customHeight="1">
       <c r="A46" s="63"/>
       <c r="B46" s="39"/>
-      <c r="C46" s="326"/>
-      <c r="D46" s="326"/>
-      <c r="E46" s="326"/>
-      <c r="F46" s="326"/>
-      <c r="G46" s="326"/>
-      <c r="H46" s="326"/>
-      <c r="I46" s="326"/>
-      <c r="J46" s="326"/>
+      <c r="C46" s="321"/>
+      <c r="D46" s="321"/>
+      <c r="E46" s="321"/>
+      <c r="F46" s="321"/>
+      <c r="G46" s="321"/>
+      <c r="H46" s="321"/>
+      <c r="I46" s="321"/>
+      <c r="J46" s="321"/>
     </row>
     <row r="47" spans="1:10" ht="12" customHeight="1">
       <c r="A47" s="63"/>
       <c r="B47" s="39"/>
-      <c r="C47" s="326"/>
-      <c r="D47" s="326"/>
-      <c r="E47" s="326"/>
-      <c r="F47" s="326"/>
-      <c r="G47" s="326"/>
-      <c r="H47" s="326"/>
-      <c r="I47" s="326"/>
-      <c r="J47" s="326"/>
+      <c r="C47" s="321"/>
+      <c r="D47" s="321"/>
+      <c r="E47" s="321"/>
+      <c r="F47" s="321"/>
+      <c r="G47" s="321"/>
+      <c r="H47" s="321"/>
+      <c r="I47" s="321"/>
+      <c r="J47" s="321"/>
     </row>
     <row r="48" spans="1:10" ht="12" customHeight="1">
       <c r="A48" s="63"/>
       <c r="B48" s="39"/>
-      <c r="C48" s="326"/>
-      <c r="D48" s="326"/>
-      <c r="E48" s="326"/>
-      <c r="F48" s="326"/>
-      <c r="G48" s="326"/>
-      <c r="H48" s="326"/>
-      <c r="I48" s="326"/>
-      <c r="J48" s="326"/>
+      <c r="C48" s="321"/>
+      <c r="D48" s="321"/>
+      <c r="E48" s="321"/>
+      <c r="F48" s="321"/>
+      <c r="G48" s="321"/>
+      <c r="H48" s="321"/>
+      <c r="I48" s="321"/>
+      <c r="J48" s="321"/>
     </row>
     <row r="49" spans="1:10" ht="12" customHeight="1">
       <c r="A49" s="63"/>
       <c r="B49" s="39"/>
-      <c r="C49" s="326" t="s">
+      <c r="C49" s="321" t="s">
         <v>323</v>
       </c>
-      <c r="D49" s="326"/>
-      <c r="E49" s="326"/>
-      <c r="F49" s="326"/>
-      <c r="G49" s="326"/>
-      <c r="H49" s="326"/>
-      <c r="I49" s="326"/>
-      <c r="J49" s="326"/>
+      <c r="D49" s="321"/>
+      <c r="E49" s="321"/>
+      <c r="F49" s="321"/>
+      <c r="G49" s="321"/>
+      <c r="H49" s="321"/>
+      <c r="I49" s="321"/>
+      <c r="J49" s="321"/>
     </row>
     <row r="50" spans="1:10" ht="12" customHeight="1">
       <c r="A50" s="63"/>
@@ -15234,78 +15277,78 @@
     <row r="63" spans="1:10" ht="12" customHeight="1">
       <c r="A63" s="63"/>
       <c r="B63" s="39"/>
-      <c r="C63" s="326" t="s">
+      <c r="C63" s="321" t="s">
         <v>324</v>
       </c>
-      <c r="D63" s="326"/>
-      <c r="E63" s="326"/>
-      <c r="F63" s="326"/>
-      <c r="G63" s="326"/>
-      <c r="H63" s="326"/>
-      <c r="I63" s="326"/>
-      <c r="J63" s="326"/>
+      <c r="D63" s="321"/>
+      <c r="E63" s="321"/>
+      <c r="F63" s="321"/>
+      <c r="G63" s="321"/>
+      <c r="H63" s="321"/>
+      <c r="I63" s="321"/>
+      <c r="J63" s="321"/>
     </row>
     <row r="64" spans="1:10" ht="12" customHeight="1">
       <c r="A64" s="63"/>
       <c r="B64" s="39"/>
-      <c r="C64" s="326"/>
-      <c r="D64" s="326"/>
-      <c r="E64" s="326"/>
-      <c r="F64" s="326"/>
-      <c r="G64" s="326"/>
-      <c r="H64" s="326"/>
-      <c r="I64" s="326"/>
-      <c r="J64" s="326"/>
+      <c r="C64" s="321"/>
+      <c r="D64" s="321"/>
+      <c r="E64" s="321"/>
+      <c r="F64" s="321"/>
+      <c r="G64" s="321"/>
+      <c r="H64" s="321"/>
+      <c r="I64" s="321"/>
+      <c r="J64" s="321"/>
     </row>
     <row r="65" spans="1:10" ht="12" customHeight="1">
       <c r="A65" s="63"/>
       <c r="B65" s="39"/>
-      <c r="C65" s="326"/>
-      <c r="D65" s="326"/>
-      <c r="E65" s="326"/>
-      <c r="F65" s="326"/>
-      <c r="G65" s="326"/>
-      <c r="H65" s="326"/>
-      <c r="I65" s="326"/>
-      <c r="J65" s="326"/>
+      <c r="C65" s="321"/>
+      <c r="D65" s="321"/>
+      <c r="E65" s="321"/>
+      <c r="F65" s="321"/>
+      <c r="G65" s="321"/>
+      <c r="H65" s="321"/>
+      <c r="I65" s="321"/>
+      <c r="J65" s="321"/>
     </row>
     <row r="66" spans="1:10" ht="12" customHeight="1">
       <c r="A66" s="63"/>
       <c r="B66" s="39"/>
-      <c r="C66" s="326"/>
-      <c r="D66" s="326"/>
-      <c r="E66" s="326"/>
-      <c r="F66" s="326"/>
-      <c r="G66" s="326"/>
-      <c r="H66" s="326"/>
-      <c r="I66" s="326"/>
-      <c r="J66" s="326"/>
+      <c r="C66" s="321"/>
+      <c r="D66" s="321"/>
+      <c r="E66" s="321"/>
+      <c r="F66" s="321"/>
+      <c r="G66" s="321"/>
+      <c r="H66" s="321"/>
+      <c r="I66" s="321"/>
+      <c r="J66" s="321"/>
     </row>
     <row r="67" spans="1:10" ht="12" customHeight="1">
       <c r="A67" s="63"/>
       <c r="B67" s="39"/>
-      <c r="C67" s="326"/>
-      <c r="D67" s="326"/>
-      <c r="E67" s="326"/>
-      <c r="F67" s="326"/>
-      <c r="G67" s="326"/>
-      <c r="H67" s="326"/>
-      <c r="I67" s="326"/>
-      <c r="J67" s="326"/>
+      <c r="C67" s="321"/>
+      <c r="D67" s="321"/>
+      <c r="E67" s="321"/>
+      <c r="F67" s="321"/>
+      <c r="G67" s="321"/>
+      <c r="H67" s="321"/>
+      <c r="I67" s="321"/>
+      <c r="J67" s="321"/>
     </row>
     <row r="68" spans="1:10" ht="12" customHeight="1">
       <c r="A68" s="63"/>
       <c r="B68" s="39"/>
-      <c r="C68" s="326" t="s">
+      <c r="C68" s="321" t="s">
         <v>325</v>
       </c>
-      <c r="D68" s="326"/>
-      <c r="E68" s="326"/>
-      <c r="F68" s="326"/>
-      <c r="G68" s="326"/>
-      <c r="H68" s="326"/>
-      <c r="I68" s="326"/>
-      <c r="J68" s="326"/>
+      <c r="D68" s="321"/>
+      <c r="E68" s="321"/>
+      <c r="F68" s="321"/>
+      <c r="G68" s="321"/>
+      <c r="H68" s="321"/>
+      <c r="I68" s="321"/>
+      <c r="J68" s="321"/>
     </row>
     <row r="69" spans="1:10" ht="12" customHeight="1">
       <c r="A69" s="63"/>
@@ -15453,28 +15496,28 @@
     <row r="81" spans="1:10" ht="12" customHeight="1">
       <c r="A81" s="63"/>
       <c r="B81" s="39"/>
-      <c r="C81" s="326" t="s">
+      <c r="C81" s="321" t="s">
         <v>326</v>
       </c>
-      <c r="D81" s="326"/>
-      <c r="E81" s="326"/>
-      <c r="F81" s="326"/>
-      <c r="G81" s="326"/>
-      <c r="H81" s="326"/>
-      <c r="I81" s="326"/>
-      <c r="J81" s="326"/>
+      <c r="D81" s="321"/>
+      <c r="E81" s="321"/>
+      <c r="F81" s="321"/>
+      <c r="G81" s="321"/>
+      <c r="H81" s="321"/>
+      <c r="I81" s="321"/>
+      <c r="J81" s="321"/>
     </row>
     <row r="82" spans="1:10" ht="12" customHeight="1">
       <c r="A82" s="63"/>
       <c r="B82" s="39"/>
-      <c r="C82" s="326"/>
-      <c r="D82" s="326"/>
-      <c r="E82" s="326"/>
-      <c r="F82" s="326"/>
-      <c r="G82" s="326"/>
-      <c r="H82" s="326"/>
-      <c r="I82" s="326"/>
-      <c r="J82" s="326"/>
+      <c r="C82" s="321"/>
+      <c r="D82" s="321"/>
+      <c r="E82" s="321"/>
+      <c r="F82" s="321"/>
+      <c r="G82" s="321"/>
+      <c r="H82" s="321"/>
+      <c r="I82" s="321"/>
+      <c r="J82" s="321"/>
     </row>
     <row r="83" spans="1:10" ht="12" customHeight="1">
       <c r="A83" s="63"/>
@@ -16306,10 +16349,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="240" t="s">
+      <c r="A1" s="251" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="240"/>
+      <c r="B1" s="251"/>
       <c r="C1" s="30" t="s">
         <v>1</v>
       </c>
@@ -16340,8 +16383,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="240"/>
-      <c r="B2" s="240"/>
+      <c r="A2" s="251"/>
+      <c r="B2" s="251"/>
       <c r="C2" s="30" t="s">
         <v>2</v>
       </c>

--- a/2018/CRM/03_DetailDesign/CRMF2082_Xem chi tiet yeu cau.xlsx
+++ b/2018/CRM/03_DetailDesign/CRMF2082_Xem chi tiet yeu cau.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="15480" windowHeight="9990" tabRatio="836" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="15480" windowHeight="9990" tabRatio="836" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Coverpage" sheetId="20" r:id="rId1"/>
@@ -1419,7 +1419,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="959" uniqueCount="448">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="959" uniqueCount="450">
   <si>
     <t>Detail Design</t>
   </si>
@@ -3134,6 +3134,12 @@
   <si>
     <t>- STT yêu cầu là: 1 (bên file Tasklist)
 - Bổ sung trường Dự án</t>
+  </si>
+  <si>
+    <t>Ver 7.0</t>
+  </si>
+  <si>
+    <t>Ver 6.0</t>
   </si>
 </sst>
 </file>
@@ -3334,15 +3340,15 @@
       <family val="1"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <sz val="9"/>
+      <color theme="0"/>
+      <name val="Tahoma"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
       <color theme="0"/>
-      <name val="Tahoma"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -3675,7 +3681,7 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="344">
+  <cellXfs count="347">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4170,7 +4176,6 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4183,111 +4188,195 @@
     <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="31" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="31" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="31" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="31" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="31" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="31" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="9" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="31" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="11" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="32" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="32" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="32" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="25" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="25" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="25" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="25" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="25" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="25" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="8" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="9" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -4297,60 +4386,6 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="8" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4450,6 +4485,69 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -4471,78 +4569,6 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="11" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -4558,54 +4584,45 @@
     <xf numFmtId="0" fontId="7" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="32" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="32" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="32" fillId="9" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="31" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="9" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="31" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="8" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="8" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="32" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -8032,42 +8049,42 @@
       <c r="R13" s="98"/>
     </row>
     <row r="14" spans="1:18" ht="26.25">
-      <c r="B14" s="217"/>
-      <c r="C14" s="217"/>
-      <c r="D14" s="217"/>
-      <c r="E14" s="217"/>
-      <c r="F14" s="217"/>
-      <c r="G14" s="217"/>
-      <c r="H14" s="217"/>
-      <c r="I14" s="217"/>
-      <c r="J14" s="217"/>
-      <c r="K14" s="217"/>
-      <c r="L14" s="217"/>
-      <c r="M14" s="217"/>
-      <c r="N14" s="217"/>
-      <c r="O14" s="217"/>
-      <c r="P14" s="217"/>
-      <c r="Q14" s="217"/>
-      <c r="R14" s="217"/>
+      <c r="B14" s="219"/>
+      <c r="C14" s="219"/>
+      <c r="D14" s="219"/>
+      <c r="E14" s="219"/>
+      <c r="F14" s="219"/>
+      <c r="G14" s="219"/>
+      <c r="H14" s="219"/>
+      <c r="I14" s="219"/>
+      <c r="J14" s="219"/>
+      <c r="K14" s="219"/>
+      <c r="L14" s="219"/>
+      <c r="M14" s="219"/>
+      <c r="N14" s="219"/>
+      <c r="O14" s="219"/>
+      <c r="P14" s="219"/>
+      <c r="Q14" s="219"/>
+      <c r="R14" s="219"/>
     </row>
     <row r="15" spans="1:18" ht="26.25">
-      <c r="B15" s="217"/>
-      <c r="C15" s="217"/>
-      <c r="D15" s="217"/>
-      <c r="E15" s="217"/>
-      <c r="F15" s="217"/>
-      <c r="G15" s="217"/>
-      <c r="H15" s="217"/>
-      <c r="I15" s="217"/>
-      <c r="J15" s="217"/>
-      <c r="K15" s="217"/>
-      <c r="L15" s="217"/>
-      <c r="M15" s="217"/>
-      <c r="N15" s="217"/>
-      <c r="O15" s="217"/>
-      <c r="P15" s="217"/>
-      <c r="Q15" s="217"/>
-      <c r="R15" s="217"/>
+      <c r="B15" s="219"/>
+      <c r="C15" s="219"/>
+      <c r="D15" s="219"/>
+      <c r="E15" s="219"/>
+      <c r="F15" s="219"/>
+      <c r="G15" s="219"/>
+      <c r="H15" s="219"/>
+      <c r="I15" s="219"/>
+      <c r="J15" s="219"/>
+      <c r="K15" s="219"/>
+      <c r="L15" s="219"/>
+      <c r="M15" s="219"/>
+      <c r="N15" s="219"/>
+      <c r="O15" s="219"/>
+      <c r="P15" s="219"/>
+      <c r="Q15" s="219"/>
+      <c r="R15" s="219"/>
     </row>
     <row r="16" spans="1:18" ht="26.25">
       <c r="A16" s="220" t="s">
@@ -8092,384 +8109,384 @@
       <c r="R16" s="99"/>
     </row>
     <row r="17" spans="1:195" ht="14.1" customHeight="1">
-      <c r="B17" s="217"/>
-      <c r="C17" s="217"/>
-      <c r="D17" s="217"/>
-      <c r="E17" s="217"/>
-      <c r="F17" s="217"/>
-      <c r="G17" s="217"/>
-      <c r="H17" s="217"/>
-      <c r="I17" s="217"/>
-      <c r="J17" s="217"/>
-      <c r="K17" s="217"/>
-      <c r="L17" s="217"/>
-      <c r="M17" s="217"/>
-      <c r="N17" s="217"/>
-      <c r="O17" s="217"/>
-      <c r="P17" s="217"/>
-      <c r="Q17" s="217"/>
-      <c r="R17" s="217"/>
+      <c r="B17" s="219"/>
+      <c r="C17" s="219"/>
+      <c r="D17" s="219"/>
+      <c r="E17" s="219"/>
+      <c r="F17" s="219"/>
+      <c r="G17" s="219"/>
+      <c r="H17" s="219"/>
+      <c r="I17" s="219"/>
+      <c r="J17" s="219"/>
+      <c r="K17" s="219"/>
+      <c r="L17" s="219"/>
+      <c r="M17" s="219"/>
+      <c r="N17" s="219"/>
+      <c r="O17" s="219"/>
+      <c r="P17" s="219"/>
+      <c r="Q17" s="219"/>
+      <c r="R17" s="219"/>
     </row>
     <row r="18" spans="1:195" ht="26.25">
-      <c r="B18" s="217"/>
-      <c r="C18" s="217"/>
-      <c r="D18" s="217"/>
-      <c r="E18" s="217"/>
-      <c r="F18" s="217"/>
-      <c r="G18" s="217"/>
-      <c r="H18" s="217"/>
-      <c r="I18" s="217"/>
-      <c r="J18" s="217"/>
-      <c r="K18" s="217"/>
-      <c r="L18" s="217"/>
-      <c r="M18" s="217"/>
-      <c r="N18" s="217"/>
-      <c r="O18" s="217"/>
-      <c r="P18" s="217"/>
-      <c r="Q18" s="217"/>
-      <c r="R18" s="217"/>
+      <c r="B18" s="219"/>
+      <c r="C18" s="219"/>
+      <c r="D18" s="219"/>
+      <c r="E18" s="219"/>
+      <c r="F18" s="219"/>
+      <c r="G18" s="219"/>
+      <c r="H18" s="219"/>
+      <c r="I18" s="219"/>
+      <c r="J18" s="219"/>
+      <c r="K18" s="219"/>
+      <c r="L18" s="219"/>
+      <c r="M18" s="219"/>
+      <c r="N18" s="219"/>
+      <c r="O18" s="219"/>
+      <c r="P18" s="219"/>
+      <c r="Q18" s="219"/>
+      <c r="R18" s="219"/>
     </row>
     <row r="19" spans="1:195" ht="23.25">
-      <c r="B19" s="219"/>
-      <c r="C19" s="219"/>
-      <c r="D19" s="219"/>
-      <c r="E19" s="219"/>
-      <c r="F19" s="219"/>
-      <c r="G19" s="219"/>
-      <c r="H19" s="219"/>
-      <c r="I19" s="219"/>
-      <c r="J19" s="219"/>
-      <c r="K19" s="219"/>
-      <c r="L19" s="219"/>
-      <c r="M19" s="219"/>
-      <c r="N19" s="219"/>
-      <c r="O19" s="219"/>
-      <c r="P19" s="219"/>
-      <c r="Q19" s="219"/>
-      <c r="R19" s="219"/>
+      <c r="B19" s="236"/>
+      <c r="C19" s="236"/>
+      <c r="D19" s="236"/>
+      <c r="E19" s="236"/>
+      <c r="F19" s="236"/>
+      <c r="G19" s="236"/>
+      <c r="H19" s="236"/>
+      <c r="I19" s="236"/>
+      <c r="J19" s="236"/>
+      <c r="K19" s="236"/>
+      <c r="L19" s="236"/>
+      <c r="M19" s="236"/>
+      <c r="N19" s="236"/>
+      <c r="O19" s="236"/>
+      <c r="P19" s="236"/>
+      <c r="Q19" s="236"/>
+      <c r="R19" s="236"/>
     </row>
     <row r="20" spans="1:195" ht="26.25">
-      <c r="B20" s="217"/>
-      <c r="C20" s="217"/>
-      <c r="D20" s="217"/>
-      <c r="E20" s="217"/>
-      <c r="F20" s="217"/>
-      <c r="G20" s="217"/>
-      <c r="H20" s="217"/>
-      <c r="I20" s="217"/>
-      <c r="J20" s="217"/>
-      <c r="K20" s="217"/>
-      <c r="L20" s="217"/>
-      <c r="M20" s="217"/>
-      <c r="N20" s="217"/>
-      <c r="O20" s="217"/>
-      <c r="P20" s="217"/>
-      <c r="Q20" s="217"/>
-      <c r="R20" s="217"/>
+      <c r="B20" s="219"/>
+      <c r="C20" s="219"/>
+      <c r="D20" s="219"/>
+      <c r="E20" s="219"/>
+      <c r="F20" s="219"/>
+      <c r="G20" s="219"/>
+      <c r="H20" s="219"/>
+      <c r="I20" s="219"/>
+      <c r="J20" s="219"/>
+      <c r="K20" s="219"/>
+      <c r="L20" s="219"/>
+      <c r="M20" s="219"/>
+      <c r="N20" s="219"/>
+      <c r="O20" s="219"/>
+      <c r="P20" s="219"/>
+      <c r="Q20" s="219"/>
+      <c r="R20" s="219"/>
     </row>
     <row r="21" spans="1:195" ht="26.25">
-      <c r="B21" s="217"/>
-      <c r="C21" s="217"/>
-      <c r="D21" s="217"/>
-      <c r="E21" s="217"/>
-      <c r="F21" s="217"/>
-      <c r="G21" s="217"/>
-      <c r="H21" s="217"/>
-      <c r="I21" s="217"/>
-      <c r="J21" s="217"/>
-      <c r="K21" s="217"/>
-      <c r="L21" s="217"/>
-      <c r="M21" s="217"/>
-      <c r="N21" s="217"/>
-      <c r="O21" s="217"/>
-      <c r="P21" s="217"/>
-      <c r="Q21" s="217"/>
-      <c r="R21" s="217"/>
+      <c r="B21" s="219"/>
+      <c r="C21" s="219"/>
+      <c r="D21" s="219"/>
+      <c r="E21" s="219"/>
+      <c r="F21" s="219"/>
+      <c r="G21" s="219"/>
+      <c r="H21" s="219"/>
+      <c r="I21" s="219"/>
+      <c r="J21" s="219"/>
+      <c r="K21" s="219"/>
+      <c r="L21" s="219"/>
+      <c r="M21" s="219"/>
+      <c r="N21" s="219"/>
+      <c r="O21" s="219"/>
+      <c r="P21" s="219"/>
+      <c r="Q21" s="219"/>
+      <c r="R21" s="219"/>
     </row>
     <row r="22" spans="1:195" ht="25.5">
-      <c r="B22" s="218"/>
-      <c r="C22" s="218"/>
-      <c r="D22" s="218"/>
-      <c r="E22" s="218"/>
-      <c r="F22" s="218"/>
-      <c r="G22" s="218"/>
-      <c r="H22" s="218"/>
-      <c r="I22" s="218"/>
-      <c r="J22" s="218"/>
-      <c r="K22" s="218"/>
-      <c r="L22" s="218"/>
-      <c r="M22" s="218"/>
-      <c r="N22" s="218"/>
-      <c r="O22" s="218"/>
-      <c r="P22" s="218"/>
-      <c r="Q22" s="218"/>
-      <c r="R22" s="218"/>
+      <c r="B22" s="235"/>
+      <c r="C22" s="235"/>
+      <c r="D22" s="235"/>
+      <c r="E22" s="235"/>
+      <c r="F22" s="235"/>
+      <c r="G22" s="235"/>
+      <c r="H22" s="235"/>
+      <c r="I22" s="235"/>
+      <c r="J22" s="235"/>
+      <c r="K22" s="235"/>
+      <c r="L22" s="235"/>
+      <c r="M22" s="235"/>
+      <c r="N22" s="235"/>
+      <c r="O22" s="235"/>
+      <c r="P22" s="235"/>
+      <c r="Q22" s="235"/>
+      <c r="R22" s="235"/>
     </row>
     <row r="23" spans="1:195" ht="25.5">
-      <c r="B23" s="218"/>
-      <c r="C23" s="218"/>
-      <c r="D23" s="218"/>
-      <c r="E23" s="218"/>
-      <c r="F23" s="218"/>
-      <c r="G23" s="218"/>
-      <c r="H23" s="218"/>
-      <c r="I23" s="218"/>
-      <c r="J23" s="218"/>
-      <c r="K23" s="218"/>
-      <c r="L23" s="218"/>
-      <c r="M23" s="218"/>
-      <c r="N23" s="218"/>
-      <c r="O23" s="218"/>
-      <c r="P23" s="218"/>
-      <c r="Q23" s="218"/>
-      <c r="R23" s="218"/>
+      <c r="B23" s="235"/>
+      <c r="C23" s="235"/>
+      <c r="D23" s="235"/>
+      <c r="E23" s="235"/>
+      <c r="F23" s="235"/>
+      <c r="G23" s="235"/>
+      <c r="H23" s="235"/>
+      <c r="I23" s="235"/>
+      <c r="J23" s="235"/>
+      <c r="K23" s="235"/>
+      <c r="L23" s="235"/>
+      <c r="M23" s="235"/>
+      <c r="N23" s="235"/>
+      <c r="O23" s="235"/>
+      <c r="P23" s="235"/>
+      <c r="Q23" s="235"/>
+      <c r="R23" s="235"/>
     </row>
     <row r="25" spans="1:195" ht="11.25" customHeight="1"/>
     <row r="26" spans="1:195" ht="18">
-      <c r="B26" s="215"/>
-      <c r="C26" s="215"/>
-      <c r="D26" s="215"/>
-      <c r="E26" s="215"/>
-      <c r="F26" s="215"/>
-      <c r="G26" s="215"/>
-      <c r="H26" s="215"/>
-      <c r="I26" s="215"/>
-      <c r="J26" s="215"/>
-      <c r="K26" s="215"/>
-      <c r="L26" s="215"/>
-      <c r="M26" s="215"/>
-      <c r="N26" s="215"/>
-      <c r="O26" s="215"/>
-      <c r="P26" s="215"/>
-      <c r="Q26" s="215"/>
-      <c r="R26" s="215"/>
+      <c r="B26" s="237"/>
+      <c r="C26" s="237"/>
+      <c r="D26" s="237"/>
+      <c r="E26" s="237"/>
+      <c r="F26" s="237"/>
+      <c r="G26" s="237"/>
+      <c r="H26" s="237"/>
+      <c r="I26" s="237"/>
+      <c r="J26" s="237"/>
+      <c r="K26" s="237"/>
+      <c r="L26" s="237"/>
+      <c r="M26" s="237"/>
+      <c r="N26" s="237"/>
+      <c r="O26" s="237"/>
+      <c r="P26" s="237"/>
+      <c r="Q26" s="237"/>
+      <c r="R26" s="237"/>
     </row>
     <row r="28" spans="1:195" ht="18">
-      <c r="B28" s="216"/>
-      <c r="C28" s="216"/>
-      <c r="D28" s="216"/>
-      <c r="E28" s="216"/>
-      <c r="F28" s="216"/>
-      <c r="G28" s="216"/>
-      <c r="H28" s="216"/>
-      <c r="I28" s="216"/>
-      <c r="J28" s="216"/>
-      <c r="K28" s="216"/>
-      <c r="L28" s="216"/>
-      <c r="M28" s="216"/>
-      <c r="N28" s="216"/>
-      <c r="O28" s="216"/>
-      <c r="P28" s="216"/>
-      <c r="Q28" s="216"/>
-      <c r="R28" s="216"/>
-      <c r="S28" s="214"/>
-      <c r="T28" s="214"/>
-      <c r="U28" s="214"/>
-      <c r="V28" s="214"/>
-      <c r="W28" s="214"/>
-      <c r="X28" s="214"/>
-      <c r="Y28" s="214"/>
-      <c r="Z28" s="214"/>
-      <c r="AA28" s="214"/>
-      <c r="AB28" s="214"/>
-      <c r="AC28" s="214"/>
-      <c r="AD28" s="214"/>
-      <c r="AE28" s="214"/>
-      <c r="AF28" s="214"/>
-      <c r="AG28" s="214"/>
-      <c r="AH28" s="214"/>
-      <c r="AI28" s="214"/>
-      <c r="AJ28" s="214"/>
-      <c r="AK28" s="214"/>
-      <c r="AL28" s="214"/>
-      <c r="AM28" s="214"/>
-      <c r="AN28" s="214"/>
-      <c r="AO28" s="214"/>
-      <c r="AP28" s="214"/>
-      <c r="AQ28" s="214"/>
-      <c r="AR28" s="214"/>
-      <c r="AS28" s="214"/>
-      <c r="AT28" s="214"/>
-      <c r="AU28" s="214"/>
-      <c r="AV28" s="214"/>
-      <c r="AW28" s="214"/>
-      <c r="AX28" s="214"/>
-      <c r="AY28" s="214"/>
-      <c r="AZ28" s="214"/>
-      <c r="BA28" s="214"/>
-      <c r="BB28" s="214"/>
-      <c r="BC28" s="214"/>
-      <c r="BD28" s="214"/>
-      <c r="BE28" s="214"/>
-      <c r="BF28" s="214"/>
-      <c r="BG28" s="214"/>
-      <c r="BH28" s="214"/>
-      <c r="BI28" s="214"/>
-      <c r="BJ28" s="214"/>
-      <c r="BK28" s="214"/>
-      <c r="BL28" s="214"/>
-      <c r="BM28" s="214"/>
-      <c r="BN28" s="214"/>
-      <c r="BO28" s="214"/>
-      <c r="BP28" s="214"/>
-      <c r="BQ28" s="214"/>
-      <c r="BR28" s="214"/>
-      <c r="BS28" s="214"/>
-      <c r="BT28" s="214"/>
-      <c r="BU28" s="214"/>
-      <c r="BV28" s="214"/>
-      <c r="BW28" s="214"/>
-      <c r="BX28" s="214"/>
-      <c r="BY28" s="214"/>
-      <c r="BZ28" s="214"/>
-      <c r="CA28" s="214"/>
-      <c r="CB28" s="214"/>
-      <c r="CC28" s="214"/>
-      <c r="CD28" s="214"/>
-      <c r="CE28" s="214"/>
-      <c r="CF28" s="214"/>
-      <c r="CG28" s="214"/>
-      <c r="CH28" s="214"/>
-      <c r="CI28" s="214"/>
-      <c r="CJ28" s="214"/>
-      <c r="CK28" s="214"/>
-      <c r="CL28" s="214"/>
-      <c r="CM28" s="214"/>
-      <c r="CN28" s="214"/>
-      <c r="CO28" s="214"/>
-      <c r="CP28" s="214"/>
-      <c r="CQ28" s="214"/>
-      <c r="CR28" s="214"/>
-      <c r="CS28" s="214"/>
-      <c r="CT28" s="214"/>
-      <c r="CU28" s="214"/>
-      <c r="CV28" s="214"/>
-      <c r="CW28" s="214"/>
-      <c r="CX28" s="214"/>
-      <c r="CY28" s="214"/>
-      <c r="CZ28" s="214"/>
-      <c r="DA28" s="214"/>
-      <c r="DB28" s="214"/>
-      <c r="DC28" s="214"/>
-      <c r="DD28" s="214"/>
-      <c r="DE28" s="214"/>
-      <c r="DF28" s="214"/>
-      <c r="DG28" s="214"/>
-      <c r="DH28" s="214"/>
-      <c r="DI28" s="214"/>
-      <c r="DJ28" s="214"/>
-      <c r="DK28" s="214"/>
-      <c r="DL28" s="214"/>
-      <c r="DM28" s="214"/>
-      <c r="DN28" s="214"/>
-      <c r="DO28" s="214"/>
-      <c r="DP28" s="214"/>
-      <c r="DQ28" s="214"/>
-      <c r="DR28" s="214"/>
-      <c r="DS28" s="214"/>
-      <c r="DT28" s="214"/>
-      <c r="DU28" s="214"/>
-      <c r="DV28" s="214"/>
-      <c r="DW28" s="214"/>
-      <c r="DX28" s="214"/>
-      <c r="DY28" s="214"/>
-      <c r="DZ28" s="214"/>
-      <c r="EA28" s="214"/>
-      <c r="EB28" s="214"/>
-      <c r="EC28" s="214"/>
-      <c r="ED28" s="214"/>
-      <c r="EE28" s="214"/>
-      <c r="EF28" s="214"/>
-      <c r="EG28" s="214"/>
-      <c r="EH28" s="214"/>
-      <c r="EI28" s="214"/>
-      <c r="EJ28" s="214"/>
-      <c r="EK28" s="214"/>
-      <c r="EL28" s="214"/>
-      <c r="EM28" s="214"/>
-      <c r="EN28" s="214"/>
-      <c r="EO28" s="214"/>
-      <c r="EP28" s="214"/>
-      <c r="EQ28" s="214"/>
-      <c r="ER28" s="214"/>
-      <c r="ES28" s="214"/>
-      <c r="ET28" s="214"/>
-      <c r="EU28" s="214"/>
-      <c r="EV28" s="214"/>
-      <c r="EW28" s="214"/>
-      <c r="EX28" s="214"/>
-      <c r="EY28" s="214"/>
-      <c r="EZ28" s="214"/>
-      <c r="FA28" s="214"/>
-      <c r="FB28" s="214"/>
-      <c r="FC28" s="214"/>
-      <c r="FD28" s="214"/>
-      <c r="FE28" s="214"/>
-      <c r="FF28" s="214"/>
-      <c r="FG28" s="214"/>
-      <c r="FH28" s="214"/>
-      <c r="FI28" s="214"/>
-      <c r="FJ28" s="214"/>
-      <c r="FK28" s="214"/>
-      <c r="FL28" s="214"/>
-      <c r="FM28" s="214"/>
-      <c r="FN28" s="214"/>
-      <c r="FO28" s="214"/>
-      <c r="FP28" s="214"/>
-      <c r="FQ28" s="214"/>
-      <c r="FR28" s="214"/>
-      <c r="FS28" s="214"/>
-      <c r="FT28" s="214"/>
-      <c r="FU28" s="214"/>
-      <c r="FV28" s="214"/>
-      <c r="FW28" s="214"/>
-      <c r="FX28" s="214"/>
-      <c r="FY28" s="214"/>
-      <c r="FZ28" s="214"/>
-      <c r="GA28" s="214"/>
-      <c r="GB28" s="214"/>
-      <c r="GC28" s="214"/>
-      <c r="GD28" s="214"/>
-      <c r="GE28" s="214"/>
-      <c r="GF28" s="214"/>
-      <c r="GG28" s="214"/>
-      <c r="GH28" s="214"/>
-      <c r="GI28" s="214"/>
-      <c r="GJ28" s="214"/>
-      <c r="GK28" s="214"/>
-      <c r="GL28" s="214"/>
+      <c r="B28" s="239"/>
+      <c r="C28" s="239"/>
+      <c r="D28" s="239"/>
+      <c r="E28" s="239"/>
+      <c r="F28" s="239"/>
+      <c r="G28" s="239"/>
+      <c r="H28" s="239"/>
+      <c r="I28" s="239"/>
+      <c r="J28" s="239"/>
+      <c r="K28" s="239"/>
+      <c r="L28" s="239"/>
+      <c r="M28" s="239"/>
+      <c r="N28" s="239"/>
+      <c r="O28" s="239"/>
+      <c r="P28" s="239"/>
+      <c r="Q28" s="239"/>
+      <c r="R28" s="239"/>
+      <c r="S28" s="238"/>
+      <c r="T28" s="238"/>
+      <c r="U28" s="238"/>
+      <c r="V28" s="238"/>
+      <c r="W28" s="238"/>
+      <c r="X28" s="238"/>
+      <c r="Y28" s="238"/>
+      <c r="Z28" s="238"/>
+      <c r="AA28" s="238"/>
+      <c r="AB28" s="238"/>
+      <c r="AC28" s="238"/>
+      <c r="AD28" s="238"/>
+      <c r="AE28" s="238"/>
+      <c r="AF28" s="238"/>
+      <c r="AG28" s="238"/>
+      <c r="AH28" s="238"/>
+      <c r="AI28" s="238"/>
+      <c r="AJ28" s="238"/>
+      <c r="AK28" s="238"/>
+      <c r="AL28" s="238"/>
+      <c r="AM28" s="238"/>
+      <c r="AN28" s="238"/>
+      <c r="AO28" s="238"/>
+      <c r="AP28" s="238"/>
+      <c r="AQ28" s="238"/>
+      <c r="AR28" s="238"/>
+      <c r="AS28" s="238"/>
+      <c r="AT28" s="238"/>
+      <c r="AU28" s="238"/>
+      <c r="AV28" s="238"/>
+      <c r="AW28" s="238"/>
+      <c r="AX28" s="238"/>
+      <c r="AY28" s="238"/>
+      <c r="AZ28" s="238"/>
+      <c r="BA28" s="238"/>
+      <c r="BB28" s="238"/>
+      <c r="BC28" s="238"/>
+      <c r="BD28" s="238"/>
+      <c r="BE28" s="238"/>
+      <c r="BF28" s="238"/>
+      <c r="BG28" s="238"/>
+      <c r="BH28" s="238"/>
+      <c r="BI28" s="238"/>
+      <c r="BJ28" s="238"/>
+      <c r="BK28" s="238"/>
+      <c r="BL28" s="238"/>
+      <c r="BM28" s="238"/>
+      <c r="BN28" s="238"/>
+      <c r="BO28" s="238"/>
+      <c r="BP28" s="238"/>
+      <c r="BQ28" s="238"/>
+      <c r="BR28" s="238"/>
+      <c r="BS28" s="238"/>
+      <c r="BT28" s="238"/>
+      <c r="BU28" s="238"/>
+      <c r="BV28" s="238"/>
+      <c r="BW28" s="238"/>
+      <c r="BX28" s="238"/>
+      <c r="BY28" s="238"/>
+      <c r="BZ28" s="238"/>
+      <c r="CA28" s="238"/>
+      <c r="CB28" s="238"/>
+      <c r="CC28" s="238"/>
+      <c r="CD28" s="238"/>
+      <c r="CE28" s="238"/>
+      <c r="CF28" s="238"/>
+      <c r="CG28" s="238"/>
+      <c r="CH28" s="238"/>
+      <c r="CI28" s="238"/>
+      <c r="CJ28" s="238"/>
+      <c r="CK28" s="238"/>
+      <c r="CL28" s="238"/>
+      <c r="CM28" s="238"/>
+      <c r="CN28" s="238"/>
+      <c r="CO28" s="238"/>
+      <c r="CP28" s="238"/>
+      <c r="CQ28" s="238"/>
+      <c r="CR28" s="238"/>
+      <c r="CS28" s="238"/>
+      <c r="CT28" s="238"/>
+      <c r="CU28" s="238"/>
+      <c r="CV28" s="238"/>
+      <c r="CW28" s="238"/>
+      <c r="CX28" s="238"/>
+      <c r="CY28" s="238"/>
+      <c r="CZ28" s="238"/>
+      <c r="DA28" s="238"/>
+      <c r="DB28" s="238"/>
+      <c r="DC28" s="238"/>
+      <c r="DD28" s="238"/>
+      <c r="DE28" s="238"/>
+      <c r="DF28" s="238"/>
+      <c r="DG28" s="238"/>
+      <c r="DH28" s="238"/>
+      <c r="DI28" s="238"/>
+      <c r="DJ28" s="238"/>
+      <c r="DK28" s="238"/>
+      <c r="DL28" s="238"/>
+      <c r="DM28" s="238"/>
+      <c r="DN28" s="238"/>
+      <c r="DO28" s="238"/>
+      <c r="DP28" s="238"/>
+      <c r="DQ28" s="238"/>
+      <c r="DR28" s="238"/>
+      <c r="DS28" s="238"/>
+      <c r="DT28" s="238"/>
+      <c r="DU28" s="238"/>
+      <c r="DV28" s="238"/>
+      <c r="DW28" s="238"/>
+      <c r="DX28" s="238"/>
+      <c r="DY28" s="238"/>
+      <c r="DZ28" s="238"/>
+      <c r="EA28" s="238"/>
+      <c r="EB28" s="238"/>
+      <c r="EC28" s="238"/>
+      <c r="ED28" s="238"/>
+      <c r="EE28" s="238"/>
+      <c r="EF28" s="238"/>
+      <c r="EG28" s="238"/>
+      <c r="EH28" s="238"/>
+      <c r="EI28" s="238"/>
+      <c r="EJ28" s="238"/>
+      <c r="EK28" s="238"/>
+      <c r="EL28" s="238"/>
+      <c r="EM28" s="238"/>
+      <c r="EN28" s="238"/>
+      <c r="EO28" s="238"/>
+      <c r="EP28" s="238"/>
+      <c r="EQ28" s="238"/>
+      <c r="ER28" s="238"/>
+      <c r="ES28" s="238"/>
+      <c r="ET28" s="238"/>
+      <c r="EU28" s="238"/>
+      <c r="EV28" s="238"/>
+      <c r="EW28" s="238"/>
+      <c r="EX28" s="238"/>
+      <c r="EY28" s="238"/>
+      <c r="EZ28" s="238"/>
+      <c r="FA28" s="238"/>
+      <c r="FB28" s="238"/>
+      <c r="FC28" s="238"/>
+      <c r="FD28" s="238"/>
+      <c r="FE28" s="238"/>
+      <c r="FF28" s="238"/>
+      <c r="FG28" s="238"/>
+      <c r="FH28" s="238"/>
+      <c r="FI28" s="238"/>
+      <c r="FJ28" s="238"/>
+      <c r="FK28" s="238"/>
+      <c r="FL28" s="238"/>
+      <c r="FM28" s="238"/>
+      <c r="FN28" s="238"/>
+      <c r="FO28" s="238"/>
+      <c r="FP28" s="238"/>
+      <c r="FQ28" s="238"/>
+      <c r="FR28" s="238"/>
+      <c r="FS28" s="238"/>
+      <c r="FT28" s="238"/>
+      <c r="FU28" s="238"/>
+      <c r="FV28" s="238"/>
+      <c r="FW28" s="238"/>
+      <c r="FX28" s="238"/>
+      <c r="FY28" s="238"/>
+      <c r="FZ28" s="238"/>
+      <c r="GA28" s="238"/>
+      <c r="GB28" s="238"/>
+      <c r="GC28" s="238"/>
+      <c r="GD28" s="238"/>
+      <c r="GE28" s="238"/>
+      <c r="GF28" s="238"/>
+      <c r="GG28" s="238"/>
+      <c r="GH28" s="238"/>
+      <c r="GI28" s="238"/>
+      <c r="GJ28" s="238"/>
+      <c r="GK28" s="238"/>
+      <c r="GL28" s="238"/>
       <c r="GM28" s="100"/>
     </row>
     <row r="29" spans="1:195" ht="18">
-      <c r="B29" s="215"/>
-      <c r="C29" s="215"/>
-      <c r="D29" s="215"/>
-      <c r="E29" s="215"/>
-      <c r="F29" s="215"/>
-      <c r="G29" s="215"/>
-      <c r="H29" s="215"/>
-      <c r="I29" s="215"/>
-      <c r="J29" s="215"/>
-      <c r="K29" s="215"/>
-      <c r="L29" s="215"/>
-      <c r="M29" s="215"/>
-      <c r="N29" s="215"/>
-      <c r="O29" s="215"/>
-      <c r="P29" s="215"/>
-      <c r="Q29" s="215"/>
-      <c r="R29" s="215"/>
+      <c r="B29" s="237"/>
+      <c r="C29" s="237"/>
+      <c r="D29" s="237"/>
+      <c r="E29" s="237"/>
+      <c r="F29" s="237"/>
+      <c r="G29" s="237"/>
+      <c r="H29" s="237"/>
+      <c r="I29" s="237"/>
+      <c r="J29" s="237"/>
+      <c r="K29" s="237"/>
+      <c r="L29" s="237"/>
+      <c r="M29" s="237"/>
+      <c r="N29" s="237"/>
+      <c r="O29" s="237"/>
+      <c r="P29" s="237"/>
+      <c r="Q29" s="237"/>
+      <c r="R29" s="237"/>
     </row>
     <row r="30" spans="1:195" ht="13.5" customHeight="1">
-      <c r="A30" s="213"/>
-      <c r="B30" s="213"/>
-      <c r="C30" s="213"/>
-      <c r="D30" s="213"/>
-      <c r="E30" s="213"/>
-      <c r="F30" s="213"/>
-      <c r="G30" s="213"/>
-      <c r="H30" s="213"/>
-      <c r="I30" s="213"/>
-      <c r="J30" s="213"/>
+      <c r="A30" s="240"/>
+      <c r="B30" s="240"/>
+      <c r="C30" s="240"/>
+      <c r="D30" s="240"/>
+      <c r="E30" s="240"/>
+      <c r="F30" s="240"/>
+      <c r="G30" s="240"/>
+      <c r="H30" s="240"/>
+      <c r="I30" s="240"/>
+      <c r="J30" s="240"/>
       <c r="K30" s="101"/>
       <c r="L30" s="101"/>
       <c r="M30" s="101"/>
@@ -8480,16 +8497,16 @@
       <c r="R30" s="101"/>
     </row>
     <row r="31" spans="1:195" ht="13.5" customHeight="1">
-      <c r="A31" s="213"/>
-      <c r="B31" s="213"/>
-      <c r="C31" s="213"/>
-      <c r="D31" s="213"/>
-      <c r="E31" s="213"/>
-      <c r="F31" s="213"/>
-      <c r="G31" s="213"/>
-      <c r="H31" s="213"/>
-      <c r="I31" s="213"/>
-      <c r="J31" s="213"/>
+      <c r="A31" s="240"/>
+      <c r="B31" s="240"/>
+      <c r="C31" s="240"/>
+      <c r="D31" s="240"/>
+      <c r="E31" s="240"/>
+      <c r="F31" s="240"/>
+      <c r="G31" s="240"/>
+      <c r="H31" s="240"/>
+      <c r="I31" s="240"/>
+      <c r="J31" s="240"/>
       <c r="K31" s="101"/>
       <c r="L31" s="101"/>
       <c r="M31" s="101"/>
@@ -8501,6 +8518,28 @@
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="A30:J30"/>
+    <mergeCell ref="A31:J31"/>
+    <mergeCell ref="DF28:DV28"/>
+    <mergeCell ref="DW28:EM28"/>
+    <mergeCell ref="EN28:FD28"/>
+    <mergeCell ref="B26:R26"/>
+    <mergeCell ref="FE28:FU28"/>
+    <mergeCell ref="FV28:GL28"/>
+    <mergeCell ref="B29:R29"/>
+    <mergeCell ref="S28:X28"/>
+    <mergeCell ref="Y28:AO28"/>
+    <mergeCell ref="AP28:BF28"/>
+    <mergeCell ref="BG28:BW28"/>
+    <mergeCell ref="BX28:CN28"/>
+    <mergeCell ref="CO28:DE28"/>
+    <mergeCell ref="B28:R28"/>
+    <mergeCell ref="B18:R18"/>
+    <mergeCell ref="B20:R20"/>
+    <mergeCell ref="B21:R21"/>
+    <mergeCell ref="B22:R22"/>
+    <mergeCell ref="B23:R23"/>
+    <mergeCell ref="B19:R19"/>
     <mergeCell ref="B14:R14"/>
     <mergeCell ref="B15:R15"/>
     <mergeCell ref="A16:J16"/>
@@ -8514,28 +8553,6 @@
     <mergeCell ref="C1:F3"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="I2:J2"/>
-    <mergeCell ref="B18:R18"/>
-    <mergeCell ref="B20:R20"/>
-    <mergeCell ref="B21:R21"/>
-    <mergeCell ref="B22:R22"/>
-    <mergeCell ref="B23:R23"/>
-    <mergeCell ref="B19:R19"/>
-    <mergeCell ref="B26:R26"/>
-    <mergeCell ref="FE28:FU28"/>
-    <mergeCell ref="FV28:GL28"/>
-    <mergeCell ref="B29:R29"/>
-    <mergeCell ref="S28:X28"/>
-    <mergeCell ref="Y28:AO28"/>
-    <mergeCell ref="AP28:BF28"/>
-    <mergeCell ref="BG28:BW28"/>
-    <mergeCell ref="BX28:CN28"/>
-    <mergeCell ref="CO28:DE28"/>
-    <mergeCell ref="B28:R28"/>
-    <mergeCell ref="A30:J30"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="DF28:DV28"/>
-    <mergeCell ref="DW28:EM28"/>
-    <mergeCell ref="EN28:FD28"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.196850393700787" right="0.196850393700787" top="0.39370078740157499" bottom="0" header="0" footer="0"/>
@@ -8562,14 +8579,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="14.25">
-      <c r="B1" s="322" t="s">
+      <c r="B1" s="328" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="322"/>
-      <c r="D1" s="322"/>
-      <c r="E1" s="322"/>
-      <c r="F1" s="322"/>
-      <c r="G1" s="322"/>
+      <c r="C1" s="328"/>
+      <c r="D1" s="328"/>
+      <c r="E1" s="328"/>
+      <c r="F1" s="328"/>
+      <c r="G1" s="328"/>
     </row>
     <row r="2" spans="2:7" s="17" customFormat="1">
       <c r="B2" s="16"/>
@@ -8762,11 +8779,11 @@
       </c>
     </row>
     <row r="27" spans="2:7" ht="200.25" customHeight="1">
-      <c r="E27" s="323" t="s">
+      <c r="E27" s="329" t="s">
         <v>37</v>
       </c>
-      <c r="F27" s="324"/>
-      <c r="G27" s="325"/>
+      <c r="F27" s="330"/>
+      <c r="G27" s="331"/>
     </row>
     <row r="29" spans="2:7">
       <c r="B29" s="19" t="s">
@@ -9073,8 +9090,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12:J12"/>
+    <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20:J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -9090,10 +9107,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="251" t="s">
+      <c r="A1" s="241" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="251"/>
+      <c r="B1" s="241"/>
       <c r="C1" s="30" t="s">
         <v>1</v>
       </c>
@@ -9120,8 +9137,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="251"/>
-      <c r="B2" s="251"/>
+      <c r="A2" s="241"/>
+      <c r="B2" s="241"/>
       <c r="C2" s="30" t="s">
         <v>2</v>
       </c>
@@ -9160,14 +9177,14 @@
       <c r="D4" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="252" t="s">
+      <c r="E4" s="242" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="252"/>
-      <c r="G4" s="252"/>
-      <c r="H4" s="252"/>
-      <c r="I4" s="252"/>
-      <c r="J4" s="252"/>
+      <c r="F4" s="242"/>
+      <c r="G4" s="242"/>
+      <c r="H4" s="242"/>
+      <c r="I4" s="242"/>
+      <c r="J4" s="242"/>
     </row>
     <row r="5" spans="1:10" s="25" customFormat="1" ht="47.25" customHeight="1">
       <c r="A5" s="108">
@@ -9182,14 +9199,14 @@
       <c r="D5" s="34">
         <v>42821</v>
       </c>
-      <c r="E5" s="253" t="s">
+      <c r="E5" s="243" t="s">
         <v>157</v>
       </c>
-      <c r="F5" s="253"/>
-      <c r="G5" s="253"/>
-      <c r="H5" s="253"/>
-      <c r="I5" s="253"/>
-      <c r="J5" s="253"/>
+      <c r="F5" s="243"/>
+      <c r="G5" s="243"/>
+      <c r="H5" s="243"/>
+      <c r="I5" s="243"/>
+      <c r="J5" s="243"/>
     </row>
     <row r="6" spans="1:10" ht="12.75">
       <c r="A6" s="72">
@@ -9204,14 +9221,14 @@
       <c r="D6" s="148">
         <v>42877</v>
       </c>
-      <c r="E6" s="254" t="s">
+      <c r="E6" s="244" t="s">
         <v>337</v>
       </c>
-      <c r="F6" s="255"/>
-      <c r="G6" s="255"/>
-      <c r="H6" s="255"/>
-      <c r="I6" s="255"/>
-      <c r="J6" s="256"/>
+      <c r="F6" s="245"/>
+      <c r="G6" s="245"/>
+      <c r="H6" s="245"/>
+      <c r="I6" s="245"/>
+      <c r="J6" s="246"/>
     </row>
     <row r="7" spans="1:10" ht="12" customHeight="1">
       <c r="A7" s="73">
@@ -9226,14 +9243,14 @@
       <c r="D7" s="150">
         <v>42879</v>
       </c>
-      <c r="E7" s="239" t="s">
+      <c r="E7" s="248" t="s">
         <v>339</v>
       </c>
-      <c r="F7" s="240"/>
-      <c r="G7" s="240"/>
-      <c r="H7" s="240"/>
-      <c r="I7" s="240"/>
-      <c r="J7" s="241"/>
+      <c r="F7" s="249"/>
+      <c r="G7" s="249"/>
+      <c r="H7" s="249"/>
+      <c r="I7" s="249"/>
+      <c r="J7" s="250"/>
     </row>
     <row r="8" spans="1:10" ht="12" customHeight="1">
       <c r="A8" s="74">
@@ -9248,14 +9265,14 @@
       <c r="D8" s="163">
         <v>42983</v>
       </c>
-      <c r="E8" s="242" t="s">
+      <c r="E8" s="251" t="s">
         <v>348</v>
       </c>
-      <c r="F8" s="243"/>
-      <c r="G8" s="243"/>
-      <c r="H8" s="243"/>
-      <c r="I8" s="243"/>
-      <c r="J8" s="244"/>
+      <c r="F8" s="252"/>
+      <c r="G8" s="252"/>
+      <c r="H8" s="252"/>
+      <c r="I8" s="252"/>
+      <c r="J8" s="253"/>
     </row>
     <row r="9" spans="1:10" ht="52.5" customHeight="1">
       <c r="A9" s="75">
@@ -9270,54 +9287,54 @@
       <c r="D9" s="168" t="s">
         <v>353</v>
       </c>
-      <c r="E9" s="245" t="s">
+      <c r="E9" s="254" t="s">
         <v>445</v>
       </c>
-      <c r="F9" s="246"/>
-      <c r="G9" s="246"/>
-      <c r="H9" s="246"/>
-      <c r="I9" s="246"/>
-      <c r="J9" s="247"/>
-    </row>
-    <row r="10" spans="1:10" s="210" customFormat="1" ht="27" customHeight="1">
+      <c r="F9" s="255"/>
+      <c r="G9" s="255"/>
+      <c r="H9" s="255"/>
+      <c r="I9" s="255"/>
+      <c r="J9" s="256"/>
+    </row>
+    <row r="10" spans="1:10" s="201" customFormat="1" ht="27" customHeight="1">
       <c r="A10" s="76">
         <v>6</v>
       </c>
-      <c r="B10" s="207">
+      <c r="B10" s="198">
         <v>6</v>
       </c>
-      <c r="C10" s="208" t="s">
+      <c r="C10" s="199" t="s">
         <v>352</v>
       </c>
-      <c r="D10" s="209"/>
-      <c r="E10" s="248" t="s">
+      <c r="D10" s="200"/>
+      <c r="E10" s="257" t="s">
         <v>446</v>
       </c>
-      <c r="F10" s="249"/>
-      <c r="G10" s="249"/>
-      <c r="H10" s="249"/>
-      <c r="I10" s="249"/>
-      <c r="J10" s="250"/>
-    </row>
-    <row r="11" spans="1:10" s="331" customFormat="1" ht="30" customHeight="1">
+      <c r="F10" s="258"/>
+      <c r="G10" s="258"/>
+      <c r="H10" s="258"/>
+      <c r="I10" s="258"/>
+      <c r="J10" s="259"/>
+    </row>
+    <row r="11" spans="1:10" s="207" customFormat="1" ht="30" customHeight="1">
       <c r="A11" s="77">
         <v>7</v>
       </c>
-      <c r="B11" s="326">
+      <c r="B11" s="204">
         <v>7</v>
       </c>
-      <c r="C11" s="327" t="s">
+      <c r="C11" s="205" t="s">
         <v>352</v>
       </c>
-      <c r="D11" s="328"/>
-      <c r="E11" s="332" t="s">
+      <c r="D11" s="206"/>
+      <c r="E11" s="260" t="s">
         <v>447</v>
       </c>
-      <c r="F11" s="329"/>
-      <c r="G11" s="329"/>
-      <c r="H11" s="329"/>
-      <c r="I11" s="329"/>
-      <c r="J11" s="330"/>
+      <c r="F11" s="261"/>
+      <c r="G11" s="261"/>
+      <c r="H11" s="261"/>
+      <c r="I11" s="261"/>
+      <c r="J11" s="262"/>
     </row>
     <row r="12" spans="1:10" ht="12" customHeight="1">
       <c r="A12" s="78">
@@ -9328,12 +9345,12 @@
       </c>
       <c r="C12" s="66"/>
       <c r="D12" s="36"/>
-      <c r="E12" s="236"/>
-      <c r="F12" s="237"/>
-      <c r="G12" s="237"/>
-      <c r="H12" s="237"/>
-      <c r="I12" s="237"/>
-      <c r="J12" s="238"/>
+      <c r="E12" s="263"/>
+      <c r="F12" s="264"/>
+      <c r="G12" s="264"/>
+      <c r="H12" s="264"/>
+      <c r="I12" s="264"/>
+      <c r="J12" s="265"/>
     </row>
     <row r="13" spans="1:10" ht="12" customHeight="1">
       <c r="A13" s="79">
@@ -9344,12 +9361,12 @@
       </c>
       <c r="C13" s="66"/>
       <c r="D13" s="36"/>
-      <c r="E13" s="236"/>
-      <c r="F13" s="237"/>
-      <c r="G13" s="237"/>
-      <c r="H13" s="237"/>
-      <c r="I13" s="237"/>
-      <c r="J13" s="238"/>
+      <c r="E13" s="263"/>
+      <c r="F13" s="264"/>
+      <c r="G13" s="264"/>
+      <c r="H13" s="264"/>
+      <c r="I13" s="264"/>
+      <c r="J13" s="265"/>
     </row>
     <row r="14" spans="1:10" ht="12" customHeight="1">
       <c r="A14" s="80">
@@ -9360,12 +9377,12 @@
       </c>
       <c r="C14" s="66"/>
       <c r="D14" s="36"/>
-      <c r="E14" s="236"/>
-      <c r="F14" s="237"/>
-      <c r="G14" s="237"/>
-      <c r="H14" s="237"/>
-      <c r="I14" s="237"/>
-      <c r="J14" s="238"/>
+      <c r="E14" s="263"/>
+      <c r="F14" s="264"/>
+      <c r="G14" s="264"/>
+      <c r="H14" s="264"/>
+      <c r="I14" s="264"/>
+      <c r="J14" s="265"/>
     </row>
     <row r="15" spans="1:10" ht="12" customHeight="1">
       <c r="A15" s="36">
@@ -9376,12 +9393,12 @@
       </c>
       <c r="C15" s="66"/>
       <c r="D15" s="36"/>
-      <c r="E15" s="235"/>
-      <c r="F15" s="235"/>
-      <c r="G15" s="235"/>
-      <c r="H15" s="235"/>
-      <c r="I15" s="235"/>
-      <c r="J15" s="235"/>
+      <c r="E15" s="247"/>
+      <c r="F15" s="247"/>
+      <c r="G15" s="247"/>
+      <c r="H15" s="247"/>
+      <c r="I15" s="247"/>
+      <c r="J15" s="247"/>
     </row>
     <row r="16" spans="1:10" ht="12" customHeight="1">
       <c r="A16" s="72">
@@ -9392,12 +9409,12 @@
       </c>
       <c r="C16" s="66"/>
       <c r="D16" s="36"/>
-      <c r="E16" s="235"/>
-      <c r="F16" s="235"/>
-      <c r="G16" s="235"/>
-      <c r="H16" s="235"/>
-      <c r="I16" s="235"/>
-      <c r="J16" s="235"/>
+      <c r="E16" s="247"/>
+      <c r="F16" s="247"/>
+      <c r="G16" s="247"/>
+      <c r="H16" s="247"/>
+      <c r="I16" s="247"/>
+      <c r="J16" s="247"/>
     </row>
     <row r="17" spans="1:10" ht="12" customHeight="1">
       <c r="A17" s="73">
@@ -9408,12 +9425,12 @@
       </c>
       <c r="C17" s="66"/>
       <c r="D17" s="36"/>
-      <c r="E17" s="235"/>
-      <c r="F17" s="235"/>
-      <c r="G17" s="235"/>
-      <c r="H17" s="235"/>
-      <c r="I17" s="235"/>
-      <c r="J17" s="235"/>
+      <c r="E17" s="247"/>
+      <c r="F17" s="247"/>
+      <c r="G17" s="247"/>
+      <c r="H17" s="247"/>
+      <c r="I17" s="247"/>
+      <c r="J17" s="247"/>
     </row>
     <row r="18" spans="1:10" ht="12" customHeight="1">
       <c r="A18" s="74">
@@ -9424,12 +9441,12 @@
       </c>
       <c r="C18" s="66"/>
       <c r="D18" s="36"/>
-      <c r="E18" s="235"/>
-      <c r="F18" s="235"/>
-      <c r="G18" s="235"/>
-      <c r="H18" s="235"/>
-      <c r="I18" s="235"/>
-      <c r="J18" s="235"/>
+      <c r="E18" s="247"/>
+      <c r="F18" s="247"/>
+      <c r="G18" s="247"/>
+      <c r="H18" s="247"/>
+      <c r="I18" s="247"/>
+      <c r="J18" s="247"/>
     </row>
     <row r="19" spans="1:10" ht="12" customHeight="1">
       <c r="A19" s="75">
@@ -9440,12 +9457,12 @@
       </c>
       <c r="C19" s="66"/>
       <c r="D19" s="36"/>
-      <c r="E19" s="235"/>
-      <c r="F19" s="235"/>
-      <c r="G19" s="235"/>
-      <c r="H19" s="235"/>
-      <c r="I19" s="235"/>
-      <c r="J19" s="235"/>
+      <c r="E19" s="247"/>
+      <c r="F19" s="247"/>
+      <c r="G19" s="247"/>
+      <c r="H19" s="247"/>
+      <c r="I19" s="247"/>
+      <c r="J19" s="247"/>
     </row>
     <row r="20" spans="1:10" ht="12" customHeight="1">
       <c r="A20" s="76">
@@ -9456,12 +9473,12 @@
       </c>
       <c r="C20" s="66"/>
       <c r="D20" s="36"/>
-      <c r="E20" s="235"/>
-      <c r="F20" s="235"/>
-      <c r="G20" s="235"/>
-      <c r="H20" s="235"/>
-      <c r="I20" s="235"/>
-      <c r="J20" s="235"/>
+      <c r="E20" s="247"/>
+      <c r="F20" s="247"/>
+      <c r="G20" s="247"/>
+      <c r="H20" s="247"/>
+      <c r="I20" s="247"/>
+      <c r="J20" s="247"/>
     </row>
     <row r="21" spans="1:10" ht="12" customHeight="1">
       <c r="A21" s="77">
@@ -9472,12 +9489,12 @@
       </c>
       <c r="C21" s="66"/>
       <c r="D21" s="36"/>
-      <c r="E21" s="235"/>
-      <c r="F21" s="235"/>
-      <c r="G21" s="235"/>
-      <c r="H21" s="235"/>
-      <c r="I21" s="235"/>
-      <c r="J21" s="235"/>
+      <c r="E21" s="247"/>
+      <c r="F21" s="247"/>
+      <c r="G21" s="247"/>
+      <c r="H21" s="247"/>
+      <c r="I21" s="247"/>
+      <c r="J21" s="247"/>
     </row>
     <row r="22" spans="1:10" ht="12" customHeight="1">
       <c r="A22" s="78">
@@ -9488,12 +9505,12 @@
       </c>
       <c r="C22" s="66"/>
       <c r="D22" s="36"/>
-      <c r="E22" s="235"/>
-      <c r="F22" s="235"/>
-      <c r="G22" s="235"/>
-      <c r="H22" s="235"/>
-      <c r="I22" s="235"/>
-      <c r="J22" s="235"/>
+      <c r="E22" s="247"/>
+      <c r="F22" s="247"/>
+      <c r="G22" s="247"/>
+      <c r="H22" s="247"/>
+      <c r="I22" s="247"/>
+      <c r="J22" s="247"/>
     </row>
     <row r="23" spans="1:10" ht="12" customHeight="1">
       <c r="A23" s="79">
@@ -9504,12 +9521,12 @@
       </c>
       <c r="C23" s="66"/>
       <c r="D23" s="36"/>
-      <c r="E23" s="235"/>
-      <c r="F23" s="235"/>
-      <c r="G23" s="235"/>
-      <c r="H23" s="235"/>
-      <c r="I23" s="235"/>
-      <c r="J23" s="235"/>
+      <c r="E23" s="247"/>
+      <c r="F23" s="247"/>
+      <c r="G23" s="247"/>
+      <c r="H23" s="247"/>
+      <c r="I23" s="247"/>
+      <c r="J23" s="247"/>
     </row>
     <row r="24" spans="1:10" ht="12" customHeight="1">
       <c r="A24" s="80">
@@ -9520,12 +9537,12 @@
       </c>
       <c r="C24" s="66"/>
       <c r="D24" s="36"/>
-      <c r="E24" s="235"/>
-      <c r="F24" s="235"/>
-      <c r="G24" s="235"/>
-      <c r="H24" s="235"/>
-      <c r="I24" s="235"/>
-      <c r="J24" s="235"/>
+      <c r="E24" s="247"/>
+      <c r="F24" s="247"/>
+      <c r="G24" s="247"/>
+      <c r="H24" s="247"/>
+      <c r="I24" s="247"/>
+      <c r="J24" s="247"/>
     </row>
     <row r="25" spans="1:10" ht="12" customHeight="1">
       <c r="A25" s="36">
@@ -9536,12 +9553,12 @@
       </c>
       <c r="C25" s="66"/>
       <c r="D25" s="36"/>
-      <c r="E25" s="235"/>
-      <c r="F25" s="235"/>
-      <c r="G25" s="235"/>
-      <c r="H25" s="235"/>
-      <c r="I25" s="235"/>
-      <c r="J25" s="235"/>
+      <c r="E25" s="247"/>
+      <c r="F25" s="247"/>
+      <c r="G25" s="247"/>
+      <c r="H25" s="247"/>
+      <c r="I25" s="247"/>
+      <c r="J25" s="247"/>
     </row>
     <row r="26" spans="1:10" ht="12" customHeight="1">
       <c r="A26" s="72">
@@ -9552,12 +9569,12 @@
       </c>
       <c r="C26" s="66"/>
       <c r="D26" s="36"/>
-      <c r="E26" s="235"/>
-      <c r="F26" s="235"/>
-      <c r="G26" s="235"/>
-      <c r="H26" s="235"/>
-      <c r="I26" s="235"/>
-      <c r="J26" s="235"/>
+      <c r="E26" s="247"/>
+      <c r="F26" s="247"/>
+      <c r="G26" s="247"/>
+      <c r="H26" s="247"/>
+      <c r="I26" s="247"/>
+      <c r="J26" s="247"/>
     </row>
     <row r="27" spans="1:10" ht="12" customHeight="1">
       <c r="A27" s="73">
@@ -9568,12 +9585,12 @@
       </c>
       <c r="C27" s="66"/>
       <c r="D27" s="36"/>
-      <c r="E27" s="235"/>
-      <c r="F27" s="235"/>
-      <c r="G27" s="235"/>
-      <c r="H27" s="235"/>
-      <c r="I27" s="235"/>
-      <c r="J27" s="235"/>
+      <c r="E27" s="247"/>
+      <c r="F27" s="247"/>
+      <c r="G27" s="247"/>
+      <c r="H27" s="247"/>
+      <c r="I27" s="247"/>
+      <c r="J27" s="247"/>
     </row>
     <row r="28" spans="1:10" ht="12" customHeight="1">
       <c r="A28" s="74">
@@ -9584,12 +9601,12 @@
       </c>
       <c r="C28" s="66"/>
       <c r="D28" s="36"/>
-      <c r="E28" s="235"/>
-      <c r="F28" s="235"/>
-      <c r="G28" s="235"/>
-      <c r="H28" s="235"/>
-      <c r="I28" s="235"/>
-      <c r="J28" s="235"/>
+      <c r="E28" s="247"/>
+      <c r="F28" s="247"/>
+      <c r="G28" s="247"/>
+      <c r="H28" s="247"/>
+      <c r="I28" s="247"/>
+      <c r="J28" s="247"/>
     </row>
     <row r="29" spans="1:10" ht="12" customHeight="1">
       <c r="A29" s="75">
@@ -9600,12 +9617,12 @@
       </c>
       <c r="C29" s="66"/>
       <c r="D29" s="36"/>
-      <c r="E29" s="235"/>
-      <c r="F29" s="235"/>
-      <c r="G29" s="235"/>
-      <c r="H29" s="235"/>
-      <c r="I29" s="235"/>
-      <c r="J29" s="235"/>
+      <c r="E29" s="247"/>
+      <c r="F29" s="247"/>
+      <c r="G29" s="247"/>
+      <c r="H29" s="247"/>
+      <c r="I29" s="247"/>
+      <c r="J29" s="247"/>
     </row>
     <row r="30" spans="1:10" ht="12" customHeight="1">
       <c r="A30" s="76">
@@ -9616,12 +9633,12 @@
       </c>
       <c r="C30" s="66"/>
       <c r="D30" s="36"/>
-      <c r="E30" s="235"/>
-      <c r="F30" s="235"/>
-      <c r="G30" s="235"/>
-      <c r="H30" s="235"/>
-      <c r="I30" s="235"/>
-      <c r="J30" s="235"/>
+      <c r="E30" s="247"/>
+      <c r="F30" s="247"/>
+      <c r="G30" s="247"/>
+      <c r="H30" s="247"/>
+      <c r="I30" s="247"/>
+      <c r="J30" s="247"/>
     </row>
     <row r="31" spans="1:10" ht="12" customHeight="1">
       <c r="A31" s="77">
@@ -9632,12 +9649,12 @@
       </c>
       <c r="C31" s="66"/>
       <c r="D31" s="36"/>
-      <c r="E31" s="235"/>
-      <c r="F31" s="235"/>
-      <c r="G31" s="235"/>
-      <c r="H31" s="235"/>
-      <c r="I31" s="235"/>
-      <c r="J31" s="235"/>
+      <c r="E31" s="247"/>
+      <c r="F31" s="247"/>
+      <c r="G31" s="247"/>
+      <c r="H31" s="247"/>
+      <c r="I31" s="247"/>
+      <c r="J31" s="247"/>
     </row>
     <row r="32" spans="1:10" ht="12" customHeight="1">
       <c r="A32" s="78">
@@ -9648,12 +9665,12 @@
       </c>
       <c r="C32" s="66"/>
       <c r="D32" s="36"/>
-      <c r="E32" s="235"/>
-      <c r="F32" s="235"/>
-      <c r="G32" s="235"/>
-      <c r="H32" s="235"/>
-      <c r="I32" s="235"/>
-      <c r="J32" s="235"/>
+      <c r="E32" s="247"/>
+      <c r="F32" s="247"/>
+      <c r="G32" s="247"/>
+      <c r="H32" s="247"/>
+      <c r="I32" s="247"/>
+      <c r="J32" s="247"/>
     </row>
     <row r="33" spans="1:10" ht="12" customHeight="1">
       <c r="A33" s="79">
@@ -9664,12 +9681,12 @@
       </c>
       <c r="C33" s="66"/>
       <c r="D33" s="36"/>
-      <c r="E33" s="235"/>
-      <c r="F33" s="235"/>
-      <c r="G33" s="235"/>
-      <c r="H33" s="235"/>
-      <c r="I33" s="235"/>
-      <c r="J33" s="235"/>
+      <c r="E33" s="247"/>
+      <c r="F33" s="247"/>
+      <c r="G33" s="247"/>
+      <c r="H33" s="247"/>
+      <c r="I33" s="247"/>
+      <c r="J33" s="247"/>
     </row>
     <row r="34" spans="1:10" ht="12" customHeight="1">
       <c r="A34" s="80">
@@ -9680,26 +9697,20 @@
       </c>
       <c r="C34" s="66"/>
       <c r="D34" s="36"/>
-      <c r="E34" s="235"/>
-      <c r="F34" s="235"/>
-      <c r="G34" s="235"/>
-      <c r="H34" s="235"/>
-      <c r="I34" s="235"/>
-      <c r="J34" s="235"/>
+      <c r="E34" s="247"/>
+      <c r="F34" s="247"/>
+      <c r="G34" s="247"/>
+      <c r="H34" s="247"/>
+      <c r="I34" s="247"/>
+      <c r="J34" s="247"/>
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="E4:J4"/>
-    <mergeCell ref="E5:J5"/>
-    <mergeCell ref="E6:J6"/>
-    <mergeCell ref="E22:J22"/>
-    <mergeCell ref="E23:J23"/>
-    <mergeCell ref="E24:J24"/>
-    <mergeCell ref="E7:J7"/>
-    <mergeCell ref="E8:J8"/>
-    <mergeCell ref="E9:J9"/>
-    <mergeCell ref="E10:J10"/>
+    <mergeCell ref="E26:J26"/>
+    <mergeCell ref="E27:J27"/>
+    <mergeCell ref="E28:J28"/>
+    <mergeCell ref="E29:J29"/>
+    <mergeCell ref="E30:J30"/>
     <mergeCell ref="E31:J31"/>
     <mergeCell ref="E32:J32"/>
     <mergeCell ref="E33:J33"/>
@@ -9716,11 +9727,17 @@
     <mergeCell ref="E20:J20"/>
     <mergeCell ref="E13:J13"/>
     <mergeCell ref="E21:J21"/>
-    <mergeCell ref="E26:J26"/>
-    <mergeCell ref="E27:J27"/>
-    <mergeCell ref="E28:J28"/>
-    <mergeCell ref="E29:J29"/>
-    <mergeCell ref="E30:J30"/>
+    <mergeCell ref="E23:J23"/>
+    <mergeCell ref="E24:J24"/>
+    <mergeCell ref="E7:J7"/>
+    <mergeCell ref="E8:J8"/>
+    <mergeCell ref="E9:J9"/>
+    <mergeCell ref="E10:J10"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="E4:J4"/>
+    <mergeCell ref="E5:J5"/>
+    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="E22:J22"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1">
@@ -9745,7 +9762,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A13" zoomScale="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A13" zoomScale="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="I12" sqref="I12:J39"/>
     </sheetView>
   </sheetViews>
@@ -9765,10 +9782,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="251" t="s">
+      <c r="A1" s="241" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="251"/>
+      <c r="B1" s="241"/>
       <c r="C1" s="30" t="s">
         <v>1</v>
       </c>
@@ -9799,8 +9816,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="251"/>
-      <c r="B2" s="251"/>
+      <c r="A2" s="241"/>
+      <c r="B2" s="241"/>
       <c r="C2" s="30" t="s">
         <v>2</v>
       </c>
@@ -9831,20 +9848,20 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="12" customHeight="1">
-      <c r="A4" s="257" t="s">
+      <c r="A4" s="266" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="259"/>
-      <c r="C4" s="259"/>
-      <c r="D4" s="259"/>
-      <c r="E4" s="259"/>
-      <c r="F4" s="259"/>
-      <c r="G4" s="259"/>
-      <c r="H4" s="258"/>
-      <c r="I4" s="257" t="s">
+      <c r="B4" s="268"/>
+      <c r="C4" s="268"/>
+      <c r="D4" s="268"/>
+      <c r="E4" s="268"/>
+      <c r="F4" s="268"/>
+      <c r="G4" s="268"/>
+      <c r="H4" s="267"/>
+      <c r="I4" s="266" t="s">
         <v>38</v>
       </c>
-      <c r="J4" s="258"/>
+      <c r="J4" s="267"/>
     </row>
     <row r="5" spans="1:10" ht="12" customHeight="1">
       <c r="A5" s="38"/>
@@ -9855,10 +9872,10 @@
       <c r="F5" s="39"/>
       <c r="G5" s="39"/>
       <c r="H5" s="40"/>
-      <c r="I5" s="264" t="s">
+      <c r="I5" s="273" t="s">
         <v>226</v>
       </c>
-      <c r="J5" s="265"/>
+      <c r="J5" s="274"/>
     </row>
     <row r="6" spans="1:10" ht="12" customHeight="1">
       <c r="A6" s="38"/>
@@ -9869,8 +9886,8 @@
       <c r="F6" s="39"/>
       <c r="G6" s="39"/>
       <c r="H6" s="41"/>
-      <c r="I6" s="266"/>
-      <c r="J6" s="267"/>
+      <c r="I6" s="275"/>
+      <c r="J6" s="276"/>
     </row>
     <row r="7" spans="1:10" ht="12" customHeight="1">
       <c r="A7" s="38"/>
@@ -9881,8 +9898,8 @@
       <c r="F7" s="39"/>
       <c r="G7" s="39"/>
       <c r="H7" s="41"/>
-      <c r="I7" s="266"/>
-      <c r="J7" s="267"/>
+      <c r="I7" s="275"/>
+      <c r="J7" s="276"/>
     </row>
     <row r="8" spans="1:10" ht="12" customHeight="1">
       <c r="A8" s="38"/>
@@ -9893,8 +9910,8 @@
       <c r="F8" s="39"/>
       <c r="G8" s="39"/>
       <c r="H8" s="41"/>
-      <c r="I8" s="266"/>
-      <c r="J8" s="267"/>
+      <c r="I8" s="275"/>
+      <c r="J8" s="276"/>
     </row>
     <row r="9" spans="1:10" ht="12" customHeight="1">
       <c r="A9" s="38"/>
@@ -9905,8 +9922,8 @@
       <c r="F9" s="39"/>
       <c r="G9" s="39"/>
       <c r="H9" s="41"/>
-      <c r="I9" s="266"/>
-      <c r="J9" s="267"/>
+      <c r="I9" s="275"/>
+      <c r="J9" s="276"/>
     </row>
     <row r="10" spans="1:10" ht="12" customHeight="1">
       <c r="A10" s="38"/>
@@ -9917,8 +9934,8 @@
       <c r="F10" s="39"/>
       <c r="G10" s="39"/>
       <c r="H10" s="41"/>
-      <c r="I10" s="268"/>
-      <c r="J10" s="269"/>
+      <c r="I10" s="277"/>
+      <c r="J10" s="278"/>
     </row>
     <row r="11" spans="1:10" ht="12" customHeight="1">
       <c r="A11" s="38"/>
@@ -9929,10 +9946,10 @@
       <c r="F11" s="39"/>
       <c r="G11" s="39"/>
       <c r="H11" s="42"/>
-      <c r="I11" s="257" t="s">
+      <c r="I11" s="266" t="s">
         <v>39</v>
       </c>
-      <c r="J11" s="258"/>
+      <c r="J11" s="267"/>
     </row>
     <row r="12" spans="1:10" ht="12" customHeight="1">
       <c r="A12" s="38"/>
@@ -9943,10 +9960,10 @@
       <c r="F12" s="39"/>
       <c r="G12" s="39"/>
       <c r="H12" s="41"/>
-      <c r="I12" s="260" t="s">
+      <c r="I12" s="269" t="s">
         <v>227</v>
       </c>
-      <c r="J12" s="261"/>
+      <c r="J12" s="270"/>
     </row>
     <row r="13" spans="1:10" ht="12" customHeight="1">
       <c r="A13" s="38"/>
@@ -9957,8 +9974,8 @@
       <c r="F13" s="39"/>
       <c r="G13" s="39"/>
       <c r="H13" s="41"/>
-      <c r="I13" s="262"/>
-      <c r="J13" s="263"/>
+      <c r="I13" s="271"/>
+      <c r="J13" s="272"/>
     </row>
     <row r="14" spans="1:10" ht="12" customHeight="1">
       <c r="A14" s="38"/>
@@ -9969,8 +9986,8 @@
       <c r="F14" s="39"/>
       <c r="G14" s="39"/>
       <c r="H14" s="41"/>
-      <c r="I14" s="262"/>
-      <c r="J14" s="263"/>
+      <c r="I14" s="271"/>
+      <c r="J14" s="272"/>
     </row>
     <row r="15" spans="1:10" ht="12" customHeight="1">
       <c r="A15" s="38"/>
@@ -9981,8 +9998,8 @@
       <c r="F15" s="39"/>
       <c r="G15" s="39"/>
       <c r="H15" s="41"/>
-      <c r="I15" s="262"/>
-      <c r="J15" s="263"/>
+      <c r="I15" s="271"/>
+      <c r="J15" s="272"/>
     </row>
     <row r="16" spans="1:10" ht="12" customHeight="1">
       <c r="A16" s="38"/>
@@ -9993,8 +10010,8 @@
       <c r="F16" s="39"/>
       <c r="G16" s="39"/>
       <c r="H16" s="41"/>
-      <c r="I16" s="262"/>
-      <c r="J16" s="263"/>
+      <c r="I16" s="271"/>
+      <c r="J16" s="272"/>
     </row>
     <row r="17" spans="1:10" ht="12" customHeight="1">
       <c r="A17" s="38"/>
@@ -10005,8 +10022,8 @@
       <c r="F17" s="39"/>
       <c r="G17" s="39"/>
       <c r="H17" s="41"/>
-      <c r="I17" s="262"/>
-      <c r="J17" s="263"/>
+      <c r="I17" s="271"/>
+      <c r="J17" s="272"/>
     </row>
     <row r="18" spans="1:10" ht="12" customHeight="1">
       <c r="A18" s="38"/>
@@ -10017,8 +10034,8 @@
       <c r="F18" s="39"/>
       <c r="G18" s="39"/>
       <c r="H18" s="41"/>
-      <c r="I18" s="262"/>
-      <c r="J18" s="263"/>
+      <c r="I18" s="271"/>
+      <c r="J18" s="272"/>
     </row>
     <row r="19" spans="1:10" ht="12" customHeight="1">
       <c r="A19" s="38"/>
@@ -10029,8 +10046,8 @@
       <c r="F19" s="39"/>
       <c r="G19" s="39"/>
       <c r="H19" s="41"/>
-      <c r="I19" s="262"/>
-      <c r="J19" s="263"/>
+      <c r="I19" s="271"/>
+      <c r="J19" s="272"/>
     </row>
     <row r="20" spans="1:10" ht="12" customHeight="1">
       <c r="A20" s="38"/>
@@ -10041,8 +10058,8 @@
       <c r="F20" s="39"/>
       <c r="G20" s="39"/>
       <c r="H20" s="41"/>
-      <c r="I20" s="262"/>
-      <c r="J20" s="263"/>
+      <c r="I20" s="271"/>
+      <c r="J20" s="272"/>
     </row>
     <row r="21" spans="1:10" ht="12" customHeight="1">
       <c r="A21" s="38"/>
@@ -10053,8 +10070,8 @@
       <c r="F21" s="39"/>
       <c r="G21" s="39"/>
       <c r="H21" s="41"/>
-      <c r="I21" s="262"/>
-      <c r="J21" s="263"/>
+      <c r="I21" s="271"/>
+      <c r="J21" s="272"/>
     </row>
     <row r="22" spans="1:10" ht="12" customHeight="1">
       <c r="A22" s="38"/>
@@ -10065,8 +10082,8 @@
       <c r="F22" s="39"/>
       <c r="G22" s="39"/>
       <c r="H22" s="41"/>
-      <c r="I22" s="262"/>
-      <c r="J22" s="263"/>
+      <c r="I22" s="271"/>
+      <c r="J22" s="272"/>
     </row>
     <row r="23" spans="1:10" ht="12" customHeight="1">
       <c r="A23" s="38"/>
@@ -10077,8 +10094,8 @@
       <c r="F23" s="39"/>
       <c r="G23" s="39"/>
       <c r="H23" s="41"/>
-      <c r="I23" s="262"/>
-      <c r="J23" s="263"/>
+      <c r="I23" s="271"/>
+      <c r="J23" s="272"/>
     </row>
     <row r="24" spans="1:10" ht="12" customHeight="1">
       <c r="A24" s="38"/>
@@ -10089,8 +10106,8 @@
       <c r="F24" s="39"/>
       <c r="G24" s="39"/>
       <c r="H24" s="41"/>
-      <c r="I24" s="262"/>
-      <c r="J24" s="263"/>
+      <c r="I24" s="271"/>
+      <c r="J24" s="272"/>
     </row>
     <row r="25" spans="1:10" ht="12" customHeight="1">
       <c r="A25" s="38"/>
@@ -10101,8 +10118,8 @@
       <c r="F25" s="39"/>
       <c r="G25" s="39"/>
       <c r="H25" s="41"/>
-      <c r="I25" s="262"/>
-      <c r="J25" s="263"/>
+      <c r="I25" s="271"/>
+      <c r="J25" s="272"/>
     </row>
     <row r="26" spans="1:10" ht="12" customHeight="1">
       <c r="A26" s="38"/>
@@ -10113,8 +10130,8 @@
       <c r="F26" s="39"/>
       <c r="G26" s="39"/>
       <c r="H26" s="41"/>
-      <c r="I26" s="262"/>
-      <c r="J26" s="263"/>
+      <c r="I26" s="271"/>
+      <c r="J26" s="272"/>
     </row>
     <row r="27" spans="1:10" ht="12" customHeight="1">
       <c r="A27" s="38"/>
@@ -10125,8 +10142,8 @@
       <c r="F27" s="39"/>
       <c r="G27" s="39"/>
       <c r="H27" s="41"/>
-      <c r="I27" s="262"/>
-      <c r="J27" s="263"/>
+      <c r="I27" s="271"/>
+      <c r="J27" s="272"/>
     </row>
     <row r="28" spans="1:10" ht="12" customHeight="1">
       <c r="A28" s="38"/>
@@ -10137,8 +10154,8 @@
       <c r="F28" s="39"/>
       <c r="G28" s="39"/>
       <c r="H28" s="41"/>
-      <c r="I28" s="262"/>
-      <c r="J28" s="263"/>
+      <c r="I28" s="271"/>
+      <c r="J28" s="272"/>
     </row>
     <row r="29" spans="1:10" ht="12" customHeight="1">
       <c r="A29" s="38"/>
@@ -10149,8 +10166,8 @@
       <c r="F29" s="39"/>
       <c r="G29" s="39"/>
       <c r="H29" s="41"/>
-      <c r="I29" s="262"/>
-      <c r="J29" s="263"/>
+      <c r="I29" s="271"/>
+      <c r="J29" s="272"/>
     </row>
     <row r="30" spans="1:10" ht="12" customHeight="1">
       <c r="A30" s="38"/>
@@ -10161,8 +10178,8 @@
       <c r="F30" s="39"/>
       <c r="G30" s="39"/>
       <c r="H30" s="41"/>
-      <c r="I30" s="262"/>
-      <c r="J30" s="263"/>
+      <c r="I30" s="271"/>
+      <c r="J30" s="272"/>
     </row>
     <row r="31" spans="1:10" ht="12" customHeight="1">
       <c r="A31" s="38"/>
@@ -10173,8 +10190,8 @@
       <c r="F31" s="39"/>
       <c r="G31" s="39"/>
       <c r="H31" s="41"/>
-      <c r="I31" s="262"/>
-      <c r="J31" s="263"/>
+      <c r="I31" s="271"/>
+      <c r="J31" s="272"/>
     </row>
     <row r="32" spans="1:10" ht="12" customHeight="1">
       <c r="A32" s="38"/>
@@ -10185,8 +10202,8 @@
       <c r="F32" s="39"/>
       <c r="G32" s="39"/>
       <c r="H32" s="41"/>
-      <c r="I32" s="262"/>
-      <c r="J32" s="263"/>
+      <c r="I32" s="271"/>
+      <c r="J32" s="272"/>
     </row>
     <row r="33" spans="1:10" ht="12" customHeight="1">
       <c r="A33" s="38"/>
@@ -10197,8 +10214,8 @@
       <c r="F33" s="39"/>
       <c r="G33" s="39"/>
       <c r="H33" s="41"/>
-      <c r="I33" s="262"/>
-      <c r="J33" s="263"/>
+      <c r="I33" s="271"/>
+      <c r="J33" s="272"/>
     </row>
     <row r="34" spans="1:10" ht="12" customHeight="1">
       <c r="A34" s="38"/>
@@ -10209,8 +10226,8 @@
       <c r="F34" s="39"/>
       <c r="G34" s="39"/>
       <c r="H34" s="41"/>
-      <c r="I34" s="262"/>
-      <c r="J34" s="263"/>
+      <c r="I34" s="271"/>
+      <c r="J34" s="272"/>
     </row>
     <row r="35" spans="1:10" ht="12" customHeight="1">
       <c r="A35" s="38"/>
@@ -10221,8 +10238,8 @@
       <c r="F35" s="39"/>
       <c r="G35" s="39"/>
       <c r="H35" s="41"/>
-      <c r="I35" s="262"/>
-      <c r="J35" s="263"/>
+      <c r="I35" s="271"/>
+      <c r="J35" s="272"/>
     </row>
     <row r="36" spans="1:10" ht="12" customHeight="1">
       <c r="A36" s="38"/>
@@ -10233,8 +10250,8 @@
       <c r="F36" s="39"/>
       <c r="G36" s="39"/>
       <c r="H36" s="41"/>
-      <c r="I36" s="262"/>
-      <c r="J36" s="263"/>
+      <c r="I36" s="271"/>
+      <c r="J36" s="272"/>
     </row>
     <row r="37" spans="1:10" ht="12" customHeight="1">
       <c r="A37" s="38"/>
@@ -10245,8 +10262,8 @@
       <c r="F37" s="39"/>
       <c r="G37" s="39"/>
       <c r="H37" s="41"/>
-      <c r="I37" s="262"/>
-      <c r="J37" s="263"/>
+      <c r="I37" s="271"/>
+      <c r="J37" s="272"/>
     </row>
     <row r="38" spans="1:10" ht="12" customHeight="1">
       <c r="A38" s="38"/>
@@ -10257,8 +10274,8 @@
       <c r="F38" s="39"/>
       <c r="G38" s="39"/>
       <c r="H38" s="41"/>
-      <c r="I38" s="262"/>
-      <c r="J38" s="263"/>
+      <c r="I38" s="271"/>
+      <c r="J38" s="272"/>
     </row>
     <row r="39" spans="1:10" ht="12" customHeight="1">
       <c r="A39" s="38"/>
@@ -10269,8 +10286,8 @@
       <c r="F39" s="39"/>
       <c r="G39" s="39"/>
       <c r="H39" s="41"/>
-      <c r="I39" s="262"/>
-      <c r="J39" s="263"/>
+      <c r="I39" s="271"/>
+      <c r="J39" s="272"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -10298,10 +10315,10 @@
   <dimension ref="A1:O78"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="6" ySplit="4" topLeftCell="G8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="4" topLeftCell="G47" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="D63" sqref="D63"/>
+      <selection pane="bottomRight" activeCell="B65" sqref="B65:B77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -10324,12 +10341,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="251" t="s">
+      <c r="A1" s="241" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="251"/>
-      <c r="C1" s="251"/>
-      <c r="D1" s="251"/>
+      <c r="B1" s="241"/>
+      <c r="C1" s="241"/>
+      <c r="D1" s="241"/>
       <c r="E1" s="29" t="s">
         <v>1</v>
       </c>
@@ -10337,16 +10354,16 @@
         <f>'Update History'!D1</f>
         <v>ASOFT - ERP.NET</v>
       </c>
-      <c r="G1" s="270" t="s">
+      <c r="G1" s="279" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="271"/>
-      <c r="I1" s="272" t="str">
+      <c r="H1" s="280"/>
+      <c r="I1" s="281" t="str">
         <f>'Update History'!F1</f>
         <v>CRMF2082</v>
       </c>
-      <c r="J1" s="273"/>
-      <c r="K1" s="274"/>
+      <c r="J1" s="282"/>
+      <c r="K1" s="283"/>
       <c r="L1" s="30" t="s">
         <v>5</v>
       </c>
@@ -10363,10 +10380,10 @@
       </c>
     </row>
     <row r="2" spans="1:15" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="251"/>
-      <c r="B2" s="251"/>
-      <c r="C2" s="251"/>
-      <c r="D2" s="251"/>
+      <c r="A2" s="241"/>
+      <c r="B2" s="241"/>
+      <c r="C2" s="241"/>
+      <c r="D2" s="241"/>
       <c r="E2" s="29" t="s">
         <v>2</v>
       </c>
@@ -10374,16 +10391,16 @@
         <f>'Update History'!D2</f>
         <v>ASOFT-CRM</v>
       </c>
-      <c r="G2" s="270" t="s">
+      <c r="G2" s="279" t="s">
         <v>49</v>
       </c>
-      <c r="H2" s="271"/>
-      <c r="I2" s="272" t="str">
+      <c r="H2" s="280"/>
+      <c r="I2" s="281" t="str">
         <f>'Update History'!F2</f>
         <v>Xem chi tiết yêu cầu</v>
       </c>
-      <c r="J2" s="273"/>
-      <c r="K2" s="274"/>
+      <c r="J2" s="282"/>
+      <c r="K2" s="283"/>
       <c r="L2" s="30" t="s">
         <v>6</v>
       </c>
@@ -10507,7 +10524,7 @@
       <c r="B7" s="106" t="s">
         <v>155</v>
       </c>
-      <c r="C7" s="195" t="s">
+      <c r="C7" s="194" t="s">
         <v>175</v>
       </c>
       <c r="D7" s="121" t="s">
@@ -10544,7 +10561,7 @@
       <c r="B8" s="106" t="s">
         <v>155</v>
       </c>
-      <c r="C8" s="195" t="s">
+      <c r="C8" s="194" t="s">
         <v>177</v>
       </c>
       <c r="D8" s="129" t="s">
@@ -10579,7 +10596,7 @@
       <c r="B9" s="31" t="s">
         <v>155</v>
       </c>
-      <c r="C9" s="195" t="s">
+      <c r="C9" s="194" t="s">
         <v>207</v>
       </c>
       <c r="D9" s="144" t="s">
@@ -10614,7 +10631,7 @@
       <c r="B10" s="31" t="s">
         <v>155</v>
       </c>
-      <c r="C10" s="195" t="s">
+      <c r="C10" s="194" t="s">
         <v>179</v>
       </c>
       <c r="D10" s="124" t="s">
@@ -10649,7 +10666,7 @@
       <c r="B11" s="171" t="s">
         <v>358</v>
       </c>
-      <c r="C11" s="196">
+      <c r="C11" s="195">
         <v>2.5</v>
       </c>
       <c r="D11" s="172" t="s">
@@ -10684,7 +10701,7 @@
       <c r="B12" s="171" t="s">
         <v>358</v>
       </c>
-      <c r="C12" s="196">
+      <c r="C12" s="195">
         <v>2.6</v>
       </c>
       <c r="D12" s="172" t="s">
@@ -10696,10 +10713,10 @@
       <c r="F12" s="173" t="s">
         <v>403</v>
       </c>
-      <c r="G12" s="198" t="s">
+      <c r="G12" s="197" t="s">
         <v>178</v>
       </c>
-      <c r="H12" s="198" t="s">
+      <c r="H12" s="197" t="s">
         <v>176</v>
       </c>
       <c r="I12" s="175"/>
@@ -10719,7 +10736,7 @@
       <c r="B13" s="31" t="s">
         <v>155</v>
       </c>
-      <c r="C13" s="195">
+      <c r="C13" s="194">
         <v>2.7</v>
       </c>
       <c r="D13" s="129" t="s">
@@ -10754,7 +10771,7 @@
       <c r="B14" s="106" t="s">
         <v>155</v>
       </c>
-      <c r="C14" s="195" t="s">
+      <c r="C14" s="194" t="s">
         <v>284</v>
       </c>
       <c r="D14" s="144" t="s">
@@ -10789,7 +10806,7 @@
       <c r="B15" s="171" t="s">
         <v>358</v>
       </c>
-      <c r="C15" s="196">
+      <c r="C15" s="195">
         <v>2.9</v>
       </c>
       <c r="D15" s="172" t="s">
@@ -10824,7 +10841,7 @@
       <c r="B16" s="31" t="s">
         <v>155</v>
       </c>
-      <c r="C16" s="195" t="s">
+      <c r="C16" s="194" t="s">
         <v>285</v>
       </c>
       <c r="D16" s="172" t="s">
@@ -10859,7 +10876,7 @@
       <c r="B17" s="171" t="s">
         <v>358</v>
       </c>
-      <c r="C17" s="196">
+      <c r="C17" s="195">
         <v>2.11</v>
       </c>
       <c r="D17" s="172" t="s">
@@ -10894,7 +10911,7 @@
       <c r="B18" s="171" t="s">
         <v>358</v>
       </c>
-      <c r="C18" s="196">
+      <c r="C18" s="195">
         <v>2.12</v>
       </c>
       <c r="D18" s="172" t="s">
@@ -10929,7 +10946,7 @@
       <c r="B19" s="171" t="s">
         <v>358</v>
       </c>
-      <c r="C19" s="196">
+      <c r="C19" s="195">
         <v>2.13</v>
       </c>
       <c r="D19" s="172" t="s">
@@ -10957,64 +10974,64 @@
       <c r="N19" s="174"/>
       <c r="O19" s="177"/>
     </row>
-    <row r="20" spans="1:15" s="339" customFormat="1" ht="11.25">
-      <c r="A20" s="333">
-        <v>10</v>
-      </c>
-      <c r="B20" s="333" t="s">
-        <v>358</v>
-      </c>
-      <c r="C20" s="334">
-        <v>2.14</v>
-      </c>
-      <c r="D20" s="335" t="s">
-        <v>356</v>
-      </c>
-      <c r="E20" s="336" t="s">
-        <v>357</v>
-      </c>
-      <c r="F20" s="336" t="s">
-        <v>357</v>
-      </c>
-      <c r="G20" s="337" t="s">
+    <row r="20" spans="1:15" s="32" customFormat="1" ht="11.25">
+      <c r="A20" s="31">
+        <v>17</v>
+      </c>
+      <c r="B20" s="31" t="s">
+        <v>155</v>
+      </c>
+      <c r="C20" s="194">
+        <v>2.15</v>
+      </c>
+      <c r="D20" s="124" t="s">
+        <v>196</v>
+      </c>
+      <c r="E20" s="142" t="s">
+        <v>282</v>
+      </c>
+      <c r="F20" s="142" t="s">
+        <v>282</v>
+      </c>
+      <c r="G20" s="143" t="s">
         <v>178</v>
       </c>
-      <c r="H20" s="337" t="s">
+      <c r="H20" s="142" t="s">
         <v>176</v>
       </c>
-      <c r="I20" s="338"/>
-      <c r="J20" s="338"/>
-      <c r="K20" s="328" t="s">
+      <c r="I20" s="55"/>
+      <c r="J20" s="55"/>
+      <c r="K20" s="36" t="s">
         <v>187</v>
       </c>
-      <c r="L20" s="336"/>
-      <c r="M20" s="336"/>
-      <c r="N20" s="336"/>
-      <c r="O20" s="336"/>
+      <c r="L20" s="142"/>
+      <c r="M20" s="142"/>
+      <c r="N20" s="142"/>
+      <c r="O20" s="142"/>
     </row>
     <row r="21" spans="1:15" s="32" customFormat="1" ht="11.25">
-      <c r="A21" s="31">
-        <v>17</v>
+      <c r="A21" s="106">
+        <v>18</v>
       </c>
       <c r="B21" s="31" t="s">
         <v>155</v>
       </c>
-      <c r="C21" s="195">
-        <v>2.15</v>
-      </c>
-      <c r="D21" s="124" t="s">
-        <v>196</v>
+      <c r="C21" s="194">
+        <v>2.16</v>
+      </c>
+      <c r="D21" s="144" t="s">
+        <v>274</v>
       </c>
       <c r="E21" s="142" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="F21" s="142" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="G21" s="143" t="s">
         <v>178</v>
       </c>
-      <c r="H21" s="142" t="s">
+      <c r="H21" s="143" t="s">
         <v>176</v>
       </c>
       <c r="I21" s="55"/>
@@ -11029,27 +11046,27 @@
     </row>
     <row r="22" spans="1:15" s="32" customFormat="1" ht="11.25">
       <c r="A22" s="106">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="B22" s="31" t="s">
         <v>155</v>
       </c>
-      <c r="C22" s="195">
-        <v>2.16</v>
-      </c>
-      <c r="D22" s="144" t="s">
-        <v>274</v>
-      </c>
-      <c r="E22" s="142" t="s">
-        <v>283</v>
+      <c r="C22" s="194">
+        <v>2.17</v>
+      </c>
+      <c r="D22" s="129" t="s">
+        <v>271</v>
+      </c>
+      <c r="E22" s="119" t="s">
+        <v>278</v>
       </c>
       <c r="F22" s="142" t="s">
-        <v>283</v>
-      </c>
-      <c r="G22" s="143" t="s">
+        <v>278</v>
+      </c>
+      <c r="G22" s="120" t="s">
         <v>178</v>
       </c>
-      <c r="H22" s="143" t="s">
+      <c r="H22" s="120" t="s">
         <v>176</v>
       </c>
       <c r="I22" s="55"/>
@@ -11057,97 +11074,97 @@
       <c r="K22" s="36" t="s">
         <v>187</v>
       </c>
-      <c r="L22" s="142"/>
-      <c r="M22" s="142"/>
-      <c r="N22" s="142"/>
-      <c r="O22" s="142"/>
-    </row>
-    <row r="23" spans="1:15" s="32" customFormat="1" ht="11.25">
-      <c r="A23" s="106">
-        <v>7</v>
+      <c r="L22" s="119"/>
+      <c r="M22" s="119"/>
+      <c r="N22" s="119"/>
+      <c r="O22" s="119"/>
+    </row>
+    <row r="23" spans="1:15" ht="12" customHeight="1">
+      <c r="A23" s="31">
+        <v>19</v>
       </c>
       <c r="B23" s="31" t="s">
         <v>155</v>
       </c>
-      <c r="C23" s="195">
-        <v>2.17</v>
-      </c>
-      <c r="D23" s="129" t="s">
-        <v>271</v>
-      </c>
-      <c r="E23" s="119" t="s">
-        <v>278</v>
-      </c>
-      <c r="F23" s="142" t="s">
-        <v>278</v>
-      </c>
-      <c r="G23" s="120" t="s">
-        <v>178</v>
-      </c>
-      <c r="H23" s="120" t="s">
-        <v>176</v>
-      </c>
+      <c r="C23" s="125" t="s">
+        <v>194</v>
+      </c>
+      <c r="D23" s="53" t="s">
+        <v>230</v>
+      </c>
+      <c r="E23" s="53"/>
+      <c r="F23" s="53"/>
+      <c r="G23" s="142" t="s">
+        <v>231</v>
+      </c>
+      <c r="H23" s="142"/>
       <c r="I23" s="55"/>
       <c r="J23" s="55"/>
-      <c r="K23" s="36" t="s">
-        <v>187</v>
-      </c>
-      <c r="L23" s="119"/>
-      <c r="M23" s="119"/>
-      <c r="N23" s="119"/>
-      <c r="O23" s="119"/>
+      <c r="K23" s="36"/>
+      <c r="L23" s="142"/>
+      <c r="M23" s="142"/>
+      <c r="N23" s="142">
+        <v>0</v>
+      </c>
+      <c r="O23" s="142"/>
     </row>
     <row r="24" spans="1:15" ht="12" customHeight="1">
-      <c r="A24" s="31">
-        <v>19</v>
+      <c r="A24" s="106">
+        <v>20</v>
       </c>
       <c r="B24" s="31" t="s">
         <v>155</v>
       </c>
       <c r="C24" s="125" t="s">
-        <v>194</v>
+        <v>252</v>
       </c>
       <c r="D24" s="53" t="s">
-        <v>230</v>
-      </c>
-      <c r="E24" s="53"/>
+        <v>232</v>
+      </c>
+      <c r="E24" s="53" t="s">
+        <v>232</v>
+      </c>
       <c r="F24" s="53"/>
       <c r="G24" s="142" t="s">
-        <v>231</v>
-      </c>
-      <c r="H24" s="142"/>
+        <v>186</v>
+      </c>
+      <c r="H24" s="142" t="s">
+        <v>233</v>
+      </c>
       <c r="I24" s="55"/>
       <c r="J24" s="55"/>
-      <c r="K24" s="36"/>
+      <c r="K24" s="36" t="s">
+        <v>187</v>
+      </c>
       <c r="L24" s="142"/>
       <c r="M24" s="142"/>
-      <c r="N24" s="142">
-        <v>0</v>
-      </c>
+      <c r="N24" s="142"/>
       <c r="O24" s="142"/>
     </row>
     <row r="25" spans="1:15" ht="12" customHeight="1">
-      <c r="A25" s="106">
-        <v>20</v>
+      <c r="A25" s="31">
+        <v>21</v>
       </c>
       <c r="B25" s="31" t="s">
         <v>155</v>
       </c>
       <c r="C25" s="125" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D25" s="53" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E25" s="53" t="s">
-        <v>232</v>
-      </c>
-      <c r="F25" s="53"/>
+        <v>188</v>
+      </c>
+      <c r="F25" s="53" t="s">
+        <v>188</v>
+      </c>
       <c r="G25" s="142" t="s">
         <v>186</v>
       </c>
       <c r="H25" s="142" t="s">
-        <v>233</v>
+        <v>176</v>
       </c>
       <c r="I25" s="55"/>
       <c r="J25" s="55"/>
@@ -11161,22 +11178,22 @@
     </row>
     <row r="26" spans="1:15" ht="12" customHeight="1">
       <c r="A26" s="31">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B26" s="31" t="s">
         <v>155</v>
       </c>
       <c r="C26" s="125" t="s">
-        <v>253</v>
-      </c>
-      <c r="D26" s="53" t="s">
-        <v>234</v>
+        <v>254</v>
+      </c>
+      <c r="D26" s="126" t="s">
+        <v>235</v>
       </c>
       <c r="E26" s="53" t="s">
-        <v>188</v>
+        <v>236</v>
       </c>
       <c r="F26" s="53" t="s">
-        <v>188</v>
+        <v>236</v>
       </c>
       <c r="G26" s="142" t="s">
         <v>186</v>
@@ -11195,127 +11212,121 @@
       <c r="O26" s="142"/>
     </row>
     <row r="27" spans="1:15" ht="12" customHeight="1">
-      <c r="A27" s="31">
-        <v>22</v>
+      <c r="A27" s="106">
+        <v>23</v>
       </c>
       <c r="B27" s="31" t="s">
         <v>155</v>
       </c>
       <c r="C27" s="125" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D27" s="126" t="s">
-        <v>235</v>
+        <v>189</v>
       </c>
       <c r="E27" s="53" t="s">
-        <v>236</v>
+        <v>190</v>
       </c>
       <c r="F27" s="53" t="s">
-        <v>236</v>
+        <v>190</v>
       </c>
       <c r="G27" s="142" t="s">
         <v>186</v>
       </c>
       <c r="H27" s="142" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="I27" s="55"/>
       <c r="J27" s="55"/>
       <c r="K27" s="36" t="s">
         <v>187</v>
       </c>
-      <c r="L27" s="142"/>
+      <c r="L27" s="142" t="s">
+        <v>183</v>
+      </c>
       <c r="M27" s="142"/>
       <c r="N27" s="142"/>
       <c r="O27" s="142"/>
     </row>
     <row r="28" spans="1:15" ht="12" customHeight="1">
-      <c r="A28" s="106">
-        <v>23</v>
+      <c r="A28" s="31">
+        <v>24</v>
       </c>
       <c r="B28" s="31" t="s">
         <v>155</v>
       </c>
       <c r="C28" s="125" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D28" s="126" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E28" s="53" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F28" s="53" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="G28" s="142" t="s">
         <v>186</v>
       </c>
       <c r="H28" s="142" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="I28" s="55"/>
       <c r="J28" s="55"/>
       <c r="K28" s="36" t="s">
         <v>187</v>
       </c>
-      <c r="L28" s="142" t="s">
-        <v>183</v>
-      </c>
+      <c r="L28" s="142"/>
       <c r="M28" s="142"/>
       <c r="N28" s="142"/>
       <c r="O28" s="142"/>
     </row>
     <row r="29" spans="1:15" ht="12" customHeight="1">
       <c r="A29" s="31">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B29" s="31" t="s">
         <v>155</v>
       </c>
       <c r="C29" s="125" t="s">
-        <v>256</v>
-      </c>
-      <c r="D29" s="126" t="s">
-        <v>191</v>
-      </c>
-      <c r="E29" s="53" t="s">
-        <v>192</v>
-      </c>
-      <c r="F29" s="53" t="s">
-        <v>192</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="D29" s="53" t="s">
+        <v>237</v>
+      </c>
+      <c r="E29" s="142" t="s">
+        <v>238</v>
+      </c>
+      <c r="F29" s="142"/>
       <c r="G29" s="142" t="s">
-        <v>186</v>
-      </c>
-      <c r="H29" s="142" t="s">
-        <v>176</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="H29" s="142"/>
       <c r="I29" s="55"/>
       <c r="J29" s="55"/>
-      <c r="K29" s="36" t="s">
-        <v>187</v>
-      </c>
+      <c r="K29" s="36"/>
       <c r="L29" s="142"/>
       <c r="M29" s="142"/>
       <c r="N29" s="142"/>
       <c r="O29" s="142"/>
     </row>
     <row r="30" spans="1:15" ht="12" customHeight="1">
-      <c r="A30" s="31">
-        <v>25</v>
+      <c r="A30" s="106">
+        <v>26</v>
       </c>
       <c r="B30" s="31" t="s">
         <v>155</v>
       </c>
       <c r="C30" s="125" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D30" s="53" t="s">
-        <v>237</v>
+        <v>193</v>
       </c>
       <c r="E30" s="142" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F30" s="142"/>
       <c r="G30" s="142" t="s">
@@ -11331,24 +11342,22 @@
       <c r="O30" s="142"/>
     </row>
     <row r="31" spans="1:15" ht="12" customHeight="1">
-      <c r="A31" s="106">
-        <v>26</v>
+      <c r="A31" s="31">
+        <v>27</v>
       </c>
       <c r="B31" s="31" t="s">
         <v>155</v>
       </c>
       <c r="C31" s="125" t="s">
-        <v>258</v>
+        <v>195</v>
       </c>
       <c r="D31" s="53" t="s">
-        <v>193</v>
-      </c>
-      <c r="E31" s="142" t="s">
-        <v>239</v>
-      </c>
-      <c r="F31" s="142"/>
+        <v>181</v>
+      </c>
+      <c r="E31" s="53"/>
+      <c r="F31" s="53"/>
       <c r="G31" s="142" t="s">
-        <v>180</v>
+        <v>231</v>
       </c>
       <c r="H31" s="142"/>
       <c r="I31" s="55"/>
@@ -11356,60 +11365,68 @@
       <c r="K31" s="36"/>
       <c r="L31" s="142"/>
       <c r="M31" s="142"/>
-      <c r="N31" s="142"/>
+      <c r="N31" s="142">
+        <v>0</v>
+      </c>
       <c r="O31" s="142"/>
     </row>
     <row r="32" spans="1:15" ht="12" customHeight="1">
-      <c r="A32" s="31">
-        <v>27</v>
+      <c r="A32" s="106">
+        <v>28</v>
       </c>
       <c r="B32" s="31" t="s">
         <v>155</v>
       </c>
       <c r="C32" s="125" t="s">
-        <v>195</v>
+        <v>259</v>
       </c>
       <c r="D32" s="53" t="s">
-        <v>181</v>
-      </c>
-      <c r="E32" s="53"/>
+        <v>232</v>
+      </c>
+      <c r="E32" s="53" t="s">
+        <v>232</v>
+      </c>
       <c r="F32" s="53"/>
       <c r="G32" s="142" t="s">
-        <v>231</v>
-      </c>
-      <c r="H32" s="142"/>
+        <v>186</v>
+      </c>
+      <c r="H32" s="142" t="s">
+        <v>233</v>
+      </c>
       <c r="I32" s="55"/>
       <c r="J32" s="55"/>
-      <c r="K32" s="36"/>
+      <c r="K32" s="36" t="s">
+        <v>187</v>
+      </c>
       <c r="L32" s="142"/>
       <c r="M32" s="142"/>
-      <c r="N32" s="142">
-        <v>0</v>
-      </c>
+      <c r="N32" s="142"/>
       <c r="O32" s="142"/>
     </row>
     <row r="33" spans="1:15" ht="12" customHeight="1">
-      <c r="A33" s="106">
-        <v>28</v>
+      <c r="A33" s="31">
+        <v>29</v>
       </c>
       <c r="B33" s="31" t="s">
         <v>155</v>
       </c>
       <c r="C33" s="125" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D33" s="53" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E33" s="53" t="s">
-        <v>232</v>
-      </c>
-      <c r="F33" s="53"/>
+        <v>188</v>
+      </c>
+      <c r="F33" s="53" t="s">
+        <v>188</v>
+      </c>
       <c r="G33" s="142" t="s">
         <v>186</v>
       </c>
       <c r="H33" s="142" t="s">
-        <v>233</v>
+        <v>176</v>
       </c>
       <c r="I33" s="55"/>
       <c r="J33" s="55"/>
@@ -11423,22 +11440,22 @@
     </row>
     <row r="34" spans="1:15" ht="12" customHeight="1">
       <c r="A34" s="31">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B34" s="31" t="s">
         <v>155</v>
       </c>
       <c r="C34" s="125" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D34" s="53" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="E34" s="53" t="s">
-        <v>188</v>
+        <v>242</v>
       </c>
       <c r="F34" s="53" t="s">
-        <v>188</v>
+        <v>242</v>
       </c>
       <c r="G34" s="142" t="s">
         <v>186</v>
@@ -11457,23 +11474,23 @@
       <c r="O34" s="142"/>
     </row>
     <row r="35" spans="1:15" ht="12" customHeight="1">
-      <c r="A35" s="31">
-        <v>30</v>
+      <c r="A35" s="106">
+        <v>31</v>
       </c>
       <c r="B35" s="31" t="s">
         <v>155</v>
       </c>
       <c r="C35" s="125" t="s">
-        <v>261</v>
-      </c>
-      <c r="D35" s="53" t="s">
-        <v>241</v>
+        <v>262</v>
+      </c>
+      <c r="D35" s="126" t="s">
+        <v>196</v>
       </c>
       <c r="E35" s="53" t="s">
-        <v>242</v>
+        <v>128</v>
       </c>
       <c r="F35" s="53" t="s">
-        <v>242</v>
+        <v>128</v>
       </c>
       <c r="G35" s="142" t="s">
         <v>186</v>
@@ -11492,158 +11509,156 @@
       <c r="O35" s="142"/>
     </row>
     <row r="36" spans="1:15" ht="12" customHeight="1">
-      <c r="A36" s="106">
-        <v>31</v>
+      <c r="A36" s="31">
+        <v>32</v>
       </c>
       <c r="B36" s="31" t="s">
         <v>155</v>
       </c>
       <c r="C36" s="125" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D36" s="126" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="E36" s="53" t="s">
-        <v>128</v>
+        <v>190</v>
       </c>
       <c r="F36" s="53" t="s">
-        <v>128</v>
+        <v>190</v>
       </c>
       <c r="G36" s="142" t="s">
         <v>186</v>
       </c>
       <c r="H36" s="142" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="I36" s="55"/>
       <c r="J36" s="55"/>
       <c r="K36" s="36" t="s">
         <v>187</v>
       </c>
-      <c r="L36" s="142"/>
+      <c r="L36" s="142" t="s">
+        <v>183</v>
+      </c>
       <c r="M36" s="142"/>
       <c r="N36" s="142"/>
       <c r="O36" s="142"/>
     </row>
     <row r="37" spans="1:15" ht="12" customHeight="1">
       <c r="A37" s="31">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B37" s="31" t="s">
         <v>155</v>
       </c>
       <c r="C37" s="125" t="s">
-        <v>263</v>
+        <v>404</v>
       </c>
       <c r="D37" s="126" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E37" s="53" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F37" s="53" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="G37" s="142" t="s">
         <v>186</v>
       </c>
       <c r="H37" s="142" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="I37" s="55"/>
       <c r="J37" s="55"/>
       <c r="K37" s="36" t="s">
         <v>187</v>
       </c>
-      <c r="L37" s="142" t="s">
-        <v>183</v>
-      </c>
+      <c r="L37" s="142"/>
       <c r="M37" s="142"/>
       <c r="N37" s="142"/>
       <c r="O37" s="142"/>
     </row>
     <row r="38" spans="1:15" ht="12" customHeight="1">
-      <c r="A38" s="31">
-        <v>33</v>
+      <c r="A38" s="106">
+        <v>34</v>
       </c>
       <c r="B38" s="31" t="s">
         <v>155</v>
       </c>
       <c r="C38" s="125" t="s">
-        <v>404</v>
-      </c>
-      <c r="D38" s="126" t="s">
-        <v>191</v>
-      </c>
-      <c r="E38" s="53" t="s">
-        <v>192</v>
-      </c>
-      <c r="F38" s="53" t="s">
-        <v>192</v>
-      </c>
+        <v>405</v>
+      </c>
+      <c r="D38" s="53" t="s">
+        <v>193</v>
+      </c>
+      <c r="E38" s="142" t="s">
+        <v>243</v>
+      </c>
+      <c r="F38" s="142"/>
       <c r="G38" s="142" t="s">
-        <v>186</v>
-      </c>
-      <c r="H38" s="142" t="s">
-        <v>176</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="H38" s="142"/>
       <c r="I38" s="55"/>
       <c r="J38" s="55"/>
-      <c r="K38" s="36" t="s">
-        <v>187</v>
-      </c>
+      <c r="K38" s="36"/>
       <c r="L38" s="142"/>
       <c r="M38" s="142"/>
       <c r="N38" s="142"/>
       <c r="O38" s="142"/>
     </row>
-    <row r="39" spans="1:15" ht="12" customHeight="1">
-      <c r="A39" s="106">
-        <v>34</v>
+    <row r="39" spans="1:15" s="32" customFormat="1" ht="12" customHeight="1">
+      <c r="A39" s="31">
+        <v>35</v>
       </c>
       <c r="B39" s="31" t="s">
         <v>155</v>
       </c>
       <c r="C39" s="125" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="D39" s="53" t="s">
-        <v>193</v>
-      </c>
-      <c r="E39" s="142" t="s">
-        <v>243</v>
-      </c>
-      <c r="F39" s="142"/>
-      <c r="G39" s="142" t="s">
-        <v>180</v>
-      </c>
-      <c r="H39" s="142"/>
+        <v>214</v>
+      </c>
+      <c r="E39" s="119"/>
+      <c r="F39" s="119"/>
+      <c r="G39" s="120"/>
+      <c r="H39" s="120"/>
       <c r="I39" s="55"/>
       <c r="J39" s="55"/>
       <c r="K39" s="36"/>
-      <c r="L39" s="142"/>
-      <c r="M39" s="142"/>
-      <c r="N39" s="142"/>
-      <c r="O39" s="142"/>
+      <c r="L39" s="119"/>
+      <c r="M39" s="119"/>
+      <c r="N39" s="119"/>
+      <c r="O39" s="119"/>
     </row>
     <row r="40" spans="1:15" s="32" customFormat="1" ht="12" customHeight="1">
-      <c r="A40" s="31">
-        <v>35</v>
+      <c r="A40" s="106">
+        <v>36</v>
       </c>
       <c r="B40" s="31" t="s">
         <v>155</v>
       </c>
       <c r="C40" s="125" t="s">
-        <v>406</v>
-      </c>
-      <c r="D40" s="53" t="s">
-        <v>214</v>
-      </c>
-      <c r="E40" s="119"/>
-      <c r="F40" s="119"/>
-      <c r="G40" s="120"/>
-      <c r="H40" s="120"/>
+        <v>407</v>
+      </c>
+      <c r="D40" s="124" t="s">
+        <v>188</v>
+      </c>
+      <c r="E40" s="119" t="s">
+        <v>188</v>
+      </c>
+      <c r="F40" s="119" t="s">
+        <v>188</v>
+      </c>
+      <c r="G40" s="127" t="s">
+        <v>186</v>
+      </c>
+      <c r="H40" s="120" t="s">
+        <v>176</v>
+      </c>
       <c r="I40" s="55"/>
       <c r="J40" s="55"/>
       <c r="K40" s="36"/>
@@ -11652,123 +11667,127 @@
       <c r="N40" s="119"/>
       <c r="O40" s="119"/>
     </row>
-    <row r="41" spans="1:15" s="32" customFormat="1" ht="12" customHeight="1">
-      <c r="A41" s="106">
-        <v>36</v>
+    <row r="41" spans="1:15" s="32" customFormat="1" ht="11.25">
+      <c r="A41" s="31">
+        <v>37</v>
       </c>
       <c r="B41" s="31" t="s">
         <v>155</v>
       </c>
       <c r="C41" s="125" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D41" s="124" t="s">
-        <v>188</v>
-      </c>
-      <c r="E41" s="119" t="s">
-        <v>188</v>
-      </c>
-      <c r="F41" s="119" t="s">
-        <v>188</v>
-      </c>
-      <c r="G41" s="127" t="s">
+        <v>286</v>
+      </c>
+      <c r="E41" s="142" t="s">
+        <v>287</v>
+      </c>
+      <c r="F41" s="142" t="s">
+        <v>288</v>
+      </c>
+      <c r="G41" s="142" t="s">
         <v>186</v>
       </c>
-      <c r="H41" s="120" t="s">
+      <c r="H41" s="143" t="s">
         <v>176</v>
       </c>
       <c r="I41" s="55"/>
       <c r="J41" s="55"/>
       <c r="K41" s="36"/>
-      <c r="L41" s="119"/>
-      <c r="M41" s="119"/>
-      <c r="N41" s="119"/>
-      <c r="O41" s="119"/>
+      <c r="L41" s="142"/>
+      <c r="M41" s="142"/>
+      <c r="N41" s="142"/>
+      <c r="O41" s="142"/>
     </row>
     <row r="42" spans="1:15" s="32" customFormat="1" ht="11.25">
       <c r="A42" s="31">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B42" s="31" t="s">
         <v>155</v>
       </c>
       <c r="C42" s="125" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D42" s="124" t="s">
-        <v>286</v>
-      </c>
-      <c r="E42" s="142" t="s">
-        <v>287</v>
-      </c>
-      <c r="F42" s="142" t="s">
-        <v>288</v>
-      </c>
-      <c r="G42" s="142" t="s">
+        <v>196</v>
+      </c>
+      <c r="E42" s="119" t="s">
+        <v>128</v>
+      </c>
+      <c r="F42" s="141" t="s">
+        <v>128</v>
+      </c>
+      <c r="G42" s="127" t="s">
         <v>186</v>
       </c>
-      <c r="H42" s="143" t="s">
+      <c r="H42" s="128" t="s">
         <v>176</v>
       </c>
       <c r="I42" s="55"/>
       <c r="J42" s="55"/>
       <c r="K42" s="36"/>
-      <c r="L42" s="142"/>
-      <c r="M42" s="142"/>
-      <c r="N42" s="142"/>
-      <c r="O42" s="142"/>
+      <c r="L42" s="119"/>
+      <c r="M42" s="119"/>
+      <c r="N42" s="119"/>
+      <c r="O42" s="119"/>
     </row>
     <row r="43" spans="1:15" s="32" customFormat="1" ht="11.25">
-      <c r="A43" s="31">
-        <v>38</v>
+      <c r="A43" s="106">
+        <v>39</v>
       </c>
       <c r="B43" s="31" t="s">
         <v>155</v>
       </c>
       <c r="C43" s="125" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D43" s="124" t="s">
-        <v>196</v>
-      </c>
-      <c r="E43" s="119" t="s">
-        <v>128</v>
-      </c>
-      <c r="F43" s="141" t="s">
-        <v>128</v>
+        <v>189</v>
+      </c>
+      <c r="E43" s="53" t="s">
+        <v>190</v>
+      </c>
+      <c r="F43" s="53" t="s">
+        <v>190</v>
       </c>
       <c r="G43" s="127" t="s">
         <v>186</v>
       </c>
-      <c r="H43" s="128" t="s">
-        <v>176</v>
+      <c r="H43" s="127" t="s">
+        <v>182</v>
       </c>
       <c r="I43" s="55"/>
       <c r="J43" s="55"/>
-      <c r="K43" s="36"/>
-      <c r="L43" s="119"/>
+      <c r="K43" s="36" t="s">
+        <v>187</v>
+      </c>
+      <c r="L43" s="127" t="s">
+        <v>183</v>
+      </c>
       <c r="M43" s="119"/>
       <c r="N43" s="119"/>
       <c r="O43" s="119"/>
     </row>
-    <row r="44" spans="1:15" s="32" customFormat="1" ht="11.25">
-      <c r="A44" s="106">
-        <v>39</v>
+    <row r="44" spans="1:15" s="32" customFormat="1" ht="12" customHeight="1">
+      <c r="A44" s="31">
+        <v>40</v>
       </c>
       <c r="B44" s="31" t="s">
         <v>155</v>
       </c>
       <c r="C44" s="125" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D44" s="124" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E44" s="53" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F44" s="53" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="G44" s="127" t="s">
         <v>186</v>
@@ -11790,228 +11809,220 @@
     </row>
     <row r="45" spans="1:15" s="32" customFormat="1" ht="12" customHeight="1">
       <c r="A45" s="31">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B45" s="31" t="s">
         <v>155</v>
       </c>
-      <c r="C45" s="125" t="s">
-        <v>411</v>
-      </c>
-      <c r="D45" s="124" t="s">
-        <v>191</v>
-      </c>
-      <c r="E45" s="53" t="s">
-        <v>192</v>
-      </c>
-      <c r="F45" s="53" t="s">
-        <v>192</v>
-      </c>
-      <c r="G45" s="127" t="s">
-        <v>186</v>
-      </c>
-      <c r="H45" s="127" t="s">
-        <v>182</v>
-      </c>
+      <c r="C45" s="194">
+        <v>8</v>
+      </c>
+      <c r="D45" s="129" t="s">
+        <v>208</v>
+      </c>
+      <c r="E45" s="119"/>
+      <c r="F45" s="119"/>
+      <c r="G45" s="120"/>
+      <c r="H45" s="120"/>
       <c r="I45" s="55"/>
       <c r="J45" s="55"/>
-      <c r="K45" s="36" t="s">
-        <v>187</v>
-      </c>
-      <c r="L45" s="127" t="s">
-        <v>183</v>
-      </c>
+      <c r="K45" s="36"/>
+      <c r="L45" s="119"/>
       <c r="M45" s="119"/>
       <c r="N45" s="119"/>
       <c r="O45" s="119"/>
     </row>
     <row r="46" spans="1:15" s="32" customFormat="1" ht="12" customHeight="1">
-      <c r="A46" s="31">
-        <v>41</v>
+      <c r="A46" s="106">
+        <v>42</v>
       </c>
       <c r="B46" s="31" t="s">
         <v>155</v>
       </c>
-      <c r="C46" s="195">
-        <v>8</v>
-      </c>
-      <c r="D46" s="129" t="s">
-        <v>208</v>
-      </c>
-      <c r="E46" s="119"/>
-      <c r="F46" s="119"/>
-      <c r="G46" s="120"/>
-      <c r="H46" s="120"/>
+      <c r="C46" s="194">
+        <v>8.1</v>
+      </c>
+      <c r="D46" s="53" t="s">
+        <v>191</v>
+      </c>
+      <c r="E46" s="53" t="s">
+        <v>209</v>
+      </c>
+      <c r="F46" s="53" t="s">
+        <v>209</v>
+      </c>
+      <c r="G46" s="128" t="s">
+        <v>178</v>
+      </c>
+      <c r="H46" s="128" t="s">
+        <v>176</v>
+      </c>
       <c r="I46" s="55"/>
       <c r="J46" s="55"/>
-      <c r="K46" s="36"/>
+      <c r="K46" s="36" t="s">
+        <v>187</v>
+      </c>
       <c r="L46" s="119"/>
       <c r="M46" s="119"/>
       <c r="N46" s="119"/>
       <c r="O46" s="119"/>
     </row>
-    <row r="47" spans="1:15" s="32" customFormat="1" ht="12" customHeight="1">
-      <c r="A47" s="106">
-        <v>42</v>
-      </c>
-      <c r="B47" s="31" t="s">
+    <row r="47" spans="1:15" s="25" customFormat="1" ht="11.25">
+      <c r="A47" s="31">
+        <v>43</v>
+      </c>
+      <c r="B47" s="106" t="s">
         <v>155</v>
       </c>
-      <c r="C47" s="195">
-        <v>8.1</v>
+      <c r="C47" s="194">
+        <v>8.1999999999999993</v>
       </c>
       <c r="D47" s="53" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E47" s="53" t="s">
-        <v>209</v>
+        <v>190</v>
       </c>
       <c r="F47" s="53" t="s">
-        <v>209</v>
+        <v>190</v>
       </c>
       <c r="G47" s="128" t="s">
         <v>178</v>
       </c>
       <c r="H47" s="128" t="s">
-        <v>176</v>
-      </c>
-      <c r="I47" s="55"/>
-      <c r="J47" s="55"/>
+        <v>182</v>
+      </c>
+      <c r="I47" s="109"/>
+      <c r="J47" s="109"/>
       <c r="K47" s="36" t="s">
         <v>187</v>
       </c>
-      <c r="L47" s="119"/>
-      <c r="M47" s="119"/>
-      <c r="N47" s="119"/>
-      <c r="O47" s="119"/>
-    </row>
-    <row r="48" spans="1:15" s="25" customFormat="1" ht="11.25">
-      <c r="A48" s="31">
-        <v>43</v>
-      </c>
-      <c r="B48" s="106" t="s">
+      <c r="L47" s="119" t="s">
+        <v>183</v>
+      </c>
+      <c r="M47" s="120"/>
+      <c r="N47" s="120"/>
+      <c r="O47" s="120"/>
+    </row>
+    <row r="48" spans="1:15" s="32" customFormat="1" ht="12" customHeight="1">
+      <c r="A48" s="106">
+        <v>44</v>
+      </c>
+      <c r="B48" s="31" t="s">
         <v>155</v>
       </c>
-      <c r="C48" s="195">
-        <v>8.1999999999999993</v>
+      <c r="C48" s="106">
+        <v>8.3000000000000007</v>
       </c>
       <c r="D48" s="53" t="s">
-        <v>189</v>
+        <v>210</v>
       </c>
       <c r="E48" s="53" t="s">
-        <v>190</v>
+        <v>218</v>
       </c>
       <c r="F48" s="53" t="s">
-        <v>190</v>
+        <v>218</v>
       </c>
       <c r="G48" s="128" t="s">
         <v>178</v>
       </c>
       <c r="H48" s="128" t="s">
-        <v>182</v>
-      </c>
-      <c r="I48" s="109"/>
-      <c r="J48" s="109"/>
+        <v>176</v>
+      </c>
+      <c r="I48" s="55"/>
+      <c r="J48" s="55"/>
       <c r="K48" s="36" t="s">
         <v>187</v>
       </c>
-      <c r="L48" s="119" t="s">
-        <v>183</v>
-      </c>
-      <c r="M48" s="120"/>
-      <c r="N48" s="120"/>
-      <c r="O48" s="120"/>
+      <c r="L48" s="119"/>
+      <c r="M48" s="119"/>
+      <c r="N48" s="119"/>
+      <c r="O48" s="119"/>
     </row>
     <row r="49" spans="1:15" s="32" customFormat="1" ht="12" customHeight="1">
-      <c r="A49" s="106">
-        <v>44</v>
+      <c r="A49" s="31">
+        <v>45</v>
       </c>
       <c r="B49" s="31" t="s">
         <v>155</v>
       </c>
-      <c r="C49" s="106">
-        <v>8.3000000000000007</v>
+      <c r="C49" s="194">
+        <v>8.4</v>
       </c>
       <c r="D49" s="53" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E49" s="53" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="F49" s="53" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="G49" s="128" t="s">
         <v>178</v>
       </c>
       <c r="H49" s="128" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="I49" s="55"/>
       <c r="J49" s="55"/>
       <c r="K49" s="36" t="s">
         <v>187</v>
       </c>
-      <c r="L49" s="119"/>
+      <c r="L49" s="127" t="s">
+        <v>183</v>
+      </c>
       <c r="M49" s="119"/>
       <c r="N49" s="119"/>
       <c r="O49" s="119"/>
     </row>
-    <row r="50" spans="1:15" s="32" customFormat="1" ht="12" customHeight="1">
+    <row r="50" spans="1:15" ht="12" customHeight="1">
       <c r="A50" s="31">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B50" s="31" t="s">
         <v>155</v>
       </c>
-      <c r="C50" s="195">
-        <v>8.4</v>
+      <c r="C50" s="125" t="s">
+        <v>370</v>
       </c>
       <c r="D50" s="53" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="E50" s="53" t="s">
-        <v>212</v>
-      </c>
-      <c r="F50" s="53" t="s">
-        <v>212</v>
-      </c>
-      <c r="G50" s="128" t="s">
-        <v>178</v>
-      </c>
-      <c r="H50" s="128" t="s">
-        <v>182</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="F50" s="53"/>
+      <c r="G50" s="127" t="s">
+        <v>180</v>
+      </c>
+      <c r="H50" s="127"/>
       <c r="I50" s="55"/>
       <c r="J50" s="55"/>
-      <c r="K50" s="36" t="s">
-        <v>187</v>
-      </c>
-      <c r="L50" s="127" t="s">
-        <v>183</v>
-      </c>
-      <c r="M50" s="119"/>
-      <c r="N50" s="119"/>
-      <c r="O50" s="119"/>
+      <c r="K50" s="36"/>
+      <c r="L50" s="127"/>
+      <c r="M50" s="127"/>
+      <c r="N50" s="127"/>
+      <c r="O50" s="127"/>
     </row>
     <row r="51" spans="1:15" ht="12" customHeight="1">
-      <c r="A51" s="31">
-        <v>46</v>
+      <c r="A51" s="106">
+        <v>47</v>
       </c>
       <c r="B51" s="31" t="s">
         <v>155</v>
       </c>
       <c r="C51" s="125" t="s">
-        <v>370</v>
-      </c>
-      <c r="D51" s="53" t="s">
-        <v>215</v>
+        <v>371</v>
+      </c>
+      <c r="D51" s="126" t="s">
+        <v>193</v>
       </c>
       <c r="E51" s="53" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F51" s="53"/>
-      <c r="G51" s="127" t="s">
+      <c r="G51" s="141" t="s">
         <v>180</v>
       </c>
       <c r="H51" s="127"/>
@@ -12024,49 +12035,49 @@
       <c r="O51" s="127"/>
     </row>
     <row r="52" spans="1:15" ht="12" customHeight="1">
-      <c r="A52" s="106">
-        <v>47</v>
+      <c r="A52" s="31">
+        <v>48</v>
       </c>
       <c r="B52" s="31" t="s">
         <v>155</v>
       </c>
       <c r="C52" s="125" t="s">
-        <v>371</v>
+        <v>414</v>
       </c>
       <c r="D52" s="126" t="s">
-        <v>193</v>
+        <v>264</v>
       </c>
       <c r="E52" s="53" t="s">
-        <v>217</v>
+        <v>266</v>
       </c>
       <c r="F52" s="53"/>
-      <c r="G52" s="141" t="s">
+      <c r="G52" s="142" t="s">
         <v>180</v>
       </c>
-      <c r="H52" s="127"/>
+      <c r="H52" s="142"/>
       <c r="I52" s="55"/>
       <c r="J52" s="55"/>
       <c r="K52" s="36"/>
-      <c r="L52" s="127"/>
-      <c r="M52" s="127"/>
-      <c r="N52" s="127"/>
-      <c r="O52" s="127"/>
+      <c r="L52" s="142"/>
+      <c r="M52" s="142"/>
+      <c r="N52" s="142"/>
+      <c r="O52" s="142"/>
     </row>
     <row r="53" spans="1:15" ht="12" customHeight="1">
       <c r="A53" s="31">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B53" s="31" t="s">
         <v>155</v>
       </c>
       <c r="C53" s="125" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="D53" s="126" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E53" s="53" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F53" s="53"/>
       <c r="G53" s="142" t="s">
@@ -12081,84 +12092,90 @@
       <c r="N53" s="142"/>
       <c r="O53" s="142"/>
     </row>
-    <row r="54" spans="1:15" ht="12" customHeight="1">
-      <c r="A54" s="31">
-        <v>49</v>
-      </c>
-      <c r="B54" s="31" t="s">
-        <v>155</v>
-      </c>
-      <c r="C54" s="125" t="s">
-        <v>415</v>
-      </c>
-      <c r="D54" s="126" t="s">
-        <v>265</v>
-      </c>
-      <c r="E54" s="53" t="s">
-        <v>267</v>
-      </c>
-      <c r="F54" s="53"/>
-      <c r="G54" s="142" t="s">
-        <v>180</v>
-      </c>
-      <c r="H54" s="142"/>
-      <c r="I54" s="55"/>
-      <c r="J54" s="55"/>
-      <c r="K54" s="36"/>
-      <c r="L54" s="142"/>
-      <c r="M54" s="142"/>
-      <c r="N54" s="142"/>
-      <c r="O54" s="142"/>
+    <row r="54" spans="1:15" s="183" customFormat="1" ht="12" customHeight="1">
+      <c r="A54" s="171">
+        <v>50</v>
+      </c>
+      <c r="B54" s="171" t="s">
+        <v>358</v>
+      </c>
+      <c r="C54" s="180" t="s">
+        <v>372</v>
+      </c>
+      <c r="D54" s="181" t="s">
+        <v>373</v>
+      </c>
+      <c r="E54" s="182"/>
+      <c r="F54" s="182"/>
+      <c r="G54" s="173"/>
+      <c r="H54" s="173"/>
+      <c r="I54" s="175"/>
+      <c r="J54" s="175"/>
+      <c r="K54" s="168"/>
+      <c r="L54" s="173"/>
+      <c r="M54" s="173"/>
+      <c r="N54" s="173"/>
+      <c r="O54" s="173"/>
     </row>
     <row r="55" spans="1:15" s="183" customFormat="1" ht="12" customHeight="1">
       <c r="A55" s="171">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B55" s="171" t="s">
         <v>358</v>
       </c>
       <c r="C55" s="180" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="D55" s="181" t="s">
-        <v>373</v>
-      </c>
-      <c r="E55" s="182"/>
-      <c r="F55" s="182"/>
-      <c r="G55" s="173"/>
-      <c r="H55" s="173"/>
+        <v>234</v>
+      </c>
+      <c r="E55" s="182" t="s">
+        <v>374</v>
+      </c>
+      <c r="F55" s="182" t="s">
+        <v>374</v>
+      </c>
+      <c r="G55" s="174" t="s">
+        <v>178</v>
+      </c>
+      <c r="H55" s="173" t="s">
+        <v>369</v>
+      </c>
       <c r="I55" s="175"/>
       <c r="J55" s="175"/>
-      <c r="K55" s="168"/>
+      <c r="K55" s="168" t="s">
+        <v>187</v>
+      </c>
       <c r="L55" s="173"/>
       <c r="M55" s="173"/>
       <c r="N55" s="173"/>
       <c r="O55" s="173"/>
     </row>
     <row r="56" spans="1:15" s="183" customFormat="1" ht="12" customHeight="1">
-      <c r="A56" s="171">
-        <v>51</v>
+      <c r="A56" s="170">
+        <v>52</v>
       </c>
       <c r="B56" s="171" t="s">
         <v>358</v>
       </c>
       <c r="C56" s="180" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D56" s="181" t="s">
-        <v>234</v>
+        <v>196</v>
       </c>
       <c r="E56" s="182" t="s">
-        <v>374</v>
+        <v>128</v>
       </c>
       <c r="F56" s="182" t="s">
-        <v>374</v>
+        <v>128</v>
       </c>
       <c r="G56" s="174" t="s">
         <v>178</v>
       </c>
       <c r="H56" s="173" t="s">
-        <v>369</v>
+        <v>176</v>
       </c>
       <c r="I56" s="175"/>
       <c r="J56" s="175"/>
@@ -12171,23 +12188,23 @@
       <c r="O56" s="173"/>
     </row>
     <row r="57" spans="1:15" s="183" customFormat="1" ht="12" customHeight="1">
-      <c r="A57" s="170">
-        <v>52</v>
+      <c r="A57" s="171">
+        <v>53</v>
       </c>
       <c r="B57" s="171" t="s">
         <v>358</v>
       </c>
       <c r="C57" s="180" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D57" s="181" t="s">
-        <v>196</v>
+        <v>379</v>
       </c>
       <c r="E57" s="182" t="s">
-        <v>128</v>
+        <v>380</v>
       </c>
       <c r="F57" s="182" t="s">
-        <v>128</v>
+        <v>380</v>
       </c>
       <c r="G57" s="174" t="s">
         <v>178</v>
@@ -12207,28 +12224,28 @@
     </row>
     <row r="58" spans="1:15" s="183" customFormat="1" ht="12" customHeight="1">
       <c r="A58" s="171">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B58" s="171" t="s">
         <v>358</v>
       </c>
       <c r="C58" s="180" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D58" s="181" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="E58" s="182" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="F58" s="182" t="s">
-        <v>380</v>
-      </c>
-      <c r="G58" s="174" t="s">
-        <v>178</v>
+        <v>383</v>
+      </c>
+      <c r="G58" s="173" t="s">
+        <v>368</v>
       </c>
       <c r="H58" s="173" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="I58" s="175"/>
       <c r="J58" s="175"/>
@@ -12241,29 +12258,29 @@
       <c r="O58" s="173"/>
     </row>
     <row r="59" spans="1:15" s="183" customFormat="1" ht="12" customHeight="1">
-      <c r="A59" s="171">
-        <v>54</v>
+      <c r="A59" s="170">
+        <v>55</v>
       </c>
       <c r="B59" s="171" t="s">
         <v>358</v>
       </c>
       <c r="C59" s="180" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="D59" s="181" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="E59" s="182" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="F59" s="182" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="G59" s="173" t="s">
-        <v>368</v>
+        <v>178</v>
       </c>
       <c r="H59" s="173" t="s">
-        <v>182</v>
+        <v>369</v>
       </c>
       <c r="I59" s="175"/>
       <c r="J59" s="175"/>
@@ -12276,55 +12293,49 @@
       <c r="O59" s="173"/>
     </row>
     <row r="60" spans="1:15" s="183" customFormat="1" ht="12" customHeight="1">
-      <c r="A60" s="170">
-        <v>55</v>
+      <c r="A60" s="171">
+        <v>56</v>
       </c>
       <c r="B60" s="171" t="s">
         <v>358</v>
       </c>
       <c r="C60" s="180" t="s">
-        <v>381</v>
+        <v>391</v>
       </c>
       <c r="D60" s="181" t="s">
-        <v>384</v>
+        <v>237</v>
       </c>
       <c r="E60" s="182" t="s">
-        <v>385</v>
-      </c>
-      <c r="F60" s="182" t="s">
-        <v>385</v>
-      </c>
+        <v>394</v>
+      </c>
+      <c r="F60" s="182"/>
       <c r="G60" s="173" t="s">
-        <v>178</v>
-      </c>
-      <c r="H60" s="173" t="s">
-        <v>369</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="H60" s="173"/>
       <c r="I60" s="175"/>
       <c r="J60" s="175"/>
-      <c r="K60" s="168" t="s">
-        <v>187</v>
-      </c>
+      <c r="K60" s="168"/>
       <c r="L60" s="173"/>
       <c r="M60" s="173"/>
       <c r="N60" s="173"/>
       <c r="O60" s="173"/>
     </row>
     <row r="61" spans="1:15" s="183" customFormat="1" ht="12" customHeight="1">
-      <c r="A61" s="171">
-        <v>56</v>
+      <c r="A61" s="170">
+        <v>57</v>
       </c>
       <c r="B61" s="171" t="s">
         <v>358</v>
       </c>
       <c r="C61" s="180" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D61" s="181" t="s">
-        <v>237</v>
+        <v>393</v>
       </c>
       <c r="E61" s="182" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="F61" s="182"/>
       <c r="G61" s="173" t="s">
@@ -12340,25 +12351,21 @@
       <c r="O61" s="173"/>
     </row>
     <row r="62" spans="1:15" s="183" customFormat="1" ht="12" customHeight="1">
-      <c r="A62" s="170">
-        <v>57</v>
+      <c r="A62" s="171">
+        <v>58</v>
       </c>
       <c r="B62" s="171" t="s">
         <v>358</v>
       </c>
       <c r="C62" s="180" t="s">
-        <v>392</v>
+        <v>240</v>
       </c>
       <c r="D62" s="181" t="s">
-        <v>393</v>
-      </c>
-      <c r="E62" s="182" t="s">
-        <v>395</v>
-      </c>
+        <v>387</v>
+      </c>
+      <c r="E62" s="182"/>
       <c r="F62" s="182"/>
-      <c r="G62" s="173" t="s">
-        <v>180</v>
-      </c>
+      <c r="G62" s="173"/>
       <c r="H62" s="173"/>
       <c r="I62" s="175"/>
       <c r="J62" s="175"/>
@@ -12369,54 +12376,64 @@
       <c r="O62" s="173"/>
     </row>
     <row r="63" spans="1:15" s="183" customFormat="1" ht="12" customHeight="1">
-      <c r="A63" s="171">
-        <v>58</v>
+      <c r="A63" s="170">
+        <v>59</v>
       </c>
       <c r="B63" s="171" t="s">
         <v>358</v>
       </c>
       <c r="C63" s="180" t="s">
-        <v>240</v>
+        <v>412</v>
       </c>
       <c r="D63" s="181" t="s">
-        <v>387</v>
-      </c>
-      <c r="E63" s="182"/>
-      <c r="F63" s="182"/>
-      <c r="G63" s="173"/>
-      <c r="H63" s="173"/>
+        <v>388</v>
+      </c>
+      <c r="E63" s="182" t="s">
+        <v>390</v>
+      </c>
+      <c r="F63" s="182" t="s">
+        <v>390</v>
+      </c>
+      <c r="G63" s="173" t="s">
+        <v>178</v>
+      </c>
+      <c r="H63" s="173" t="s">
+        <v>369</v>
+      </c>
       <c r="I63" s="175"/>
       <c r="J63" s="175"/>
-      <c r="K63" s="168"/>
+      <c r="K63" s="168" t="s">
+        <v>187</v>
+      </c>
       <c r="L63" s="173"/>
       <c r="M63" s="173"/>
       <c r="N63" s="173"/>
       <c r="O63" s="173"/>
     </row>
     <row r="64" spans="1:15" s="183" customFormat="1" ht="12" customHeight="1">
-      <c r="A64" s="170">
-        <v>59</v>
+      <c r="A64" s="171">
+        <v>60</v>
       </c>
       <c r="B64" s="171" t="s">
         <v>358</v>
       </c>
       <c r="C64" s="180" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D64" s="181" t="s">
-        <v>388</v>
-      </c>
-      <c r="E64" s="182" t="s">
-        <v>390</v>
-      </c>
-      <c r="F64" s="182" t="s">
-        <v>390</v>
+        <v>386</v>
+      </c>
+      <c r="E64" s="181" t="s">
+        <v>389</v>
+      </c>
+      <c r="F64" s="181" t="s">
+        <v>389</v>
       </c>
       <c r="G64" s="173" t="s">
         <v>178</v>
       </c>
       <c r="H64" s="173" t="s">
-        <v>369</v>
+        <v>176</v>
       </c>
       <c r="I64" s="175"/>
       <c r="J64" s="175"/>
@@ -12428,471 +12445,471 @@
       <c r="N64" s="173"/>
       <c r="O64" s="173"/>
     </row>
-    <row r="65" spans="1:15" s="183" customFormat="1" ht="12" customHeight="1">
-      <c r="A65" s="171">
-        <v>60</v>
-      </c>
-      <c r="B65" s="171" t="s">
-        <v>358</v>
-      </c>
-      <c r="C65" s="180" t="s">
-        <v>413</v>
-      </c>
-      <c r="D65" s="181" t="s">
-        <v>386</v>
-      </c>
-      <c r="E65" s="181" t="s">
-        <v>389</v>
-      </c>
-      <c r="F65" s="181" t="s">
-        <v>389</v>
-      </c>
-      <c r="G65" s="173" t="s">
+    <row r="65" spans="1:15" s="201" customFormat="1" ht="12" customHeight="1">
+      <c r="A65" s="215">
+        <v>61</v>
+      </c>
+      <c r="B65" s="202" t="s">
+        <v>449</v>
+      </c>
+      <c r="C65" s="216" t="s">
+        <v>244</v>
+      </c>
+      <c r="D65" s="217" t="s">
+        <v>416</v>
+      </c>
+      <c r="E65" s="217"/>
+      <c r="F65" s="217"/>
+      <c r="G65" s="217"/>
+      <c r="H65" s="217"/>
+      <c r="I65" s="217"/>
+      <c r="J65" s="217"/>
+      <c r="K65" s="218"/>
+      <c r="L65" s="203"/>
+      <c r="M65" s="203"/>
+      <c r="N65" s="203"/>
+      <c r="O65" s="203"/>
+    </row>
+    <row r="66" spans="1:15" s="201" customFormat="1" ht="12" customHeight="1">
+      <c r="A66" s="202">
+        <v>62</v>
+      </c>
+      <c r="B66" s="202" t="s">
+        <v>449</v>
+      </c>
+      <c r="C66" s="216" t="s">
+        <v>245</v>
+      </c>
+      <c r="D66" s="217" t="s">
+        <v>234</v>
+      </c>
+      <c r="E66" s="217" t="s">
+        <v>374</v>
+      </c>
+      <c r="F66" s="217" t="s">
+        <v>374</v>
+      </c>
+      <c r="G66" s="217" t="s">
         <v>178</v>
       </c>
-      <c r="H65" s="173" t="s">
+      <c r="H66" s="217" t="s">
+        <v>369</v>
+      </c>
+      <c r="I66" s="217"/>
+      <c r="J66" s="217"/>
+      <c r="K66" s="218" t="s">
+        <v>187</v>
+      </c>
+      <c r="L66" s="203"/>
+      <c r="M66" s="203"/>
+      <c r="N66" s="203"/>
+      <c r="O66" s="203"/>
+    </row>
+    <row r="67" spans="1:15" s="201" customFormat="1" ht="12" customHeight="1">
+      <c r="A67" s="215">
+        <v>63</v>
+      </c>
+      <c r="B67" s="202" t="s">
+        <v>449</v>
+      </c>
+      <c r="C67" s="216" t="s">
+        <v>246</v>
+      </c>
+      <c r="D67" s="217" t="s">
+        <v>421</v>
+      </c>
+      <c r="E67" s="217" t="s">
+        <v>422</v>
+      </c>
+      <c r="F67" s="217" t="s">
+        <v>422</v>
+      </c>
+      <c r="G67" s="217" t="s">
+        <v>178</v>
+      </c>
+      <c r="H67" s="217" t="s">
         <v>176</v>
       </c>
-      <c r="I65" s="175"/>
-      <c r="J65" s="175"/>
-      <c r="K65" s="168" t="s">
+      <c r="I67" s="217"/>
+      <c r="J67" s="217"/>
+      <c r="K67" s="218" t="s">
         <v>187</v>
       </c>
-      <c r="L65" s="173"/>
-      <c r="M65" s="173"/>
-      <c r="N65" s="173"/>
-      <c r="O65" s="173"/>
-    </row>
-    <row r="66" spans="1:15" s="210" customFormat="1" ht="12" customHeight="1">
-      <c r="A66" s="340">
-        <v>61</v>
-      </c>
-      <c r="B66" s="211" t="s">
-        <v>358</v>
-      </c>
-      <c r="C66" s="341" t="s">
-        <v>244</v>
-      </c>
-      <c r="D66" s="342" t="s">
-        <v>416</v>
-      </c>
-      <c r="E66" s="342"/>
-      <c r="F66" s="342"/>
-      <c r="G66" s="342"/>
-      <c r="H66" s="342"/>
-      <c r="I66" s="342"/>
-      <c r="J66" s="342"/>
-      <c r="K66" s="343"/>
-      <c r="L66" s="212"/>
-      <c r="M66" s="212"/>
-      <c r="N66" s="212"/>
-      <c r="O66" s="212"/>
-    </row>
-    <row r="67" spans="1:15" s="210" customFormat="1" ht="12" customHeight="1">
-      <c r="A67" s="211">
-        <v>62</v>
-      </c>
-      <c r="B67" s="211" t="s">
-        <v>358</v>
-      </c>
-      <c r="C67" s="341" t="s">
-        <v>245</v>
-      </c>
-      <c r="D67" s="342" t="s">
-        <v>234</v>
-      </c>
-      <c r="E67" s="342" t="s">
-        <v>374</v>
-      </c>
-      <c r="F67" s="342" t="s">
-        <v>374</v>
-      </c>
-      <c r="G67" s="342" t="s">
+      <c r="L67" s="203"/>
+      <c r="M67" s="203"/>
+      <c r="N67" s="203"/>
+      <c r="O67" s="203"/>
+    </row>
+    <row r="68" spans="1:15" s="201" customFormat="1" ht="12" customHeight="1">
+      <c r="A68" s="202">
+        <v>64</v>
+      </c>
+      <c r="B68" s="202" t="s">
+        <v>449</v>
+      </c>
+      <c r="C68" s="216" t="s">
+        <v>247</v>
+      </c>
+      <c r="D68" s="217" t="s">
+        <v>417</v>
+      </c>
+      <c r="E68" s="217" t="s">
+        <v>418</v>
+      </c>
+      <c r="F68" s="217" t="s">
+        <v>418</v>
+      </c>
+      <c r="G68" s="217" t="s">
         <v>178</v>
       </c>
-      <c r="H67" s="342" t="s">
-        <v>369</v>
-      </c>
-      <c r="I67" s="342"/>
-      <c r="J67" s="342"/>
-      <c r="K67" s="343" t="s">
+      <c r="H68" s="217" t="s">
+        <v>176</v>
+      </c>
+      <c r="I68" s="217"/>
+      <c r="J68" s="217"/>
+      <c r="K68" s="218" t="s">
         <v>187</v>
       </c>
-      <c r="L67" s="212"/>
-      <c r="M67" s="212"/>
-      <c r="N67" s="212"/>
-      <c r="O67" s="212"/>
-    </row>
-    <row r="68" spans="1:15" s="210" customFormat="1" ht="12" customHeight="1">
-      <c r="A68" s="340">
-        <v>63</v>
-      </c>
-      <c r="B68" s="211" t="s">
-        <v>358</v>
-      </c>
-      <c r="C68" s="341" t="s">
-        <v>246</v>
-      </c>
-      <c r="D68" s="342" t="s">
-        <v>421</v>
-      </c>
-      <c r="E68" s="342" t="s">
-        <v>422</v>
-      </c>
-      <c r="F68" s="342" t="s">
-        <v>422</v>
-      </c>
-      <c r="G68" s="342" t="s">
+      <c r="L68" s="203"/>
+      <c r="M68" s="203"/>
+      <c r="N68" s="203"/>
+      <c r="O68" s="203"/>
+    </row>
+    <row r="69" spans="1:15" s="201" customFormat="1" ht="12" customHeight="1">
+      <c r="A69" s="215">
+        <v>65</v>
+      </c>
+      <c r="B69" s="202" t="s">
+        <v>449</v>
+      </c>
+      <c r="C69" s="216" t="s">
+        <v>248</v>
+      </c>
+      <c r="D69" s="217" t="s">
+        <v>419</v>
+      </c>
+      <c r="E69" s="217" t="s">
+        <v>420</v>
+      </c>
+      <c r="F69" s="217" t="s">
+        <v>420</v>
+      </c>
+      <c r="G69" s="217" t="s">
         <v>178</v>
       </c>
-      <c r="H68" s="342" t="s">
+      <c r="H69" s="217" t="s">
         <v>176</v>
       </c>
-      <c r="I68" s="342"/>
-      <c r="J68" s="342"/>
-      <c r="K68" s="343" t="s">
+      <c r="I69" s="217"/>
+      <c r="J69" s="217"/>
+      <c r="K69" s="218" t="s">
         <v>187</v>
       </c>
-      <c r="L68" s="212"/>
-      <c r="M68" s="212"/>
-      <c r="N68" s="212"/>
-      <c r="O68" s="212"/>
-    </row>
-    <row r="69" spans="1:15" s="210" customFormat="1" ht="12" customHeight="1">
-      <c r="A69" s="211">
-        <v>64</v>
-      </c>
-      <c r="B69" s="211" t="s">
-        <v>358</v>
-      </c>
-      <c r="C69" s="341" t="s">
-        <v>247</v>
-      </c>
-      <c r="D69" s="342" t="s">
-        <v>417</v>
-      </c>
-      <c r="E69" s="342" t="s">
-        <v>418</v>
-      </c>
-      <c r="F69" s="342" t="s">
-        <v>418</v>
-      </c>
-      <c r="G69" s="342" t="s">
+      <c r="L69" s="203"/>
+      <c r="M69" s="203"/>
+      <c r="N69" s="203"/>
+      <c r="O69" s="203"/>
+    </row>
+    <row r="70" spans="1:15" s="201" customFormat="1" ht="12" customHeight="1">
+      <c r="A70" s="202">
+        <v>66</v>
+      </c>
+      <c r="B70" s="202" t="s">
+        <v>449</v>
+      </c>
+      <c r="C70" s="216" t="s">
+        <v>249</v>
+      </c>
+      <c r="D70" s="217" t="s">
+        <v>423</v>
+      </c>
+      <c r="E70" s="217" t="s">
+        <v>427</v>
+      </c>
+      <c r="F70" s="217" t="s">
+        <v>427</v>
+      </c>
+      <c r="G70" s="217" t="s">
         <v>178</v>
       </c>
-      <c r="H69" s="342" t="s">
+      <c r="H70" s="217" t="s">
         <v>176</v>
       </c>
-      <c r="I69" s="342"/>
-      <c r="J69" s="342"/>
-      <c r="K69" s="343" t="s">
+      <c r="I70" s="217"/>
+      <c r="J70" s="217"/>
+      <c r="K70" s="218" t="s">
         <v>187</v>
       </c>
-      <c r="L69" s="212"/>
-      <c r="M69" s="212"/>
-      <c r="N69" s="212"/>
-      <c r="O69" s="212"/>
-    </row>
-    <row r="70" spans="1:15" s="210" customFormat="1" ht="12" customHeight="1">
-      <c r="A70" s="340">
-        <v>65</v>
-      </c>
-      <c r="B70" s="211" t="s">
-        <v>358</v>
-      </c>
-      <c r="C70" s="341" t="s">
-        <v>248</v>
-      </c>
-      <c r="D70" s="342" t="s">
-        <v>419</v>
-      </c>
-      <c r="E70" s="342" t="s">
-        <v>420</v>
-      </c>
-      <c r="F70" s="342" t="s">
-        <v>420</v>
-      </c>
-      <c r="G70" s="342" t="s">
+      <c r="L70" s="203"/>
+      <c r="M70" s="203"/>
+      <c r="N70" s="203"/>
+      <c r="O70" s="203"/>
+    </row>
+    <row r="71" spans="1:15" s="201" customFormat="1" ht="12" customHeight="1">
+      <c r="A71" s="215">
+        <v>67</v>
+      </c>
+      <c r="B71" s="202" t="s">
+        <v>449</v>
+      </c>
+      <c r="C71" s="216" t="s">
+        <v>250</v>
+      </c>
+      <c r="D71" s="217" t="s">
+        <v>424</v>
+      </c>
+      <c r="E71" s="217" t="s">
+        <v>428</v>
+      </c>
+      <c r="F71" s="217" t="s">
+        <v>428</v>
+      </c>
+      <c r="G71" s="217" t="s">
         <v>178</v>
       </c>
-      <c r="H70" s="342" t="s">
+      <c r="H71" s="217" t="s">
         <v>176</v>
       </c>
-      <c r="I70" s="342"/>
-      <c r="J70" s="342"/>
-      <c r="K70" s="343" t="s">
+      <c r="I71" s="217"/>
+      <c r="J71" s="217"/>
+      <c r="K71" s="218" t="s">
         <v>187</v>
       </c>
-      <c r="L70" s="212"/>
-      <c r="M70" s="212"/>
-      <c r="N70" s="212"/>
-      <c r="O70" s="212"/>
-    </row>
-    <row r="71" spans="1:15" s="210" customFormat="1" ht="12" customHeight="1">
-      <c r="A71" s="211">
-        <v>66</v>
-      </c>
-      <c r="B71" s="211" t="s">
-        <v>358</v>
-      </c>
-      <c r="C71" s="341" t="s">
-        <v>249</v>
-      </c>
-      <c r="D71" s="342" t="s">
-        <v>423</v>
-      </c>
-      <c r="E71" s="342" t="s">
-        <v>427</v>
-      </c>
-      <c r="F71" s="342" t="s">
-        <v>427</v>
-      </c>
-      <c r="G71" s="342" t="s">
+      <c r="L71" s="203"/>
+      <c r="M71" s="203"/>
+      <c r="N71" s="203"/>
+      <c r="O71" s="203"/>
+    </row>
+    <row r="72" spans="1:15" s="201" customFormat="1" ht="12" customHeight="1">
+      <c r="A72" s="202">
+        <v>68</v>
+      </c>
+      <c r="B72" s="202" t="s">
+        <v>449</v>
+      </c>
+      <c r="C72" s="216" t="s">
+        <v>251</v>
+      </c>
+      <c r="D72" s="217" t="s">
+        <v>425</v>
+      </c>
+      <c r="E72" s="217" t="s">
+        <v>429</v>
+      </c>
+      <c r="F72" s="217" t="s">
+        <v>429</v>
+      </c>
+      <c r="G72" s="217" t="s">
         <v>178</v>
       </c>
-      <c r="H71" s="342" t="s">
+      <c r="H72" s="217" t="s">
         <v>176</v>
       </c>
-      <c r="I71" s="342"/>
-      <c r="J71" s="342"/>
-      <c r="K71" s="343" t="s">
+      <c r="I72" s="217"/>
+      <c r="J72" s="217"/>
+      <c r="K72" s="218" t="s">
         <v>187</v>
       </c>
-      <c r="L71" s="212"/>
-      <c r="M71" s="212"/>
-      <c r="N71" s="212"/>
-      <c r="O71" s="212"/>
-    </row>
-    <row r="72" spans="1:15" s="210" customFormat="1" ht="12" customHeight="1">
-      <c r="A72" s="340">
-        <v>67</v>
-      </c>
-      <c r="B72" s="211" t="s">
-        <v>358</v>
-      </c>
-      <c r="C72" s="341" t="s">
-        <v>250</v>
-      </c>
-      <c r="D72" s="342" t="s">
-        <v>424</v>
-      </c>
-      <c r="E72" s="342" t="s">
-        <v>428</v>
-      </c>
-      <c r="F72" s="342" t="s">
-        <v>428</v>
-      </c>
-      <c r="G72" s="342" t="s">
+      <c r="L72" s="203"/>
+      <c r="M72" s="203"/>
+      <c r="N72" s="203"/>
+      <c r="O72" s="203"/>
+    </row>
+    <row r="73" spans="1:15" s="201" customFormat="1" ht="12" customHeight="1">
+      <c r="A73" s="215">
+        <v>69</v>
+      </c>
+      <c r="B73" s="202" t="s">
+        <v>449</v>
+      </c>
+      <c r="C73" s="216" t="s">
+        <v>431</v>
+      </c>
+      <c r="D73" s="217" t="s">
+        <v>426</v>
+      </c>
+      <c r="E73" s="217" t="s">
+        <v>430</v>
+      </c>
+      <c r="F73" s="217" t="s">
+        <v>430</v>
+      </c>
+      <c r="G73" s="217" t="s">
         <v>178</v>
       </c>
-      <c r="H72" s="342" t="s">
+      <c r="H73" s="217" t="s">
         <v>176</v>
       </c>
-      <c r="I72" s="342"/>
-      <c r="J72" s="342"/>
-      <c r="K72" s="343" t="s">
+      <c r="I73" s="217"/>
+      <c r="J73" s="217"/>
+      <c r="K73" s="218" t="s">
         <v>187</v>
       </c>
-      <c r="L72" s="212"/>
-      <c r="M72" s="212"/>
-      <c r="N72" s="212"/>
-      <c r="O72" s="212"/>
-    </row>
-    <row r="73" spans="1:15" s="210" customFormat="1" ht="12" customHeight="1">
-      <c r="A73" s="211">
-        <v>68</v>
-      </c>
-      <c r="B73" s="211" t="s">
-        <v>358</v>
-      </c>
-      <c r="C73" s="341" t="s">
-        <v>251</v>
-      </c>
-      <c r="D73" s="342" t="s">
-        <v>425</v>
-      </c>
-      <c r="E73" s="342" t="s">
-        <v>429</v>
-      </c>
-      <c r="F73" s="342" t="s">
-        <v>429</v>
-      </c>
-      <c r="G73" s="342" t="s">
+      <c r="L73" s="203"/>
+      <c r="M73" s="203"/>
+      <c r="N73" s="203"/>
+      <c r="O73" s="203"/>
+    </row>
+    <row r="74" spans="1:15" s="201" customFormat="1" ht="12" customHeight="1">
+      <c r="A74" s="202">
+        <v>70</v>
+      </c>
+      <c r="B74" s="202" t="s">
+        <v>449</v>
+      </c>
+      <c r="C74" s="216" t="s">
+        <v>432</v>
+      </c>
+      <c r="D74" s="217" t="s">
+        <v>191</v>
+      </c>
+      <c r="E74" s="217" t="s">
+        <v>192</v>
+      </c>
+      <c r="F74" s="217" t="s">
+        <v>192</v>
+      </c>
+      <c r="G74" s="217" t="s">
         <v>178</v>
       </c>
-      <c r="H73" s="342" t="s">
+      <c r="H74" s="217" t="s">
         <v>176</v>
       </c>
-      <c r="I73" s="342"/>
-      <c r="J73" s="342"/>
-      <c r="K73" s="343" t="s">
+      <c r="I74" s="217"/>
+      <c r="J74" s="217"/>
+      <c r="K74" s="218" t="s">
         <v>187</v>
       </c>
-      <c r="L73" s="212"/>
-      <c r="M73" s="212"/>
-      <c r="N73" s="212"/>
-      <c r="O73" s="212"/>
-    </row>
-    <row r="74" spans="1:15" s="210" customFormat="1" ht="12" customHeight="1">
-      <c r="A74" s="340">
-        <v>69</v>
-      </c>
-      <c r="B74" s="211" t="s">
-        <v>358</v>
-      </c>
-      <c r="C74" s="341" t="s">
-        <v>431</v>
-      </c>
-      <c r="D74" s="342" t="s">
-        <v>426</v>
-      </c>
-      <c r="E74" s="342" t="s">
-        <v>430</v>
-      </c>
-      <c r="F74" s="342" t="s">
-        <v>430</v>
-      </c>
-      <c r="G74" s="342" t="s">
+      <c r="L74" s="203"/>
+      <c r="M74" s="203"/>
+      <c r="N74" s="203"/>
+      <c r="O74" s="203"/>
+    </row>
+    <row r="75" spans="1:15" s="201" customFormat="1" ht="12" customHeight="1">
+      <c r="A75" s="215">
+        <v>71</v>
+      </c>
+      <c r="B75" s="202" t="s">
+        <v>449</v>
+      </c>
+      <c r="C75" s="216" t="s">
+        <v>433</v>
+      </c>
+      <c r="D75" s="217" t="s">
+        <v>189</v>
+      </c>
+      <c r="E75" s="217" t="s">
+        <v>190</v>
+      </c>
+      <c r="F75" s="217" t="s">
+        <v>190</v>
+      </c>
+      <c r="G75" s="217" t="s">
         <v>178</v>
       </c>
-      <c r="H74" s="342" t="s">
+      <c r="H75" s="217" t="s">
+        <v>182</v>
+      </c>
+      <c r="I75" s="217"/>
+      <c r="J75" s="217"/>
+      <c r="K75" s="218" t="s">
+        <v>187</v>
+      </c>
+      <c r="L75" s="203" t="s">
+        <v>183</v>
+      </c>
+      <c r="M75" s="203"/>
+      <c r="N75" s="203"/>
+      <c r="O75" s="203"/>
+    </row>
+    <row r="76" spans="1:15" s="201" customFormat="1" ht="12" customHeight="1">
+      <c r="A76" s="215">
+        <v>72</v>
+      </c>
+      <c r="B76" s="202" t="s">
+        <v>449</v>
+      </c>
+      <c r="C76" s="216" t="s">
+        <v>434</v>
+      </c>
+      <c r="D76" s="217"/>
+      <c r="E76" s="217" t="s">
+        <v>436</v>
+      </c>
+      <c r="F76" s="217"/>
+      <c r="G76" s="203" t="s">
+        <v>180</v>
+      </c>
+      <c r="H76" s="217"/>
+      <c r="I76" s="217"/>
+      <c r="J76" s="217"/>
+      <c r="K76" s="218"/>
+      <c r="L76" s="203"/>
+      <c r="M76" s="203"/>
+      <c r="N76" s="203"/>
+      <c r="O76" s="203"/>
+    </row>
+    <row r="77" spans="1:15" s="201" customFormat="1" ht="12" customHeight="1">
+      <c r="A77" s="215">
+        <v>73</v>
+      </c>
+      <c r="B77" s="202" t="s">
+        <v>449</v>
+      </c>
+      <c r="C77" s="216" t="s">
+        <v>435</v>
+      </c>
+      <c r="D77" s="217"/>
+      <c r="E77" s="217" t="s">
+        <v>437</v>
+      </c>
+      <c r="F77" s="217"/>
+      <c r="G77" s="203" t="s">
+        <v>180</v>
+      </c>
+      <c r="H77" s="217"/>
+      <c r="I77" s="217"/>
+      <c r="J77" s="217"/>
+      <c r="K77" s="218"/>
+      <c r="L77" s="203"/>
+      <c r="M77" s="203"/>
+      <c r="N77" s="203"/>
+      <c r="O77" s="203"/>
+    </row>
+    <row r="78" spans="1:15" s="214" customFormat="1" ht="11.25">
+      <c r="A78" s="208">
+        <v>10</v>
+      </c>
+      <c r="B78" s="208" t="s">
+        <v>448</v>
+      </c>
+      <c r="C78" s="209">
+        <v>2.14</v>
+      </c>
+      <c r="D78" s="210" t="s">
+        <v>356</v>
+      </c>
+      <c r="E78" s="211" t="s">
+        <v>357</v>
+      </c>
+      <c r="F78" s="211" t="s">
+        <v>357</v>
+      </c>
+      <c r="G78" s="212" t="s">
+        <v>178</v>
+      </c>
+      <c r="H78" s="212" t="s">
         <v>176</v>
       </c>
-      <c r="I74" s="342"/>
-      <c r="J74" s="342"/>
-      <c r="K74" s="343" t="s">
+      <c r="I78" s="213"/>
+      <c r="J78" s="213"/>
+      <c r="K78" s="206" t="s">
         <v>187</v>
       </c>
-      <c r="L74" s="212"/>
-      <c r="M74" s="212"/>
-      <c r="N74" s="212"/>
-      <c r="O74" s="212"/>
-    </row>
-    <row r="75" spans="1:15" s="210" customFormat="1" ht="12" customHeight="1">
-      <c r="A75" s="211">
-        <v>70</v>
-      </c>
-      <c r="B75" s="211" t="s">
-        <v>358</v>
-      </c>
-      <c r="C75" s="341" t="s">
-        <v>432</v>
-      </c>
-      <c r="D75" s="342" t="s">
-        <v>191</v>
-      </c>
-      <c r="E75" s="342" t="s">
-        <v>192</v>
-      </c>
-      <c r="F75" s="342" t="s">
-        <v>192</v>
-      </c>
-      <c r="G75" s="342" t="s">
-        <v>178</v>
-      </c>
-      <c r="H75" s="342" t="s">
-        <v>176</v>
-      </c>
-      <c r="I75" s="342"/>
-      <c r="J75" s="342"/>
-      <c r="K75" s="343" t="s">
-        <v>187</v>
-      </c>
-      <c r="L75" s="212"/>
-      <c r="M75" s="212"/>
-      <c r="N75" s="212"/>
-      <c r="O75" s="212"/>
-    </row>
-    <row r="76" spans="1:15" s="210" customFormat="1" ht="12" customHeight="1">
-      <c r="A76" s="340">
-        <v>71</v>
-      </c>
-      <c r="B76" s="211" t="s">
-        <v>358</v>
-      </c>
-      <c r="C76" s="341" t="s">
-        <v>433</v>
-      </c>
-      <c r="D76" s="342" t="s">
-        <v>189</v>
-      </c>
-      <c r="E76" s="342" t="s">
-        <v>190</v>
-      </c>
-      <c r="F76" s="342" t="s">
-        <v>190</v>
-      </c>
-      <c r="G76" s="342" t="s">
-        <v>178</v>
-      </c>
-      <c r="H76" s="342" t="s">
-        <v>182</v>
-      </c>
-      <c r="I76" s="342"/>
-      <c r="J76" s="342"/>
-      <c r="K76" s="343" t="s">
-        <v>187</v>
-      </c>
-      <c r="L76" s="212" t="s">
-        <v>183</v>
-      </c>
-      <c r="M76" s="212"/>
-      <c r="N76" s="212"/>
-      <c r="O76" s="212"/>
-    </row>
-    <row r="77" spans="1:15" s="210" customFormat="1" ht="12" customHeight="1">
-      <c r="A77" s="340">
-        <v>72</v>
-      </c>
-      <c r="B77" s="211" t="s">
-        <v>358</v>
-      </c>
-      <c r="C77" s="341" t="s">
-        <v>434</v>
-      </c>
-      <c r="D77" s="342"/>
-      <c r="E77" s="342" t="s">
-        <v>436</v>
-      </c>
-      <c r="F77" s="342"/>
-      <c r="G77" s="212" t="s">
-        <v>180</v>
-      </c>
-      <c r="H77" s="342"/>
-      <c r="I77" s="342"/>
-      <c r="J77" s="342"/>
-      <c r="K77" s="343"/>
-      <c r="L77" s="212"/>
-      <c r="M77" s="212"/>
-      <c r="N77" s="212"/>
-      <c r="O77" s="212"/>
-    </row>
-    <row r="78" spans="1:15" s="210" customFormat="1" ht="12" customHeight="1">
-      <c r="A78" s="340">
-        <v>73</v>
-      </c>
-      <c r="B78" s="211" t="s">
-        <v>358</v>
-      </c>
-      <c r="C78" s="341" t="s">
-        <v>435</v>
-      </c>
-      <c r="D78" s="342"/>
-      <c r="E78" s="342" t="s">
-        <v>437</v>
-      </c>
-      <c r="F78" s="342"/>
-      <c r="G78" s="212" t="s">
-        <v>180</v>
-      </c>
-      <c r="H78" s="342"/>
-      <c r="I78" s="342"/>
-      <c r="J78" s="342"/>
-      <c r="K78" s="343"/>
-      <c r="L78" s="212"/>
-      <c r="M78" s="212"/>
-      <c r="N78" s="212"/>
-      <c r="O78" s="212"/>
+      <c r="L78" s="211"/>
+      <c r="M78" s="211"/>
+      <c r="N78" s="211"/>
+      <c r="O78" s="211"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -12904,16 +12921,16 @@
   </mergeCells>
   <dataValidations count="5">
     <dataValidation allowBlank="1" showErrorMessage="1" sqref="F5"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G56:G58 G25:G31 G33:G54 G5:G23 G67:G70">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G55:G57 G24:G30 G32:G53 G66:G69 G78 G5:G22">
       <formula1>"Caption,Textbox,DateTimePicker,RichTextbox,Label,ComboBox,CheckBox,RadioButton,Button,DataGrid, Image,Link,Form,Frame,Menu,MenuItem,Other"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G24 G32">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G23 G31">
       <formula1>"Caption,TabControl,Textbox,DateTimePicker,RichTextbox,Label,ComboBox,CheckBox,RadioButton,Button,DataGrid, Image,Link,Form,Frame,Menu,MenuItem,Other"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K5:K54">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K5:K53 K78">
       <formula1>"I,O,I/O"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5:H54">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5:H53 H78">
       <formula1>"Text, Number, DateTime, Boolean"</formula1>
     </dataValidation>
   </dataValidations>
@@ -12928,7 +12945,7 @@
   <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -13053,31 +13070,31 @@
       <c r="O4" s="32"/>
       <c r="P4" s="32"/>
     </row>
-    <row r="5" spans="1:16" s="206" customFormat="1" ht="14.25">
-      <c r="A5" s="170">
+    <row r="5" spans="1:16" s="335" customFormat="1" ht="14.25">
+      <c r="A5" s="215">
         <v>1</v>
       </c>
-      <c r="B5" s="203">
-        <v>5</v>
-      </c>
-      <c r="C5" s="194" t="s">
+      <c r="B5" s="332">
+        <v>6</v>
+      </c>
+      <c r="C5" s="217" t="s">
         <v>437</v>
       </c>
-      <c r="D5" s="204" t="s">
+      <c r="D5" s="333" t="s">
         <v>443</v>
       </c>
-      <c r="E5" s="204"/>
-      <c r="F5" s="204"/>
-      <c r="G5" s="204" t="s">
+      <c r="E5" s="333"/>
+      <c r="F5" s="333"/>
+      <c r="G5" s="333" t="s">
         <v>180</v>
       </c>
-      <c r="H5" s="204" t="s">
+      <c r="H5" s="333" t="s">
         <v>168</v>
       </c>
-      <c r="I5" s="205" t="s">
+      <c r="I5" s="334" t="s">
         <v>442</v>
       </c>
-      <c r="J5" s="204"/>
+      <c r="J5" s="333"/>
     </row>
     <row r="6" spans="1:16" s="25" customFormat="1" ht="11.25">
       <c r="A6" s="106">
@@ -13236,7 +13253,7 @@
   <dimension ref="A1:R11"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11:I11"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -13260,7 +13277,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="276" t="s">
+      <c r="A1" s="285" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="104"/>
@@ -13296,7 +13313,7 @@
       <c r="L1" s="46"/>
     </row>
     <row r="2" spans="1:18" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="277"/>
+      <c r="A2" s="286"/>
       <c r="B2" s="105"/>
       <c r="C2" s="30" t="s">
         <v>2</v>
@@ -13345,12 +13362,12 @@
       <c r="E4" s="82" t="s">
         <v>46</v>
       </c>
-      <c r="F4" s="287" t="s">
+      <c r="F4" s="296" t="s">
         <v>128</v>
       </c>
-      <c r="G4" s="288"/>
-      <c r="H4" s="288"/>
-      <c r="I4" s="289"/>
+      <c r="G4" s="297"/>
+      <c r="H4" s="297"/>
+      <c r="I4" s="298"/>
       <c r="J4" s="169" t="s">
         <v>48</v>
       </c>
@@ -13369,13 +13386,13 @@
       <c r="E5" s="132" t="s">
         <v>176</v>
       </c>
-      <c r="F5" s="278" t="s">
+      <c r="F5" s="287" t="s">
         <v>219</v>
       </c>
-      <c r="G5" s="279"/>
-      <c r="H5" s="279"/>
-      <c r="I5" s="280"/>
-      <c r="J5" s="278" t="s">
+      <c r="G5" s="288"/>
+      <c r="H5" s="288"/>
+      <c r="I5" s="289"/>
+      <c r="J5" s="287" t="s">
         <v>199</v>
       </c>
     </row>
@@ -13393,11 +13410,11 @@
       <c r="E6" s="132" t="s">
         <v>176</v>
       </c>
-      <c r="F6" s="281"/>
-      <c r="G6" s="282"/>
-      <c r="H6" s="282"/>
-      <c r="I6" s="283"/>
-      <c r="J6" s="281"/>
+      <c r="F6" s="290"/>
+      <c r="G6" s="291"/>
+      <c r="H6" s="291"/>
+      <c r="I6" s="292"/>
+      <c r="J6" s="290"/>
     </row>
     <row r="7" spans="1:18" s="32" customFormat="1" ht="21" customHeight="1">
       <c r="A7" s="31">
@@ -13413,13 +13430,13 @@
       <c r="E7" s="132" t="s">
         <v>176</v>
       </c>
-      <c r="F7" s="278" t="s">
+      <c r="F7" s="287" t="s">
         <v>220</v>
       </c>
-      <c r="G7" s="279"/>
-      <c r="H7" s="279"/>
-      <c r="I7" s="280"/>
-      <c r="J7" s="278" t="s">
+      <c r="G7" s="288"/>
+      <c r="H7" s="288"/>
+      <c r="I7" s="289"/>
+      <c r="J7" s="287" t="s">
         <v>200</v>
       </c>
     </row>
@@ -13437,11 +13454,11 @@
       <c r="E8" s="132" t="s">
         <v>176</v>
       </c>
-      <c r="F8" s="281"/>
-      <c r="G8" s="282"/>
-      <c r="H8" s="282"/>
-      <c r="I8" s="283"/>
-      <c r="J8" s="281"/>
+      <c r="F8" s="290"/>
+      <c r="G8" s="291"/>
+      <c r="H8" s="291"/>
+      <c r="I8" s="292"/>
+      <c r="J8" s="290"/>
     </row>
     <row r="9" spans="1:18" ht="23.25" customHeight="1">
       <c r="A9" s="184">
@@ -13457,12 +13474,12 @@
       <c r="E9" s="187" t="s">
         <v>290</v>
       </c>
-      <c r="F9" s="284" t="s">
+      <c r="F9" s="293" t="s">
         <v>291</v>
       </c>
-      <c r="G9" s="285"/>
-      <c r="H9" s="285"/>
-      <c r="I9" s="286"/>
+      <c r="G9" s="294"/>
+      <c r="H9" s="294"/>
+      <c r="I9" s="295"/>
       <c r="J9" s="188" t="s">
         <v>292</v>
       </c>
@@ -13481,12 +13498,12 @@
       <c r="E10" s="189" t="s">
         <v>176</v>
       </c>
-      <c r="F10" s="275" t="s">
+      <c r="F10" s="284" t="s">
         <v>396</v>
       </c>
-      <c r="G10" s="275"/>
-      <c r="H10" s="275"/>
-      <c r="I10" s="275"/>
+      <c r="G10" s="284"/>
+      <c r="H10" s="284"/>
+      <c r="I10" s="284"/>
       <c r="J10" s="189" t="s">
         <v>398</v>
       </c>
@@ -13498,36 +13515,36 @@
       <c r="Q10" s="192"/>
       <c r="R10" s="192"/>
     </row>
-    <row r="11" spans="1:18" s="191" customFormat="1" ht="33.75">
-      <c r="A11" s="170">
+    <row r="11" spans="1:18" s="340" customFormat="1" ht="33.75">
+      <c r="A11" s="215">
         <v>7</v>
       </c>
-      <c r="B11" s="170" t="s">
-        <v>358</v>
-      </c>
-      <c r="C11" s="190" t="s">
+      <c r="B11" s="215" t="s">
+        <v>449</v>
+      </c>
+      <c r="C11" s="336" t="s">
         <v>131</v>
       </c>
-      <c r="D11" s="189"/>
-      <c r="E11" s="189" t="s">
+      <c r="D11" s="337"/>
+      <c r="E11" s="337" t="s">
         <v>176</v>
       </c>
-      <c r="F11" s="275" t="s">
+      <c r="F11" s="338" t="s">
         <v>439</v>
       </c>
-      <c r="G11" s="275"/>
-      <c r="H11" s="275"/>
-      <c r="I11" s="275"/>
-      <c r="J11" s="200" t="s">
+      <c r="G11" s="338"/>
+      <c r="H11" s="338"/>
+      <c r="I11" s="338"/>
+      <c r="J11" s="339" t="s">
         <v>438</v>
       </c>
-      <c r="L11" s="192"/>
-      <c r="M11" s="192"/>
-      <c r="N11" s="192"/>
-      <c r="O11" s="192"/>
-      <c r="P11" s="192"/>
-      <c r="Q11" s="192"/>
-      <c r="R11" s="192"/>
+      <c r="L11" s="341"/>
+      <c r="M11" s="341"/>
+      <c r="N11" s="341"/>
+      <c r="O11" s="341"/>
+      <c r="P11" s="341"/>
+      <c r="Q11" s="341"/>
+      <c r="R11" s="341"/>
     </row>
   </sheetData>
   <dataConsolidate/>
@@ -13558,8 +13575,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q1048229"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A10" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A16" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -13585,20 +13602,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="251" t="s">
+      <c r="A1" s="241" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="251"/>
-      <c r="C1" s="251"/>
-      <c r="D1" s="251"/>
+      <c r="B1" s="241"/>
+      <c r="C1" s="241"/>
+      <c r="D1" s="241"/>
       <c r="E1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="290" t="str">
+      <c r="F1" s="320" t="str">
         <f>'Update History'!D1</f>
         <v>ASOFT - ERP.NET</v>
       </c>
-      <c r="G1" s="290"/>
+      <c r="G1" s="320"/>
       <c r="H1" s="26" t="s">
         <v>3</v>
       </c>
@@ -13616,28 +13633,28 @@
       <c r="L1" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="297" t="str">
+      <c r="M1" s="303" t="str">
         <f>'Update History'!J1</f>
         <v>Tấn Đạt</v>
       </c>
-      <c r="N1" s="298"/>
-      <c r="O1" s="299"/>
+      <c r="N1" s="304"/>
+      <c r="O1" s="305"/>
       <c r="P1" s="46"/>
       <c r="Q1" s="46"/>
     </row>
     <row r="2" spans="1:17" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="251"/>
-      <c r="B2" s="251"/>
-      <c r="C2" s="251"/>
-      <c r="D2" s="251"/>
+      <c r="A2" s="241"/>
+      <c r="B2" s="241"/>
+      <c r="C2" s="241"/>
+      <c r="D2" s="241"/>
       <c r="E2" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="290" t="str">
+      <c r="F2" s="320" t="str">
         <f>'Update History'!D2</f>
         <v>ASOFT-CRM</v>
       </c>
-      <c r="G2" s="290"/>
+      <c r="G2" s="320"/>
       <c r="H2" s="26" t="s">
         <v>49</v>
       </c>
@@ -13655,12 +13672,12 @@
       <c r="L2" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="297" t="str">
+      <c r="M2" s="303" t="str">
         <f>'Update History'!J2</f>
         <v>26/01/2018</v>
       </c>
-      <c r="N2" s="298"/>
-      <c r="O2" s="299"/>
+      <c r="N2" s="304"/>
+      <c r="O2" s="305"/>
       <c r="P2" s="46"/>
       <c r="Q2" s="46"/>
     </row>
@@ -13683,12 +13700,12 @@
       <c r="F4" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="G4" s="294" t="s">
+      <c r="G4" s="324" t="s">
         <v>55</v>
       </c>
-      <c r="H4" s="295"/>
-      <c r="I4" s="295"/>
-      <c r="J4" s="296"/>
+      <c r="H4" s="325"/>
+      <c r="I4" s="325"/>
+      <c r="J4" s="326"/>
       <c r="K4" s="35" t="s">
         <v>56</v>
       </c>
@@ -13724,12 +13741,12 @@
       <c r="F5" s="113" t="s">
         <v>161</v>
       </c>
-      <c r="G5" s="291" t="s">
+      <c r="G5" s="321" t="s">
         <v>336</v>
       </c>
-      <c r="H5" s="292"/>
-      <c r="I5" s="292"/>
-      <c r="J5" s="293"/>
+      <c r="H5" s="322"/>
+      <c r="I5" s="322"/>
+      <c r="J5" s="323"/>
       <c r="K5" s="116" t="s">
         <v>293</v>
       </c>
@@ -13765,12 +13782,12 @@
       <c r="F6" s="113" t="s">
         <v>162</v>
       </c>
-      <c r="G6" s="314" t="s">
+      <c r="G6" s="317" t="s">
         <v>349</v>
       </c>
-      <c r="H6" s="315"/>
-      <c r="I6" s="315"/>
-      <c r="J6" s="316"/>
+      <c r="H6" s="318"/>
+      <c r="I6" s="318"/>
+      <c r="J6" s="319"/>
       <c r="K6" s="116" t="s">
         <v>307</v>
       </c>
@@ -13806,12 +13823,12 @@
       <c r="F7" s="113" t="s">
         <v>163</v>
       </c>
-      <c r="G7" s="314" t="s">
+      <c r="G7" s="317" t="s">
         <v>351</v>
       </c>
-      <c r="H7" s="315"/>
-      <c r="I7" s="315"/>
-      <c r="J7" s="316"/>
+      <c r="H7" s="318"/>
+      <c r="I7" s="318"/>
+      <c r="J7" s="319"/>
       <c r="K7" s="116" t="s">
         <v>334</v>
       </c>
@@ -13847,12 +13864,12 @@
       <c r="F8" s="113" t="s">
         <v>164</v>
       </c>
-      <c r="G8" s="300" t="s">
+      <c r="G8" s="299" t="s">
         <v>333</v>
       </c>
-      <c r="H8" s="301"/>
-      <c r="I8" s="301"/>
-      <c r="J8" s="302"/>
+      <c r="H8" s="300"/>
+      <c r="I8" s="300"/>
+      <c r="J8" s="301"/>
       <c r="K8" s="116" t="s">
         <v>307</v>
       </c>
@@ -13888,16 +13905,16 @@
       <c r="F9" s="113" t="s">
         <v>197</v>
       </c>
-      <c r="G9" s="311" t="s">
+      <c r="G9" s="314" t="s">
         <v>399</v>
       </c>
-      <c r="H9" s="312"/>
-      <c r="I9" s="312"/>
-      <c r="J9" s="313"/>
-      <c r="K9" s="197" t="s">
+      <c r="H9" s="315"/>
+      <c r="I9" s="315"/>
+      <c r="J9" s="316"/>
+      <c r="K9" s="196" t="s">
         <v>400</v>
       </c>
-      <c r="L9" s="197" t="s">
+      <c r="L9" s="196" t="s">
         <v>401</v>
       </c>
       <c r="M9" s="68" t="s">
@@ -13929,12 +13946,12 @@
       <c r="F10" s="113" t="s">
         <v>213</v>
       </c>
-      <c r="G10" s="300" t="s">
+      <c r="G10" s="299" t="s">
         <v>169</v>
       </c>
-      <c r="H10" s="301"/>
-      <c r="I10" s="301"/>
-      <c r="J10" s="302"/>
+      <c r="H10" s="300"/>
+      <c r="I10" s="300"/>
+      <c r="J10" s="301"/>
       <c r="K10" s="116" t="s">
         <v>170</v>
       </c>
@@ -13945,7 +13962,7 @@
       <c r="N10" s="115" t="s">
         <v>158</v>
       </c>
-      <c r="O10" s="303"/>
+      <c r="O10" s="306"/>
     </row>
     <row r="11" spans="1:17" ht="78.75">
       <c r="A11" s="106">
@@ -13966,12 +13983,12 @@
       <c r="F11" s="113" t="s">
         <v>160</v>
       </c>
-      <c r="G11" s="308" t="s">
+      <c r="G11" s="311" t="s">
         <v>397</v>
       </c>
-      <c r="H11" s="309"/>
-      <c r="I11" s="309"/>
-      <c r="J11" s="310"/>
+      <c r="H11" s="312"/>
+      <c r="I11" s="312"/>
+      <c r="J11" s="313"/>
       <c r="K11" s="116" t="s">
         <v>295</v>
       </c>
@@ -13982,7 +13999,7 @@
       <c r="N11" s="115" t="s">
         <v>158</v>
       </c>
-      <c r="O11" s="304"/>
+      <c r="O11" s="307"/>
     </row>
     <row r="12" spans="1:17" ht="63" customHeight="1">
       <c r="A12" s="106">
@@ -14003,12 +14020,12 @@
       <c r="F12" s="113" t="s">
         <v>303</v>
       </c>
-      <c r="G12" s="300" t="s">
+      <c r="G12" s="299" t="s">
         <v>309</v>
       </c>
-      <c r="H12" s="301"/>
-      <c r="I12" s="301"/>
-      <c r="J12" s="302"/>
+      <c r="H12" s="300"/>
+      <c r="I12" s="300"/>
+      <c r="J12" s="301"/>
       <c r="K12" s="116" t="s">
         <v>310</v>
       </c>
@@ -14042,12 +14059,12 @@
       <c r="F13" s="113" t="s">
         <v>304</v>
       </c>
-      <c r="G13" s="300" t="s">
+      <c r="G13" s="299" t="s">
         <v>312</v>
       </c>
-      <c r="H13" s="301"/>
-      <c r="I13" s="301"/>
-      <c r="J13" s="302"/>
+      <c r="H13" s="300"/>
+      <c r="I13" s="300"/>
+      <c r="J13" s="301"/>
       <c r="K13" s="116" t="s">
         <v>313</v>
       </c>
@@ -14081,12 +14098,12 @@
       <c r="F14" s="113" t="s">
         <v>305</v>
       </c>
-      <c r="G14" s="300" t="s">
+      <c r="G14" s="299" t="s">
         <v>315</v>
       </c>
-      <c r="H14" s="301"/>
-      <c r="I14" s="301"/>
-      <c r="J14" s="302"/>
+      <c r="H14" s="300"/>
+      <c r="I14" s="300"/>
+      <c r="J14" s="301"/>
       <c r="K14" s="116" t="s">
         <v>316</v>
       </c>
@@ -14120,12 +14137,12 @@
       <c r="F15" s="113" t="s">
         <v>306</v>
       </c>
-      <c r="G15" s="305" t="s">
+      <c r="G15" s="308" t="s">
         <v>202</v>
       </c>
-      <c r="H15" s="306"/>
-      <c r="I15" s="306"/>
-      <c r="J15" s="307"/>
+      <c r="H15" s="309"/>
+      <c r="I15" s="309"/>
+      <c r="J15" s="310"/>
       <c r="K15" s="135" t="s">
         <v>203</v>
       </c>
@@ -14161,12 +14178,12 @@
       <c r="F16" s="154" t="s">
         <v>343</v>
       </c>
-      <c r="G16" s="320" t="s">
+      <c r="G16" s="302" t="s">
         <v>344</v>
       </c>
-      <c r="H16" s="320"/>
-      <c r="I16" s="320"/>
-      <c r="J16" s="320"/>
+      <c r="H16" s="302"/>
+      <c r="I16" s="302"/>
+      <c r="J16" s="302"/>
       <c r="K16" s="155" t="s">
         <v>345</v>
       </c>
@@ -14181,38 +14198,38 @@
       <c r="P16" s="137"/>
       <c r="Q16" s="137"/>
     </row>
-    <row r="17" spans="1:17" s="183" customFormat="1" ht="39.75" customHeight="1">
-      <c r="A17" s="194">
+    <row r="17" spans="1:17" s="201" customFormat="1" ht="39.75" customHeight="1">
+      <c r="A17" s="217">
         <v>8</v>
       </c>
-      <c r="B17" s="194" t="s">
-        <v>358</v>
-      </c>
-      <c r="C17" s="194" t="s">
+      <c r="B17" s="217" t="s">
+        <v>449</v>
+      </c>
+      <c r="C17" s="217" t="s">
         <v>440</v>
       </c>
-      <c r="D17" s="194" t="s">
+      <c r="D17" s="217" t="s">
         <v>300</v>
       </c>
-      <c r="E17" s="194" t="s">
+      <c r="E17" s="217" t="s">
         <v>55</v>
       </c>
-      <c r="F17" s="202" t="s">
+      <c r="F17" s="342" t="s">
         <v>441</v>
       </c>
-      <c r="G17" s="317" t="s">
+      <c r="G17" s="343" t="s">
         <v>444</v>
       </c>
-      <c r="H17" s="318"/>
-      <c r="I17" s="318"/>
-      <c r="J17" s="319"/>
-      <c r="K17" s="199"/>
-      <c r="L17" s="199"/>
-      <c r="M17" s="199"/>
-      <c r="N17" s="199"/>
-      <c r="O17" s="199"/>
-      <c r="P17" s="201"/>
-      <c r="Q17" s="201"/>
+      <c r="H17" s="344"/>
+      <c r="I17" s="344"/>
+      <c r="J17" s="345"/>
+      <c r="K17" s="218"/>
+      <c r="L17" s="218"/>
+      <c r="M17" s="218"/>
+      <c r="N17" s="218"/>
+      <c r="O17" s="218"/>
+      <c r="P17" s="346"/>
+      <c r="Q17" s="346"/>
     </row>
     <row r="18" spans="1:17" ht="12" customHeight="1">
       <c r="G18" s="32"/>
@@ -14406,11 +14423,11 @@
   </sheetData>
   <dataConsolidate link="1"/>
   <mergeCells count="20">
-    <mergeCell ref="G17:J17"/>
-    <mergeCell ref="G12:J12"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="G14:J14"/>
-    <mergeCell ref="G16:J16"/>
+    <mergeCell ref="A1:D2"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="G5:J5"/>
+    <mergeCell ref="G4:J4"/>
     <mergeCell ref="M1:O1"/>
     <mergeCell ref="M2:O2"/>
     <mergeCell ref="G8:J8"/>
@@ -14421,11 +14438,11 @@
     <mergeCell ref="G9:J9"/>
     <mergeCell ref="G6:J6"/>
     <mergeCell ref="G7:J7"/>
-    <mergeCell ref="A1:D2"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="G5:J5"/>
-    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="G17:J17"/>
+    <mergeCell ref="G12:J12"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="G14:J14"/>
+    <mergeCell ref="G16:J16"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="M1048229:M1048576 M15:M16"/>
@@ -14472,10 +14489,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="12" customHeight="1">
-      <c r="A1" s="251" t="s">
+      <c r="A1" s="241" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="251"/>
+      <c r="B1" s="241"/>
       <c r="C1" s="30" t="s">
         <v>1</v>
       </c>
@@ -14506,8 +14523,8 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="12" customHeight="1">
-      <c r="A2" s="251"/>
-      <c r="B2" s="251"/>
+      <c r="A2" s="241"/>
+      <c r="B2" s="241"/>
       <c r="C2" s="30" t="s">
         <v>2</v>
       </c>
@@ -14825,66 +14842,66 @@
     <row r="26" spans="1:11" ht="12" customHeight="1">
       <c r="A26" s="63"/>
       <c r="B26" s="39"/>
-      <c r="C26" s="321" t="s">
+      <c r="C26" s="327" t="s">
         <v>320</v>
       </c>
-      <c r="D26" s="321"/>
-      <c r="E26" s="321"/>
-      <c r="F26" s="321"/>
-      <c r="G26" s="321"/>
-      <c r="H26" s="321"/>
-      <c r="I26" s="321"/>
-      <c r="J26" s="321"/>
+      <c r="D26" s="327"/>
+      <c r="E26" s="327"/>
+      <c r="F26" s="327"/>
+      <c r="G26" s="327"/>
+      <c r="H26" s="327"/>
+      <c r="I26" s="327"/>
+      <c r="J26" s="327"/>
     </row>
     <row r="27" spans="1:11" ht="12" customHeight="1">
       <c r="A27" s="63"/>
       <c r="B27" s="39"/>
-      <c r="C27" s="321"/>
-      <c r="D27" s="321"/>
-      <c r="E27" s="321"/>
-      <c r="F27" s="321"/>
-      <c r="G27" s="321"/>
-      <c r="H27" s="321"/>
-      <c r="I27" s="321"/>
-      <c r="J27" s="321"/>
+      <c r="C27" s="327"/>
+      <c r="D27" s="327"/>
+      <c r="E27" s="327"/>
+      <c r="F27" s="327"/>
+      <c r="G27" s="327"/>
+      <c r="H27" s="327"/>
+      <c r="I27" s="327"/>
+      <c r="J27" s="327"/>
     </row>
     <row r="28" spans="1:11" ht="12" customHeight="1">
       <c r="A28" s="63"/>
       <c r="B28" s="39"/>
-      <c r="C28" s="321"/>
-      <c r="D28" s="321"/>
-      <c r="E28" s="321"/>
-      <c r="F28" s="321"/>
-      <c r="G28" s="321"/>
-      <c r="H28" s="321"/>
-      <c r="I28" s="321"/>
-      <c r="J28" s="321"/>
+      <c r="C28" s="327"/>
+      <c r="D28" s="327"/>
+      <c r="E28" s="327"/>
+      <c r="F28" s="327"/>
+      <c r="G28" s="327"/>
+      <c r="H28" s="327"/>
+      <c r="I28" s="327"/>
+      <c r="J28" s="327"/>
     </row>
     <row r="29" spans="1:11" ht="12" customHeight="1">
       <c r="A29" s="63"/>
       <c r="B29" s="39"/>
-      <c r="C29" s="321"/>
-      <c r="D29" s="321"/>
-      <c r="E29" s="321"/>
-      <c r="F29" s="321"/>
-      <c r="G29" s="321"/>
-      <c r="H29" s="321"/>
-      <c r="I29" s="321"/>
-      <c r="J29" s="321"/>
+      <c r="C29" s="327"/>
+      <c r="D29" s="327"/>
+      <c r="E29" s="327"/>
+      <c r="F29" s="327"/>
+      <c r="G29" s="327"/>
+      <c r="H29" s="327"/>
+      <c r="I29" s="327"/>
+      <c r="J29" s="327"/>
     </row>
     <row r="30" spans="1:11" ht="12" customHeight="1">
       <c r="A30" s="63"/>
       <c r="B30" s="39"/>
-      <c r="C30" s="321" t="s">
+      <c r="C30" s="327" t="s">
         <v>319</v>
       </c>
-      <c r="D30" s="321"/>
-      <c r="E30" s="321"/>
-      <c r="F30" s="321"/>
-      <c r="G30" s="321"/>
-      <c r="H30" s="321"/>
-      <c r="I30" s="321"/>
-      <c r="J30" s="321"/>
+      <c r="D30" s="327"/>
+      <c r="E30" s="327"/>
+      <c r="F30" s="327"/>
+      <c r="G30" s="327"/>
+      <c r="H30" s="327"/>
+      <c r="I30" s="327"/>
+      <c r="J30" s="327"/>
     </row>
     <row r="31" spans="1:11" ht="12" customHeight="1">
       <c r="A31" s="63"/>
@@ -15045,78 +15062,78 @@
     <row r="44" spans="1:10" ht="12" customHeight="1">
       <c r="A44" s="63"/>
       <c r="B44" s="39"/>
-      <c r="C44" s="321" t="s">
+      <c r="C44" s="327" t="s">
         <v>322</v>
       </c>
-      <c r="D44" s="321"/>
-      <c r="E44" s="321"/>
-      <c r="F44" s="321"/>
-      <c r="G44" s="321"/>
-      <c r="H44" s="321"/>
-      <c r="I44" s="321"/>
-      <c r="J44" s="321"/>
+      <c r="D44" s="327"/>
+      <c r="E44" s="327"/>
+      <c r="F44" s="327"/>
+      <c r="G44" s="327"/>
+      <c r="H44" s="327"/>
+      <c r="I44" s="327"/>
+      <c r="J44" s="327"/>
     </row>
     <row r="45" spans="1:10" ht="12" customHeight="1">
       <c r="A45" s="63"/>
       <c r="B45" s="39"/>
-      <c r="C45" s="321"/>
-      <c r="D45" s="321"/>
-      <c r="E45" s="321"/>
-      <c r="F45" s="321"/>
-      <c r="G45" s="321"/>
-      <c r="H45" s="321"/>
-      <c r="I45" s="321"/>
-      <c r="J45" s="321"/>
+      <c r="C45" s="327"/>
+      <c r="D45" s="327"/>
+      <c r="E45" s="327"/>
+      <c r="F45" s="327"/>
+      <c r="G45" s="327"/>
+      <c r="H45" s="327"/>
+      <c r="I45" s="327"/>
+      <c r="J45" s="327"/>
     </row>
     <row r="46" spans="1:10" ht="12" customHeight="1">
       <c r="A46" s="63"/>
       <c r="B46" s="39"/>
-      <c r="C46" s="321"/>
-      <c r="D46" s="321"/>
-      <c r="E46" s="321"/>
-      <c r="F46" s="321"/>
-      <c r="G46" s="321"/>
-      <c r="H46" s="321"/>
-      <c r="I46" s="321"/>
-      <c r="J46" s="321"/>
+      <c r="C46" s="327"/>
+      <c r="D46" s="327"/>
+      <c r="E46" s="327"/>
+      <c r="F46" s="327"/>
+      <c r="G46" s="327"/>
+      <c r="H46" s="327"/>
+      <c r="I46" s="327"/>
+      <c r="J46" s="327"/>
     </row>
     <row r="47" spans="1:10" ht="12" customHeight="1">
       <c r="A47" s="63"/>
       <c r="B47" s="39"/>
-      <c r="C47" s="321"/>
-      <c r="D47" s="321"/>
-      <c r="E47" s="321"/>
-      <c r="F47" s="321"/>
-      <c r="G47" s="321"/>
-      <c r="H47" s="321"/>
-      <c r="I47" s="321"/>
-      <c r="J47" s="321"/>
+      <c r="C47" s="327"/>
+      <c r="D47" s="327"/>
+      <c r="E47" s="327"/>
+      <c r="F47" s="327"/>
+      <c r="G47" s="327"/>
+      <c r="H47" s="327"/>
+      <c r="I47" s="327"/>
+      <c r="J47" s="327"/>
     </row>
     <row r="48" spans="1:10" ht="12" customHeight="1">
       <c r="A48" s="63"/>
       <c r="B48" s="39"/>
-      <c r="C48" s="321"/>
-      <c r="D48" s="321"/>
-      <c r="E48" s="321"/>
-      <c r="F48" s="321"/>
-      <c r="G48" s="321"/>
-      <c r="H48" s="321"/>
-      <c r="I48" s="321"/>
-      <c r="J48" s="321"/>
+      <c r="C48" s="327"/>
+      <c r="D48" s="327"/>
+      <c r="E48" s="327"/>
+      <c r="F48" s="327"/>
+      <c r="G48" s="327"/>
+      <c r="H48" s="327"/>
+      <c r="I48" s="327"/>
+      <c r="J48" s="327"/>
     </row>
     <row r="49" spans="1:10" ht="12" customHeight="1">
       <c r="A49" s="63"/>
       <c r="B49" s="39"/>
-      <c r="C49" s="321" t="s">
+      <c r="C49" s="327" t="s">
         <v>323</v>
       </c>
-      <c r="D49" s="321"/>
-      <c r="E49" s="321"/>
-      <c r="F49" s="321"/>
-      <c r="G49" s="321"/>
-      <c r="H49" s="321"/>
-      <c r="I49" s="321"/>
-      <c r="J49" s="321"/>
+      <c r="D49" s="327"/>
+      <c r="E49" s="327"/>
+      <c r="F49" s="327"/>
+      <c r="G49" s="327"/>
+      <c r="H49" s="327"/>
+      <c r="I49" s="327"/>
+      <c r="J49" s="327"/>
     </row>
     <row r="50" spans="1:10" ht="12" customHeight="1">
       <c r="A50" s="63"/>
@@ -15277,78 +15294,78 @@
     <row r="63" spans="1:10" ht="12" customHeight="1">
       <c r="A63" s="63"/>
       <c r="B63" s="39"/>
-      <c r="C63" s="321" t="s">
+      <c r="C63" s="327" t="s">
         <v>324</v>
       </c>
-      <c r="D63" s="321"/>
-      <c r="E63" s="321"/>
-      <c r="F63" s="321"/>
-      <c r="G63" s="321"/>
-      <c r="H63" s="321"/>
-      <c r="I63" s="321"/>
-      <c r="J63" s="321"/>
+      <c r="D63" s="327"/>
+      <c r="E63" s="327"/>
+      <c r="F63" s="327"/>
+      <c r="G63" s="327"/>
+      <c r="H63" s="327"/>
+      <c r="I63" s="327"/>
+      <c r="J63" s="327"/>
     </row>
     <row r="64" spans="1:10" ht="12" customHeight="1">
       <c r="A64" s="63"/>
       <c r="B64" s="39"/>
-      <c r="C64" s="321"/>
-      <c r="D64" s="321"/>
-      <c r="E64" s="321"/>
-      <c r="F64" s="321"/>
-      <c r="G64" s="321"/>
-      <c r="H64" s="321"/>
-      <c r="I64" s="321"/>
-      <c r="J64" s="321"/>
+      <c r="C64" s="327"/>
+      <c r="D64" s="327"/>
+      <c r="E64" s="327"/>
+      <c r="F64" s="327"/>
+      <c r="G64" s="327"/>
+      <c r="H64" s="327"/>
+      <c r="I64" s="327"/>
+      <c r="J64" s="327"/>
     </row>
     <row r="65" spans="1:10" ht="12" customHeight="1">
       <c r="A65" s="63"/>
       <c r="B65" s="39"/>
-      <c r="C65" s="321"/>
-      <c r="D65" s="321"/>
-      <c r="E65" s="321"/>
-      <c r="F65" s="321"/>
-      <c r="G65" s="321"/>
-      <c r="H65" s="321"/>
-      <c r="I65" s="321"/>
-      <c r="J65" s="321"/>
+      <c r="C65" s="327"/>
+      <c r="D65" s="327"/>
+      <c r="E65" s="327"/>
+      <c r="F65" s="327"/>
+      <c r="G65" s="327"/>
+      <c r="H65" s="327"/>
+      <c r="I65" s="327"/>
+      <c r="J65" s="327"/>
     </row>
     <row r="66" spans="1:10" ht="12" customHeight="1">
       <c r="A66" s="63"/>
       <c r="B66" s="39"/>
-      <c r="C66" s="321"/>
-      <c r="D66" s="321"/>
-      <c r="E66" s="321"/>
-      <c r="F66" s="321"/>
-      <c r="G66" s="321"/>
-      <c r="H66" s="321"/>
-      <c r="I66" s="321"/>
-      <c r="J66" s="321"/>
+      <c r="C66" s="327"/>
+      <c r="D66" s="327"/>
+      <c r="E66" s="327"/>
+      <c r="F66" s="327"/>
+      <c r="G66" s="327"/>
+      <c r="H66" s="327"/>
+      <c r="I66" s="327"/>
+      <c r="J66" s="327"/>
     </row>
     <row r="67" spans="1:10" ht="12" customHeight="1">
       <c r="A67" s="63"/>
       <c r="B67" s="39"/>
-      <c r="C67" s="321"/>
-      <c r="D67" s="321"/>
-      <c r="E67" s="321"/>
-      <c r="F67" s="321"/>
-      <c r="G67" s="321"/>
-      <c r="H67" s="321"/>
-      <c r="I67" s="321"/>
-      <c r="J67" s="321"/>
+      <c r="C67" s="327"/>
+      <c r="D67" s="327"/>
+      <c r="E67" s="327"/>
+      <c r="F67" s="327"/>
+      <c r="G67" s="327"/>
+      <c r="H67" s="327"/>
+      <c r="I67" s="327"/>
+      <c r="J67" s="327"/>
     </row>
     <row r="68" spans="1:10" ht="12" customHeight="1">
       <c r="A68" s="63"/>
       <c r="B68" s="39"/>
-      <c r="C68" s="321" t="s">
+      <c r="C68" s="327" t="s">
         <v>325</v>
       </c>
-      <c r="D68" s="321"/>
-      <c r="E68" s="321"/>
-      <c r="F68" s="321"/>
-      <c r="G68" s="321"/>
-      <c r="H68" s="321"/>
-      <c r="I68" s="321"/>
-      <c r="J68" s="321"/>
+      <c r="D68" s="327"/>
+      <c r="E68" s="327"/>
+      <c r="F68" s="327"/>
+      <c r="G68" s="327"/>
+      <c r="H68" s="327"/>
+      <c r="I68" s="327"/>
+      <c r="J68" s="327"/>
     </row>
     <row r="69" spans="1:10" ht="12" customHeight="1">
       <c r="A69" s="63"/>
@@ -15496,28 +15513,28 @@
     <row r="81" spans="1:10" ht="12" customHeight="1">
       <c r="A81" s="63"/>
       <c r="B81" s="39"/>
-      <c r="C81" s="321" t="s">
+      <c r="C81" s="327" t="s">
         <v>326</v>
       </c>
-      <c r="D81" s="321"/>
-      <c r="E81" s="321"/>
-      <c r="F81" s="321"/>
-      <c r="G81" s="321"/>
-      <c r="H81" s="321"/>
-      <c r="I81" s="321"/>
-      <c r="J81" s="321"/>
+      <c r="D81" s="327"/>
+      <c r="E81" s="327"/>
+      <c r="F81" s="327"/>
+      <c r="G81" s="327"/>
+      <c r="H81" s="327"/>
+      <c r="I81" s="327"/>
+      <c r="J81" s="327"/>
     </row>
     <row r="82" spans="1:10" ht="12" customHeight="1">
       <c r="A82" s="63"/>
       <c r="B82" s="39"/>
-      <c r="C82" s="321"/>
-      <c r="D82" s="321"/>
-      <c r="E82" s="321"/>
-      <c r="F82" s="321"/>
-      <c r="G82" s="321"/>
-      <c r="H82" s="321"/>
-      <c r="I82" s="321"/>
-      <c r="J82" s="321"/>
+      <c r="C82" s="327"/>
+      <c r="D82" s="327"/>
+      <c r="E82" s="327"/>
+      <c r="F82" s="327"/>
+      <c r="G82" s="327"/>
+      <c r="H82" s="327"/>
+      <c r="I82" s="327"/>
+      <c r="J82" s="327"/>
     </row>
     <row r="83" spans="1:10" ht="12" customHeight="1">
       <c r="A83" s="63"/>
@@ -16349,10 +16366,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="251" t="s">
+      <c r="A1" s="241" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="251"/>
+      <c r="B1" s="241"/>
       <c r="C1" s="30" t="s">
         <v>1</v>
       </c>
@@ -16383,8 +16400,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="251"/>
-      <c r="B2" s="251"/>
+      <c r="A2" s="241"/>
+      <c r="B2" s="241"/>
       <c r="C2" s="30" t="s">
         <v>2</v>
       </c>

--- a/2018/CRM/03_DetailDesign/CRMF2082_Xem chi tiet yeu cau.xlsx
+++ b/2018/CRM/03_DetailDesign/CRMF2082_Xem chi tiet yeu cau.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="15480" windowHeight="9990" tabRatio="836" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="15480" windowHeight="9990" tabRatio="836" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Coverpage" sheetId="20" r:id="rId1"/>
@@ -3071,6 +3071,135 @@
     <t>Click btnChooseWork</t>
   </si>
   <si>
+    <t>Danh sách chi tiết xử lý công việc</t>
+  </si>
+  <si>
+    <t>@SQL015</t>
+  </si>
+  <si>
+    <t>Select ROW_NUMBER() OVER (ORDER BY  A.CreateDate desc) AS RowNum, A.Description, A.AssignUserID, A.RealDate, A.WorkTime
+From CRMT2083 A WITH (NOLOCK) 
+left join CRMT20801 B WITH (NOLOCK) on A.REQUESTID = B.RequestID
+Where B.RequestID = '@RequestID'
+Order By A.CreateDate desc</t>
+  </si>
+  <si>
+    <t>Delete from CRMT20801_CRMT10001_REL
+Where RequestID = @APKRequestID AND APK = @APK</t>
+  </si>
+  <si>
+    <t>@APKRequestID
+@APK</t>
+  </si>
+  <si>
+    <t>@APK của RequestID
+@APK của dòng muốn xoá</t>
+  </si>
+  <si>
+    <t>Click btnChooseContact:
+Truyền tham số @DivisionID để gọi đến màn hình CRMF9002(Chọn liên hệ)</t>
+  </si>
+  <si>
+    <t>Click btnChooseWork:
+Truyền tham số @DivisionID để gọi đến màn hình CRMF2083(Thêm Xử lý công việc)</t>
+  </si>
+  <si>
+    <t>Xoá xử lý công việc</t>
+  </si>
+  <si>
+    <t>@SQL016</t>
+  </si>
+  <si>
+    <t>Click btnChooseContact.
+Cho phép chọn nhiều liên hệ</t>
+  </si>
+  <si>
+    <t>Delete from CRMT2083 
+Where APK = @APK</t>
+  </si>
+  <si>
+    <t>@APK của dòng muốn xoá</t>
+  </si>
+  <si>
+    <t>- STT yêu cầu là: 4 (bên file Tasklist)
+- Bổ sung các trường: Loại yêu cầu, Deadline mong muốn, Deadline thực tế hoàn thành, Số giờ cho phép, Số giờ thực tế, tab Chi tiết xử lý công việc, Tab người theo dõi</t>
+  </si>
+  <si>
+    <t>Thêm</t>
+  </si>
+  <si>
+    <t>btnAddFollow</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>btnDeleteFollow</t>
+  </si>
+  <si>
+    <t>Xử lý theo dõi như xử lý theo tài liệu dùng chung</t>
+  </si>
+  <si>
+    <t>ClickAddFollow:
+Truyền tham số @DivisionID để gọi đến màn hình CMNF9003(Chọn nhân viên)</t>
+  </si>
+  <si>
+    <t>Xử lý theo tài liệu dùng chung</t>
+  </si>
+  <si>
+    <t>Luồng 11: Click btnDeleteWork</t>
+  </si>
+  <si>
+    <t>Luồng 12: Click btnChosseWork</t>
+  </si>
+  <si>
+    <t>Truyền tham số @DivisionID gọi đến màn hình CRMF2083</t>
+  </si>
+  <si>
+    <t>Sau khi Insert bên màn hình CRMF2083 thì thực thi @SQL013 để load lại tab Xử lý công việc</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Luồng 13 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>Click btnDeleteContact</t>
+    </r>
+  </si>
+  <si>
+    <t>Luồng 14: Click btnChooseContact</t>
+  </si>
+  <si>
+    <t>Truyền tham số @DivisionID gọi đến màn hinh CRMF9002</t>
+  </si>
+  <si>
+    <t>Sau khi Insert bên màn hình CRMF9002 thì thực thi @SQL015 để load lại tab Liên hệ</t>
+  </si>
+  <si>
+    <t>Luồng 15: Xử lý Người theo dõi theo tài liệu dùng chung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Customizeindex  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Customizeindex: 92  </t>
+  </si>
+  <si>
+    <t>Thực thi SQL013: load tab Chi tiết xử lý công việc</t>
+  </si>
+  <si>
+    <t>Thực thi SQL014: load tab Liên hệ</t>
+  </si>
+  <si>
+    <t>Customizeindex: 92</t>
+  </si>
+  <si>
     <t xml:space="preserve">EXEC CRMP20801 ( 
   @DivisionID VARCHAR(50),  
   @DivisionIDList NVARCHAR(2000),     
@@ -3087,7 +3216,8 @@
   @DeadlineExpect VARCHAR(50), 
   @CompleteDate VARCHAR(50),
   @DurationTime VARCHAR(50), 
-  @RealTime VARCHAR(50)
+  @RealTime VARCHAR(50),
+  @ProjectID VARCHAR(50)
 ) </t>
   </si>
   <si>
@@ -3106,7 +3236,8 @@
   @DeadlineExpect 
   @CompleteDate 
   @DurationTime 
-  @RealTime</t>
+  @RealTime
+  @ProjectID</t>
   </si>
   <si>
     <t xml:space="preserve"> Biến môi trường   
@@ -3124,136 +3255,8 @@
   @DeadlineExpect 
   @CompleteDate 
   @DurationTime 
-  @RealTime</t>
-  </si>
-  <si>
-    <t>Danh sách chi tiết xử lý công việc</t>
-  </si>
-  <si>
-    <t>@SQL015</t>
-  </si>
-  <si>
-    <t>Select ROW_NUMBER() OVER (ORDER BY  A.CreateDate desc) AS RowNum, A.Description, A.AssignUserID, A.RealDate, A.WorkTime
-From CRMT2083 A WITH (NOLOCK) 
-left join CRMT20801 B WITH (NOLOCK) on A.REQUESTID = B.RequestID
-Where B.RequestID = '@RequestID'
-Order By A.CreateDate desc</t>
-  </si>
-  <si>
-    <t>Delete from CRMT20801_CRMT10001_REL
-Where RequestID = @APKRequestID AND APK = @APK</t>
-  </si>
-  <si>
-    <t>@APKRequestID
-@APK</t>
-  </si>
-  <si>
-    <t>@APK của RequestID
-@APK của dòng muốn xoá</t>
-  </si>
-  <si>
-    <t>Click btnChooseContact:
-Truyền tham số @DivisionID để gọi đến màn hình CRMF9002(Chọn liên hệ)</t>
-  </si>
-  <si>
-    <t>Click btnChooseWork:
-Truyền tham số @DivisionID để gọi đến màn hình CRMF2083(Thêm Xử lý công việc)</t>
-  </si>
-  <si>
-    <t>Xoá xử lý công việc</t>
-  </si>
-  <si>
-    <t>@SQL016</t>
-  </si>
-  <si>
-    <t>Click btnChooseContact.
-Cho phép chọn nhiều liên hệ</t>
-  </si>
-  <si>
-    <t>Delete from CRMT2083 
-Where APK = @APK</t>
-  </si>
-  <si>
-    <t>@APK của dòng muốn xoá</t>
-  </si>
-  <si>
-    <t>- STT yêu cầu là: 4 (bên file Tasklist)
-- Bổ sung các trường: Loại yêu cầu, Deadline mong muốn, Deadline thực tế hoàn thành, Số giờ cho phép, Số giờ thực tế, tab Chi tiết xử lý công việc, Tab người theo dõi</t>
-  </si>
-  <si>
-    <t>Thêm</t>
-  </si>
-  <si>
-    <t>btnAddFollow</t>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>btnDeleteFollow</t>
-  </si>
-  <si>
-    <t>Xử lý theo dõi như xử lý theo tài liệu dùng chung</t>
-  </si>
-  <si>
-    <t>ClickAddFollow:
-Truyền tham số @DivisionID để gọi đến màn hình CMNF9003(Chọn nhân viên)</t>
-  </si>
-  <si>
-    <t>Xử lý theo tài liệu dùng chung</t>
-  </si>
-  <si>
-    <t>Luồng 11: Click btnDeleteWork</t>
-  </si>
-  <si>
-    <t>Luồng 12: Click btnChosseWork</t>
-  </si>
-  <si>
-    <t>Truyền tham số @DivisionID gọi đến màn hình CRMF2083</t>
-  </si>
-  <si>
-    <t>Sau khi Insert bên màn hình CRMF2083 thì thực thi @SQL013 để load lại tab Xử lý công việc</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Luồng 13 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>Click btnDeleteContact</t>
-    </r>
-  </si>
-  <si>
-    <t>Luồng 14: Click btnChooseContact</t>
-  </si>
-  <si>
-    <t>Truyền tham số @DivisionID gọi đến màn hinh CRMF9002</t>
-  </si>
-  <si>
-    <t>Sau khi Insert bên màn hình CRMF9002 thì thực thi @SQL015 để load lại tab Liên hệ</t>
-  </si>
-  <si>
-    <t>Luồng 15: Xử lý Người theo dõi theo tài liệu dùng chung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Customizeindex  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Customizeindex: 92  </t>
-  </si>
-  <si>
-    <t>Thực thi SQL013: load tab Chi tiết xử lý công việc</t>
-  </si>
-  <si>
-    <t>Thực thi SQL014: load tab Liên hệ</t>
-  </si>
-  <si>
-    <t>Customizeindex: 92</t>
+  @RealTime
+  @ProjectID</t>
   </si>
 </sst>
 </file>
@@ -4303,9 +4306,6 @@
     <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -4416,9 +4416,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="31" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -4474,6 +4471,12 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="31" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="9" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4765,6 +4768,12 @@
     <xf numFmtId="0" fontId="11" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="31" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="14" fontId="11" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4807,13 +4816,13 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="9" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="9" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="9" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4824,12 +4833,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -10616,8 +10619,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10:J10"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -10801,20 +10804,20 @@
       <c r="J8" s="299"/>
     </row>
     <row r="9" spans="1:10" s="25" customFormat="1" ht="42" customHeight="1">
-      <c r="A9" s="226">
+      <c r="A9" s="225">
         <v>5</v>
       </c>
-      <c r="B9" s="227">
+      <c r="B9" s="226">
         <v>5</v>
       </c>
-      <c r="C9" s="228" t="s">
+      <c r="C9" s="227" t="s">
         <v>352</v>
       </c>
-      <c r="D9" s="229" t="s">
+      <c r="D9" s="228" t="s">
         <v>353</v>
       </c>
       <c r="E9" s="300" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="F9" s="301"/>
       <c r="G9" s="301"/>
@@ -10822,17 +10825,17 @@
       <c r="I9" s="301"/>
       <c r="J9" s="302"/>
     </row>
-    <row r="10" spans="1:10" s="222" customFormat="1" ht="27" customHeight="1">
-      <c r="A10" s="231">
+    <row r="10" spans="1:10" s="221" customFormat="1" ht="27" customHeight="1">
+      <c r="A10" s="230">
         <v>6</v>
       </c>
-      <c r="B10" s="232">
+      <c r="B10" s="231">
         <v>6</v>
       </c>
-      <c r="C10" s="233" t="s">
+      <c r="C10" s="232" t="s">
         <v>352</v>
       </c>
-      <c r="D10" s="233">
+      <c r="D10" s="232">
         <v>43133</v>
       </c>
       <c r="E10" s="303" t="s">
@@ -10844,17 +10847,19 @@
       <c r="I10" s="304"/>
       <c r="J10" s="305"/>
     </row>
-    <row r="11" spans="1:10" s="238" customFormat="1" ht="30" customHeight="1">
-      <c r="A11" s="234">
+    <row r="11" spans="1:10" s="236" customFormat="1" ht="30" customHeight="1">
+      <c r="A11" s="233">
         <v>7</v>
       </c>
-      <c r="B11" s="235">
+      <c r="B11" s="234">
         <v>7</v>
       </c>
-      <c r="C11" s="236" t="s">
+      <c r="C11" s="235" t="s">
         <v>352</v>
       </c>
-      <c r="D11" s="237"/>
+      <c r="D11" s="235">
+        <v>43314</v>
+      </c>
       <c r="E11" s="288" t="s">
         <v>427</v>
       </c>
@@ -11290,7 +11295,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A7" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="J46" sqref="J46"/>
     </sheetView>
   </sheetViews>
@@ -11952,7 +11957,7 @@
         <v>44</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="C4" s="24" t="s">
         <v>32</v>
@@ -12259,10 +12264,10 @@
       <c r="G12" s="171" t="s">
         <v>434</v>
       </c>
-      <c r="H12" s="195" t="s">
+      <c r="H12" s="194" t="s">
         <v>178</v>
       </c>
-      <c r="I12" s="195" t="s">
+      <c r="I12" s="194" t="s">
         <v>176</v>
       </c>
       <c r="J12" s="173"/>
@@ -14011,13 +14016,13 @@
         <v>396</v>
       </c>
       <c r="E63" s="179" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="F63" s="180" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="G63" s="180" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="H63" s="171"/>
       <c r="I63" s="171"/>
@@ -14028,7 +14033,7 @@
       <c r="N63" s="171"/>
       <c r="O63" s="171"/>
       <c r="P63" s="325" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
     </row>
     <row r="64" spans="1:16" s="181" customFormat="1" ht="12" customHeight="1">
@@ -14045,13 +14050,13 @@
         <v>397</v>
       </c>
       <c r="E64" s="179" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="F64" s="179" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="G64" s="179" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="H64" s="171"/>
       <c r="I64" s="171"/>
@@ -14063,513 +14068,513 @@
       <c r="O64" s="171"/>
       <c r="P64" s="326"/>
     </row>
-    <row r="65" spans="1:16" s="196" customFormat="1" ht="12" customHeight="1">
-      <c r="A65" s="207">
+    <row r="65" spans="1:16" s="195" customFormat="1" ht="12" customHeight="1">
+      <c r="A65" s="206">
         <v>61</v>
       </c>
-      <c r="B65" s="197">
+      <c r="B65" s="196">
         <v>92</v>
       </c>
-      <c r="C65" s="197" t="s">
+      <c r="C65" s="196" t="s">
         <v>429</v>
       </c>
-      <c r="D65" s="208" t="s">
+      <c r="D65" s="207" t="s">
         <v>244</v>
       </c>
-      <c r="E65" s="209" t="s">
+      <c r="E65" s="208" t="s">
         <v>400</v>
       </c>
-      <c r="F65" s="209"/>
-      <c r="G65" s="209"/>
-      <c r="H65" s="209"/>
-      <c r="I65" s="209"/>
-      <c r="J65" s="209"/>
-      <c r="K65" s="209"/>
-      <c r="L65" s="210"/>
-      <c r="M65" s="198"/>
-      <c r="N65" s="198"/>
-      <c r="O65" s="198"/>
-      <c r="P65" s="198"/>
-    </row>
-    <row r="66" spans="1:16" s="196" customFormat="1" ht="12" customHeight="1">
-      <c r="A66" s="197">
+      <c r="F65" s="208"/>
+      <c r="G65" s="208"/>
+      <c r="H65" s="208"/>
+      <c r="I65" s="208"/>
+      <c r="J65" s="208"/>
+      <c r="K65" s="208"/>
+      <c r="L65" s="209"/>
+      <c r="M65" s="197"/>
+      <c r="N65" s="197"/>
+      <c r="O65" s="197"/>
+      <c r="P65" s="197"/>
+    </row>
+    <row r="66" spans="1:16" s="195" customFormat="1" ht="12" customHeight="1">
+      <c r="A66" s="196">
         <v>62</v>
       </c>
-      <c r="B66" s="197">
+      <c r="B66" s="196">
         <v>92</v>
       </c>
-      <c r="C66" s="197" t="s">
+      <c r="C66" s="196" t="s">
         <v>429</v>
       </c>
-      <c r="D66" s="208" t="s">
+      <c r="D66" s="207" t="s">
         <v>245</v>
       </c>
-      <c r="E66" s="209" t="s">
+      <c r="E66" s="208" t="s">
         <v>234</v>
       </c>
-      <c r="F66" s="209" t="s">
+      <c r="F66" s="208" t="s">
         <v>370</v>
       </c>
-      <c r="G66" s="209" t="s">
+      <c r="G66" s="208" t="s">
         <v>370</v>
       </c>
-      <c r="H66" s="209" t="s">
+      <c r="H66" s="208" t="s">
         <v>178</v>
       </c>
-      <c r="I66" s="209" t="s">
+      <c r="I66" s="208" t="s">
         <v>365</v>
       </c>
-      <c r="J66" s="209"/>
-      <c r="K66" s="209"/>
-      <c r="L66" s="210" t="s">
+      <c r="J66" s="208"/>
+      <c r="K66" s="208"/>
+      <c r="L66" s="209" t="s">
         <v>187</v>
       </c>
-      <c r="M66" s="198"/>
-      <c r="N66" s="198"/>
-      <c r="O66" s="198"/>
-      <c r="P66" s="198"/>
-    </row>
-    <row r="67" spans="1:16" s="196" customFormat="1" ht="12" customHeight="1">
-      <c r="A67" s="207">
+      <c r="M66" s="197"/>
+      <c r="N66" s="197"/>
+      <c r="O66" s="197"/>
+      <c r="P66" s="197"/>
+    </row>
+    <row r="67" spans="1:16" s="195" customFormat="1" ht="12" customHeight="1">
+      <c r="A67" s="206">
         <v>63</v>
       </c>
-      <c r="B67" s="197">
+      <c r="B67" s="196">
         <v>92</v>
       </c>
-      <c r="C67" s="197" t="s">
+      <c r="C67" s="196" t="s">
         <v>429</v>
       </c>
-      <c r="D67" s="208" t="s">
+      <c r="D67" s="207" t="s">
         <v>246</v>
       </c>
-      <c r="E67" s="209" t="s">
+      <c r="E67" s="208" t="s">
         <v>405</v>
       </c>
-      <c r="F67" s="209" t="s">
+      <c r="F67" s="208" t="s">
         <v>406</v>
       </c>
-      <c r="G67" s="209" t="s">
+      <c r="G67" s="208" t="s">
         <v>406</v>
       </c>
-      <c r="H67" s="209" t="s">
+      <c r="H67" s="208" t="s">
         <v>178</v>
       </c>
-      <c r="I67" s="209" t="s">
+      <c r="I67" s="208" t="s">
         <v>176</v>
       </c>
-      <c r="J67" s="209"/>
-      <c r="K67" s="209"/>
-      <c r="L67" s="210" t="s">
+      <c r="J67" s="208"/>
+      <c r="K67" s="208"/>
+      <c r="L67" s="209" t="s">
         <v>187</v>
       </c>
-      <c r="M67" s="198"/>
-      <c r="N67" s="198"/>
-      <c r="O67" s="198"/>
-      <c r="P67" s="198"/>
-    </row>
-    <row r="68" spans="1:16" s="196" customFormat="1" ht="12" customHeight="1">
-      <c r="A68" s="197">
+      <c r="M67" s="197"/>
+      <c r="N67" s="197"/>
+      <c r="O67" s="197"/>
+      <c r="P67" s="197"/>
+    </row>
+    <row r="68" spans="1:16" s="195" customFormat="1" ht="12" customHeight="1">
+      <c r="A68" s="196">
         <v>64</v>
       </c>
-      <c r="B68" s="197">
+      <c r="B68" s="196">
         <v>92</v>
       </c>
-      <c r="C68" s="197" t="s">
+      <c r="C68" s="196" t="s">
         <v>429</v>
       </c>
-      <c r="D68" s="208" t="s">
+      <c r="D68" s="207" t="s">
         <v>247</v>
       </c>
-      <c r="E68" s="209" t="s">
+      <c r="E68" s="208" t="s">
         <v>401</v>
       </c>
-      <c r="F68" s="209" t="s">
+      <c r="F68" s="208" t="s">
         <v>402</v>
       </c>
-      <c r="G68" s="209" t="s">
+      <c r="G68" s="208" t="s">
         <v>402</v>
       </c>
-      <c r="H68" s="209" t="s">
+      <c r="H68" s="208" t="s">
         <v>178</v>
       </c>
-      <c r="I68" s="209" t="s">
+      <c r="I68" s="208" t="s">
         <v>176</v>
       </c>
-      <c r="J68" s="209"/>
-      <c r="K68" s="209"/>
-      <c r="L68" s="210" t="s">
+      <c r="J68" s="208"/>
+      <c r="K68" s="208"/>
+      <c r="L68" s="209" t="s">
         <v>187</v>
       </c>
-      <c r="M68" s="198"/>
-      <c r="N68" s="198"/>
-      <c r="O68" s="198"/>
-      <c r="P68" s="198"/>
-    </row>
-    <row r="69" spans="1:16" s="196" customFormat="1" ht="12" customHeight="1">
-      <c r="A69" s="207">
+      <c r="M68" s="197"/>
+      <c r="N68" s="197"/>
+      <c r="O68" s="197"/>
+      <c r="P68" s="197"/>
+    </row>
+    <row r="69" spans="1:16" s="195" customFormat="1" ht="12" customHeight="1">
+      <c r="A69" s="206">
         <v>65</v>
       </c>
-      <c r="B69" s="197">
+      <c r="B69" s="196">
         <v>92</v>
       </c>
-      <c r="C69" s="197" t="s">
+      <c r="C69" s="196" t="s">
         <v>429</v>
       </c>
-      <c r="D69" s="208" t="s">
+      <c r="D69" s="207" t="s">
         <v>248</v>
       </c>
-      <c r="E69" s="209" t="s">
+      <c r="E69" s="208" t="s">
         <v>403</v>
       </c>
-      <c r="F69" s="209" t="s">
+      <c r="F69" s="208" t="s">
         <v>404</v>
       </c>
-      <c r="G69" s="209" t="s">
+      <c r="G69" s="208" t="s">
         <v>404</v>
       </c>
-      <c r="H69" s="209" t="s">
+      <c r="H69" s="208" t="s">
         <v>178</v>
       </c>
-      <c r="I69" s="209" t="s">
+      <c r="I69" s="208" t="s">
         <v>176</v>
       </c>
-      <c r="J69" s="209"/>
-      <c r="K69" s="209"/>
-      <c r="L69" s="210" t="s">
+      <c r="J69" s="208"/>
+      <c r="K69" s="208"/>
+      <c r="L69" s="209" t="s">
         <v>187</v>
       </c>
-      <c r="M69" s="198"/>
-      <c r="N69" s="198"/>
-      <c r="O69" s="198"/>
-      <c r="P69" s="198"/>
-    </row>
-    <row r="70" spans="1:16" s="196" customFormat="1" ht="12" customHeight="1">
-      <c r="A70" s="197">
+      <c r="M69" s="197"/>
+      <c r="N69" s="197"/>
+      <c r="O69" s="197"/>
+      <c r="P69" s="197"/>
+    </row>
+    <row r="70" spans="1:16" s="195" customFormat="1" ht="12" customHeight="1">
+      <c r="A70" s="196">
         <v>66</v>
       </c>
-      <c r="B70" s="197">
+      <c r="B70" s="196">
         <v>92</v>
       </c>
-      <c r="C70" s="197" t="s">
+      <c r="C70" s="196" t="s">
         <v>429</v>
       </c>
-      <c r="D70" s="208" t="s">
+      <c r="D70" s="207" t="s">
         <v>249</v>
       </c>
-      <c r="E70" s="209" t="s">
+      <c r="E70" s="208" t="s">
         <v>407</v>
       </c>
-      <c r="F70" s="209" t="s">
+      <c r="F70" s="208" t="s">
         <v>411</v>
       </c>
-      <c r="G70" s="209" t="s">
+      <c r="G70" s="208" t="s">
         <v>411</v>
       </c>
-      <c r="H70" s="209" t="s">
+      <c r="H70" s="208" t="s">
         <v>178</v>
       </c>
-      <c r="I70" s="209" t="s">
+      <c r="I70" s="208" t="s">
         <v>176</v>
       </c>
-      <c r="J70" s="209"/>
-      <c r="K70" s="209"/>
-      <c r="L70" s="210" t="s">
+      <c r="J70" s="208"/>
+      <c r="K70" s="208"/>
+      <c r="L70" s="209" t="s">
         <v>187</v>
       </c>
-      <c r="M70" s="198"/>
-      <c r="N70" s="198"/>
-      <c r="O70" s="198"/>
-      <c r="P70" s="198"/>
-    </row>
-    <row r="71" spans="1:16" s="196" customFormat="1" ht="12" customHeight="1">
-      <c r="A71" s="207">
+      <c r="M70" s="197"/>
+      <c r="N70" s="197"/>
+      <c r="O70" s="197"/>
+      <c r="P70" s="197"/>
+    </row>
+    <row r="71" spans="1:16" s="195" customFormat="1" ht="12" customHeight="1">
+      <c r="A71" s="206">
         <v>67</v>
       </c>
-      <c r="B71" s="197">
+      <c r="B71" s="196">
         <v>92</v>
       </c>
-      <c r="C71" s="197" t="s">
+      <c r="C71" s="196" t="s">
         <v>429</v>
       </c>
-      <c r="D71" s="208" t="s">
+      <c r="D71" s="207" t="s">
         <v>250</v>
       </c>
-      <c r="E71" s="209" t="s">
+      <c r="E71" s="208" t="s">
         <v>408</v>
       </c>
-      <c r="F71" s="209" t="s">
+      <c r="F71" s="208" t="s">
         <v>412</v>
       </c>
-      <c r="G71" s="209" t="s">
+      <c r="G71" s="208" t="s">
         <v>412</v>
       </c>
-      <c r="H71" s="209" t="s">
+      <c r="H71" s="208" t="s">
         <v>178</v>
       </c>
-      <c r="I71" s="209" t="s">
+      <c r="I71" s="208" t="s">
         <v>176</v>
       </c>
-      <c r="J71" s="209"/>
-      <c r="K71" s="209"/>
-      <c r="L71" s="210" t="s">
+      <c r="J71" s="208"/>
+      <c r="K71" s="208"/>
+      <c r="L71" s="209" t="s">
         <v>187</v>
       </c>
-      <c r="M71" s="198"/>
-      <c r="N71" s="198"/>
-      <c r="O71" s="198"/>
-      <c r="P71" s="198"/>
-    </row>
-    <row r="72" spans="1:16" s="196" customFormat="1" ht="12" customHeight="1">
-      <c r="A72" s="197">
+      <c r="M71" s="197"/>
+      <c r="N71" s="197"/>
+      <c r="O71" s="197"/>
+      <c r="P71" s="197"/>
+    </row>
+    <row r="72" spans="1:16" s="195" customFormat="1" ht="12" customHeight="1">
+      <c r="A72" s="196">
         <v>68</v>
       </c>
-      <c r="B72" s="197">
+      <c r="B72" s="196">
         <v>92</v>
       </c>
-      <c r="C72" s="197" t="s">
+      <c r="C72" s="196" t="s">
         <v>429</v>
       </c>
-      <c r="D72" s="208" t="s">
+      <c r="D72" s="207" t="s">
         <v>251</v>
       </c>
-      <c r="E72" s="209" t="s">
+      <c r="E72" s="208" t="s">
         <v>409</v>
       </c>
-      <c r="F72" s="209" t="s">
+      <c r="F72" s="208" t="s">
         <v>413</v>
       </c>
-      <c r="G72" s="209" t="s">
+      <c r="G72" s="208" t="s">
         <v>413</v>
       </c>
-      <c r="H72" s="209" t="s">
+      <c r="H72" s="208" t="s">
         <v>178</v>
       </c>
-      <c r="I72" s="209" t="s">
+      <c r="I72" s="208" t="s">
         <v>176</v>
       </c>
-      <c r="J72" s="209"/>
-      <c r="K72" s="209"/>
-      <c r="L72" s="210" t="s">
+      <c r="J72" s="208"/>
+      <c r="K72" s="208"/>
+      <c r="L72" s="209" t="s">
         <v>187</v>
       </c>
-      <c r="M72" s="198"/>
-      <c r="N72" s="198"/>
-      <c r="O72" s="198"/>
-      <c r="P72" s="198"/>
-    </row>
-    <row r="73" spans="1:16" s="196" customFormat="1" ht="12" customHeight="1">
-      <c r="A73" s="207">
+      <c r="M72" s="197"/>
+      <c r="N72" s="197"/>
+      <c r="O72" s="197"/>
+      <c r="P72" s="197"/>
+    </row>
+    <row r="73" spans="1:16" s="195" customFormat="1" ht="12" customHeight="1">
+      <c r="A73" s="206">
         <v>69</v>
       </c>
-      <c r="B73" s="197">
+      <c r="B73" s="196">
         <v>92</v>
       </c>
-      <c r="C73" s="197" t="s">
+      <c r="C73" s="196" t="s">
         <v>429</v>
       </c>
-      <c r="D73" s="208" t="s">
+      <c r="D73" s="207" t="s">
         <v>415</v>
       </c>
-      <c r="E73" s="209" t="s">
+      <c r="E73" s="208" t="s">
         <v>410</v>
       </c>
-      <c r="F73" s="209" t="s">
+      <c r="F73" s="208" t="s">
         <v>414</v>
       </c>
-      <c r="G73" s="209" t="s">
+      <c r="G73" s="208" t="s">
         <v>414</v>
       </c>
-      <c r="H73" s="209" t="s">
+      <c r="H73" s="208" t="s">
         <v>178</v>
       </c>
-      <c r="I73" s="209" t="s">
+      <c r="I73" s="208" t="s">
         <v>176</v>
       </c>
-      <c r="J73" s="209"/>
-      <c r="K73" s="209"/>
-      <c r="L73" s="210" t="s">
+      <c r="J73" s="208"/>
+      <c r="K73" s="208"/>
+      <c r="L73" s="209" t="s">
         <v>187</v>
       </c>
-      <c r="M73" s="198"/>
-      <c r="N73" s="198"/>
-      <c r="O73" s="198"/>
-      <c r="P73" s="198"/>
-    </row>
-    <row r="74" spans="1:16" s="196" customFormat="1" ht="12" customHeight="1">
-      <c r="A74" s="197">
+      <c r="M73" s="197"/>
+      <c r="N73" s="197"/>
+      <c r="O73" s="197"/>
+      <c r="P73" s="197"/>
+    </row>
+    <row r="74" spans="1:16" s="195" customFormat="1" ht="12" customHeight="1">
+      <c r="A74" s="196">
         <v>70</v>
       </c>
-      <c r="B74" s="197">
+      <c r="B74" s="196">
         <v>92</v>
       </c>
-      <c r="C74" s="197" t="s">
+      <c r="C74" s="196" t="s">
         <v>429</v>
       </c>
-      <c r="D74" s="208" t="s">
+      <c r="D74" s="207" t="s">
         <v>416</v>
       </c>
-      <c r="E74" s="209" t="s">
+      <c r="E74" s="208" t="s">
         <v>191</v>
       </c>
-      <c r="F74" s="209" t="s">
+      <c r="F74" s="208" t="s">
         <v>192</v>
       </c>
-      <c r="G74" s="209" t="s">
+      <c r="G74" s="208" t="s">
         <v>192</v>
       </c>
-      <c r="H74" s="209" t="s">
+      <c r="H74" s="208" t="s">
         <v>178</v>
       </c>
-      <c r="I74" s="209" t="s">
+      <c r="I74" s="208" t="s">
         <v>176</v>
       </c>
-      <c r="J74" s="209"/>
-      <c r="K74" s="209"/>
-      <c r="L74" s="210" t="s">
+      <c r="J74" s="208"/>
+      <c r="K74" s="208"/>
+      <c r="L74" s="209" t="s">
         <v>187</v>
       </c>
-      <c r="M74" s="198"/>
-      <c r="N74" s="198"/>
-      <c r="O74" s="198"/>
-      <c r="P74" s="198"/>
-    </row>
-    <row r="75" spans="1:16" s="196" customFormat="1" ht="12" customHeight="1">
-      <c r="A75" s="207">
+      <c r="M74" s="197"/>
+      <c r="N74" s="197"/>
+      <c r="O74" s="197"/>
+      <c r="P74" s="197"/>
+    </row>
+    <row r="75" spans="1:16" s="195" customFormat="1" ht="12" customHeight="1">
+      <c r="A75" s="206">
         <v>71</v>
       </c>
-      <c r="B75" s="197">
+      <c r="B75" s="196">
         <v>92</v>
       </c>
-      <c r="C75" s="197" t="s">
+      <c r="C75" s="196" t="s">
         <v>429</v>
       </c>
-      <c r="D75" s="208" t="s">
+      <c r="D75" s="207" t="s">
         <v>417</v>
       </c>
-      <c r="E75" s="209" t="s">
+      <c r="E75" s="208" t="s">
         <v>189</v>
       </c>
-      <c r="F75" s="209" t="s">
+      <c r="F75" s="208" t="s">
         <v>190</v>
       </c>
-      <c r="G75" s="209" t="s">
+      <c r="G75" s="208" t="s">
         <v>190</v>
       </c>
-      <c r="H75" s="209" t="s">
+      <c r="H75" s="208" t="s">
         <v>178</v>
       </c>
-      <c r="I75" s="209" t="s">
+      <c r="I75" s="208" t="s">
         <v>182</v>
       </c>
-      <c r="J75" s="209"/>
-      <c r="K75" s="209"/>
-      <c r="L75" s="210" t="s">
+      <c r="J75" s="208"/>
+      <c r="K75" s="208"/>
+      <c r="L75" s="209" t="s">
         <v>187</v>
       </c>
-      <c r="M75" s="198" t="s">
+      <c r="M75" s="197" t="s">
         <v>183</v>
       </c>
-      <c r="N75" s="198"/>
-      <c r="O75" s="198"/>
-      <c r="P75" s="198"/>
-    </row>
-    <row r="76" spans="1:16" s="196" customFormat="1" ht="12" customHeight="1">
-      <c r="A76" s="207">
+      <c r="N75" s="197"/>
+      <c r="O75" s="197"/>
+      <c r="P75" s="197"/>
+    </row>
+    <row r="76" spans="1:16" s="195" customFormat="1" ht="12" customHeight="1">
+      <c r="A76" s="206">
         <v>72</v>
       </c>
-      <c r="B76" s="197">
+      <c r="B76" s="196">
         <v>92</v>
       </c>
-      <c r="C76" s="197" t="s">
+      <c r="C76" s="196" t="s">
         <v>429</v>
       </c>
-      <c r="D76" s="208" t="s">
+      <c r="D76" s="207" t="s">
         <v>418</v>
       </c>
-      <c r="E76" s="209"/>
-      <c r="F76" s="209" t="s">
+      <c r="E76" s="208"/>
+      <c r="F76" s="208" t="s">
         <v>420</v>
       </c>
-      <c r="G76" s="209"/>
-      <c r="H76" s="198" t="s">
+      <c r="G76" s="208"/>
+      <c r="H76" s="197" t="s">
         <v>180</v>
       </c>
-      <c r="I76" s="209"/>
-      <c r="J76" s="209"/>
-      <c r="K76" s="209"/>
-      <c r="L76" s="210"/>
-      <c r="M76" s="198"/>
-      <c r="N76" s="198"/>
-      <c r="O76" s="198"/>
-      <c r="P76" s="198"/>
-    </row>
-    <row r="77" spans="1:16" s="196" customFormat="1" ht="12" customHeight="1">
-      <c r="A77" s="207">
+      <c r="I76" s="208"/>
+      <c r="J76" s="208"/>
+      <c r="K76" s="208"/>
+      <c r="L76" s="209"/>
+      <c r="M76" s="197"/>
+      <c r="N76" s="197"/>
+      <c r="O76" s="197"/>
+      <c r="P76" s="197"/>
+    </row>
+    <row r="77" spans="1:16" s="195" customFormat="1" ht="12" customHeight="1">
+      <c r="A77" s="206">
         <v>73</v>
       </c>
-      <c r="B77" s="197">
+      <c r="B77" s="196">
         <v>92</v>
       </c>
-      <c r="C77" s="197" t="s">
+      <c r="C77" s="196" t="s">
         <v>429</v>
       </c>
-      <c r="D77" s="208" t="s">
+      <c r="D77" s="207" t="s">
         <v>419</v>
       </c>
-      <c r="E77" s="209"/>
-      <c r="F77" s="209" t="s">
+      <c r="E77" s="208"/>
+      <c r="F77" s="208" t="s">
         <v>421</v>
       </c>
-      <c r="G77" s="209"/>
-      <c r="H77" s="198" t="s">
+      <c r="G77" s="208"/>
+      <c r="H77" s="197" t="s">
         <v>180</v>
       </c>
-      <c r="I77" s="209"/>
-      <c r="J77" s="209"/>
-      <c r="K77" s="209"/>
-      <c r="L77" s="210"/>
-      <c r="M77" s="198"/>
-      <c r="N77" s="198"/>
-      <c r="O77" s="198"/>
-      <c r="P77" s="198"/>
-    </row>
-    <row r="78" spans="1:16" s="206" customFormat="1" ht="11.25">
-      <c r="A78" s="200">
+      <c r="I77" s="208"/>
+      <c r="J77" s="208"/>
+      <c r="K77" s="208"/>
+      <c r="L77" s="209"/>
+      <c r="M77" s="197"/>
+      <c r="N77" s="197"/>
+      <c r="O77" s="197"/>
+      <c r="P77" s="197"/>
+    </row>
+    <row r="78" spans="1:16" s="205" customFormat="1" ht="11.25">
+      <c r="A78" s="199">
         <v>10</v>
       </c>
-      <c r="B78" s="200">
+      <c r="B78" s="199">
         <v>92</v>
       </c>
-      <c r="C78" s="200" t="s">
+      <c r="C78" s="199" t="s">
         <v>428</v>
       </c>
-      <c r="D78" s="201">
+      <c r="D78" s="200">
         <v>2.14</v>
       </c>
-      <c r="E78" s="202" t="s">
+      <c r="E78" s="201" t="s">
         <v>355</v>
       </c>
-      <c r="F78" s="203" t="s">
+      <c r="F78" s="202" t="s">
         <v>356</v>
       </c>
-      <c r="G78" s="203" t="s">
+      <c r="G78" s="202" t="s">
         <v>356</v>
       </c>
-      <c r="H78" s="204" t="s">
+      <c r="H78" s="203" t="s">
         <v>178</v>
       </c>
-      <c r="I78" s="204" t="s">
+      <c r="I78" s="203" t="s">
         <v>176</v>
       </c>
-      <c r="J78" s="205"/>
-      <c r="K78" s="205"/>
-      <c r="L78" s="199" t="s">
+      <c r="J78" s="204"/>
+      <c r="K78" s="204"/>
+      <c r="L78" s="198" t="s">
         <v>187</v>
       </c>
-      <c r="M78" s="203"/>
-      <c r="N78" s="203"/>
-      <c r="O78" s="203"/>
-      <c r="P78" s="203"/>
+      <c r="M78" s="202"/>
+      <c r="N78" s="202"/>
+      <c r="O78" s="202"/>
+      <c r="P78" s="202"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -14701,7 +14706,7 @@
         <v>44</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="C4" s="24" t="s">
         <v>32</v>
@@ -14736,34 +14741,34 @@
       <c r="P4" s="32"/>
       <c r="Q4" s="32"/>
     </row>
-    <row r="5" spans="1:17" s="214" customFormat="1" ht="12" customHeight="1">
-      <c r="A5" s="207">
+    <row r="5" spans="1:17" s="213" customFormat="1" ht="12" customHeight="1">
+      <c r="A5" s="206">
         <v>1</v>
       </c>
-      <c r="B5" s="207">
+      <c r="B5" s="206">
         <v>92</v>
       </c>
-      <c r="C5" s="211">
+      <c r="C5" s="210">
         <v>6</v>
       </c>
-      <c r="D5" s="209" t="s">
+      <c r="D5" s="208" t="s">
         <v>421</v>
       </c>
-      <c r="E5" s="212" t="s">
+      <c r="E5" s="211" t="s">
         <v>425</v>
       </c>
-      <c r="F5" s="212"/>
-      <c r="G5" s="212"/>
-      <c r="H5" s="212" t="s">
+      <c r="F5" s="211"/>
+      <c r="G5" s="211"/>
+      <c r="H5" s="211" t="s">
         <v>180</v>
       </c>
-      <c r="I5" s="212" t="s">
+      <c r="I5" s="211" t="s">
         <v>168</v>
       </c>
-      <c r="J5" s="213" t="s">
+      <c r="J5" s="212" t="s">
         <v>424</v>
       </c>
-      <c r="K5" s="212"/>
+      <c r="K5" s="211"/>
     </row>
     <row r="6" spans="1:17" s="25" customFormat="1" ht="11.25">
       <c r="A6" s="106">
@@ -14958,7 +14963,7 @@
       <c r="A1" s="335" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="242"/>
+      <c r="B1" s="240"/>
       <c r="C1" s="104"/>
       <c r="D1" s="30" t="s">
         <v>1</v>
@@ -14993,7 +14998,7 @@
     </row>
     <row r="2" spans="1:19" s="25" customFormat="1" ht="12" customHeight="1">
       <c r="A2" s="336"/>
-      <c r="B2" s="243"/>
+      <c r="B2" s="241"/>
       <c r="C2" s="105"/>
       <c r="D2" s="30" t="s">
         <v>2</v>
@@ -15031,7 +15036,7 @@
         <v>44</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="C4" s="102" t="s">
         <v>32</v>
@@ -15190,7 +15195,7 @@
         <v>176</v>
       </c>
       <c r="G10" s="333" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="H10" s="333"/>
       <c r="I10" s="333"/>
@@ -15222,55 +15227,55 @@
         <v>176</v>
       </c>
       <c r="G11" s="332" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="H11" s="332"/>
       <c r="I11" s="332"/>
       <c r="J11" s="332"/>
-      <c r="K11" s="249" t="s">
-        <v>464</v>
-      </c>
-      <c r="M11" s="248"/>
-      <c r="N11" s="248"/>
-      <c r="O11" s="248"/>
-      <c r="P11" s="248"/>
-      <c r="Q11" s="248"/>
-      <c r="R11" s="248"/>
-      <c r="S11" s="248"/>
-    </row>
-    <row r="12" spans="1:19" s="218" customFormat="1" ht="45">
-      <c r="A12" s="207">
+      <c r="K11" s="247" t="s">
+        <v>461</v>
+      </c>
+      <c r="M11" s="246"/>
+      <c r="N11" s="246"/>
+      <c r="O11" s="246"/>
+      <c r="P11" s="246"/>
+      <c r="Q11" s="246"/>
+      <c r="R11" s="246"/>
+      <c r="S11" s="246"/>
+    </row>
+    <row r="12" spans="1:19" s="217" customFormat="1" ht="45">
+      <c r="A12" s="206">
         <v>7</v>
       </c>
-      <c r="B12" s="207">
+      <c r="B12" s="206">
         <v>92</v>
       </c>
-      <c r="C12" s="207" t="s">
+      <c r="C12" s="206" t="s">
         <v>429</v>
       </c>
-      <c r="D12" s="215" t="s">
+      <c r="D12" s="214" t="s">
         <v>131</v>
       </c>
-      <c r="E12" s="216"/>
-      <c r="F12" s="216" t="s">
+      <c r="E12" s="215"/>
+      <c r="F12" s="215" t="s">
         <v>176</v>
       </c>
       <c r="G12" s="334" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="H12" s="334"/>
       <c r="I12" s="334"/>
       <c r="J12" s="334"/>
-      <c r="K12" s="217" t="s">
-        <v>454</v>
-      </c>
-      <c r="M12" s="219"/>
-      <c r="N12" s="219"/>
-      <c r="O12" s="219"/>
-      <c r="P12" s="219"/>
-      <c r="Q12" s="219"/>
-      <c r="R12" s="219"/>
-      <c r="S12" s="219"/>
+      <c r="K12" s="216" t="s">
+        <v>451</v>
+      </c>
+      <c r="M12" s="218"/>
+      <c r="N12" s="218"/>
+      <c r="O12" s="218"/>
+      <c r="P12" s="218"/>
+      <c r="Q12" s="218"/>
+      <c r="R12" s="218"/>
+      <c r="S12" s="218"/>
     </row>
   </sheetData>
   <dataConsolidate/>
@@ -15302,8 +15307,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R1048229"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A16" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B16" sqref="B1:B1048576"/>
+    <sheetView view="pageBreakPreview" topLeftCell="F14" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -15362,12 +15367,12 @@
       <c r="M1" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="N1" s="362" t="str">
+      <c r="N1" s="364" t="str">
         <f>'Update History'!J1</f>
         <v>Tấn Đạt</v>
       </c>
-      <c r="O1" s="363"/>
-      <c r="P1" s="364"/>
+      <c r="O1" s="365"/>
+      <c r="P1" s="366"/>
       <c r="Q1" s="46"/>
       <c r="R1" s="46"/>
     </row>
@@ -15402,12 +15407,12 @@
       <c r="M2" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="N2" s="362" t="str">
+      <c r="N2" s="364" t="str">
         <f>'Update History'!J2</f>
         <v>26/01/2018</v>
       </c>
-      <c r="O2" s="363"/>
-      <c r="P2" s="364"/>
+      <c r="O2" s="365"/>
+      <c r="P2" s="366"/>
       <c r="Q2" s="46"/>
       <c r="R2" s="46"/>
     </row>
@@ -15416,7 +15421,7 @@
         <v>44</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="C4" s="103" t="s">
         <v>156</v>
@@ -15517,12 +15522,12 @@
       <c r="G6" s="113" t="s">
         <v>162</v>
       </c>
-      <c r="H6" s="379" t="s">
+      <c r="H6" s="381" t="s">
         <v>349</v>
       </c>
-      <c r="I6" s="380"/>
-      <c r="J6" s="380"/>
-      <c r="K6" s="381"/>
+      <c r="I6" s="382"/>
+      <c r="J6" s="382"/>
+      <c r="K6" s="383"/>
       <c r="L6" s="116" t="s">
         <v>307</v>
       </c>
@@ -15559,12 +15564,12 @@
       <c r="G7" s="113" t="s">
         <v>163</v>
       </c>
-      <c r="H7" s="379" t="s">
+      <c r="H7" s="381" t="s">
         <v>351</v>
       </c>
-      <c r="I7" s="380"/>
-      <c r="J7" s="380"/>
-      <c r="K7" s="381"/>
+      <c r="I7" s="382"/>
+      <c r="J7" s="382"/>
+      <c r="K7" s="383"/>
       <c r="L7" s="116" t="s">
         <v>334</v>
       </c>
@@ -15601,12 +15606,12 @@
       <c r="G8" s="113" t="s">
         <v>164</v>
       </c>
-      <c r="H8" s="365" t="s">
+      <c r="H8" s="367" t="s">
         <v>333</v>
       </c>
-      <c r="I8" s="366"/>
-      <c r="J8" s="366"/>
-      <c r="K8" s="367"/>
+      <c r="I8" s="368"/>
+      <c r="J8" s="368"/>
+      <c r="K8" s="369"/>
       <c r="L8" s="116" t="s">
         <v>307</v>
       </c>
@@ -15623,15 +15628,15 @@
       <c r="Q8" s="57"/>
       <c r="R8" s="57"/>
     </row>
-    <row r="9" spans="1:18" ht="63" customHeight="1">
+    <row r="9" spans="1:18" ht="255" customHeight="1">
       <c r="A9" s="106">
         <v>3</v>
       </c>
       <c r="B9" s="106">
         <v>92</v>
       </c>
-      <c r="C9" s="168" t="s">
-        <v>357</v>
+      <c r="C9" s="263" t="s">
+        <v>428</v>
       </c>
       <c r="D9" s="68" t="s">
         <v>321</v>
@@ -15645,17 +15650,17 @@
       <c r="G9" s="113" t="s">
         <v>197</v>
       </c>
-      <c r="H9" s="376" t="s">
-        <v>441</v>
-      </c>
-      <c r="I9" s="377"/>
-      <c r="J9" s="377"/>
-      <c r="K9" s="378"/>
-      <c r="L9" s="194" t="s">
-        <v>442</v>
-      </c>
-      <c r="M9" s="194" t="s">
-        <v>443</v>
+      <c r="H9" s="378" t="s">
+        <v>476</v>
+      </c>
+      <c r="I9" s="379"/>
+      <c r="J9" s="379"/>
+      <c r="K9" s="380"/>
+      <c r="L9" s="264" t="s">
+        <v>477</v>
+      </c>
+      <c r="M9" s="264" t="s">
+        <v>478</v>
       </c>
       <c r="N9" s="68" t="s">
         <v>167</v>
@@ -15687,12 +15692,12 @@
       <c r="G10" s="113" t="s">
         <v>213</v>
       </c>
-      <c r="H10" s="365" t="s">
+      <c r="H10" s="367" t="s">
         <v>169</v>
       </c>
-      <c r="I10" s="366"/>
-      <c r="J10" s="366"/>
-      <c r="K10" s="367"/>
+      <c r="I10" s="368"/>
+      <c r="J10" s="368"/>
+      <c r="K10" s="369"/>
       <c r="L10" s="116" t="s">
         <v>170</v>
       </c>
@@ -15703,7 +15708,7 @@
       <c r="O10" s="115" t="s">
         <v>158</v>
       </c>
-      <c r="P10" s="368"/>
+      <c r="P10" s="370"/>
     </row>
     <row r="11" spans="1:18" ht="78.75">
       <c r="A11" s="106">
@@ -15725,12 +15730,12 @@
       <c r="G11" s="113" t="s">
         <v>160</v>
       </c>
-      <c r="H11" s="373" t="s">
+      <c r="H11" s="375" t="s">
         <v>386</v>
       </c>
-      <c r="I11" s="374"/>
-      <c r="J11" s="374"/>
-      <c r="K11" s="375"/>
+      <c r="I11" s="376"/>
+      <c r="J11" s="376"/>
+      <c r="K11" s="377"/>
       <c r="L11" s="116" t="s">
         <v>295</v>
       </c>
@@ -15741,7 +15746,7 @@
       <c r="O11" s="115" t="s">
         <v>158</v>
       </c>
-      <c r="P11" s="369"/>
+      <c r="P11" s="371"/>
     </row>
     <row r="12" spans="1:18" ht="63" customHeight="1">
       <c r="A12" s="106">
@@ -15763,12 +15768,12 @@
       <c r="G12" s="113" t="s">
         <v>303</v>
       </c>
-      <c r="H12" s="365" t="s">
+      <c r="H12" s="367" t="s">
         <v>309</v>
       </c>
-      <c r="I12" s="366"/>
-      <c r="J12" s="366"/>
-      <c r="K12" s="367"/>
+      <c r="I12" s="368"/>
+      <c r="J12" s="368"/>
+      <c r="K12" s="369"/>
       <c r="L12" s="116" t="s">
         <v>310</v>
       </c>
@@ -15803,12 +15808,12 @@
       <c r="G13" s="113" t="s">
         <v>304</v>
       </c>
-      <c r="H13" s="365" t="s">
+      <c r="H13" s="367" t="s">
         <v>312</v>
       </c>
-      <c r="I13" s="366"/>
-      <c r="J13" s="366"/>
-      <c r="K13" s="367"/>
+      <c r="I13" s="368"/>
+      <c r="J13" s="368"/>
+      <c r="K13" s="369"/>
       <c r="L13" s="116" t="s">
         <v>313</v>
       </c>
@@ -15843,12 +15848,12 @@
       <c r="G14" s="113" t="s">
         <v>305</v>
       </c>
-      <c r="H14" s="365" t="s">
+      <c r="H14" s="367" t="s">
         <v>315</v>
       </c>
-      <c r="I14" s="366"/>
-      <c r="J14" s="366"/>
-      <c r="K14" s="367"/>
+      <c r="I14" s="368"/>
+      <c r="J14" s="368"/>
+      <c r="K14" s="369"/>
       <c r="L14" s="116" t="s">
         <v>316</v>
       </c>
@@ -15883,12 +15888,12 @@
       <c r="G15" s="113" t="s">
         <v>306</v>
       </c>
-      <c r="H15" s="370" t="s">
+      <c r="H15" s="372" t="s">
         <v>202</v>
       </c>
-      <c r="I15" s="371"/>
-      <c r="J15" s="371"/>
-      <c r="K15" s="372"/>
+      <c r="I15" s="373"/>
+      <c r="J15" s="373"/>
+      <c r="K15" s="374"/>
       <c r="L15" s="135" t="s">
         <v>203</v>
       </c>
@@ -15955,20 +15960,20 @@
       <c r="C17" s="187" t="s">
         <v>357</v>
       </c>
-      <c r="D17" s="239" t="s">
-        <v>444</v>
-      </c>
-      <c r="E17" s="241" t="s">
+      <c r="D17" s="237" t="s">
+        <v>441</v>
+      </c>
+      <c r="E17" s="239" t="s">
         <v>165</v>
       </c>
-      <c r="F17" s="241" t="s">
+      <c r="F17" s="239" t="s">
         <v>55</v>
       </c>
       <c r="G17" s="188" t="s">
         <v>423</v>
       </c>
       <c r="H17" s="359" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="I17" s="360"/>
       <c r="J17" s="360"/>
@@ -16000,19 +16005,19 @@
         <v>357</v>
       </c>
       <c r="D18" s="187" t="s">
-        <v>452</v>
-      </c>
-      <c r="E18" s="241" t="s">
+        <v>449</v>
+      </c>
+      <c r="E18" s="239" t="s">
         <v>165</v>
       </c>
-      <c r="F18" s="241" t="s">
+      <c r="F18" s="239" t="s">
         <v>55</v>
       </c>
       <c r="G18" s="188" t="s">
         <v>431</v>
       </c>
       <c r="H18" s="359" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="I18" s="360"/>
       <c r="J18" s="360"/>
@@ -16021,9 +16026,9 @@
         <v>293</v>
       </c>
       <c r="M18" s="188" t="s">
-        <v>456</v>
-      </c>
-      <c r="N18" s="229" t="s">
+        <v>453</v>
+      </c>
+      <c r="N18" s="228" t="s">
         <v>439</v>
       </c>
       <c r="O18" s="168" t="s">
@@ -16033,93 +16038,93 @@
       <c r="Q18" s="168"/>
       <c r="R18" s="168"/>
     </row>
-    <row r="19" spans="1:18" s="222" customFormat="1" ht="120.75" customHeight="1">
-      <c r="A19" s="222">
+    <row r="19" spans="1:18" s="221" customFormat="1" ht="120.75" customHeight="1">
+      <c r="A19" s="221">
         <v>9</v>
       </c>
-      <c r="B19" s="244">
+      <c r="B19" s="242">
         <v>92</v>
       </c>
-      <c r="C19" s="240" t="s">
+      <c r="C19" s="238" t="s">
         <v>429</v>
       </c>
-      <c r="D19" s="222" t="s">
+      <c r="D19" s="221" t="s">
         <v>430</v>
       </c>
-      <c r="E19" s="240" t="s">
+      <c r="E19" s="238" t="s">
         <v>165</v>
       </c>
-      <c r="F19" s="240" t="s">
+      <c r="F19" s="238" t="s">
         <v>55</v>
       </c>
-      <c r="G19" s="245" t="s">
-        <v>445</v>
-      </c>
-      <c r="H19" s="382" t="s">
+      <c r="G19" s="243" t="s">
+        <v>442</v>
+      </c>
+      <c r="H19" s="362" t="s">
         <v>432</v>
       </c>
-      <c r="I19" s="383"/>
-      <c r="J19" s="383"/>
-      <c r="K19" s="383"/>
-      <c r="L19" s="246" t="s">
+      <c r="I19" s="363"/>
+      <c r="J19" s="363"/>
+      <c r="K19" s="363"/>
+      <c r="L19" s="244" t="s">
         <v>289</v>
       </c>
-      <c r="M19" s="246" t="s">
+      <c r="M19" s="244" t="s">
         <v>289</v>
       </c>
-      <c r="N19" s="247" t="s">
+      <c r="N19" s="245" t="s">
         <v>159</v>
       </c>
-      <c r="O19" s="247" t="s">
+      <c r="O19" s="245" t="s">
         <v>158</v>
       </c>
-      <c r="P19" s="247"/>
-      <c r="Q19" s="214"/>
-      <c r="R19" s="214"/>
-    </row>
-    <row r="20" spans="1:18" s="222" customFormat="1" ht="39.75" customHeight="1">
-      <c r="A20" s="216">
+      <c r="P19" s="245"/>
+      <c r="Q19" s="213"/>
+      <c r="R19" s="213"/>
+    </row>
+    <row r="20" spans="1:18" s="221" customFormat="1" ht="39.75" customHeight="1">
+      <c r="A20" s="215">
         <v>8</v>
       </c>
-      <c r="B20" s="244">
+      <c r="B20" s="242">
         <v>92</v>
       </c>
-      <c r="C20" s="216" t="s">
+      <c r="C20" s="215" t="s">
         <v>429</v>
       </c>
-      <c r="D20" s="221" t="s">
+      <c r="D20" s="220" t="s">
         <v>422</v>
       </c>
-      <c r="E20" s="216" t="s">
+      <c r="E20" s="215" t="s">
         <v>300</v>
       </c>
-      <c r="F20" s="216" t="s">
+      <c r="F20" s="215" t="s">
         <v>55</v>
       </c>
-      <c r="G20" s="215" t="s">
-        <v>453</v>
+      <c r="G20" s="214" t="s">
+        <v>450</v>
       </c>
       <c r="H20" s="349" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="I20" s="350"/>
       <c r="J20" s="350"/>
       <c r="K20" s="350"/>
-      <c r="L20" s="230" t="s">
-        <v>448</v>
-      </c>
-      <c r="M20" s="230" t="s">
-        <v>449</v>
-      </c>
-      <c r="N20" s="212" t="s">
+      <c r="L20" s="229" t="s">
+        <v>445</v>
+      </c>
+      <c r="M20" s="229" t="s">
+        <v>446</v>
+      </c>
+      <c r="N20" s="211" t="s">
         <v>421</v>
       </c>
-      <c r="O20" s="207" t="s">
+      <c r="O20" s="206" t="s">
         <v>168</v>
       </c>
-      <c r="P20" s="207"/>
-      <c r="Q20" s="214"/>
-      <c r="R20" s="214"/>
+      <c r="P20" s="206"/>
+      <c r="Q20" s="213"/>
+      <c r="R20" s="213"/>
     </row>
     <row r="21" spans="1:18" ht="12" customHeight="1">
       <c r="H21" s="32"/>
@@ -16346,7 +16351,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K185"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A127" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="F121" sqref="F121"/>
     </sheetView>
   </sheetViews>
@@ -16625,35 +16630,35 @@
     </row>
     <row r="19" spans="1:11" s="181" customFormat="1" ht="12" customHeight="1">
       <c r="A19" s="391" t="s">
-        <v>475</v>
-      </c>
-      <c r="B19" s="253" t="s">
-        <v>476</v>
-      </c>
-      <c r="C19" s="253"/>
-      <c r="D19" s="253"/>
-      <c r="E19" s="253"/>
-      <c r="F19" s="253"/>
-      <c r="G19" s="253"/>
-      <c r="H19" s="253"/>
-      <c r="I19" s="253"/>
-      <c r="J19" s="253"/>
-      <c r="K19" s="253"/>
+        <v>472</v>
+      </c>
+      <c r="B19" s="251" t="s">
+        <v>473</v>
+      </c>
+      <c r="C19" s="251"/>
+      <c r="D19" s="251"/>
+      <c r="E19" s="251"/>
+      <c r="F19" s="251"/>
+      <c r="G19" s="251"/>
+      <c r="H19" s="251"/>
+      <c r="I19" s="251"/>
+      <c r="J19" s="251"/>
+      <c r="K19" s="251"/>
     </row>
     <row r="20" spans="1:11" s="181" customFormat="1" ht="12" customHeight="1">
       <c r="A20" s="392"/>
-      <c r="B20" s="253" t="s">
-        <v>477</v>
-      </c>
-      <c r="C20" s="253"/>
-      <c r="D20" s="253"/>
-      <c r="E20" s="253"/>
-      <c r="F20" s="253"/>
-      <c r="G20" s="253"/>
-      <c r="H20" s="253"/>
-      <c r="I20" s="253"/>
-      <c r="J20" s="253"/>
-      <c r="K20" s="253"/>
+      <c r="B20" s="251" t="s">
+        <v>474</v>
+      </c>
+      <c r="C20" s="251"/>
+      <c r="D20" s="251"/>
+      <c r="E20" s="251"/>
+      <c r="F20" s="251"/>
+      <c r="G20" s="251"/>
+      <c r="H20" s="251"/>
+      <c r="I20" s="251"/>
+      <c r="J20" s="251"/>
+      <c r="K20" s="251"/>
     </row>
     <row r="21" spans="1:11" ht="12" customHeight="1">
       <c r="B21" s="67" t="s">
@@ -17484,151 +17489,151 @@
     </row>
     <row r="89" spans="1:10" s="181" customFormat="1" ht="11.25" customHeight="1">
       <c r="A89" s="384" t="s">
-        <v>475</v>
-      </c>
-      <c r="B89" s="253"/>
-      <c r="C89" s="255" t="s">
-        <v>465</v>
-      </c>
-      <c r="D89" s="253"/>
-      <c r="E89" s="253"/>
-      <c r="F89" s="253"/>
-      <c r="G89" s="253"/>
-      <c r="H89" s="253"/>
-      <c r="I89" s="253"/>
-      <c r="J89" s="254"/>
+        <v>472</v>
+      </c>
+      <c r="B89" s="251"/>
+      <c r="C89" s="253" t="s">
+        <v>462</v>
+      </c>
+      <c r="D89" s="251"/>
+      <c r="E89" s="251"/>
+      <c r="F89" s="251"/>
+      <c r="G89" s="251"/>
+      <c r="H89" s="251"/>
+      <c r="I89" s="251"/>
+      <c r="J89" s="252"/>
     </row>
     <row r="90" spans="1:10" s="181" customFormat="1" ht="11.25" customHeight="1">
       <c r="A90" s="385"/>
-      <c r="B90" s="253"/>
-      <c r="C90" s="253"/>
-      <c r="D90" s="253"/>
-      <c r="E90" s="253"/>
-      <c r="F90" s="253"/>
-      <c r="G90" s="253"/>
-      <c r="H90" s="253"/>
-      <c r="I90" s="253"/>
-      <c r="J90" s="254"/>
+      <c r="B90" s="251"/>
+      <c r="C90" s="251"/>
+      <c r="D90" s="251"/>
+      <c r="E90" s="251"/>
+      <c r="F90" s="251"/>
+      <c r="G90" s="251"/>
+      <c r="H90" s="251"/>
+      <c r="I90" s="251"/>
+      <c r="J90" s="252"/>
     </row>
     <row r="91" spans="1:10" s="181" customFormat="1" ht="11.25" customHeight="1">
       <c r="A91" s="385"/>
-      <c r="B91" s="253"/>
-      <c r="C91" s="253"/>
-      <c r="D91" s="253"/>
-      <c r="E91" s="253"/>
-      <c r="F91" s="253"/>
-      <c r="G91" s="253"/>
-      <c r="H91" s="253"/>
-      <c r="I91" s="253"/>
-      <c r="J91" s="254"/>
+      <c r="B91" s="251"/>
+      <c r="C91" s="251"/>
+      <c r="D91" s="251"/>
+      <c r="E91" s="251"/>
+      <c r="F91" s="251"/>
+      <c r="G91" s="251"/>
+      <c r="H91" s="251"/>
+      <c r="I91" s="251"/>
+      <c r="J91" s="252"/>
     </row>
     <row r="92" spans="1:10" s="181" customFormat="1" ht="11.25" customHeight="1">
       <c r="A92" s="385"/>
-      <c r="B92" s="253"/>
-      <c r="C92" s="253"/>
-      <c r="D92" s="253"/>
-      <c r="E92" s="253"/>
-      <c r="F92" s="253"/>
-      <c r="G92" s="253"/>
-      <c r="H92" s="253"/>
-      <c r="I92" s="253"/>
-      <c r="J92" s="254"/>
+      <c r="B92" s="251"/>
+      <c r="C92" s="251"/>
+      <c r="D92" s="251"/>
+      <c r="E92" s="251"/>
+      <c r="F92" s="251"/>
+      <c r="G92" s="251"/>
+      <c r="H92" s="251"/>
+      <c r="I92" s="251"/>
+      <c r="J92" s="252"/>
     </row>
     <row r="93" spans="1:10" s="181" customFormat="1" ht="11.25" customHeight="1">
       <c r="A93" s="385"/>
-      <c r="B93" s="253"/>
-      <c r="C93" s="253"/>
-      <c r="D93" s="253"/>
-      <c r="E93" s="253"/>
-      <c r="F93" s="253"/>
-      <c r="G93" s="253"/>
-      <c r="H93" s="253"/>
-      <c r="I93" s="253"/>
-      <c r="J93" s="254"/>
+      <c r="B93" s="251"/>
+      <c r="C93" s="251"/>
+      <c r="D93" s="251"/>
+      <c r="E93" s="251"/>
+      <c r="F93" s="251"/>
+      <c r="G93" s="251"/>
+      <c r="H93" s="251"/>
+      <c r="I93" s="251"/>
+      <c r="J93" s="252"/>
     </row>
     <row r="94" spans="1:10" s="181" customFormat="1" ht="11.25" customHeight="1">
       <c r="A94" s="385"/>
-      <c r="B94" s="253"/>
-      <c r="C94" s="253"/>
-      <c r="D94" s="253"/>
-      <c r="E94" s="253"/>
-      <c r="F94" s="253"/>
-      <c r="G94" s="253"/>
-      <c r="H94" s="253"/>
-      <c r="I94" s="253"/>
-      <c r="J94" s="254"/>
+      <c r="B94" s="251"/>
+      <c r="C94" s="251"/>
+      <c r="D94" s="251"/>
+      <c r="E94" s="251"/>
+      <c r="F94" s="251"/>
+      <c r="G94" s="251"/>
+      <c r="H94" s="251"/>
+      <c r="I94" s="251"/>
+      <c r="J94" s="252"/>
     </row>
     <row r="95" spans="1:10" s="181" customFormat="1" ht="11.25" customHeight="1">
       <c r="A95" s="385"/>
-      <c r="B95" s="253"/>
-      <c r="C95" s="253"/>
-      <c r="D95" s="253"/>
-      <c r="E95" s="253"/>
-      <c r="F95" s="253"/>
-      <c r="G95" s="253"/>
-      <c r="H95" s="253"/>
-      <c r="I95" s="253"/>
-      <c r="J95" s="254"/>
+      <c r="B95" s="251"/>
+      <c r="C95" s="251"/>
+      <c r="D95" s="251"/>
+      <c r="E95" s="251"/>
+      <c r="F95" s="251"/>
+      <c r="G95" s="251"/>
+      <c r="H95" s="251"/>
+      <c r="I95" s="251"/>
+      <c r="J95" s="252"/>
     </row>
     <row r="96" spans="1:10" s="181" customFormat="1" ht="11.25" customHeight="1">
       <c r="A96" s="385"/>
-      <c r="B96" s="253"/>
-      <c r="C96" s="253"/>
-      <c r="D96" s="253"/>
-      <c r="E96" s="253"/>
-      <c r="F96" s="253"/>
-      <c r="G96" s="253"/>
-      <c r="H96" s="253"/>
-      <c r="I96" s="253"/>
-      <c r="J96" s="254"/>
+      <c r="B96" s="251"/>
+      <c r="C96" s="251"/>
+      <c r="D96" s="251"/>
+      <c r="E96" s="251"/>
+      <c r="F96" s="251"/>
+      <c r="G96" s="251"/>
+      <c r="H96" s="251"/>
+      <c r="I96" s="251"/>
+      <c r="J96" s="252"/>
     </row>
     <row r="97" spans="1:10" s="181" customFormat="1" ht="11.25" customHeight="1">
       <c r="A97" s="385"/>
-      <c r="B97" s="253"/>
-      <c r="C97" s="253"/>
-      <c r="D97" s="253"/>
-      <c r="E97" s="253"/>
-      <c r="F97" s="253"/>
-      <c r="G97" s="253"/>
-      <c r="H97" s="253"/>
-      <c r="I97" s="253"/>
-      <c r="J97" s="254"/>
+      <c r="B97" s="251"/>
+      <c r="C97" s="251"/>
+      <c r="D97" s="251"/>
+      <c r="E97" s="251"/>
+      <c r="F97" s="251"/>
+      <c r="G97" s="251"/>
+      <c r="H97" s="251"/>
+      <c r="I97" s="251"/>
+      <c r="J97" s="252"/>
     </row>
     <row r="98" spans="1:10" s="181" customFormat="1" ht="11.25" customHeight="1">
       <c r="A98" s="385"/>
-      <c r="B98" s="253"/>
-      <c r="C98" s="253"/>
-      <c r="D98" s="253"/>
-      <c r="E98" s="253"/>
-      <c r="F98" s="253"/>
-      <c r="G98" s="253"/>
-      <c r="H98" s="253"/>
-      <c r="I98" s="253"/>
-      <c r="J98" s="254"/>
+      <c r="B98" s="251"/>
+      <c r="C98" s="251"/>
+      <c r="D98" s="251"/>
+      <c r="E98" s="251"/>
+      <c r="F98" s="251"/>
+      <c r="G98" s="251"/>
+      <c r="H98" s="251"/>
+      <c r="I98" s="251"/>
+      <c r="J98" s="252"/>
     </row>
     <row r="99" spans="1:10" s="181" customFormat="1" ht="11.25" customHeight="1">
       <c r="A99" s="385"/>
-      <c r="B99" s="253"/>
-      <c r="C99" s="253"/>
-      <c r="D99" s="253"/>
-      <c r="E99" s="253"/>
-      <c r="F99" s="253"/>
-      <c r="G99" s="253"/>
-      <c r="H99" s="253"/>
-      <c r="I99" s="253"/>
-      <c r="J99" s="254"/>
+      <c r="B99" s="251"/>
+      <c r="C99" s="251"/>
+      <c r="D99" s="251"/>
+      <c r="E99" s="251"/>
+      <c r="F99" s="251"/>
+      <c r="G99" s="251"/>
+      <c r="H99" s="251"/>
+      <c r="I99" s="251"/>
+      <c r="J99" s="252"/>
     </row>
     <row r="100" spans="1:10" s="181" customFormat="1" ht="11.25" customHeight="1">
       <c r="A100" s="386"/>
-      <c r="B100" s="253"/>
-      <c r="C100" s="253"/>
-      <c r="D100" s="253"/>
-      <c r="E100" s="253"/>
-      <c r="F100" s="253"/>
-      <c r="G100" s="253"/>
-      <c r="H100" s="253"/>
-      <c r="I100" s="253"/>
-      <c r="J100" s="254"/>
+      <c r="B100" s="251"/>
+      <c r="C100" s="251"/>
+      <c r="D100" s="251"/>
+      <c r="E100" s="251"/>
+      <c r="F100" s="251"/>
+      <c r="G100" s="251"/>
+      <c r="H100" s="251"/>
+      <c r="I100" s="251"/>
+      <c r="J100" s="252"/>
     </row>
     <row r="101" spans="1:10" ht="11.25" customHeight="1">
       <c r="A101" s="63"/>
@@ -17644,47 +17649,47 @@
     </row>
     <row r="102" spans="1:10" s="181" customFormat="1" ht="11.25" customHeight="1">
       <c r="A102" s="384" t="s">
-        <v>475</v>
-      </c>
-      <c r="B102" s="253"/>
-      <c r="C102" s="255" t="s">
-        <v>466</v>
-      </c>
-      <c r="D102" s="253"/>
-      <c r="E102" s="253"/>
-      <c r="F102" s="253"/>
-      <c r="G102" s="253"/>
-      <c r="H102" s="253"/>
-      <c r="I102" s="253"/>
-      <c r="J102" s="254"/>
+        <v>472</v>
+      </c>
+      <c r="B102" s="251"/>
+      <c r="C102" s="253" t="s">
+        <v>463</v>
+      </c>
+      <c r="D102" s="251"/>
+      <c r="E102" s="251"/>
+      <c r="F102" s="251"/>
+      <c r="G102" s="251"/>
+      <c r="H102" s="251"/>
+      <c r="I102" s="251"/>
+      <c r="J102" s="252"/>
     </row>
     <row r="103" spans="1:10" s="181" customFormat="1" ht="11.25" customHeight="1">
       <c r="A103" s="385"/>
-      <c r="B103" s="253"/>
-      <c r="C103" s="253" t="s">
-        <v>467</v>
-      </c>
-      <c r="D103" s="253"/>
-      <c r="E103" s="253"/>
-      <c r="F103" s="253"/>
-      <c r="G103" s="253"/>
-      <c r="H103" s="253"/>
-      <c r="I103" s="253"/>
-      <c r="J103" s="254"/>
+      <c r="B103" s="251"/>
+      <c r="C103" s="251" t="s">
+        <v>464</v>
+      </c>
+      <c r="D103" s="251"/>
+      <c r="E103" s="251"/>
+      <c r="F103" s="251"/>
+      <c r="G103" s="251"/>
+      <c r="H103" s="251"/>
+      <c r="I103" s="251"/>
+      <c r="J103" s="252"/>
     </row>
     <row r="104" spans="1:10" s="181" customFormat="1" ht="11.25" customHeight="1">
       <c r="A104" s="386"/>
-      <c r="B104" s="253"/>
-      <c r="C104" s="253" t="s">
-        <v>468</v>
-      </c>
-      <c r="D104" s="253"/>
-      <c r="E104" s="253"/>
-      <c r="F104" s="253"/>
-      <c r="G104" s="253"/>
-      <c r="H104" s="253"/>
-      <c r="I104" s="253"/>
-      <c r="J104" s="254"/>
+      <c r="B104" s="251"/>
+      <c r="C104" s="251" t="s">
+        <v>465</v>
+      </c>
+      <c r="D104" s="251"/>
+      <c r="E104" s="251"/>
+      <c r="F104" s="251"/>
+      <c r="G104" s="251"/>
+      <c r="H104" s="251"/>
+      <c r="I104" s="251"/>
+      <c r="J104" s="252"/>
     </row>
     <row r="105" spans="1:10" ht="11.25" customHeight="1">
       <c r="A105" s="63"/>
@@ -17698,165 +17703,165 @@
       <c r="I105" s="39"/>
       <c r="J105" s="42"/>
     </row>
-    <row r="106" spans="1:10" s="196" customFormat="1" ht="11.25" customHeight="1">
+    <row r="106" spans="1:10" s="195" customFormat="1" ht="11.25" customHeight="1">
       <c r="A106" s="387" t="s">
-        <v>478</v>
-      </c>
-      <c r="B106" s="250"/>
-      <c r="C106" s="251" t="s">
-        <v>469</v>
-      </c>
-      <c r="D106" s="250"/>
-      <c r="E106" s="250"/>
-      <c r="F106" s="250"/>
-      <c r="G106" s="250"/>
-      <c r="H106" s="250"/>
-      <c r="I106" s="250"/>
-      <c r="J106" s="252"/>
-    </row>
-    <row r="107" spans="1:10" s="220" customFormat="1" ht="11.25" customHeight="1">
+        <v>475</v>
+      </c>
+      <c r="B106" s="248"/>
+      <c r="C106" s="249" t="s">
+        <v>466</v>
+      </c>
+      <c r="D106" s="248"/>
+      <c r="E106" s="248"/>
+      <c r="F106" s="248"/>
+      <c r="G106" s="248"/>
+      <c r="H106" s="248"/>
+      <c r="I106" s="248"/>
+      <c r="J106" s="250"/>
+    </row>
+    <row r="107" spans="1:10" s="219" customFormat="1" ht="11.25" customHeight="1">
       <c r="A107" s="388"/>
-      <c r="B107" s="223"/>
-      <c r="C107" s="224"/>
-      <c r="D107" s="223"/>
-      <c r="E107" s="223"/>
-      <c r="F107" s="223"/>
-      <c r="G107" s="223"/>
-      <c r="H107" s="223"/>
-      <c r="I107" s="223"/>
-      <c r="J107" s="225"/>
-    </row>
-    <row r="108" spans="1:10" s="220" customFormat="1" ht="11.25" customHeight="1">
+      <c r="B107" s="222"/>
+      <c r="C107" s="223"/>
+      <c r="D107" s="222"/>
+      <c r="E107" s="222"/>
+      <c r="F107" s="222"/>
+      <c r="G107" s="222"/>
+      <c r="H107" s="222"/>
+      <c r="I107" s="222"/>
+      <c r="J107" s="224"/>
+    </row>
+    <row r="108" spans="1:10" s="219" customFormat="1" ht="11.25" customHeight="1">
       <c r="A108" s="388"/>
-      <c r="B108" s="223"/>
-      <c r="C108" s="224"/>
-      <c r="D108" s="223"/>
-      <c r="E108" s="223"/>
-      <c r="F108" s="223"/>
-      <c r="G108" s="223"/>
-      <c r="H108" s="223"/>
-      <c r="I108" s="223"/>
-      <c r="J108" s="225"/>
-    </row>
-    <row r="109" spans="1:10" s="220" customFormat="1" ht="11.25" customHeight="1">
+      <c r="B108" s="222"/>
+      <c r="C108" s="223"/>
+      <c r="D108" s="222"/>
+      <c r="E108" s="222"/>
+      <c r="F108" s="222"/>
+      <c r="G108" s="222"/>
+      <c r="H108" s="222"/>
+      <c r="I108" s="222"/>
+      <c r="J108" s="224"/>
+    </row>
+    <row r="109" spans="1:10" s="219" customFormat="1" ht="11.25" customHeight="1">
       <c r="A109" s="388"/>
-      <c r="B109" s="223"/>
-      <c r="C109" s="224"/>
-      <c r="D109" s="223"/>
-      <c r="E109" s="223"/>
-      <c r="F109" s="223"/>
-      <c r="G109" s="223"/>
-      <c r="H109" s="223"/>
-      <c r="I109" s="223"/>
-      <c r="J109" s="225"/>
-    </row>
-    <row r="110" spans="1:10" s="220" customFormat="1" ht="11.25" customHeight="1">
+      <c r="B109" s="222"/>
+      <c r="C109" s="223"/>
+      <c r="D109" s="222"/>
+      <c r="E109" s="222"/>
+      <c r="F109" s="222"/>
+      <c r="G109" s="222"/>
+      <c r="H109" s="222"/>
+      <c r="I109" s="222"/>
+      <c r="J109" s="224"/>
+    </row>
+    <row r="110" spans="1:10" s="219" customFormat="1" ht="11.25" customHeight="1">
       <c r="A110" s="388"/>
-      <c r="B110" s="223"/>
-      <c r="C110" s="224"/>
-      <c r="D110" s="223"/>
-      <c r="E110" s="223"/>
-      <c r="F110" s="223"/>
-      <c r="G110" s="223"/>
-      <c r="H110" s="223"/>
-      <c r="I110" s="223"/>
-      <c r="J110" s="225"/>
-    </row>
-    <row r="111" spans="1:10" s="220" customFormat="1" ht="11.25" customHeight="1">
+      <c r="B110" s="222"/>
+      <c r="C110" s="223"/>
+      <c r="D110" s="222"/>
+      <c r="E110" s="222"/>
+      <c r="F110" s="222"/>
+      <c r="G110" s="222"/>
+      <c r="H110" s="222"/>
+      <c r="I110" s="222"/>
+      <c r="J110" s="224"/>
+    </row>
+    <row r="111" spans="1:10" s="219" customFormat="1" ht="11.25" customHeight="1">
       <c r="A111" s="388"/>
-      <c r="B111" s="223"/>
-      <c r="C111" s="224"/>
-      <c r="D111" s="223"/>
-      <c r="E111" s="223"/>
-      <c r="F111" s="223"/>
-      <c r="G111" s="223"/>
-      <c r="H111" s="223"/>
-      <c r="I111" s="223"/>
-      <c r="J111" s="225"/>
-    </row>
-    <row r="112" spans="1:10" s="220" customFormat="1" ht="11.25" customHeight="1">
+      <c r="B111" s="222"/>
+      <c r="C111" s="223"/>
+      <c r="D111" s="222"/>
+      <c r="E111" s="222"/>
+      <c r="F111" s="222"/>
+      <c r="G111" s="222"/>
+      <c r="H111" s="222"/>
+      <c r="I111" s="222"/>
+      <c r="J111" s="224"/>
+    </row>
+    <row r="112" spans="1:10" s="219" customFormat="1" ht="11.25" customHeight="1">
       <c r="A112" s="388"/>
-      <c r="B112" s="223"/>
-      <c r="C112" s="224"/>
-      <c r="D112" s="223"/>
-      <c r="E112" s="223"/>
-      <c r="F112" s="223"/>
-      <c r="G112" s="223"/>
-      <c r="H112" s="223"/>
-      <c r="I112" s="223"/>
-      <c r="J112" s="225"/>
-    </row>
-    <row r="113" spans="1:10" s="220" customFormat="1" ht="11.25" customHeight="1">
+      <c r="B112" s="222"/>
+      <c r="C112" s="223"/>
+      <c r="D112" s="222"/>
+      <c r="E112" s="222"/>
+      <c r="F112" s="222"/>
+      <c r="G112" s="222"/>
+      <c r="H112" s="222"/>
+      <c r="I112" s="222"/>
+      <c r="J112" s="224"/>
+    </row>
+    <row r="113" spans="1:10" s="219" customFormat="1" ht="11.25" customHeight="1">
       <c r="A113" s="388"/>
-      <c r="B113" s="223"/>
-      <c r="C113" s="224"/>
-      <c r="D113" s="223"/>
-      <c r="E113" s="223"/>
-      <c r="F113" s="223"/>
-      <c r="G113" s="223"/>
-      <c r="H113" s="223"/>
-      <c r="I113" s="223"/>
-      <c r="J113" s="225"/>
-    </row>
-    <row r="114" spans="1:10" s="220" customFormat="1" ht="11.25" customHeight="1">
+      <c r="B113" s="222"/>
+      <c r="C113" s="223"/>
+      <c r="D113" s="222"/>
+      <c r="E113" s="222"/>
+      <c r="F113" s="222"/>
+      <c r="G113" s="222"/>
+      <c r="H113" s="222"/>
+      <c r="I113" s="222"/>
+      <c r="J113" s="224"/>
+    </row>
+    <row r="114" spans="1:10" s="219" customFormat="1" ht="11.25" customHeight="1">
       <c r="A114" s="388"/>
-      <c r="B114" s="223"/>
-      <c r="C114" s="223"/>
-      <c r="D114" s="223"/>
-      <c r="E114" s="223"/>
-      <c r="F114" s="223"/>
-      <c r="G114" s="223"/>
-      <c r="H114" s="223"/>
-      <c r="I114" s="223"/>
-      <c r="J114" s="225"/>
-    </row>
-    <row r="115" spans="1:10" s="220" customFormat="1" ht="11.25" customHeight="1">
+      <c r="B114" s="222"/>
+      <c r="C114" s="222"/>
+      <c r="D114" s="222"/>
+      <c r="E114" s="222"/>
+      <c r="F114" s="222"/>
+      <c r="G114" s="222"/>
+      <c r="H114" s="222"/>
+      <c r="I114" s="222"/>
+      <c r="J114" s="224"/>
+    </row>
+    <row r="115" spans="1:10" s="219" customFormat="1" ht="11.25" customHeight="1">
       <c r="A115" s="388"/>
-      <c r="B115" s="223"/>
-      <c r="C115" s="223"/>
-      <c r="D115" s="223"/>
-      <c r="E115" s="223"/>
-      <c r="F115" s="223"/>
-      <c r="G115" s="223"/>
-      <c r="H115" s="223"/>
-      <c r="I115" s="223"/>
-      <c r="J115" s="225"/>
-    </row>
-    <row r="116" spans="1:10" s="220" customFormat="1" ht="11.25" customHeight="1">
+      <c r="B115" s="222"/>
+      <c r="C115" s="222"/>
+      <c r="D115" s="222"/>
+      <c r="E115" s="222"/>
+      <c r="F115" s="222"/>
+      <c r="G115" s="222"/>
+      <c r="H115" s="222"/>
+      <c r="I115" s="222"/>
+      <c r="J115" s="224"/>
+    </row>
+    <row r="116" spans="1:10" s="219" customFormat="1" ht="11.25" customHeight="1">
       <c r="A116" s="388"/>
-      <c r="B116" s="223"/>
-      <c r="C116" s="223"/>
-      <c r="D116" s="223"/>
-      <c r="E116" s="223"/>
-      <c r="F116" s="223"/>
-      <c r="G116" s="223"/>
-      <c r="H116" s="223"/>
-      <c r="I116" s="223"/>
-      <c r="J116" s="225"/>
-    </row>
-    <row r="117" spans="1:10" s="220" customFormat="1" ht="11.25" customHeight="1">
+      <c r="B116" s="222"/>
+      <c r="C116" s="222"/>
+      <c r="D116" s="222"/>
+      <c r="E116" s="222"/>
+      <c r="F116" s="222"/>
+      <c r="G116" s="222"/>
+      <c r="H116" s="222"/>
+      <c r="I116" s="222"/>
+      <c r="J116" s="224"/>
+    </row>
+    <row r="117" spans="1:10" s="219" customFormat="1" ht="11.25" customHeight="1">
       <c r="A117" s="388"/>
-      <c r="B117" s="223"/>
-      <c r="C117" s="223"/>
-      <c r="D117" s="223"/>
-      <c r="E117" s="223"/>
-      <c r="F117" s="223"/>
-      <c r="G117" s="223"/>
-      <c r="H117" s="223"/>
-      <c r="I117" s="223"/>
-      <c r="J117" s="225"/>
-    </row>
-    <row r="118" spans="1:10" s="220" customFormat="1" ht="11.25" customHeight="1">
+      <c r="B117" s="222"/>
+      <c r="C117" s="222"/>
+      <c r="D117" s="222"/>
+      <c r="E117" s="222"/>
+      <c r="F117" s="222"/>
+      <c r="G117" s="222"/>
+      <c r="H117" s="222"/>
+      <c r="I117" s="222"/>
+      <c r="J117" s="224"/>
+    </row>
+    <row r="118" spans="1:10" s="219" customFormat="1" ht="11.25" customHeight="1">
       <c r="A118" s="389"/>
-      <c r="B118" s="223"/>
-      <c r="C118" s="223"/>
-      <c r="D118" s="223"/>
-      <c r="E118" s="223"/>
-      <c r="F118" s="223"/>
-      <c r="G118" s="223"/>
-      <c r="H118" s="223"/>
-      <c r="I118" s="223"/>
-      <c r="J118" s="225"/>
+      <c r="B118" s="222"/>
+      <c r="C118" s="222"/>
+      <c r="D118" s="222"/>
+      <c r="E118" s="222"/>
+      <c r="F118" s="222"/>
+      <c r="G118" s="222"/>
+      <c r="H118" s="222"/>
+      <c r="I118" s="222"/>
+      <c r="J118" s="224"/>
     </row>
     <row r="119" spans="1:10" ht="11.25" customHeight="1">
       <c r="A119" s="63"/>
@@ -17870,77 +17875,77 @@
       <c r="I119" s="39"/>
       <c r="J119" s="42"/>
     </row>
-    <row r="120" spans="1:10" s="196" customFormat="1" ht="11.25" customHeight="1">
+    <row r="120" spans="1:10" s="195" customFormat="1" ht="11.25" customHeight="1">
       <c r="A120" s="387" t="s">
-        <v>478</v>
-      </c>
-      <c r="B120" s="250"/>
-      <c r="C120" s="251" t="s">
+        <v>475</v>
+      </c>
+      <c r="B120" s="248"/>
+      <c r="C120" s="249" t="s">
+        <v>467</v>
+      </c>
+      <c r="D120" s="248"/>
+      <c r="E120" s="248"/>
+      <c r="F120" s="248"/>
+      <c r="G120" s="248"/>
+      <c r="H120" s="248"/>
+      <c r="I120" s="248"/>
+      <c r="J120" s="250"/>
+    </row>
+    <row r="121" spans="1:10" s="195" customFormat="1" ht="11.25" customHeight="1">
+      <c r="A121" s="388"/>
+      <c r="B121" s="248"/>
+      <c r="C121" s="248" t="s">
+        <v>468</v>
+      </c>
+      <c r="D121" s="248"/>
+      <c r="E121" s="248"/>
+      <c r="F121" s="248"/>
+      <c r="G121" s="248"/>
+      <c r="H121" s="248"/>
+      <c r="I121" s="248"/>
+      <c r="J121" s="250"/>
+    </row>
+    <row r="122" spans="1:10" s="195" customFormat="1" ht="11.25" customHeight="1">
+      <c r="A122" s="389"/>
+      <c r="B122" s="248"/>
+      <c r="C122" s="248" t="s">
+        <v>469</v>
+      </c>
+      <c r="D122" s="248"/>
+      <c r="E122" s="248"/>
+      <c r="F122" s="248"/>
+      <c r="G122" s="248"/>
+      <c r="H122" s="248"/>
+      <c r="I122" s="248"/>
+      <c r="J122" s="250"/>
+    </row>
+    <row r="123" spans="1:10" s="261" customFormat="1" ht="11.25" customHeight="1">
+      <c r="A123" s="258"/>
+      <c r="B123" s="259"/>
+      <c r="C123" s="259"/>
+      <c r="D123" s="259"/>
+      <c r="E123" s="259"/>
+      <c r="F123" s="259"/>
+      <c r="G123" s="259"/>
+      <c r="H123" s="259"/>
+      <c r="I123" s="259"/>
+      <c r="J123" s="260"/>
+    </row>
+    <row r="124" spans="1:10" s="257" customFormat="1" ht="26.25" customHeight="1">
+      <c r="A124" s="262" t="s">
+        <v>475</v>
+      </c>
+      <c r="B124" s="254"/>
+      <c r="C124" s="255" t="s">
         <v>470</v>
       </c>
-      <c r="D120" s="250"/>
-      <c r="E120" s="250"/>
-      <c r="F120" s="250"/>
-      <c r="G120" s="250"/>
-      <c r="H120" s="250"/>
-      <c r="I120" s="250"/>
-      <c r="J120" s="252"/>
-    </row>
-    <row r="121" spans="1:10" s="196" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A121" s="388"/>
-      <c r="B121" s="250"/>
-      <c r="C121" s="250" t="s">
-        <v>471</v>
-      </c>
-      <c r="D121" s="250"/>
-      <c r="E121" s="250"/>
-      <c r="F121" s="250"/>
-      <c r="G121" s="250"/>
-      <c r="H121" s="250"/>
-      <c r="I121" s="250"/>
-      <c r="J121" s="252"/>
-    </row>
-    <row r="122" spans="1:10" s="196" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A122" s="389"/>
-      <c r="B122" s="250"/>
-      <c r="C122" s="250" t="s">
-        <v>472</v>
-      </c>
-      <c r="D122" s="250"/>
-      <c r="E122" s="250"/>
-      <c r="F122" s="250"/>
-      <c r="G122" s="250"/>
-      <c r="H122" s="250"/>
-      <c r="I122" s="250"/>
-      <c r="J122" s="252"/>
-    </row>
-    <row r="123" spans="1:10" s="263" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A123" s="260"/>
-      <c r="B123" s="261"/>
-      <c r="C123" s="261"/>
-      <c r="D123" s="261"/>
-      <c r="E123" s="261"/>
-      <c r="F123" s="261"/>
-      <c r="G123" s="261"/>
-      <c r="H123" s="261"/>
-      <c r="I123" s="261"/>
-      <c r="J123" s="262"/>
-    </row>
-    <row r="124" spans="1:10" s="259" customFormat="1" ht="26.25" customHeight="1">
-      <c r="A124" s="264" t="s">
-        <v>478</v>
-      </c>
-      <c r="B124" s="256"/>
-      <c r="C124" s="257" t="s">
-        <v>473</v>
-      </c>
-      <c r="D124" s="256"/>
-      <c r="E124" s="256"/>
-      <c r="F124" s="256"/>
-      <c r="G124" s="256"/>
-      <c r="H124" s="256"/>
-      <c r="I124" s="256"/>
-      <c r="J124" s="258"/>
+      <c r="D124" s="254"/>
+      <c r="E124" s="254"/>
+      <c r="F124" s="254"/>
+      <c r="G124" s="254"/>
+      <c r="H124" s="254"/>
+      <c r="I124" s="254"/>
+      <c r="J124" s="256"/>
     </row>
     <row r="125" spans="1:10" ht="11.25" customHeight="1">
       <c r="A125" s="63"/>

--- a/2018/CRM/03_DetailDesign/CRMF2082_Xem chi tiet yeu cau.xlsx
+++ b/2018/CRM/03_DetailDesign/CRMF2082_Xem chi tiet yeu cau.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="15480" windowHeight="9990" tabRatio="836" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="15480" windowHeight="9990" tabRatio="836" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Coverpage" sheetId="20" r:id="rId1"/>
@@ -45,11 +45,11 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">Coverpage!$A$1:$J$31</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">'Data Definition'!$A$1:$K$14</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">'Data Input'!$A$1:$P$34</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="7">'Form Func Spec'!$A$1:$J$152</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="7">'Form Func Spec'!$A$1:$J$156</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="8">'Func Spec'!$A$1:$J$21</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="9">Help!$A$1:$K$62</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'Input Check'!$A$1:$J$14</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'Item Screen'!$A$1:$P$80</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'Item Screen'!$A$1:$P$81</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'Layout Screen'!$A$1:$J$52</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Update History'!$A$1:$J$34</definedName>
     <definedName name="RB">#REF!</definedName>
@@ -1419,7 +1419,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1014" uniqueCount="479">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="487">
   <si>
     <t>Detail Design</t>
   </si>
@@ -3257,6 +3257,32 @@
   @DurationTime 
   @RealTime
   @ProjectID</t>
+  </si>
+  <si>
+    <t>-STT yêu cầu là : 10
+- Bổ sung chức năng gửi email cho KH khi trạng thái là Complete</t>
+  </si>
+  <si>
+    <t>12.2</t>
+  </si>
+  <si>
+    <t>Ver 8.0</t>
+  </si>
+  <si>
+    <t>Gửi email cho khách hàng</t>
+  </si>
+  <si>
+    <t>SendEmail</t>
+  </si>
+  <si>
+    <t>Mặc định là Hide. Khi RequestStatus chuyển sang Complete thì mới Unhide</t>
+  </si>
+  <si>
+    <t>Click btnSendEmail :
+Truyền tham số @RequestID đến màn hình  CRMF2061</t>
+  </si>
+  <si>
+    <t>Click btnSendEmail</t>
   </si>
 </sst>
 </file>
@@ -3811,7 +3837,7 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="397">
+  <cellXfs count="417">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4477,75 +4503,129 @@
     <xf numFmtId="0" fontId="31" fillId="9" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="25" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="25" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="25" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="25" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="25" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="25" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="8" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="31" fillId="9" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -4564,60 +4644,6 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="8" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4678,6 +4704,42 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -4693,41 +4755,65 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="11" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="31" fillId="9" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="9" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="9" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -4774,65 +4860,14 @@
     <xf numFmtId="0" fontId="31" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="11" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="9" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="9" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="9" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4852,15 +4887,6 @@
     <xf numFmtId="0" fontId="33" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4872,6 +4898,54 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="31" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="31" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="10" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -4889,8 +4963,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF808080"/>
       <color rgb="FF00FF00"/>
-      <color rgb="FF808080"/>
       <color rgb="FF0000FF"/>
       <color rgb="FFFF00FF"/>
       <color rgb="FF00FFFF"/>
@@ -9509,65 +9583,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="27" customHeight="1">
-      <c r="A1" s="276"/>
-      <c r="B1" s="276"/>
-      <c r="C1" s="278" t="s">
+      <c r="A1" s="270"/>
+      <c r="B1" s="270"/>
+      <c r="C1" s="272" t="s">
         <v>152</v>
       </c>
-      <c r="D1" s="279"/>
-      <c r="E1" s="279"/>
-      <c r="F1" s="280"/>
-      <c r="G1" s="277" t="s">
+      <c r="D1" s="273"/>
+      <c r="E1" s="273"/>
+      <c r="F1" s="274"/>
+      <c r="G1" s="271" t="s">
         <v>148</v>
       </c>
-      <c r="H1" s="277"/>
-      <c r="I1" s="277" t="s">
+      <c r="H1" s="271"/>
+      <c r="I1" s="271" t="s">
         <v>149</v>
       </c>
-      <c r="J1" s="277"/>
+      <c r="J1" s="271"/>
     </row>
     <row r="2" spans="1:18" ht="23.25" customHeight="1">
-      <c r="A2" s="276"/>
-      <c r="B2" s="276"/>
-      <c r="C2" s="281"/>
-      <c r="D2" s="282"/>
-      <c r="E2" s="282"/>
-      <c r="F2" s="283"/>
-      <c r="G2" s="277" t="s">
+      <c r="A2" s="270"/>
+      <c r="B2" s="270"/>
+      <c r="C2" s="275"/>
+      <c r="D2" s="276"/>
+      <c r="E2" s="276"/>
+      <c r="F2" s="277"/>
+      <c r="G2" s="271" t="s">
         <v>150</v>
       </c>
-      <c r="H2" s="277"/>
-      <c r="I2" s="277"/>
-      <c r="J2" s="277"/>
+      <c r="H2" s="271"/>
+      <c r="I2" s="271"/>
+      <c r="J2" s="271"/>
     </row>
     <row r="3" spans="1:18" ht="12.75" customHeight="1">
-      <c r="A3" s="276"/>
-      <c r="B3" s="276"/>
-      <c r="C3" s="284"/>
-      <c r="D3" s="285"/>
-      <c r="E3" s="285"/>
-      <c r="F3" s="286"/>
-      <c r="G3" s="273" t="s">
+      <c r="A3" s="270"/>
+      <c r="B3" s="270"/>
+      <c r="C3" s="278"/>
+      <c r="D3" s="279"/>
+      <c r="E3" s="279"/>
+      <c r="F3" s="280"/>
+      <c r="G3" s="267" t="s">
         <v>151</v>
       </c>
-      <c r="H3" s="274"/>
-      <c r="I3" s="273"/>
-      <c r="J3" s="274"/>
+      <c r="H3" s="268"/>
+      <c r="I3" s="267"/>
+      <c r="J3" s="268"/>
     </row>
     <row r="4" spans="1:18">
       <c r="H4" s="97"/>
     </row>
     <row r="13" spans="1:18" ht="30">
-      <c r="A13" s="275"/>
-      <c r="B13" s="275"/>
-      <c r="C13" s="275"/>
-      <c r="D13" s="275"/>
-      <c r="E13" s="275"/>
-      <c r="F13" s="275"/>
-      <c r="G13" s="275"/>
-      <c r="H13" s="275"/>
-      <c r="I13" s="275"/>
-      <c r="J13" s="275"/>
+      <c r="A13" s="269"/>
+      <c r="B13" s="269"/>
+      <c r="C13" s="269"/>
+      <c r="D13" s="269"/>
+      <c r="E13" s="269"/>
+      <c r="F13" s="269"/>
+      <c r="G13" s="269"/>
+      <c r="H13" s="269"/>
+      <c r="I13" s="269"/>
+      <c r="J13" s="269"/>
       <c r="K13" s="98"/>
       <c r="L13" s="98"/>
       <c r="M13" s="98"/>
@@ -9578,56 +9652,56 @@
       <c r="R13" s="98"/>
     </row>
     <row r="14" spans="1:18" ht="26.25">
-      <c r="B14" s="269"/>
-      <c r="C14" s="269"/>
-      <c r="D14" s="269"/>
-      <c r="E14" s="269"/>
-      <c r="F14" s="269"/>
-      <c r="G14" s="269"/>
-      <c r="H14" s="269"/>
-      <c r="I14" s="269"/>
-      <c r="J14" s="269"/>
-      <c r="K14" s="269"/>
-      <c r="L14" s="269"/>
-      <c r="M14" s="269"/>
-      <c r="N14" s="269"/>
-      <c r="O14" s="269"/>
-      <c r="P14" s="269"/>
-      <c r="Q14" s="269"/>
-      <c r="R14" s="269"/>
+      <c r="B14" s="265"/>
+      <c r="C14" s="265"/>
+      <c r="D14" s="265"/>
+      <c r="E14" s="265"/>
+      <c r="F14" s="265"/>
+      <c r="G14" s="265"/>
+      <c r="H14" s="265"/>
+      <c r="I14" s="265"/>
+      <c r="J14" s="265"/>
+      <c r="K14" s="265"/>
+      <c r="L14" s="265"/>
+      <c r="M14" s="265"/>
+      <c r="N14" s="265"/>
+      <c r="O14" s="265"/>
+      <c r="P14" s="265"/>
+      <c r="Q14" s="265"/>
+      <c r="R14" s="265"/>
     </row>
     <row r="15" spans="1:18" ht="26.25">
-      <c r="B15" s="269"/>
-      <c r="C15" s="269"/>
-      <c r="D15" s="269"/>
-      <c r="E15" s="269"/>
-      <c r="F15" s="269"/>
-      <c r="G15" s="269"/>
-      <c r="H15" s="269"/>
-      <c r="I15" s="269"/>
-      <c r="J15" s="269"/>
-      <c r="K15" s="269"/>
-      <c r="L15" s="269"/>
-      <c r="M15" s="269"/>
-      <c r="N15" s="269"/>
-      <c r="O15" s="269"/>
-      <c r="P15" s="269"/>
-      <c r="Q15" s="269"/>
-      <c r="R15" s="269"/>
+      <c r="B15" s="265"/>
+      <c r="C15" s="265"/>
+      <c r="D15" s="265"/>
+      <c r="E15" s="265"/>
+      <c r="F15" s="265"/>
+      <c r="G15" s="265"/>
+      <c r="H15" s="265"/>
+      <c r="I15" s="265"/>
+      <c r="J15" s="265"/>
+      <c r="K15" s="265"/>
+      <c r="L15" s="265"/>
+      <c r="M15" s="265"/>
+      <c r="N15" s="265"/>
+      <c r="O15" s="265"/>
+      <c r="P15" s="265"/>
+      <c r="Q15" s="265"/>
+      <c r="R15" s="265"/>
     </row>
     <row r="16" spans="1:18" ht="26.25">
-      <c r="A16" s="272" t="s">
+      <c r="A16" s="266" t="s">
         <v>152</v>
       </c>
-      <c r="B16" s="272"/>
-      <c r="C16" s="272"/>
-      <c r="D16" s="272"/>
-      <c r="E16" s="272"/>
-      <c r="F16" s="272"/>
-      <c r="G16" s="272"/>
-      <c r="H16" s="272"/>
-      <c r="I16" s="272"/>
-      <c r="J16" s="272"/>
+      <c r="B16" s="266"/>
+      <c r="C16" s="266"/>
+      <c r="D16" s="266"/>
+      <c r="E16" s="266"/>
+      <c r="F16" s="266"/>
+      <c r="G16" s="266"/>
+      <c r="H16" s="266"/>
+      <c r="I16" s="266"/>
+      <c r="J16" s="266"/>
       <c r="K16" s="99"/>
       <c r="L16" s="99"/>
       <c r="M16" s="99"/>
@@ -9638,384 +9712,384 @@
       <c r="R16" s="99"/>
     </row>
     <row r="17" spans="1:195" ht="14.1" customHeight="1">
-      <c r="B17" s="269"/>
-      <c r="C17" s="269"/>
-      <c r="D17" s="269"/>
-      <c r="E17" s="269"/>
-      <c r="F17" s="269"/>
-      <c r="G17" s="269"/>
-      <c r="H17" s="269"/>
-      <c r="I17" s="269"/>
-      <c r="J17" s="269"/>
-      <c r="K17" s="269"/>
-      <c r="L17" s="269"/>
-      <c r="M17" s="269"/>
-      <c r="N17" s="269"/>
-      <c r="O17" s="269"/>
-      <c r="P17" s="269"/>
-      <c r="Q17" s="269"/>
-      <c r="R17" s="269"/>
+      <c r="B17" s="265"/>
+      <c r="C17" s="265"/>
+      <c r="D17" s="265"/>
+      <c r="E17" s="265"/>
+      <c r="F17" s="265"/>
+      <c r="G17" s="265"/>
+      <c r="H17" s="265"/>
+      <c r="I17" s="265"/>
+      <c r="J17" s="265"/>
+      <c r="K17" s="265"/>
+      <c r="L17" s="265"/>
+      <c r="M17" s="265"/>
+      <c r="N17" s="265"/>
+      <c r="O17" s="265"/>
+      <c r="P17" s="265"/>
+      <c r="Q17" s="265"/>
+      <c r="R17" s="265"/>
     </row>
     <row r="18" spans="1:195" ht="26.25">
-      <c r="B18" s="269"/>
-      <c r="C18" s="269"/>
-      <c r="D18" s="269"/>
-      <c r="E18" s="269"/>
-      <c r="F18" s="269"/>
-      <c r="G18" s="269"/>
-      <c r="H18" s="269"/>
-      <c r="I18" s="269"/>
-      <c r="J18" s="269"/>
-      <c r="K18" s="269"/>
-      <c r="L18" s="269"/>
-      <c r="M18" s="269"/>
-      <c r="N18" s="269"/>
-      <c r="O18" s="269"/>
-      <c r="P18" s="269"/>
-      <c r="Q18" s="269"/>
-      <c r="R18" s="269"/>
+      <c r="B18" s="265"/>
+      <c r="C18" s="265"/>
+      <c r="D18" s="265"/>
+      <c r="E18" s="265"/>
+      <c r="F18" s="265"/>
+      <c r="G18" s="265"/>
+      <c r="H18" s="265"/>
+      <c r="I18" s="265"/>
+      <c r="J18" s="265"/>
+      <c r="K18" s="265"/>
+      <c r="L18" s="265"/>
+      <c r="M18" s="265"/>
+      <c r="N18" s="265"/>
+      <c r="O18" s="265"/>
+      <c r="P18" s="265"/>
+      <c r="Q18" s="265"/>
+      <c r="R18" s="265"/>
     </row>
     <row r="19" spans="1:195" ht="23.25">
-      <c r="B19" s="271"/>
-      <c r="C19" s="271"/>
-      <c r="D19" s="271"/>
-      <c r="E19" s="271"/>
-      <c r="F19" s="271"/>
-      <c r="G19" s="271"/>
-      <c r="H19" s="271"/>
-      <c r="I19" s="271"/>
-      <c r="J19" s="271"/>
-      <c r="K19" s="271"/>
-      <c r="L19" s="271"/>
-      <c r="M19" s="271"/>
-      <c r="N19" s="271"/>
-      <c r="O19" s="271"/>
-      <c r="P19" s="271"/>
-      <c r="Q19" s="271"/>
-      <c r="R19" s="271"/>
+      <c r="B19" s="282"/>
+      <c r="C19" s="282"/>
+      <c r="D19" s="282"/>
+      <c r="E19" s="282"/>
+      <c r="F19" s="282"/>
+      <c r="G19" s="282"/>
+      <c r="H19" s="282"/>
+      <c r="I19" s="282"/>
+      <c r="J19" s="282"/>
+      <c r="K19" s="282"/>
+      <c r="L19" s="282"/>
+      <c r="M19" s="282"/>
+      <c r="N19" s="282"/>
+      <c r="O19" s="282"/>
+      <c r="P19" s="282"/>
+      <c r="Q19" s="282"/>
+      <c r="R19" s="282"/>
     </row>
     <row r="20" spans="1:195" ht="26.25">
-      <c r="B20" s="269"/>
-      <c r="C20" s="269"/>
-      <c r="D20" s="269"/>
-      <c r="E20" s="269"/>
-      <c r="F20" s="269"/>
-      <c r="G20" s="269"/>
-      <c r="H20" s="269"/>
-      <c r="I20" s="269"/>
-      <c r="J20" s="269"/>
-      <c r="K20" s="269"/>
-      <c r="L20" s="269"/>
-      <c r="M20" s="269"/>
-      <c r="N20" s="269"/>
-      <c r="O20" s="269"/>
-      <c r="P20" s="269"/>
-      <c r="Q20" s="269"/>
-      <c r="R20" s="269"/>
+      <c r="B20" s="265"/>
+      <c r="C20" s="265"/>
+      <c r="D20" s="265"/>
+      <c r="E20" s="265"/>
+      <c r="F20" s="265"/>
+      <c r="G20" s="265"/>
+      <c r="H20" s="265"/>
+      <c r="I20" s="265"/>
+      <c r="J20" s="265"/>
+      <c r="K20" s="265"/>
+      <c r="L20" s="265"/>
+      <c r="M20" s="265"/>
+      <c r="N20" s="265"/>
+      <c r="O20" s="265"/>
+      <c r="P20" s="265"/>
+      <c r="Q20" s="265"/>
+      <c r="R20" s="265"/>
     </row>
     <row r="21" spans="1:195" ht="26.25">
-      <c r="B21" s="269"/>
-      <c r="C21" s="269"/>
-      <c r="D21" s="269"/>
-      <c r="E21" s="269"/>
-      <c r="F21" s="269"/>
-      <c r="G21" s="269"/>
-      <c r="H21" s="269"/>
-      <c r="I21" s="269"/>
-      <c r="J21" s="269"/>
-      <c r="K21" s="269"/>
-      <c r="L21" s="269"/>
-      <c r="M21" s="269"/>
-      <c r="N21" s="269"/>
-      <c r="O21" s="269"/>
-      <c r="P21" s="269"/>
-      <c r="Q21" s="269"/>
-      <c r="R21" s="269"/>
+      <c r="B21" s="265"/>
+      <c r="C21" s="265"/>
+      <c r="D21" s="265"/>
+      <c r="E21" s="265"/>
+      <c r="F21" s="265"/>
+      <c r="G21" s="265"/>
+      <c r="H21" s="265"/>
+      <c r="I21" s="265"/>
+      <c r="J21" s="265"/>
+      <c r="K21" s="265"/>
+      <c r="L21" s="265"/>
+      <c r="M21" s="265"/>
+      <c r="N21" s="265"/>
+      <c r="O21" s="265"/>
+      <c r="P21" s="265"/>
+      <c r="Q21" s="265"/>
+      <c r="R21" s="265"/>
     </row>
     <row r="22" spans="1:195" ht="25.5">
-      <c r="B22" s="270"/>
-      <c r="C22" s="270"/>
-      <c r="D22" s="270"/>
-      <c r="E22" s="270"/>
-      <c r="F22" s="270"/>
-      <c r="G22" s="270"/>
-      <c r="H22" s="270"/>
-      <c r="I22" s="270"/>
-      <c r="J22" s="270"/>
-      <c r="K22" s="270"/>
-      <c r="L22" s="270"/>
-      <c r="M22" s="270"/>
-      <c r="N22" s="270"/>
-      <c r="O22" s="270"/>
-      <c r="P22" s="270"/>
-      <c r="Q22" s="270"/>
-      <c r="R22" s="270"/>
+      <c r="B22" s="281"/>
+      <c r="C22" s="281"/>
+      <c r="D22" s="281"/>
+      <c r="E22" s="281"/>
+      <c r="F22" s="281"/>
+      <c r="G22" s="281"/>
+      <c r="H22" s="281"/>
+      <c r="I22" s="281"/>
+      <c r="J22" s="281"/>
+      <c r="K22" s="281"/>
+      <c r="L22" s="281"/>
+      <c r="M22" s="281"/>
+      <c r="N22" s="281"/>
+      <c r="O22" s="281"/>
+      <c r="P22" s="281"/>
+      <c r="Q22" s="281"/>
+      <c r="R22" s="281"/>
     </row>
     <row r="23" spans="1:195" ht="25.5">
-      <c r="B23" s="270"/>
-      <c r="C23" s="270"/>
-      <c r="D23" s="270"/>
-      <c r="E23" s="270"/>
-      <c r="F23" s="270"/>
-      <c r="G23" s="270"/>
-      <c r="H23" s="270"/>
-      <c r="I23" s="270"/>
-      <c r="J23" s="270"/>
-      <c r="K23" s="270"/>
-      <c r="L23" s="270"/>
-      <c r="M23" s="270"/>
-      <c r="N23" s="270"/>
-      <c r="O23" s="270"/>
-      <c r="P23" s="270"/>
-      <c r="Q23" s="270"/>
-      <c r="R23" s="270"/>
+      <c r="B23" s="281"/>
+      <c r="C23" s="281"/>
+      <c r="D23" s="281"/>
+      <c r="E23" s="281"/>
+      <c r="F23" s="281"/>
+      <c r="G23" s="281"/>
+      <c r="H23" s="281"/>
+      <c r="I23" s="281"/>
+      <c r="J23" s="281"/>
+      <c r="K23" s="281"/>
+      <c r="L23" s="281"/>
+      <c r="M23" s="281"/>
+      <c r="N23" s="281"/>
+      <c r="O23" s="281"/>
+      <c r="P23" s="281"/>
+      <c r="Q23" s="281"/>
+      <c r="R23" s="281"/>
     </row>
     <row r="25" spans="1:195" ht="11.25" customHeight="1"/>
     <row r="26" spans="1:195" ht="18">
-      <c r="B26" s="267"/>
-      <c r="C26" s="267"/>
-      <c r="D26" s="267"/>
-      <c r="E26" s="267"/>
-      <c r="F26" s="267"/>
-      <c r="G26" s="267"/>
-      <c r="H26" s="267"/>
-      <c r="I26" s="267"/>
-      <c r="J26" s="267"/>
-      <c r="K26" s="267"/>
-      <c r="L26" s="267"/>
-      <c r="M26" s="267"/>
-      <c r="N26" s="267"/>
-      <c r="O26" s="267"/>
-      <c r="P26" s="267"/>
-      <c r="Q26" s="267"/>
-      <c r="R26" s="267"/>
+      <c r="B26" s="283"/>
+      <c r="C26" s="283"/>
+      <c r="D26" s="283"/>
+      <c r="E26" s="283"/>
+      <c r="F26" s="283"/>
+      <c r="G26" s="283"/>
+      <c r="H26" s="283"/>
+      <c r="I26" s="283"/>
+      <c r="J26" s="283"/>
+      <c r="K26" s="283"/>
+      <c r="L26" s="283"/>
+      <c r="M26" s="283"/>
+      <c r="N26" s="283"/>
+      <c r="O26" s="283"/>
+      <c r="P26" s="283"/>
+      <c r="Q26" s="283"/>
+      <c r="R26" s="283"/>
     </row>
     <row r="28" spans="1:195" ht="18">
-      <c r="B28" s="268"/>
-      <c r="C28" s="268"/>
-      <c r="D28" s="268"/>
-      <c r="E28" s="268"/>
-      <c r="F28" s="268"/>
-      <c r="G28" s="268"/>
-      <c r="H28" s="268"/>
-      <c r="I28" s="268"/>
-      <c r="J28" s="268"/>
-      <c r="K28" s="268"/>
-      <c r="L28" s="268"/>
-      <c r="M28" s="268"/>
-      <c r="N28" s="268"/>
-      <c r="O28" s="268"/>
-      <c r="P28" s="268"/>
-      <c r="Q28" s="268"/>
-      <c r="R28" s="268"/>
-      <c r="S28" s="266"/>
-      <c r="T28" s="266"/>
-      <c r="U28" s="266"/>
-      <c r="V28" s="266"/>
-      <c r="W28" s="266"/>
-      <c r="X28" s="266"/>
-      <c r="Y28" s="266"/>
-      <c r="Z28" s="266"/>
-      <c r="AA28" s="266"/>
-      <c r="AB28" s="266"/>
-      <c r="AC28" s="266"/>
-      <c r="AD28" s="266"/>
-      <c r="AE28" s="266"/>
-      <c r="AF28" s="266"/>
-      <c r="AG28" s="266"/>
-      <c r="AH28" s="266"/>
-      <c r="AI28" s="266"/>
-      <c r="AJ28" s="266"/>
-      <c r="AK28" s="266"/>
-      <c r="AL28" s="266"/>
-      <c r="AM28" s="266"/>
-      <c r="AN28" s="266"/>
-      <c r="AO28" s="266"/>
-      <c r="AP28" s="266"/>
-      <c r="AQ28" s="266"/>
-      <c r="AR28" s="266"/>
-      <c r="AS28" s="266"/>
-      <c r="AT28" s="266"/>
-      <c r="AU28" s="266"/>
-      <c r="AV28" s="266"/>
-      <c r="AW28" s="266"/>
-      <c r="AX28" s="266"/>
-      <c r="AY28" s="266"/>
-      <c r="AZ28" s="266"/>
-      <c r="BA28" s="266"/>
-      <c r="BB28" s="266"/>
-      <c r="BC28" s="266"/>
-      <c r="BD28" s="266"/>
-      <c r="BE28" s="266"/>
-      <c r="BF28" s="266"/>
-      <c r="BG28" s="266"/>
-      <c r="BH28" s="266"/>
-      <c r="BI28" s="266"/>
-      <c r="BJ28" s="266"/>
-      <c r="BK28" s="266"/>
-      <c r="BL28" s="266"/>
-      <c r="BM28" s="266"/>
-      <c r="BN28" s="266"/>
-      <c r="BO28" s="266"/>
-      <c r="BP28" s="266"/>
-      <c r="BQ28" s="266"/>
-      <c r="BR28" s="266"/>
-      <c r="BS28" s="266"/>
-      <c r="BT28" s="266"/>
-      <c r="BU28" s="266"/>
-      <c r="BV28" s="266"/>
-      <c r="BW28" s="266"/>
-      <c r="BX28" s="266"/>
-      <c r="BY28" s="266"/>
-      <c r="BZ28" s="266"/>
-      <c r="CA28" s="266"/>
-      <c r="CB28" s="266"/>
-      <c r="CC28" s="266"/>
-      <c r="CD28" s="266"/>
-      <c r="CE28" s="266"/>
-      <c r="CF28" s="266"/>
-      <c r="CG28" s="266"/>
-      <c r="CH28" s="266"/>
-      <c r="CI28" s="266"/>
-      <c r="CJ28" s="266"/>
-      <c r="CK28" s="266"/>
-      <c r="CL28" s="266"/>
-      <c r="CM28" s="266"/>
-      <c r="CN28" s="266"/>
-      <c r="CO28" s="266"/>
-      <c r="CP28" s="266"/>
-      <c r="CQ28" s="266"/>
-      <c r="CR28" s="266"/>
-      <c r="CS28" s="266"/>
-      <c r="CT28" s="266"/>
-      <c r="CU28" s="266"/>
-      <c r="CV28" s="266"/>
-      <c r="CW28" s="266"/>
-      <c r="CX28" s="266"/>
-      <c r="CY28" s="266"/>
-      <c r="CZ28" s="266"/>
-      <c r="DA28" s="266"/>
-      <c r="DB28" s="266"/>
-      <c r="DC28" s="266"/>
-      <c r="DD28" s="266"/>
-      <c r="DE28" s="266"/>
-      <c r="DF28" s="266"/>
-      <c r="DG28" s="266"/>
-      <c r="DH28" s="266"/>
-      <c r="DI28" s="266"/>
-      <c r="DJ28" s="266"/>
-      <c r="DK28" s="266"/>
-      <c r="DL28" s="266"/>
-      <c r="DM28" s="266"/>
-      <c r="DN28" s="266"/>
-      <c r="DO28" s="266"/>
-      <c r="DP28" s="266"/>
-      <c r="DQ28" s="266"/>
-      <c r="DR28" s="266"/>
-      <c r="DS28" s="266"/>
-      <c r="DT28" s="266"/>
-      <c r="DU28" s="266"/>
-      <c r="DV28" s="266"/>
-      <c r="DW28" s="266"/>
-      <c r="DX28" s="266"/>
-      <c r="DY28" s="266"/>
-      <c r="DZ28" s="266"/>
-      <c r="EA28" s="266"/>
-      <c r="EB28" s="266"/>
-      <c r="EC28" s="266"/>
-      <c r="ED28" s="266"/>
-      <c r="EE28" s="266"/>
-      <c r="EF28" s="266"/>
-      <c r="EG28" s="266"/>
-      <c r="EH28" s="266"/>
-      <c r="EI28" s="266"/>
-      <c r="EJ28" s="266"/>
-      <c r="EK28" s="266"/>
-      <c r="EL28" s="266"/>
-      <c r="EM28" s="266"/>
-      <c r="EN28" s="266"/>
-      <c r="EO28" s="266"/>
-      <c r="EP28" s="266"/>
-      <c r="EQ28" s="266"/>
-      <c r="ER28" s="266"/>
-      <c r="ES28" s="266"/>
-      <c r="ET28" s="266"/>
-      <c r="EU28" s="266"/>
-      <c r="EV28" s="266"/>
-      <c r="EW28" s="266"/>
-      <c r="EX28" s="266"/>
-      <c r="EY28" s="266"/>
-      <c r="EZ28" s="266"/>
-      <c r="FA28" s="266"/>
-      <c r="FB28" s="266"/>
-      <c r="FC28" s="266"/>
-      <c r="FD28" s="266"/>
-      <c r="FE28" s="266"/>
-      <c r="FF28" s="266"/>
-      <c r="FG28" s="266"/>
-      <c r="FH28" s="266"/>
-      <c r="FI28" s="266"/>
-      <c r="FJ28" s="266"/>
-      <c r="FK28" s="266"/>
-      <c r="FL28" s="266"/>
-      <c r="FM28" s="266"/>
-      <c r="FN28" s="266"/>
-      <c r="FO28" s="266"/>
-      <c r="FP28" s="266"/>
-      <c r="FQ28" s="266"/>
-      <c r="FR28" s="266"/>
-      <c r="FS28" s="266"/>
-      <c r="FT28" s="266"/>
-      <c r="FU28" s="266"/>
-      <c r="FV28" s="266"/>
-      <c r="FW28" s="266"/>
-      <c r="FX28" s="266"/>
-      <c r="FY28" s="266"/>
-      <c r="FZ28" s="266"/>
-      <c r="GA28" s="266"/>
-      <c r="GB28" s="266"/>
-      <c r="GC28" s="266"/>
-      <c r="GD28" s="266"/>
-      <c r="GE28" s="266"/>
-      <c r="GF28" s="266"/>
-      <c r="GG28" s="266"/>
-      <c r="GH28" s="266"/>
-      <c r="GI28" s="266"/>
-      <c r="GJ28" s="266"/>
-      <c r="GK28" s="266"/>
-      <c r="GL28" s="266"/>
+      <c r="B28" s="285"/>
+      <c r="C28" s="285"/>
+      <c r="D28" s="285"/>
+      <c r="E28" s="285"/>
+      <c r="F28" s="285"/>
+      <c r="G28" s="285"/>
+      <c r="H28" s="285"/>
+      <c r="I28" s="285"/>
+      <c r="J28" s="285"/>
+      <c r="K28" s="285"/>
+      <c r="L28" s="285"/>
+      <c r="M28" s="285"/>
+      <c r="N28" s="285"/>
+      <c r="O28" s="285"/>
+      <c r="P28" s="285"/>
+      <c r="Q28" s="285"/>
+      <c r="R28" s="285"/>
+      <c r="S28" s="284"/>
+      <c r="T28" s="284"/>
+      <c r="U28" s="284"/>
+      <c r="V28" s="284"/>
+      <c r="W28" s="284"/>
+      <c r="X28" s="284"/>
+      <c r="Y28" s="284"/>
+      <c r="Z28" s="284"/>
+      <c r="AA28" s="284"/>
+      <c r="AB28" s="284"/>
+      <c r="AC28" s="284"/>
+      <c r="AD28" s="284"/>
+      <c r="AE28" s="284"/>
+      <c r="AF28" s="284"/>
+      <c r="AG28" s="284"/>
+      <c r="AH28" s="284"/>
+      <c r="AI28" s="284"/>
+      <c r="AJ28" s="284"/>
+      <c r="AK28" s="284"/>
+      <c r="AL28" s="284"/>
+      <c r="AM28" s="284"/>
+      <c r="AN28" s="284"/>
+      <c r="AO28" s="284"/>
+      <c r="AP28" s="284"/>
+      <c r="AQ28" s="284"/>
+      <c r="AR28" s="284"/>
+      <c r="AS28" s="284"/>
+      <c r="AT28" s="284"/>
+      <c r="AU28" s="284"/>
+      <c r="AV28" s="284"/>
+      <c r="AW28" s="284"/>
+      <c r="AX28" s="284"/>
+      <c r="AY28" s="284"/>
+      <c r="AZ28" s="284"/>
+      <c r="BA28" s="284"/>
+      <c r="BB28" s="284"/>
+      <c r="BC28" s="284"/>
+      <c r="BD28" s="284"/>
+      <c r="BE28" s="284"/>
+      <c r="BF28" s="284"/>
+      <c r="BG28" s="284"/>
+      <c r="BH28" s="284"/>
+      <c r="BI28" s="284"/>
+      <c r="BJ28" s="284"/>
+      <c r="BK28" s="284"/>
+      <c r="BL28" s="284"/>
+      <c r="BM28" s="284"/>
+      <c r="BN28" s="284"/>
+      <c r="BO28" s="284"/>
+      <c r="BP28" s="284"/>
+      <c r="BQ28" s="284"/>
+      <c r="BR28" s="284"/>
+      <c r="BS28" s="284"/>
+      <c r="BT28" s="284"/>
+      <c r="BU28" s="284"/>
+      <c r="BV28" s="284"/>
+      <c r="BW28" s="284"/>
+      <c r="BX28" s="284"/>
+      <c r="BY28" s="284"/>
+      <c r="BZ28" s="284"/>
+      <c r="CA28" s="284"/>
+      <c r="CB28" s="284"/>
+      <c r="CC28" s="284"/>
+      <c r="CD28" s="284"/>
+      <c r="CE28" s="284"/>
+      <c r="CF28" s="284"/>
+      <c r="CG28" s="284"/>
+      <c r="CH28" s="284"/>
+      <c r="CI28" s="284"/>
+      <c r="CJ28" s="284"/>
+      <c r="CK28" s="284"/>
+      <c r="CL28" s="284"/>
+      <c r="CM28" s="284"/>
+      <c r="CN28" s="284"/>
+      <c r="CO28" s="284"/>
+      <c r="CP28" s="284"/>
+      <c r="CQ28" s="284"/>
+      <c r="CR28" s="284"/>
+      <c r="CS28" s="284"/>
+      <c r="CT28" s="284"/>
+      <c r="CU28" s="284"/>
+      <c r="CV28" s="284"/>
+      <c r="CW28" s="284"/>
+      <c r="CX28" s="284"/>
+      <c r="CY28" s="284"/>
+      <c r="CZ28" s="284"/>
+      <c r="DA28" s="284"/>
+      <c r="DB28" s="284"/>
+      <c r="DC28" s="284"/>
+      <c r="DD28" s="284"/>
+      <c r="DE28" s="284"/>
+      <c r="DF28" s="284"/>
+      <c r="DG28" s="284"/>
+      <c r="DH28" s="284"/>
+      <c r="DI28" s="284"/>
+      <c r="DJ28" s="284"/>
+      <c r="DK28" s="284"/>
+      <c r="DL28" s="284"/>
+      <c r="DM28" s="284"/>
+      <c r="DN28" s="284"/>
+      <c r="DO28" s="284"/>
+      <c r="DP28" s="284"/>
+      <c r="DQ28" s="284"/>
+      <c r="DR28" s="284"/>
+      <c r="DS28" s="284"/>
+      <c r="DT28" s="284"/>
+      <c r="DU28" s="284"/>
+      <c r="DV28" s="284"/>
+      <c r="DW28" s="284"/>
+      <c r="DX28" s="284"/>
+      <c r="DY28" s="284"/>
+      <c r="DZ28" s="284"/>
+      <c r="EA28" s="284"/>
+      <c r="EB28" s="284"/>
+      <c r="EC28" s="284"/>
+      <c r="ED28" s="284"/>
+      <c r="EE28" s="284"/>
+      <c r="EF28" s="284"/>
+      <c r="EG28" s="284"/>
+      <c r="EH28" s="284"/>
+      <c r="EI28" s="284"/>
+      <c r="EJ28" s="284"/>
+      <c r="EK28" s="284"/>
+      <c r="EL28" s="284"/>
+      <c r="EM28" s="284"/>
+      <c r="EN28" s="284"/>
+      <c r="EO28" s="284"/>
+      <c r="EP28" s="284"/>
+      <c r="EQ28" s="284"/>
+      <c r="ER28" s="284"/>
+      <c r="ES28" s="284"/>
+      <c r="ET28" s="284"/>
+      <c r="EU28" s="284"/>
+      <c r="EV28" s="284"/>
+      <c r="EW28" s="284"/>
+      <c r="EX28" s="284"/>
+      <c r="EY28" s="284"/>
+      <c r="EZ28" s="284"/>
+      <c r="FA28" s="284"/>
+      <c r="FB28" s="284"/>
+      <c r="FC28" s="284"/>
+      <c r="FD28" s="284"/>
+      <c r="FE28" s="284"/>
+      <c r="FF28" s="284"/>
+      <c r="FG28" s="284"/>
+      <c r="FH28" s="284"/>
+      <c r="FI28" s="284"/>
+      <c r="FJ28" s="284"/>
+      <c r="FK28" s="284"/>
+      <c r="FL28" s="284"/>
+      <c r="FM28" s="284"/>
+      <c r="FN28" s="284"/>
+      <c r="FO28" s="284"/>
+      <c r="FP28" s="284"/>
+      <c r="FQ28" s="284"/>
+      <c r="FR28" s="284"/>
+      <c r="FS28" s="284"/>
+      <c r="FT28" s="284"/>
+      <c r="FU28" s="284"/>
+      <c r="FV28" s="284"/>
+      <c r="FW28" s="284"/>
+      <c r="FX28" s="284"/>
+      <c r="FY28" s="284"/>
+      <c r="FZ28" s="284"/>
+      <c r="GA28" s="284"/>
+      <c r="GB28" s="284"/>
+      <c r="GC28" s="284"/>
+      <c r="GD28" s="284"/>
+      <c r="GE28" s="284"/>
+      <c r="GF28" s="284"/>
+      <c r="GG28" s="284"/>
+      <c r="GH28" s="284"/>
+      <c r="GI28" s="284"/>
+      <c r="GJ28" s="284"/>
+      <c r="GK28" s="284"/>
+      <c r="GL28" s="284"/>
       <c r="GM28" s="100"/>
     </row>
     <row r="29" spans="1:195" ht="18">
-      <c r="B29" s="267"/>
-      <c r="C29" s="267"/>
-      <c r="D29" s="267"/>
-      <c r="E29" s="267"/>
-      <c r="F29" s="267"/>
-      <c r="G29" s="267"/>
-      <c r="H29" s="267"/>
-      <c r="I29" s="267"/>
-      <c r="J29" s="267"/>
-      <c r="K29" s="267"/>
-      <c r="L29" s="267"/>
-      <c r="M29" s="267"/>
-      <c r="N29" s="267"/>
-      <c r="O29" s="267"/>
-      <c r="P29" s="267"/>
-      <c r="Q29" s="267"/>
-      <c r="R29" s="267"/>
+      <c r="B29" s="283"/>
+      <c r="C29" s="283"/>
+      <c r="D29" s="283"/>
+      <c r="E29" s="283"/>
+      <c r="F29" s="283"/>
+      <c r="G29" s="283"/>
+      <c r="H29" s="283"/>
+      <c r="I29" s="283"/>
+      <c r="J29" s="283"/>
+      <c r="K29" s="283"/>
+      <c r="L29" s="283"/>
+      <c r="M29" s="283"/>
+      <c r="N29" s="283"/>
+      <c r="O29" s="283"/>
+      <c r="P29" s="283"/>
+      <c r="Q29" s="283"/>
+      <c r="R29" s="283"/>
     </row>
     <row r="30" spans="1:195" ht="13.5" customHeight="1">
-      <c r="A30" s="265"/>
-      <c r="B30" s="265"/>
-      <c r="C30" s="265"/>
-      <c r="D30" s="265"/>
-      <c r="E30" s="265"/>
-      <c r="F30" s="265"/>
-      <c r="G30" s="265"/>
-      <c r="H30" s="265"/>
-      <c r="I30" s="265"/>
-      <c r="J30" s="265"/>
+      <c r="A30" s="286"/>
+      <c r="B30" s="286"/>
+      <c r="C30" s="286"/>
+      <c r="D30" s="286"/>
+      <c r="E30" s="286"/>
+      <c r="F30" s="286"/>
+      <c r="G30" s="286"/>
+      <c r="H30" s="286"/>
+      <c r="I30" s="286"/>
+      <c r="J30" s="286"/>
       <c r="K30" s="101"/>
       <c r="L30" s="101"/>
       <c r="M30" s="101"/>
@@ -10026,16 +10100,16 @@
       <c r="R30" s="101"/>
     </row>
     <row r="31" spans="1:195" ht="13.5" customHeight="1">
-      <c r="A31" s="265"/>
-      <c r="B31" s="265"/>
-      <c r="C31" s="265"/>
-      <c r="D31" s="265"/>
-      <c r="E31" s="265"/>
-      <c r="F31" s="265"/>
-      <c r="G31" s="265"/>
-      <c r="H31" s="265"/>
-      <c r="I31" s="265"/>
-      <c r="J31" s="265"/>
+      <c r="A31" s="286"/>
+      <c r="B31" s="286"/>
+      <c r="C31" s="286"/>
+      <c r="D31" s="286"/>
+      <c r="E31" s="286"/>
+      <c r="F31" s="286"/>
+      <c r="G31" s="286"/>
+      <c r="H31" s="286"/>
+      <c r="I31" s="286"/>
+      <c r="J31" s="286"/>
       <c r="K31" s="101"/>
       <c r="L31" s="101"/>
       <c r="M31" s="101"/>
@@ -10047,6 +10121,28 @@
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="A30:J30"/>
+    <mergeCell ref="A31:J31"/>
+    <mergeCell ref="DF28:DV28"/>
+    <mergeCell ref="DW28:EM28"/>
+    <mergeCell ref="EN28:FD28"/>
+    <mergeCell ref="B26:R26"/>
+    <mergeCell ref="FE28:FU28"/>
+    <mergeCell ref="FV28:GL28"/>
+    <mergeCell ref="B29:R29"/>
+    <mergeCell ref="S28:X28"/>
+    <mergeCell ref="Y28:AO28"/>
+    <mergeCell ref="AP28:BF28"/>
+    <mergeCell ref="BG28:BW28"/>
+    <mergeCell ref="BX28:CN28"/>
+    <mergeCell ref="CO28:DE28"/>
+    <mergeCell ref="B28:R28"/>
+    <mergeCell ref="B18:R18"/>
+    <mergeCell ref="B20:R20"/>
+    <mergeCell ref="B21:R21"/>
+    <mergeCell ref="B22:R22"/>
+    <mergeCell ref="B23:R23"/>
+    <mergeCell ref="B19:R19"/>
     <mergeCell ref="B14:R14"/>
     <mergeCell ref="B15:R15"/>
     <mergeCell ref="A16:J16"/>
@@ -10060,28 +10156,6 @@
     <mergeCell ref="C1:F3"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="I2:J2"/>
-    <mergeCell ref="B18:R18"/>
-    <mergeCell ref="B20:R20"/>
-    <mergeCell ref="B21:R21"/>
-    <mergeCell ref="B22:R22"/>
-    <mergeCell ref="B23:R23"/>
-    <mergeCell ref="B19:R19"/>
-    <mergeCell ref="B26:R26"/>
-    <mergeCell ref="FE28:FU28"/>
-    <mergeCell ref="FV28:GL28"/>
-    <mergeCell ref="B29:R29"/>
-    <mergeCell ref="S28:X28"/>
-    <mergeCell ref="Y28:AO28"/>
-    <mergeCell ref="AP28:BF28"/>
-    <mergeCell ref="BG28:BW28"/>
-    <mergeCell ref="BX28:CN28"/>
-    <mergeCell ref="CO28:DE28"/>
-    <mergeCell ref="B28:R28"/>
-    <mergeCell ref="A30:J30"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="DF28:DV28"/>
-    <mergeCell ref="DW28:EM28"/>
-    <mergeCell ref="EN28:FD28"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.196850393700787" right="0.196850393700787" top="0.39370078740157499" bottom="0" header="0" footer="0"/>
@@ -10619,8 +10693,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12:J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -10636,10 +10710,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="306" t="s">
+      <c r="A1" s="287" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="306"/>
+      <c r="B1" s="287"/>
       <c r="C1" s="30" t="s">
         <v>1</v>
       </c>
@@ -10666,8 +10740,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="306"/>
-      <c r="B2" s="306"/>
+      <c r="A2" s="287"/>
+      <c r="B2" s="287"/>
       <c r="C2" s="30" t="s">
         <v>2</v>
       </c>
@@ -10706,14 +10780,14 @@
       <c r="D4" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="307" t="s">
+      <c r="E4" s="288" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="307"/>
-      <c r="G4" s="307"/>
-      <c r="H4" s="307"/>
-      <c r="I4" s="307"/>
-      <c r="J4" s="307"/>
+      <c r="F4" s="288"/>
+      <c r="G4" s="288"/>
+      <c r="H4" s="288"/>
+      <c r="I4" s="288"/>
+      <c r="J4" s="288"/>
     </row>
     <row r="5" spans="1:10" s="25" customFormat="1" ht="47.25" customHeight="1">
       <c r="A5" s="108">
@@ -10728,14 +10802,14 @@
       <c r="D5" s="34">
         <v>42821</v>
       </c>
-      <c r="E5" s="308" t="s">
+      <c r="E5" s="289" t="s">
         <v>157</v>
       </c>
-      <c r="F5" s="308"/>
-      <c r="G5" s="308"/>
-      <c r="H5" s="308"/>
-      <c r="I5" s="308"/>
-      <c r="J5" s="308"/>
+      <c r="F5" s="289"/>
+      <c r="G5" s="289"/>
+      <c r="H5" s="289"/>
+      <c r="I5" s="289"/>
+      <c r="J5" s="289"/>
     </row>
     <row r="6" spans="1:10" ht="12.75">
       <c r="A6" s="72">
@@ -10750,14 +10824,14 @@
       <c r="D6" s="148">
         <v>42877</v>
       </c>
-      <c r="E6" s="309" t="s">
+      <c r="E6" s="290" t="s">
         <v>337</v>
       </c>
-      <c r="F6" s="310"/>
-      <c r="G6" s="310"/>
-      <c r="H6" s="310"/>
-      <c r="I6" s="310"/>
-      <c r="J6" s="311"/>
+      <c r="F6" s="291"/>
+      <c r="G6" s="291"/>
+      <c r="H6" s="291"/>
+      <c r="I6" s="291"/>
+      <c r="J6" s="292"/>
     </row>
     <row r="7" spans="1:10" ht="12" customHeight="1">
       <c r="A7" s="73">
@@ -10860,30 +10934,36 @@
       <c r="D11" s="235">
         <v>43314</v>
       </c>
-      <c r="E11" s="288" t="s">
+      <c r="E11" s="306" t="s">
         <v>427</v>
       </c>
-      <c r="F11" s="289"/>
-      <c r="G11" s="289"/>
-      <c r="H11" s="289"/>
-      <c r="I11" s="289"/>
-      <c r="J11" s="290"/>
-    </row>
-    <row r="12" spans="1:10" ht="12" customHeight="1">
+      <c r="F11" s="307"/>
+      <c r="G11" s="307"/>
+      <c r="H11" s="307"/>
+      <c r="I11" s="307"/>
+      <c r="J11" s="308"/>
+    </row>
+    <row r="12" spans="1:10" s="404" customFormat="1" ht="24" customHeight="1">
       <c r="A12" s="78">
         <v>8</v>
       </c>
-      <c r="B12" s="37">
+      <c r="B12" s="399">
         <v>8</v>
       </c>
-      <c r="C12" s="66"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="291"/>
-      <c r="F12" s="292"/>
-      <c r="G12" s="292"/>
-      <c r="H12" s="292"/>
-      <c r="I12" s="292"/>
-      <c r="J12" s="293"/>
+      <c r="C12" s="400" t="s">
+        <v>352</v>
+      </c>
+      <c r="D12" s="400">
+        <v>43345</v>
+      </c>
+      <c r="E12" s="401" t="s">
+        <v>479</v>
+      </c>
+      <c r="F12" s="402"/>
+      <c r="G12" s="402"/>
+      <c r="H12" s="402"/>
+      <c r="I12" s="402"/>
+      <c r="J12" s="403"/>
     </row>
     <row r="13" spans="1:10" ht="12" customHeight="1">
       <c r="A13" s="79">
@@ -10894,12 +10974,12 @@
       </c>
       <c r="C13" s="66"/>
       <c r="D13" s="36"/>
-      <c r="E13" s="291"/>
-      <c r="F13" s="292"/>
-      <c r="G13" s="292"/>
-      <c r="H13" s="292"/>
-      <c r="I13" s="292"/>
-      <c r="J13" s="293"/>
+      <c r="E13" s="309"/>
+      <c r="F13" s="310"/>
+      <c r="G13" s="310"/>
+      <c r="H13" s="310"/>
+      <c r="I13" s="310"/>
+      <c r="J13" s="311"/>
     </row>
     <row r="14" spans="1:10" ht="12" customHeight="1">
       <c r="A14" s="80">
@@ -10910,12 +10990,12 @@
       </c>
       <c r="C14" s="66"/>
       <c r="D14" s="36"/>
-      <c r="E14" s="291"/>
-      <c r="F14" s="292"/>
-      <c r="G14" s="292"/>
-      <c r="H14" s="292"/>
-      <c r="I14" s="292"/>
-      <c r="J14" s="293"/>
+      <c r="E14" s="309"/>
+      <c r="F14" s="310"/>
+      <c r="G14" s="310"/>
+      <c r="H14" s="310"/>
+      <c r="I14" s="310"/>
+      <c r="J14" s="311"/>
     </row>
     <row r="15" spans="1:10" ht="12" customHeight="1">
       <c r="A15" s="36">
@@ -10926,12 +11006,12 @@
       </c>
       <c r="C15" s="66"/>
       <c r="D15" s="36"/>
-      <c r="E15" s="287"/>
-      <c r="F15" s="287"/>
-      <c r="G15" s="287"/>
-      <c r="H15" s="287"/>
-      <c r="I15" s="287"/>
-      <c r="J15" s="287"/>
+      <c r="E15" s="293"/>
+      <c r="F15" s="293"/>
+      <c r="G15" s="293"/>
+      <c r="H15" s="293"/>
+      <c r="I15" s="293"/>
+      <c r="J15" s="293"/>
     </row>
     <row r="16" spans="1:10" ht="12" customHeight="1">
       <c r="A16" s="72">
@@ -10942,12 +11022,12 @@
       </c>
       <c r="C16" s="66"/>
       <c r="D16" s="36"/>
-      <c r="E16" s="287"/>
-      <c r="F16" s="287"/>
-      <c r="G16" s="287"/>
-      <c r="H16" s="287"/>
-      <c r="I16" s="287"/>
-      <c r="J16" s="287"/>
+      <c r="E16" s="293"/>
+      <c r="F16" s="293"/>
+      <c r="G16" s="293"/>
+      <c r="H16" s="293"/>
+      <c r="I16" s="293"/>
+      <c r="J16" s="293"/>
     </row>
     <row r="17" spans="1:10" ht="12" customHeight="1">
       <c r="A17" s="73">
@@ -10958,12 +11038,12 @@
       </c>
       <c r="C17" s="66"/>
       <c r="D17" s="36"/>
-      <c r="E17" s="287"/>
-      <c r="F17" s="287"/>
-      <c r="G17" s="287"/>
-      <c r="H17" s="287"/>
-      <c r="I17" s="287"/>
-      <c r="J17" s="287"/>
+      <c r="E17" s="293"/>
+      <c r="F17" s="293"/>
+      <c r="G17" s="293"/>
+      <c r="H17" s="293"/>
+      <c r="I17" s="293"/>
+      <c r="J17" s="293"/>
     </row>
     <row r="18" spans="1:10" ht="12" customHeight="1">
       <c r="A18" s="74">
@@ -10974,12 +11054,12 @@
       </c>
       <c r="C18" s="66"/>
       <c r="D18" s="36"/>
-      <c r="E18" s="287"/>
-      <c r="F18" s="287"/>
-      <c r="G18" s="287"/>
-      <c r="H18" s="287"/>
-      <c r="I18" s="287"/>
-      <c r="J18" s="287"/>
+      <c r="E18" s="293"/>
+      <c r="F18" s="293"/>
+      <c r="G18" s="293"/>
+      <c r="H18" s="293"/>
+      <c r="I18" s="293"/>
+      <c r="J18" s="293"/>
     </row>
     <row r="19" spans="1:10" ht="12" customHeight="1">
       <c r="A19" s="75">
@@ -10990,12 +11070,12 @@
       </c>
       <c r="C19" s="66"/>
       <c r="D19" s="36"/>
-      <c r="E19" s="287"/>
-      <c r="F19" s="287"/>
-      <c r="G19" s="287"/>
-      <c r="H19" s="287"/>
-      <c r="I19" s="287"/>
-      <c r="J19" s="287"/>
+      <c r="E19" s="293"/>
+      <c r="F19" s="293"/>
+      <c r="G19" s="293"/>
+      <c r="H19" s="293"/>
+      <c r="I19" s="293"/>
+      <c r="J19" s="293"/>
     </row>
     <row r="20" spans="1:10" ht="12" customHeight="1">
       <c r="A20" s="76">
@@ -11006,12 +11086,12 @@
       </c>
       <c r="C20" s="66"/>
       <c r="D20" s="36"/>
-      <c r="E20" s="287"/>
-      <c r="F20" s="287"/>
-      <c r="G20" s="287"/>
-      <c r="H20" s="287"/>
-      <c r="I20" s="287"/>
-      <c r="J20" s="287"/>
+      <c r="E20" s="293"/>
+      <c r="F20" s="293"/>
+      <c r="G20" s="293"/>
+      <c r="H20" s="293"/>
+      <c r="I20" s="293"/>
+      <c r="J20" s="293"/>
     </row>
     <row r="21" spans="1:10" ht="12" customHeight="1">
       <c r="A21" s="77">
@@ -11022,12 +11102,12 @@
       </c>
       <c r="C21" s="66"/>
       <c r="D21" s="36"/>
-      <c r="E21" s="287"/>
-      <c r="F21" s="287"/>
-      <c r="G21" s="287"/>
-      <c r="H21" s="287"/>
-      <c r="I21" s="287"/>
-      <c r="J21" s="287"/>
+      <c r="E21" s="293"/>
+      <c r="F21" s="293"/>
+      <c r="G21" s="293"/>
+      <c r="H21" s="293"/>
+      <c r="I21" s="293"/>
+      <c r="J21" s="293"/>
     </row>
     <row r="22" spans="1:10" ht="12" customHeight="1">
       <c r="A22" s="78">
@@ -11038,12 +11118,12 @@
       </c>
       <c r="C22" s="66"/>
       <c r="D22" s="36"/>
-      <c r="E22" s="287"/>
-      <c r="F22" s="287"/>
-      <c r="G22" s="287"/>
-      <c r="H22" s="287"/>
-      <c r="I22" s="287"/>
-      <c r="J22" s="287"/>
+      <c r="E22" s="293"/>
+      <c r="F22" s="293"/>
+      <c r="G22" s="293"/>
+      <c r="H22" s="293"/>
+      <c r="I22" s="293"/>
+      <c r="J22" s="293"/>
     </row>
     <row r="23" spans="1:10" ht="12" customHeight="1">
       <c r="A23" s="79">
@@ -11054,12 +11134,12 @@
       </c>
       <c r="C23" s="66"/>
       <c r="D23" s="36"/>
-      <c r="E23" s="287"/>
-      <c r="F23" s="287"/>
-      <c r="G23" s="287"/>
-      <c r="H23" s="287"/>
-      <c r="I23" s="287"/>
-      <c r="J23" s="287"/>
+      <c r="E23" s="293"/>
+      <c r="F23" s="293"/>
+      <c r="G23" s="293"/>
+      <c r="H23" s="293"/>
+      <c r="I23" s="293"/>
+      <c r="J23" s="293"/>
     </row>
     <row r="24" spans="1:10" ht="12" customHeight="1">
       <c r="A24" s="80">
@@ -11070,12 +11150,12 @@
       </c>
       <c r="C24" s="66"/>
       <c r="D24" s="36"/>
-      <c r="E24" s="287"/>
-      <c r="F24" s="287"/>
-      <c r="G24" s="287"/>
-      <c r="H24" s="287"/>
-      <c r="I24" s="287"/>
-      <c r="J24" s="287"/>
+      <c r="E24" s="293"/>
+      <c r="F24" s="293"/>
+      <c r="G24" s="293"/>
+      <c r="H24" s="293"/>
+      <c r="I24" s="293"/>
+      <c r="J24" s="293"/>
     </row>
     <row r="25" spans="1:10" ht="12" customHeight="1">
       <c r="A25" s="36">
@@ -11086,12 +11166,12 @@
       </c>
       <c r="C25" s="66"/>
       <c r="D25" s="36"/>
-      <c r="E25" s="287"/>
-      <c r="F25" s="287"/>
-      <c r="G25" s="287"/>
-      <c r="H25" s="287"/>
-      <c r="I25" s="287"/>
-      <c r="J25" s="287"/>
+      <c r="E25" s="293"/>
+      <c r="F25" s="293"/>
+      <c r="G25" s="293"/>
+      <c r="H25" s="293"/>
+      <c r="I25" s="293"/>
+      <c r="J25" s="293"/>
     </row>
     <row r="26" spans="1:10" ht="12" customHeight="1">
       <c r="A26" s="72">
@@ -11102,12 +11182,12 @@
       </c>
       <c r="C26" s="66"/>
       <c r="D26" s="36"/>
-      <c r="E26" s="287"/>
-      <c r="F26" s="287"/>
-      <c r="G26" s="287"/>
-      <c r="H26" s="287"/>
-      <c r="I26" s="287"/>
-      <c r="J26" s="287"/>
+      <c r="E26" s="293"/>
+      <c r="F26" s="293"/>
+      <c r="G26" s="293"/>
+      <c r="H26" s="293"/>
+      <c r="I26" s="293"/>
+      <c r="J26" s="293"/>
     </row>
     <row r="27" spans="1:10" ht="12" customHeight="1">
       <c r="A27" s="73">
@@ -11118,12 +11198,12 @@
       </c>
       <c r="C27" s="66"/>
       <c r="D27" s="36"/>
-      <c r="E27" s="287"/>
-      <c r="F27" s="287"/>
-      <c r="G27" s="287"/>
-      <c r="H27" s="287"/>
-      <c r="I27" s="287"/>
-      <c r="J27" s="287"/>
+      <c r="E27" s="293"/>
+      <c r="F27" s="293"/>
+      <c r="G27" s="293"/>
+      <c r="H27" s="293"/>
+      <c r="I27" s="293"/>
+      <c r="J27" s="293"/>
     </row>
     <row r="28" spans="1:10" ht="12" customHeight="1">
       <c r="A28" s="74">
@@ -11134,12 +11214,12 @@
       </c>
       <c r="C28" s="66"/>
       <c r="D28" s="36"/>
-      <c r="E28" s="287"/>
-      <c r="F28" s="287"/>
-      <c r="G28" s="287"/>
-      <c r="H28" s="287"/>
-      <c r="I28" s="287"/>
-      <c r="J28" s="287"/>
+      <c r="E28" s="293"/>
+      <c r="F28" s="293"/>
+      <c r="G28" s="293"/>
+      <c r="H28" s="293"/>
+      <c r="I28" s="293"/>
+      <c r="J28" s="293"/>
     </row>
     <row r="29" spans="1:10" ht="12" customHeight="1">
       <c r="A29" s="75">
@@ -11150,12 +11230,12 @@
       </c>
       <c r="C29" s="66"/>
       <c r="D29" s="36"/>
-      <c r="E29" s="287"/>
-      <c r="F29" s="287"/>
-      <c r="G29" s="287"/>
-      <c r="H29" s="287"/>
-      <c r="I29" s="287"/>
-      <c r="J29" s="287"/>
+      <c r="E29" s="293"/>
+      <c r="F29" s="293"/>
+      <c r="G29" s="293"/>
+      <c r="H29" s="293"/>
+      <c r="I29" s="293"/>
+      <c r="J29" s="293"/>
     </row>
     <row r="30" spans="1:10" ht="12" customHeight="1">
       <c r="A30" s="76">
@@ -11166,12 +11246,12 @@
       </c>
       <c r="C30" s="66"/>
       <c r="D30" s="36"/>
-      <c r="E30" s="287"/>
-      <c r="F30" s="287"/>
-      <c r="G30" s="287"/>
-      <c r="H30" s="287"/>
-      <c r="I30" s="287"/>
-      <c r="J30" s="287"/>
+      <c r="E30" s="293"/>
+      <c r="F30" s="293"/>
+      <c r="G30" s="293"/>
+      <c r="H30" s="293"/>
+      <c r="I30" s="293"/>
+      <c r="J30" s="293"/>
     </row>
     <row r="31" spans="1:10" ht="12" customHeight="1">
       <c r="A31" s="77">
@@ -11182,12 +11262,12 @@
       </c>
       <c r="C31" s="66"/>
       <c r="D31" s="36"/>
-      <c r="E31" s="287"/>
-      <c r="F31" s="287"/>
-      <c r="G31" s="287"/>
-      <c r="H31" s="287"/>
-      <c r="I31" s="287"/>
-      <c r="J31" s="287"/>
+      <c r="E31" s="293"/>
+      <c r="F31" s="293"/>
+      <c r="G31" s="293"/>
+      <c r="H31" s="293"/>
+      <c r="I31" s="293"/>
+      <c r="J31" s="293"/>
     </row>
     <row r="32" spans="1:10" ht="12" customHeight="1">
       <c r="A32" s="78">
@@ -11198,12 +11278,12 @@
       </c>
       <c r="C32" s="66"/>
       <c r="D32" s="36"/>
-      <c r="E32" s="287"/>
-      <c r="F32" s="287"/>
-      <c r="G32" s="287"/>
-      <c r="H32" s="287"/>
-      <c r="I32" s="287"/>
-      <c r="J32" s="287"/>
+      <c r="E32" s="293"/>
+      <c r="F32" s="293"/>
+      <c r="G32" s="293"/>
+      <c r="H32" s="293"/>
+      <c r="I32" s="293"/>
+      <c r="J32" s="293"/>
     </row>
     <row r="33" spans="1:10" ht="12" customHeight="1">
       <c r="A33" s="79">
@@ -11214,12 +11294,12 @@
       </c>
       <c r="C33" s="66"/>
       <c r="D33" s="36"/>
-      <c r="E33" s="287"/>
-      <c r="F33" s="287"/>
-      <c r="G33" s="287"/>
-      <c r="H33" s="287"/>
-      <c r="I33" s="287"/>
-      <c r="J33" s="287"/>
+      <c r="E33" s="293"/>
+      <c r="F33" s="293"/>
+      <c r="G33" s="293"/>
+      <c r="H33" s="293"/>
+      <c r="I33" s="293"/>
+      <c r="J33" s="293"/>
     </row>
     <row r="34" spans="1:10" ht="12" customHeight="1">
       <c r="A34" s="80">
@@ -11230,26 +11310,20 @@
       </c>
       <c r="C34" s="66"/>
       <c r="D34" s="36"/>
-      <c r="E34" s="287"/>
-      <c r="F34" s="287"/>
-      <c r="G34" s="287"/>
-      <c r="H34" s="287"/>
-      <c r="I34" s="287"/>
-      <c r="J34" s="287"/>
+      <c r="E34" s="293"/>
+      <c r="F34" s="293"/>
+      <c r="G34" s="293"/>
+      <c r="H34" s="293"/>
+      <c r="I34" s="293"/>
+      <c r="J34" s="293"/>
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="E4:J4"/>
-    <mergeCell ref="E5:J5"/>
-    <mergeCell ref="E6:J6"/>
-    <mergeCell ref="E22:J22"/>
-    <mergeCell ref="E23:J23"/>
-    <mergeCell ref="E24:J24"/>
-    <mergeCell ref="E7:J7"/>
-    <mergeCell ref="E8:J8"/>
-    <mergeCell ref="E9:J9"/>
-    <mergeCell ref="E10:J10"/>
+    <mergeCell ref="E26:J26"/>
+    <mergeCell ref="E27:J27"/>
+    <mergeCell ref="E28:J28"/>
+    <mergeCell ref="E29:J29"/>
+    <mergeCell ref="E30:J30"/>
     <mergeCell ref="E31:J31"/>
     <mergeCell ref="E32:J32"/>
     <mergeCell ref="E33:J33"/>
@@ -11266,11 +11340,17 @@
     <mergeCell ref="E20:J20"/>
     <mergeCell ref="E13:J13"/>
     <mergeCell ref="E21:J21"/>
-    <mergeCell ref="E26:J26"/>
-    <mergeCell ref="E27:J27"/>
-    <mergeCell ref="E28:J28"/>
-    <mergeCell ref="E29:J29"/>
-    <mergeCell ref="E30:J30"/>
+    <mergeCell ref="E23:J23"/>
+    <mergeCell ref="E24:J24"/>
+    <mergeCell ref="E7:J7"/>
+    <mergeCell ref="E8:J8"/>
+    <mergeCell ref="E9:J9"/>
+    <mergeCell ref="E10:J10"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="E4:J4"/>
+    <mergeCell ref="E5:J5"/>
+    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="E22:J22"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1">
@@ -11295,7 +11375,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A7" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A4" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="J46" sqref="J46"/>
     </sheetView>
   </sheetViews>
@@ -11315,10 +11395,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="306" t="s">
+      <c r="A1" s="287" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="306"/>
+      <c r="B1" s="287"/>
       <c r="C1" s="30" t="s">
         <v>1</v>
       </c>
@@ -11349,8 +11429,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="306"/>
-      <c r="B2" s="306"/>
+      <c r="A2" s="287"/>
+      <c r="B2" s="287"/>
       <c r="C2" s="30" t="s">
         <v>2</v>
       </c>
@@ -11845,13 +11925,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P78"/>
+  <dimension ref="A1:P79"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="4" topLeftCell="H50" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="4" topLeftCell="J5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B1:B1048576"/>
+      <selection pane="bottomRight" activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -11875,13 +11955,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="306" t="s">
+      <c r="A1" s="287" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="306"/>
-      <c r="C1" s="306"/>
-      <c r="D1" s="306"/>
-      <c r="E1" s="306"/>
+      <c r="B1" s="287"/>
+      <c r="C1" s="287"/>
+      <c r="D1" s="287"/>
+      <c r="E1" s="287"/>
       <c r="F1" s="29" t="s">
         <v>1</v>
       </c>
@@ -11915,11 +11995,11 @@
       </c>
     </row>
     <row r="2" spans="1:16" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="306"/>
-      <c r="B2" s="306"/>
-      <c r="C2" s="306"/>
-      <c r="D2" s="306"/>
-      <c r="E2" s="306"/>
+      <c r="A2" s="287"/>
+      <c r="B2" s="287"/>
+      <c r="C2" s="287"/>
+      <c r="D2" s="287"/>
+      <c r="E2" s="287"/>
       <c r="F2" s="29" t="s">
         <v>2</v>
       </c>
@@ -13692,37 +13772,43 @@
       <c r="O53" s="142"/>
       <c r="P53" s="142"/>
     </row>
-    <row r="54" spans="1:16" s="181" customFormat="1" ht="12" customHeight="1">
-      <c r="A54" s="169">
-        <v>50</v>
-      </c>
-      <c r="B54" s="169">
+    <row r="54" spans="1:16" s="398" customFormat="1" ht="45">
+      <c r="A54" s="405"/>
+      <c r="B54" s="405">
         <v>92</v>
       </c>
-      <c r="C54" s="169" t="s">
-        <v>357</v>
-      </c>
-      <c r="D54" s="178" t="s">
-        <v>368</v>
-      </c>
-      <c r="E54" s="179" t="s">
-        <v>369</v>
-      </c>
-      <c r="F54" s="180"/>
-      <c r="G54" s="180"/>
-      <c r="H54" s="171"/>
-      <c r="I54" s="171"/>
-      <c r="J54" s="173"/>
-      <c r="K54" s="173"/>
-      <c r="L54" s="166"/>
-      <c r="M54" s="171"/>
-      <c r="N54" s="171"/>
-      <c r="O54" s="171"/>
-      <c r="P54" s="171"/>
+      <c r="C54" s="405" t="s">
+        <v>481</v>
+      </c>
+      <c r="D54" s="406" t="s">
+        <v>480</v>
+      </c>
+      <c r="E54" s="407" t="s">
+        <v>482</v>
+      </c>
+      <c r="F54" s="408" t="s">
+        <v>483</v>
+      </c>
+      <c r="G54" s="408" t="s">
+        <v>483</v>
+      </c>
+      <c r="H54" s="409" t="s">
+        <v>180</v>
+      </c>
+      <c r="I54" s="409"/>
+      <c r="J54" s="410"/>
+      <c r="K54" s="410"/>
+      <c r="L54" s="397"/>
+      <c r="M54" s="409"/>
+      <c r="N54" s="409"/>
+      <c r="O54" s="409"/>
+      <c r="P54" s="409" t="s">
+        <v>484</v>
+      </c>
     </row>
     <row r="55" spans="1:16" s="181" customFormat="1" ht="12" customHeight="1">
       <c r="A55" s="169">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B55" s="169">
         <v>92</v>
@@ -13731,36 +13817,26 @@
         <v>357</v>
       </c>
       <c r="D55" s="178" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="E55" s="179" t="s">
-        <v>234</v>
-      </c>
-      <c r="F55" s="180" t="s">
-        <v>370</v>
-      </c>
-      <c r="G55" s="180" t="s">
-        <v>370</v>
-      </c>
-      <c r="H55" s="172" t="s">
-        <v>178</v>
-      </c>
-      <c r="I55" s="171" t="s">
-        <v>365</v>
-      </c>
+        <v>369</v>
+      </c>
+      <c r="F55" s="180"/>
+      <c r="G55" s="180"/>
+      <c r="H55" s="171"/>
+      <c r="I55" s="171"/>
       <c r="J55" s="173"/>
       <c r="K55" s="173"/>
-      <c r="L55" s="166" t="s">
-        <v>187</v>
-      </c>
+      <c r="L55" s="166"/>
       <c r="M55" s="171"/>
       <c r="N55" s="171"/>
       <c r="O55" s="171"/>
       <c r="P55" s="171"/>
     </row>
     <row r="56" spans="1:16" s="181" customFormat="1" ht="12" customHeight="1">
-      <c r="A56" s="168">
-        <v>52</v>
+      <c r="A56" s="169">
+        <v>51</v>
       </c>
       <c r="B56" s="169">
         <v>92</v>
@@ -13769,22 +13845,22 @@
         <v>357</v>
       </c>
       <c r="D56" s="178" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E56" s="179" t="s">
-        <v>196</v>
+        <v>234</v>
       </c>
       <c r="F56" s="180" t="s">
-        <v>128</v>
+        <v>370</v>
       </c>
       <c r="G56" s="180" t="s">
-        <v>128</v>
+        <v>370</v>
       </c>
       <c r="H56" s="172" t="s">
         <v>178</v>
       </c>
       <c r="I56" s="171" t="s">
-        <v>176</v>
+        <v>365</v>
       </c>
       <c r="J56" s="173"/>
       <c r="K56" s="173"/>
@@ -13797,8 +13873,8 @@
       <c r="P56" s="171"/>
     </row>
     <row r="57" spans="1:16" s="181" customFormat="1" ht="12" customHeight="1">
-      <c r="A57" s="169">
-        <v>53</v>
+      <c r="A57" s="168">
+        <v>52</v>
       </c>
       <c r="B57" s="169">
         <v>92</v>
@@ -13807,16 +13883,16 @@
         <v>357</v>
       </c>
       <c r="D57" s="178" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E57" s="179" t="s">
-        <v>375</v>
+        <v>196</v>
       </c>
       <c r="F57" s="180" t="s">
-        <v>376</v>
+        <v>128</v>
       </c>
       <c r="G57" s="180" t="s">
-        <v>376</v>
+        <v>128</v>
       </c>
       <c r="H57" s="172" t="s">
         <v>178</v>
@@ -13836,7 +13912,7 @@
     </row>
     <row r="58" spans="1:16" s="181" customFormat="1" ht="12" customHeight="1">
       <c r="A58" s="169">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B58" s="169">
         <v>92</v>
@@ -13845,22 +13921,22 @@
         <v>357</v>
       </c>
       <c r="D58" s="178" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E58" s="179" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="F58" s="180" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="G58" s="180" t="s">
-        <v>379</v>
-      </c>
-      <c r="H58" s="171" t="s">
-        <v>364</v>
+        <v>376</v>
+      </c>
+      <c r="H58" s="172" t="s">
+        <v>178</v>
       </c>
       <c r="I58" s="171" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="J58" s="173"/>
       <c r="K58" s="173"/>
@@ -13873,8 +13949,8 @@
       <c r="P58" s="171"/>
     </row>
     <row r="59" spans="1:16" s="181" customFormat="1" ht="12" customHeight="1">
-      <c r="A59" s="168">
-        <v>55</v>
+      <c r="A59" s="169">
+        <v>54</v>
       </c>
       <c r="B59" s="169">
         <v>92</v>
@@ -13883,22 +13959,22 @@
         <v>357</v>
       </c>
       <c r="D59" s="178" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="E59" s="179" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="F59" s="180" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="G59" s="180" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="H59" s="171" t="s">
-        <v>178</v>
+        <v>364</v>
       </c>
       <c r="I59" s="171" t="s">
-        <v>365</v>
+        <v>182</v>
       </c>
       <c r="J59" s="173"/>
       <c r="K59" s="173"/>
@@ -13911,8 +13987,8 @@
       <c r="P59" s="171"/>
     </row>
     <row r="60" spans="1:16" s="181" customFormat="1" ht="12" customHeight="1">
-      <c r="A60" s="169">
-        <v>56</v>
+      <c r="A60" s="168">
+        <v>55</v>
       </c>
       <c r="B60" s="169">
         <v>92</v>
@@ -13921,30 +13997,36 @@
         <v>357</v>
       </c>
       <c r="D60" s="178" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E60" s="179" t="s">
-        <v>237</v>
+        <v>380</v>
       </c>
       <c r="F60" s="180" t="s">
-        <v>438</v>
-      </c>
-      <c r="G60" s="180"/>
+        <v>381</v>
+      </c>
+      <c r="G60" s="180" t="s">
+        <v>381</v>
+      </c>
       <c r="H60" s="171" t="s">
-        <v>180</v>
-      </c>
-      <c r="I60" s="171"/>
+        <v>178</v>
+      </c>
+      <c r="I60" s="171" t="s">
+        <v>365</v>
+      </c>
       <c r="J60" s="173"/>
       <c r="K60" s="173"/>
-      <c r="L60" s="166"/>
+      <c r="L60" s="166" t="s">
+        <v>187</v>
+      </c>
       <c r="M60" s="171"/>
       <c r="N60" s="171"/>
       <c r="O60" s="171"/>
       <c r="P60" s="171"/>
     </row>
     <row r="61" spans="1:16" s="181" customFormat="1" ht="12" customHeight="1">
-      <c r="A61" s="168">
-        <v>57</v>
+      <c r="A61" s="169">
+        <v>56</v>
       </c>
       <c r="B61" s="169">
         <v>92</v>
@@ -13953,13 +14035,13 @@
         <v>357</v>
       </c>
       <c r="D61" s="178" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E61" s="179" t="s">
-        <v>385</v>
+        <v>237</v>
       </c>
       <c r="F61" s="180" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G61" s="180"/>
       <c r="H61" s="171" t="s">
@@ -13975,8 +14057,8 @@
       <c r="P61" s="171"/>
     </row>
     <row r="62" spans="1:16" s="181" customFormat="1" ht="12" customHeight="1">
-      <c r="A62" s="169">
-        <v>58</v>
+      <c r="A62" s="168">
+        <v>57</v>
       </c>
       <c r="B62" s="169">
         <v>92</v>
@@ -13985,14 +14067,18 @@
         <v>357</v>
       </c>
       <c r="D62" s="178" t="s">
-        <v>240</v>
+        <v>384</v>
       </c>
       <c r="E62" s="179" t="s">
-        <v>382</v>
-      </c>
-      <c r="F62" s="180"/>
+        <v>385</v>
+      </c>
+      <c r="F62" s="180" t="s">
+        <v>439</v>
+      </c>
       <c r="G62" s="180"/>
-      <c r="H62" s="171"/>
+      <c r="H62" s="171" t="s">
+        <v>180</v>
+      </c>
       <c r="I62" s="171"/>
       <c r="J62" s="173"/>
       <c r="K62" s="173"/>
@@ -14003,8 +14089,8 @@
       <c r="P62" s="171"/>
     </row>
     <row r="63" spans="1:16" s="181" customFormat="1" ht="12" customHeight="1">
-      <c r="A63" s="168">
-        <v>59</v>
+      <c r="A63" s="169">
+        <v>58</v>
       </c>
       <c r="B63" s="169">
         <v>92</v>
@@ -14013,17 +14099,13 @@
         <v>357</v>
       </c>
       <c r="D63" s="178" t="s">
-        <v>396</v>
+        <v>240</v>
       </c>
       <c r="E63" s="179" t="s">
-        <v>455</v>
-      </c>
-      <c r="F63" s="180" t="s">
-        <v>456</v>
-      </c>
-      <c r="G63" s="180" t="s">
-        <v>456</v>
-      </c>
+        <v>382</v>
+      </c>
+      <c r="F63" s="180"/>
+      <c r="G63" s="180"/>
       <c r="H63" s="171"/>
       <c r="I63" s="171"/>
       <c r="J63" s="173"/>
@@ -14032,13 +14114,11 @@
       <c r="M63" s="171"/>
       <c r="N63" s="171"/>
       <c r="O63" s="171"/>
-      <c r="P63" s="325" t="s">
-        <v>459</v>
-      </c>
+      <c r="P63" s="171"/>
     </row>
     <row r="64" spans="1:16" s="181" customFormat="1" ht="12" customHeight="1">
-      <c r="A64" s="169">
-        <v>60</v>
+      <c r="A64" s="168">
+        <v>59</v>
       </c>
       <c r="B64" s="169">
         <v>92</v>
@@ -14047,16 +14127,16 @@
         <v>357</v>
       </c>
       <c r="D64" s="178" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E64" s="179" t="s">
-        <v>457</v>
-      </c>
-      <c r="F64" s="179" t="s">
-        <v>458</v>
-      </c>
-      <c r="G64" s="179" t="s">
-        <v>458</v>
+        <v>455</v>
+      </c>
+      <c r="F64" s="180" t="s">
+        <v>456</v>
+      </c>
+      <c r="G64" s="180" t="s">
+        <v>456</v>
       </c>
       <c r="H64" s="171"/>
       <c r="I64" s="171"/>
@@ -14066,39 +14146,45 @@
       <c r="M64" s="171"/>
       <c r="N64" s="171"/>
       <c r="O64" s="171"/>
-      <c r="P64" s="326"/>
-    </row>
-    <row r="65" spans="1:16" s="195" customFormat="1" ht="12" customHeight="1">
-      <c r="A65" s="206">
+      <c r="P64" s="325" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" s="181" customFormat="1" ht="12" customHeight="1">
+      <c r="A65" s="169">
+        <v>60</v>
+      </c>
+      <c r="B65" s="169">
+        <v>92</v>
+      </c>
+      <c r="C65" s="169" t="s">
+        <v>357</v>
+      </c>
+      <c r="D65" s="178" t="s">
+        <v>397</v>
+      </c>
+      <c r="E65" s="179" t="s">
+        <v>457</v>
+      </c>
+      <c r="F65" s="179" t="s">
+        <v>458</v>
+      </c>
+      <c r="G65" s="179" t="s">
+        <v>458</v>
+      </c>
+      <c r="H65" s="171"/>
+      <c r="I65" s="171"/>
+      <c r="J65" s="173"/>
+      <c r="K65" s="173"/>
+      <c r="L65" s="166"/>
+      <c r="M65" s="171"/>
+      <c r="N65" s="171"/>
+      <c r="O65" s="171"/>
+      <c r="P65" s="326"/>
+    </row>
+    <row r="66" spans="1:16" s="195" customFormat="1" ht="12" customHeight="1">
+      <c r="A66" s="206">
         <v>61</v>
-      </c>
-      <c r="B65" s="196">
-        <v>92</v>
-      </c>
-      <c r="C65" s="196" t="s">
-        <v>429</v>
-      </c>
-      <c r="D65" s="207" t="s">
-        <v>244</v>
-      </c>
-      <c r="E65" s="208" t="s">
-        <v>400</v>
-      </c>
-      <c r="F65" s="208"/>
-      <c r="G65" s="208"/>
-      <c r="H65" s="208"/>
-      <c r="I65" s="208"/>
-      <c r="J65" s="208"/>
-      <c r="K65" s="208"/>
-      <c r="L65" s="209"/>
-      <c r="M65" s="197"/>
-      <c r="N65" s="197"/>
-      <c r="O65" s="197"/>
-      <c r="P65" s="197"/>
-    </row>
-    <row r="66" spans="1:16" s="195" customFormat="1" ht="12" customHeight="1">
-      <c r="A66" s="196">
-        <v>62</v>
       </c>
       <c r="B66" s="196">
         <v>92</v>
@@ -14107,36 +14193,26 @@
         <v>429</v>
       </c>
       <c r="D66" s="207" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E66" s="208" t="s">
-        <v>234</v>
-      </c>
-      <c r="F66" s="208" t="s">
-        <v>370</v>
-      </c>
-      <c r="G66" s="208" t="s">
-        <v>370</v>
-      </c>
-      <c r="H66" s="208" t="s">
-        <v>178</v>
-      </c>
-      <c r="I66" s="208" t="s">
-        <v>365</v>
-      </c>
+        <v>400</v>
+      </c>
+      <c r="F66" s="208"/>
+      <c r="G66" s="208"/>
+      <c r="H66" s="208"/>
+      <c r="I66" s="208"/>
       <c r="J66" s="208"/>
       <c r="K66" s="208"/>
-      <c r="L66" s="209" t="s">
-        <v>187</v>
-      </c>
+      <c r="L66" s="209"/>
       <c r="M66" s="197"/>
       <c r="N66" s="197"/>
       <c r="O66" s="197"/>
       <c r="P66" s="197"/>
     </row>
     <row r="67" spans="1:16" s="195" customFormat="1" ht="12" customHeight="1">
-      <c r="A67" s="206">
-        <v>63</v>
+      <c r="A67" s="196">
+        <v>62</v>
       </c>
       <c r="B67" s="196">
         <v>92</v>
@@ -14145,22 +14221,22 @@
         <v>429</v>
       </c>
       <c r="D67" s="207" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E67" s="208" t="s">
-        <v>405</v>
+        <v>234</v>
       </c>
       <c r="F67" s="208" t="s">
-        <v>406</v>
+        <v>370</v>
       </c>
       <c r="G67" s="208" t="s">
-        <v>406</v>
+        <v>370</v>
       </c>
       <c r="H67" s="208" t="s">
         <v>178</v>
       </c>
       <c r="I67" s="208" t="s">
-        <v>176</v>
+        <v>365</v>
       </c>
       <c r="J67" s="208"/>
       <c r="K67" s="208"/>
@@ -14173,8 +14249,8 @@
       <c r="P67" s="197"/>
     </row>
     <row r="68" spans="1:16" s="195" customFormat="1" ht="12" customHeight="1">
-      <c r="A68" s="196">
-        <v>64</v>
+      <c r="A68" s="206">
+        <v>63</v>
       </c>
       <c r="B68" s="196">
         <v>92</v>
@@ -14183,16 +14259,16 @@
         <v>429</v>
       </c>
       <c r="D68" s="207" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E68" s="208" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="F68" s="208" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="G68" s="208" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="H68" s="208" t="s">
         <v>178</v>
@@ -14211,8 +14287,8 @@
       <c r="P68" s="197"/>
     </row>
     <row r="69" spans="1:16" s="195" customFormat="1" ht="12" customHeight="1">
-      <c r="A69" s="206">
-        <v>65</v>
+      <c r="A69" s="196">
+        <v>64</v>
       </c>
       <c r="B69" s="196">
         <v>92</v>
@@ -14221,16 +14297,16 @@
         <v>429</v>
       </c>
       <c r="D69" s="207" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E69" s="208" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F69" s="208" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G69" s="208" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="H69" s="208" t="s">
         <v>178</v>
@@ -14249,8 +14325,8 @@
       <c r="P69" s="197"/>
     </row>
     <row r="70" spans="1:16" s="195" customFormat="1" ht="12" customHeight="1">
-      <c r="A70" s="196">
-        <v>66</v>
+      <c r="A70" s="206">
+        <v>65</v>
       </c>
       <c r="B70" s="196">
         <v>92</v>
@@ -14259,16 +14335,16 @@
         <v>429</v>
       </c>
       <c r="D70" s="207" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E70" s="208" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="F70" s="208" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="G70" s="208" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="H70" s="208" t="s">
         <v>178</v>
@@ -14287,8 +14363,8 @@
       <c r="P70" s="197"/>
     </row>
     <row r="71" spans="1:16" s="195" customFormat="1" ht="12" customHeight="1">
-      <c r="A71" s="206">
-        <v>67</v>
+      <c r="A71" s="196">
+        <v>66</v>
       </c>
       <c r="B71" s="196">
         <v>92</v>
@@ -14297,16 +14373,16 @@
         <v>429</v>
       </c>
       <c r="D71" s="207" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E71" s="208" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F71" s="208" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="G71" s="208" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H71" s="208" t="s">
         <v>178</v>
@@ -14325,8 +14401,8 @@
       <c r="P71" s="197"/>
     </row>
     <row r="72" spans="1:16" s="195" customFormat="1" ht="12" customHeight="1">
-      <c r="A72" s="196">
-        <v>68</v>
+      <c r="A72" s="206">
+        <v>67</v>
       </c>
       <c r="B72" s="196">
         <v>92</v>
@@ -14335,16 +14411,16 @@
         <v>429</v>
       </c>
       <c r="D72" s="207" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E72" s="208" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F72" s="208" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G72" s="208" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H72" s="208" t="s">
         <v>178</v>
@@ -14363,8 +14439,8 @@
       <c r="P72" s="197"/>
     </row>
     <row r="73" spans="1:16" s="195" customFormat="1" ht="12" customHeight="1">
-      <c r="A73" s="206">
-        <v>69</v>
+      <c r="A73" s="196">
+        <v>68</v>
       </c>
       <c r="B73" s="196">
         <v>92</v>
@@ -14373,16 +14449,16 @@
         <v>429</v>
       </c>
       <c r="D73" s="207" t="s">
-        <v>415</v>
+        <v>251</v>
       </c>
       <c r="E73" s="208" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F73" s="208" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="G73" s="208" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H73" s="208" t="s">
         <v>178</v>
@@ -14401,8 +14477,8 @@
       <c r="P73" s="197"/>
     </row>
     <row r="74" spans="1:16" s="195" customFormat="1" ht="12" customHeight="1">
-      <c r="A74" s="196">
-        <v>70</v>
+      <c r="A74" s="206">
+        <v>69</v>
       </c>
       <c r="B74" s="196">
         <v>92</v>
@@ -14411,16 +14487,16 @@
         <v>429</v>
       </c>
       <c r="D74" s="207" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E74" s="208" t="s">
-        <v>191</v>
+        <v>410</v>
       </c>
       <c r="F74" s="208" t="s">
-        <v>192</v>
+        <v>414</v>
       </c>
       <c r="G74" s="208" t="s">
-        <v>192</v>
+        <v>414</v>
       </c>
       <c r="H74" s="208" t="s">
         <v>178</v>
@@ -14439,8 +14515,8 @@
       <c r="P74" s="197"/>
     </row>
     <row r="75" spans="1:16" s="195" customFormat="1" ht="12" customHeight="1">
-      <c r="A75" s="206">
-        <v>71</v>
+      <c r="A75" s="196">
+        <v>70</v>
       </c>
       <c r="B75" s="196">
         <v>92</v>
@@ -14449,38 +14525,36 @@
         <v>429</v>
       </c>
       <c r="D75" s="207" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E75" s="208" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="F75" s="208" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="G75" s="208" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="H75" s="208" t="s">
         <v>178</v>
       </c>
       <c r="I75" s="208" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="J75" s="208"/>
       <c r="K75" s="208"/>
       <c r="L75" s="209" t="s">
         <v>187</v>
       </c>
-      <c r="M75" s="197" t="s">
-        <v>183</v>
-      </c>
+      <c r="M75" s="197"/>
       <c r="N75" s="197"/>
       <c r="O75" s="197"/>
       <c r="P75" s="197"/>
     </row>
     <row r="76" spans="1:16" s="195" customFormat="1" ht="12" customHeight="1">
       <c r="A76" s="206">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B76" s="196">
         <v>92</v>
@@ -14489,28 +14563,38 @@
         <v>429</v>
       </c>
       <c r="D76" s="207" t="s">
-        <v>418</v>
-      </c>
-      <c r="E76" s="208"/>
+        <v>417</v>
+      </c>
+      <c r="E76" s="208" t="s">
+        <v>189</v>
+      </c>
       <c r="F76" s="208" t="s">
-        <v>420</v>
-      </c>
-      <c r="G76" s="208"/>
-      <c r="H76" s="197" t="s">
-        <v>180</v>
-      </c>
-      <c r="I76" s="208"/>
+        <v>190</v>
+      </c>
+      <c r="G76" s="208" t="s">
+        <v>190</v>
+      </c>
+      <c r="H76" s="208" t="s">
+        <v>178</v>
+      </c>
+      <c r="I76" s="208" t="s">
+        <v>182</v>
+      </c>
       <c r="J76" s="208"/>
       <c r="K76" s="208"/>
-      <c r="L76" s="209"/>
-      <c r="M76" s="197"/>
+      <c r="L76" s="209" t="s">
+        <v>187</v>
+      </c>
+      <c r="M76" s="197" t="s">
+        <v>183</v>
+      </c>
       <c r="N76" s="197"/>
       <c r="O76" s="197"/>
       <c r="P76" s="197"/>
     </row>
     <row r="77" spans="1:16" s="195" customFormat="1" ht="12" customHeight="1">
       <c r="A77" s="206">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B77" s="196">
         <v>92</v>
@@ -14519,11 +14603,11 @@
         <v>429</v>
       </c>
       <c r="D77" s="207" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E77" s="208"/>
       <c r="F77" s="208" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="G77" s="208"/>
       <c r="H77" s="197" t="s">
@@ -14538,47 +14622,77 @@
       <c r="O77" s="197"/>
       <c r="P77" s="197"/>
     </row>
-    <row r="78" spans="1:16" s="205" customFormat="1" ht="11.25">
-      <c r="A78" s="199">
+    <row r="78" spans="1:16" s="195" customFormat="1" ht="12" customHeight="1">
+      <c r="A78" s="206">
+        <v>73</v>
+      </c>
+      <c r="B78" s="196">
+        <v>92</v>
+      </c>
+      <c r="C78" s="196" t="s">
+        <v>429</v>
+      </c>
+      <c r="D78" s="207" t="s">
+        <v>419</v>
+      </c>
+      <c r="E78" s="208"/>
+      <c r="F78" s="208" t="s">
+        <v>421</v>
+      </c>
+      <c r="G78" s="208"/>
+      <c r="H78" s="197" t="s">
+        <v>180</v>
+      </c>
+      <c r="I78" s="208"/>
+      <c r="J78" s="208"/>
+      <c r="K78" s="208"/>
+      <c r="L78" s="209"/>
+      <c r="M78" s="197"/>
+      <c r="N78" s="197"/>
+      <c r="O78" s="197"/>
+      <c r="P78" s="197"/>
+    </row>
+    <row r="79" spans="1:16" s="205" customFormat="1" ht="11.25">
+      <c r="A79" s="199">
         <v>10</v>
       </c>
-      <c r="B78" s="199">
+      <c r="B79" s="199">
         <v>92</v>
       </c>
-      <c r="C78" s="199" t="s">
+      <c r="C79" s="199" t="s">
         <v>428</v>
       </c>
-      <c r="D78" s="200">
+      <c r="D79" s="200">
         <v>2.14</v>
       </c>
-      <c r="E78" s="201" t="s">
+      <c r="E79" s="201" t="s">
         <v>355</v>
       </c>
-      <c r="F78" s="202" t="s">
+      <c r="F79" s="202" t="s">
         <v>356</v>
       </c>
-      <c r="G78" s="202" t="s">
+      <c r="G79" s="202" t="s">
         <v>356</v>
       </c>
-      <c r="H78" s="203" t="s">
+      <c r="H79" s="203" t="s">
         <v>178</v>
       </c>
-      <c r="I78" s="203" t="s">
+      <c r="I79" s="203" t="s">
         <v>176</v>
       </c>
-      <c r="J78" s="204"/>
-      <c r="K78" s="204"/>
-      <c r="L78" s="198" t="s">
+      <c r="J79" s="204"/>
+      <c r="K79" s="204"/>
+      <c r="L79" s="198" t="s">
         <v>187</v>
       </c>
-      <c r="M78" s="202"/>
-      <c r="N78" s="202"/>
-      <c r="O78" s="202"/>
-      <c r="P78" s="202"/>
+      <c r="M79" s="202"/>
+      <c r="N79" s="202"/>
+      <c r="O79" s="202"/>
+      <c r="P79" s="202"/>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="P63:P64"/>
+    <mergeCell ref="P64:P65"/>
     <mergeCell ref="A1:E2"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="H2:I2"/>
@@ -14587,16 +14701,16 @@
   </mergeCells>
   <dataValidations count="5">
     <dataValidation allowBlank="1" showErrorMessage="1" sqref="G5"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H55:H57 H24:H30 H32:H53 H66:H69 H78 H5:H22">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H56:H58 H24:H30 H5:H22 H67:H70 H79 H32:H54">
       <formula1>"Caption,Textbox,DateTimePicker,RichTextbox,Label,ComboBox,CheckBox,RadioButton,Button,DataGrid, Image,Link,Form,Frame,Menu,MenuItem,Other"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H23 H31">
       <formula1>"Caption,TabControl,Textbox,DateTimePicker,RichTextbox,Label,ComboBox,CheckBox,RadioButton,Button,DataGrid, Image,Link,Form,Frame,Menu,MenuItem,Other"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L5:L53 L78">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L5:L54 L79">
       <formula1>"I,O,I/O"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5:I53 I78">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5:I54 I79">
       <formula1>"Text, Number, DateTime, Boolean"</formula1>
     </dataValidation>
   </dataValidations>
@@ -14611,7 +14725,7 @@
   <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -14933,10 +15047,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S12"/>
+  <dimension ref="A1:S13"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -14960,7 +15074,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="335" t="s">
+      <c r="A1" s="347" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="240"/>
@@ -14997,7 +15111,7 @@
       <c r="M1" s="46"/>
     </row>
     <row r="2" spans="1:19" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="336"/>
+      <c r="A2" s="348"/>
       <c r="B2" s="241"/>
       <c r="C2" s="105"/>
       <c r="D2" s="30" t="s">
@@ -15050,12 +15164,12 @@
       <c r="F4" s="82" t="s">
         <v>46</v>
       </c>
-      <c r="G4" s="346" t="s">
+      <c r="G4" s="341" t="s">
         <v>128</v>
       </c>
-      <c r="H4" s="347"/>
-      <c r="I4" s="347"/>
-      <c r="J4" s="348"/>
+      <c r="H4" s="342"/>
+      <c r="I4" s="342"/>
+      <c r="J4" s="343"/>
       <c r="K4" s="167" t="s">
         <v>48</v>
       </c>
@@ -15075,13 +15189,13 @@
       <c r="F5" s="132" t="s">
         <v>176</v>
       </c>
-      <c r="G5" s="337" t="s">
+      <c r="G5" s="332" t="s">
         <v>219</v>
       </c>
-      <c r="H5" s="338"/>
-      <c r="I5" s="338"/>
-      <c r="J5" s="339"/>
-      <c r="K5" s="337" t="s">
+      <c r="H5" s="334"/>
+      <c r="I5" s="334"/>
+      <c r="J5" s="335"/>
+      <c r="K5" s="332" t="s">
         <v>199</v>
       </c>
     </row>
@@ -15100,11 +15214,11 @@
       <c r="F6" s="132" t="s">
         <v>176</v>
       </c>
-      <c r="G6" s="340"/>
-      <c r="H6" s="341"/>
-      <c r="I6" s="341"/>
-      <c r="J6" s="342"/>
-      <c r="K6" s="340"/>
+      <c r="G6" s="333"/>
+      <c r="H6" s="336"/>
+      <c r="I6" s="336"/>
+      <c r="J6" s="337"/>
+      <c r="K6" s="333"/>
     </row>
     <row r="7" spans="1:19" s="32" customFormat="1" ht="21" customHeight="1">
       <c r="A7" s="31">
@@ -15121,13 +15235,13 @@
       <c r="F7" s="132" t="s">
         <v>176</v>
       </c>
-      <c r="G7" s="337" t="s">
+      <c r="G7" s="332" t="s">
         <v>220</v>
       </c>
-      <c r="H7" s="338"/>
-      <c r="I7" s="338"/>
-      <c r="J7" s="339"/>
-      <c r="K7" s="337" t="s">
+      <c r="H7" s="334"/>
+      <c r="I7" s="334"/>
+      <c r="J7" s="335"/>
+      <c r="K7" s="332" t="s">
         <v>200</v>
       </c>
     </row>
@@ -15146,11 +15260,11 @@
       <c r="F8" s="132" t="s">
         <v>176</v>
       </c>
-      <c r="G8" s="340"/>
-      <c r="H8" s="341"/>
-      <c r="I8" s="341"/>
-      <c r="J8" s="342"/>
-      <c r="K8" s="340"/>
+      <c r="G8" s="333"/>
+      <c r="H8" s="336"/>
+      <c r="I8" s="336"/>
+      <c r="J8" s="337"/>
+      <c r="K8" s="333"/>
     </row>
     <row r="9" spans="1:19" ht="23.25" customHeight="1">
       <c r="A9" s="182">
@@ -15167,12 +15281,12 @@
       <c r="F9" s="185" t="s">
         <v>290</v>
       </c>
-      <c r="G9" s="343" t="s">
+      <c r="G9" s="338" t="s">
         <v>291</v>
       </c>
-      <c r="H9" s="344"/>
-      <c r="I9" s="344"/>
-      <c r="J9" s="345"/>
+      <c r="H9" s="339"/>
+      <c r="I9" s="339"/>
+      <c r="J9" s="340"/>
       <c r="K9" s="186" t="s">
         <v>292</v>
       </c>
@@ -15194,12 +15308,12 @@
       <c r="F10" s="187" t="s">
         <v>176</v>
       </c>
-      <c r="G10" s="333" t="s">
+      <c r="G10" s="345" t="s">
         <v>448</v>
       </c>
-      <c r="H10" s="333"/>
-      <c r="I10" s="333"/>
-      <c r="J10" s="333"/>
+      <c r="H10" s="345"/>
+      <c r="I10" s="345"/>
+      <c r="J10" s="345"/>
       <c r="K10" s="187" t="s">
         <v>440</v>
       </c>
@@ -15226,12 +15340,12 @@
       <c r="F11" s="187" t="s">
         <v>176</v>
       </c>
-      <c r="G11" s="332" t="s">
+      <c r="G11" s="344" t="s">
         <v>460</v>
       </c>
-      <c r="H11" s="332"/>
-      <c r="I11" s="332"/>
-      <c r="J11" s="332"/>
+      <c r="H11" s="344"/>
+      <c r="I11" s="344"/>
+      <c r="J11" s="344"/>
       <c r="K11" s="247" t="s">
         <v>461</v>
       </c>
@@ -15260,12 +15374,12 @@
       <c r="F12" s="215" t="s">
         <v>176</v>
       </c>
-      <c r="G12" s="334" t="s">
+      <c r="G12" s="346" t="s">
         <v>447</v>
       </c>
-      <c r="H12" s="334"/>
-      <c r="I12" s="334"/>
-      <c r="J12" s="334"/>
+      <c r="H12" s="346"/>
+      <c r="I12" s="346"/>
+      <c r="J12" s="346"/>
       <c r="K12" s="216" t="s">
         <v>451</v>
       </c>
@@ -15277,19 +15391,50 @@
       <c r="R12" s="218"/>
       <c r="S12" s="218"/>
     </row>
+    <row r="13" spans="1:19" s="411" customFormat="1" ht="30.75" customHeight="1">
+      <c r="B13" s="411">
+        <v>92</v>
+      </c>
+      <c r="C13" s="411" t="s">
+        <v>481</v>
+      </c>
+      <c r="D13" s="412" t="s">
+        <v>289</v>
+      </c>
+      <c r="F13" s="411" t="s">
+        <v>176</v>
+      </c>
+      <c r="G13" s="416" t="s">
+        <v>485</v>
+      </c>
+      <c r="H13" s="414"/>
+      <c r="I13" s="414"/>
+      <c r="J13" s="415"/>
+      <c r="K13" s="411" t="s">
+        <v>486</v>
+      </c>
+      <c r="M13" s="413"/>
+      <c r="N13" s="413"/>
+      <c r="O13" s="413"/>
+      <c r="P13" s="413"/>
+      <c r="Q13" s="413"/>
+      <c r="R13" s="413"/>
+      <c r="S13" s="413"/>
+    </row>
   </sheetData>
   <dataConsolidate/>
-  <mergeCells count="10">
+  <mergeCells count="11">
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="G10:J10"/>
+    <mergeCell ref="G12:J12"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="G5:J6"/>
     <mergeCell ref="K5:K6"/>
     <mergeCell ref="G7:J8"/>
     <mergeCell ref="K7:K8"/>
     <mergeCell ref="G9:J9"/>
     <mergeCell ref="G4:J4"/>
-    <mergeCell ref="G11:J11"/>
-    <mergeCell ref="G10:J10"/>
-    <mergeCell ref="G12:J12"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="G5:J6"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F9">
@@ -15335,21 +15480,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="306" t="s">
+      <c r="A1" s="287" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="306"/>
-      <c r="C1" s="306"/>
-      <c r="D1" s="306"/>
-      <c r="E1" s="306"/>
+      <c r="B1" s="287"/>
+      <c r="C1" s="287"/>
+      <c r="D1" s="287"/>
+      <c r="E1" s="287"/>
       <c r="F1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="352" t="str">
+      <c r="G1" s="372" t="str">
         <f>'Update History'!D1</f>
         <v>ASOFT - ERP.NET</v>
       </c>
-      <c r="H1" s="352"/>
+      <c r="H1" s="372"/>
       <c r="I1" s="26" t="s">
         <v>3</v>
       </c>
@@ -15367,29 +15512,29 @@
       <c r="M1" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="N1" s="364" t="str">
+      <c r="N1" s="349" t="str">
         <f>'Update History'!J1</f>
         <v>Tấn Đạt</v>
       </c>
-      <c r="O1" s="365"/>
-      <c r="P1" s="366"/>
+      <c r="O1" s="350"/>
+      <c r="P1" s="351"/>
       <c r="Q1" s="46"/>
       <c r="R1" s="46"/>
     </row>
     <row r="2" spans="1:18" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="306"/>
-      <c r="B2" s="306"/>
-      <c r="C2" s="306"/>
-      <c r="D2" s="306"/>
-      <c r="E2" s="306"/>
+      <c r="A2" s="287"/>
+      <c r="B2" s="287"/>
+      <c r="C2" s="287"/>
+      <c r="D2" s="287"/>
+      <c r="E2" s="287"/>
       <c r="F2" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="352" t="str">
+      <c r="G2" s="372" t="str">
         <f>'Update History'!D2</f>
         <v>ASOFT-CRM</v>
       </c>
-      <c r="H2" s="352"/>
+      <c r="H2" s="372"/>
       <c r="I2" s="26" t="s">
         <v>49</v>
       </c>
@@ -15407,12 +15552,12 @@
       <c r="M2" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="N2" s="364" t="str">
+      <c r="N2" s="349" t="str">
         <f>'Update History'!J2</f>
         <v>26/01/2018</v>
       </c>
-      <c r="O2" s="365"/>
-      <c r="P2" s="366"/>
+      <c r="O2" s="350"/>
+      <c r="P2" s="351"/>
       <c r="Q2" s="46"/>
       <c r="R2" s="46"/>
     </row>
@@ -15438,12 +15583,12 @@
       <c r="G4" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="H4" s="356" t="s">
+      <c r="H4" s="376" t="s">
         <v>55</v>
       </c>
-      <c r="I4" s="357"/>
-      <c r="J4" s="357"/>
-      <c r="K4" s="358"/>
+      <c r="I4" s="377"/>
+      <c r="J4" s="377"/>
+      <c r="K4" s="378"/>
       <c r="L4" s="35" t="s">
         <v>56</v>
       </c>
@@ -15480,12 +15625,12 @@
       <c r="G5" s="113" t="s">
         <v>161</v>
       </c>
-      <c r="H5" s="353" t="s">
+      <c r="H5" s="373" t="s">
         <v>336</v>
       </c>
-      <c r="I5" s="354"/>
-      <c r="J5" s="354"/>
-      <c r="K5" s="355"/>
+      <c r="I5" s="374"/>
+      <c r="J5" s="374"/>
+      <c r="K5" s="375"/>
       <c r="L5" s="116" t="s">
         <v>293</v>
       </c>
@@ -15522,12 +15667,12 @@
       <c r="G6" s="113" t="s">
         <v>162</v>
       </c>
-      <c r="H6" s="381" t="s">
+      <c r="H6" s="366" t="s">
         <v>349</v>
       </c>
-      <c r="I6" s="382"/>
-      <c r="J6" s="382"/>
-      <c r="K6" s="383"/>
+      <c r="I6" s="367"/>
+      <c r="J6" s="367"/>
+      <c r="K6" s="368"/>
       <c r="L6" s="116" t="s">
         <v>307</v>
       </c>
@@ -15564,12 +15709,12 @@
       <c r="G7" s="113" t="s">
         <v>163</v>
       </c>
-      <c r="H7" s="381" t="s">
+      <c r="H7" s="366" t="s">
         <v>351</v>
       </c>
-      <c r="I7" s="382"/>
-      <c r="J7" s="382"/>
-      <c r="K7" s="383"/>
+      <c r="I7" s="367"/>
+      <c r="J7" s="367"/>
+      <c r="K7" s="368"/>
       <c r="L7" s="116" t="s">
         <v>334</v>
       </c>
@@ -15606,12 +15751,12 @@
       <c r="G8" s="113" t="s">
         <v>164</v>
       </c>
-      <c r="H8" s="367" t="s">
+      <c r="H8" s="352" t="s">
         <v>333</v>
       </c>
-      <c r="I8" s="368"/>
-      <c r="J8" s="368"/>
-      <c r="K8" s="369"/>
+      <c r="I8" s="353"/>
+      <c r="J8" s="353"/>
+      <c r="K8" s="354"/>
       <c r="L8" s="116" t="s">
         <v>307</v>
       </c>
@@ -15650,12 +15795,12 @@
       <c r="G9" s="113" t="s">
         <v>197</v>
       </c>
-      <c r="H9" s="378" t="s">
+      <c r="H9" s="363" t="s">
         <v>476</v>
       </c>
-      <c r="I9" s="379"/>
-      <c r="J9" s="379"/>
-      <c r="K9" s="380"/>
+      <c r="I9" s="364"/>
+      <c r="J9" s="364"/>
+      <c r="K9" s="365"/>
       <c r="L9" s="264" t="s">
         <v>477</v>
       </c>
@@ -15692,12 +15837,12 @@
       <c r="G10" s="113" t="s">
         <v>213</v>
       </c>
-      <c r="H10" s="367" t="s">
+      <c r="H10" s="352" t="s">
         <v>169</v>
       </c>
-      <c r="I10" s="368"/>
-      <c r="J10" s="368"/>
-      <c r="K10" s="369"/>
+      <c r="I10" s="353"/>
+      <c r="J10" s="353"/>
+      <c r="K10" s="354"/>
       <c r="L10" s="116" t="s">
         <v>170</v>
       </c>
@@ -15708,7 +15853,7 @@
       <c r="O10" s="115" t="s">
         <v>158</v>
       </c>
-      <c r="P10" s="370"/>
+      <c r="P10" s="355"/>
     </row>
     <row r="11" spans="1:18" ht="78.75">
       <c r="A11" s="106">
@@ -15730,12 +15875,12 @@
       <c r="G11" s="113" t="s">
         <v>160</v>
       </c>
-      <c r="H11" s="375" t="s">
+      <c r="H11" s="360" t="s">
         <v>386</v>
       </c>
-      <c r="I11" s="376"/>
-      <c r="J11" s="376"/>
-      <c r="K11" s="377"/>
+      <c r="I11" s="361"/>
+      <c r="J11" s="361"/>
+      <c r="K11" s="362"/>
       <c r="L11" s="116" t="s">
         <v>295</v>
       </c>
@@ -15746,7 +15891,7 @@
       <c r="O11" s="115" t="s">
         <v>158</v>
       </c>
-      <c r="P11" s="371"/>
+      <c r="P11" s="356"/>
     </row>
     <row r="12" spans="1:18" ht="63" customHeight="1">
       <c r="A12" s="106">
@@ -15768,12 +15913,12 @@
       <c r="G12" s="113" t="s">
         <v>303</v>
       </c>
-      <c r="H12" s="367" t="s">
+      <c r="H12" s="352" t="s">
         <v>309</v>
       </c>
-      <c r="I12" s="368"/>
-      <c r="J12" s="368"/>
-      <c r="K12" s="369"/>
+      <c r="I12" s="353"/>
+      <c r="J12" s="353"/>
+      <c r="K12" s="354"/>
       <c r="L12" s="116" t="s">
         <v>310</v>
       </c>
@@ -15808,12 +15953,12 @@
       <c r="G13" s="113" t="s">
         <v>304</v>
       </c>
-      <c r="H13" s="367" t="s">
+      <c r="H13" s="352" t="s">
         <v>312</v>
       </c>
-      <c r="I13" s="368"/>
-      <c r="J13" s="368"/>
-      <c r="K13" s="369"/>
+      <c r="I13" s="353"/>
+      <c r="J13" s="353"/>
+      <c r="K13" s="354"/>
       <c r="L13" s="116" t="s">
         <v>313</v>
       </c>
@@ -15848,12 +15993,12 @@
       <c r="G14" s="113" t="s">
         <v>305</v>
       </c>
-      <c r="H14" s="367" t="s">
+      <c r="H14" s="352" t="s">
         <v>315</v>
       </c>
-      <c r="I14" s="368"/>
-      <c r="J14" s="368"/>
-      <c r="K14" s="369"/>
+      <c r="I14" s="353"/>
+      <c r="J14" s="353"/>
+      <c r="K14" s="354"/>
       <c r="L14" s="116" t="s">
         <v>316</v>
       </c>
@@ -15888,12 +16033,12 @@
       <c r="G15" s="113" t="s">
         <v>306</v>
       </c>
-      <c r="H15" s="372" t="s">
+      <c r="H15" s="357" t="s">
         <v>202</v>
       </c>
-      <c r="I15" s="373"/>
-      <c r="J15" s="373"/>
-      <c r="K15" s="374"/>
+      <c r="I15" s="358"/>
+      <c r="J15" s="358"/>
+      <c r="K15" s="359"/>
       <c r="L15" s="135" t="s">
         <v>203</v>
       </c>
@@ -15930,12 +16075,12 @@
       <c r="G16" s="154" t="s">
         <v>343</v>
       </c>
-      <c r="H16" s="351" t="s">
+      <c r="H16" s="371" t="s">
         <v>344</v>
       </c>
-      <c r="I16" s="351"/>
-      <c r="J16" s="351"/>
-      <c r="K16" s="351"/>
+      <c r="I16" s="371"/>
+      <c r="J16" s="371"/>
+      <c r="K16" s="371"/>
       <c r="L16" s="155" t="s">
         <v>345</v>
       </c>
@@ -15972,12 +16117,12 @@
       <c r="G17" s="188" t="s">
         <v>423</v>
       </c>
-      <c r="H17" s="359" t="s">
+      <c r="H17" s="379" t="s">
         <v>443</v>
       </c>
-      <c r="I17" s="360"/>
-      <c r="J17" s="360"/>
-      <c r="K17" s="361"/>
+      <c r="I17" s="380"/>
+      <c r="J17" s="380"/>
+      <c r="K17" s="381"/>
       <c r="L17" s="188" t="s">
         <v>289</v>
       </c>
@@ -16016,12 +16161,12 @@
       <c r="G18" s="188" t="s">
         <v>431</v>
       </c>
-      <c r="H18" s="359" t="s">
+      <c r="H18" s="379" t="s">
         <v>452</v>
       </c>
-      <c r="I18" s="360"/>
-      <c r="J18" s="360"/>
-      <c r="K18" s="361"/>
+      <c r="I18" s="380"/>
+      <c r="J18" s="380"/>
+      <c r="K18" s="381"/>
       <c r="L18" s="188" t="s">
         <v>293</v>
       </c>
@@ -16060,12 +16205,12 @@
       <c r="G19" s="243" t="s">
         <v>442</v>
       </c>
-      <c r="H19" s="362" t="s">
+      <c r="H19" s="382" t="s">
         <v>432</v>
       </c>
-      <c r="I19" s="363"/>
-      <c r="J19" s="363"/>
-      <c r="K19" s="363"/>
+      <c r="I19" s="383"/>
+      <c r="J19" s="383"/>
+      <c r="K19" s="383"/>
       <c r="L19" s="244" t="s">
         <v>289</v>
       </c>
@@ -16104,12 +16249,12 @@
       <c r="G20" s="214" t="s">
         <v>450</v>
       </c>
-      <c r="H20" s="349" t="s">
+      <c r="H20" s="369" t="s">
         <v>444</v>
       </c>
-      <c r="I20" s="350"/>
-      <c r="J20" s="350"/>
-      <c r="K20" s="350"/>
+      <c r="I20" s="370"/>
+      <c r="J20" s="370"/>
+      <c r="K20" s="370"/>
       <c r="L20" s="229" t="s">
         <v>445</v>
       </c>
@@ -16300,6 +16445,16 @@
   </sheetData>
   <dataConsolidate link="1"/>
   <mergeCells count="23">
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="A1:E2"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="H4:K4"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="H19:K19"/>
     <mergeCell ref="N1:P1"/>
     <mergeCell ref="N2:P2"/>
     <mergeCell ref="H8:K8"/>
@@ -16313,16 +16468,6 @@
     <mergeCell ref="H12:K12"/>
     <mergeCell ref="H13:K13"/>
     <mergeCell ref="H14:K14"/>
-    <mergeCell ref="H20:K20"/>
-    <mergeCell ref="H16:K16"/>
-    <mergeCell ref="A1:E2"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="H4:K4"/>
-    <mergeCell ref="H18:K18"/>
-    <mergeCell ref="H17:K17"/>
-    <mergeCell ref="H19:K19"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="N1048229:N1048576 N15:N16"/>
@@ -16349,10 +16494,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K185"/>
+  <dimension ref="A1:K189"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A127" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F121" sqref="F121"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A97" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A126" sqref="A126:XFD126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -16369,10 +16514,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="12" customHeight="1">
-      <c r="A1" s="306" t="s">
+      <c r="A1" s="287" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="306"/>
+      <c r="B1" s="287"/>
       <c r="C1" s="30" t="s">
         <v>1</v>
       </c>
@@ -16403,8 +16548,8 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="12" customHeight="1">
-      <c r="A2" s="306"/>
-      <c r="B2" s="306"/>
+      <c r="A2" s="287"/>
+      <c r="B2" s="287"/>
       <c r="C2" s="30" t="s">
         <v>2</v>
       </c>
@@ -16629,7 +16774,7 @@
       <c r="K18" s="39"/>
     </row>
     <row r="19" spans="1:11" s="181" customFormat="1" ht="12" customHeight="1">
-      <c r="A19" s="391" t="s">
+      <c r="A19" s="385" t="s">
         <v>472</v>
       </c>
       <c r="B19" s="251" t="s">
@@ -16646,7 +16791,7 @@
       <c r="K19" s="251"/>
     </row>
     <row r="20" spans="1:11" s="181" customFormat="1" ht="12" customHeight="1">
-      <c r="A20" s="392"/>
+      <c r="A20" s="386"/>
       <c r="B20" s="251" t="s">
         <v>474</v>
       </c>
@@ -16730,66 +16875,66 @@
     <row r="26" spans="1:11" ht="12" customHeight="1">
       <c r="A26" s="63"/>
       <c r="B26" s="39"/>
-      <c r="C26" s="390" t="s">
+      <c r="C26" s="384" t="s">
         <v>320</v>
       </c>
-      <c r="D26" s="390"/>
-      <c r="E26" s="390"/>
-      <c r="F26" s="390"/>
-      <c r="G26" s="390"/>
-      <c r="H26" s="390"/>
-      <c r="I26" s="390"/>
-      <c r="J26" s="390"/>
+      <c r="D26" s="384"/>
+      <c r="E26" s="384"/>
+      <c r="F26" s="384"/>
+      <c r="G26" s="384"/>
+      <c r="H26" s="384"/>
+      <c r="I26" s="384"/>
+      <c r="J26" s="384"/>
     </row>
     <row r="27" spans="1:11" ht="12" customHeight="1">
       <c r="A27" s="63"/>
       <c r="B27" s="39"/>
-      <c r="C27" s="390"/>
-      <c r="D27" s="390"/>
-      <c r="E27" s="390"/>
-      <c r="F27" s="390"/>
-      <c r="G27" s="390"/>
-      <c r="H27" s="390"/>
-      <c r="I27" s="390"/>
-      <c r="J27" s="390"/>
+      <c r="C27" s="384"/>
+      <c r="D27" s="384"/>
+      <c r="E27" s="384"/>
+      <c r="F27" s="384"/>
+      <c r="G27" s="384"/>
+      <c r="H27" s="384"/>
+      <c r="I27" s="384"/>
+      <c r="J27" s="384"/>
     </row>
     <row r="28" spans="1:11" ht="12" customHeight="1">
       <c r="A28" s="63"/>
       <c r="B28" s="39"/>
-      <c r="C28" s="390"/>
-      <c r="D28" s="390"/>
-      <c r="E28" s="390"/>
-      <c r="F28" s="390"/>
-      <c r="G28" s="390"/>
-      <c r="H28" s="390"/>
-      <c r="I28" s="390"/>
-      <c r="J28" s="390"/>
+      <c r="C28" s="384"/>
+      <c r="D28" s="384"/>
+      <c r="E28" s="384"/>
+      <c r="F28" s="384"/>
+      <c r="G28" s="384"/>
+      <c r="H28" s="384"/>
+      <c r="I28" s="384"/>
+      <c r="J28" s="384"/>
     </row>
     <row r="29" spans="1:11" ht="12" customHeight="1">
       <c r="A29" s="63"/>
       <c r="B29" s="39"/>
-      <c r="C29" s="390"/>
-      <c r="D29" s="390"/>
-      <c r="E29" s="390"/>
-      <c r="F29" s="390"/>
-      <c r="G29" s="390"/>
-      <c r="H29" s="390"/>
-      <c r="I29" s="390"/>
-      <c r="J29" s="390"/>
+      <c r="C29" s="384"/>
+      <c r="D29" s="384"/>
+      <c r="E29" s="384"/>
+      <c r="F29" s="384"/>
+      <c r="G29" s="384"/>
+      <c r="H29" s="384"/>
+      <c r="I29" s="384"/>
+      <c r="J29" s="384"/>
     </row>
     <row r="30" spans="1:11" ht="12" customHeight="1">
       <c r="A30" s="63"/>
       <c r="B30" s="39"/>
-      <c r="C30" s="390" t="s">
+      <c r="C30" s="384" t="s">
         <v>319</v>
       </c>
-      <c r="D30" s="390"/>
-      <c r="E30" s="390"/>
-      <c r="F30" s="390"/>
-      <c r="G30" s="390"/>
-      <c r="H30" s="390"/>
-      <c r="I30" s="390"/>
-      <c r="J30" s="390"/>
+      <c r="D30" s="384"/>
+      <c r="E30" s="384"/>
+      <c r="F30" s="384"/>
+      <c r="G30" s="384"/>
+      <c r="H30" s="384"/>
+      <c r="I30" s="384"/>
+      <c r="J30" s="384"/>
     </row>
     <row r="31" spans="1:11" ht="12" customHeight="1">
       <c r="A31" s="63"/>
@@ -16950,78 +17095,78 @@
     <row r="44" spans="1:10" ht="12" customHeight="1">
       <c r="A44" s="63"/>
       <c r="B44" s="39"/>
-      <c r="C44" s="390" t="s">
+      <c r="C44" s="384" t="s">
         <v>322</v>
       </c>
-      <c r="D44" s="390"/>
-      <c r="E44" s="390"/>
-      <c r="F44" s="390"/>
-      <c r="G44" s="390"/>
-      <c r="H44" s="390"/>
-      <c r="I44" s="390"/>
-      <c r="J44" s="390"/>
+      <c r="D44" s="384"/>
+      <c r="E44" s="384"/>
+      <c r="F44" s="384"/>
+      <c r="G44" s="384"/>
+      <c r="H44" s="384"/>
+      <c r="I44" s="384"/>
+      <c r="J44" s="384"/>
     </row>
     <row r="45" spans="1:10" ht="12" customHeight="1">
       <c r="A45" s="63"/>
       <c r="B45" s="39"/>
-      <c r="C45" s="390"/>
-      <c r="D45" s="390"/>
-      <c r="E45" s="390"/>
-      <c r="F45" s="390"/>
-      <c r="G45" s="390"/>
-      <c r="H45" s="390"/>
-      <c r="I45" s="390"/>
-      <c r="J45" s="390"/>
+      <c r="C45" s="384"/>
+      <c r="D45" s="384"/>
+      <c r="E45" s="384"/>
+      <c r="F45" s="384"/>
+      <c r="G45" s="384"/>
+      <c r="H45" s="384"/>
+      <c r="I45" s="384"/>
+      <c r="J45" s="384"/>
     </row>
     <row r="46" spans="1:10" ht="12" customHeight="1">
       <c r="A46" s="63"/>
       <c r="B46" s="39"/>
-      <c r="C46" s="390"/>
-      <c r="D46" s="390"/>
-      <c r="E46" s="390"/>
-      <c r="F46" s="390"/>
-      <c r="G46" s="390"/>
-      <c r="H46" s="390"/>
-      <c r="I46" s="390"/>
-      <c r="J46" s="390"/>
+      <c r="C46" s="384"/>
+      <c r="D46" s="384"/>
+      <c r="E46" s="384"/>
+      <c r="F46" s="384"/>
+      <c r="G46" s="384"/>
+      <c r="H46" s="384"/>
+      <c r="I46" s="384"/>
+      <c r="J46" s="384"/>
     </row>
     <row r="47" spans="1:10" ht="12" customHeight="1">
       <c r="A47" s="63"/>
       <c r="B47" s="39"/>
-      <c r="C47" s="390"/>
-      <c r="D47" s="390"/>
-      <c r="E47" s="390"/>
-      <c r="F47" s="390"/>
-      <c r="G47" s="390"/>
-      <c r="H47" s="390"/>
-      <c r="I47" s="390"/>
-      <c r="J47" s="390"/>
+      <c r="C47" s="384"/>
+      <c r="D47" s="384"/>
+      <c r="E47" s="384"/>
+      <c r="F47" s="384"/>
+      <c r="G47" s="384"/>
+      <c r="H47" s="384"/>
+      <c r="I47" s="384"/>
+      <c r="J47" s="384"/>
     </row>
     <row r="48" spans="1:10" ht="12" customHeight="1">
       <c r="A48" s="63"/>
       <c r="B48" s="39"/>
-      <c r="C48" s="390"/>
-      <c r="D48" s="390"/>
-      <c r="E48" s="390"/>
-      <c r="F48" s="390"/>
-      <c r="G48" s="390"/>
-      <c r="H48" s="390"/>
-      <c r="I48" s="390"/>
-      <c r="J48" s="390"/>
+      <c r="C48" s="384"/>
+      <c r="D48" s="384"/>
+      <c r="E48" s="384"/>
+      <c r="F48" s="384"/>
+      <c r="G48" s="384"/>
+      <c r="H48" s="384"/>
+      <c r="I48" s="384"/>
+      <c r="J48" s="384"/>
     </row>
     <row r="49" spans="1:10" ht="12" customHeight="1">
       <c r="A49" s="63"/>
       <c r="B49" s="39"/>
-      <c r="C49" s="390" t="s">
+      <c r="C49" s="384" t="s">
         <v>323</v>
       </c>
-      <c r="D49" s="390"/>
-      <c r="E49" s="390"/>
-      <c r="F49" s="390"/>
-      <c r="G49" s="390"/>
-      <c r="H49" s="390"/>
-      <c r="I49" s="390"/>
-      <c r="J49" s="390"/>
+      <c r="D49" s="384"/>
+      <c r="E49" s="384"/>
+      <c r="F49" s="384"/>
+      <c r="G49" s="384"/>
+      <c r="H49" s="384"/>
+      <c r="I49" s="384"/>
+      <c r="J49" s="384"/>
     </row>
     <row r="50" spans="1:10" ht="12" customHeight="1">
       <c r="A50" s="63"/>
@@ -17182,78 +17327,78 @@
     <row r="63" spans="1:10" ht="12" customHeight="1">
       <c r="A63" s="63"/>
       <c r="B63" s="39"/>
-      <c r="C63" s="390" t="s">
+      <c r="C63" s="384" t="s">
         <v>324</v>
       </c>
-      <c r="D63" s="390"/>
-      <c r="E63" s="390"/>
-      <c r="F63" s="390"/>
-      <c r="G63" s="390"/>
-      <c r="H63" s="390"/>
-      <c r="I63" s="390"/>
-      <c r="J63" s="390"/>
+      <c r="D63" s="384"/>
+      <c r="E63" s="384"/>
+      <c r="F63" s="384"/>
+      <c r="G63" s="384"/>
+      <c r="H63" s="384"/>
+      <c r="I63" s="384"/>
+      <c r="J63" s="384"/>
     </row>
     <row r="64" spans="1:10" ht="12" customHeight="1">
       <c r="A64" s="63"/>
       <c r="B64" s="39"/>
-      <c r="C64" s="390"/>
-      <c r="D64" s="390"/>
-      <c r="E64" s="390"/>
-      <c r="F64" s="390"/>
-      <c r="G64" s="390"/>
-      <c r="H64" s="390"/>
-      <c r="I64" s="390"/>
-      <c r="J64" s="390"/>
+      <c r="C64" s="384"/>
+      <c r="D64" s="384"/>
+      <c r="E64" s="384"/>
+      <c r="F64" s="384"/>
+      <c r="G64" s="384"/>
+      <c r="H64" s="384"/>
+      <c r="I64" s="384"/>
+      <c r="J64" s="384"/>
     </row>
     <row r="65" spans="1:10" ht="12" customHeight="1">
       <c r="A65" s="63"/>
       <c r="B65" s="39"/>
-      <c r="C65" s="390"/>
-      <c r="D65" s="390"/>
-      <c r="E65" s="390"/>
-      <c r="F65" s="390"/>
-      <c r="G65" s="390"/>
-      <c r="H65" s="390"/>
-      <c r="I65" s="390"/>
-      <c r="J65" s="390"/>
+      <c r="C65" s="384"/>
+      <c r="D65" s="384"/>
+      <c r="E65" s="384"/>
+      <c r="F65" s="384"/>
+      <c r="G65" s="384"/>
+      <c r="H65" s="384"/>
+      <c r="I65" s="384"/>
+      <c r="J65" s="384"/>
     </row>
     <row r="66" spans="1:10" ht="12" customHeight="1">
       <c r="A66" s="63"/>
       <c r="B66" s="39"/>
-      <c r="C66" s="390"/>
-      <c r="D66" s="390"/>
-      <c r="E66" s="390"/>
-      <c r="F66" s="390"/>
-      <c r="G66" s="390"/>
-      <c r="H66" s="390"/>
-      <c r="I66" s="390"/>
-      <c r="J66" s="390"/>
+      <c r="C66" s="384"/>
+      <c r="D66" s="384"/>
+      <c r="E66" s="384"/>
+      <c r="F66" s="384"/>
+      <c r="G66" s="384"/>
+      <c r="H66" s="384"/>
+      <c r="I66" s="384"/>
+      <c r="J66" s="384"/>
     </row>
     <row r="67" spans="1:10" ht="12" customHeight="1">
       <c r="A67" s="63"/>
       <c r="B67" s="39"/>
-      <c r="C67" s="390"/>
-      <c r="D67" s="390"/>
-      <c r="E67" s="390"/>
-      <c r="F67" s="390"/>
-      <c r="G67" s="390"/>
-      <c r="H67" s="390"/>
-      <c r="I67" s="390"/>
-      <c r="J67" s="390"/>
+      <c r="C67" s="384"/>
+      <c r="D67" s="384"/>
+      <c r="E67" s="384"/>
+      <c r="F67" s="384"/>
+      <c r="G67" s="384"/>
+      <c r="H67" s="384"/>
+      <c r="I67" s="384"/>
+      <c r="J67" s="384"/>
     </row>
     <row r="68" spans="1:10" ht="12" customHeight="1">
       <c r="A68" s="63"/>
       <c r="B68" s="39"/>
-      <c r="C68" s="390" t="s">
+      <c r="C68" s="384" t="s">
         <v>325</v>
       </c>
-      <c r="D68" s="390"/>
-      <c r="E68" s="390"/>
-      <c r="F68" s="390"/>
-      <c r="G68" s="390"/>
-      <c r="H68" s="390"/>
-      <c r="I68" s="390"/>
-      <c r="J68" s="390"/>
+      <c r="D68" s="384"/>
+      <c r="E68" s="384"/>
+      <c r="F68" s="384"/>
+      <c r="G68" s="384"/>
+      <c r="H68" s="384"/>
+      <c r="I68" s="384"/>
+      <c r="J68" s="384"/>
     </row>
     <row r="69" spans="1:10" ht="12" customHeight="1">
       <c r="A69" s="63"/>
@@ -17401,28 +17546,28 @@
     <row r="81" spans="1:10" ht="12" customHeight="1">
       <c r="A81" s="63"/>
       <c r="B81" s="39"/>
-      <c r="C81" s="390" t="s">
+      <c r="C81" s="384" t="s">
         <v>326</v>
       </c>
-      <c r="D81" s="390"/>
-      <c r="E81" s="390"/>
-      <c r="F81" s="390"/>
-      <c r="G81" s="390"/>
-      <c r="H81" s="390"/>
-      <c r="I81" s="390"/>
-      <c r="J81" s="390"/>
+      <c r="D81" s="384"/>
+      <c r="E81" s="384"/>
+      <c r="F81" s="384"/>
+      <c r="G81" s="384"/>
+      <c r="H81" s="384"/>
+      <c r="I81" s="384"/>
+      <c r="J81" s="384"/>
     </row>
     <row r="82" spans="1:10" ht="12" customHeight="1">
       <c r="A82" s="63"/>
       <c r="B82" s="39"/>
-      <c r="C82" s="390"/>
-      <c r="D82" s="390"/>
-      <c r="E82" s="390"/>
-      <c r="F82" s="390"/>
-      <c r="G82" s="390"/>
-      <c r="H82" s="390"/>
-      <c r="I82" s="390"/>
-      <c r="J82" s="390"/>
+      <c r="C82" s="384"/>
+      <c r="D82" s="384"/>
+      <c r="E82" s="384"/>
+      <c r="F82" s="384"/>
+      <c r="G82" s="384"/>
+      <c r="H82" s="384"/>
+      <c r="I82" s="384"/>
+      <c r="J82" s="384"/>
     </row>
     <row r="83" spans="1:10" ht="12" customHeight="1">
       <c r="A83" s="63"/>
@@ -17488,7 +17633,7 @@
       <c r="J88" s="42"/>
     </row>
     <row r="89" spans="1:10" s="181" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A89" s="384" t="s">
+      <c r="A89" s="387" t="s">
         <v>472</v>
       </c>
       <c r="B89" s="251"/>
@@ -17504,7 +17649,7 @@
       <c r="J89" s="252"/>
     </row>
     <row r="90" spans="1:10" s="181" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A90" s="385"/>
+      <c r="A90" s="388"/>
       <c r="B90" s="251"/>
       <c r="C90" s="251"/>
       <c r="D90" s="251"/>
@@ -17516,7 +17661,7 @@
       <c r="J90" s="252"/>
     </row>
     <row r="91" spans="1:10" s="181" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A91" s="385"/>
+      <c r="A91" s="388"/>
       <c r="B91" s="251"/>
       <c r="C91" s="251"/>
       <c r="D91" s="251"/>
@@ -17528,7 +17673,7 @@
       <c r="J91" s="252"/>
     </row>
     <row r="92" spans="1:10" s="181" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A92" s="385"/>
+      <c r="A92" s="388"/>
       <c r="B92" s="251"/>
       <c r="C92" s="251"/>
       <c r="D92" s="251"/>
@@ -17540,7 +17685,7 @@
       <c r="J92" s="252"/>
     </row>
     <row r="93" spans="1:10" s="181" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A93" s="385"/>
+      <c r="A93" s="388"/>
       <c r="B93" s="251"/>
       <c r="C93" s="251"/>
       <c r="D93" s="251"/>
@@ -17552,7 +17697,7 @@
       <c r="J93" s="252"/>
     </row>
     <row r="94" spans="1:10" s="181" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A94" s="385"/>
+      <c r="A94" s="388"/>
       <c r="B94" s="251"/>
       <c r="C94" s="251"/>
       <c r="D94" s="251"/>
@@ -17564,7 +17709,7 @@
       <c r="J94" s="252"/>
     </row>
     <row r="95" spans="1:10" s="181" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A95" s="385"/>
+      <c r="A95" s="388"/>
       <c r="B95" s="251"/>
       <c r="C95" s="251"/>
       <c r="D95" s="251"/>
@@ -17576,7 +17721,7 @@
       <c r="J95" s="252"/>
     </row>
     <row r="96" spans="1:10" s="181" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A96" s="385"/>
+      <c r="A96" s="388"/>
       <c r="B96" s="251"/>
       <c r="C96" s="251"/>
       <c r="D96" s="251"/>
@@ -17588,7 +17733,7 @@
       <c r="J96" s="252"/>
     </row>
     <row r="97" spans="1:10" s="181" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A97" s="385"/>
+      <c r="A97" s="388"/>
       <c r="B97" s="251"/>
       <c r="C97" s="251"/>
       <c r="D97" s="251"/>
@@ -17600,7 +17745,7 @@
       <c r="J97" s="252"/>
     </row>
     <row r="98" spans="1:10" s="181" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A98" s="385"/>
+      <c r="A98" s="388"/>
       <c r="B98" s="251"/>
       <c r="C98" s="251"/>
       <c r="D98" s="251"/>
@@ -17612,7 +17757,7 @@
       <c r="J98" s="252"/>
     </row>
     <row r="99" spans="1:10" s="181" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A99" s="385"/>
+      <c r="A99" s="388"/>
       <c r="B99" s="251"/>
       <c r="C99" s="251"/>
       <c r="D99" s="251"/>
@@ -17624,7 +17769,7 @@
       <c r="J99" s="252"/>
     </row>
     <row r="100" spans="1:10" s="181" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A100" s="386"/>
+      <c r="A100" s="389"/>
       <c r="B100" s="251"/>
       <c r="C100" s="251"/>
       <c r="D100" s="251"/>
@@ -17648,7 +17793,7 @@
       <c r="J101" s="42"/>
     </row>
     <row r="102" spans="1:10" s="181" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A102" s="384" t="s">
+      <c r="A102" s="387" t="s">
         <v>472</v>
       </c>
       <c r="B102" s="251"/>
@@ -17664,7 +17809,7 @@
       <c r="J102" s="252"/>
     </row>
     <row r="103" spans="1:10" s="181" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A103" s="385"/>
+      <c r="A103" s="388"/>
       <c r="B103" s="251"/>
       <c r="C103" s="251" t="s">
         <v>464</v>
@@ -17678,7 +17823,7 @@
       <c r="J103" s="252"/>
     </row>
     <row r="104" spans="1:10" s="181" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A104" s="386"/>
+      <c r="A104" s="389"/>
       <c r="B104" s="251"/>
       <c r="C104" s="251" t="s">
         <v>465</v>
@@ -17704,7 +17849,7 @@
       <c r="J105" s="42"/>
     </row>
     <row r="106" spans="1:10" s="195" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A106" s="387" t="s">
+      <c r="A106" s="390" t="s">
         <v>475</v>
       </c>
       <c r="B106" s="248"/>
@@ -17720,7 +17865,7 @@
       <c r="J106" s="250"/>
     </row>
     <row r="107" spans="1:10" s="219" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A107" s="388"/>
+      <c r="A107" s="391"/>
       <c r="B107" s="222"/>
       <c r="C107" s="223"/>
       <c r="D107" s="222"/>
@@ -17732,7 +17877,7 @@
       <c r="J107" s="224"/>
     </row>
     <row r="108" spans="1:10" s="219" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A108" s="388"/>
+      <c r="A108" s="391"/>
       <c r="B108" s="222"/>
       <c r="C108" s="223"/>
       <c r="D108" s="222"/>
@@ -17744,7 +17889,7 @@
       <c r="J108" s="224"/>
     </row>
     <row r="109" spans="1:10" s="219" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A109" s="388"/>
+      <c r="A109" s="391"/>
       <c r="B109" s="222"/>
       <c r="C109" s="223"/>
       <c r="D109" s="222"/>
@@ -17756,7 +17901,7 @@
       <c r="J109" s="224"/>
     </row>
     <row r="110" spans="1:10" s="219" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A110" s="388"/>
+      <c r="A110" s="391"/>
       <c r="B110" s="222"/>
       <c r="C110" s="223"/>
       <c r="D110" s="222"/>
@@ -17768,7 +17913,7 @@
       <c r="J110" s="224"/>
     </row>
     <row r="111" spans="1:10" s="219" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A111" s="388"/>
+      <c r="A111" s="391"/>
       <c r="B111" s="222"/>
       <c r="C111" s="223"/>
       <c r="D111" s="222"/>
@@ -17780,7 +17925,7 @@
       <c r="J111" s="224"/>
     </row>
     <row r="112" spans="1:10" s="219" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A112" s="388"/>
+      <c r="A112" s="391"/>
       <c r="B112" s="222"/>
       <c r="C112" s="223"/>
       <c r="D112" s="222"/>
@@ -17792,7 +17937,7 @@
       <c r="J112" s="224"/>
     </row>
     <row r="113" spans="1:10" s="219" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A113" s="388"/>
+      <c r="A113" s="391"/>
       <c r="B113" s="222"/>
       <c r="C113" s="223"/>
       <c r="D113" s="222"/>
@@ -17804,7 +17949,7 @@
       <c r="J113" s="224"/>
     </row>
     <row r="114" spans="1:10" s="219" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A114" s="388"/>
+      <c r="A114" s="391"/>
       <c r="B114" s="222"/>
       <c r="C114" s="222"/>
       <c r="D114" s="222"/>
@@ -17816,7 +17961,7 @@
       <c r="J114" s="224"/>
     </row>
     <row r="115" spans="1:10" s="219" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A115" s="388"/>
+      <c r="A115" s="391"/>
       <c r="B115" s="222"/>
       <c r="C115" s="222"/>
       <c r="D115" s="222"/>
@@ -17828,7 +17973,7 @@
       <c r="J115" s="224"/>
     </row>
     <row r="116" spans="1:10" s="219" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A116" s="388"/>
+      <c r="A116" s="391"/>
       <c r="B116" s="222"/>
       <c r="C116" s="222"/>
       <c r="D116" s="222"/>
@@ -17840,7 +17985,7 @@
       <c r="J116" s="224"/>
     </row>
     <row r="117" spans="1:10" s="219" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A117" s="388"/>
+      <c r="A117" s="391"/>
       <c r="B117" s="222"/>
       <c r="C117" s="222"/>
       <c r="D117" s="222"/>
@@ -17852,7 +17997,7 @@
       <c r="J117" s="224"/>
     </row>
     <row r="118" spans="1:10" s="219" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A118" s="389"/>
+      <c r="A118" s="392"/>
       <c r="B118" s="222"/>
       <c r="C118" s="222"/>
       <c r="D118" s="222"/>
@@ -17876,7 +18021,7 @@
       <c r="J119" s="42"/>
     </row>
     <row r="120" spans="1:10" s="195" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A120" s="387" t="s">
+      <c r="A120" s="390" t="s">
         <v>475</v>
       </c>
       <c r="B120" s="248"/>
@@ -17892,7 +18037,7 @@
       <c r="J120" s="250"/>
     </row>
     <row r="121" spans="1:10" s="195" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A121" s="388"/>
+      <c r="A121" s="391"/>
       <c r="B121" s="248"/>
       <c r="C121" s="248" t="s">
         <v>468</v>
@@ -17906,7 +18051,7 @@
       <c r="J121" s="250"/>
     </row>
     <row r="122" spans="1:10" s="195" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A122" s="389"/>
+      <c r="A122" s="392"/>
       <c r="B122" s="248"/>
       <c r="C122" s="248" t="s">
         <v>469</v>
@@ -17959,12 +18104,10 @@
       <c r="I125" s="39"/>
       <c r="J125" s="42"/>
     </row>
-    <row r="126" spans="1:10" ht="12" customHeight="1">
-      <c r="A126" s="63" t="s">
-        <v>120</v>
-      </c>
+    <row r="126" spans="1:10" ht="11.25" customHeight="1">
+      <c r="A126" s="63"/>
       <c r="B126" s="39"/>
-      <c r="C126" s="70"/>
+      <c r="C126" s="39"/>
       <c r="D126" s="39"/>
       <c r="E126" s="39"/>
       <c r="F126" s="39"/>
@@ -17973,11 +18116,10 @@
       <c r="I126" s="39"/>
       <c r="J126" s="42"/>
     </row>
-    <row r="127" spans="1:10" ht="12" customHeight="1">
-      <c r="B127" s="67" t="s">
-        <v>118</v>
-      </c>
-      <c r="C127" s="70"/>
+    <row r="127" spans="1:10" ht="11.25" customHeight="1">
+      <c r="A127" s="63"/>
+      <c r="B127" s="39"/>
+      <c r="C127" s="39"/>
       <c r="D127" s="39"/>
       <c r="E127" s="39"/>
       <c r="F127" s="39"/>
@@ -17986,9 +18128,10 @@
       <c r="I127" s="39"/>
       <c r="J127" s="42"/>
     </row>
-    <row r="128" spans="1:10" ht="12" customHeight="1">
+    <row r="128" spans="1:10" ht="11.25" customHeight="1">
+      <c r="A128" s="63"/>
       <c r="B128" s="39"/>
-      <c r="C128" s="70"/>
+      <c r="C128" s="39"/>
       <c r="D128" s="39"/>
       <c r="E128" s="39"/>
       <c r="F128" s="39"/>
@@ -17997,9 +18140,10 @@
       <c r="I128" s="39"/>
       <c r="J128" s="42"/>
     </row>
-    <row r="129" spans="1:10" ht="12" customHeight="1">
+    <row r="129" spans="1:10" ht="11.25" customHeight="1">
+      <c r="A129" s="63"/>
       <c r="B129" s="39"/>
-      <c r="C129" s="70"/>
+      <c r="C129" s="39"/>
       <c r="D129" s="39"/>
       <c r="E129" s="39"/>
       <c r="F129" s="39"/>
@@ -18009,10 +18153,11 @@
       <c r="J129" s="42"/>
     </row>
     <row r="130" spans="1:10" ht="12" customHeight="1">
-      <c r="B130" s="67" t="s">
-        <v>119</v>
-      </c>
-      <c r="C130" s="39"/>
+      <c r="A130" s="63" t="s">
+        <v>120</v>
+      </c>
+      <c r="B130" s="39"/>
+      <c r="C130" s="70"/>
       <c r="D130" s="39"/>
       <c r="E130" s="39"/>
       <c r="F130" s="39"/>
@@ -18022,7 +18167,9 @@
       <c r="J130" s="42"/>
     </row>
     <row r="131" spans="1:10" ht="12" customHeight="1">
-      <c r="B131" s="67"/>
+      <c r="B131" s="67" t="s">
+        <v>118</v>
+      </c>
       <c r="C131" s="70"/>
       <c r="D131" s="39"/>
       <c r="E131" s="39"/>
@@ -18033,9 +18180,8 @@
       <c r="J131" s="42"/>
     </row>
     <row r="132" spans="1:10" ht="12" customHeight="1">
-      <c r="A132" s="38"/>
       <c r="B132" s="39"/>
-      <c r="C132" s="39"/>
+      <c r="C132" s="70"/>
       <c r="D132" s="39"/>
       <c r="E132" s="39"/>
       <c r="F132" s="39"/>
@@ -18045,9 +18191,6 @@
       <c r="J132" s="42"/>
     </row>
     <row r="133" spans="1:10" ht="12" customHeight="1">
-      <c r="A133" s="63" t="s">
-        <v>121</v>
-      </c>
       <c r="B133" s="39"/>
       <c r="C133" s="70"/>
       <c r="D133" s="39"/>
@@ -18060,9 +18203,9 @@
     </row>
     <row r="134" spans="1:10" ht="12" customHeight="1">
       <c r="B134" s="67" t="s">
-        <v>118</v>
-      </c>
-      <c r="C134" s="70"/>
+        <v>119</v>
+      </c>
+      <c r="C134" s="39"/>
       <c r="D134" s="39"/>
       <c r="E134" s="39"/>
       <c r="F134" s="39"/>
@@ -18072,7 +18215,7 @@
       <c r="J134" s="42"/>
     </row>
     <row r="135" spans="1:10" ht="12" customHeight="1">
-      <c r="B135" s="39"/>
+      <c r="B135" s="67"/>
       <c r="C135" s="70"/>
       <c r="D135" s="39"/>
       <c r="E135" s="39"/>
@@ -18083,8 +18226,9 @@
       <c r="J135" s="42"/>
     </row>
     <row r="136" spans="1:10" ht="12" customHeight="1">
+      <c r="A136" s="38"/>
       <c r="B136" s="39"/>
-      <c r="C136" s="70"/>
+      <c r="C136" s="39"/>
       <c r="D136" s="39"/>
       <c r="E136" s="39"/>
       <c r="F136" s="39"/>
@@ -18094,10 +18238,11 @@
       <c r="J136" s="42"/>
     </row>
     <row r="137" spans="1:10" ht="12" customHeight="1">
-      <c r="B137" s="67" t="s">
-        <v>119</v>
-      </c>
-      <c r="C137" s="39"/>
+      <c r="A137" s="63" t="s">
+        <v>121</v>
+      </c>
+      <c r="B137" s="39"/>
+      <c r="C137" s="70"/>
       <c r="D137" s="39"/>
       <c r="E137" s="39"/>
       <c r="F137" s="39"/>
@@ -18107,25 +18252,21 @@
       <c r="J137" s="42"/>
     </row>
     <row r="138" spans="1:10" ht="12" customHeight="1">
-      <c r="A138" s="157" t="s">
-        <v>340</v>
-      </c>
-      <c r="B138" s="158" t="s">
-        <v>347</v>
-      </c>
-      <c r="C138" s="159"/>
-      <c r="D138" s="160"/>
-      <c r="E138" s="160"/>
-      <c r="F138" s="160"/>
-      <c r="G138" s="160"/>
-      <c r="H138" s="160"/>
-      <c r="I138" s="160"/>
-      <c r="J138" s="161"/>
+      <c r="B138" s="67" t="s">
+        <v>118</v>
+      </c>
+      <c r="C138" s="70"/>
+      <c r="D138" s="39"/>
+      <c r="E138" s="39"/>
+      <c r="F138" s="39"/>
+      <c r="G138" s="39"/>
+      <c r="H138" s="39"/>
+      <c r="I138" s="39"/>
+      <c r="J138" s="42"/>
     </row>
     <row r="139" spans="1:10" ht="12" customHeight="1">
-      <c r="A139" s="38"/>
-      <c r="B139" s="70"/>
-      <c r="C139" s="39"/>
+      <c r="B139" s="39"/>
+      <c r="C139" s="70"/>
       <c r="D139" s="39"/>
       <c r="E139" s="39"/>
       <c r="F139" s="39"/>
@@ -18135,9 +18276,6 @@
       <c r="J139" s="42"/>
     </row>
     <row r="140" spans="1:10" ht="12" customHeight="1">
-      <c r="A140" s="63" t="s">
-        <v>122</v>
-      </c>
       <c r="B140" s="39"/>
       <c r="C140" s="70"/>
       <c r="D140" s="39"/>
@@ -18150,9 +18288,9 @@
     </row>
     <row r="141" spans="1:10" ht="12" customHeight="1">
       <c r="B141" s="67" t="s">
-        <v>123</v>
-      </c>
-      <c r="C141" s="70"/>
+        <v>119</v>
+      </c>
+      <c r="C141" s="39"/>
       <c r="D141" s="39"/>
       <c r="E141" s="39"/>
       <c r="F141" s="39"/>
@@ -18162,19 +18300,25 @@
       <c r="J141" s="42"/>
     </row>
     <row r="142" spans="1:10" ht="12" customHeight="1">
-      <c r="B142" s="67"/>
-      <c r="C142" s="70"/>
-      <c r="D142" s="39"/>
-      <c r="E142" s="39"/>
-      <c r="F142" s="39"/>
-      <c r="G142" s="39"/>
-      <c r="H142" s="39"/>
-      <c r="I142" s="39"/>
-      <c r="J142" s="42"/>
+      <c r="A142" s="157" t="s">
+        <v>340</v>
+      </c>
+      <c r="B142" s="158" t="s">
+        <v>347</v>
+      </c>
+      <c r="C142" s="159"/>
+      <c r="D142" s="160"/>
+      <c r="E142" s="160"/>
+      <c r="F142" s="160"/>
+      <c r="G142" s="160"/>
+      <c r="H142" s="160"/>
+      <c r="I142" s="160"/>
+      <c r="J142" s="161"/>
     </row>
     <row r="143" spans="1:10" ht="12" customHeight="1">
-      <c r="B143" s="39"/>
-      <c r="C143" s="70"/>
+      <c r="A143" s="38"/>
+      <c r="B143" s="70"/>
+      <c r="C143" s="39"/>
       <c r="D143" s="39"/>
       <c r="E143" s="39"/>
       <c r="F143" s="39"/>
@@ -18184,10 +18328,11 @@
       <c r="J143" s="42"/>
     </row>
     <row r="144" spans="1:10" ht="12" customHeight="1">
-      <c r="B144" s="67" t="s">
-        <v>124</v>
-      </c>
-      <c r="C144" s="39"/>
+      <c r="A144" s="63" t="s">
+        <v>122</v>
+      </c>
+      <c r="B144" s="39"/>
+      <c r="C144" s="70"/>
       <c r="D144" s="39"/>
       <c r="E144" s="39"/>
       <c r="F144" s="39"/>
@@ -18197,8 +18342,10 @@
       <c r="J144" s="42"/>
     </row>
     <row r="145" spans="1:10" ht="12" customHeight="1">
-      <c r="B145" s="67"/>
-      <c r="C145" s="39"/>
+      <c r="B145" s="67" t="s">
+        <v>123</v>
+      </c>
+      <c r="C145" s="70"/>
       <c r="D145" s="39"/>
       <c r="E145" s="39"/>
       <c r="F145" s="39"/>
@@ -18208,10 +18355,7 @@
       <c r="J145" s="42"/>
     </row>
     <row r="146" spans="1:10" ht="12" customHeight="1">
-      <c r="A146" s="63" t="s">
-        <v>125</v>
-      </c>
-      <c r="B146" s="39"/>
+      <c r="B146" s="67"/>
       <c r="C146" s="70"/>
       <c r="D146" s="39"/>
       <c r="E146" s="39"/>
@@ -18222,7 +18366,7 @@
       <c r="J146" s="42"/>
     </row>
     <row r="147" spans="1:10" ht="12" customHeight="1">
-      <c r="B147" s="67"/>
+      <c r="B147" s="39"/>
       <c r="C147" s="70"/>
       <c r="D147" s="39"/>
       <c r="E147" s="39"/>
@@ -18233,8 +18377,10 @@
       <c r="J147" s="42"/>
     </row>
     <row r="148" spans="1:10" ht="12" customHeight="1">
-      <c r="B148" s="39"/>
-      <c r="C148" s="70"/>
+      <c r="B148" s="67" t="s">
+        <v>124</v>
+      </c>
+      <c r="C148" s="39"/>
       <c r="D148" s="39"/>
       <c r="E148" s="39"/>
       <c r="F148" s="39"/>
@@ -18255,8 +18401,11 @@
       <c r="J149" s="42"/>
     </row>
     <row r="150" spans="1:10" ht="12" customHeight="1">
-      <c r="B150" s="67"/>
-      <c r="C150" s="39"/>
+      <c r="A150" s="63" t="s">
+        <v>125</v>
+      </c>
+      <c r="B150" s="39"/>
+      <c r="C150" s="70"/>
       <c r="D150" s="39"/>
       <c r="E150" s="39"/>
       <c r="F150" s="39"/>
@@ -18266,8 +18415,8 @@
       <c r="J150" s="42"/>
     </row>
     <row r="151" spans="1:10" ht="12" customHeight="1">
-      <c r="B151" s="39"/>
-      <c r="C151" s="39"/>
+      <c r="B151" s="67"/>
+      <c r="C151" s="70"/>
       <c r="D151" s="39"/>
       <c r="E151" s="39"/>
       <c r="F151" s="39"/>
@@ -18278,7 +18427,7 @@
     </row>
     <row r="152" spans="1:10" ht="12" customHeight="1">
       <c r="B152" s="39"/>
-      <c r="C152" s="39"/>
+      <c r="C152" s="70"/>
       <c r="D152" s="39"/>
       <c r="E152" s="39"/>
       <c r="F152" s="39"/>
@@ -18299,9 +18448,8 @@
       <c r="J153" s="42"/>
     </row>
     <row r="154" spans="1:10" ht="12" customHeight="1">
-      <c r="A154" s="38"/>
-      <c r="B154" s="39"/>
-      <c r="C154" s="70"/>
+      <c r="B154" s="67"/>
+      <c r="C154" s="39"/>
       <c r="D154" s="39"/>
       <c r="E154" s="39"/>
       <c r="F154" s="39"/>
@@ -18311,9 +18459,8 @@
       <c r="J154" s="42"/>
     </row>
     <row r="155" spans="1:10" ht="12" customHeight="1">
-      <c r="A155" s="38"/>
       <c r="B155" s="39"/>
-      <c r="C155" s="70"/>
+      <c r="C155" s="39"/>
       <c r="D155" s="39"/>
       <c r="E155" s="39"/>
       <c r="F155" s="39"/>
@@ -18323,9 +18470,8 @@
       <c r="J155" s="42"/>
     </row>
     <row r="156" spans="1:10" ht="12" customHeight="1">
-      <c r="A156" s="38"/>
       <c r="B156" s="39"/>
-      <c r="C156" s="70"/>
+      <c r="C156" s="39"/>
       <c r="D156" s="39"/>
       <c r="E156" s="39"/>
       <c r="F156" s="39"/>
@@ -18335,8 +18481,7 @@
       <c r="J156" s="42"/>
     </row>
     <row r="157" spans="1:10" ht="12" customHeight="1">
-      <c r="A157" s="63"/>
-      <c r="B157" s="39"/>
+      <c r="B157" s="67"/>
       <c r="C157" s="39"/>
       <c r="D157" s="39"/>
       <c r="E157" s="39"/>
@@ -18347,8 +18492,9 @@
       <c r="J157" s="42"/>
     </row>
     <row r="158" spans="1:10" ht="12" customHeight="1">
-      <c r="B158" s="67"/>
-      <c r="C158" s="39"/>
+      <c r="A158" s="38"/>
+      <c r="B158" s="39"/>
+      <c r="C158" s="70"/>
       <c r="D158" s="39"/>
       <c r="E158" s="39"/>
       <c r="F158" s="39"/>
@@ -18358,8 +18504,9 @@
       <c r="J158" s="42"/>
     </row>
     <row r="159" spans="1:10" ht="12" customHeight="1">
+      <c r="A159" s="38"/>
       <c r="B159" s="39"/>
-      <c r="C159" s="39"/>
+      <c r="C159" s="70"/>
       <c r="D159" s="39"/>
       <c r="E159" s="39"/>
       <c r="F159" s="39"/>
@@ -18369,8 +18516,9 @@
       <c r="J159" s="42"/>
     </row>
     <row r="160" spans="1:10" ht="12" customHeight="1">
-      <c r="B160" s="67"/>
-      <c r="C160" s="39"/>
+      <c r="A160" s="38"/>
+      <c r="B160" s="39"/>
+      <c r="C160" s="70"/>
       <c r="D160" s="39"/>
       <c r="E160" s="39"/>
       <c r="F160" s="39"/>
@@ -18380,7 +18528,7 @@
       <c r="J160" s="42"/>
     </row>
     <row r="161" spans="1:10" ht="12" customHeight="1">
-      <c r="A161" s="38"/>
+      <c r="A161" s="63"/>
       <c r="B161" s="39"/>
       <c r="C161" s="39"/>
       <c r="D161" s="39"/>
@@ -18392,8 +18540,7 @@
       <c r="J161" s="42"/>
     </row>
     <row r="162" spans="1:10" ht="12" customHeight="1">
-      <c r="A162" s="63"/>
-      <c r="B162" s="39"/>
+      <c r="B162" s="67"/>
       <c r="C162" s="39"/>
       <c r="D162" s="39"/>
       <c r="E162" s="39"/>
@@ -18404,7 +18551,6 @@
       <c r="J162" s="42"/>
     </row>
     <row r="163" spans="1:10" ht="12" customHeight="1">
-      <c r="A163" s="38"/>
       <c r="B163" s="39"/>
       <c r="C163" s="39"/>
       <c r="D163" s="39"/>
@@ -18416,8 +18562,7 @@
       <c r="J163" s="42"/>
     </row>
     <row r="164" spans="1:10" ht="12" customHeight="1">
-      <c r="A164" s="38"/>
-      <c r="B164" s="39"/>
+      <c r="B164" s="67"/>
       <c r="C164" s="39"/>
       <c r="D164" s="39"/>
       <c r="E164" s="39"/>
@@ -18440,7 +18585,7 @@
       <c r="J165" s="42"/>
     </row>
     <row r="166" spans="1:10" ht="12" customHeight="1">
-      <c r="A166" s="38"/>
+      <c r="A166" s="63"/>
       <c r="B166" s="39"/>
       <c r="C166" s="39"/>
       <c r="D166" s="39"/>
@@ -18668,25 +18813,67 @@
       <c r="J184" s="42"/>
     </row>
     <row r="185" spans="1:10" ht="12" customHeight="1">
-      <c r="A185" s="43"/>
-      <c r="B185" s="44"/>
-      <c r="C185" s="44"/>
-      <c r="D185" s="44"/>
-      <c r="E185" s="44"/>
-      <c r="F185" s="44"/>
-      <c r="G185" s="44"/>
-      <c r="H185" s="44"/>
-      <c r="I185" s="44"/>
-      <c r="J185" s="51"/>
+      <c r="A185" s="38"/>
+      <c r="B185" s="39"/>
+      <c r="C185" s="39"/>
+      <c r="D185" s="39"/>
+      <c r="E185" s="39"/>
+      <c r="F185" s="39"/>
+      <c r="G185" s="39"/>
+      <c r="H185" s="39"/>
+      <c r="I185" s="39"/>
+      <c r="J185" s="42"/>
+    </row>
+    <row r="186" spans="1:10" ht="12" customHeight="1">
+      <c r="A186" s="38"/>
+      <c r="B186" s="39"/>
+      <c r="C186" s="39"/>
+      <c r="D186" s="39"/>
+      <c r="E186" s="39"/>
+      <c r="F186" s="39"/>
+      <c r="G186" s="39"/>
+      <c r="H186" s="39"/>
+      <c r="I186" s="39"/>
+      <c r="J186" s="42"/>
+    </row>
+    <row r="187" spans="1:10" ht="12" customHeight="1">
+      <c r="A187" s="38"/>
+      <c r="B187" s="39"/>
+      <c r="C187" s="39"/>
+      <c r="D187" s="39"/>
+      <c r="E187" s="39"/>
+      <c r="F187" s="39"/>
+      <c r="G187" s="39"/>
+      <c r="H187" s="39"/>
+      <c r="I187" s="39"/>
+      <c r="J187" s="42"/>
+    </row>
+    <row r="188" spans="1:10" ht="12" customHeight="1">
+      <c r="A188" s="38"/>
+      <c r="B188" s="39"/>
+      <c r="C188" s="39"/>
+      <c r="D188" s="39"/>
+      <c r="E188" s="39"/>
+      <c r="F188" s="39"/>
+      <c r="G188" s="39"/>
+      <c r="H188" s="39"/>
+      <c r="I188" s="39"/>
+      <c r="J188" s="42"/>
+    </row>
+    <row r="189" spans="1:10" ht="12" customHeight="1">
+      <c r="A189" s="43"/>
+      <c r="B189" s="44"/>
+      <c r="C189" s="44"/>
+      <c r="D189" s="44"/>
+      <c r="E189" s="44"/>
+      <c r="F189" s="44"/>
+      <c r="G189" s="44"/>
+      <c r="H189" s="44"/>
+      <c r="I189" s="44"/>
+      <c r="J189" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C26:J29"/>
-    <mergeCell ref="C30:J30"/>
-    <mergeCell ref="C44:J48"/>
-    <mergeCell ref="C49:J49"/>
-    <mergeCell ref="A19:A20"/>
     <mergeCell ref="A89:A100"/>
     <mergeCell ref="A102:A104"/>
     <mergeCell ref="A106:A118"/>
@@ -18694,6 +18881,12 @@
     <mergeCell ref="C63:J67"/>
     <mergeCell ref="C68:J68"/>
     <mergeCell ref="C81:J82"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C26:J29"/>
+    <mergeCell ref="C30:J30"/>
+    <mergeCell ref="C44:J48"/>
+    <mergeCell ref="C49:J49"/>
+    <mergeCell ref="A19:A20"/>
   </mergeCells>
   <pageMargins left="0.3" right="0.3" top="0.6" bottom="0.3" header="0.1" footer="0.1"/>
   <pageSetup paperSize="9" scale="45" orientation="landscape" r:id="rId1"/>
@@ -18702,7 +18895,7 @@
     <oddFooter>&amp;L&amp;"Ta,Regular"&amp;10CONFIDENTIAL&amp;C&amp;"Tahoma,Regular"&amp;10&amp;P&amp;R&amp;"Tahoma,Regular"&amp;10© 2010 ASOFT JSC. All rights reserved.</oddFooter>
   </headerFooter>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="163" max="9" man="1"/>
+    <brk id="167" max="9" man="1"/>
   </rowBreaks>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
@@ -18731,10 +18924,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="306" t="s">
+      <c r="A1" s="287" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="306"/>
+      <c r="B1" s="287"/>
       <c r="C1" s="30" t="s">
         <v>1</v>
       </c>
@@ -18765,8 +18958,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="306"/>
-      <c r="B2" s="306"/>
+      <c r="A2" s="287"/>
+      <c r="B2" s="287"/>
       <c r="C2" s="30" t="s">
         <v>2</v>
       </c>
